--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.391584</v>
+        <v>0.701579</v>
       </c>
       <c r="C2" t="n">
-        <v>0.392598</v>
+        <v>0.716349</v>
       </c>
       <c r="D2" t="n">
-        <v>0.382304</v>
+        <v>0.731129</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.380884</v>
+        <v>0.689649</v>
       </c>
       <c r="C3" t="n">
-        <v>0.385025</v>
+        <v>0.700088</v>
       </c>
       <c r="D3" t="n">
-        <v>0.37496</v>
+        <v>0.715343</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.373494</v>
+        <v>0.679308</v>
       </c>
       <c r="C4" t="n">
-        <v>0.378247</v>
+        <v>0.68615</v>
       </c>
       <c r="D4" t="n">
-        <v>0.369567</v>
+        <v>0.701783</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.36751</v>
+        <v>0.671131</v>
       </c>
       <c r="C5" t="n">
-        <v>0.372957</v>
+        <v>0.672618</v>
       </c>
       <c r="D5" t="n">
-        <v>0.364991</v>
+        <v>0.690403</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.361405</v>
+        <v>0.663938</v>
       </c>
       <c r="C6" t="n">
-        <v>0.368941</v>
+        <v>0.659963</v>
       </c>
       <c r="D6" t="n">
-        <v>0.36173</v>
+        <v>0.679489</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.356886</v>
+        <v>0.658951</v>
       </c>
       <c r="C7" t="n">
-        <v>0.365007</v>
+        <v>0.649663</v>
       </c>
       <c r="D7" t="n">
-        <v>0.359544</v>
+        <v>0.671445</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.353743</v>
+        <v>0.6577730000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.363047</v>
+        <v>0.641388</v>
       </c>
       <c r="D8" t="n">
-        <v>0.359659</v>
+        <v>0.666222</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.352371</v>
+        <v>0.661398</v>
       </c>
       <c r="C9" t="n">
-        <v>0.363004</v>
+        <v>0.636578</v>
       </c>
       <c r="D9" t="n">
-        <v>0.470035</v>
+        <v>0.894574</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.465872</v>
+        <v>0.819354</v>
       </c>
       <c r="C10" t="n">
-        <v>0.484264</v>
+        <v>0.868421</v>
       </c>
       <c r="D10" t="n">
-        <v>0.464697</v>
+        <v>0.878149</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.455071</v>
+        <v>0.800418</v>
       </c>
       <c r="C11" t="n">
-        <v>0.472942</v>
+        <v>0.845766</v>
       </c>
       <c r="D11" t="n">
-        <v>0.453685</v>
+        <v>0.856175</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.444348</v>
+        <v>0.782319</v>
       </c>
       <c r="C12" t="n">
-        <v>0.462494</v>
+        <v>0.823219</v>
       </c>
       <c r="D12" t="n">
-        <v>0.44359</v>
+        <v>0.835485</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.434172</v>
+        <v>0.76557</v>
       </c>
       <c r="C13" t="n">
-        <v>0.451761</v>
+        <v>0.802276</v>
       </c>
       <c r="D13" t="n">
-        <v>0.433379</v>
+        <v>0.814929</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.424406</v>
+        <v>0.749557</v>
       </c>
       <c r="C14" t="n">
-        <v>0.441275</v>
+        <v>0.782127</v>
       </c>
       <c r="D14" t="n">
-        <v>0.424468</v>
+        <v>0.796445</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.415113</v>
+        <v>0.735049</v>
       </c>
       <c r="C15" t="n">
-        <v>0.431945</v>
+        <v>0.763636</v>
       </c>
       <c r="D15" t="n">
-        <v>0.415627</v>
+        <v>0.778934</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.406507</v>
+        <v>0.721728</v>
       </c>
       <c r="C16" t="n">
-        <v>0.42273</v>
+        <v>0.7456469999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.407305</v>
+        <v>0.762194</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.398157</v>
+        <v>0.709145</v>
       </c>
       <c r="C17" t="n">
-        <v>0.414327</v>
+        <v>0.728951</v>
       </c>
       <c r="D17" t="n">
-        <v>0.40006</v>
+        <v>0.746569</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.390758</v>
+        <v>0.697867</v>
       </c>
       <c r="C18" t="n">
-        <v>0.407209</v>
+        <v>0.713134</v>
       </c>
       <c r="D18" t="n">
-        <v>0.393364</v>
+        <v>0.731887</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.383939</v>
+        <v>0.688995</v>
       </c>
       <c r="C19" t="n">
-        <v>0.400002</v>
+        <v>0.699222</v>
       </c>
       <c r="D19" t="n">
-        <v>0.387477</v>
+        <v>0.718994</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.377612</v>
+        <v>0.681523</v>
       </c>
       <c r="C20" t="n">
-        <v>0.393607</v>
+        <v>0.6856680000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.382041</v>
+        <v>0.706545</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.371795</v>
+        <v>0.675823</v>
       </c>
       <c r="C21" t="n">
-        <v>0.388843</v>
+        <v>0.674117</v>
       </c>
       <c r="D21" t="n">
-        <v>0.378651</v>
+        <v>0.696502</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.368034</v>
+        <v>0.672759</v>
       </c>
       <c r="C22" t="n">
-        <v>0.385187</v>
+        <v>0.6641550000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.377098</v>
+        <v>0.689488</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.366301</v>
+        <v>0.6735370000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.383502</v>
+        <v>0.657297</v>
       </c>
       <c r="D23" t="n">
-        <v>0.49331</v>
+        <v>0.9249000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.481522</v>
+        <v>0.813619</v>
       </c>
       <c r="C24" t="n">
-        <v>0.457058</v>
+        <v>0.87012</v>
       </c>
       <c r="D24" t="n">
-        <v>0.441165</v>
+        <v>0.901925</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.470822</v>
+        <v>0.7956530000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.447286</v>
+        <v>0.847397</v>
       </c>
       <c r="D25" t="n">
-        <v>0.432006</v>
+        <v>0.8796850000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.459991</v>
+        <v>0.778235</v>
       </c>
       <c r="C26" t="n">
-        <v>0.439512</v>
+        <v>0.825749</v>
       </c>
       <c r="D26" t="n">
-        <v>0.42332</v>
+        <v>0.85792</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.449527</v>
+        <v>0.76222</v>
       </c>
       <c r="C27" t="n">
-        <v>0.42957</v>
+        <v>0.805003</v>
       </c>
       <c r="D27" t="n">
-        <v>0.414512</v>
+        <v>0.836624</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.439763</v>
+        <v>0.746606</v>
       </c>
       <c r="C28" t="n">
-        <v>0.425094</v>
+        <v>0.785664</v>
       </c>
       <c r="D28" t="n">
-        <v>0.410826</v>
+        <v>0.818001</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.430594</v>
+        <v>0.732098</v>
       </c>
       <c r="C29" t="n">
-        <v>0.414161</v>
+        <v>0.766806</v>
       </c>
       <c r="D29" t="n">
-        <v>0.40113</v>
+        <v>0.799818</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.421722</v>
+        <v>0.718969</v>
       </c>
       <c r="C30" t="n">
-        <v>0.406206</v>
+        <v>0.749433</v>
       </c>
       <c r="D30" t="n">
-        <v>0.393354</v>
+        <v>0.782336</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.413184</v>
+        <v>0.706573</v>
       </c>
       <c r="C31" t="n">
-        <v>0.398999</v>
+        <v>0.732684</v>
       </c>
       <c r="D31" t="n">
-        <v>0.386791</v>
+        <v>0.765559</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.405348</v>
+        <v>0.6956870000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.392091</v>
+        <v>0.717177</v>
       </c>
       <c r="D32" t="n">
-        <v>0.381038</v>
+        <v>0.750629</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.398155</v>
+        <v>0.6868610000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.386303</v>
+        <v>0.703075</v>
       </c>
       <c r="D33" t="n">
-        <v>0.376766</v>
+        <v>0.736883</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.391437</v>
+        <v>0.678411</v>
       </c>
       <c r="C34" t="n">
-        <v>0.381424</v>
+        <v>0.689849</v>
       </c>
       <c r="D34" t="n">
-        <v>0.372336</v>
+        <v>0.724181</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.386062</v>
+        <v>0.6735679999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.377301</v>
+        <v>0.678413</v>
       </c>
       <c r="D35" t="n">
-        <v>0.370007</v>
+        <v>0.713834</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.381749</v>
+        <v>0.669972</v>
       </c>
       <c r="C36" t="n">
-        <v>0.37429</v>
+        <v>0.668363</v>
       </c>
       <c r="D36" t="n">
-        <v>0.368037</v>
+        <v>0.705388</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.379384</v>
+        <v>0.670098</v>
       </c>
       <c r="C37" t="n">
-        <v>0.373889</v>
+        <v>0.661423</v>
       </c>
       <c r="D37" t="n">
-        <v>0.510406</v>
+        <v>0.947461</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.495975</v>
+        <v>0.848746</v>
       </c>
       <c r="C38" t="n">
-        <v>0.468403</v>
+        <v>0.901982</v>
       </c>
       <c r="D38" t="n">
-        <v>0.452655</v>
+        <v>0.92344</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.485743</v>
+        <v>0.828327</v>
       </c>
       <c r="C39" t="n">
-        <v>0.459946</v>
+        <v>0.879552</v>
       </c>
       <c r="D39" t="n">
-        <v>0.446162</v>
+        <v>0.900128</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.474807</v>
+        <v>0.810215</v>
       </c>
       <c r="C40" t="n">
-        <v>0.451753</v>
+        <v>0.856732</v>
       </c>
       <c r="D40" t="n">
-        <v>0.437234</v>
+        <v>0.878088</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464423</v>
+        <v>0.792501</v>
       </c>
       <c r="C41" t="n">
-        <v>0.442707</v>
+        <v>0.835097</v>
       </c>
       <c r="D41" t="n">
-        <v>0.428499</v>
+        <v>0.857556</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.454792</v>
+        <v>0.775788</v>
       </c>
       <c r="C42" t="n">
-        <v>0.435445</v>
+        <v>0.81457</v>
       </c>
       <c r="D42" t="n">
-        <v>0.422189</v>
+        <v>0.837981</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.445498</v>
+        <v>0.760334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.430492</v>
+        <v>0.795103</v>
       </c>
       <c r="D43" t="n">
-        <v>0.414512</v>
+        <v>0.819327</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.436824</v>
+        <v>0.745544</v>
       </c>
       <c r="C44" t="n">
-        <v>0.424482</v>
+        <v>0.776482</v>
       </c>
       <c r="D44" t="n">
-        <v>0.409446</v>
+        <v>0.801374</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.428911</v>
+        <v>0.732744</v>
       </c>
       <c r="C45" t="n">
-        <v>0.413516</v>
+        <v>0.759648</v>
       </c>
       <c r="D45" t="n">
-        <v>0.401932</v>
+        <v>0.784465</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.420916</v>
+        <v>0.720764</v>
       </c>
       <c r="C46" t="n">
-        <v>0.408942</v>
+        <v>0.743296</v>
       </c>
       <c r="D46" t="n">
-        <v>0.397683</v>
+        <v>0.7694029999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.413745</v>
+        <v>0.709703</v>
       </c>
       <c r="C47" t="n">
-        <v>0.402495</v>
+        <v>0.727975</v>
       </c>
       <c r="D47" t="n">
-        <v>0.392483</v>
+        <v>0.755416</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.407462</v>
+        <v>0.701092</v>
       </c>
       <c r="C48" t="n">
-        <v>0.397736</v>
+        <v>0.714243</v>
       </c>
       <c r="D48" t="n">
-        <v>0.388755</v>
+        <v>0.74243</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.40136</v>
+        <v>0.693945</v>
       </c>
       <c r="C49" t="n">
-        <v>0.393153</v>
+        <v>0.701273</v>
       </c>
       <c r="D49" t="n">
-        <v>0.38465</v>
+        <v>0.731194</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.397384</v>
+        <v>0.6890810000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.392329</v>
+        <v>0.691335</v>
       </c>
       <c r="D50" t="n">
-        <v>0.384633</v>
+        <v>0.722962</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.394353</v>
+        <v>0.687292</v>
       </c>
       <c r="C51" t="n">
-        <v>0.389711</v>
+        <v>0.683291</v>
       </c>
       <c r="D51" t="n">
-        <v>0.52954</v>
+        <v>0.9703889999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.363686</v>
+        <v>0.689014</v>
       </c>
       <c r="C52" t="n">
-        <v>0.390934</v>
+        <v>0.678841</v>
       </c>
       <c r="D52" t="n">
-        <v>0.518898</v>
+        <v>0.947001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5022759999999999</v>
+        <v>0.85194</v>
       </c>
       <c r="C53" t="n">
-        <v>0.480223</v>
+        <v>0.903969</v>
       </c>
       <c r="D53" t="n">
-        <v>0.462446</v>
+        <v>0.924118</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.491913</v>
+        <v>0.832989</v>
       </c>
       <c r="C54" t="n">
-        <v>0.471254</v>
+        <v>0.881919</v>
       </c>
       <c r="D54" t="n">
-        <v>0.455742</v>
+        <v>0.902765</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.482372</v>
+        <v>0.815439</v>
       </c>
       <c r="C55" t="n">
-        <v>0.463343</v>
+        <v>0.859375</v>
       </c>
       <c r="D55" t="n">
-        <v>0.447953</v>
+        <v>0.882163</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.472698</v>
+        <v>0.798506</v>
       </c>
       <c r="C56" t="n">
-        <v>0.45651</v>
+        <v>0.839354</v>
       </c>
       <c r="D56" t="n">
-        <v>0.442007</v>
+        <v>0.863075</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.463186</v>
+        <v>0.7830549999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.449876</v>
+        <v>0.819531</v>
       </c>
       <c r="D57" t="n">
-        <v>0.434427</v>
+        <v>0.844924</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.454691</v>
+        <v>0.76856</v>
       </c>
       <c r="C58" t="n">
-        <v>0.440751</v>
+        <v>0.801493</v>
       </c>
       <c r="D58" t="n">
-        <v>0.429166</v>
+        <v>0.825951</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.446754</v>
+        <v>0.754757</v>
       </c>
       <c r="C59" t="n">
-        <v>0.434324</v>
+        <v>0.783771</v>
       </c>
       <c r="D59" t="n">
-        <v>0.423946</v>
+        <v>0.811075</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.439317</v>
+        <v>0.742721</v>
       </c>
       <c r="C60" t="n">
-        <v>0.429297</v>
+        <v>0.767765</v>
       </c>
       <c r="D60" t="n">
-        <v>0.418172</v>
+        <v>0.795353</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.432718</v>
+        <v>0.732109</v>
       </c>
       <c r="C61" t="n">
-        <v>0.422821</v>
+        <v>0.752399</v>
       </c>
       <c r="D61" t="n">
-        <v>0.413356</v>
+        <v>0.781208</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.426837</v>
+        <v>0.722826</v>
       </c>
       <c r="C62" t="n">
-        <v>0.420312</v>
+        <v>0.738783</v>
       </c>
       <c r="D62" t="n">
-        <v>0.409785</v>
+        <v>0.768743</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.421811</v>
+        <v>0.715245</v>
       </c>
       <c r="C63" t="n">
-        <v>0.416166</v>
+        <v>0.725308</v>
       </c>
       <c r="D63" t="n">
-        <v>0.407083</v>
+        <v>0.756122</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.416367</v>
+        <v>0.709719</v>
       </c>
       <c r="C64" t="n">
-        <v>0.412605</v>
+        <v>0.714067</v>
       </c>
       <c r="D64" t="n">
-        <v>0.405923</v>
+        <v>0.7472259999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.412286</v>
+        <v>0.707203</v>
       </c>
       <c r="C65" t="n">
-        <v>0.413235</v>
+        <v>0.705419</v>
       </c>
       <c r="D65" t="n">
-        <v>0.405723</v>
+        <v>0.740326</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.411761</v>
+        <v>0.708172</v>
       </c>
       <c r="C66" t="n">
-        <v>0.413192</v>
+        <v>0.7000690000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.539694</v>
+        <v>0.975833</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.52512</v>
+        <v>0.873656</v>
       </c>
       <c r="C67" t="n">
-        <v>0.503533</v>
+        <v>0.933215</v>
       </c>
       <c r="D67" t="n">
-        <v>0.486152</v>
+        <v>0.952947</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.514447</v>
+        <v>0.855037</v>
       </c>
       <c r="C68" t="n">
-        <v>0.495362</v>
+        <v>0.91073</v>
       </c>
       <c r="D68" t="n">
-        <v>0.478635</v>
+        <v>0.931061</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.505053</v>
+        <v>0.836265</v>
       </c>
       <c r="C69" t="n">
-        <v>0.487117</v>
+        <v>0.890036</v>
       </c>
       <c r="D69" t="n">
-        <v>0.470918</v>
+        <v>0.910953</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.494925</v>
+        <v>0.819673</v>
       </c>
       <c r="C70" t="n">
-        <v>0.480655</v>
+        <v>0.870129</v>
       </c>
       <c r="D70" t="n">
-        <v>0.463964</v>
+        <v>0.891151</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.485998</v>
+        <v>0.804047</v>
       </c>
       <c r="C71" t="n">
-        <v>0.470808</v>
+        <v>0.84955</v>
       </c>
       <c r="D71" t="n">
-        <v>0.457862</v>
+        <v>0.873506</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.477213</v>
+        <v>0.790803</v>
       </c>
       <c r="C72" t="n">
-        <v>0.464727</v>
+        <v>0.830933</v>
       </c>
       <c r="D72" t="n">
-        <v>0.450704</v>
+        <v>0.8560489999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.468042</v>
+        <v>0.777073</v>
       </c>
       <c r="C73" t="n">
-        <v>0.457898</v>
+        <v>0.813326</v>
       </c>
       <c r="D73" t="n">
-        <v>0.445806</v>
+        <v>0.838714</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.460486</v>
+        <v>0.7651250000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.451151</v>
+        <v>0.7941319999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.440065</v>
+        <v>0.823619</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.453493</v>
+        <v>0.75471</v>
       </c>
       <c r="C75" t="n">
-        <v>0.44658</v>
+        <v>0.782038</v>
       </c>
       <c r="D75" t="n">
-        <v>0.435634</v>
+        <v>0.809316</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.44746</v>
+        <v>0.745092</v>
       </c>
       <c r="C76" t="n">
-        <v>0.443213</v>
+        <v>0.767698</v>
       </c>
       <c r="D76" t="n">
-        <v>0.431772</v>
+        <v>0.7970120000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.441656</v>
+        <v>0.737273</v>
       </c>
       <c r="C77" t="n">
-        <v>0.437782</v>
+        <v>0.754618</v>
       </c>
       <c r="D77" t="n">
-        <v>0.427857</v>
+        <v>0.7857499999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.437389</v>
+        <v>0.7334580000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.434564</v>
+        <v>0.743372</v>
       </c>
       <c r="D78" t="n">
-        <v>0.42662</v>
+        <v>0.775249</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.433723</v>
+        <v>0.730282</v>
       </c>
       <c r="C79" t="n">
-        <v>0.433215</v>
+        <v>0.73358</v>
       </c>
       <c r="D79" t="n">
-        <v>0.428247</v>
+        <v>0.768333</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.432534</v>
+        <v>0.7301339999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.435696</v>
+        <v>0.726507</v>
       </c>
       <c r="D80" t="n">
-        <v>0.580037</v>
+        <v>1.02215</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.567105</v>
+        <v>0.91712</v>
       </c>
       <c r="C81" t="n">
-        <v>0.536287</v>
+        <v>0.97657</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5172909999999999</v>
+        <v>1.00097</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.559455</v>
+        <v>0.901458</v>
       </c>
       <c r="C82" t="n">
-        <v>0.525465</v>
+        <v>0.956061</v>
       </c>
       <c r="D82" t="n">
-        <v>0.506219</v>
+        <v>0.980558</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.551023</v>
+        <v>0.887302</v>
       </c>
       <c r="C83" t="n">
-        <v>0.518648</v>
+        <v>0.934948</v>
       </c>
       <c r="D83" t="n">
-        <v>0.498405</v>
+        <v>0.959032</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5449889999999999</v>
+        <v>0.873407</v>
       </c>
       <c r="C84" t="n">
-        <v>0.509864</v>
+        <v>0.917664</v>
       </c>
       <c r="D84" t="n">
-        <v>0.489837</v>
+        <v>0.939684</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.540566</v>
+        <v>0.858225</v>
       </c>
       <c r="C85" t="n">
-        <v>0.505553</v>
+        <v>0.89513</v>
       </c>
       <c r="D85" t="n">
-        <v>0.483979</v>
+        <v>0.91948</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.532727</v>
+        <v>0.840743</v>
       </c>
       <c r="C86" t="n">
-        <v>0.499929</v>
+        <v>0.877548</v>
       </c>
       <c r="D86" t="n">
-        <v>0.481888</v>
+        <v>0.9012559999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.524343</v>
+        <v>0.829101</v>
       </c>
       <c r="C87" t="n">
-        <v>0.492632</v>
+        <v>0.861861</v>
       </c>
       <c r="D87" t="n">
-        <v>0.475653</v>
+        <v>0.88694</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.516408</v>
+        <v>0.8183820000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.487953</v>
+        <v>0.8457710000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.471947</v>
+        <v>0.870712</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.507687</v>
+        <v>0.806824</v>
       </c>
       <c r="C89" t="n">
-        <v>0.478116</v>
+        <v>0.828062</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4637</v>
+        <v>0.855482</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.499752</v>
+        <v>0.7931859999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.47391</v>
+        <v>0.813134</v>
       </c>
       <c r="D90" t="n">
-        <v>0.458671</v>
+        <v>0.841551</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.493917</v>
+        <v>0.784507</v>
       </c>
       <c r="C91" t="n">
-        <v>0.468147</v>
+        <v>0.799352</v>
       </c>
       <c r="D91" t="n">
-        <v>0.455293</v>
+        <v>0.828929</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.486511</v>
+        <v>0.779639</v>
       </c>
       <c r="C92" t="n">
-        <v>0.464162</v>
+        <v>0.7887380000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.453317</v>
+        <v>0.816293</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.482733</v>
+        <v>0.769971</v>
       </c>
       <c r="C93" t="n">
-        <v>0.461648</v>
+        <v>0.774915</v>
       </c>
       <c r="D93" t="n">
-        <v>0.452949</v>
+        <v>0.808588</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.479703</v>
+        <v>0.769258</v>
       </c>
       <c r="C94" t="n">
-        <v>0.462172</v>
+        <v>0.76167</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6260250000000001</v>
+        <v>1.08208</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.621727</v>
+        <v>0.9738830000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.584808</v>
+        <v>1.02631</v>
       </c>
       <c r="D95" t="n">
-        <v>0.585106</v>
+        <v>1.07849</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.632328</v>
+        <v>0.979739</v>
       </c>
       <c r="C96" t="n">
-        <v>0.599768</v>
+        <v>1.03647</v>
       </c>
       <c r="D96" t="n">
-        <v>0.588488</v>
+        <v>1.07468</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.636729</v>
+        <v>0.977069</v>
       </c>
       <c r="C97" t="n">
-        <v>0.597939</v>
+        <v>1.02582</v>
       </c>
       <c r="D97" t="n">
-        <v>0.585901</v>
+        <v>1.05416</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.636612</v>
+        <v>0.971855</v>
       </c>
       <c r="C98" t="n">
-        <v>0.598979</v>
+        <v>1.01958</v>
       </c>
       <c r="D98" t="n">
-        <v>0.583189</v>
+        <v>1.03817</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.633644</v>
+        <v>0.963535</v>
       </c>
       <c r="C99" t="n">
-        <v>0.599606</v>
+        <v>1.00189</v>
       </c>
       <c r="D99" t="n">
-        <v>0.581291</v>
+        <v>1.0346</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.631182</v>
+        <v>0.954827</v>
       </c>
       <c r="C100" t="n">
-        <v>0.597797</v>
+        <v>0.990961</v>
       </c>
       <c r="D100" t="n">
-        <v>0.578844</v>
+        <v>1.02339</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.627408</v>
+        <v>0.944932</v>
       </c>
       <c r="C101" t="n">
-        <v>0.593979</v>
+        <v>0.968513</v>
       </c>
       <c r="D101" t="n">
-        <v>0.575095</v>
+        <v>1.00763</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.622934</v>
+        <v>0.934715</v>
       </c>
       <c r="C102" t="n">
-        <v>0.577273</v>
+        <v>0.964911</v>
       </c>
       <c r="D102" t="n">
-        <v>0.552843</v>
+        <v>0.980225</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.619038</v>
+        <v>0.926253</v>
       </c>
       <c r="C103" t="n">
-        <v>0.58828</v>
+        <v>0.9592540000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.565185</v>
+        <v>0.9794890000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.616439</v>
+        <v>0.919192</v>
       </c>
       <c r="C104" t="n">
-        <v>0.58916</v>
+        <v>0.94112</v>
       </c>
       <c r="D104" t="n">
-        <v>0.568348</v>
+        <v>0.953587</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.613038</v>
+        <v>0.911871</v>
       </c>
       <c r="C105" t="n">
-        <v>0.587967</v>
+        <v>0.9407990000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.562822</v>
+        <v>0.932868</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.606702</v>
+        <v>0.906619</v>
       </c>
       <c r="C106" t="n">
-        <v>0.583545</v>
+        <v>0.925416</v>
       </c>
       <c r="D106" t="n">
-        <v>0.560603</v>
+        <v>0.945026</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.603352</v>
+        <v>0.900663</v>
       </c>
       <c r="C107" t="n">
-        <v>0.564918</v>
+        <v>0.896948</v>
       </c>
       <c r="D107" t="n">
-        <v>0.53972</v>
+        <v>0.938894</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.600754</v>
+        <v>0.898693</v>
       </c>
       <c r="C108" t="n">
-        <v>0.562802</v>
+        <v>0.896937</v>
       </c>
       <c r="D108" t="n">
-        <v>0.731297</v>
+        <v>1.21371</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.564624</v>
+        <v>0.900958</v>
       </c>
       <c r="C109" t="n">
-        <v>0.586929</v>
+        <v>0.904979</v>
       </c>
       <c r="D109" t="n">
-        <v>0.744142</v>
+        <v>1.23075</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.725454</v>
+        <v>1.10734</v>
       </c>
       <c r="C110" t="n">
-        <v>0.741946</v>
+        <v>1.17302</v>
       </c>
       <c r="D110" t="n">
-        <v>0.73527</v>
+        <v>1.21719</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.733679</v>
+        <v>1.1131</v>
       </c>
       <c r="C111" t="n">
-        <v>0.749599</v>
+        <v>1.16782</v>
       </c>
       <c r="D111" t="n">
-        <v>0.758636</v>
+        <v>1.2197</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.73794</v>
+        <v>1.11783</v>
       </c>
       <c r="C112" t="n">
-        <v>0.754528</v>
+        <v>1.18995</v>
       </c>
       <c r="D112" t="n">
-        <v>0.762229</v>
+        <v>1.22491</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.743696</v>
+        <v>1.12162</v>
       </c>
       <c r="C113" t="n">
-        <v>0.758121</v>
+        <v>1.1852</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7605229999999999</v>
+        <v>1.21384</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.754708</v>
+        <v>1.1261</v>
       </c>
       <c r="C114" t="n">
-        <v>0.766547</v>
+        <v>1.18944</v>
       </c>
       <c r="D114" t="n">
-        <v>0.757421</v>
+        <v>1.21402</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.760181</v>
+        <v>1.12895</v>
       </c>
       <c r="C115" t="n">
-        <v>0.767501</v>
+        <v>1.20392</v>
       </c>
       <c r="D115" t="n">
-        <v>0.775214</v>
+        <v>1.23542</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.763304</v>
+        <v>1.13019</v>
       </c>
       <c r="C116" t="n">
-        <v>0.776329</v>
+        <v>1.20266</v>
       </c>
       <c r="D116" t="n">
-        <v>0.777048</v>
+        <v>1.22813</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.772293</v>
+        <v>1.13383</v>
       </c>
       <c r="C117" t="n">
-        <v>0.77734</v>
+        <v>1.2052</v>
       </c>
       <c r="D117" t="n">
-        <v>0.76245</v>
+        <v>1.23051</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.777937</v>
+        <v>1.13679</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7863329999999999</v>
+        <v>1.20723</v>
       </c>
       <c r="D118" t="n">
-        <v>0.785131</v>
+        <v>1.23314</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.7768659999999999</v>
+        <v>1.14283</v>
       </c>
       <c r="C119" t="n">
-        <v>0.792143</v>
+        <v>1.20871</v>
       </c>
       <c r="D119" t="n">
-        <v>0.788871</v>
+        <v>1.23338</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.780211</v>
+        <v>1.14517</v>
       </c>
       <c r="C120" t="n">
-        <v>0.787191</v>
+        <v>1.2055</v>
       </c>
       <c r="D120" t="n">
-        <v>0.792669</v>
+        <v>1.2352</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.786552</v>
+        <v>1.15261</v>
       </c>
       <c r="C121" t="n">
-        <v>0.805071</v>
+        <v>1.20746</v>
       </c>
       <c r="D121" t="n">
-        <v>0.797892</v>
+        <v>1.23558</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.792141</v>
+        <v>1.16205</v>
       </c>
       <c r="C122" t="n">
-        <v>0.810284</v>
+        <v>1.20969</v>
       </c>
       <c r="D122" t="n">
-        <v>0.802336</v>
+        <v>1.22612</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.799252</v>
+        <v>1.17221</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8131660000000001</v>
+        <v>1.20458</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9560689999999999</v>
+        <v>1.51417</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.962443</v>
+        <v>1.37497</v>
       </c>
       <c r="C124" t="n">
-        <v>0.971047</v>
+        <v>1.49055</v>
       </c>
       <c r="D124" t="n">
-        <v>0.961714</v>
+        <v>1.53104</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.975092</v>
+        <v>1.37664</v>
       </c>
       <c r="C125" t="n">
-        <v>0.979122</v>
+        <v>1.50605</v>
       </c>
       <c r="D125" t="n">
-        <v>0.95573</v>
+        <v>1.53697</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.984259</v>
+        <v>1.37891</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9947279999999999</v>
+        <v>1.50917</v>
       </c>
       <c r="D126" t="n">
-        <v>0.966557</v>
+        <v>1.53763</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.993085</v>
+        <v>1.3824</v>
       </c>
       <c r="C127" t="n">
-        <v>1.00017</v>
+        <v>1.51486</v>
       </c>
       <c r="D127" t="n">
-        <v>0.975206</v>
+        <v>1.55804</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9999130000000001</v>
+        <v>1.38639</v>
       </c>
       <c r="C128" t="n">
-        <v>1.01174</v>
+        <v>1.52732</v>
       </c>
       <c r="D128" t="n">
-        <v>0.999387</v>
+        <v>1.56129</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.00772</v>
+        <v>1.38734</v>
       </c>
       <c r="C129" t="n">
-        <v>1.01574</v>
+        <v>1.52782</v>
       </c>
       <c r="D129" t="n">
-        <v>1.01014</v>
+        <v>1.56499</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.01596</v>
+        <v>1.38849</v>
       </c>
       <c r="C130" t="n">
-        <v>1.02268</v>
+        <v>1.52944</v>
       </c>
       <c r="D130" t="n">
-        <v>1.01907</v>
+        <v>1.56448</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.0203</v>
+        <v>1.39337</v>
       </c>
       <c r="C131" t="n">
-        <v>1.0383</v>
+        <v>1.54486</v>
       </c>
       <c r="D131" t="n">
-        <v>1.01786</v>
+        <v>1.58054</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.0275</v>
+        <v>1.39547</v>
       </c>
       <c r="C132" t="n">
-        <v>1.04566</v>
+        <v>1.544</v>
       </c>
       <c r="D132" t="n">
-        <v>1.03362</v>
+        <v>1.58005</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.03372</v>
+        <v>1.40131</v>
       </c>
       <c r="C133" t="n">
-        <v>1.05396</v>
+        <v>1.55743</v>
       </c>
       <c r="D133" t="n">
-        <v>1.04029</v>
+        <v>1.59418</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04223</v>
+        <v>1.40795</v>
       </c>
       <c r="C134" t="n">
-        <v>1.06238</v>
+        <v>1.572</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04162</v>
+        <v>1.58923</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.04696</v>
+        <v>1.41406</v>
       </c>
       <c r="C135" t="n">
-        <v>1.06864</v>
+        <v>1.57404</v>
       </c>
       <c r="D135" t="n">
-        <v>1.05511</v>
+        <v>1.59814</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05794</v>
+        <v>1.42559</v>
       </c>
       <c r="C136" t="n">
-        <v>1.08425</v>
+        <v>1.58669</v>
       </c>
       <c r="D136" t="n">
-        <v>1.04966</v>
+        <v>1.61486</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05878</v>
+        <v>1.43755</v>
       </c>
       <c r="C137" t="n">
-        <v>1.09007</v>
+        <v>1.59522</v>
       </c>
       <c r="D137" t="n">
-        <v>1.20919</v>
+        <v>1.89647</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.22119</v>
+        <v>1.64854</v>
       </c>
       <c r="C138" t="n">
-        <v>1.24407</v>
+        <v>1.86807</v>
       </c>
       <c r="D138" t="n">
-        <v>1.22687</v>
+        <v>1.9085</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.22613</v>
+        <v>1.64633</v>
       </c>
       <c r="C139" t="n">
-        <v>1.25142</v>
+        <v>1.88575</v>
       </c>
       <c r="D139" t="n">
-        <v>1.23735</v>
+        <v>1.92299</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.23216</v>
+        <v>1.64514</v>
       </c>
       <c r="C140" t="n">
-        <v>1.26255</v>
+        <v>1.8978</v>
       </c>
       <c r="D140" t="n">
-        <v>1.24906</v>
+        <v>1.93046</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.23947</v>
+        <v>1.64094</v>
       </c>
       <c r="C141" t="n">
-        <v>1.27007</v>
+        <v>1.90738</v>
       </c>
       <c r="D141" t="n">
-        <v>1.25754</v>
+        <v>1.94728</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.25029</v>
+        <v>1.64022</v>
       </c>
       <c r="C142" t="n">
-        <v>1.27627</v>
+        <v>1.92062</v>
       </c>
       <c r="D142" t="n">
-        <v>1.26309</v>
+        <v>1.95699</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26091</v>
+        <v>1.63983</v>
       </c>
       <c r="C143" t="n">
-        <v>1.28698</v>
+        <v>1.92698</v>
       </c>
       <c r="D143" t="n">
-        <v>1.27478</v>
+        <v>1.96253</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.701579</v>
+        <v>0.7012389999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.716349</v>
+        <v>0.716292</v>
       </c>
       <c r="D2" t="n">
-        <v>0.731129</v>
+        <v>0.730621</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.689649</v>
+        <v>0.690536</v>
       </c>
       <c r="C3" t="n">
-        <v>0.700088</v>
+        <v>0.699971</v>
       </c>
       <c r="D3" t="n">
-        <v>0.715343</v>
+        <v>0.7150339999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.679308</v>
+        <v>0.679732</v>
       </c>
       <c r="C4" t="n">
-        <v>0.68615</v>
+        <v>0.685937</v>
       </c>
       <c r="D4" t="n">
-        <v>0.701783</v>
+        <v>0.701919</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.671131</v>
+        <v>0.671789</v>
       </c>
       <c r="C5" t="n">
-        <v>0.672618</v>
+        <v>0.672601</v>
       </c>
       <c r="D5" t="n">
-        <v>0.690403</v>
+        <v>0.690044</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.663938</v>
+        <v>0.664512</v>
       </c>
       <c r="C6" t="n">
-        <v>0.659963</v>
+        <v>0.660095</v>
       </c>
       <c r="D6" t="n">
-        <v>0.679489</v>
+        <v>0.678634</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.658951</v>
+        <v>0.6596109999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.649663</v>
+        <v>0.649692</v>
       </c>
       <c r="D7" t="n">
-        <v>0.671445</v>
+        <v>0.6706299999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6577730000000001</v>
+        <v>0.658342</v>
       </c>
       <c r="C8" t="n">
-        <v>0.641388</v>
+        <v>0.641972</v>
       </c>
       <c r="D8" t="n">
-        <v>0.666222</v>
+        <v>0.665652</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.661398</v>
+        <v>0.661622</v>
       </c>
       <c r="C9" t="n">
-        <v>0.636578</v>
+        <v>0.637895</v>
       </c>
       <c r="D9" t="n">
-        <v>0.894574</v>
+        <v>0.894564</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.819354</v>
+        <v>0.819086</v>
       </c>
       <c r="C10" t="n">
-        <v>0.868421</v>
+        <v>0.868945</v>
       </c>
       <c r="D10" t="n">
-        <v>0.878149</v>
+        <v>0.877766</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.800418</v>
+        <v>0.7999849999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.845766</v>
+        <v>0.8459410000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.856175</v>
+        <v>0.856434</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.782319</v>
+        <v>0.781987</v>
       </c>
       <c r="C12" t="n">
-        <v>0.823219</v>
+        <v>0.823912</v>
       </c>
       <c r="D12" t="n">
-        <v>0.835485</v>
+        <v>0.83543</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.76557</v>
+        <v>0.765155</v>
       </c>
       <c r="C13" t="n">
-        <v>0.802276</v>
+        <v>0.802759</v>
       </c>
       <c r="D13" t="n">
-        <v>0.814929</v>
+        <v>0.815313</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.749557</v>
+        <v>0.749456</v>
       </c>
       <c r="C14" t="n">
-        <v>0.782127</v>
+        <v>0.782593</v>
       </c>
       <c r="D14" t="n">
-        <v>0.796445</v>
+        <v>0.795922</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.735049</v>
+        <v>0.734649</v>
       </c>
       <c r="C15" t="n">
-        <v>0.763636</v>
+        <v>0.763835</v>
       </c>
       <c r="D15" t="n">
-        <v>0.778934</v>
+        <v>0.778624</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.721728</v>
+        <v>0.720878</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7456469999999999</v>
+        <v>0.745889</v>
       </c>
       <c r="D16" t="n">
-        <v>0.762194</v>
+        <v>0.761697</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.709145</v>
+        <v>0.708353</v>
       </c>
       <c r="C17" t="n">
-        <v>0.728951</v>
+        <v>0.729297</v>
       </c>
       <c r="D17" t="n">
-        <v>0.746569</v>
+        <v>0.746301</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.697867</v>
+        <v>0.697644</v>
       </c>
       <c r="C18" t="n">
-        <v>0.713134</v>
+        <v>0.713433</v>
       </c>
       <c r="D18" t="n">
-        <v>0.731887</v>
+        <v>0.731691</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.688995</v>
+        <v>0.688203</v>
       </c>
       <c r="C19" t="n">
-        <v>0.699222</v>
+        <v>0.699229</v>
       </c>
       <c r="D19" t="n">
-        <v>0.718994</v>
+        <v>0.719303</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.681523</v>
+        <v>0.680713</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6856680000000001</v>
+        <v>0.685716</v>
       </c>
       <c r="D20" t="n">
-        <v>0.706545</v>
+        <v>0.706603</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.675823</v>
+        <v>0.674664</v>
       </c>
       <c r="C21" t="n">
-        <v>0.674117</v>
+        <v>0.67401</v>
       </c>
       <c r="D21" t="n">
-        <v>0.696502</v>
+        <v>0.696561</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.672759</v>
+        <v>0.67192</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6641550000000001</v>
+        <v>0.664631</v>
       </c>
       <c r="D22" t="n">
-        <v>0.689488</v>
+        <v>0.689648</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6735370000000001</v>
+        <v>0.67244</v>
       </c>
       <c r="C23" t="n">
-        <v>0.657297</v>
+        <v>0.658218</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9249000000000001</v>
+        <v>0.923816</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.813619</v>
+        <v>0.812035</v>
       </c>
       <c r="C24" t="n">
-        <v>0.87012</v>
+        <v>0.871128</v>
       </c>
       <c r="D24" t="n">
-        <v>0.901925</v>
+        <v>0.901332</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7956530000000001</v>
+        <v>0.7938499999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.847397</v>
+        <v>0.848588</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8796850000000001</v>
+        <v>0.878609</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.778235</v>
+        <v>0.776493</v>
       </c>
       <c r="C26" t="n">
-        <v>0.825749</v>
+        <v>0.826585</v>
       </c>
       <c r="D26" t="n">
-        <v>0.85792</v>
+        <v>0.856375</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.76222</v>
+        <v>0.760266</v>
       </c>
       <c r="C27" t="n">
-        <v>0.805003</v>
+        <v>0.8059190000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.836624</v>
+        <v>0.835808</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.746606</v>
+        <v>0.746879</v>
       </c>
       <c r="C28" t="n">
-        <v>0.785664</v>
+        <v>0.786382</v>
       </c>
       <c r="D28" t="n">
-        <v>0.818001</v>
+        <v>0.816536</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.732098</v>
+        <v>0.730353</v>
       </c>
       <c r="C29" t="n">
-        <v>0.766806</v>
+        <v>0.767525</v>
       </c>
       <c r="D29" t="n">
-        <v>0.799818</v>
+        <v>0.7980699999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.718969</v>
+        <v>0.717397</v>
       </c>
       <c r="C30" t="n">
-        <v>0.749433</v>
+        <v>0.749602</v>
       </c>
       <c r="D30" t="n">
-        <v>0.782336</v>
+        <v>0.78085</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.706573</v>
+        <v>0.704954</v>
       </c>
       <c r="C31" t="n">
-        <v>0.732684</v>
+        <v>0.733067</v>
       </c>
       <c r="D31" t="n">
-        <v>0.765559</v>
+        <v>0.764517</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6956870000000001</v>
+        <v>0.694222</v>
       </c>
       <c r="C32" t="n">
-        <v>0.717177</v>
+        <v>0.717502</v>
       </c>
       <c r="D32" t="n">
-        <v>0.750629</v>
+        <v>0.749615</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6868610000000001</v>
+        <v>0.68508</v>
       </c>
       <c r="C33" t="n">
-        <v>0.703075</v>
+        <v>0.703773</v>
       </c>
       <c r="D33" t="n">
-        <v>0.736883</v>
+        <v>0.736216</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.678411</v>
+        <v>0.6771779999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.689849</v>
+        <v>0.690478</v>
       </c>
       <c r="D34" t="n">
-        <v>0.724181</v>
+        <v>0.7236900000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6735679999999999</v>
+        <v>0.6717610000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.678413</v>
+        <v>0.678955</v>
       </c>
       <c r="D35" t="n">
-        <v>0.713834</v>
+        <v>0.712805</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.669972</v>
+        <v>0.668318</v>
       </c>
       <c r="C36" t="n">
-        <v>0.668363</v>
+        <v>0.668587</v>
       </c>
       <c r="D36" t="n">
-        <v>0.705388</v>
+        <v>0.704715</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.670098</v>
+        <v>0.668803</v>
       </c>
       <c r="C37" t="n">
-        <v>0.661423</v>
+        <v>0.661693</v>
       </c>
       <c r="D37" t="n">
-        <v>0.947461</v>
+        <v>0.945926</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.848746</v>
+        <v>0.846545</v>
       </c>
       <c r="C38" t="n">
-        <v>0.901982</v>
+        <v>0.904092</v>
       </c>
       <c r="D38" t="n">
-        <v>0.92344</v>
+        <v>0.9217070000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.828327</v>
+        <v>0.828252</v>
       </c>
       <c r="C39" t="n">
-        <v>0.879552</v>
+        <v>0.881835</v>
       </c>
       <c r="D39" t="n">
-        <v>0.900128</v>
+        <v>0.8989</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.810215</v>
+        <v>0.80846</v>
       </c>
       <c r="C40" t="n">
-        <v>0.856732</v>
+        <v>0.858279</v>
       </c>
       <c r="D40" t="n">
-        <v>0.878088</v>
+        <v>0.877121</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.792501</v>
+        <v>0.791973</v>
       </c>
       <c r="C41" t="n">
-        <v>0.835097</v>
+        <v>0.83752</v>
       </c>
       <c r="D41" t="n">
-        <v>0.857556</v>
+        <v>0.856714</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.775788</v>
+        <v>0.774994</v>
       </c>
       <c r="C42" t="n">
-        <v>0.81457</v>
+        <v>0.815586</v>
       </c>
       <c r="D42" t="n">
-        <v>0.837981</v>
+        <v>0.836508</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.760334</v>
+        <v>0.75863</v>
       </c>
       <c r="C43" t="n">
-        <v>0.795103</v>
+        <v>0.795973</v>
       </c>
       <c r="D43" t="n">
-        <v>0.819327</v>
+        <v>0.8184630000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.745544</v>
+        <v>0.744453</v>
       </c>
       <c r="C44" t="n">
-        <v>0.776482</v>
+        <v>0.77763</v>
       </c>
       <c r="D44" t="n">
-        <v>0.801374</v>
+        <v>0.800652</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.732744</v>
+        <v>0.731289</v>
       </c>
       <c r="C45" t="n">
-        <v>0.759648</v>
+        <v>0.760313</v>
       </c>
       <c r="D45" t="n">
-        <v>0.784465</v>
+        <v>0.783928</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.720764</v>
+        <v>0.720737</v>
       </c>
       <c r="C46" t="n">
-        <v>0.743296</v>
+        <v>0.745942</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7694029999999999</v>
+        <v>0.769222</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.709703</v>
+        <v>0.708958</v>
       </c>
       <c r="C47" t="n">
-        <v>0.727975</v>
+        <v>0.7296820000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.755416</v>
+        <v>0.754878</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.701092</v>
+        <v>0.700126</v>
       </c>
       <c r="C48" t="n">
-        <v>0.714243</v>
+        <v>0.716184</v>
       </c>
       <c r="D48" t="n">
-        <v>0.74243</v>
+        <v>0.74225</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.693945</v>
+        <v>0.691954</v>
       </c>
       <c r="C49" t="n">
-        <v>0.701273</v>
+        <v>0.702533</v>
       </c>
       <c r="D49" t="n">
-        <v>0.731194</v>
+        <v>0.730239</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6890810000000001</v>
+        <v>0.686871</v>
       </c>
       <c r="C50" t="n">
-        <v>0.691335</v>
+        <v>0.69226</v>
       </c>
       <c r="D50" t="n">
-        <v>0.722962</v>
+        <v>0.7218560000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.687292</v>
+        <v>0.686452</v>
       </c>
       <c r="C51" t="n">
-        <v>0.683291</v>
+        <v>0.684989</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9703889999999999</v>
+        <v>0.9691340000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.689014</v>
+        <v>0.688047</v>
       </c>
       <c r="C52" t="n">
-        <v>0.678841</v>
+        <v>0.677832</v>
       </c>
       <c r="D52" t="n">
-        <v>0.947001</v>
+        <v>0.945819</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.85194</v>
+        <v>0.8489679999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.903969</v>
+        <v>0.904809</v>
       </c>
       <c r="D53" t="n">
-        <v>0.924118</v>
+        <v>0.922641</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.832989</v>
+        <v>0.829922</v>
       </c>
       <c r="C54" t="n">
-        <v>0.881919</v>
+        <v>0.882148</v>
       </c>
       <c r="D54" t="n">
-        <v>0.902765</v>
+        <v>0.901152</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.815439</v>
+        <v>0.812858</v>
       </c>
       <c r="C55" t="n">
-        <v>0.859375</v>
+        <v>0.859784</v>
       </c>
       <c r="D55" t="n">
-        <v>0.882163</v>
+        <v>0.880759</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.798506</v>
+        <v>0.7984290000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.839354</v>
+        <v>0.839157</v>
       </c>
       <c r="D56" t="n">
-        <v>0.863075</v>
+        <v>0.861156</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7830549999999999</v>
+        <v>0.781118</v>
       </c>
       <c r="C57" t="n">
-        <v>0.819531</v>
+        <v>0.819307</v>
       </c>
       <c r="D57" t="n">
-        <v>0.844924</v>
+        <v>0.843264</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.76856</v>
+        <v>0.76607</v>
       </c>
       <c r="C58" t="n">
-        <v>0.801493</v>
+        <v>0.801465</v>
       </c>
       <c r="D58" t="n">
-        <v>0.825951</v>
+        <v>0.826777</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.754757</v>
+        <v>0.755091</v>
       </c>
       <c r="C59" t="n">
-        <v>0.783771</v>
+        <v>0.78488</v>
       </c>
       <c r="D59" t="n">
-        <v>0.811075</v>
+        <v>0.8091469999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.742721</v>
+        <v>0.742949</v>
       </c>
       <c r="C60" t="n">
-        <v>0.767765</v>
+        <v>0.769087</v>
       </c>
       <c r="D60" t="n">
-        <v>0.795353</v>
+        <v>0.793855</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.732109</v>
+        <v>0.7313460000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.752399</v>
+        <v>0.753634</v>
       </c>
       <c r="D61" t="n">
-        <v>0.781208</v>
+        <v>0.77972</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.722826</v>
+        <v>0.722535</v>
       </c>
       <c r="C62" t="n">
-        <v>0.738783</v>
+        <v>0.739815</v>
       </c>
       <c r="D62" t="n">
-        <v>0.768743</v>
+        <v>0.765817</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.715245</v>
+        <v>0.712578</v>
       </c>
       <c r="C63" t="n">
-        <v>0.725308</v>
+        <v>0.7270180000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.756122</v>
+        <v>0.756104</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.709719</v>
+        <v>0.71013</v>
       </c>
       <c r="C64" t="n">
-        <v>0.714067</v>
+        <v>0.716104</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7472259999999999</v>
+        <v>0.746818</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.707203</v>
+        <v>0.7074780000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.705419</v>
+        <v>0.707739</v>
       </c>
       <c r="D65" t="n">
-        <v>0.740326</v>
+        <v>0.739737</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.708172</v>
+        <v>0.706826</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7000690000000001</v>
+        <v>0.700603</v>
       </c>
       <c r="D66" t="n">
-        <v>0.975833</v>
+        <v>0.971975</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.873656</v>
+        <v>0.871343</v>
       </c>
       <c r="C67" t="n">
-        <v>0.933215</v>
+        <v>0.935488</v>
       </c>
       <c r="D67" t="n">
-        <v>0.952947</v>
+        <v>0.950267</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.855037</v>
+        <v>0.853207</v>
       </c>
       <c r="C68" t="n">
-        <v>0.91073</v>
+        <v>0.912112</v>
       </c>
       <c r="D68" t="n">
-        <v>0.931061</v>
+        <v>0.927794</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.836265</v>
+        <v>0.835947</v>
       </c>
       <c r="C69" t="n">
-        <v>0.890036</v>
+        <v>0.888863</v>
       </c>
       <c r="D69" t="n">
-        <v>0.910953</v>
+        <v>0.908469</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.819673</v>
+        <v>0.821093</v>
       </c>
       <c r="C70" t="n">
-        <v>0.870129</v>
+        <v>0.870463</v>
       </c>
       <c r="D70" t="n">
-        <v>0.891151</v>
+        <v>0.891111</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.804047</v>
+        <v>0.806021</v>
       </c>
       <c r="C71" t="n">
-        <v>0.84955</v>
+        <v>0.853391</v>
       </c>
       <c r="D71" t="n">
-        <v>0.873506</v>
+        <v>0.8724420000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.790803</v>
+        <v>0.790499</v>
       </c>
       <c r="C72" t="n">
-        <v>0.830933</v>
+        <v>0.832622</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8560489999999999</v>
+        <v>0.855786</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.777073</v>
+        <v>0.7782520000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.813326</v>
+        <v>0.817608</v>
       </c>
       <c r="D73" t="n">
-        <v>0.838714</v>
+        <v>0.839249</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7651250000000001</v>
+        <v>0.7638779999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7941319999999999</v>
+        <v>0.794919</v>
       </c>
       <c r="D74" t="n">
-        <v>0.823619</v>
+        <v>0.821356</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.75471</v>
+        <v>0.753478</v>
       </c>
       <c r="C75" t="n">
-        <v>0.782038</v>
+        <v>0.780729</v>
       </c>
       <c r="D75" t="n">
-        <v>0.809316</v>
+        <v>0.808566</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.745092</v>
+        <v>0.743869</v>
       </c>
       <c r="C76" t="n">
-        <v>0.767698</v>
+        <v>0.765249</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7970120000000001</v>
+        <v>0.793291</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.737273</v>
+        <v>0.735826</v>
       </c>
       <c r="C77" t="n">
-        <v>0.754618</v>
+        <v>0.751044</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7857499999999999</v>
+        <v>0.78161</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7334580000000001</v>
+        <v>0.730398</v>
       </c>
       <c r="C78" t="n">
-        <v>0.743372</v>
+        <v>0.739526</v>
       </c>
       <c r="D78" t="n">
-        <v>0.775249</v>
+        <v>0.771564</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.730282</v>
+        <v>0.727285</v>
       </c>
       <c r="C79" t="n">
-        <v>0.73358</v>
+        <v>0.73027</v>
       </c>
       <c r="D79" t="n">
-        <v>0.768333</v>
+        <v>0.764294</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7301339999999999</v>
+        <v>0.728064</v>
       </c>
       <c r="C80" t="n">
-        <v>0.726507</v>
+        <v>0.723083</v>
       </c>
       <c r="D80" t="n">
-        <v>1.02215</v>
+        <v>1.02246</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.91712</v>
+        <v>0.919658</v>
       </c>
       <c r="C81" t="n">
-        <v>0.97657</v>
+        <v>0.979836</v>
       </c>
       <c r="D81" t="n">
-        <v>1.00097</v>
+        <v>1.0003</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.901458</v>
+        <v>0.905547</v>
       </c>
       <c r="C82" t="n">
-        <v>0.956061</v>
+        <v>0.958221</v>
       </c>
       <c r="D82" t="n">
-        <v>0.980558</v>
+        <v>0.979213</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.887302</v>
+        <v>0.889889</v>
       </c>
       <c r="C83" t="n">
-        <v>0.934948</v>
+        <v>0.936473</v>
       </c>
       <c r="D83" t="n">
-        <v>0.959032</v>
+        <v>0.958607</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.873407</v>
+        <v>0.8748320000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.917664</v>
+        <v>0.916061</v>
       </c>
       <c r="D84" t="n">
-        <v>0.939684</v>
+        <v>0.939053</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.858225</v>
+        <v>0.861185</v>
       </c>
       <c r="C85" t="n">
-        <v>0.89513</v>
+        <v>0.899286</v>
       </c>
       <c r="D85" t="n">
-        <v>0.91948</v>
+        <v>0.9225449999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.840743</v>
+        <v>0.847701</v>
       </c>
       <c r="C86" t="n">
-        <v>0.877548</v>
+        <v>0.881425</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9012559999999999</v>
+        <v>0.903426</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.829101</v>
+        <v>0.833099</v>
       </c>
       <c r="C87" t="n">
-        <v>0.861861</v>
+        <v>0.863381</v>
       </c>
       <c r="D87" t="n">
-        <v>0.88694</v>
+        <v>0.885773</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8183820000000001</v>
+        <v>0.818746</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8457710000000001</v>
+        <v>0.842574</v>
       </c>
       <c r="D88" t="n">
-        <v>0.870712</v>
+        <v>0.869327</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.806824</v>
+        <v>0.807952</v>
       </c>
       <c r="C89" t="n">
-        <v>0.828062</v>
+        <v>0.82888</v>
       </c>
       <c r="D89" t="n">
-        <v>0.855482</v>
+        <v>0.853212</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7931859999999999</v>
+        <v>0.796671</v>
       </c>
       <c r="C90" t="n">
-        <v>0.813134</v>
+        <v>0.815153</v>
       </c>
       <c r="D90" t="n">
-        <v>0.841551</v>
+        <v>0.835727</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.784507</v>
+        <v>0.786697</v>
       </c>
       <c r="C91" t="n">
-        <v>0.799352</v>
+        <v>0.800951</v>
       </c>
       <c r="D91" t="n">
-        <v>0.828929</v>
+        <v>0.822993</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.779639</v>
+        <v>0.778626</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7887380000000001</v>
+        <v>0.789245</v>
       </c>
       <c r="D92" t="n">
-        <v>0.816293</v>
+        <v>0.816603</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.769971</v>
+        <v>0.776633</v>
       </c>
       <c r="C93" t="n">
-        <v>0.774915</v>
+        <v>0.779095</v>
       </c>
       <c r="D93" t="n">
-        <v>0.808588</v>
+        <v>0.803709</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.769258</v>
+        <v>0.773532</v>
       </c>
       <c r="C94" t="n">
-        <v>0.76167</v>
+        <v>0.770396</v>
       </c>
       <c r="D94" t="n">
-        <v>1.08208</v>
+        <v>1.07998</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9738830000000001</v>
+        <v>0.975179</v>
       </c>
       <c r="C95" t="n">
-        <v>1.02631</v>
+        <v>1.03388</v>
       </c>
       <c r="D95" t="n">
-        <v>1.07849</v>
+        <v>1.07856</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.979739</v>
+        <v>0.981621</v>
       </c>
       <c r="C96" t="n">
-        <v>1.03647</v>
+        <v>1.03819</v>
       </c>
       <c r="D96" t="n">
-        <v>1.07468</v>
+        <v>1.07154</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.977069</v>
+        <v>0.978162</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02582</v>
+        <v>1.02478</v>
       </c>
       <c r="D97" t="n">
-        <v>1.05416</v>
+        <v>1.05281</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.971855</v>
+        <v>0.972006</v>
       </c>
       <c r="C98" t="n">
-        <v>1.01958</v>
+        <v>1.01863</v>
       </c>
       <c r="D98" t="n">
-        <v>1.03817</v>
+        <v>1.04623</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.963535</v>
+        <v>0.964639</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00189</v>
+        <v>1.00782</v>
       </c>
       <c r="D99" t="n">
-        <v>1.0346</v>
+        <v>1.03921</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.954827</v>
+        <v>0.957136</v>
       </c>
       <c r="C100" t="n">
-        <v>0.990961</v>
+        <v>0.999729</v>
       </c>
       <c r="D100" t="n">
-        <v>1.02339</v>
+        <v>1.01931</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.944932</v>
+        <v>0.946713</v>
       </c>
       <c r="C101" t="n">
-        <v>0.968513</v>
+        <v>0.988637</v>
       </c>
       <c r="D101" t="n">
-        <v>1.00763</v>
+        <v>1.00817</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.934715</v>
+        <v>0.938594</v>
       </c>
       <c r="C102" t="n">
-        <v>0.964911</v>
+        <v>0.9703850000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.980225</v>
+        <v>0.997851</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.926253</v>
+        <v>0.9297299999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9592540000000001</v>
+        <v>0.964437</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9794890000000001</v>
+        <v>0.985142</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.919192</v>
+        <v>0.922806</v>
       </c>
       <c r="C104" t="n">
-        <v>0.94112</v>
+        <v>0.951277</v>
       </c>
       <c r="D104" t="n">
-        <v>0.953587</v>
+        <v>0.973971</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.911871</v>
+        <v>0.915517</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9407990000000001</v>
+        <v>0.926696</v>
       </c>
       <c r="D105" t="n">
-        <v>0.932868</v>
+        <v>0.964911</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.906619</v>
+        <v>0.909917</v>
       </c>
       <c r="C106" t="n">
-        <v>0.925416</v>
+        <v>0.933186</v>
       </c>
       <c r="D106" t="n">
-        <v>0.945026</v>
+        <v>0.955559</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.900663</v>
+        <v>0.908269</v>
       </c>
       <c r="C107" t="n">
-        <v>0.896948</v>
+        <v>0.926569</v>
       </c>
       <c r="D107" t="n">
-        <v>0.938894</v>
+        <v>0.915261</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.898693</v>
+        <v>0.906207</v>
       </c>
       <c r="C108" t="n">
-        <v>0.896937</v>
+        <v>0.890796</v>
       </c>
       <c r="D108" t="n">
-        <v>1.21371</v>
+        <v>1.19009</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.900958</v>
+        <v>0.907998</v>
       </c>
       <c r="C109" t="n">
-        <v>0.904979</v>
+        <v>0.913291</v>
       </c>
       <c r="D109" t="n">
-        <v>1.23075</v>
+        <v>1.23969</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.10734</v>
+        <v>1.1192</v>
       </c>
       <c r="C110" t="n">
-        <v>1.17302</v>
+        <v>1.20298</v>
       </c>
       <c r="D110" t="n">
-        <v>1.21719</v>
+        <v>1.24278</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.1131</v>
+        <v>1.12264</v>
       </c>
       <c r="C111" t="n">
-        <v>1.16782</v>
+        <v>1.17642</v>
       </c>
       <c r="D111" t="n">
-        <v>1.2197</v>
+        <v>1.21328</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.11783</v>
+        <v>1.12739</v>
       </c>
       <c r="C112" t="n">
-        <v>1.18995</v>
+        <v>1.18003</v>
       </c>
       <c r="D112" t="n">
-        <v>1.22491</v>
+        <v>1.21789</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.12162</v>
+        <v>1.12956</v>
       </c>
       <c r="C113" t="n">
-        <v>1.1852</v>
+        <v>1.19343</v>
       </c>
       <c r="D113" t="n">
-        <v>1.21384</v>
+        <v>1.23037</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.1261</v>
+        <v>1.12672</v>
       </c>
       <c r="C114" t="n">
-        <v>1.18944</v>
+        <v>1.19889</v>
       </c>
       <c r="D114" t="n">
-        <v>1.21402</v>
+        <v>1.22855</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12895</v>
+        <v>1.13234</v>
       </c>
       <c r="C115" t="n">
-        <v>1.20392</v>
+        <v>1.20534</v>
       </c>
       <c r="D115" t="n">
-        <v>1.23542</v>
+        <v>1.23865</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13019</v>
+        <v>1.13165</v>
       </c>
       <c r="C116" t="n">
-        <v>1.20266</v>
+        <v>1.19845</v>
       </c>
       <c r="D116" t="n">
-        <v>1.22813</v>
+        <v>1.21549</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.13383</v>
+        <v>1.13546</v>
       </c>
       <c r="C117" t="n">
-        <v>1.2052</v>
+        <v>1.19412</v>
       </c>
       <c r="D117" t="n">
-        <v>1.23051</v>
+        <v>1.21684</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13679</v>
+        <v>1.1377</v>
       </c>
       <c r="C118" t="n">
-        <v>1.20723</v>
+        <v>1.2014</v>
       </c>
       <c r="D118" t="n">
-        <v>1.23314</v>
+        <v>1.22575</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.14283</v>
+        <v>1.14091</v>
       </c>
       <c r="C119" t="n">
-        <v>1.20871</v>
+        <v>1.19321</v>
       </c>
       <c r="D119" t="n">
-        <v>1.23338</v>
+        <v>1.21496</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.14517</v>
+        <v>1.14638</v>
       </c>
       <c r="C120" t="n">
-        <v>1.2055</v>
+        <v>1.20583</v>
       </c>
       <c r="D120" t="n">
-        <v>1.2352</v>
+        <v>1.21241</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.15261</v>
+        <v>1.1522</v>
       </c>
       <c r="C121" t="n">
-        <v>1.20746</v>
+        <v>1.19587</v>
       </c>
       <c r="D121" t="n">
-        <v>1.23558</v>
+        <v>1.22436</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.16205</v>
+        <v>1.16325</v>
       </c>
       <c r="C122" t="n">
-        <v>1.20969</v>
+        <v>1.21046</v>
       </c>
       <c r="D122" t="n">
-        <v>1.22612</v>
+        <v>1.22292</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.17221</v>
+        <v>1.17158</v>
       </c>
       <c r="C123" t="n">
-        <v>1.20458</v>
+        <v>1.2134</v>
       </c>
       <c r="D123" t="n">
-        <v>1.51417</v>
+        <v>1.52911</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.37497</v>
+        <v>1.37705</v>
       </c>
       <c r="C124" t="n">
-        <v>1.49055</v>
+        <v>1.4946</v>
       </c>
       <c r="D124" t="n">
-        <v>1.53104</v>
+        <v>1.53446</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.37664</v>
+        <v>1.3789</v>
       </c>
       <c r="C125" t="n">
-        <v>1.50605</v>
+        <v>1.4947</v>
       </c>
       <c r="D125" t="n">
-        <v>1.53697</v>
+        <v>1.52815</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.37891</v>
+        <v>1.37694</v>
       </c>
       <c r="C126" t="n">
-        <v>1.50917</v>
+        <v>1.51619</v>
       </c>
       <c r="D126" t="n">
-        <v>1.53763</v>
+        <v>1.54526</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.3824</v>
+        <v>1.38196</v>
       </c>
       <c r="C127" t="n">
-        <v>1.51486</v>
+        <v>1.5218</v>
       </c>
       <c r="D127" t="n">
-        <v>1.55804</v>
+        <v>1.548</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.38639</v>
+        <v>1.38379</v>
       </c>
       <c r="C128" t="n">
-        <v>1.52732</v>
+        <v>1.52679</v>
       </c>
       <c r="D128" t="n">
-        <v>1.56129</v>
+        <v>1.55171</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.38734</v>
+        <v>1.38663</v>
       </c>
       <c r="C129" t="n">
-        <v>1.52782</v>
+        <v>1.53201</v>
       </c>
       <c r="D129" t="n">
-        <v>1.56499</v>
+        <v>1.55604</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.38849</v>
+        <v>1.38907</v>
       </c>
       <c r="C130" t="n">
-        <v>1.52944</v>
+        <v>1.54347</v>
       </c>
       <c r="D130" t="n">
-        <v>1.56448</v>
+        <v>1.56649</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.39337</v>
+        <v>1.39165</v>
       </c>
       <c r="C131" t="n">
-        <v>1.54486</v>
+        <v>1.54887</v>
       </c>
       <c r="D131" t="n">
-        <v>1.58054</v>
+        <v>1.56796</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.39547</v>
+        <v>1.39564</v>
       </c>
       <c r="C132" t="n">
-        <v>1.544</v>
+        <v>1.54559</v>
       </c>
       <c r="D132" t="n">
-        <v>1.58005</v>
+        <v>1.57424</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.40131</v>
+        <v>1.39925</v>
       </c>
       <c r="C133" t="n">
-        <v>1.55743</v>
+        <v>1.55256</v>
       </c>
       <c r="D133" t="n">
-        <v>1.59418</v>
+        <v>1.57716</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.40795</v>
+        <v>1.4052</v>
       </c>
       <c r="C134" t="n">
-        <v>1.572</v>
+        <v>1.55944</v>
       </c>
       <c r="D134" t="n">
-        <v>1.58923</v>
+        <v>1.58625</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.41406</v>
+        <v>1.41237</v>
       </c>
       <c r="C135" t="n">
-        <v>1.57404</v>
+        <v>1.57142</v>
       </c>
       <c r="D135" t="n">
-        <v>1.59814</v>
+        <v>1.59177</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.42559</v>
+        <v>1.422</v>
       </c>
       <c r="C136" t="n">
-        <v>1.58669</v>
+        <v>1.58312</v>
       </c>
       <c r="D136" t="n">
-        <v>1.61486</v>
+        <v>1.6002</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.43755</v>
+        <v>1.43442</v>
       </c>
       <c r="C137" t="n">
-        <v>1.59522</v>
+        <v>1.58746</v>
       </c>
       <c r="D137" t="n">
-        <v>1.89647</v>
+        <v>1.8847</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.64854</v>
+        <v>1.64556</v>
       </c>
       <c r="C138" t="n">
-        <v>1.86807</v>
+        <v>1.87178</v>
       </c>
       <c r="D138" t="n">
-        <v>1.9085</v>
+        <v>1.90454</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.64633</v>
+        <v>1.64244</v>
       </c>
       <c r="C139" t="n">
-        <v>1.88575</v>
+        <v>1.88064</v>
       </c>
       <c r="D139" t="n">
-        <v>1.92299</v>
+        <v>1.91618</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.64514</v>
+        <v>1.64174</v>
       </c>
       <c r="C140" t="n">
-        <v>1.8978</v>
+        <v>1.89477</v>
       </c>
       <c r="D140" t="n">
-        <v>1.93046</v>
+        <v>1.92986</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.64094</v>
+        <v>1.63885</v>
       </c>
       <c r="C141" t="n">
-        <v>1.90738</v>
+        <v>1.90408</v>
       </c>
       <c r="D141" t="n">
-        <v>1.94728</v>
+        <v>1.9332</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.64022</v>
+        <v>1.63701</v>
       </c>
       <c r="C142" t="n">
-        <v>1.92062</v>
+        <v>1.9139</v>
       </c>
       <c r="D142" t="n">
-        <v>1.95699</v>
+        <v>1.94338</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.63983</v>
+        <v>1.6354</v>
       </c>
       <c r="C143" t="n">
-        <v>1.92698</v>
+        <v>1.91903</v>
       </c>
       <c r="D143" t="n">
-        <v>1.96253</v>
+        <v>1.95146</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7012389999999999</v>
+        <v>0.700362</v>
       </c>
       <c r="C2" t="n">
-        <v>0.716292</v>
+        <v>0.74798</v>
       </c>
       <c r="D2" t="n">
-        <v>0.730621</v>
+        <v>0.730409</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.690536</v>
+        <v>0.688779</v>
       </c>
       <c r="C3" t="n">
-        <v>0.699971</v>
+        <v>0.731345</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7150339999999999</v>
+        <v>0.715678</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.679732</v>
+        <v>0.678607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.685937</v>
+        <v>0.716294</v>
       </c>
       <c r="D4" t="n">
-        <v>0.701919</v>
+        <v>0.702492</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.671789</v>
+        <v>0.670945</v>
       </c>
       <c r="C5" t="n">
-        <v>0.672601</v>
+        <v>0.702382</v>
       </c>
       <c r="D5" t="n">
-        <v>0.690044</v>
+        <v>0.68964</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.664512</v>
+        <v>0.663628</v>
       </c>
       <c r="C6" t="n">
-        <v>0.660095</v>
+        <v>0.689121</v>
       </c>
       <c r="D6" t="n">
-        <v>0.678634</v>
+        <v>0.67857</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6596109999999999</v>
+        <v>0.658308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.649692</v>
+        <v>0.678462</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6706299999999999</v>
+        <v>0.670287</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.658342</v>
+        <v>0.657366</v>
       </c>
       <c r="C8" t="n">
-        <v>0.641972</v>
+        <v>0.669818</v>
       </c>
       <c r="D8" t="n">
-        <v>0.665652</v>
+        <v>0.664851</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.661622</v>
+        <v>0.661184</v>
       </c>
       <c r="C9" t="n">
-        <v>0.637895</v>
+        <v>0.665027</v>
       </c>
       <c r="D9" t="n">
-        <v>0.894564</v>
+        <v>0.894398</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.819086</v>
+        <v>0.819183</v>
       </c>
       <c r="C10" t="n">
-        <v>0.868945</v>
+        <v>0.907772</v>
       </c>
       <c r="D10" t="n">
-        <v>0.877766</v>
+        <v>0.878289</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7999849999999999</v>
+        <v>0.799813</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8459410000000001</v>
+        <v>0.883058</v>
       </c>
       <c r="D11" t="n">
-        <v>0.856434</v>
+        <v>0.855915</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.781987</v>
+        <v>0.781959</v>
       </c>
       <c r="C12" t="n">
-        <v>0.823912</v>
+        <v>0.86056</v>
       </c>
       <c r="D12" t="n">
-        <v>0.83543</v>
+        <v>0.8358179999999999</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.765155</v>
+        <v>0.764781</v>
       </c>
       <c r="C13" t="n">
-        <v>0.802759</v>
+        <v>0.837845</v>
       </c>
       <c r="D13" t="n">
-        <v>0.815313</v>
+        <v>0.81545</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.749456</v>
+        <v>0.749265</v>
       </c>
       <c r="C14" t="n">
-        <v>0.782593</v>
+        <v>0.817078</v>
       </c>
       <c r="D14" t="n">
-        <v>0.795922</v>
+        <v>0.795876</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.734649</v>
+        <v>0.734241</v>
       </c>
       <c r="C15" t="n">
-        <v>0.763835</v>
+        <v>0.797423</v>
       </c>
       <c r="D15" t="n">
-        <v>0.778624</v>
+        <v>0.7782790000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.720878</v>
+        <v>0.720874</v>
       </c>
       <c r="C16" t="n">
-        <v>0.745889</v>
+        <v>0.778873</v>
       </c>
       <c r="D16" t="n">
-        <v>0.761697</v>
+        <v>0.761818</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.708353</v>
+        <v>0.708252</v>
       </c>
       <c r="C17" t="n">
-        <v>0.729297</v>
+        <v>0.761648</v>
       </c>
       <c r="D17" t="n">
-        <v>0.746301</v>
+        <v>0.746202</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.697644</v>
+        <v>0.697025</v>
       </c>
       <c r="C18" t="n">
-        <v>0.713433</v>
+        <v>0.744967</v>
       </c>
       <c r="D18" t="n">
-        <v>0.731691</v>
+        <v>0.7316319999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.688203</v>
+        <v>0.687858</v>
       </c>
       <c r="C19" t="n">
-        <v>0.699229</v>
+        <v>0.730549</v>
       </c>
       <c r="D19" t="n">
-        <v>0.719303</v>
+        <v>0.71846</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.680713</v>
+        <v>0.680273</v>
       </c>
       <c r="C20" t="n">
-        <v>0.685716</v>
+        <v>0.715917</v>
       </c>
       <c r="D20" t="n">
-        <v>0.706603</v>
+        <v>0.706321</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.674664</v>
+        <v>0.67465</v>
       </c>
       <c r="C21" t="n">
-        <v>0.67401</v>
+        <v>0.703842</v>
       </c>
       <c r="D21" t="n">
-        <v>0.696561</v>
+        <v>0.695823</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.67192</v>
+        <v>0.671597</v>
       </c>
       <c r="C22" t="n">
-        <v>0.664631</v>
+        <v>0.693784</v>
       </c>
       <c r="D22" t="n">
-        <v>0.689648</v>
+        <v>0.688811</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.67244</v>
+        <v>0.67247</v>
       </c>
       <c r="C23" t="n">
-        <v>0.658218</v>
+        <v>0.686601</v>
       </c>
       <c r="D23" t="n">
-        <v>0.923816</v>
+        <v>0.925096</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.812035</v>
+        <v>0.811926</v>
       </c>
       <c r="C24" t="n">
-        <v>0.871128</v>
+        <v>0.910699</v>
       </c>
       <c r="D24" t="n">
-        <v>0.901332</v>
+        <v>0.902326</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7938499999999999</v>
+        <v>0.793864</v>
       </c>
       <c r="C25" t="n">
-        <v>0.848588</v>
+        <v>0.887394</v>
       </c>
       <c r="D25" t="n">
-        <v>0.878609</v>
+        <v>0.879563</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.776493</v>
+        <v>0.776733</v>
       </c>
       <c r="C26" t="n">
-        <v>0.826585</v>
+        <v>0.864408</v>
       </c>
       <c r="D26" t="n">
-        <v>0.856375</v>
+        <v>0.857777</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.760266</v>
+        <v>0.7604109999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8059190000000001</v>
+        <v>0.843067</v>
       </c>
       <c r="D27" t="n">
-        <v>0.835808</v>
+        <v>0.836664</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.746879</v>
+        <v>0.744798</v>
       </c>
       <c r="C28" t="n">
-        <v>0.786382</v>
+        <v>0.822776</v>
       </c>
       <c r="D28" t="n">
-        <v>0.816536</v>
+        <v>0.817528</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.730353</v>
+        <v>0.730385</v>
       </c>
       <c r="C29" t="n">
-        <v>0.767525</v>
+        <v>0.803276</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7980699999999999</v>
+        <v>0.798929</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.717397</v>
+        <v>0.717649</v>
       </c>
       <c r="C30" t="n">
-        <v>0.749602</v>
+        <v>0.785089</v>
       </c>
       <c r="D30" t="n">
-        <v>0.78085</v>
+        <v>0.7817190000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.704954</v>
+        <v>0.705018</v>
       </c>
       <c r="C31" t="n">
-        <v>0.733067</v>
+        <v>0.767181</v>
       </c>
       <c r="D31" t="n">
-        <v>0.764517</v>
+        <v>0.765326</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.694222</v>
+        <v>0.693937</v>
       </c>
       <c r="C32" t="n">
-        <v>0.717502</v>
+        <v>0.751561</v>
       </c>
       <c r="D32" t="n">
-        <v>0.749615</v>
+        <v>0.750224</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.68508</v>
+        <v>0.6847259999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.703773</v>
+        <v>0.735944</v>
       </c>
       <c r="D33" t="n">
-        <v>0.736216</v>
+        <v>0.736563</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6771779999999999</v>
+        <v>0.677208</v>
       </c>
       <c r="C34" t="n">
-        <v>0.690478</v>
+        <v>0.72293</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7236900000000001</v>
+        <v>0.723905</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6717610000000001</v>
+        <v>0.671449</v>
       </c>
       <c r="C35" t="n">
-        <v>0.678955</v>
+        <v>0.710074</v>
       </c>
       <c r="D35" t="n">
-        <v>0.712805</v>
+        <v>0.713443</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.668318</v>
+        <v>0.6684600000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.668587</v>
+        <v>0.699847</v>
       </c>
       <c r="D36" t="n">
-        <v>0.704715</v>
+        <v>0.704997</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.668803</v>
+        <v>0.668708</v>
       </c>
       <c r="C37" t="n">
-        <v>0.661693</v>
+        <v>0.692106</v>
       </c>
       <c r="D37" t="n">
-        <v>0.945926</v>
+        <v>0.946729</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.846545</v>
+        <v>0.846294</v>
       </c>
       <c r="C38" t="n">
-        <v>0.904092</v>
+        <v>0.94446</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9217070000000001</v>
+        <v>0.923368</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.828252</v>
+        <v>0.828136</v>
       </c>
       <c r="C39" t="n">
-        <v>0.881835</v>
+        <v>0.921136</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8989</v>
+        <v>0.900853</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.80846</v>
+        <v>0.809481</v>
       </c>
       <c r="C40" t="n">
-        <v>0.858279</v>
+        <v>0.897479</v>
       </c>
       <c r="D40" t="n">
-        <v>0.877121</v>
+        <v>0.878856</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.791973</v>
+        <v>0.791663</v>
       </c>
       <c r="C41" t="n">
-        <v>0.83752</v>
+        <v>0.874686</v>
       </c>
       <c r="D41" t="n">
-        <v>0.856714</v>
+        <v>0.8583</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.774994</v>
+        <v>0.775054</v>
       </c>
       <c r="C42" t="n">
-        <v>0.815586</v>
+        <v>0.853474</v>
       </c>
       <c r="D42" t="n">
-        <v>0.836508</v>
+        <v>0.838803</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.75863</v>
+        <v>0.759966</v>
       </c>
       <c r="C43" t="n">
-        <v>0.795973</v>
+        <v>0.833613</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8184630000000001</v>
+        <v>0.820138</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.744453</v>
+        <v>0.745233</v>
       </c>
       <c r="C44" t="n">
-        <v>0.77763</v>
+        <v>0.814757</v>
       </c>
       <c r="D44" t="n">
-        <v>0.800652</v>
+        <v>0.802801</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.731289</v>
+        <v>0.7325390000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.760313</v>
+        <v>0.796165</v>
       </c>
       <c r="D45" t="n">
-        <v>0.783928</v>
+        <v>0.786702</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.720737</v>
+        <v>0.720423</v>
       </c>
       <c r="C46" t="n">
-        <v>0.745942</v>
+        <v>0.779168</v>
       </c>
       <c r="D46" t="n">
-        <v>0.769222</v>
+        <v>0.771427</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.708958</v>
+        <v>0.709857</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7296820000000001</v>
+        <v>0.763785</v>
       </c>
       <c r="D47" t="n">
-        <v>0.754878</v>
+        <v>0.757395</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.700126</v>
+        <v>0.700718</v>
       </c>
       <c r="C48" t="n">
-        <v>0.716184</v>
+        <v>0.748873</v>
       </c>
       <c r="D48" t="n">
-        <v>0.74225</v>
+        <v>0.74416</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.691954</v>
+        <v>0.694091</v>
       </c>
       <c r="C49" t="n">
-        <v>0.702533</v>
+        <v>0.73617</v>
       </c>
       <c r="D49" t="n">
-        <v>0.730239</v>
+        <v>0.732804</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.686871</v>
+        <v>0.689412</v>
       </c>
       <c r="C50" t="n">
-        <v>0.69226</v>
+        <v>0.724209</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7218560000000001</v>
+        <v>0.723575</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.686452</v>
+        <v>0.687121</v>
       </c>
       <c r="C51" t="n">
-        <v>0.684989</v>
+        <v>0.716116</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9691340000000001</v>
+        <v>0.972068</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.688047</v>
+        <v>0.688825</v>
       </c>
       <c r="C52" t="n">
-        <v>0.677832</v>
+        <v>0.70825</v>
       </c>
       <c r="D52" t="n">
-        <v>0.945819</v>
+        <v>0.948952</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8489679999999999</v>
+        <v>0.850637</v>
       </c>
       <c r="C53" t="n">
-        <v>0.904809</v>
+        <v>0.946689</v>
       </c>
       <c r="D53" t="n">
-        <v>0.922641</v>
+        <v>0.92533</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.829922</v>
+        <v>0.831353</v>
       </c>
       <c r="C54" t="n">
-        <v>0.882148</v>
+        <v>0.922314</v>
       </c>
       <c r="D54" t="n">
-        <v>0.901152</v>
+        <v>0.902348</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.812858</v>
+        <v>0.814566</v>
       </c>
       <c r="C55" t="n">
-        <v>0.859784</v>
+        <v>0.899207</v>
       </c>
       <c r="D55" t="n">
-        <v>0.880759</v>
+        <v>0.882556</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7984290000000001</v>
+        <v>0.798033</v>
       </c>
       <c r="C56" t="n">
-        <v>0.839157</v>
+        <v>0.878611</v>
       </c>
       <c r="D56" t="n">
-        <v>0.861156</v>
+        <v>0.863733</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.781118</v>
+        <v>0.78238</v>
       </c>
       <c r="C57" t="n">
-        <v>0.819307</v>
+        <v>0.858405</v>
       </c>
       <c r="D57" t="n">
-        <v>0.843264</v>
+        <v>0.845152</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.76607</v>
+        <v>0.767946</v>
       </c>
       <c r="C58" t="n">
-        <v>0.801465</v>
+        <v>0.839303</v>
       </c>
       <c r="D58" t="n">
-        <v>0.826777</v>
+        <v>0.828057</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.755091</v>
+        <v>0.754611</v>
       </c>
       <c r="C59" t="n">
-        <v>0.78488</v>
+        <v>0.821008</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8091469999999999</v>
+        <v>0.81157</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.742949</v>
+        <v>0.742599</v>
       </c>
       <c r="C60" t="n">
-        <v>0.769087</v>
+        <v>0.80413</v>
       </c>
       <c r="D60" t="n">
-        <v>0.793855</v>
+        <v>0.795944</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7313460000000001</v>
+        <v>0.731687</v>
       </c>
       <c r="C61" t="n">
-        <v>0.753634</v>
+        <v>0.787902</v>
       </c>
       <c r="D61" t="n">
-        <v>0.77972</v>
+        <v>0.781543</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.722535</v>
+        <v>0.722228</v>
       </c>
       <c r="C62" t="n">
-        <v>0.739815</v>
+        <v>0.7730050000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.765817</v>
+        <v>0.768662</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.712578</v>
+        <v>0.714903</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7270180000000001</v>
+        <v>0.759902</v>
       </c>
       <c r="D63" t="n">
-        <v>0.756104</v>
+        <v>0.757207</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.71013</v>
+        <v>0.709928</v>
       </c>
       <c r="C64" t="n">
-        <v>0.716104</v>
+        <v>0.747359</v>
       </c>
       <c r="D64" t="n">
-        <v>0.746818</v>
+        <v>0.747852</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7074780000000001</v>
+        <v>0.706804</v>
       </c>
       <c r="C65" t="n">
-        <v>0.707739</v>
+        <v>0.7374849999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.739737</v>
+        <v>0.737249</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.706826</v>
+        <v>0.70835</v>
       </c>
       <c r="C66" t="n">
-        <v>0.700603</v>
+        <v>0.7312380000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.971975</v>
+        <v>0.977871</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.871343</v>
+        <v>0.874692</v>
       </c>
       <c r="C67" t="n">
-        <v>0.935488</v>
+        <v>0.977096</v>
       </c>
       <c r="D67" t="n">
-        <v>0.950267</v>
+        <v>0.953968</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.853207</v>
+        <v>0.856607</v>
       </c>
       <c r="C68" t="n">
-        <v>0.912112</v>
+        <v>0.954778</v>
       </c>
       <c r="D68" t="n">
-        <v>0.927794</v>
+        <v>0.933291</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.835947</v>
+        <v>0.838628</v>
       </c>
       <c r="C69" t="n">
-        <v>0.888863</v>
+        <v>0.931975</v>
       </c>
       <c r="D69" t="n">
-        <v>0.908469</v>
+        <v>0.911187</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.821093</v>
+        <v>0.820595</v>
       </c>
       <c r="C70" t="n">
-        <v>0.870463</v>
+        <v>0.91039</v>
       </c>
       <c r="D70" t="n">
-        <v>0.891111</v>
+        <v>0.892459</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.806021</v>
+        <v>0.80568</v>
       </c>
       <c r="C71" t="n">
-        <v>0.853391</v>
+        <v>0.887578</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8724420000000001</v>
+        <v>0.873848</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.790499</v>
+        <v>0.790787</v>
       </c>
       <c r="C72" t="n">
-        <v>0.832622</v>
+        <v>0.8692</v>
       </c>
       <c r="D72" t="n">
-        <v>0.855786</v>
+        <v>0.856286</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7782520000000001</v>
+        <v>0.7791439999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.817608</v>
+        <v>0.849515</v>
       </c>
       <c r="D73" t="n">
-        <v>0.839249</v>
+        <v>0.839566</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7638779999999999</v>
+        <v>0.7665960000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.794919</v>
+        <v>0.834434</v>
       </c>
       <c r="D74" t="n">
-        <v>0.821356</v>
+        <v>0.824877</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.753478</v>
+        <v>0.755367</v>
       </c>
       <c r="C75" t="n">
-        <v>0.780729</v>
+        <v>0.817461</v>
       </c>
       <c r="D75" t="n">
-        <v>0.808566</v>
+        <v>0.810208</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.743869</v>
+        <v>0.746435</v>
       </c>
       <c r="C76" t="n">
-        <v>0.765249</v>
+        <v>0.801883</v>
       </c>
       <c r="D76" t="n">
-        <v>0.793291</v>
+        <v>0.797671</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.735826</v>
+        <v>0.738836</v>
       </c>
       <c r="C77" t="n">
-        <v>0.751044</v>
+        <v>0.78861</v>
       </c>
       <c r="D77" t="n">
-        <v>0.78161</v>
+        <v>0.7854179999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.730398</v>
+        <v>0.733466</v>
       </c>
       <c r="C78" t="n">
-        <v>0.739526</v>
+        <v>0.775508</v>
       </c>
       <c r="D78" t="n">
-        <v>0.771564</v>
+        <v>0.775952</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.727285</v>
+        <v>0.7304929999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.73027</v>
+        <v>0.766807</v>
       </c>
       <c r="D79" t="n">
-        <v>0.764294</v>
+        <v>0.7686730000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.728064</v>
+        <v>0.730814</v>
       </c>
       <c r="C80" t="n">
-        <v>0.723083</v>
+        <v>0.758907</v>
       </c>
       <c r="D80" t="n">
-        <v>1.02246</v>
+        <v>1.02151</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.919658</v>
+        <v>0.915683</v>
       </c>
       <c r="C81" t="n">
-        <v>0.979836</v>
+        <v>1.01873</v>
       </c>
       <c r="D81" t="n">
-        <v>1.0003</v>
+        <v>0.999187</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.905547</v>
+        <v>0.900488</v>
       </c>
       <c r="C82" t="n">
-        <v>0.958221</v>
+        <v>0.997296</v>
       </c>
       <c r="D82" t="n">
-        <v>0.979213</v>
+        <v>0.977715</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.889889</v>
+        <v>0.884718</v>
       </c>
       <c r="C83" t="n">
-        <v>0.936473</v>
+        <v>0.976077</v>
       </c>
       <c r="D83" t="n">
-        <v>0.958607</v>
+        <v>0.957404</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8748320000000001</v>
+        <v>0.869594</v>
       </c>
       <c r="C84" t="n">
-        <v>0.916061</v>
+        <v>0.955136</v>
       </c>
       <c r="D84" t="n">
-        <v>0.939053</v>
+        <v>0.939047</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.861185</v>
+        <v>0.855032</v>
       </c>
       <c r="C85" t="n">
-        <v>0.899286</v>
+        <v>0.932675</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9225449999999999</v>
+        <v>0.920472</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.847701</v>
+        <v>0.840336</v>
       </c>
       <c r="C86" t="n">
-        <v>0.881425</v>
+        <v>0.912045</v>
       </c>
       <c r="D86" t="n">
-        <v>0.903426</v>
+        <v>0.899651</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.833099</v>
+        <v>0.826812</v>
       </c>
       <c r="C87" t="n">
-        <v>0.863381</v>
+        <v>0.897665</v>
       </c>
       <c r="D87" t="n">
-        <v>0.885773</v>
+        <v>0.8822719999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.818746</v>
+        <v>0.813916</v>
       </c>
       <c r="C88" t="n">
-        <v>0.842574</v>
+        <v>0.879306</v>
       </c>
       <c r="D88" t="n">
-        <v>0.869327</v>
+        <v>0.864931</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.807952</v>
+        <v>0.802225</v>
       </c>
       <c r="C89" t="n">
-        <v>0.82888</v>
+        <v>0.862753</v>
       </c>
       <c r="D89" t="n">
-        <v>0.853212</v>
+        <v>0.850492</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.796671</v>
+        <v>0.790878</v>
       </c>
       <c r="C90" t="n">
-        <v>0.815153</v>
+        <v>0.846896</v>
       </c>
       <c r="D90" t="n">
-        <v>0.835727</v>
+        <v>0.835489</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.786697</v>
+        <v>0.78306</v>
       </c>
       <c r="C91" t="n">
-        <v>0.800951</v>
+        <v>0.8294</v>
       </c>
       <c r="D91" t="n">
-        <v>0.822993</v>
+        <v>0.828745</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.778626</v>
+        <v>0.777048</v>
       </c>
       <c r="C92" t="n">
-        <v>0.789245</v>
+        <v>0.820761</v>
       </c>
       <c r="D92" t="n">
-        <v>0.816603</v>
+        <v>0.817654</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.776633</v>
+        <v>0.772031</v>
       </c>
       <c r="C93" t="n">
-        <v>0.779095</v>
+        <v>0.809986</v>
       </c>
       <c r="D93" t="n">
-        <v>0.803709</v>
+        <v>0.808512</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.773532</v>
+        <v>0.771574</v>
       </c>
       <c r="C94" t="n">
-        <v>0.770396</v>
+        <v>0.798592</v>
       </c>
       <c r="D94" t="n">
-        <v>1.07998</v>
+        <v>1.08402</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.975179</v>
+        <v>0.974166</v>
       </c>
       <c r="C95" t="n">
-        <v>1.03388</v>
+        <v>1.07314</v>
       </c>
       <c r="D95" t="n">
-        <v>1.07856</v>
+        <v>1.08068</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.981621</v>
+        <v>0.979895</v>
       </c>
       <c r="C96" t="n">
-        <v>1.03819</v>
+        <v>1.07503</v>
       </c>
       <c r="D96" t="n">
-        <v>1.07154</v>
+        <v>1.07088</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.978162</v>
+        <v>0.9778289999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02478</v>
+        <v>1.07065</v>
       </c>
       <c r="D97" t="n">
-        <v>1.05281</v>
+        <v>1.05951</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.972006</v>
+        <v>0.971901</v>
       </c>
       <c r="C98" t="n">
-        <v>1.01863</v>
+        <v>1.05978</v>
       </c>
       <c r="D98" t="n">
-        <v>1.04623</v>
+        <v>1.04644</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.964639</v>
+        <v>0.963446</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00782</v>
+        <v>1.04715</v>
       </c>
       <c r="D99" t="n">
-        <v>1.03921</v>
+        <v>1.03275</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.957136</v>
+        <v>0.95413</v>
       </c>
       <c r="C100" t="n">
-        <v>0.999729</v>
+        <v>1.02752</v>
       </c>
       <c r="D100" t="n">
-        <v>1.01931</v>
+        <v>1.02412</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.946713</v>
+        <v>0.943558</v>
       </c>
       <c r="C101" t="n">
-        <v>0.988637</v>
+        <v>1.01994</v>
       </c>
       <c r="D101" t="n">
-        <v>1.00817</v>
+        <v>1.00956</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.938594</v>
+        <v>0.935194</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9703850000000001</v>
+        <v>1.00095</v>
       </c>
       <c r="D102" t="n">
-        <v>0.997851</v>
+        <v>0.9972760000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9297299999999999</v>
+        <v>0.925307</v>
       </c>
       <c r="C103" t="n">
-        <v>0.964437</v>
+        <v>0.987558</v>
       </c>
       <c r="D103" t="n">
-        <v>0.985142</v>
+        <v>0.977975</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.922806</v>
+        <v>0.9175720000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.951277</v>
+        <v>0.977257</v>
       </c>
       <c r="D104" t="n">
-        <v>0.973971</v>
+        <v>0.966426</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.915517</v>
+        <v>0.91145</v>
       </c>
       <c r="C105" t="n">
-        <v>0.926696</v>
+        <v>0.94596</v>
       </c>
       <c r="D105" t="n">
-        <v>0.964911</v>
+        <v>0.96139</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.909917</v>
+        <v>0.90899</v>
       </c>
       <c r="C106" t="n">
-        <v>0.933186</v>
+        <v>0.9664199999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.955559</v>
+        <v>0.956635</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.908269</v>
+        <v>0.905576</v>
       </c>
       <c r="C107" t="n">
-        <v>0.926569</v>
+        <v>0.928995</v>
       </c>
       <c r="D107" t="n">
-        <v>0.915261</v>
+        <v>0.938694</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.906207</v>
+        <v>0.90178</v>
       </c>
       <c r="C108" t="n">
-        <v>0.890796</v>
+        <v>0.926747</v>
       </c>
       <c r="D108" t="n">
-        <v>1.19009</v>
+        <v>1.21642</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.907998</v>
+        <v>0.906846</v>
       </c>
       <c r="C109" t="n">
-        <v>0.913291</v>
+        <v>0.914253</v>
       </c>
       <c r="D109" t="n">
-        <v>1.23969</v>
+        <v>1.2022</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.1192</v>
+        <v>1.11112</v>
       </c>
       <c r="C110" t="n">
-        <v>1.20298</v>
+        <v>1.20616</v>
       </c>
       <c r="D110" t="n">
-        <v>1.24278</v>
+        <v>1.2273</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.12264</v>
+        <v>1.11932</v>
       </c>
       <c r="C111" t="n">
-        <v>1.17642</v>
+        <v>1.22631</v>
       </c>
       <c r="D111" t="n">
-        <v>1.21328</v>
+        <v>1.23304</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.12739</v>
+        <v>1.12028</v>
       </c>
       <c r="C112" t="n">
-        <v>1.18003</v>
+        <v>1.23488</v>
       </c>
       <c r="D112" t="n">
-        <v>1.21789</v>
+        <v>1.22829</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.12956</v>
+        <v>1.1223</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19343</v>
+        <v>1.23244</v>
       </c>
       <c r="D113" t="n">
-        <v>1.23037</v>
+        <v>1.23574</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12672</v>
+        <v>1.12365</v>
       </c>
       <c r="C114" t="n">
-        <v>1.19889</v>
+        <v>1.23323</v>
       </c>
       <c r="D114" t="n">
-        <v>1.22855</v>
+        <v>1.22404</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13234</v>
+        <v>1.12412</v>
       </c>
       <c r="C115" t="n">
-        <v>1.20534</v>
+        <v>1.2343</v>
       </c>
       <c r="D115" t="n">
-        <v>1.23865</v>
+        <v>1.21135</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13165</v>
+        <v>1.13025</v>
       </c>
       <c r="C116" t="n">
-        <v>1.19845</v>
+        <v>1.22688</v>
       </c>
       <c r="D116" t="n">
-        <v>1.21549</v>
+        <v>1.21681</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.13546</v>
+        <v>1.13257</v>
       </c>
       <c r="C117" t="n">
-        <v>1.19412</v>
+        <v>1.2377</v>
       </c>
       <c r="D117" t="n">
-        <v>1.21684</v>
+        <v>1.23454</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.1377</v>
+        <v>1.13391</v>
       </c>
       <c r="C118" t="n">
-        <v>1.2014</v>
+        <v>1.23376</v>
       </c>
       <c r="D118" t="n">
-        <v>1.22575</v>
+        <v>1.23222</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.14091</v>
+        <v>1.13875</v>
       </c>
       <c r="C119" t="n">
-        <v>1.19321</v>
+        <v>1.2225</v>
       </c>
       <c r="D119" t="n">
-        <v>1.21496</v>
+        <v>1.22239</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.14638</v>
+        <v>1.14512</v>
       </c>
       <c r="C120" t="n">
-        <v>1.20583</v>
+        <v>1.22871</v>
       </c>
       <c r="D120" t="n">
-        <v>1.21241</v>
+        <v>1.23072</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.1522</v>
+        <v>1.14975</v>
       </c>
       <c r="C121" t="n">
-        <v>1.19587</v>
+        <v>1.22951</v>
       </c>
       <c r="D121" t="n">
-        <v>1.22436</v>
+        <v>1.20936</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.16325</v>
+        <v>1.15972</v>
       </c>
       <c r="C122" t="n">
-        <v>1.21046</v>
+        <v>1.24241</v>
       </c>
       <c r="D122" t="n">
-        <v>1.22292</v>
+        <v>1.22997</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.17158</v>
+        <v>1.16821</v>
       </c>
       <c r="C123" t="n">
-        <v>1.2134</v>
+        <v>1.22617</v>
       </c>
       <c r="D123" t="n">
-        <v>1.52911</v>
+        <v>1.51909</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.37705</v>
+        <v>1.37343</v>
       </c>
       <c r="C124" t="n">
-        <v>1.4946</v>
+        <v>1.53432</v>
       </c>
       <c r="D124" t="n">
-        <v>1.53446</v>
+        <v>1.52311</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.3789</v>
+        <v>1.37642</v>
       </c>
       <c r="C125" t="n">
-        <v>1.4947</v>
+        <v>1.54911</v>
       </c>
       <c r="D125" t="n">
-        <v>1.52815</v>
+        <v>1.53255</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.37694</v>
+        <v>1.37862</v>
       </c>
       <c r="C126" t="n">
-        <v>1.51619</v>
+        <v>1.54565</v>
       </c>
       <c r="D126" t="n">
-        <v>1.54526</v>
+        <v>1.54506</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.38196</v>
+        <v>1.37973</v>
       </c>
       <c r="C127" t="n">
-        <v>1.5218</v>
+        <v>1.55853</v>
       </c>
       <c r="D127" t="n">
-        <v>1.548</v>
+        <v>1.55158</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.38379</v>
+        <v>1.38285</v>
       </c>
       <c r="C128" t="n">
-        <v>1.52679</v>
+        <v>1.56789</v>
       </c>
       <c r="D128" t="n">
-        <v>1.55171</v>
+        <v>1.5519</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.38663</v>
+        <v>1.38463</v>
       </c>
       <c r="C129" t="n">
-        <v>1.53201</v>
+        <v>1.56969</v>
       </c>
       <c r="D129" t="n">
-        <v>1.55604</v>
+        <v>1.55558</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.38907</v>
+        <v>1.38855</v>
       </c>
       <c r="C130" t="n">
-        <v>1.54347</v>
+        <v>1.57284</v>
       </c>
       <c r="D130" t="n">
-        <v>1.56649</v>
+        <v>1.56541</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.39165</v>
+        <v>1.39143</v>
       </c>
       <c r="C131" t="n">
-        <v>1.54887</v>
+        <v>1.56967</v>
       </c>
       <c r="D131" t="n">
-        <v>1.56796</v>
+        <v>1.56286</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.39564</v>
+        <v>1.39514</v>
       </c>
       <c r="C132" t="n">
-        <v>1.54559</v>
+        <v>1.57753</v>
       </c>
       <c r="D132" t="n">
-        <v>1.57424</v>
+        <v>1.58058</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.39925</v>
+        <v>1.3998</v>
       </c>
       <c r="C133" t="n">
-        <v>1.55256</v>
+        <v>1.58977</v>
       </c>
       <c r="D133" t="n">
-        <v>1.57716</v>
+        <v>1.58181</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.4052</v>
+        <v>1.40576</v>
       </c>
       <c r="C134" t="n">
-        <v>1.55944</v>
+        <v>1.58952</v>
       </c>
       <c r="D134" t="n">
-        <v>1.58625</v>
+        <v>1.58961</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.41237</v>
+        <v>1.41163</v>
       </c>
       <c r="C135" t="n">
-        <v>1.57142</v>
+        <v>1.60453</v>
       </c>
       <c r="D135" t="n">
-        <v>1.59177</v>
+        <v>1.60031</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.422</v>
+        <v>1.42085</v>
       </c>
       <c r="C136" t="n">
-        <v>1.58312</v>
+        <v>1.60315</v>
       </c>
       <c r="D136" t="n">
-        <v>1.6002</v>
+        <v>1.59868</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.43442</v>
+        <v>1.4337</v>
       </c>
       <c r="C137" t="n">
-        <v>1.58746</v>
+        <v>1.62314</v>
       </c>
       <c r="D137" t="n">
-        <v>1.8847</v>
+        <v>1.88463</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.64556</v>
+        <v>1.64577</v>
       </c>
       <c r="C138" t="n">
-        <v>1.87178</v>
+        <v>1.90746</v>
       </c>
       <c r="D138" t="n">
-        <v>1.90454</v>
+        <v>1.90122</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.64244</v>
+        <v>1.64225</v>
       </c>
       <c r="C139" t="n">
-        <v>1.88064</v>
+        <v>1.92232</v>
       </c>
       <c r="D139" t="n">
-        <v>1.91618</v>
+        <v>1.91022</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.64174</v>
+        <v>1.63903</v>
       </c>
       <c r="C140" t="n">
-        <v>1.89477</v>
+        <v>1.92541</v>
       </c>
       <c r="D140" t="n">
-        <v>1.92986</v>
+        <v>1.92412</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.63885</v>
+        <v>1.6379</v>
       </c>
       <c r="C141" t="n">
-        <v>1.90408</v>
+        <v>1.94054</v>
       </c>
       <c r="D141" t="n">
-        <v>1.9332</v>
+        <v>1.93632</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.63701</v>
+        <v>1.63468</v>
       </c>
       <c r="C142" t="n">
-        <v>1.9139</v>
+        <v>1.94283</v>
       </c>
       <c r="D142" t="n">
-        <v>1.94338</v>
+        <v>1.94603</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.6354</v>
+        <v>1.63543</v>
       </c>
       <c r="C143" t="n">
-        <v>1.91903</v>
+        <v>1.95108</v>
       </c>
       <c r="D143" t="n">
-        <v>1.95146</v>
+        <v>1.95292</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.700362</v>
+        <v>0.700487</v>
       </c>
       <c r="C2" t="n">
-        <v>0.74798</v>
+        <v>0.7489710000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.730409</v>
+        <v>0.730976</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.688779</v>
+        <v>0.689426</v>
       </c>
       <c r="C3" t="n">
-        <v>0.731345</v>
+        <v>0.731845</v>
       </c>
       <c r="D3" t="n">
-        <v>0.715678</v>
+        <v>0.717054</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.678607</v>
+        <v>0.67943</v>
       </c>
       <c r="C4" t="n">
-        <v>0.716294</v>
+        <v>0.716888</v>
       </c>
       <c r="D4" t="n">
-        <v>0.702492</v>
+        <v>0.703557</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.670945</v>
+        <v>0.6715100000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.702382</v>
+        <v>0.702932</v>
       </c>
       <c r="D5" t="n">
-        <v>0.68964</v>
+        <v>0.691527</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.663628</v>
+        <v>0.663874</v>
       </c>
       <c r="C6" t="n">
-        <v>0.689121</v>
+        <v>0.689527</v>
       </c>
       <c r="D6" t="n">
-        <v>0.67857</v>
+        <v>0.680241</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.658308</v>
+        <v>0.659209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.678462</v>
+        <v>0.679074</v>
       </c>
       <c r="D7" t="n">
-        <v>0.670287</v>
+        <v>0.671779</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.657366</v>
+        <v>0.658201</v>
       </c>
       <c r="C8" t="n">
-        <v>0.669818</v>
+        <v>0.670511</v>
       </c>
       <c r="D8" t="n">
-        <v>0.664851</v>
+        <v>0.6662709999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.661184</v>
+        <v>0.6622130000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.665027</v>
+        <v>0.665749</v>
       </c>
       <c r="D9" t="n">
-        <v>0.894398</v>
+        <v>0.8944029999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.819183</v>
+        <v>0.821063</v>
       </c>
       <c r="C10" t="n">
-        <v>0.907772</v>
+        <v>0.907959</v>
       </c>
       <c r="D10" t="n">
-        <v>0.878289</v>
+        <v>0.878749</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.799813</v>
+        <v>0.801779</v>
       </c>
       <c r="C11" t="n">
-        <v>0.883058</v>
+        <v>0.883379</v>
       </c>
       <c r="D11" t="n">
-        <v>0.855915</v>
+        <v>0.856725</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.781959</v>
+        <v>0.783305</v>
       </c>
       <c r="C12" t="n">
-        <v>0.86056</v>
+        <v>0.860413</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8358179999999999</v>
+        <v>0.836124</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.764781</v>
+        <v>0.766051</v>
       </c>
       <c r="C13" t="n">
-        <v>0.837845</v>
+        <v>0.837832</v>
       </c>
       <c r="D13" t="n">
-        <v>0.81545</v>
+        <v>0.815463</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.749265</v>
+        <v>0.750217</v>
       </c>
       <c r="C14" t="n">
-        <v>0.817078</v>
+        <v>0.817092</v>
       </c>
       <c r="D14" t="n">
-        <v>0.795876</v>
+        <v>0.796582</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.734241</v>
+        <v>0.735387</v>
       </c>
       <c r="C15" t="n">
-        <v>0.797423</v>
+        <v>0.797745</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7782790000000001</v>
+        <v>0.779397</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.720874</v>
+        <v>0.721896</v>
       </c>
       <c r="C16" t="n">
-        <v>0.778873</v>
+        <v>0.779573</v>
       </c>
       <c r="D16" t="n">
-        <v>0.761818</v>
+        <v>0.762664</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.708252</v>
+        <v>0.709632</v>
       </c>
       <c r="C17" t="n">
-        <v>0.761648</v>
+        <v>0.761467</v>
       </c>
       <c r="D17" t="n">
-        <v>0.746202</v>
+        <v>0.746603</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.697025</v>
+        <v>0.698524</v>
       </c>
       <c r="C18" t="n">
-        <v>0.744967</v>
+        <v>0.744936</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7316319999999999</v>
+        <v>0.731704</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.687858</v>
+        <v>0.688839</v>
       </c>
       <c r="C19" t="n">
-        <v>0.730549</v>
+        <v>0.729857</v>
       </c>
       <c r="D19" t="n">
-        <v>0.71846</v>
+        <v>0.71904</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.680273</v>
+        <v>0.681244</v>
       </c>
       <c r="C20" t="n">
-        <v>0.715917</v>
+        <v>0.71563</v>
       </c>
       <c r="D20" t="n">
-        <v>0.706321</v>
+        <v>0.706465</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.67465</v>
+        <v>0.675613</v>
       </c>
       <c r="C21" t="n">
-        <v>0.703842</v>
+        <v>0.703637</v>
       </c>
       <c r="D21" t="n">
-        <v>0.695823</v>
+        <v>0.696482</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.671597</v>
+        <v>0.672968</v>
       </c>
       <c r="C22" t="n">
-        <v>0.693784</v>
+        <v>0.693593</v>
       </c>
       <c r="D22" t="n">
-        <v>0.688811</v>
+        <v>0.68946</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.67247</v>
+        <v>0.673388</v>
       </c>
       <c r="C23" t="n">
-        <v>0.686601</v>
+        <v>0.686478</v>
       </c>
       <c r="D23" t="n">
-        <v>0.925096</v>
+        <v>0.925713</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.811926</v>
+        <v>0.812674</v>
       </c>
       <c r="C24" t="n">
-        <v>0.910699</v>
+        <v>0.911516</v>
       </c>
       <c r="D24" t="n">
-        <v>0.902326</v>
+        <v>0.903068</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.793864</v>
+        <v>0.795585</v>
       </c>
       <c r="C25" t="n">
-        <v>0.887394</v>
+        <v>0.886472</v>
       </c>
       <c r="D25" t="n">
-        <v>0.879563</v>
+        <v>0.879177</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.776733</v>
+        <v>0.776732</v>
       </c>
       <c r="C26" t="n">
-        <v>0.864408</v>
+        <v>0.863752</v>
       </c>
       <c r="D26" t="n">
-        <v>0.857777</v>
+        <v>0.857455</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7604109999999999</v>
+        <v>0.760485</v>
       </c>
       <c r="C27" t="n">
-        <v>0.843067</v>
+        <v>0.842105</v>
       </c>
       <c r="D27" t="n">
-        <v>0.836664</v>
+        <v>0.836645</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.744798</v>
+        <v>0.744634</v>
       </c>
       <c r="C28" t="n">
-        <v>0.822776</v>
+        <v>0.821889</v>
       </c>
       <c r="D28" t="n">
-        <v>0.817528</v>
+        <v>0.8176600000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.730385</v>
+        <v>0.730645</v>
       </c>
       <c r="C29" t="n">
-        <v>0.803276</v>
+        <v>0.802782</v>
       </c>
       <c r="D29" t="n">
-        <v>0.798929</v>
+        <v>0.799187</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.717649</v>
+        <v>0.717831</v>
       </c>
       <c r="C30" t="n">
-        <v>0.785089</v>
+        <v>0.784002</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7817190000000001</v>
+        <v>0.78217</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.705018</v>
+        <v>0.7054589999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.767181</v>
+        <v>0.766727</v>
       </c>
       <c r="D31" t="n">
-        <v>0.765326</v>
+        <v>0.765222</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.693937</v>
+        <v>0.694087</v>
       </c>
       <c r="C32" t="n">
-        <v>0.751561</v>
+        <v>0.750634</v>
       </c>
       <c r="D32" t="n">
-        <v>0.750224</v>
+        <v>0.750221</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6847259999999999</v>
+        <v>0.684797</v>
       </c>
       <c r="C33" t="n">
-        <v>0.735944</v>
+        <v>0.735443</v>
       </c>
       <c r="D33" t="n">
-        <v>0.736563</v>
+        <v>0.736723</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.677208</v>
+        <v>0.677464</v>
       </c>
       <c r="C34" t="n">
-        <v>0.72293</v>
+        <v>0.721514</v>
       </c>
       <c r="D34" t="n">
-        <v>0.723905</v>
+        <v>0.724594</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.671449</v>
+        <v>0.671851</v>
       </c>
       <c r="C35" t="n">
-        <v>0.710074</v>
+        <v>0.709288</v>
       </c>
       <c r="D35" t="n">
-        <v>0.713443</v>
+        <v>0.713788</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6684600000000001</v>
+        <v>0.668852</v>
       </c>
       <c r="C36" t="n">
-        <v>0.699847</v>
+        <v>0.69891</v>
       </c>
       <c r="D36" t="n">
-        <v>0.704997</v>
+        <v>0.705165</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.668708</v>
+        <v>0.668658</v>
       </c>
       <c r="C37" t="n">
-        <v>0.692106</v>
+        <v>0.691153</v>
       </c>
       <c r="D37" t="n">
-        <v>0.946729</v>
+        <v>0.948111</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.846294</v>
+        <v>0.846591</v>
       </c>
       <c r="C38" t="n">
-        <v>0.94446</v>
+        <v>0.944416</v>
       </c>
       <c r="D38" t="n">
-        <v>0.923368</v>
+        <v>0.9238150000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.828136</v>
+        <v>0.827269</v>
       </c>
       <c r="C39" t="n">
-        <v>0.921136</v>
+        <v>0.920919</v>
       </c>
       <c r="D39" t="n">
-        <v>0.900853</v>
+        <v>0.901004</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.809481</v>
+        <v>0.809575</v>
       </c>
       <c r="C40" t="n">
-        <v>0.897479</v>
+        <v>0.897239</v>
       </c>
       <c r="D40" t="n">
-        <v>0.878856</v>
+        <v>0.878975</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.791663</v>
+        <v>0.796465</v>
       </c>
       <c r="C41" t="n">
-        <v>0.874686</v>
+        <v>0.8799360000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8583</v>
+        <v>0.863246</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.775054</v>
+        <v>0.780803</v>
       </c>
       <c r="C42" t="n">
-        <v>0.853474</v>
+        <v>0.858223</v>
       </c>
       <c r="D42" t="n">
-        <v>0.838803</v>
+        <v>0.842482</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.759966</v>
+        <v>0.764773</v>
       </c>
       <c r="C43" t="n">
-        <v>0.833613</v>
+        <v>0.837188</v>
       </c>
       <c r="D43" t="n">
-        <v>0.820138</v>
+        <v>0.823601</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.745233</v>
+        <v>0.749243</v>
       </c>
       <c r="C44" t="n">
-        <v>0.814757</v>
+        <v>0.8134980000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.802801</v>
+        <v>0.802336</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7325390000000001</v>
+        <v>0.731853</v>
       </c>
       <c r="C45" t="n">
-        <v>0.796165</v>
+        <v>0.7953750000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.786702</v>
+        <v>0.7846919999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.720423</v>
+        <v>0.721706</v>
       </c>
       <c r="C46" t="n">
-        <v>0.779168</v>
+        <v>0.778108</v>
       </c>
       <c r="D46" t="n">
-        <v>0.771427</v>
+        <v>0.770126</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.709857</v>
+        <v>0.709464</v>
       </c>
       <c r="C47" t="n">
-        <v>0.763785</v>
+        <v>0.763047</v>
       </c>
       <c r="D47" t="n">
-        <v>0.757395</v>
+        <v>0.757113</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.700718</v>
+        <v>0.702064</v>
       </c>
       <c r="C48" t="n">
-        <v>0.748873</v>
+        <v>0.749372</v>
       </c>
       <c r="D48" t="n">
-        <v>0.74416</v>
+        <v>0.743468</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.694091</v>
+        <v>0.694706</v>
       </c>
       <c r="C49" t="n">
-        <v>0.73617</v>
+        <v>0.73697</v>
       </c>
       <c r="D49" t="n">
-        <v>0.732804</v>
+        <v>0.732684</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.689412</v>
+        <v>0.689149</v>
       </c>
       <c r="C50" t="n">
-        <v>0.724209</v>
+        <v>0.724239</v>
       </c>
       <c r="D50" t="n">
-        <v>0.723575</v>
+        <v>0.723403</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.687121</v>
+        <v>0.687945</v>
       </c>
       <c r="C51" t="n">
-        <v>0.716116</v>
+        <v>0.714006</v>
       </c>
       <c r="D51" t="n">
-        <v>0.972068</v>
+        <v>0.971271</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.688825</v>
+        <v>0.688065</v>
       </c>
       <c r="C52" t="n">
-        <v>0.70825</v>
+        <v>0.707344</v>
       </c>
       <c r="D52" t="n">
-        <v>0.948952</v>
+        <v>0.947032</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.850637</v>
+        <v>0.850383</v>
       </c>
       <c r="C53" t="n">
-        <v>0.946689</v>
+        <v>0.9459070000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.92533</v>
+        <v>0.925166</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.831353</v>
+        <v>0.830633</v>
       </c>
       <c r="C54" t="n">
-        <v>0.922314</v>
+        <v>0.922542</v>
       </c>
       <c r="D54" t="n">
-        <v>0.902348</v>
+        <v>0.903043</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.814566</v>
+        <v>0.815534</v>
       </c>
       <c r="C55" t="n">
-        <v>0.899207</v>
+        <v>0.900777</v>
       </c>
       <c r="D55" t="n">
-        <v>0.882556</v>
+        <v>0.883533</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.798033</v>
+        <v>0.798721</v>
       </c>
       <c r="C56" t="n">
-        <v>0.878611</v>
+        <v>0.878649</v>
       </c>
       <c r="D56" t="n">
-        <v>0.863733</v>
+        <v>0.863606</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.78238</v>
+        <v>0.780882</v>
       </c>
       <c r="C57" t="n">
-        <v>0.858405</v>
+        <v>0.858347</v>
       </c>
       <c r="D57" t="n">
-        <v>0.845152</v>
+        <v>0.845357</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.767946</v>
+        <v>0.767697</v>
       </c>
       <c r="C58" t="n">
-        <v>0.839303</v>
+        <v>0.838962</v>
       </c>
       <c r="D58" t="n">
-        <v>0.828057</v>
+        <v>0.82775</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.754611</v>
+        <v>0.754848</v>
       </c>
       <c r="C59" t="n">
-        <v>0.821008</v>
+        <v>0.821456</v>
       </c>
       <c r="D59" t="n">
-        <v>0.81157</v>
+        <v>0.813142</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.742599</v>
+        <v>0.744752</v>
       </c>
       <c r="C60" t="n">
-        <v>0.80413</v>
+        <v>0.805273</v>
       </c>
       <c r="D60" t="n">
-        <v>0.795944</v>
+        <v>0.796907</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.731687</v>
+        <v>0.73329</v>
       </c>
       <c r="C61" t="n">
-        <v>0.787902</v>
+        <v>0.788768</v>
       </c>
       <c r="D61" t="n">
-        <v>0.781543</v>
+        <v>0.780982</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.722228</v>
+        <v>0.721866</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7730050000000001</v>
+        <v>0.773705</v>
       </c>
       <c r="D62" t="n">
-        <v>0.768662</v>
+        <v>0.768671</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.714903</v>
+        <v>0.715301</v>
       </c>
       <c r="C63" t="n">
-        <v>0.759902</v>
+        <v>0.759977</v>
       </c>
       <c r="D63" t="n">
-        <v>0.757207</v>
+        <v>0.757379</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.709928</v>
+        <v>0.708136</v>
       </c>
       <c r="C64" t="n">
-        <v>0.747359</v>
+        <v>0.7474420000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.747852</v>
+        <v>0.747806</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.706804</v>
+        <v>0.705533</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7374849999999999</v>
+        <v>0.738251</v>
       </c>
       <c r="D65" t="n">
-        <v>0.737249</v>
+        <v>0.740102</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.70835</v>
+        <v>0.707117</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7312380000000001</v>
+        <v>0.731438</v>
       </c>
       <c r="D66" t="n">
-        <v>0.977871</v>
+        <v>0.975027</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.874692</v>
+        <v>0.871019</v>
       </c>
       <c r="C67" t="n">
-        <v>0.977096</v>
+        <v>0.976023</v>
       </c>
       <c r="D67" t="n">
-        <v>0.953968</v>
+        <v>0.951412</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.856607</v>
+        <v>0.852472</v>
       </c>
       <c r="C68" t="n">
-        <v>0.954778</v>
+        <v>0.952013</v>
       </c>
       <c r="D68" t="n">
-        <v>0.933291</v>
+        <v>0.929786</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.838628</v>
+        <v>0.834885</v>
       </c>
       <c r="C69" t="n">
-        <v>0.931975</v>
+        <v>0.927854</v>
       </c>
       <c r="D69" t="n">
-        <v>0.911187</v>
+        <v>0.9103520000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.820595</v>
+        <v>0.8194669999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.91039</v>
+        <v>0.906447</v>
       </c>
       <c r="D70" t="n">
-        <v>0.892459</v>
+        <v>0.890029</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.80568</v>
+        <v>0.803362</v>
       </c>
       <c r="C71" t="n">
-        <v>0.887578</v>
+        <v>0.884634</v>
       </c>
       <c r="D71" t="n">
-        <v>0.873848</v>
+        <v>0.871411</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.790787</v>
+        <v>0.790118</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8692</v>
+        <v>0.867904</v>
       </c>
       <c r="D72" t="n">
-        <v>0.856286</v>
+        <v>0.854008</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7791439999999999</v>
+        <v>0.774904</v>
       </c>
       <c r="C73" t="n">
-        <v>0.849515</v>
+        <v>0.84677</v>
       </c>
       <c r="D73" t="n">
-        <v>0.839566</v>
+        <v>0.836185</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7665960000000001</v>
+        <v>0.762742</v>
       </c>
       <c r="C74" t="n">
-        <v>0.834434</v>
+        <v>0.83105</v>
       </c>
       <c r="D74" t="n">
-        <v>0.824877</v>
+        <v>0.821315</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.755367</v>
+        <v>0.7529439999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.817461</v>
+        <v>0.813296</v>
       </c>
       <c r="D75" t="n">
-        <v>0.810208</v>
+        <v>0.808415</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.746435</v>
+        <v>0.743092</v>
       </c>
       <c r="C76" t="n">
-        <v>0.801883</v>
+        <v>0.7990699999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.797671</v>
+        <v>0.793665</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.738836</v>
+        <v>0.735165</v>
       </c>
       <c r="C77" t="n">
-        <v>0.78861</v>
+        <v>0.784049</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7854179999999999</v>
+        <v>0.782156</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.733466</v>
+        <v>0.729113</v>
       </c>
       <c r="C78" t="n">
-        <v>0.775508</v>
+        <v>0.771815</v>
       </c>
       <c r="D78" t="n">
-        <v>0.775952</v>
+        <v>0.77235</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7304929999999999</v>
+        <v>0.726595</v>
       </c>
       <c r="C79" t="n">
-        <v>0.766807</v>
+        <v>0.761227</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7686730000000001</v>
+        <v>0.765536</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.730814</v>
+        <v>0.726783</v>
       </c>
       <c r="C80" t="n">
-        <v>0.758907</v>
+        <v>0.753966</v>
       </c>
       <c r="D80" t="n">
-        <v>1.02151</v>
+        <v>1.02213</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.915683</v>
+        <v>0.91643</v>
       </c>
       <c r="C81" t="n">
-        <v>1.01873</v>
+        <v>1.01932</v>
       </c>
       <c r="D81" t="n">
-        <v>0.999187</v>
+        <v>1.00249</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.900488</v>
+        <v>0.903383</v>
       </c>
       <c r="C82" t="n">
-        <v>0.997296</v>
+        <v>0.998508</v>
       </c>
       <c r="D82" t="n">
-        <v>0.977715</v>
+        <v>0.978031</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.884718</v>
+        <v>0.887304</v>
       </c>
       <c r="C83" t="n">
-        <v>0.976077</v>
+        <v>0.977109</v>
       </c>
       <c r="D83" t="n">
-        <v>0.957404</v>
+        <v>0.961361</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.869594</v>
+        <v>0.874152</v>
       </c>
       <c r="C84" t="n">
-        <v>0.955136</v>
+        <v>0.957378</v>
       </c>
       <c r="D84" t="n">
-        <v>0.939047</v>
+        <v>0.941451</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.855032</v>
+        <v>0.860079</v>
       </c>
       <c r="C85" t="n">
-        <v>0.932675</v>
+        <v>0.937661</v>
       </c>
       <c r="D85" t="n">
-        <v>0.920472</v>
+        <v>0.921495</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.840336</v>
+        <v>0.846475</v>
       </c>
       <c r="C86" t="n">
-        <v>0.912045</v>
+        <v>0.914896</v>
       </c>
       <c r="D86" t="n">
-        <v>0.899651</v>
+        <v>0.904716</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.826812</v>
+        <v>0.830592</v>
       </c>
       <c r="C87" t="n">
-        <v>0.897665</v>
+        <v>0.898277</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8822719999999999</v>
+        <v>0.888012</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.813916</v>
+        <v>0.818376</v>
       </c>
       <c r="C88" t="n">
-        <v>0.879306</v>
+        <v>0.882134</v>
       </c>
       <c r="D88" t="n">
-        <v>0.864931</v>
+        <v>0.8724150000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.802225</v>
+        <v>0.8080850000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.862753</v>
+        <v>0.865585</v>
       </c>
       <c r="D89" t="n">
-        <v>0.850492</v>
+        <v>0.855746</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.790878</v>
+        <v>0.7990390000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.846896</v>
+        <v>0.84501</v>
       </c>
       <c r="D90" t="n">
-        <v>0.835489</v>
+        <v>0.843506</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.78306</v>
+        <v>0.787488</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8294</v>
+        <v>0.835674</v>
       </c>
       <c r="D91" t="n">
-        <v>0.828745</v>
+        <v>0.829789</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.777048</v>
+        <v>0.780285</v>
       </c>
       <c r="C92" t="n">
-        <v>0.820761</v>
+        <v>0.821592</v>
       </c>
       <c r="D92" t="n">
-        <v>0.817654</v>
+        <v>0.81979</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.772031</v>
+        <v>0.775486</v>
       </c>
       <c r="C93" t="n">
-        <v>0.809986</v>
+        <v>0.809256</v>
       </c>
       <c r="D93" t="n">
-        <v>0.808512</v>
+        <v>0.809227</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.771574</v>
+        <v>0.7725880000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.798592</v>
+        <v>0.800573</v>
       </c>
       <c r="D94" t="n">
-        <v>1.08402</v>
+        <v>1.08277</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.974166</v>
+        <v>0.9723309999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>1.07314</v>
+        <v>1.07237</v>
       </c>
       <c r="D95" t="n">
-        <v>1.08068</v>
+        <v>1.07888</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.979895</v>
+        <v>0.977507</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07503</v>
+        <v>1.06791</v>
       </c>
       <c r="D96" t="n">
-        <v>1.07088</v>
+        <v>1.06794</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9778289999999999</v>
+        <v>0.9757439999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07065</v>
+        <v>1.06394</v>
       </c>
       <c r="D97" t="n">
-        <v>1.05951</v>
+        <v>1.05781</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.971901</v>
+        <v>0.970589</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05978</v>
+        <v>1.0585</v>
       </c>
       <c r="D98" t="n">
-        <v>1.04644</v>
+        <v>1.04947</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.963446</v>
+        <v>0.962929</v>
       </c>
       <c r="C99" t="n">
-        <v>1.04715</v>
+        <v>1.04764</v>
       </c>
       <c r="D99" t="n">
-        <v>1.03275</v>
+        <v>1.03602</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.95413</v>
+        <v>0.953832</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02752</v>
+        <v>1.02642</v>
       </c>
       <c r="D100" t="n">
-        <v>1.02412</v>
+        <v>1.02308</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.943558</v>
+        <v>0.944445</v>
       </c>
       <c r="C101" t="n">
-        <v>1.01994</v>
+        <v>1.01852</v>
       </c>
       <c r="D101" t="n">
-        <v>1.00956</v>
+        <v>1.0043</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.935194</v>
+        <v>0.934222</v>
       </c>
       <c r="C102" t="n">
-        <v>1.00095</v>
+        <v>1.01374</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9972760000000001</v>
+        <v>1.01425</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.925307</v>
+        <v>0.968801</v>
       </c>
       <c r="C103" t="n">
-        <v>0.987558</v>
+        <v>1.00494</v>
       </c>
       <c r="D103" t="n">
-        <v>0.977975</v>
+        <v>0.993464</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9175720000000001</v>
+        <v>0.958651</v>
       </c>
       <c r="C104" t="n">
-        <v>0.977257</v>
+        <v>1.00017</v>
       </c>
       <c r="D104" t="n">
-        <v>0.966426</v>
+        <v>0.986617</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.91145</v>
+        <v>0.9119969999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.94596</v>
+        <v>0.968639</v>
       </c>
       <c r="D105" t="n">
-        <v>0.96139</v>
+        <v>0.9633620000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.90899</v>
+        <v>0.909261</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9664199999999999</v>
+        <v>0.961361</v>
       </c>
       <c r="D106" t="n">
-        <v>0.956635</v>
+        <v>0.953454</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.905576</v>
+        <v>0.90523</v>
       </c>
       <c r="C107" t="n">
-        <v>0.928995</v>
+        <v>0.955552</v>
       </c>
       <c r="D107" t="n">
-        <v>0.938694</v>
+        <v>0.945528</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.90178</v>
+        <v>0.909498</v>
       </c>
       <c r="C108" t="n">
-        <v>0.926747</v>
+        <v>0.948487</v>
       </c>
       <c r="D108" t="n">
-        <v>1.21642</v>
+        <v>1.21885</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.906846</v>
+        <v>0.913761</v>
       </c>
       <c r="C109" t="n">
-        <v>0.914253</v>
+        <v>0.94691</v>
       </c>
       <c r="D109" t="n">
-        <v>1.2022</v>
+        <v>1.2039</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.11112</v>
+        <v>1.11476</v>
       </c>
       <c r="C110" t="n">
-        <v>1.20616</v>
+        <v>1.23305</v>
       </c>
       <c r="D110" t="n">
-        <v>1.2273</v>
+        <v>1.23532</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.11932</v>
+        <v>1.11692</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22631</v>
+        <v>1.2305</v>
       </c>
       <c r="D111" t="n">
-        <v>1.23304</v>
+        <v>1.23574</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.12028</v>
+        <v>1.12351</v>
       </c>
       <c r="C112" t="n">
-        <v>1.23488</v>
+        <v>1.21642</v>
       </c>
       <c r="D112" t="n">
-        <v>1.22829</v>
+        <v>1.22982</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.1223</v>
+        <v>1.12028</v>
       </c>
       <c r="C113" t="n">
-        <v>1.23244</v>
+        <v>1.23854</v>
       </c>
       <c r="D113" t="n">
-        <v>1.23574</v>
+        <v>1.23614</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12365</v>
+        <v>1.12543</v>
       </c>
       <c r="C114" t="n">
-        <v>1.23323</v>
+        <v>1.23785</v>
       </c>
       <c r="D114" t="n">
-        <v>1.22404</v>
+        <v>1.22842</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12412</v>
+        <v>1.12603</v>
       </c>
       <c r="C115" t="n">
-        <v>1.2343</v>
+        <v>1.23344</v>
       </c>
       <c r="D115" t="n">
-        <v>1.21135</v>
+        <v>1.23199</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13025</v>
+        <v>1.13195</v>
       </c>
       <c r="C116" t="n">
-        <v>1.22688</v>
+        <v>1.2161</v>
       </c>
       <c r="D116" t="n">
-        <v>1.21681</v>
+        <v>1.2147</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.13257</v>
+        <v>1.13523</v>
       </c>
       <c r="C117" t="n">
-        <v>1.2377</v>
+        <v>1.2262</v>
       </c>
       <c r="D117" t="n">
-        <v>1.23454</v>
+        <v>1.23312</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13391</v>
+        <v>1.1427</v>
       </c>
       <c r="C118" t="n">
-        <v>1.23376</v>
+        <v>1.23898</v>
       </c>
       <c r="D118" t="n">
-        <v>1.23222</v>
+        <v>1.2136</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13875</v>
+        <v>1.13645</v>
       </c>
       <c r="C119" t="n">
-        <v>1.2225</v>
+        <v>1.234</v>
       </c>
       <c r="D119" t="n">
-        <v>1.22239</v>
+        <v>1.21434</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.14512</v>
+        <v>1.14064</v>
       </c>
       <c r="C120" t="n">
-        <v>1.22871</v>
+        <v>1.23327</v>
       </c>
       <c r="D120" t="n">
-        <v>1.23072</v>
+        <v>1.22377</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.14975</v>
+        <v>1.15766</v>
       </c>
       <c r="C121" t="n">
-        <v>1.22951</v>
+        <v>1.24645</v>
       </c>
       <c r="D121" t="n">
-        <v>1.20936</v>
+        <v>1.22934</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.15972</v>
+        <v>1.15781</v>
       </c>
       <c r="C122" t="n">
-        <v>1.24241</v>
+        <v>1.23616</v>
       </c>
       <c r="D122" t="n">
-        <v>1.22997</v>
+        <v>1.22757</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.16821</v>
+        <v>1.16748</v>
       </c>
       <c r="C123" t="n">
-        <v>1.22617</v>
+        <v>1.23299</v>
       </c>
       <c r="D123" t="n">
-        <v>1.51909</v>
+        <v>1.51797</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.37343</v>
+        <v>1.37735</v>
       </c>
       <c r="C124" t="n">
-        <v>1.53432</v>
+        <v>1.53526</v>
       </c>
       <c r="D124" t="n">
-        <v>1.52311</v>
+        <v>1.52277</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.37642</v>
+        <v>1.37183</v>
       </c>
       <c r="C125" t="n">
-        <v>1.54911</v>
+        <v>1.5457</v>
       </c>
       <c r="D125" t="n">
-        <v>1.53255</v>
+        <v>1.53761</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.37862</v>
+        <v>1.39287</v>
       </c>
       <c r="C126" t="n">
-        <v>1.54565</v>
+        <v>1.54321</v>
       </c>
       <c r="D126" t="n">
-        <v>1.54506</v>
+        <v>1.53789</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.37973</v>
+        <v>1.37483</v>
       </c>
       <c r="C127" t="n">
-        <v>1.55853</v>
+        <v>1.55892</v>
       </c>
       <c r="D127" t="n">
-        <v>1.55158</v>
+        <v>1.54072</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.38285</v>
+        <v>1.37944</v>
       </c>
       <c r="C128" t="n">
-        <v>1.56789</v>
+        <v>1.56244</v>
       </c>
       <c r="D128" t="n">
-        <v>1.5519</v>
+        <v>1.56224</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.38463</v>
+        <v>1.38567</v>
       </c>
       <c r="C129" t="n">
-        <v>1.56969</v>
+        <v>1.56307</v>
       </c>
       <c r="D129" t="n">
-        <v>1.55558</v>
+        <v>1.5614</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.38855</v>
+        <v>1.38814</v>
       </c>
       <c r="C130" t="n">
-        <v>1.57284</v>
+        <v>1.56953</v>
       </c>
       <c r="D130" t="n">
-        <v>1.56541</v>
+        <v>1.56343</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.39143</v>
+        <v>1.3912</v>
       </c>
       <c r="C131" t="n">
-        <v>1.56967</v>
+        <v>1.57321</v>
       </c>
       <c r="D131" t="n">
-        <v>1.56286</v>
+        <v>1.56644</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.39514</v>
+        <v>1.39031</v>
       </c>
       <c r="C132" t="n">
-        <v>1.57753</v>
+        <v>1.58211</v>
       </c>
       <c r="D132" t="n">
-        <v>1.58058</v>
+        <v>1.57746</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.3998</v>
+        <v>1.39616</v>
       </c>
       <c r="C133" t="n">
-        <v>1.58977</v>
+        <v>1.58247</v>
       </c>
       <c r="D133" t="n">
-        <v>1.58181</v>
+        <v>1.58147</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.40576</v>
+        <v>1.40396</v>
       </c>
       <c r="C134" t="n">
-        <v>1.58952</v>
+        <v>1.58768</v>
       </c>
       <c r="D134" t="n">
-        <v>1.58961</v>
+        <v>1.58875</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.41163</v>
+        <v>1.40923</v>
       </c>
       <c r="C135" t="n">
-        <v>1.60453</v>
+        <v>1.60026</v>
       </c>
       <c r="D135" t="n">
-        <v>1.60031</v>
+        <v>1.6013</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.42085</v>
+        <v>1.41884</v>
       </c>
       <c r="C136" t="n">
-        <v>1.60315</v>
+        <v>1.60569</v>
       </c>
       <c r="D136" t="n">
-        <v>1.59868</v>
+        <v>1.60561</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.4337</v>
+        <v>1.43328</v>
       </c>
       <c r="C137" t="n">
-        <v>1.62314</v>
+        <v>1.61643</v>
       </c>
       <c r="D137" t="n">
-        <v>1.88463</v>
+        <v>1.89229</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.64577</v>
+        <v>1.6456</v>
       </c>
       <c r="C138" t="n">
-        <v>1.90746</v>
+        <v>1.91645</v>
       </c>
       <c r="D138" t="n">
-        <v>1.90122</v>
+        <v>1.90687</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.64225</v>
+        <v>1.64235</v>
       </c>
       <c r="C139" t="n">
-        <v>1.92232</v>
+        <v>1.91954</v>
       </c>
       <c r="D139" t="n">
-        <v>1.91022</v>
+        <v>1.92174</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.63903</v>
+        <v>1.63499</v>
       </c>
       <c r="C140" t="n">
-        <v>1.92541</v>
+        <v>1.94195</v>
       </c>
       <c r="D140" t="n">
-        <v>1.92412</v>
+        <v>1.92816</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.6379</v>
+        <v>1.63876</v>
       </c>
       <c r="C141" t="n">
-        <v>1.94054</v>
+        <v>1.94129</v>
       </c>
       <c r="D141" t="n">
-        <v>1.93632</v>
+        <v>1.93728</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.63468</v>
+        <v>1.63475</v>
       </c>
       <c r="C142" t="n">
-        <v>1.94283</v>
+        <v>1.94758</v>
       </c>
       <c r="D142" t="n">
-        <v>1.94603</v>
+        <v>1.94493</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.63543</v>
+        <v>1.63268</v>
       </c>
       <c r="C143" t="n">
-        <v>1.95108</v>
+        <v>1.95457</v>
       </c>
       <c r="D143" t="n">
-        <v>1.95292</v>
+        <v>1.95192</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.700487</v>
+        <v>0.700622</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7489710000000001</v>
+        <v>0.709792</v>
       </c>
       <c r="D2" t="n">
-        <v>0.730976</v>
+        <v>0.730856</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.689426</v>
+        <v>0.689044</v>
       </c>
       <c r="C3" t="n">
-        <v>0.731845</v>
+        <v>0.694801</v>
       </c>
       <c r="D3" t="n">
-        <v>0.717054</v>
+        <v>0.715166</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.67943</v>
+        <v>0.678897</v>
       </c>
       <c r="C4" t="n">
-        <v>0.716888</v>
+        <v>0.680509</v>
       </c>
       <c r="D4" t="n">
-        <v>0.703557</v>
+        <v>0.702078</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6715100000000001</v>
+        <v>0.671072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.702932</v>
+        <v>0.667654</v>
       </c>
       <c r="D5" t="n">
-        <v>0.691527</v>
+        <v>0.690143</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.663874</v>
+        <v>0.663481</v>
       </c>
       <c r="C6" t="n">
-        <v>0.689527</v>
+        <v>0.655618</v>
       </c>
       <c r="D6" t="n">
-        <v>0.680241</v>
+        <v>0.679532</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.659209</v>
+        <v>0.658961</v>
       </c>
       <c r="C7" t="n">
-        <v>0.679074</v>
+        <v>0.644987</v>
       </c>
       <c r="D7" t="n">
-        <v>0.671779</v>
+        <v>0.671023</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.658201</v>
+        <v>0.657725</v>
       </c>
       <c r="C8" t="n">
-        <v>0.670511</v>
+        <v>0.637104</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6662709999999999</v>
+        <v>0.665822</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6622130000000001</v>
+        <v>0.661562</v>
       </c>
       <c r="C9" t="n">
-        <v>0.665749</v>
+        <v>0.63249</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8944029999999999</v>
+        <v>0.894279</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.821063</v>
+        <v>0.82018</v>
       </c>
       <c r="C10" t="n">
-        <v>0.907959</v>
+        <v>0.863324</v>
       </c>
       <c r="D10" t="n">
-        <v>0.878749</v>
+        <v>0.8784650000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.801779</v>
+        <v>0.800735</v>
       </c>
       <c r="C11" t="n">
-        <v>0.883379</v>
+        <v>0.839618</v>
       </c>
       <c r="D11" t="n">
-        <v>0.856725</v>
+        <v>0.856151</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.783305</v>
+        <v>0.782978</v>
       </c>
       <c r="C12" t="n">
-        <v>0.860413</v>
+        <v>0.818576</v>
       </c>
       <c r="D12" t="n">
-        <v>0.836124</v>
+        <v>0.835392</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.766051</v>
+        <v>0.765271</v>
       </c>
       <c r="C13" t="n">
-        <v>0.837832</v>
+        <v>0.79689</v>
       </c>
       <c r="D13" t="n">
-        <v>0.815463</v>
+        <v>0.815254</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.750217</v>
+        <v>0.750012</v>
       </c>
       <c r="C14" t="n">
-        <v>0.817092</v>
+        <v>0.777259</v>
       </c>
       <c r="D14" t="n">
-        <v>0.796582</v>
+        <v>0.796084</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.735387</v>
+        <v>0.735313</v>
       </c>
       <c r="C15" t="n">
-        <v>0.797745</v>
+        <v>0.75911</v>
       </c>
       <c r="D15" t="n">
-        <v>0.779397</v>
+        <v>0.778645</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.721896</v>
+        <v>0.721334</v>
       </c>
       <c r="C16" t="n">
-        <v>0.779573</v>
+        <v>0.741279</v>
       </c>
       <c r="D16" t="n">
-        <v>0.762664</v>
+        <v>0.762369</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.709632</v>
+        <v>0.708951</v>
       </c>
       <c r="C17" t="n">
-        <v>0.761467</v>
+        <v>0.72438</v>
       </c>
       <c r="D17" t="n">
-        <v>0.746603</v>
+        <v>0.746176</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.698524</v>
+        <v>0.697713</v>
       </c>
       <c r="C18" t="n">
-        <v>0.744936</v>
+        <v>0.708954</v>
       </c>
       <c r="D18" t="n">
-        <v>0.731704</v>
+        <v>0.731809</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.688839</v>
+        <v>0.688453</v>
       </c>
       <c r="C19" t="n">
-        <v>0.729857</v>
+        <v>0.695284</v>
       </c>
       <c r="D19" t="n">
-        <v>0.71904</v>
+        <v>0.718589</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.681244</v>
+        <v>0.680689</v>
       </c>
       <c r="C20" t="n">
-        <v>0.71563</v>
+        <v>0.681409</v>
       </c>
       <c r="D20" t="n">
-        <v>0.706465</v>
+        <v>0.70633</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.675613</v>
+        <v>0.675336</v>
       </c>
       <c r="C21" t="n">
-        <v>0.703637</v>
+        <v>0.670041</v>
       </c>
       <c r="D21" t="n">
-        <v>0.696482</v>
+        <v>0.69618</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.672968</v>
+        <v>0.672287</v>
       </c>
       <c r="C22" t="n">
-        <v>0.693593</v>
+        <v>0.660944</v>
       </c>
       <c r="D22" t="n">
-        <v>0.68946</v>
+        <v>0.689187</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.673388</v>
+        <v>0.672923</v>
       </c>
       <c r="C23" t="n">
-        <v>0.686478</v>
+        <v>0.6543</v>
       </c>
       <c r="D23" t="n">
-        <v>0.925713</v>
+        <v>0.924397</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.812674</v>
+        <v>0.8132200000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.911516</v>
+        <v>0.865046</v>
       </c>
       <c r="D24" t="n">
-        <v>0.903068</v>
+        <v>0.900756</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.795585</v>
+        <v>0.7954329999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.886472</v>
+        <v>0.842311</v>
       </c>
       <c r="D25" t="n">
-        <v>0.879177</v>
+        <v>0.878115</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.776732</v>
+        <v>0.776989</v>
       </c>
       <c r="C26" t="n">
-        <v>0.863752</v>
+        <v>0.820747</v>
       </c>
       <c r="D26" t="n">
-        <v>0.857455</v>
+        <v>0.856499</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.760485</v>
+        <v>0.760531</v>
       </c>
       <c r="C27" t="n">
-        <v>0.842105</v>
+        <v>0.7999849999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.836645</v>
+        <v>0.835773</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.744634</v>
+        <v>0.745023</v>
       </c>
       <c r="C28" t="n">
-        <v>0.821889</v>
+        <v>0.780965</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8176600000000001</v>
+        <v>0.816389</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.730645</v>
+        <v>0.730859</v>
       </c>
       <c r="C29" t="n">
-        <v>0.802782</v>
+        <v>0.7619860000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.799187</v>
+        <v>0.7979270000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.717831</v>
+        <v>0.717851</v>
       </c>
       <c r="C30" t="n">
-        <v>0.784002</v>
+        <v>0.7448050000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.78217</v>
+        <v>0.780865</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7054589999999999</v>
+        <v>0.705483</v>
       </c>
       <c r="C31" t="n">
-        <v>0.766727</v>
+        <v>0.728202</v>
       </c>
       <c r="D31" t="n">
-        <v>0.765222</v>
+        <v>0.764394</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.694087</v>
+        <v>0.694482</v>
       </c>
       <c r="C32" t="n">
-        <v>0.750634</v>
+        <v>0.712906</v>
       </c>
       <c r="D32" t="n">
-        <v>0.750221</v>
+        <v>0.7492760000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.684797</v>
+        <v>0.684879</v>
       </c>
       <c r="C33" t="n">
-        <v>0.735443</v>
+        <v>0.69901</v>
       </c>
       <c r="D33" t="n">
-        <v>0.736723</v>
+        <v>0.735758</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.677464</v>
+        <v>0.6770389999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.721514</v>
+        <v>0.685802</v>
       </c>
       <c r="D34" t="n">
-        <v>0.724594</v>
+        <v>0.723413</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.671851</v>
+        <v>0.672026</v>
       </c>
       <c r="C35" t="n">
-        <v>0.709288</v>
+        <v>0.674623</v>
       </c>
       <c r="D35" t="n">
-        <v>0.713788</v>
+        <v>0.7128370000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.668852</v>
+        <v>0.668917</v>
       </c>
       <c r="C36" t="n">
-        <v>0.69891</v>
+        <v>0.664499</v>
       </c>
       <c r="D36" t="n">
-        <v>0.705165</v>
+        <v>0.704227</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.668658</v>
+        <v>0.668758</v>
       </c>
       <c r="C37" t="n">
-        <v>0.691153</v>
+        <v>0.65735</v>
       </c>
       <c r="D37" t="n">
-        <v>0.948111</v>
+        <v>0.945567</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.846591</v>
+        <v>0.8469410000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.944416</v>
+        <v>0.897884</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9238150000000001</v>
+        <v>0.921866</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.827269</v>
+        <v>0.828388</v>
       </c>
       <c r="C39" t="n">
-        <v>0.920919</v>
+        <v>0.875544</v>
       </c>
       <c r="D39" t="n">
-        <v>0.901004</v>
+        <v>0.899173</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.809575</v>
+        <v>0.81114</v>
       </c>
       <c r="C40" t="n">
-        <v>0.897239</v>
+        <v>0.853067</v>
       </c>
       <c r="D40" t="n">
-        <v>0.878975</v>
+        <v>0.87788</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.796465</v>
+        <v>0.792712</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8799360000000001</v>
+        <v>0.83146</v>
       </c>
       <c r="D41" t="n">
-        <v>0.863246</v>
+        <v>0.856727</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.780803</v>
+        <v>0.775826</v>
       </c>
       <c r="C42" t="n">
-        <v>0.858223</v>
+        <v>0.81106</v>
       </c>
       <c r="D42" t="n">
-        <v>0.842482</v>
+        <v>0.836356</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.764773</v>
+        <v>0.760007</v>
       </c>
       <c r="C43" t="n">
-        <v>0.837188</v>
+        <v>0.792306</v>
       </c>
       <c r="D43" t="n">
-        <v>0.823601</v>
+        <v>0.818865</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.749243</v>
+        <v>0.745972</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8134980000000001</v>
+        <v>0.773886</v>
       </c>
       <c r="D44" t="n">
-        <v>0.802336</v>
+        <v>0.801491</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.731853</v>
+        <v>0.732803</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7953750000000001</v>
+        <v>0.755997</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7846919999999999</v>
+        <v>0.78416</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.721706</v>
+        <v>0.720574</v>
       </c>
       <c r="C46" t="n">
-        <v>0.778108</v>
+        <v>0.739436</v>
       </c>
       <c r="D46" t="n">
-        <v>0.770126</v>
+        <v>0.768412</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.709464</v>
+        <v>0.708952</v>
       </c>
       <c r="C47" t="n">
-        <v>0.763047</v>
+        <v>0.724553</v>
       </c>
       <c r="D47" t="n">
-        <v>0.757113</v>
+        <v>0.754317</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.702064</v>
+        <v>0.7011039999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.749372</v>
+        <v>0.711641</v>
       </c>
       <c r="D48" t="n">
-        <v>0.743468</v>
+        <v>0.7423650000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.694706</v>
+        <v>0.694153</v>
       </c>
       <c r="C49" t="n">
-        <v>0.73697</v>
+        <v>0.69885</v>
       </c>
       <c r="D49" t="n">
-        <v>0.732684</v>
+        <v>0.730524</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.689149</v>
+        <v>0.689026</v>
       </c>
       <c r="C50" t="n">
-        <v>0.724239</v>
+        <v>0.687728</v>
       </c>
       <c r="D50" t="n">
-        <v>0.723403</v>
+        <v>0.722151</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.687945</v>
+        <v>0.687398</v>
       </c>
       <c r="C51" t="n">
-        <v>0.714006</v>
+        <v>0.679627</v>
       </c>
       <c r="D51" t="n">
-        <v>0.971271</v>
+        <v>0.969925</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.688065</v>
+        <v>0.689281</v>
       </c>
       <c r="C52" t="n">
-        <v>0.707344</v>
+        <v>0.674723</v>
       </c>
       <c r="D52" t="n">
-        <v>0.947032</v>
+        <v>0.947163</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.850383</v>
+        <v>0.852455</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9459070000000001</v>
+        <v>0.899959</v>
       </c>
       <c r="D53" t="n">
-        <v>0.925166</v>
+        <v>0.92363</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.830633</v>
+        <v>0.8332580000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.922542</v>
+        <v>0.876965</v>
       </c>
       <c r="D54" t="n">
-        <v>0.903043</v>
+        <v>0.902071</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.815534</v>
+        <v>0.815947</v>
       </c>
       <c r="C55" t="n">
-        <v>0.900777</v>
+        <v>0.856704</v>
       </c>
       <c r="D55" t="n">
-        <v>0.883533</v>
+        <v>0.88166</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.798721</v>
+        <v>0.798992</v>
       </c>
       <c r="C56" t="n">
-        <v>0.878649</v>
+        <v>0.835632</v>
       </c>
       <c r="D56" t="n">
-        <v>0.863606</v>
+        <v>0.862571</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.780882</v>
+        <v>0.783678</v>
       </c>
       <c r="C57" t="n">
-        <v>0.858347</v>
+        <v>0.817759</v>
       </c>
       <c r="D57" t="n">
-        <v>0.845357</v>
+        <v>0.844432</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.767697</v>
+        <v>0.769546</v>
       </c>
       <c r="C58" t="n">
-        <v>0.838962</v>
+        <v>0.798345</v>
       </c>
       <c r="D58" t="n">
-        <v>0.82775</v>
+        <v>0.826182</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.754848</v>
+        <v>0.755775</v>
       </c>
       <c r="C59" t="n">
-        <v>0.821456</v>
+        <v>0.780434</v>
       </c>
       <c r="D59" t="n">
-        <v>0.813142</v>
+        <v>0.810158</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.744752</v>
+        <v>0.743447</v>
       </c>
       <c r="C60" t="n">
-        <v>0.805273</v>
+        <v>0.7632139999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.796907</v>
+        <v>0.795323</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.73329</v>
+        <v>0.732714</v>
       </c>
       <c r="C61" t="n">
-        <v>0.788768</v>
+        <v>0.749423</v>
       </c>
       <c r="D61" t="n">
-        <v>0.780982</v>
+        <v>0.780913</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.721866</v>
+        <v>0.7236669999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.773705</v>
+        <v>0.736414</v>
       </c>
       <c r="D62" t="n">
-        <v>0.768671</v>
+        <v>0.768629</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.715301</v>
+        <v>0.714632</v>
       </c>
       <c r="C63" t="n">
-        <v>0.759977</v>
+        <v>0.722846</v>
       </c>
       <c r="D63" t="n">
-        <v>0.757379</v>
+        <v>0.757172</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.708136</v>
+        <v>0.710709</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7474420000000001</v>
+        <v>0.712801</v>
       </c>
       <c r="D64" t="n">
-        <v>0.747806</v>
+        <v>0.746985</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.705533</v>
+        <v>0.708425</v>
       </c>
       <c r="C65" t="n">
-        <v>0.738251</v>
+        <v>0.703178</v>
       </c>
       <c r="D65" t="n">
-        <v>0.740102</v>
+        <v>0.740591</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.707117</v>
+        <v>0.709283</v>
       </c>
       <c r="C66" t="n">
-        <v>0.731438</v>
+        <v>0.696625</v>
       </c>
       <c r="D66" t="n">
-        <v>0.975027</v>
+        <v>0.974074</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.871019</v>
+        <v>0.874494</v>
       </c>
       <c r="C67" t="n">
-        <v>0.976023</v>
+        <v>0.928642</v>
       </c>
       <c r="D67" t="n">
-        <v>0.951412</v>
+        <v>0.953166</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.852472</v>
+        <v>0.856514</v>
       </c>
       <c r="C68" t="n">
-        <v>0.952013</v>
+        <v>0.90863</v>
       </c>
       <c r="D68" t="n">
-        <v>0.929786</v>
+        <v>0.9323050000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.834885</v>
+        <v>0.839948</v>
       </c>
       <c r="C69" t="n">
-        <v>0.927854</v>
+        <v>0.88686</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9103520000000001</v>
+        <v>0.911256</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8194669999999999</v>
+        <v>0.821144</v>
       </c>
       <c r="C70" t="n">
-        <v>0.906447</v>
+        <v>0.866349</v>
       </c>
       <c r="D70" t="n">
-        <v>0.890029</v>
+        <v>0.892773</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.803362</v>
+        <v>0.806883</v>
       </c>
       <c r="C71" t="n">
-        <v>0.884634</v>
+        <v>0.845297</v>
       </c>
       <c r="D71" t="n">
-        <v>0.871411</v>
+        <v>0.873265</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.790118</v>
+        <v>0.7905219999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.867904</v>
+        <v>0.8276289999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.854008</v>
+        <v>0.855766</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.774904</v>
+        <v>0.776779</v>
       </c>
       <c r="C73" t="n">
-        <v>0.84677</v>
+        <v>0.811378</v>
       </c>
       <c r="D73" t="n">
-        <v>0.836185</v>
+        <v>0.840316</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.762742</v>
+        <v>0.764679</v>
       </c>
       <c r="C74" t="n">
-        <v>0.83105</v>
+        <v>0.794547</v>
       </c>
       <c r="D74" t="n">
-        <v>0.821315</v>
+        <v>0.824474</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7529439999999999</v>
+        <v>0.7541639999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.813296</v>
+        <v>0.779175</v>
       </c>
       <c r="D75" t="n">
-        <v>0.808415</v>
+        <v>0.809661</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.743092</v>
+        <v>0.744648</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7990699999999999</v>
+        <v>0.765926</v>
       </c>
       <c r="D76" t="n">
-        <v>0.793665</v>
+        <v>0.795745</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.735165</v>
+        <v>0.73616</v>
       </c>
       <c r="C77" t="n">
-        <v>0.784049</v>
+        <v>0.751678</v>
       </c>
       <c r="D77" t="n">
-        <v>0.782156</v>
+        <v>0.784847</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.729113</v>
+        <v>0.733191</v>
       </c>
       <c r="C78" t="n">
-        <v>0.771815</v>
+        <v>0.739067</v>
       </c>
       <c r="D78" t="n">
-        <v>0.77235</v>
+        <v>0.773956</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.726595</v>
+        <v>0.730536</v>
       </c>
       <c r="C79" t="n">
-        <v>0.761227</v>
+        <v>0.729827</v>
       </c>
       <c r="D79" t="n">
-        <v>0.765536</v>
+        <v>0.766931</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.726783</v>
+        <v>0.729599</v>
       </c>
       <c r="C80" t="n">
-        <v>0.753966</v>
+        <v>0.719336</v>
       </c>
       <c r="D80" t="n">
-        <v>1.02213</v>
+        <v>1.02391</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.91643</v>
+        <v>0.920693</v>
       </c>
       <c r="C81" t="n">
-        <v>1.01932</v>
+        <v>0.973226</v>
       </c>
       <c r="D81" t="n">
-        <v>1.00249</v>
+        <v>0.999924</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.903383</v>
+        <v>0.9045570000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.998508</v>
+        <v>0.952604</v>
       </c>
       <c r="D82" t="n">
-        <v>0.978031</v>
+        <v>0.976787</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.887304</v>
+        <v>0.888439</v>
       </c>
       <c r="C83" t="n">
-        <v>0.977109</v>
+        <v>0.930819</v>
       </c>
       <c r="D83" t="n">
-        <v>0.961361</v>
+        <v>0.958699</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.874152</v>
+        <v>0.874275</v>
       </c>
       <c r="C84" t="n">
-        <v>0.957378</v>
+        <v>0.910615</v>
       </c>
       <c r="D84" t="n">
-        <v>0.941451</v>
+        <v>0.938196</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.860079</v>
+        <v>0.858815</v>
       </c>
       <c r="C85" t="n">
-        <v>0.937661</v>
+        <v>0.891898</v>
       </c>
       <c r="D85" t="n">
-        <v>0.921495</v>
+        <v>0.9196220000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.846475</v>
+        <v>0.844471</v>
       </c>
       <c r="C86" t="n">
-        <v>0.914896</v>
+        <v>0.870833</v>
       </c>
       <c r="D86" t="n">
-        <v>0.904716</v>
+        <v>0.902029</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.830592</v>
+        <v>0.830411</v>
       </c>
       <c r="C87" t="n">
-        <v>0.898277</v>
+        <v>0.85646</v>
       </c>
       <c r="D87" t="n">
-        <v>0.888012</v>
+        <v>0.887779</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.818376</v>
+        <v>0.818893</v>
       </c>
       <c r="C88" t="n">
-        <v>0.882134</v>
+        <v>0.841789</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8724150000000001</v>
+        <v>0.871645</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8080850000000001</v>
+        <v>0.808648</v>
       </c>
       <c r="C89" t="n">
-        <v>0.865585</v>
+        <v>0.827809</v>
       </c>
       <c r="D89" t="n">
-        <v>0.855746</v>
+        <v>0.85717</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7990390000000001</v>
+        <v>0.797701</v>
       </c>
       <c r="C90" t="n">
-        <v>0.84501</v>
+        <v>0.806347</v>
       </c>
       <c r="D90" t="n">
-        <v>0.843506</v>
+        <v>0.843132</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.787488</v>
+        <v>0.788037</v>
       </c>
       <c r="C91" t="n">
-        <v>0.835674</v>
+        <v>0.799575</v>
       </c>
       <c r="D91" t="n">
-        <v>0.829789</v>
+        <v>0.831031</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.780285</v>
+        <v>0.781741</v>
       </c>
       <c r="C92" t="n">
-        <v>0.821592</v>
+        <v>0.787412</v>
       </c>
       <c r="D92" t="n">
-        <v>0.81979</v>
+        <v>0.820002</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.775486</v>
+        <v>0.777464</v>
       </c>
       <c r="C93" t="n">
-        <v>0.809256</v>
+        <v>0.7763370000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.809227</v>
+        <v>0.811041</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7725880000000001</v>
+        <v>0.777462</v>
       </c>
       <c r="C94" t="n">
-        <v>0.800573</v>
+        <v>0.769914</v>
       </c>
       <c r="D94" t="n">
-        <v>1.08277</v>
+        <v>1.08339</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9723309999999999</v>
+        <v>0.976759</v>
       </c>
       <c r="C95" t="n">
-        <v>1.07237</v>
+        <v>1.02879</v>
       </c>
       <c r="D95" t="n">
-        <v>1.07888</v>
+        <v>1.08346</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.977507</v>
+        <v>0.982421</v>
       </c>
       <c r="C96" t="n">
-        <v>1.06791</v>
+        <v>1.02976</v>
       </c>
       <c r="D96" t="n">
-        <v>1.06794</v>
+        <v>1.0731</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9757439999999999</v>
+        <v>0.977156</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06394</v>
+        <v>1.01702</v>
       </c>
       <c r="D97" t="n">
-        <v>1.05781</v>
+        <v>1.06192</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.970589</v>
+        <v>0.9719410000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>1.0585</v>
+        <v>1.01268</v>
       </c>
       <c r="D98" t="n">
-        <v>1.04947</v>
+        <v>1.05186</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.962929</v>
+        <v>0.96412</v>
       </c>
       <c r="C99" t="n">
-        <v>1.04764</v>
+        <v>0.995565</v>
       </c>
       <c r="D99" t="n">
-        <v>1.03602</v>
+        <v>1.03801</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.953832</v>
+        <v>0.95552</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02642</v>
+        <v>0.990232</v>
       </c>
       <c r="D100" t="n">
-        <v>1.02308</v>
+        <v>1.00522</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.944445</v>
+        <v>0.9467410000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>1.01852</v>
+        <v>0.982495</v>
       </c>
       <c r="D101" t="n">
-        <v>1.0043</v>
+        <v>1.01254</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.934222</v>
+        <v>0.938896</v>
       </c>
       <c r="C102" t="n">
-        <v>1.01374</v>
+        <v>0.972532</v>
       </c>
       <c r="D102" t="n">
-        <v>1.01425</v>
+        <v>0.996636</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.968801</v>
+        <v>0.929431</v>
       </c>
       <c r="C103" t="n">
-        <v>1.00494</v>
+        <v>0.960305</v>
       </c>
       <c r="D103" t="n">
-        <v>0.993464</v>
+        <v>0.987938</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.958651</v>
+        <v>0.922171</v>
       </c>
       <c r="C104" t="n">
-        <v>1.00017</v>
+        <v>0.95057</v>
       </c>
       <c r="D104" t="n">
-        <v>0.986617</v>
+        <v>0.969037</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9119969999999999</v>
+        <v>0.915227</v>
       </c>
       <c r="C105" t="n">
-        <v>0.968639</v>
+        <v>0.93912</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9633620000000001</v>
+        <v>0.954824</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.909261</v>
+        <v>0.90718</v>
       </c>
       <c r="C106" t="n">
-        <v>0.961361</v>
+        <v>0.925369</v>
       </c>
       <c r="D106" t="n">
-        <v>0.953454</v>
+        <v>0.950808</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.90523</v>
+        <v>0.906546</v>
       </c>
       <c r="C107" t="n">
-        <v>0.955552</v>
+        <v>0.919443</v>
       </c>
       <c r="D107" t="n">
-        <v>0.945528</v>
+        <v>0.94706</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.909498</v>
+        <v>0.906519</v>
       </c>
       <c r="C108" t="n">
-        <v>0.948487</v>
+        <v>0.913273</v>
       </c>
       <c r="D108" t="n">
-        <v>1.21885</v>
+        <v>1.21841</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.913761</v>
+        <v>0.911443</v>
       </c>
       <c r="C109" t="n">
-        <v>0.94691</v>
+        <v>0.89686</v>
       </c>
       <c r="D109" t="n">
-        <v>1.2039</v>
+        <v>1.23197</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.11476</v>
+        <v>1.11419</v>
       </c>
       <c r="C110" t="n">
-        <v>1.23305</v>
+        <v>1.19194</v>
       </c>
       <c r="D110" t="n">
-        <v>1.23532</v>
+        <v>1.21827</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.11692</v>
+        <v>1.11906</v>
       </c>
       <c r="C111" t="n">
-        <v>1.2305</v>
+        <v>1.19461</v>
       </c>
       <c r="D111" t="n">
-        <v>1.23574</v>
+        <v>1.23513</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.12351</v>
+        <v>1.12109</v>
       </c>
       <c r="C112" t="n">
-        <v>1.21642</v>
+        <v>1.18986</v>
       </c>
       <c r="D112" t="n">
-        <v>1.22982</v>
+        <v>1.23491</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.12028</v>
+        <v>1.1234</v>
       </c>
       <c r="C113" t="n">
-        <v>1.23854</v>
+        <v>1.19266</v>
       </c>
       <c r="D113" t="n">
-        <v>1.23614</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12543</v>
+        <v>1.12747</v>
       </c>
       <c r="C114" t="n">
-        <v>1.23785</v>
+        <v>1.18993</v>
       </c>
       <c r="D114" t="n">
-        <v>1.22842</v>
+        <v>1.22117</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12603</v>
+        <v>1.1281</v>
       </c>
       <c r="C115" t="n">
-        <v>1.23344</v>
+        <v>1.19247</v>
       </c>
       <c r="D115" t="n">
-        <v>1.23199</v>
+        <v>1.21731</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13195</v>
+        <v>1.13407</v>
       </c>
       <c r="C116" t="n">
-        <v>1.2161</v>
+        <v>1.1791</v>
       </c>
       <c r="D116" t="n">
-        <v>1.2147</v>
+        <v>1.2145</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.13523</v>
+        <v>1.13601</v>
       </c>
       <c r="C117" t="n">
-        <v>1.2262</v>
+        <v>1.18176</v>
       </c>
       <c r="D117" t="n">
-        <v>1.23312</v>
+        <v>1.22747</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.1427</v>
+        <v>1.13745</v>
       </c>
       <c r="C118" t="n">
-        <v>1.23898</v>
+        <v>1.20154</v>
       </c>
       <c r="D118" t="n">
-        <v>1.2136</v>
+        <v>1.23202</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13645</v>
+        <v>1.14017</v>
       </c>
       <c r="C119" t="n">
-        <v>1.234</v>
+        <v>1.19365</v>
       </c>
       <c r="D119" t="n">
-        <v>1.21434</v>
+        <v>1.21983</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.14064</v>
+        <v>1.14855</v>
       </c>
       <c r="C120" t="n">
-        <v>1.23327</v>
+        <v>1.21059</v>
       </c>
       <c r="D120" t="n">
-        <v>1.22377</v>
+        <v>1.23124</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.15766</v>
+        <v>1.15493</v>
       </c>
       <c r="C121" t="n">
-        <v>1.24645</v>
+        <v>1.20573</v>
       </c>
       <c r="D121" t="n">
-        <v>1.22934</v>
+        <v>1.22778</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.15781</v>
+        <v>1.15932</v>
       </c>
       <c r="C122" t="n">
-        <v>1.23616</v>
+        <v>1.21126</v>
       </c>
       <c r="D122" t="n">
-        <v>1.22757</v>
+        <v>1.23108</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.16748</v>
+        <v>1.17325</v>
       </c>
       <c r="C123" t="n">
-        <v>1.23299</v>
+        <v>1.2142</v>
       </c>
       <c r="D123" t="n">
-        <v>1.51797</v>
+        <v>1.52046</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.37735</v>
+        <v>1.37504</v>
       </c>
       <c r="C124" t="n">
-        <v>1.53526</v>
+        <v>1.4882</v>
       </c>
       <c r="D124" t="n">
-        <v>1.52277</v>
+        <v>1.52737</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.37183</v>
+        <v>1.37879</v>
       </c>
       <c r="C125" t="n">
-        <v>1.5457</v>
+        <v>1.50088</v>
       </c>
       <c r="D125" t="n">
-        <v>1.53761</v>
+        <v>1.52459</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.39287</v>
+        <v>1.37953</v>
       </c>
       <c r="C126" t="n">
-        <v>1.54321</v>
+        <v>1.49818</v>
       </c>
       <c r="D126" t="n">
-        <v>1.53789</v>
+        <v>1.53501</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.37483</v>
+        <v>1.38175</v>
       </c>
       <c r="C127" t="n">
-        <v>1.55892</v>
+        <v>1.50277</v>
       </c>
       <c r="D127" t="n">
-        <v>1.54072</v>
+        <v>1.54204</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.37944</v>
+        <v>1.38412</v>
       </c>
       <c r="C128" t="n">
-        <v>1.56244</v>
+        <v>1.51531</v>
       </c>
       <c r="D128" t="n">
-        <v>1.56224</v>
+        <v>1.54926</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.38567</v>
+        <v>1.38683</v>
       </c>
       <c r="C129" t="n">
-        <v>1.56307</v>
+        <v>1.5206</v>
       </c>
       <c r="D129" t="n">
-        <v>1.5614</v>
+        <v>1.55432</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.38814</v>
+        <v>1.3917</v>
       </c>
       <c r="C130" t="n">
-        <v>1.56953</v>
+        <v>1.52515</v>
       </c>
       <c r="D130" t="n">
-        <v>1.56343</v>
+        <v>1.56288</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.3912</v>
+        <v>1.39265</v>
       </c>
       <c r="C131" t="n">
-        <v>1.57321</v>
+        <v>1.53704</v>
       </c>
       <c r="D131" t="n">
-        <v>1.56644</v>
+        <v>1.57577</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.39031</v>
+        <v>1.396</v>
       </c>
       <c r="C132" t="n">
-        <v>1.58211</v>
+        <v>1.54037</v>
       </c>
       <c r="D132" t="n">
-        <v>1.57746</v>
+        <v>1.58532</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.39616</v>
+        <v>1.40046</v>
       </c>
       <c r="C133" t="n">
-        <v>1.58247</v>
+        <v>1.55134</v>
       </c>
       <c r="D133" t="n">
-        <v>1.58147</v>
+        <v>1.58106</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.40396</v>
+        <v>1.40419</v>
       </c>
       <c r="C134" t="n">
-        <v>1.58768</v>
+        <v>1.55614</v>
       </c>
       <c r="D134" t="n">
-        <v>1.58875</v>
+        <v>1.58833</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40923</v>
+        <v>1.413</v>
       </c>
       <c r="C135" t="n">
-        <v>1.60026</v>
+        <v>1.56102</v>
       </c>
       <c r="D135" t="n">
-        <v>1.6013</v>
+        <v>1.58996</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.41884</v>
+        <v>1.42348</v>
       </c>
       <c r="C136" t="n">
-        <v>1.60569</v>
+        <v>1.57807</v>
       </c>
       <c r="D136" t="n">
-        <v>1.60561</v>
+        <v>1.60653</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.43328</v>
+        <v>1.4354</v>
       </c>
       <c r="C137" t="n">
-        <v>1.61643</v>
+        <v>1.58217</v>
       </c>
       <c r="D137" t="n">
-        <v>1.89229</v>
+        <v>1.89577</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.6456</v>
+        <v>1.64477</v>
       </c>
       <c r="C138" t="n">
-        <v>1.91645</v>
+        <v>1.86461</v>
       </c>
       <c r="D138" t="n">
-        <v>1.90687</v>
+        <v>1.90126</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.64235</v>
+        <v>1.64134</v>
       </c>
       <c r="C139" t="n">
-        <v>1.91954</v>
+        <v>1.87025</v>
       </c>
       <c r="D139" t="n">
-        <v>1.92174</v>
+        <v>1.9126</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.63499</v>
+        <v>1.63971</v>
       </c>
       <c r="C140" t="n">
-        <v>1.94195</v>
+        <v>1.88315</v>
       </c>
       <c r="D140" t="n">
-        <v>1.92816</v>
+        <v>1.9239</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.63876</v>
+        <v>1.6358</v>
       </c>
       <c r="C141" t="n">
-        <v>1.94129</v>
+        <v>1.89477</v>
       </c>
       <c r="D141" t="n">
-        <v>1.93728</v>
+        <v>1.93583</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.63475</v>
+        <v>1.6336</v>
       </c>
       <c r="C142" t="n">
-        <v>1.94758</v>
+        <v>1.90485</v>
       </c>
       <c r="D142" t="n">
-        <v>1.94493</v>
+        <v>1.94201</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.63268</v>
+        <v>1.63182</v>
       </c>
       <c r="C143" t="n">
-        <v>1.95457</v>
+        <v>1.91486</v>
       </c>
       <c r="D143" t="n">
-        <v>1.95192</v>
+        <v>1.95095</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.700622</v>
+        <v>0.704291</v>
       </c>
       <c r="C2" t="n">
-        <v>0.709792</v>
+        <v>0.711068</v>
       </c>
       <c r="D2" t="n">
-        <v>0.730856</v>
+        <v>0.731277</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.689044</v>
+        <v>0.693222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.694801</v>
+        <v>0.694739</v>
       </c>
       <c r="D3" t="n">
-        <v>0.715166</v>
+        <v>0.7156400000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.678897</v>
+        <v>0.682708</v>
       </c>
       <c r="C4" t="n">
-        <v>0.680509</v>
+        <v>0.68081</v>
       </c>
       <c r="D4" t="n">
-        <v>0.702078</v>
+        <v>0.702211</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.671072</v>
+        <v>0.674552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.667654</v>
+        <v>0.68204</v>
       </c>
       <c r="D5" t="n">
-        <v>0.690143</v>
+        <v>0.690026</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.663481</v>
+        <v>0.666749</v>
       </c>
       <c r="C6" t="n">
-        <v>0.655618</v>
+        <v>0.655672</v>
       </c>
       <c r="D6" t="n">
-        <v>0.679532</v>
+        <v>0.678862</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.658961</v>
+        <v>0.662281</v>
       </c>
       <c r="C7" t="n">
-        <v>0.644987</v>
+        <v>0.6457000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.671023</v>
+        <v>0.670426</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.657725</v>
+        <v>0.661243</v>
       </c>
       <c r="C8" t="n">
-        <v>0.637104</v>
+        <v>0.636955</v>
       </c>
       <c r="D8" t="n">
-        <v>0.665822</v>
+        <v>0.665354</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.661562</v>
+        <v>0.665251</v>
       </c>
       <c r="C9" t="n">
-        <v>0.63249</v>
+        <v>0.632198</v>
       </c>
       <c r="D9" t="n">
-        <v>0.894279</v>
+        <v>0.894277</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.82018</v>
+        <v>0.823448</v>
       </c>
       <c r="C10" t="n">
-        <v>0.863324</v>
+        <v>0.8632300000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8784650000000001</v>
+        <v>0.878382</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.800735</v>
+        <v>0.804052</v>
       </c>
       <c r="C11" t="n">
-        <v>0.839618</v>
+        <v>0.839908</v>
       </c>
       <c r="D11" t="n">
-        <v>0.856151</v>
+        <v>0.8556049999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.782978</v>
+        <v>0.785849</v>
       </c>
       <c r="C12" t="n">
-        <v>0.818576</v>
+        <v>0.818553</v>
       </c>
       <c r="D12" t="n">
-        <v>0.835392</v>
+        <v>0.835202</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.765271</v>
+        <v>0.76881</v>
       </c>
       <c r="C13" t="n">
-        <v>0.79689</v>
+        <v>0.797088</v>
       </c>
       <c r="D13" t="n">
-        <v>0.815254</v>
+        <v>0.814995</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.750012</v>
+        <v>0.752732</v>
       </c>
       <c r="C14" t="n">
-        <v>0.777259</v>
+        <v>0.777366</v>
       </c>
       <c r="D14" t="n">
-        <v>0.796084</v>
+        <v>0.795682</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.735313</v>
+        <v>0.738081</v>
       </c>
       <c r="C15" t="n">
-        <v>0.75911</v>
+        <v>0.758656</v>
       </c>
       <c r="D15" t="n">
-        <v>0.778645</v>
+        <v>0.778462</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.721334</v>
+        <v>0.72432</v>
       </c>
       <c r="C16" t="n">
-        <v>0.741279</v>
+        <v>0.741243</v>
       </c>
       <c r="D16" t="n">
-        <v>0.762369</v>
+        <v>0.761896</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.708951</v>
+        <v>0.7120339999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.72438</v>
+        <v>0.724531</v>
       </c>
       <c r="D17" t="n">
-        <v>0.746176</v>
+        <v>0.7463</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.697713</v>
+        <v>0.700545</v>
       </c>
       <c r="C18" t="n">
-        <v>0.708954</v>
+        <v>0.708654</v>
       </c>
       <c r="D18" t="n">
-        <v>0.731809</v>
+        <v>0.7315120000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.688453</v>
+        <v>0.690963</v>
       </c>
       <c r="C19" t="n">
-        <v>0.695284</v>
+        <v>0.694981</v>
       </c>
       <c r="D19" t="n">
-        <v>0.718589</v>
+        <v>0.718198</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.680689</v>
+        <v>0.683354</v>
       </c>
       <c r="C20" t="n">
-        <v>0.681409</v>
+        <v>0.681364</v>
       </c>
       <c r="D20" t="n">
-        <v>0.70633</v>
+        <v>0.705792</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.675336</v>
+        <v>0.677577</v>
       </c>
       <c r="C21" t="n">
-        <v>0.670041</v>
+        <v>0.669718</v>
       </c>
       <c r="D21" t="n">
-        <v>0.69618</v>
+        <v>0.695724</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.672287</v>
+        <v>0.674932</v>
       </c>
       <c r="C22" t="n">
-        <v>0.660944</v>
+        <v>0.660238</v>
       </c>
       <c r="D22" t="n">
-        <v>0.689187</v>
+        <v>0.688575</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.672923</v>
+        <v>0.67585</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6543</v>
+        <v>0.653527</v>
       </c>
       <c r="D23" t="n">
-        <v>0.924397</v>
+        <v>0.938914</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8132200000000001</v>
+        <v>0.816195</v>
       </c>
       <c r="C24" t="n">
-        <v>0.865046</v>
+        <v>0.86513</v>
       </c>
       <c r="D24" t="n">
-        <v>0.900756</v>
+        <v>0.908189</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7954329999999999</v>
+        <v>0.7983710000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.842311</v>
+        <v>0.843071</v>
       </c>
       <c r="D25" t="n">
-        <v>0.878115</v>
+        <v>0.889145</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.776989</v>
+        <v>0.78063</v>
       </c>
       <c r="C26" t="n">
-        <v>0.820747</v>
+        <v>0.821333</v>
       </c>
       <c r="D26" t="n">
-        <v>0.856499</v>
+        <v>0.864796</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.760531</v>
+        <v>0.764666</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7999849999999999</v>
+        <v>0.801054</v>
       </c>
       <c r="D27" t="n">
-        <v>0.835773</v>
+        <v>0.850245</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.745023</v>
+        <v>0.748997</v>
       </c>
       <c r="C28" t="n">
-        <v>0.780965</v>
+        <v>0.781533</v>
       </c>
       <c r="D28" t="n">
-        <v>0.816389</v>
+        <v>0.835514</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.730859</v>
+        <v>0.734344</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7619860000000001</v>
+        <v>0.763047</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7979270000000001</v>
+        <v>0.83531</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.717851</v>
+        <v>0.721292</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7448050000000001</v>
+        <v>0.745609</v>
       </c>
       <c r="D30" t="n">
-        <v>0.780865</v>
+        <v>0.793758</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.705483</v>
+        <v>0.7088370000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.728202</v>
+        <v>0.7288520000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.764394</v>
+        <v>0.765652</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.694482</v>
+        <v>0.697644</v>
       </c>
       <c r="C32" t="n">
-        <v>0.712906</v>
+        <v>0.713735</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7492760000000001</v>
+        <v>0.750344</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.684879</v>
+        <v>0.6886949999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.69901</v>
+        <v>0.699305</v>
       </c>
       <c r="D33" t="n">
-        <v>0.735758</v>
+        <v>0.736248</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6770389999999999</v>
+        <v>0.680304</v>
       </c>
       <c r="C34" t="n">
-        <v>0.685802</v>
+        <v>0.686772</v>
       </c>
       <c r="D34" t="n">
-        <v>0.723413</v>
+        <v>0.724205</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.672026</v>
+        <v>0.675365</v>
       </c>
       <c r="C35" t="n">
-        <v>0.674623</v>
+        <v>0.674838</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7128370000000001</v>
+        <v>0.723234</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.668917</v>
+        <v>0.671786</v>
       </c>
       <c r="C36" t="n">
-        <v>0.664499</v>
+        <v>0.6645219999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.704227</v>
+        <v>0.721906</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.668758</v>
+        <v>0.672283</v>
       </c>
       <c r="C37" t="n">
-        <v>0.65735</v>
+        <v>0.658075</v>
       </c>
       <c r="D37" t="n">
-        <v>0.945567</v>
+        <v>0.947392</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8469410000000001</v>
+        <v>0.850136</v>
       </c>
       <c r="C38" t="n">
-        <v>0.897884</v>
+        <v>0.897691</v>
       </c>
       <c r="D38" t="n">
-        <v>0.921866</v>
+        <v>0.923088</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.828388</v>
+        <v>0.830959</v>
       </c>
       <c r="C39" t="n">
-        <v>0.875544</v>
+        <v>0.875551</v>
       </c>
       <c r="D39" t="n">
-        <v>0.899173</v>
+        <v>0.900316</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.81114</v>
+        <v>0.812617</v>
       </c>
       <c r="C40" t="n">
-        <v>0.853067</v>
+        <v>0.853106</v>
       </c>
       <c r="D40" t="n">
-        <v>0.87788</v>
+        <v>0.880476</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.792712</v>
+        <v>0.794667</v>
       </c>
       <c r="C41" t="n">
-        <v>0.83146</v>
+        <v>0.831549</v>
       </c>
       <c r="D41" t="n">
-        <v>0.856727</v>
+        <v>0.859069</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.775826</v>
+        <v>0.778136</v>
       </c>
       <c r="C42" t="n">
-        <v>0.81106</v>
+        <v>0.811286</v>
       </c>
       <c r="D42" t="n">
-        <v>0.836356</v>
+        <v>0.842429</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.760007</v>
+        <v>0.762581</v>
       </c>
       <c r="C43" t="n">
-        <v>0.792306</v>
+        <v>0.791841</v>
       </c>
       <c r="D43" t="n">
-        <v>0.818865</v>
+        <v>0.820951</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.745972</v>
+        <v>0.748218</v>
       </c>
       <c r="C44" t="n">
-        <v>0.773886</v>
+        <v>0.77358</v>
       </c>
       <c r="D44" t="n">
-        <v>0.801491</v>
+        <v>0.801827</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.732803</v>
+        <v>0.734782</v>
       </c>
       <c r="C45" t="n">
-        <v>0.755997</v>
+        <v>0.756315</v>
       </c>
       <c r="D45" t="n">
-        <v>0.78416</v>
+        <v>0.78682</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.720574</v>
+        <v>0.723044</v>
       </c>
       <c r="C46" t="n">
-        <v>0.739436</v>
+        <v>0.740383</v>
       </c>
       <c r="D46" t="n">
-        <v>0.768412</v>
+        <v>0.771506</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.708952</v>
+        <v>0.712145</v>
       </c>
       <c r="C47" t="n">
-        <v>0.724553</v>
+        <v>0.725643</v>
       </c>
       <c r="D47" t="n">
-        <v>0.754317</v>
+        <v>0.756078</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7011039999999999</v>
+        <v>0.70307</v>
       </c>
       <c r="C48" t="n">
-        <v>0.711641</v>
+        <v>0.711319</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7423650000000001</v>
+        <v>0.744345</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.694153</v>
+        <v>0.695688</v>
       </c>
       <c r="C49" t="n">
-        <v>0.69885</v>
+        <v>0.698406</v>
       </c>
       <c r="D49" t="n">
-        <v>0.730524</v>
+        <v>0.733861</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.689026</v>
+        <v>0.690737</v>
       </c>
       <c r="C50" t="n">
-        <v>0.687728</v>
+        <v>0.687938</v>
       </c>
       <c r="D50" t="n">
-        <v>0.722151</v>
+        <v>0.723029</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.687398</v>
+        <v>0.689429</v>
       </c>
       <c r="C51" t="n">
-        <v>0.679627</v>
+        <v>0.679115</v>
       </c>
       <c r="D51" t="n">
-        <v>0.969925</v>
+        <v>0.981078</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.689281</v>
+        <v>0.690553</v>
       </c>
       <c r="C52" t="n">
-        <v>0.674723</v>
+        <v>0.6735640000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.947163</v>
+        <v>0.950194</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.852455</v>
+        <v>0.854324</v>
       </c>
       <c r="C53" t="n">
-        <v>0.899959</v>
+        <v>0.90012</v>
       </c>
       <c r="D53" t="n">
-        <v>0.92363</v>
+        <v>0.9273400000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8332580000000001</v>
+        <v>0.83509</v>
       </c>
       <c r="C54" t="n">
-        <v>0.876965</v>
+        <v>0.878333</v>
       </c>
       <c r="D54" t="n">
-        <v>0.902071</v>
+        <v>0.906852</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.815947</v>
+        <v>0.817756</v>
       </c>
       <c r="C55" t="n">
-        <v>0.856704</v>
+        <v>0.856156</v>
       </c>
       <c r="D55" t="n">
-        <v>0.88166</v>
+        <v>0.88512</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.798992</v>
+        <v>0.80126</v>
       </c>
       <c r="C56" t="n">
-        <v>0.835632</v>
+        <v>0.835956</v>
       </c>
       <c r="D56" t="n">
-        <v>0.862571</v>
+        <v>0.8666700000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.783678</v>
+        <v>0.785667</v>
       </c>
       <c r="C57" t="n">
-        <v>0.817759</v>
+        <v>0.8163859999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.844432</v>
+        <v>0.846257</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.769546</v>
+        <v>0.771236</v>
       </c>
       <c r="C58" t="n">
-        <v>0.798345</v>
+        <v>0.798588</v>
       </c>
       <c r="D58" t="n">
-        <v>0.826182</v>
+        <v>0.830029</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.755775</v>
+        <v>0.757255</v>
       </c>
       <c r="C59" t="n">
-        <v>0.780434</v>
+        <v>0.781756</v>
       </c>
       <c r="D59" t="n">
-        <v>0.810158</v>
+        <v>0.814259</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.743447</v>
+        <v>0.74561</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7632139999999999</v>
+        <v>0.765918</v>
       </c>
       <c r="D60" t="n">
-        <v>0.795323</v>
+        <v>0.798529</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.732714</v>
+        <v>0.734233</v>
       </c>
       <c r="C61" t="n">
-        <v>0.749423</v>
+        <v>0.750875</v>
       </c>
       <c r="D61" t="n">
-        <v>0.780913</v>
+        <v>0.783102</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7236669999999999</v>
+        <v>0.724882</v>
       </c>
       <c r="C62" t="n">
-        <v>0.736414</v>
+        <v>0.737087</v>
       </c>
       <c r="D62" t="n">
-        <v>0.768629</v>
+        <v>0.77049</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.714632</v>
+        <v>0.717162</v>
       </c>
       <c r="C63" t="n">
-        <v>0.722846</v>
+        <v>0.723119</v>
       </c>
       <c r="D63" t="n">
-        <v>0.757172</v>
+        <v>0.758381</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.710709</v>
+        <v>0.712071</v>
       </c>
       <c r="C64" t="n">
-        <v>0.712801</v>
+        <v>0.711443</v>
       </c>
       <c r="D64" t="n">
-        <v>0.746985</v>
+        <v>0.749752</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.708425</v>
+        <v>0.709542</v>
       </c>
       <c r="C65" t="n">
-        <v>0.703178</v>
+        <v>0.702468</v>
       </c>
       <c r="D65" t="n">
-        <v>0.740591</v>
+        <v>0.743552</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.709283</v>
+        <v>0.71087</v>
       </c>
       <c r="C66" t="n">
-        <v>0.696625</v>
+        <v>0.6957410000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.974074</v>
+        <v>1.01273</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.874494</v>
+        <v>0.878699</v>
       </c>
       <c r="C67" t="n">
-        <v>0.928642</v>
+        <v>0.931647</v>
       </c>
       <c r="D67" t="n">
-        <v>0.953166</v>
+        <v>0.989737</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.856514</v>
+        <v>0.857249</v>
       </c>
       <c r="C68" t="n">
-        <v>0.90863</v>
+        <v>0.907933</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9323050000000001</v>
+        <v>0.938967</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.839948</v>
+        <v>0.840071</v>
       </c>
       <c r="C69" t="n">
-        <v>0.88686</v>
+        <v>0.886201</v>
       </c>
       <c r="D69" t="n">
-        <v>0.911256</v>
+        <v>0.933111</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.821144</v>
+        <v>0.823164</v>
       </c>
       <c r="C70" t="n">
-        <v>0.866349</v>
+        <v>0.869729</v>
       </c>
       <c r="D70" t="n">
-        <v>0.892773</v>
+        <v>0.9002289999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.806883</v>
+        <v>0.80733</v>
       </c>
       <c r="C71" t="n">
-        <v>0.845297</v>
+        <v>0.846647</v>
       </c>
       <c r="D71" t="n">
-        <v>0.873265</v>
+        <v>0.881113</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7905219999999999</v>
+        <v>0.794924</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8276289999999999</v>
+        <v>0.8272080000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.855766</v>
+        <v>0.8825190000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.776779</v>
+        <v>0.781457</v>
       </c>
       <c r="C73" t="n">
-        <v>0.811378</v>
+        <v>0.810559</v>
       </c>
       <c r="D73" t="n">
-        <v>0.840316</v>
+        <v>0.862386</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.764679</v>
+        <v>0.769387</v>
       </c>
       <c r="C74" t="n">
-        <v>0.794547</v>
+        <v>0.793859</v>
       </c>
       <c r="D74" t="n">
-        <v>0.824474</v>
+        <v>0.842754</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7541639999999999</v>
+        <v>0.757986</v>
       </c>
       <c r="C75" t="n">
-        <v>0.779175</v>
+        <v>0.778431</v>
       </c>
       <c r="D75" t="n">
-        <v>0.809661</v>
+        <v>0.837552</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.744648</v>
+        <v>0.748321</v>
       </c>
       <c r="C76" t="n">
-        <v>0.765926</v>
+        <v>0.761335</v>
       </c>
       <c r="D76" t="n">
-        <v>0.795745</v>
+        <v>0.818706</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.73616</v>
+        <v>0.739989</v>
       </c>
       <c r="C77" t="n">
-        <v>0.751678</v>
+        <v>0.752194</v>
       </c>
       <c r="D77" t="n">
-        <v>0.784847</v>
+        <v>0.793249</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.733191</v>
+        <v>0.73437</v>
       </c>
       <c r="C78" t="n">
-        <v>0.739067</v>
+        <v>0.739826</v>
       </c>
       <c r="D78" t="n">
-        <v>0.773956</v>
+        <v>0.785632</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.730536</v>
+        <v>0.731236</v>
       </c>
       <c r="C79" t="n">
-        <v>0.729827</v>
+        <v>0.730482</v>
       </c>
       <c r="D79" t="n">
-        <v>0.766931</v>
+        <v>0.780188</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.729599</v>
+        <v>0.732318</v>
       </c>
       <c r="C80" t="n">
-        <v>0.719336</v>
+        <v>0.72354</v>
       </c>
       <c r="D80" t="n">
-        <v>1.02391</v>
+        <v>1.0574</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.920693</v>
+        <v>0.921445</v>
       </c>
       <c r="C81" t="n">
-        <v>0.973226</v>
+        <v>1.00201</v>
       </c>
       <c r="D81" t="n">
-        <v>0.999924</v>
+        <v>1.0179</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9045570000000001</v>
+        <v>0.905925</v>
       </c>
       <c r="C82" t="n">
-        <v>0.952604</v>
+        <v>0.98067</v>
       </c>
       <c r="D82" t="n">
-        <v>0.976787</v>
+        <v>0.99437</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.888439</v>
+        <v>0.890781</v>
       </c>
       <c r="C83" t="n">
-        <v>0.930819</v>
+        <v>0.938526</v>
       </c>
       <c r="D83" t="n">
-        <v>0.958699</v>
+        <v>0.9738</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.874275</v>
+        <v>0.875147</v>
       </c>
       <c r="C84" t="n">
-        <v>0.910615</v>
+        <v>0.938544</v>
       </c>
       <c r="D84" t="n">
-        <v>0.938196</v>
+        <v>0.953479</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.858815</v>
+        <v>0.860145</v>
       </c>
       <c r="C85" t="n">
-        <v>0.891898</v>
+        <v>0.922965</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9196220000000001</v>
+        <v>0.934642</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.844471</v>
+        <v>0.8496939999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.870833</v>
+        <v>0.90907</v>
       </c>
       <c r="D86" t="n">
-        <v>0.902029</v>
+        <v>0.909679</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.830411</v>
+        <v>0.834914</v>
       </c>
       <c r="C87" t="n">
-        <v>0.85646</v>
+        <v>0.859572</v>
       </c>
       <c r="D87" t="n">
-        <v>0.887779</v>
+        <v>0.899956</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.818893</v>
+        <v>0.821851</v>
       </c>
       <c r="C88" t="n">
-        <v>0.841789</v>
+        <v>0.838831</v>
       </c>
       <c r="D88" t="n">
-        <v>0.871645</v>
+        <v>0.877414</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.808648</v>
+        <v>0.809818</v>
       </c>
       <c r="C89" t="n">
-        <v>0.827809</v>
+        <v>0.827975</v>
       </c>
       <c r="D89" t="n">
-        <v>0.85717</v>
+        <v>0.862212</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.797701</v>
+        <v>0.798352</v>
       </c>
       <c r="C90" t="n">
-        <v>0.806347</v>
+        <v>0.812782</v>
       </c>
       <c r="D90" t="n">
-        <v>0.843132</v>
+        <v>0.847338</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.788037</v>
+        <v>0.789841</v>
       </c>
       <c r="C91" t="n">
-        <v>0.799575</v>
+        <v>0.799416</v>
       </c>
       <c r="D91" t="n">
-        <v>0.831031</v>
+        <v>0.836453</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.781741</v>
+        <v>0.780633</v>
       </c>
       <c r="C92" t="n">
-        <v>0.787412</v>
+        <v>0.78691</v>
       </c>
       <c r="D92" t="n">
-        <v>0.820002</v>
+        <v>0.824462</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.777464</v>
+        <v>0.776843</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7763370000000001</v>
+        <v>0.775034</v>
       </c>
       <c r="D93" t="n">
-        <v>0.811041</v>
+        <v>0.818244</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.777462</v>
+        <v>0.771189</v>
       </c>
       <c r="C94" t="n">
-        <v>0.769914</v>
+        <v>0.7652870000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>1.08339</v>
+        <v>1.09669</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.976759</v>
+        <v>0.975716</v>
       </c>
       <c r="C95" t="n">
-        <v>1.02879</v>
+        <v>1.01844</v>
       </c>
       <c r="D95" t="n">
-        <v>1.08346</v>
+        <v>1.082</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.982421</v>
+        <v>0.982054</v>
       </c>
       <c r="C96" t="n">
-        <v>1.02976</v>
+        <v>1.03078</v>
       </c>
       <c r="D96" t="n">
-        <v>1.0731</v>
+        <v>1.0724</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.977156</v>
+        <v>0.980705</v>
       </c>
       <c r="C97" t="n">
-        <v>1.01702</v>
+        <v>1.02512</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06192</v>
+        <v>1.06031</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9719410000000001</v>
+        <v>0.973097</v>
       </c>
       <c r="C98" t="n">
-        <v>1.01268</v>
+        <v>1.01614</v>
       </c>
       <c r="D98" t="n">
-        <v>1.05186</v>
+        <v>1.03889</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.96412</v>
+        <v>0.9644740000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.995565</v>
+        <v>1.01454</v>
       </c>
       <c r="D99" t="n">
-        <v>1.03801</v>
+        <v>1.03917</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.95552</v>
+        <v>0.956033</v>
       </c>
       <c r="C100" t="n">
-        <v>0.990232</v>
+        <v>0.992765</v>
       </c>
       <c r="D100" t="n">
-        <v>1.00522</v>
+        <v>1.01947</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9467410000000001</v>
+        <v>0.946711</v>
       </c>
       <c r="C101" t="n">
-        <v>0.982495</v>
+        <v>0.999256</v>
       </c>
       <c r="D101" t="n">
-        <v>1.01254</v>
+        <v>1.01328</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.938896</v>
+        <v>0.9368919999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.972532</v>
+        <v>0.966992</v>
       </c>
       <c r="D102" t="n">
-        <v>0.996636</v>
+        <v>0.99725</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.929431</v>
+        <v>0.92923</v>
       </c>
       <c r="C103" t="n">
-        <v>0.960305</v>
+        <v>0.958012</v>
       </c>
       <c r="D103" t="n">
-        <v>0.987938</v>
+        <v>0.9678870000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.922171</v>
+        <v>0.91976</v>
       </c>
       <c r="C104" t="n">
-        <v>0.95057</v>
+        <v>0.924327</v>
       </c>
       <c r="D104" t="n">
-        <v>0.969037</v>
+        <v>0.969233</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.915227</v>
+        <v>0.9133250000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.93912</v>
+        <v>0.947738</v>
       </c>
       <c r="D105" t="n">
-        <v>0.954824</v>
+        <v>0.935842</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.90718</v>
+        <v>0.907953</v>
       </c>
       <c r="C106" t="n">
-        <v>0.925369</v>
+        <v>0.918104</v>
       </c>
       <c r="D106" t="n">
-        <v>0.950808</v>
+        <v>0.94712</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.906546</v>
+        <v>0.901605</v>
       </c>
       <c r="C107" t="n">
-        <v>0.919443</v>
+        <v>0.926227</v>
       </c>
       <c r="D107" t="n">
-        <v>0.94706</v>
+        <v>0.937276</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.906519</v>
+        <v>0.902118</v>
       </c>
       <c r="C108" t="n">
-        <v>0.913273</v>
+        <v>0.913237</v>
       </c>
       <c r="D108" t="n">
-        <v>1.21841</v>
+        <v>1.19681</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.911443</v>
+        <v>0.910599</v>
       </c>
       <c r="C109" t="n">
-        <v>0.89686</v>
+        <v>0.922478</v>
       </c>
       <c r="D109" t="n">
-        <v>1.23197</v>
+        <v>1.23583</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.11419</v>
+        <v>1.11633</v>
       </c>
       <c r="C110" t="n">
-        <v>1.19194</v>
+        <v>1.23308</v>
       </c>
       <c r="D110" t="n">
-        <v>1.21827</v>
+        <v>1.23796</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.11906</v>
+        <v>1.12031</v>
       </c>
       <c r="C111" t="n">
-        <v>1.19461</v>
+        <v>1.2312</v>
       </c>
       <c r="D111" t="n">
-        <v>1.23513</v>
+        <v>1.2284</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.12109</v>
+        <v>1.12759</v>
       </c>
       <c r="C112" t="n">
-        <v>1.18986</v>
+        <v>1.20545</v>
       </c>
       <c r="D112" t="n">
-        <v>1.23491</v>
+        <v>1.23169</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.1234</v>
+        <v>1.12817</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19266</v>
+        <v>1.1938</v>
       </c>
       <c r="D113" t="n">
-        <v>1.23</v>
+        <v>1.23656</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12747</v>
+        <v>1.12783</v>
       </c>
       <c r="C114" t="n">
-        <v>1.18993</v>
+        <v>1.22234</v>
       </c>
       <c r="D114" t="n">
-        <v>1.22117</v>
+        <v>1.24576</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.1281</v>
+        <v>1.12949</v>
       </c>
       <c r="C115" t="n">
-        <v>1.19247</v>
+        <v>1.19756</v>
       </c>
       <c r="D115" t="n">
-        <v>1.21731</v>
+        <v>1.219</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13407</v>
+        <v>1.13377</v>
       </c>
       <c r="C116" t="n">
-        <v>1.1791</v>
+        <v>1.20523</v>
       </c>
       <c r="D116" t="n">
-        <v>1.2145</v>
+        <v>1.21668</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.13601</v>
+        <v>1.13762</v>
       </c>
       <c r="C117" t="n">
-        <v>1.18176</v>
+        <v>1.21906</v>
       </c>
       <c r="D117" t="n">
-        <v>1.22747</v>
+        <v>1.2172</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13745</v>
+        <v>1.14071</v>
       </c>
       <c r="C118" t="n">
-        <v>1.20154</v>
+        <v>1.23604</v>
       </c>
       <c r="D118" t="n">
-        <v>1.23202</v>
+        <v>1.23566</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.14017</v>
+        <v>1.14421</v>
       </c>
       <c r="C119" t="n">
-        <v>1.19365</v>
+        <v>1.20258</v>
       </c>
       <c r="D119" t="n">
-        <v>1.21983</v>
+        <v>1.23627</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.14855</v>
+        <v>1.14901</v>
       </c>
       <c r="C120" t="n">
-        <v>1.21059</v>
+        <v>1.22595</v>
       </c>
       <c r="D120" t="n">
-        <v>1.23124</v>
+        <v>1.21741</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.15493</v>
+        <v>1.15641</v>
       </c>
       <c r="C121" t="n">
-        <v>1.20573</v>
+        <v>1.20296</v>
       </c>
       <c r="D121" t="n">
-        <v>1.22778</v>
+        <v>1.23689</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.15932</v>
+        <v>1.16232</v>
       </c>
       <c r="C122" t="n">
-        <v>1.21126</v>
+        <v>1.22149</v>
       </c>
       <c r="D122" t="n">
-        <v>1.23108</v>
+        <v>1.23219</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.17325</v>
+        <v>1.1738</v>
       </c>
       <c r="C123" t="n">
-        <v>1.2142</v>
+        <v>1.21538</v>
       </c>
       <c r="D123" t="n">
-        <v>1.52046</v>
+        <v>1.51594</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.37504</v>
+        <v>1.37767</v>
       </c>
       <c r="C124" t="n">
-        <v>1.4882</v>
+        <v>1.53792</v>
       </c>
       <c r="D124" t="n">
-        <v>1.52737</v>
+        <v>1.52064</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.37879</v>
+        <v>1.38078</v>
       </c>
       <c r="C125" t="n">
-        <v>1.50088</v>
+        <v>1.50904</v>
       </c>
       <c r="D125" t="n">
-        <v>1.52459</v>
+        <v>1.53801</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.37953</v>
+        <v>1.38237</v>
       </c>
       <c r="C126" t="n">
-        <v>1.49818</v>
+        <v>1.54916</v>
       </c>
       <c r="D126" t="n">
-        <v>1.53501</v>
+        <v>1.53679</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.38175</v>
+        <v>1.38475</v>
       </c>
       <c r="C127" t="n">
-        <v>1.50277</v>
+        <v>1.52714</v>
       </c>
       <c r="D127" t="n">
-        <v>1.54204</v>
+        <v>1.54271</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.38412</v>
+        <v>1.38582</v>
       </c>
       <c r="C128" t="n">
-        <v>1.51531</v>
+        <v>1.52043</v>
       </c>
       <c r="D128" t="n">
-        <v>1.54926</v>
+        <v>1.55952</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.38683</v>
+        <v>1.38792</v>
       </c>
       <c r="C129" t="n">
-        <v>1.5206</v>
+        <v>1.52625</v>
       </c>
       <c r="D129" t="n">
-        <v>1.55432</v>
+        <v>1.55438</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.3917</v>
+        <v>1.3912</v>
       </c>
       <c r="C130" t="n">
-        <v>1.52515</v>
+        <v>1.56262</v>
       </c>
       <c r="D130" t="n">
-        <v>1.56288</v>
+        <v>1.57507</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.39265</v>
+        <v>1.39506</v>
       </c>
       <c r="C131" t="n">
-        <v>1.53704</v>
+        <v>1.57244</v>
       </c>
       <c r="D131" t="n">
-        <v>1.57577</v>
+        <v>1.57857</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.396</v>
+        <v>1.39646</v>
       </c>
       <c r="C132" t="n">
-        <v>1.54037</v>
+        <v>1.57957</v>
       </c>
       <c r="D132" t="n">
-        <v>1.58532</v>
+        <v>1.57164</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.40046</v>
+        <v>1.40104</v>
       </c>
       <c r="C133" t="n">
-        <v>1.55134</v>
+        <v>1.58964</v>
       </c>
       <c r="D133" t="n">
-        <v>1.58106</v>
+        <v>1.58315</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.40419</v>
+        <v>1.4072</v>
       </c>
       <c r="C134" t="n">
-        <v>1.55614</v>
+        <v>1.58935</v>
       </c>
       <c r="D134" t="n">
-        <v>1.58833</v>
+        <v>1.59143</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.413</v>
+        <v>1.41445</v>
       </c>
       <c r="C135" t="n">
-        <v>1.56102</v>
+        <v>1.59994</v>
       </c>
       <c r="D135" t="n">
-        <v>1.58996</v>
+        <v>1.59838</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.42348</v>
+        <v>1.4242</v>
       </c>
       <c r="C136" t="n">
-        <v>1.57807</v>
+        <v>1.60119</v>
       </c>
       <c r="D136" t="n">
-        <v>1.60653</v>
+        <v>1.60623</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.4354</v>
+        <v>1.43656</v>
       </c>
       <c r="C137" t="n">
-        <v>1.58217</v>
+        <v>1.60408</v>
       </c>
       <c r="D137" t="n">
-        <v>1.89577</v>
+        <v>1.89144</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.64477</v>
+        <v>1.64713</v>
       </c>
       <c r="C138" t="n">
-        <v>1.86461</v>
+        <v>1.92121</v>
       </c>
       <c r="D138" t="n">
-        <v>1.90126</v>
+        <v>1.90367</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.64134</v>
+        <v>1.64384</v>
       </c>
       <c r="C139" t="n">
-        <v>1.87025</v>
+        <v>1.93316</v>
       </c>
       <c r="D139" t="n">
-        <v>1.9126</v>
+        <v>1.91493</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.63971</v>
+        <v>1.6389</v>
       </c>
       <c r="C140" t="n">
-        <v>1.88315</v>
+        <v>1.92807</v>
       </c>
       <c r="D140" t="n">
-        <v>1.9239</v>
+        <v>1.92332</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.6358</v>
+        <v>1.63646</v>
       </c>
       <c r="C141" t="n">
-        <v>1.89477</v>
+        <v>1.93248</v>
       </c>
       <c r="D141" t="n">
-        <v>1.93583</v>
+        <v>1.93507</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.6336</v>
+        <v>1.6342</v>
       </c>
       <c r="C142" t="n">
-        <v>1.90485</v>
+        <v>1.93832</v>
       </c>
       <c r="D142" t="n">
-        <v>1.94201</v>
+        <v>1.94496</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.63182</v>
+        <v>1.63366</v>
       </c>
       <c r="C143" t="n">
-        <v>1.91486</v>
+        <v>1.9487</v>
       </c>
       <c r="D143" t="n">
-        <v>1.95095</v>
+        <v>1.95356</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.704291</v>
+        <v>0.672266</v>
       </c>
       <c r="C2" t="n">
-        <v>0.711068</v>
+        <v>0.696375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.731277</v>
+        <v>0.716564</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.693222</v>
+        <v>0.661712</v>
       </c>
       <c r="C3" t="n">
-        <v>0.694739</v>
+        <v>0.6813709999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7156400000000001</v>
+        <v>0.702451</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.682708</v>
+        <v>0.6530280000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.68081</v>
+        <v>0.6677729999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.702211</v>
+        <v>0.68997</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.674552</v>
+        <v>0.644686</v>
       </c>
       <c r="C5" t="n">
-        <v>0.68204</v>
+        <v>0.65552</v>
       </c>
       <c r="D5" t="n">
-        <v>0.690026</v>
+        <v>0.67842</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.666749</v>
+        <v>0.637881</v>
       </c>
       <c r="C6" t="n">
-        <v>0.655672</v>
+        <v>0.6434299999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.678862</v>
+        <v>0.668059</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.662281</v>
+        <v>0.633556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6457000000000001</v>
+        <v>0.633552</v>
       </c>
       <c r="D7" t="n">
-        <v>0.670426</v>
+        <v>0.659822</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.661243</v>
+        <v>0.63313</v>
       </c>
       <c r="C8" t="n">
-        <v>0.636955</v>
+        <v>0.626129</v>
       </c>
       <c r="D8" t="n">
-        <v>0.665354</v>
+        <v>0.6553639999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.665251</v>
+        <v>0.636482</v>
       </c>
       <c r="C9" t="n">
-        <v>0.632198</v>
+        <v>0.621966</v>
       </c>
       <c r="D9" t="n">
-        <v>0.894277</v>
+        <v>0.861811</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.823448</v>
+        <v>0.765022</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8632300000000001</v>
+        <v>0.824725</v>
       </c>
       <c r="D10" t="n">
-        <v>0.878382</v>
+        <v>0.840107</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.804052</v>
+        <v>0.748319</v>
       </c>
       <c r="C11" t="n">
-        <v>0.839908</v>
+        <v>0.802373</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8556049999999999</v>
+        <v>0.820276</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.785849</v>
+        <v>0.733101</v>
       </c>
       <c r="C12" t="n">
-        <v>0.818553</v>
+        <v>0.782595</v>
       </c>
       <c r="D12" t="n">
-        <v>0.835202</v>
+        <v>0.801052</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.76881</v>
+        <v>0.718319</v>
       </c>
       <c r="C13" t="n">
-        <v>0.797088</v>
+        <v>0.7631869999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.814995</v>
+        <v>0.782663</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.752732</v>
+        <v>0.704756</v>
       </c>
       <c r="C14" t="n">
-        <v>0.777366</v>
+        <v>0.745277</v>
       </c>
       <c r="D14" t="n">
-        <v>0.795682</v>
+        <v>0.765278</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.738081</v>
+        <v>0.69254</v>
       </c>
       <c r="C15" t="n">
-        <v>0.758656</v>
+        <v>0.728144</v>
       </c>
       <c r="D15" t="n">
-        <v>0.778462</v>
+        <v>0.748981</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.72432</v>
+        <v>0.680937</v>
       </c>
       <c r="C16" t="n">
-        <v>0.741243</v>
+        <v>0.711866</v>
       </c>
       <c r="D16" t="n">
-        <v>0.761896</v>
+        <v>0.733707</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7120339999999999</v>
+        <v>0.670272</v>
       </c>
       <c r="C17" t="n">
-        <v>0.724531</v>
+        <v>0.696597</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7463</v>
+        <v>0.719045</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.700545</v>
+        <v>0.6614139999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.708654</v>
+        <v>0.682248</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7315120000000001</v>
+        <v>0.705931</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.690963</v>
+        <v>0.653654</v>
       </c>
       <c r="C19" t="n">
-        <v>0.694981</v>
+        <v>0.669837</v>
       </c>
       <c r="D19" t="n">
-        <v>0.718198</v>
+        <v>0.694012</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.683354</v>
+        <v>0.647515</v>
       </c>
       <c r="C20" t="n">
-        <v>0.681364</v>
+        <v>0.657335</v>
       </c>
       <c r="D20" t="n">
-        <v>0.705792</v>
+        <v>0.6829769999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.677577</v>
+        <v>0.643427</v>
       </c>
       <c r="C21" t="n">
-        <v>0.669718</v>
+        <v>0.647573</v>
       </c>
       <c r="D21" t="n">
-        <v>0.695724</v>
+        <v>0.673962</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.674932</v>
+        <v>0.641255</v>
       </c>
       <c r="C22" t="n">
-        <v>0.660238</v>
+        <v>0.638649</v>
       </c>
       <c r="D22" t="n">
-        <v>0.688575</v>
+        <v>0.670637</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.67585</v>
+        <v>0.6425729999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.653527</v>
+        <v>0.632931</v>
       </c>
       <c r="D23" t="n">
-        <v>0.938914</v>
+        <v>0.923593</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.816195</v>
+        <v>0.810452</v>
       </c>
       <c r="C24" t="n">
-        <v>0.86513</v>
+        <v>0.867107</v>
       </c>
       <c r="D24" t="n">
-        <v>0.908189</v>
+        <v>0.900307</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7983710000000001</v>
+        <v>0.7922670000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.843071</v>
+        <v>0.844596</v>
       </c>
       <c r="D25" t="n">
-        <v>0.889145</v>
+        <v>0.877802</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.78063</v>
+        <v>0.775105</v>
       </c>
       <c r="C26" t="n">
-        <v>0.821333</v>
+        <v>0.823207</v>
       </c>
       <c r="D26" t="n">
-        <v>0.864796</v>
+        <v>0.8563499999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.764666</v>
+        <v>0.759019</v>
       </c>
       <c r="C27" t="n">
-        <v>0.801054</v>
+        <v>0.802447</v>
       </c>
       <c r="D27" t="n">
-        <v>0.850245</v>
+        <v>0.835849</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.748997</v>
+        <v>0.743727</v>
       </c>
       <c r="C28" t="n">
-        <v>0.781533</v>
+        <v>0.783124</v>
       </c>
       <c r="D28" t="n">
-        <v>0.835514</v>
+        <v>0.817032</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.734344</v>
+        <v>0.729106</v>
       </c>
       <c r="C29" t="n">
-        <v>0.763047</v>
+        <v>0.7644030000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.83531</v>
+        <v>0.797996</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.721292</v>
+        <v>0.715625</v>
       </c>
       <c r="C30" t="n">
-        <v>0.745609</v>
+        <v>0.747096</v>
       </c>
       <c r="D30" t="n">
-        <v>0.793758</v>
+        <v>0.781103</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7088370000000001</v>
+        <v>0.703626</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7288520000000001</v>
+        <v>0.730398</v>
       </c>
       <c r="D31" t="n">
-        <v>0.765652</v>
+        <v>0.764477</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.697644</v>
+        <v>0.692506</v>
       </c>
       <c r="C32" t="n">
-        <v>0.713735</v>
+        <v>0.715246</v>
       </c>
       <c r="D32" t="n">
-        <v>0.750344</v>
+        <v>0.749283</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6886949999999999</v>
+        <v>0.683148</v>
       </c>
       <c r="C33" t="n">
-        <v>0.699305</v>
+        <v>0.700949</v>
       </c>
       <c r="D33" t="n">
-        <v>0.736248</v>
+        <v>0.73582</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.680304</v>
+        <v>0.675076</v>
       </c>
       <c r="C34" t="n">
-        <v>0.686772</v>
+        <v>0.688068</v>
       </c>
       <c r="D34" t="n">
-        <v>0.724205</v>
+        <v>0.723695</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.675365</v>
+        <v>0.669165</v>
       </c>
       <c r="C35" t="n">
-        <v>0.674838</v>
+        <v>0.675818</v>
       </c>
       <c r="D35" t="n">
-        <v>0.723234</v>
+        <v>0.7123350000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.671786</v>
+        <v>0.6663790000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6645219999999999</v>
+        <v>0.665625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.721906</v>
+        <v>0.704372</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.672283</v>
+        <v>0.66614</v>
       </c>
       <c r="C37" t="n">
-        <v>0.658075</v>
+        <v>0.6586649999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.947392</v>
+        <v>0.9456599999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.850136</v>
+        <v>0.84309</v>
       </c>
       <c r="C38" t="n">
-        <v>0.897691</v>
+        <v>0.899073</v>
       </c>
       <c r="D38" t="n">
-        <v>0.923088</v>
+        <v>0.922118</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.830959</v>
+        <v>0.824523</v>
       </c>
       <c r="C39" t="n">
-        <v>0.875551</v>
+        <v>0.876915</v>
       </c>
       <c r="D39" t="n">
-        <v>0.900316</v>
+        <v>0.89956</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.812617</v>
+        <v>0.806277</v>
       </c>
       <c r="C40" t="n">
-        <v>0.853106</v>
+        <v>0.854603</v>
       </c>
       <c r="D40" t="n">
-        <v>0.880476</v>
+        <v>0.877371</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.794667</v>
+        <v>0.790453</v>
       </c>
       <c r="C41" t="n">
-        <v>0.831549</v>
+        <v>0.832927</v>
       </c>
       <c r="D41" t="n">
-        <v>0.859069</v>
+        <v>0.856764</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.778136</v>
+        <v>0.771912</v>
       </c>
       <c r="C42" t="n">
-        <v>0.811286</v>
+        <v>0.812248</v>
       </c>
       <c r="D42" t="n">
-        <v>0.842429</v>
+        <v>0.8370649999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.762581</v>
+        <v>0.756349</v>
       </c>
       <c r="C43" t="n">
-        <v>0.791841</v>
+        <v>0.793063</v>
       </c>
       <c r="D43" t="n">
-        <v>0.820951</v>
+        <v>0.818331</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.748218</v>
+        <v>0.742382</v>
       </c>
       <c r="C44" t="n">
-        <v>0.77358</v>
+        <v>0.7746459999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.801827</v>
+        <v>0.800478</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.734782</v>
+        <v>0.729147</v>
       </c>
       <c r="C45" t="n">
-        <v>0.756315</v>
+        <v>0.757485</v>
       </c>
       <c r="D45" t="n">
-        <v>0.78682</v>
+        <v>0.783585</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.723044</v>
+        <v>0.71737</v>
       </c>
       <c r="C46" t="n">
-        <v>0.740383</v>
+        <v>0.741866</v>
       </c>
       <c r="D46" t="n">
-        <v>0.771506</v>
+        <v>0.76883</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.712145</v>
+        <v>0.7064049999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.725643</v>
+        <v>0.725594</v>
       </c>
       <c r="D47" t="n">
-        <v>0.756078</v>
+        <v>0.753835</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.70307</v>
+        <v>0.6972390000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.711319</v>
+        <v>0.711969</v>
       </c>
       <c r="D48" t="n">
-        <v>0.744345</v>
+        <v>0.740623</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.695688</v>
+        <v>0.690588</v>
       </c>
       <c r="C49" t="n">
-        <v>0.698406</v>
+        <v>0.698994</v>
       </c>
       <c r="D49" t="n">
-        <v>0.733861</v>
+        <v>0.72986</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.690737</v>
+        <v>0.686308</v>
       </c>
       <c r="C50" t="n">
-        <v>0.687938</v>
+        <v>0.689017</v>
       </c>
       <c r="D50" t="n">
-        <v>0.723029</v>
+        <v>0.720956</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.689429</v>
+        <v>0.684674</v>
       </c>
       <c r="C51" t="n">
-        <v>0.679115</v>
+        <v>0.679275</v>
       </c>
       <c r="D51" t="n">
-        <v>0.981078</v>
+        <v>0.967755</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.690553</v>
+        <v>0.686747</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6735640000000001</v>
+        <v>0.673607</v>
       </c>
       <c r="D52" t="n">
-        <v>0.950194</v>
+        <v>0.946164</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.854324</v>
+        <v>0.850087</v>
       </c>
       <c r="C53" t="n">
-        <v>0.90012</v>
+        <v>0.900859</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9273400000000001</v>
+        <v>0.9227109999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.83509</v>
+        <v>0.83158</v>
       </c>
       <c r="C54" t="n">
-        <v>0.878333</v>
+        <v>0.878012</v>
       </c>
       <c r="D54" t="n">
-        <v>0.906852</v>
+        <v>0.9010899999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.817756</v>
+        <v>0.813001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.856156</v>
+        <v>0.856702</v>
       </c>
       <c r="D55" t="n">
-        <v>0.88512</v>
+        <v>0.8802219999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.80126</v>
+        <v>0.796382</v>
       </c>
       <c r="C56" t="n">
-        <v>0.835956</v>
+        <v>0.835877</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8666700000000001</v>
+        <v>0.860806</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.785667</v>
+        <v>0.780411</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8163859999999999</v>
+        <v>0.8169920000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.846257</v>
+        <v>0.84287</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.771236</v>
+        <v>0.765603</v>
       </c>
       <c r="C58" t="n">
-        <v>0.798588</v>
+        <v>0.798384</v>
       </c>
       <c r="D58" t="n">
-        <v>0.830029</v>
+        <v>0.824869</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.757255</v>
+        <v>0.752012</v>
       </c>
       <c r="C59" t="n">
-        <v>0.781756</v>
+        <v>0.781722</v>
       </c>
       <c r="D59" t="n">
-        <v>0.814259</v>
+        <v>0.8078340000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.74561</v>
+        <v>0.741007</v>
       </c>
       <c r="C60" t="n">
-        <v>0.765918</v>
+        <v>0.764898</v>
       </c>
       <c r="D60" t="n">
-        <v>0.798529</v>
+        <v>0.791976</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.734233</v>
+        <v>0.729541</v>
       </c>
       <c r="C61" t="n">
-        <v>0.750875</v>
+        <v>0.74893</v>
       </c>
       <c r="D61" t="n">
-        <v>0.783102</v>
+        <v>0.777861</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.724882</v>
+        <v>0.720153</v>
       </c>
       <c r="C62" t="n">
-        <v>0.737087</v>
+        <v>0.734244</v>
       </c>
       <c r="D62" t="n">
-        <v>0.77049</v>
+        <v>0.76524</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.717162</v>
+        <v>0.711947</v>
       </c>
       <c r="C63" t="n">
-        <v>0.723119</v>
+        <v>0.720288</v>
       </c>
       <c r="D63" t="n">
-        <v>0.758381</v>
+        <v>0.752798</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.712071</v>
+        <v>0.706696</v>
       </c>
       <c r="C64" t="n">
-        <v>0.711443</v>
+        <v>0.709182</v>
       </c>
       <c r="D64" t="n">
-        <v>0.749752</v>
+        <v>0.742962</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.709542</v>
+        <v>0.703834</v>
       </c>
       <c r="C65" t="n">
-        <v>0.702468</v>
+        <v>0.701595</v>
       </c>
       <c r="D65" t="n">
-        <v>0.743552</v>
+        <v>0.736171</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.71087</v>
+        <v>0.705769</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6957410000000001</v>
+        <v>0.692895</v>
       </c>
       <c r="D66" t="n">
-        <v>1.01273</v>
+        <v>0.9737130000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.878699</v>
+        <v>0.8746080000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.931647</v>
+        <v>0.933028</v>
       </c>
       <c r="D67" t="n">
-        <v>0.989737</v>
+        <v>0.951194</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.857249</v>
+        <v>0.855035</v>
       </c>
       <c r="C68" t="n">
-        <v>0.907933</v>
+        <v>0.908438</v>
       </c>
       <c r="D68" t="n">
-        <v>0.938967</v>
+        <v>0.929352</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.840071</v>
+        <v>0.8364</v>
       </c>
       <c r="C69" t="n">
-        <v>0.886201</v>
+        <v>0.885671</v>
       </c>
       <c r="D69" t="n">
-        <v>0.933111</v>
+        <v>0.90992</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.823164</v>
+        <v>0.820008</v>
       </c>
       <c r="C70" t="n">
-        <v>0.869729</v>
+        <v>0.865527</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9002289999999999</v>
+        <v>0.890215</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.80733</v>
+        <v>0.80396</v>
       </c>
       <c r="C71" t="n">
-        <v>0.846647</v>
+        <v>0.8458329999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.881113</v>
+        <v>0.870023</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.794924</v>
+        <v>0.7879620000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8272080000000001</v>
+        <v>0.824902</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8825190000000001</v>
+        <v>0.8527749999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.781457</v>
+        <v>0.774186</v>
       </c>
       <c r="C73" t="n">
-        <v>0.810559</v>
+        <v>0.808003</v>
       </c>
       <c r="D73" t="n">
-        <v>0.862386</v>
+        <v>0.835738</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.769387</v>
+        <v>0.762238</v>
       </c>
       <c r="C74" t="n">
-        <v>0.793859</v>
+        <v>0.7906530000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.842754</v>
+        <v>0.820621</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.757986</v>
+        <v>0.7501139999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.778431</v>
+        <v>0.775129</v>
       </c>
       <c r="D75" t="n">
-        <v>0.837552</v>
+        <v>0.807767</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.748321</v>
+        <v>0.7424500000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.761335</v>
+        <v>0.763027</v>
       </c>
       <c r="D76" t="n">
-        <v>0.818706</v>
+        <v>0.794513</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.739989</v>
+        <v>0.733634</v>
       </c>
       <c r="C77" t="n">
-        <v>0.752194</v>
+        <v>0.749401</v>
       </c>
       <c r="D77" t="n">
-        <v>0.793249</v>
+        <v>0.782314</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.73437</v>
+        <v>0.728108</v>
       </c>
       <c r="C78" t="n">
-        <v>0.739826</v>
+        <v>0.737044</v>
       </c>
       <c r="D78" t="n">
-        <v>0.785632</v>
+        <v>0.771943</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.731236</v>
+        <v>0.724085</v>
       </c>
       <c r="C79" t="n">
-        <v>0.730482</v>
+        <v>0.726292</v>
       </c>
       <c r="D79" t="n">
-        <v>0.780188</v>
+        <v>0.764286</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.732318</v>
+        <v>0.725201</v>
       </c>
       <c r="C80" t="n">
-        <v>0.72354</v>
+        <v>0.7189179999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>1.0574</v>
+        <v>1.02364</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.921445</v>
+        <v>0.921134</v>
       </c>
       <c r="C81" t="n">
-        <v>1.00201</v>
+        <v>0.978277</v>
       </c>
       <c r="D81" t="n">
-        <v>1.0179</v>
+        <v>1.00354</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.905925</v>
+        <v>0.906359</v>
       </c>
       <c r="C82" t="n">
-        <v>0.98067</v>
+        <v>0.9565090000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.99437</v>
+        <v>0.986177</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.890781</v>
+        <v>0.896376</v>
       </c>
       <c r="C83" t="n">
-        <v>0.938526</v>
+        <v>0.9408609999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9738</v>
+        <v>0.966116</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.875147</v>
+        <v>0.881433</v>
       </c>
       <c r="C84" t="n">
-        <v>0.938544</v>
+        <v>0.920797</v>
       </c>
       <c r="D84" t="n">
-        <v>0.953479</v>
+        <v>0.945841</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.860145</v>
+        <v>0.8664190000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.922965</v>
+        <v>0.900367</v>
       </c>
       <c r="D85" t="n">
-        <v>0.934642</v>
+        <v>0.926742</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8496939999999999</v>
+        <v>0.85294</v>
       </c>
       <c r="C86" t="n">
-        <v>0.90907</v>
+        <v>0.881734</v>
       </c>
       <c r="D86" t="n">
-        <v>0.909679</v>
+        <v>0.909071</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.834914</v>
+        <v>0.837376</v>
       </c>
       <c r="C87" t="n">
-        <v>0.859572</v>
+        <v>0.862554</v>
       </c>
       <c r="D87" t="n">
-        <v>0.899956</v>
+        <v>0.890631</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.821851</v>
+        <v>0.8252389999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.838831</v>
+        <v>0.846635</v>
       </c>
       <c r="D88" t="n">
-        <v>0.877414</v>
+        <v>0.875147</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.809818</v>
+        <v>0.81297</v>
       </c>
       <c r="C89" t="n">
-        <v>0.827975</v>
+        <v>0.829371</v>
       </c>
       <c r="D89" t="n">
-        <v>0.862212</v>
+        <v>0.858986</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.798352</v>
+        <v>0.801658</v>
       </c>
       <c r="C90" t="n">
-        <v>0.812782</v>
+        <v>0.814412</v>
       </c>
       <c r="D90" t="n">
-        <v>0.847338</v>
+        <v>0.844392</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.789841</v>
+        <v>0.7908809999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.799416</v>
+        <v>0.80042</v>
       </c>
       <c r="D91" t="n">
-        <v>0.836453</v>
+        <v>0.832381</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.780633</v>
+        <v>0.783068</v>
       </c>
       <c r="C92" t="n">
-        <v>0.78691</v>
+        <v>0.787425</v>
       </c>
       <c r="D92" t="n">
-        <v>0.824462</v>
+        <v>0.821705</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.776843</v>
+        <v>0.778634</v>
       </c>
       <c r="C93" t="n">
-        <v>0.775034</v>
+        <v>0.77784</v>
       </c>
       <c r="D93" t="n">
-        <v>0.818244</v>
+        <v>0.813902</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.771189</v>
+        <v>0.777278</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7652870000000001</v>
+        <v>0.76874</v>
       </c>
       <c r="D94" t="n">
-        <v>1.09669</v>
+        <v>1.09312</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.975716</v>
+        <v>0.983481</v>
       </c>
       <c r="C95" t="n">
-        <v>1.01844</v>
+        <v>1.03396</v>
       </c>
       <c r="D95" t="n">
-        <v>1.082</v>
+        <v>1.09369</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.982054</v>
+        <v>0.992013</v>
       </c>
       <c r="C96" t="n">
-        <v>1.03078</v>
+        <v>1.04269</v>
       </c>
       <c r="D96" t="n">
-        <v>1.0724</v>
+        <v>1.0857</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.980705</v>
+        <v>0.993017</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02512</v>
+        <v>1.03753</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06031</v>
+        <v>1.07733</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.973097</v>
+        <v>0.987542</v>
       </c>
       <c r="C98" t="n">
-        <v>1.01614</v>
+        <v>1.02878</v>
       </c>
       <c r="D98" t="n">
-        <v>1.03889</v>
+        <v>1.06317</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9644740000000001</v>
+        <v>0.981591</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01454</v>
+        <v>1.01947</v>
       </c>
       <c r="D99" t="n">
-        <v>1.03917</v>
+        <v>1.05073</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.956033</v>
+        <v>0.972905</v>
       </c>
       <c r="C100" t="n">
-        <v>0.992765</v>
+        <v>1.00717</v>
       </c>
       <c r="D100" t="n">
-        <v>1.01947</v>
+        <v>1.03738</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.946711</v>
+        <v>0.9632039999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.999256</v>
+        <v>0.994682</v>
       </c>
       <c r="D101" t="n">
-        <v>1.01328</v>
+        <v>1.02348</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9368919999999999</v>
+        <v>0.954061</v>
       </c>
       <c r="C102" t="n">
-        <v>0.966992</v>
+        <v>0.983468</v>
       </c>
       <c r="D102" t="n">
-        <v>0.99725</v>
+        <v>1.01096</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.92923</v>
+        <v>0.945936</v>
       </c>
       <c r="C103" t="n">
-        <v>0.958012</v>
+        <v>0.972677</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9678870000000001</v>
+        <v>0.998198</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.91976</v>
+        <v>0.936769</v>
       </c>
       <c r="C104" t="n">
-        <v>0.924327</v>
+        <v>0.960817</v>
       </c>
       <c r="D104" t="n">
-        <v>0.969233</v>
+        <v>0.985352</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9133250000000001</v>
+        <v>0.931181</v>
       </c>
       <c r="C105" t="n">
-        <v>0.947738</v>
+        <v>0.951115</v>
       </c>
       <c r="D105" t="n">
-        <v>0.935842</v>
+        <v>0.974424</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.907953</v>
+        <v>0.925812</v>
       </c>
       <c r="C106" t="n">
-        <v>0.918104</v>
+        <v>0.941883</v>
       </c>
       <c r="D106" t="n">
-        <v>0.94712</v>
+        <v>0.965834</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.901605</v>
+        <v>0.921299</v>
       </c>
       <c r="C107" t="n">
-        <v>0.926227</v>
+        <v>0.9335290000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.937276</v>
+        <v>0.955762</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.902118</v>
+        <v>0.921699</v>
       </c>
       <c r="C108" t="n">
-        <v>0.913237</v>
+        <v>0.927305</v>
       </c>
       <c r="D108" t="n">
-        <v>1.19681</v>
+        <v>1.23642</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.910599</v>
+        <v>0.924282</v>
       </c>
       <c r="C109" t="n">
-        <v>0.922478</v>
+        <v>0.9218769999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>1.23583</v>
+        <v>1.25239</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.11633</v>
+        <v>1.13828</v>
       </c>
       <c r="C110" t="n">
-        <v>1.23308</v>
+        <v>1.21458</v>
       </c>
       <c r="D110" t="n">
-        <v>1.23796</v>
+        <v>1.26039</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.12031</v>
+        <v>1.14515</v>
       </c>
       <c r="C111" t="n">
-        <v>1.2312</v>
+        <v>1.22129</v>
       </c>
       <c r="D111" t="n">
-        <v>1.2284</v>
+        <v>1.26154</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.12759</v>
+        <v>1.15058</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20545</v>
+        <v>1.22384</v>
       </c>
       <c r="D112" t="n">
-        <v>1.23169</v>
+        <v>1.26343</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.12817</v>
+        <v>1.15313</v>
       </c>
       <c r="C113" t="n">
-        <v>1.1938</v>
+        <v>1.22587</v>
       </c>
       <c r="D113" t="n">
-        <v>1.23656</v>
+        <v>1.26589</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12783</v>
+        <v>1.15983</v>
       </c>
       <c r="C114" t="n">
-        <v>1.22234</v>
+        <v>1.23125</v>
       </c>
       <c r="D114" t="n">
-        <v>1.24576</v>
+        <v>1.26896</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12949</v>
+        <v>1.16185</v>
       </c>
       <c r="C115" t="n">
-        <v>1.19756</v>
+        <v>1.23423</v>
       </c>
       <c r="D115" t="n">
-        <v>1.219</v>
+        <v>1.26991</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13377</v>
+        <v>1.16603</v>
       </c>
       <c r="C116" t="n">
-        <v>1.20523</v>
+        <v>1.23624</v>
       </c>
       <c r="D116" t="n">
-        <v>1.21668</v>
+        <v>1.27129</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.13762</v>
+        <v>1.17383</v>
       </c>
       <c r="C117" t="n">
-        <v>1.21906</v>
+        <v>1.24293</v>
       </c>
       <c r="D117" t="n">
-        <v>1.2172</v>
+        <v>1.27352</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.14071</v>
+        <v>1.17846</v>
       </c>
       <c r="C118" t="n">
-        <v>1.23604</v>
+        <v>1.24834</v>
       </c>
       <c r="D118" t="n">
-        <v>1.23566</v>
+        <v>1.27314</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.14421</v>
+        <v>1.18287</v>
       </c>
       <c r="C119" t="n">
-        <v>1.20258</v>
+        <v>1.25024</v>
       </c>
       <c r="D119" t="n">
-        <v>1.23627</v>
+        <v>1.27653</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.14901</v>
+        <v>1.19044</v>
       </c>
       <c r="C120" t="n">
-        <v>1.22595</v>
+        <v>1.25201</v>
       </c>
       <c r="D120" t="n">
-        <v>1.21741</v>
+        <v>1.2758</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.15641</v>
+        <v>1.19841</v>
       </c>
       <c r="C121" t="n">
-        <v>1.20296</v>
+        <v>1.25497</v>
       </c>
       <c r="D121" t="n">
-        <v>1.23689</v>
+        <v>1.27792</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.16232</v>
+        <v>1.20859</v>
       </c>
       <c r="C122" t="n">
-        <v>1.22149</v>
+        <v>1.26083</v>
       </c>
       <c r="D122" t="n">
-        <v>1.23219</v>
+        <v>1.28175</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.1738</v>
+        <v>1.21825</v>
       </c>
       <c r="C123" t="n">
-        <v>1.21538</v>
+        <v>1.26735</v>
       </c>
       <c r="D123" t="n">
-        <v>1.51594</v>
+        <v>1.58087</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.37767</v>
+        <v>1.43275</v>
       </c>
       <c r="C124" t="n">
-        <v>1.53792</v>
+        <v>1.55411</v>
       </c>
       <c r="D124" t="n">
-        <v>1.52064</v>
+        <v>1.59392</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.38078</v>
+        <v>1.43565</v>
       </c>
       <c r="C125" t="n">
-        <v>1.50904</v>
+        <v>1.56461</v>
       </c>
       <c r="D125" t="n">
-        <v>1.53801</v>
+        <v>1.60366</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.38237</v>
+        <v>1.44087</v>
       </c>
       <c r="C126" t="n">
-        <v>1.54916</v>
+        <v>1.57815</v>
       </c>
       <c r="D126" t="n">
-        <v>1.53679</v>
+        <v>1.61565</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.38475</v>
+        <v>1.44373</v>
       </c>
       <c r="C127" t="n">
-        <v>1.52714</v>
+        <v>1.5872</v>
       </c>
       <c r="D127" t="n">
-        <v>1.54271</v>
+        <v>1.6238</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.38582</v>
+        <v>1.44929</v>
       </c>
       <c r="C128" t="n">
-        <v>1.52043</v>
+        <v>1.59643</v>
       </c>
       <c r="D128" t="n">
-        <v>1.55952</v>
+        <v>1.63299</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.38792</v>
+        <v>1.45508</v>
       </c>
       <c r="C129" t="n">
-        <v>1.52625</v>
+        <v>1.60722</v>
       </c>
       <c r="D129" t="n">
-        <v>1.55438</v>
+        <v>1.64253</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.3912</v>
+        <v>1.46124</v>
       </c>
       <c r="C130" t="n">
-        <v>1.56262</v>
+        <v>1.61593</v>
       </c>
       <c r="D130" t="n">
-        <v>1.57507</v>
+        <v>1.65013</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.39506</v>
+        <v>1.46426</v>
       </c>
       <c r="C131" t="n">
-        <v>1.57244</v>
+        <v>1.62573</v>
       </c>
       <c r="D131" t="n">
-        <v>1.57857</v>
+        <v>1.65859</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.39646</v>
+        <v>1.4716</v>
       </c>
       <c r="C132" t="n">
-        <v>1.57957</v>
+        <v>1.6346</v>
       </c>
       <c r="D132" t="n">
-        <v>1.57164</v>
+        <v>1.66572</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.40104</v>
+        <v>1.47574</v>
       </c>
       <c r="C133" t="n">
-        <v>1.58964</v>
+        <v>1.64202</v>
       </c>
       <c r="D133" t="n">
-        <v>1.58315</v>
+        <v>1.67379</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.4072</v>
+        <v>1.48548</v>
       </c>
       <c r="C134" t="n">
-        <v>1.58935</v>
+        <v>1.65093</v>
       </c>
       <c r="D134" t="n">
-        <v>1.59143</v>
+        <v>1.68147</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.41445</v>
+        <v>1.49365</v>
       </c>
       <c r="C135" t="n">
-        <v>1.59994</v>
+        <v>1.65981</v>
       </c>
       <c r="D135" t="n">
-        <v>1.59838</v>
+        <v>1.69051</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.4242</v>
+        <v>1.50472</v>
       </c>
       <c r="C136" t="n">
-        <v>1.60119</v>
+        <v>1.67248</v>
       </c>
       <c r="D136" t="n">
-        <v>1.60623</v>
+        <v>1.69877</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.43656</v>
+        <v>1.51623</v>
       </c>
       <c r="C137" t="n">
-        <v>1.60408</v>
+        <v>1.68142</v>
       </c>
       <c r="D137" t="n">
-        <v>1.89144</v>
+        <v>1.99584</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.64713</v>
+        <v>1.73634</v>
       </c>
       <c r="C138" t="n">
-        <v>1.92121</v>
+        <v>1.96868</v>
       </c>
       <c r="D138" t="n">
-        <v>1.90367</v>
+        <v>2.01271</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.64384</v>
+        <v>1.73376</v>
       </c>
       <c r="C139" t="n">
-        <v>1.93316</v>
+        <v>1.9844</v>
       </c>
       <c r="D139" t="n">
-        <v>1.91493</v>
+        <v>2.02702</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.6389</v>
+        <v>1.73156</v>
       </c>
       <c r="C140" t="n">
-        <v>1.92807</v>
+        <v>1.99715</v>
       </c>
       <c r="D140" t="n">
-        <v>1.92332</v>
+        <v>2.03871</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.63646</v>
+        <v>1.73097</v>
       </c>
       <c r="C141" t="n">
-        <v>1.93248</v>
+        <v>2.01053</v>
       </c>
       <c r="D141" t="n">
-        <v>1.93507</v>
+        <v>2.05125</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.6342</v>
+        <v>1.73074</v>
       </c>
       <c r="C142" t="n">
-        <v>1.93832</v>
+        <v>2.02281</v>
       </c>
       <c r="D142" t="n">
-        <v>1.94496</v>
+        <v>2.06444</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.63366</v>
+        <v>1.7302</v>
       </c>
       <c r="C143" t="n">
-        <v>1.9487</v>
+        <v>2.03567</v>
       </c>
       <c r="D143" t="n">
-        <v>1.95356</v>
+        <v>2.07571</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.672266</v>
+        <v>0.669403</v>
       </c>
       <c r="C2" t="n">
-        <v>0.696375</v>
+        <v>0.693199</v>
       </c>
       <c r="D2" t="n">
-        <v>0.716564</v>
+        <v>0.712499</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.661712</v>
+        <v>0.659156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6813709999999999</v>
+        <v>0.678145</v>
       </c>
       <c r="D3" t="n">
-        <v>0.702451</v>
+        <v>0.698498</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6530280000000001</v>
+        <v>0.650579</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6677729999999999</v>
+        <v>0.665011</v>
       </c>
       <c r="D4" t="n">
-        <v>0.68997</v>
+        <v>0.685823</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.644686</v>
+        <v>0.642448</v>
       </c>
       <c r="C5" t="n">
-        <v>0.65552</v>
+        <v>0.6523910000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.67842</v>
+        <v>0.674694</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.637881</v>
+        <v>0.635659</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6434299999999999</v>
+        <v>0.640637</v>
       </c>
       <c r="D6" t="n">
-        <v>0.668059</v>
+        <v>0.664046</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.633556</v>
+        <v>0.631517</v>
       </c>
       <c r="C7" t="n">
-        <v>0.633552</v>
+        <v>0.630793</v>
       </c>
       <c r="D7" t="n">
-        <v>0.659822</v>
+        <v>0.656089</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.63313</v>
+        <v>0.630893</v>
       </c>
       <c r="C8" t="n">
-        <v>0.626129</v>
+        <v>0.623351</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6553639999999999</v>
+        <v>0.65177</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.636482</v>
+        <v>0.634699</v>
       </c>
       <c r="C9" t="n">
-        <v>0.621966</v>
+        <v>0.6193149999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.861811</v>
+        <v>0.858156</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.765022</v>
+        <v>0.763383</v>
       </c>
       <c r="C10" t="n">
-        <v>0.824725</v>
+        <v>0.819353</v>
       </c>
       <c r="D10" t="n">
-        <v>0.840107</v>
+        <v>0.836745</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.748319</v>
+        <v>0.746725</v>
       </c>
       <c r="C11" t="n">
-        <v>0.802373</v>
+        <v>0.798153</v>
       </c>
       <c r="D11" t="n">
-        <v>0.820276</v>
+        <v>0.816308</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.733101</v>
+        <v>0.73175</v>
       </c>
       <c r="C12" t="n">
-        <v>0.782595</v>
+        <v>0.778683</v>
       </c>
       <c r="D12" t="n">
-        <v>0.801052</v>
+        <v>0.797297</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.718319</v>
+        <v>0.716947</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7631869999999999</v>
+        <v>0.759086</v>
       </c>
       <c r="D13" t="n">
-        <v>0.782663</v>
+        <v>0.779078</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.704756</v>
+        <v>0.703256</v>
       </c>
       <c r="C14" t="n">
-        <v>0.745277</v>
+        <v>0.741383</v>
       </c>
       <c r="D14" t="n">
-        <v>0.765278</v>
+        <v>0.7614300000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.69254</v>
+        <v>0.691156</v>
       </c>
       <c r="C15" t="n">
-        <v>0.728144</v>
+        <v>0.724224</v>
       </c>
       <c r="D15" t="n">
-        <v>0.748981</v>
+        <v>0.745344</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.680937</v>
+        <v>0.679368</v>
       </c>
       <c r="C16" t="n">
-        <v>0.711866</v>
+        <v>0.708506</v>
       </c>
       <c r="D16" t="n">
-        <v>0.733707</v>
+        <v>0.73008</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.670272</v>
+        <v>0.669002</v>
       </c>
       <c r="C17" t="n">
-        <v>0.696597</v>
+        <v>0.693478</v>
       </c>
       <c r="D17" t="n">
-        <v>0.719045</v>
+        <v>0.7156439999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6614139999999999</v>
+        <v>0.65974</v>
       </c>
       <c r="C18" t="n">
-        <v>0.682248</v>
+        <v>0.678971</v>
       </c>
       <c r="D18" t="n">
-        <v>0.705931</v>
+        <v>0.7022699999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.653654</v>
+        <v>0.651896</v>
       </c>
       <c r="C19" t="n">
-        <v>0.669837</v>
+        <v>0.666587</v>
       </c>
       <c r="D19" t="n">
-        <v>0.694012</v>
+        <v>0.6907</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.647515</v>
+        <v>0.645717</v>
       </c>
       <c r="C20" t="n">
-        <v>0.657335</v>
+        <v>0.654384</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6829769999999999</v>
+        <v>0.679441</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.643427</v>
+        <v>0.641494</v>
       </c>
       <c r="C21" t="n">
-        <v>0.647573</v>
+        <v>0.644163</v>
       </c>
       <c r="D21" t="n">
-        <v>0.673962</v>
+        <v>0.670507</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.641255</v>
+        <v>0.6393219999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.638649</v>
+        <v>0.635991</v>
       </c>
       <c r="D22" t="n">
-        <v>0.670637</v>
+        <v>0.664789</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6425729999999999</v>
+        <v>0.64067</v>
       </c>
       <c r="C23" t="n">
-        <v>0.632931</v>
+        <v>0.6304419999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.923593</v>
+        <v>0.920356</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.810452</v>
+        <v>0.80833</v>
       </c>
       <c r="C24" t="n">
-        <v>0.867107</v>
+        <v>0.9136</v>
       </c>
       <c r="D24" t="n">
-        <v>0.900307</v>
+        <v>0.897099</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7922670000000001</v>
+        <v>0.789843</v>
       </c>
       <c r="C25" t="n">
-        <v>0.844596</v>
+        <v>0.888795</v>
       </c>
       <c r="D25" t="n">
-        <v>0.877802</v>
+        <v>0.874707</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.775105</v>
+        <v>0.772715</v>
       </c>
       <c r="C26" t="n">
-        <v>0.823207</v>
+        <v>0.860459</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8563499999999999</v>
+        <v>0.853125</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.759019</v>
+        <v>0.756364</v>
       </c>
       <c r="C27" t="n">
-        <v>0.802447</v>
+        <v>0.838284</v>
       </c>
       <c r="D27" t="n">
-        <v>0.835849</v>
+        <v>0.832346</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.743727</v>
+        <v>0.741186</v>
       </c>
       <c r="C28" t="n">
-        <v>0.783124</v>
+        <v>0.82195</v>
       </c>
       <c r="D28" t="n">
-        <v>0.817032</v>
+        <v>0.812953</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.729106</v>
+        <v>0.72675</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7644030000000001</v>
+        <v>0.7906879999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.797996</v>
+        <v>0.794424</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.715625</v>
+        <v>0.712842</v>
       </c>
       <c r="C30" t="n">
-        <v>0.747096</v>
+        <v>0.782627</v>
       </c>
       <c r="D30" t="n">
-        <v>0.781103</v>
+        <v>0.777459</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.703626</v>
+        <v>0.700695</v>
       </c>
       <c r="C31" t="n">
-        <v>0.730398</v>
+        <v>0.760598</v>
       </c>
       <c r="D31" t="n">
-        <v>0.764477</v>
+        <v>0.760588</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.692506</v>
+        <v>0.690261</v>
       </c>
       <c r="C32" t="n">
-        <v>0.715246</v>
+        <v>0.740171</v>
       </c>
       <c r="D32" t="n">
-        <v>0.749283</v>
+        <v>0.7460290000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.683148</v>
+        <v>0.6799500000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.700949</v>
+        <v>0.728617</v>
       </c>
       <c r="D33" t="n">
-        <v>0.73582</v>
+        <v>0.732451</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.675076</v>
+        <v>0.672623</v>
       </c>
       <c r="C34" t="n">
-        <v>0.688068</v>
+        <v>0.716971</v>
       </c>
       <c r="D34" t="n">
-        <v>0.723695</v>
+        <v>0.720028</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.669165</v>
+        <v>0.667284</v>
       </c>
       <c r="C35" t="n">
-        <v>0.675818</v>
+        <v>0.700964</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7123350000000001</v>
+        <v>0.709642</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6663790000000001</v>
+        <v>0.663571</v>
       </c>
       <c r="C36" t="n">
-        <v>0.665625</v>
+        <v>0.672852</v>
       </c>
       <c r="D36" t="n">
-        <v>0.704372</v>
+        <v>0.701152</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.66614</v>
+        <v>0.663707</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6586649999999999</v>
+        <v>0.684816</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9456599999999999</v>
+        <v>0.9424940000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.84309</v>
+        <v>0.841353</v>
       </c>
       <c r="C38" t="n">
-        <v>0.899073</v>
+        <v>0.896972</v>
       </c>
       <c r="D38" t="n">
-        <v>0.922118</v>
+        <v>0.919246</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.824523</v>
+        <v>0.822921</v>
       </c>
       <c r="C39" t="n">
-        <v>0.876915</v>
+        <v>0.894802</v>
       </c>
       <c r="D39" t="n">
-        <v>0.89956</v>
+        <v>0.896295</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.806277</v>
+        <v>0.804402</v>
       </c>
       <c r="C40" t="n">
-        <v>0.854603</v>
+        <v>0.853751</v>
       </c>
       <c r="D40" t="n">
-        <v>0.877371</v>
+        <v>0.874046</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.790453</v>
+        <v>0.78674</v>
       </c>
       <c r="C41" t="n">
-        <v>0.832927</v>
+        <v>0.831719</v>
       </c>
       <c r="D41" t="n">
-        <v>0.856764</v>
+        <v>0.853869</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.771912</v>
+        <v>0.7699</v>
       </c>
       <c r="C42" t="n">
-        <v>0.812248</v>
+        <v>0.811165</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8370649999999999</v>
+        <v>0.834326</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.756349</v>
+        <v>0.7544729999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.793063</v>
+        <v>0.79494</v>
       </c>
       <c r="D43" t="n">
-        <v>0.818331</v>
+        <v>0.815573</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.742382</v>
+        <v>0.740632</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7746459999999999</v>
+        <v>0.7746420000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.800478</v>
+        <v>0.798181</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.729147</v>
+        <v>0.726583</v>
       </c>
       <c r="C45" t="n">
-        <v>0.757485</v>
+        <v>0.757989</v>
       </c>
       <c r="D45" t="n">
-        <v>0.783585</v>
+        <v>0.781608</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.71737</v>
+        <v>0.715468</v>
       </c>
       <c r="C46" t="n">
-        <v>0.741866</v>
+        <v>0.739622</v>
       </c>
       <c r="D46" t="n">
-        <v>0.76883</v>
+        <v>0.765428</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7064049999999999</v>
+        <v>0.7048720000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.725594</v>
+        <v>0.72605</v>
       </c>
       <c r="D47" t="n">
-        <v>0.753835</v>
+        <v>0.751727</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6972390000000001</v>
+        <v>0.6941929999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.711969</v>
+        <v>0.71212</v>
       </c>
       <c r="D48" t="n">
-        <v>0.740623</v>
+        <v>0.73871</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.690588</v>
+        <v>0.6890770000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.698994</v>
+        <v>0.6996329999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.72986</v>
+        <v>0.727458</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.686308</v>
+        <v>0.684652</v>
       </c>
       <c r="C50" t="n">
-        <v>0.689017</v>
+        <v>0.694034</v>
       </c>
       <c r="D50" t="n">
-        <v>0.720956</v>
+        <v>0.718565</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.684674</v>
+        <v>0.683265</v>
       </c>
       <c r="C51" t="n">
-        <v>0.679275</v>
+        <v>0.691448</v>
       </c>
       <c r="D51" t="n">
-        <v>0.967755</v>
+        <v>0.967379</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.686747</v>
+        <v>0.685284</v>
       </c>
       <c r="C52" t="n">
-        <v>0.673607</v>
+        <v>0.7000189999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.946164</v>
+        <v>0.944101</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.850087</v>
+        <v>0.848451</v>
       </c>
       <c r="C53" t="n">
-        <v>0.900859</v>
+        <v>0.940509</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9227109999999999</v>
+        <v>0.921023</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.83158</v>
+        <v>0.830526</v>
       </c>
       <c r="C54" t="n">
-        <v>0.878012</v>
+        <v>0.915108</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9010899999999999</v>
+        <v>0.899699</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.813001</v>
+        <v>0.812492</v>
       </c>
       <c r="C55" t="n">
-        <v>0.856702</v>
+        <v>0.895048</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8802219999999999</v>
+        <v>0.878206</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.796382</v>
+        <v>0.7956490000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.835877</v>
+        <v>0.873345</v>
       </c>
       <c r="D56" t="n">
-        <v>0.860806</v>
+        <v>0.859855</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.780411</v>
+        <v>0.780202</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8169920000000001</v>
+        <v>0.850747</v>
       </c>
       <c r="D57" t="n">
-        <v>0.84287</v>
+        <v>0.841407</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.765603</v>
+        <v>0.765374</v>
       </c>
       <c r="C58" t="n">
-        <v>0.798384</v>
+        <v>0.8236599999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.824869</v>
+        <v>0.824132</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.752012</v>
+        <v>0.751499</v>
       </c>
       <c r="C59" t="n">
-        <v>0.781722</v>
+        <v>0.8113939999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8078340000000001</v>
+        <v>0.807458</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.741007</v>
+        <v>0.7396740000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.764898</v>
+        <v>0.795976</v>
       </c>
       <c r="D60" t="n">
-        <v>0.791976</v>
+        <v>0.792075</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.729541</v>
+        <v>0.728558</v>
       </c>
       <c r="C61" t="n">
-        <v>0.74893</v>
+        <v>0.776911</v>
       </c>
       <c r="D61" t="n">
-        <v>0.777861</v>
+        <v>0.778379</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.720153</v>
+        <v>0.718163</v>
       </c>
       <c r="C62" t="n">
-        <v>0.734244</v>
+        <v>0.764564</v>
       </c>
       <c r="D62" t="n">
-        <v>0.76524</v>
+        <v>0.765201</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.711947</v>
+        <v>0.710358</v>
       </c>
       <c r="C63" t="n">
-        <v>0.720288</v>
+        <v>0.750776</v>
       </c>
       <c r="D63" t="n">
-        <v>0.752798</v>
+        <v>0.753463</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.706696</v>
+        <v>0.706607</v>
       </c>
       <c r="C64" t="n">
-        <v>0.709182</v>
+        <v>0.734156</v>
       </c>
       <c r="D64" t="n">
-        <v>0.742962</v>
+        <v>0.743833</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.703834</v>
+        <v>0.704197</v>
       </c>
       <c r="C65" t="n">
-        <v>0.701595</v>
+        <v>0.719203</v>
       </c>
       <c r="D65" t="n">
-        <v>0.736171</v>
+        <v>0.737386</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.705769</v>
+        <v>0.704859</v>
       </c>
       <c r="C66" t="n">
-        <v>0.692895</v>
+        <v>0.7162770000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9737130000000001</v>
+        <v>0.972007</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8746080000000001</v>
+        <v>0.871404</v>
       </c>
       <c r="C67" t="n">
-        <v>0.933028</v>
+        <v>0.951477</v>
       </c>
       <c r="D67" t="n">
-        <v>0.951194</v>
+        <v>0.950135</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.855035</v>
+        <v>0.853321</v>
       </c>
       <c r="C68" t="n">
-        <v>0.908438</v>
+        <v>0.928819</v>
       </c>
       <c r="D68" t="n">
-        <v>0.929352</v>
+        <v>0.929804</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8364</v>
+        <v>0.836063</v>
       </c>
       <c r="C69" t="n">
-        <v>0.885671</v>
+        <v>0.900066</v>
       </c>
       <c r="D69" t="n">
-        <v>0.90992</v>
+        <v>0.908779</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.820008</v>
+        <v>0.818418</v>
       </c>
       <c r="C70" t="n">
-        <v>0.865527</v>
+        <v>0.886875</v>
       </c>
       <c r="D70" t="n">
-        <v>0.890215</v>
+        <v>0.888189</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.80396</v>
+        <v>0.802494</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8458329999999999</v>
+        <v>0.869913</v>
       </c>
       <c r="D71" t="n">
-        <v>0.870023</v>
+        <v>0.869487</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7879620000000001</v>
+        <v>0.787487</v>
       </c>
       <c r="C72" t="n">
-        <v>0.824902</v>
+        <v>0.850314</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8527749999999999</v>
+        <v>0.8519910000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.774186</v>
+        <v>0.773773</v>
       </c>
       <c r="C73" t="n">
-        <v>0.808003</v>
+        <v>0.825174</v>
       </c>
       <c r="D73" t="n">
-        <v>0.835738</v>
+        <v>0.8357869999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.762238</v>
+        <v>0.760714</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7906530000000001</v>
+        <v>0.814076</v>
       </c>
       <c r="D74" t="n">
-        <v>0.820621</v>
+        <v>0.819964</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7501139999999999</v>
+        <v>0.750094</v>
       </c>
       <c r="C75" t="n">
-        <v>0.775129</v>
+        <v>0.798625</v>
       </c>
       <c r="D75" t="n">
-        <v>0.807767</v>
+        <v>0.805173</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7424500000000001</v>
+        <v>0.740142</v>
       </c>
       <c r="C76" t="n">
-        <v>0.763027</v>
+        <v>0.784658</v>
       </c>
       <c r="D76" t="n">
-        <v>0.794513</v>
+        <v>0.792858</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.733634</v>
+        <v>0.731279</v>
       </c>
       <c r="C77" t="n">
-        <v>0.749401</v>
+        <v>0.765572</v>
       </c>
       <c r="D77" t="n">
-        <v>0.782314</v>
+        <v>0.781212</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.728108</v>
+        <v>0.72605</v>
       </c>
       <c r="C78" t="n">
-        <v>0.737044</v>
+        <v>0.753413</v>
       </c>
       <c r="D78" t="n">
-        <v>0.771943</v>
+        <v>0.771156</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.724085</v>
+        <v>0.722928</v>
       </c>
       <c r="C79" t="n">
-        <v>0.726292</v>
+        <v>0.738586</v>
       </c>
       <c r="D79" t="n">
-        <v>0.764286</v>
+        <v>0.764481</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.725201</v>
+        <v>0.723763</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7189179999999999</v>
+        <v>0.728009</v>
       </c>
       <c r="D80" t="n">
-        <v>1.02364</v>
+        <v>1.02487</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.921134</v>
+        <v>0.918422</v>
       </c>
       <c r="C81" t="n">
-        <v>0.978277</v>
+        <v>1.01952</v>
       </c>
       <c r="D81" t="n">
-        <v>1.00354</v>
+        <v>1.00085</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.906359</v>
+        <v>0.903485</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9565090000000001</v>
+        <v>1.00062</v>
       </c>
       <c r="D82" t="n">
-        <v>0.986177</v>
+        <v>0.980969</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.896376</v>
+        <v>0.889213</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9408609999999999</v>
+        <v>0.981334</v>
       </c>
       <c r="D83" t="n">
-        <v>0.966116</v>
+        <v>0.9607250000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.881433</v>
+        <v>0.875294</v>
       </c>
       <c r="C84" t="n">
-        <v>0.920797</v>
+        <v>0.954949</v>
       </c>
       <c r="D84" t="n">
-        <v>0.945841</v>
+        <v>0.940823</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8664190000000001</v>
+        <v>0.859501</v>
       </c>
       <c r="C85" t="n">
-        <v>0.900367</v>
+        <v>0.938627</v>
       </c>
       <c r="D85" t="n">
-        <v>0.926742</v>
+        <v>0.922417</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.85294</v>
+        <v>0.844519</v>
       </c>
       <c r="C86" t="n">
-        <v>0.881734</v>
+        <v>0.913338</v>
       </c>
       <c r="D86" t="n">
-        <v>0.909071</v>
+        <v>0.905153</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.837376</v>
+        <v>0.8318</v>
       </c>
       <c r="C87" t="n">
-        <v>0.862554</v>
+        <v>0.899907</v>
       </c>
       <c r="D87" t="n">
-        <v>0.890631</v>
+        <v>0.887384</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8252389999999999</v>
+        <v>0.818574</v>
       </c>
       <c r="C88" t="n">
-        <v>0.846635</v>
+        <v>0.877085</v>
       </c>
       <c r="D88" t="n">
-        <v>0.875147</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.81297</v>
+        <v>0.805467</v>
       </c>
       <c r="C89" t="n">
-        <v>0.829371</v>
+        <v>0.861436</v>
       </c>
       <c r="D89" t="n">
-        <v>0.858986</v>
+        <v>0.855298</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.801658</v>
+        <v>0.794365</v>
       </c>
       <c r="C90" t="n">
-        <v>0.814412</v>
+        <v>0.84238</v>
       </c>
       <c r="D90" t="n">
-        <v>0.844392</v>
+        <v>0.841827</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7908809999999999</v>
+        <v>0.784601</v>
       </c>
       <c r="C91" t="n">
-        <v>0.80042</v>
+        <v>0.8294240000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.832381</v>
+        <v>0.8277640000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.783068</v>
+        <v>0.777034</v>
       </c>
       <c r="C92" t="n">
-        <v>0.787425</v>
+        <v>0.819778</v>
       </c>
       <c r="D92" t="n">
-        <v>0.821705</v>
+        <v>0.818194</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.778634</v>
+        <v>0.772425</v>
       </c>
       <c r="C93" t="n">
-        <v>0.77784</v>
+        <v>0.810239</v>
       </c>
       <c r="D93" t="n">
-        <v>0.813902</v>
+        <v>0.809393</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.777278</v>
+        <v>0.771221</v>
       </c>
       <c r="C94" t="n">
-        <v>0.76874</v>
+        <v>0.799285</v>
       </c>
       <c r="D94" t="n">
-        <v>1.09312</v>
+        <v>1.08464</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.983481</v>
+        <v>0.969905</v>
       </c>
       <c r="C95" t="n">
-        <v>1.03396</v>
+        <v>1.08595</v>
       </c>
       <c r="D95" t="n">
-        <v>1.09369</v>
+        <v>1.08368</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.992013</v>
+        <v>0.977576</v>
       </c>
       <c r="C96" t="n">
-        <v>1.04269</v>
+        <v>1.08454</v>
       </c>
       <c r="D96" t="n">
-        <v>1.0857</v>
+        <v>1.07391</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.993017</v>
+        <v>0.974708</v>
       </c>
       <c r="C97" t="n">
-        <v>1.03753</v>
+        <v>1.07308</v>
       </c>
       <c r="D97" t="n">
-        <v>1.07733</v>
+        <v>1.06277</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.987542</v>
+        <v>0.969014</v>
       </c>
       <c r="C98" t="n">
-        <v>1.02878</v>
+        <v>1.05946</v>
       </c>
       <c r="D98" t="n">
-        <v>1.06317</v>
+        <v>1.04851</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.981591</v>
+        <v>0.960985</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01947</v>
+        <v>1.04837</v>
       </c>
       <c r="D99" t="n">
-        <v>1.05073</v>
+        <v>1.03476</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.972905</v>
+        <v>0.951747</v>
       </c>
       <c r="C100" t="n">
-        <v>1.00717</v>
+        <v>1.0289</v>
       </c>
       <c r="D100" t="n">
-        <v>1.03738</v>
+        <v>1.02086</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9632039999999999</v>
+        <v>0.94265</v>
       </c>
       <c r="C101" t="n">
-        <v>0.994682</v>
+        <v>1.01999</v>
       </c>
       <c r="D101" t="n">
-        <v>1.02348</v>
+        <v>1.00657</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.954061</v>
+        <v>0.932476</v>
       </c>
       <c r="C102" t="n">
-        <v>0.983468</v>
+        <v>1.00945</v>
       </c>
       <c r="D102" t="n">
-        <v>1.01096</v>
+        <v>0.992681</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.945936</v>
+        <v>0.924288</v>
       </c>
       <c r="C103" t="n">
-        <v>0.972677</v>
+        <v>0.9954769999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.998198</v>
+        <v>0.980474</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.936769</v>
+        <v>0.916052</v>
       </c>
       <c r="C104" t="n">
-        <v>0.960817</v>
+        <v>0.982111</v>
       </c>
       <c r="D104" t="n">
-        <v>0.985352</v>
+        <v>0.968604</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.931181</v>
+        <v>0.909362</v>
       </c>
       <c r="C105" t="n">
-        <v>0.951115</v>
+        <v>0.971821</v>
       </c>
       <c r="D105" t="n">
-        <v>0.974424</v>
+        <v>0.9567099999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.925812</v>
+        <v>0.904111</v>
       </c>
       <c r="C106" t="n">
-        <v>0.941883</v>
+        <v>0.960082</v>
       </c>
       <c r="D106" t="n">
-        <v>0.965834</v>
+        <v>0.946088</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.921299</v>
+        <v>0.9006459999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9335290000000001</v>
+        <v>0.946442</v>
       </c>
       <c r="D107" t="n">
-        <v>0.955762</v>
+        <v>0.940287</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.921699</v>
+        <v>0.9013600000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.927305</v>
+        <v>0.944486</v>
       </c>
       <c r="D108" t="n">
-        <v>1.23642</v>
+        <v>1.21822</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.924282</v>
+        <v>0.906184</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9218769999999999</v>
+        <v>0.93357</v>
       </c>
       <c r="D109" t="n">
-        <v>1.25239</v>
+        <v>1.23045</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.13828</v>
+        <v>1.11167</v>
       </c>
       <c r="C110" t="n">
-        <v>1.21458</v>
+        <v>1.2183</v>
       </c>
       <c r="D110" t="n">
-        <v>1.26039</v>
+        <v>1.22987</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.14515</v>
+        <v>1.11676</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22129</v>
+        <v>1.22004</v>
       </c>
       <c r="D111" t="n">
-        <v>1.26154</v>
+        <v>1.22986</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.15058</v>
+        <v>1.1208</v>
       </c>
       <c r="C112" t="n">
-        <v>1.22384</v>
+        <v>1.22153</v>
       </c>
       <c r="D112" t="n">
-        <v>1.26343</v>
+        <v>1.22939</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15313</v>
+        <v>1.12215</v>
       </c>
       <c r="C113" t="n">
-        <v>1.22587</v>
+        <v>1.22225</v>
       </c>
       <c r="D113" t="n">
-        <v>1.26589</v>
+        <v>1.22915</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.15983</v>
+        <v>1.1247</v>
       </c>
       <c r="C114" t="n">
-        <v>1.23125</v>
+        <v>1.22329</v>
       </c>
       <c r="D114" t="n">
-        <v>1.26896</v>
+        <v>1.22818</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.16185</v>
+        <v>1.12549</v>
       </c>
       <c r="C115" t="n">
-        <v>1.23423</v>
+        <v>1.21809</v>
       </c>
       <c r="D115" t="n">
-        <v>1.26991</v>
+        <v>1.22728</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.16603</v>
+        <v>1.12984</v>
       </c>
       <c r="C116" t="n">
-        <v>1.23624</v>
+        <v>1.21909</v>
       </c>
       <c r="D116" t="n">
-        <v>1.27129</v>
+        <v>1.2261</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.17383</v>
+        <v>1.13149</v>
       </c>
       <c r="C117" t="n">
-        <v>1.24293</v>
+        <v>1.22145</v>
       </c>
       <c r="D117" t="n">
-        <v>1.27352</v>
+        <v>1.22714</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.17846</v>
+        <v>1.13394</v>
       </c>
       <c r="C118" t="n">
-        <v>1.24834</v>
+        <v>1.22421</v>
       </c>
       <c r="D118" t="n">
-        <v>1.27314</v>
+        <v>1.22578</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.18287</v>
+        <v>1.13852</v>
       </c>
       <c r="C119" t="n">
-        <v>1.25024</v>
+        <v>1.22013</v>
       </c>
       <c r="D119" t="n">
-        <v>1.27653</v>
+        <v>1.22407</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.19044</v>
+        <v>1.14328</v>
       </c>
       <c r="C120" t="n">
-        <v>1.25201</v>
+        <v>1.22239</v>
       </c>
       <c r="D120" t="n">
-        <v>1.2758</v>
+        <v>1.22428</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.19841</v>
+        <v>1.15089</v>
       </c>
       <c r="C121" t="n">
-        <v>1.25497</v>
+        <v>1.21593</v>
       </c>
       <c r="D121" t="n">
-        <v>1.27792</v>
+        <v>1.22348</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.20859</v>
+        <v>1.15755</v>
       </c>
       <c r="C122" t="n">
-        <v>1.26083</v>
+        <v>1.22427</v>
       </c>
       <c r="D122" t="n">
-        <v>1.28175</v>
+        <v>1.22563</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.21825</v>
+        <v>1.16881</v>
       </c>
       <c r="C123" t="n">
-        <v>1.26735</v>
+        <v>1.22246</v>
       </c>
       <c r="D123" t="n">
-        <v>1.58087</v>
+        <v>1.51846</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.43275</v>
+        <v>1.3722</v>
       </c>
       <c r="C124" t="n">
-        <v>1.55411</v>
+        <v>1.53256</v>
       </c>
       <c r="D124" t="n">
-        <v>1.59392</v>
+        <v>1.52571</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.43565</v>
+        <v>1.37463</v>
       </c>
       <c r="C125" t="n">
-        <v>1.56461</v>
+        <v>1.53162</v>
       </c>
       <c r="D125" t="n">
-        <v>1.60366</v>
+        <v>1.53208</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.44087</v>
+        <v>1.37739</v>
       </c>
       <c r="C126" t="n">
-        <v>1.57815</v>
+        <v>1.53145</v>
       </c>
       <c r="D126" t="n">
-        <v>1.61565</v>
+        <v>1.53721</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.44373</v>
+        <v>1.37827</v>
       </c>
       <c r="C127" t="n">
-        <v>1.5872</v>
+        <v>1.52213</v>
       </c>
       <c r="D127" t="n">
-        <v>1.6238</v>
+        <v>1.5428</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.44929</v>
+        <v>1.38109</v>
       </c>
       <c r="C128" t="n">
-        <v>1.59643</v>
+        <v>1.54624</v>
       </c>
       <c r="D128" t="n">
-        <v>1.63299</v>
+        <v>1.54835</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.45508</v>
+        <v>1.38263</v>
       </c>
       <c r="C129" t="n">
-        <v>1.60722</v>
+        <v>1.54719</v>
       </c>
       <c r="D129" t="n">
-        <v>1.64253</v>
+        <v>1.55319</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.46124</v>
+        <v>1.38457</v>
       </c>
       <c r="C130" t="n">
-        <v>1.61593</v>
+        <v>1.55039</v>
       </c>
       <c r="D130" t="n">
-        <v>1.65013</v>
+        <v>1.55785</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.46426</v>
+        <v>1.38643</v>
       </c>
       <c r="C131" t="n">
-        <v>1.62573</v>
+        <v>1.55838</v>
       </c>
       <c r="D131" t="n">
-        <v>1.65859</v>
+        <v>1.56228</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.4716</v>
+        <v>1.38892</v>
       </c>
       <c r="C132" t="n">
-        <v>1.6346</v>
+        <v>1.55683</v>
       </c>
       <c r="D132" t="n">
-        <v>1.66572</v>
+        <v>1.56593</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.47574</v>
+        <v>1.39325</v>
       </c>
       <c r="C133" t="n">
-        <v>1.64202</v>
+        <v>1.57009</v>
       </c>
       <c r="D133" t="n">
-        <v>1.67379</v>
+        <v>1.5709</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.48548</v>
+        <v>1.39757</v>
       </c>
       <c r="C134" t="n">
-        <v>1.65093</v>
+        <v>1.57559</v>
       </c>
       <c r="D134" t="n">
-        <v>1.68147</v>
+        <v>1.57726</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.49365</v>
+        <v>1.40365</v>
       </c>
       <c r="C135" t="n">
-        <v>1.65981</v>
+        <v>1.5772</v>
       </c>
       <c r="D135" t="n">
-        <v>1.69051</v>
+        <v>1.58482</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.50472</v>
+        <v>1.41326</v>
       </c>
       <c r="C136" t="n">
-        <v>1.67248</v>
+        <v>1.59076</v>
       </c>
       <c r="D136" t="n">
-        <v>1.69877</v>
+        <v>1.59305</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.51623</v>
+        <v>1.42694</v>
       </c>
       <c r="C137" t="n">
-        <v>1.68142</v>
+        <v>1.5862</v>
       </c>
       <c r="D137" t="n">
-        <v>1.99584</v>
+        <v>1.88324</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.73634</v>
+        <v>1.63543</v>
       </c>
       <c r="C138" t="n">
-        <v>1.96868</v>
+        <v>1.87063</v>
       </c>
       <c r="D138" t="n">
-        <v>2.01271</v>
+        <v>1.89307</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.73376</v>
+        <v>1.63334</v>
       </c>
       <c r="C139" t="n">
-        <v>1.9844</v>
+        <v>1.88791</v>
       </c>
       <c r="D139" t="n">
-        <v>2.02702</v>
+        <v>1.90238</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.73156</v>
+        <v>1.62852</v>
       </c>
       <c r="C140" t="n">
-        <v>1.99715</v>
+        <v>1.88987</v>
       </c>
       <c r="D140" t="n">
-        <v>2.03871</v>
+        <v>1.91092</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.73097</v>
+        <v>1.627</v>
       </c>
       <c r="C141" t="n">
-        <v>2.01053</v>
+        <v>1.90579</v>
       </c>
       <c r="D141" t="n">
-        <v>2.05125</v>
+        <v>1.9219</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.73074</v>
+        <v>1.62428</v>
       </c>
       <c r="C142" t="n">
-        <v>2.02281</v>
+        <v>1.91149</v>
       </c>
       <c r="D142" t="n">
-        <v>2.06444</v>
+        <v>1.93181</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.7302</v>
+        <v>1.62345</v>
       </c>
       <c r="C143" t="n">
-        <v>2.03567</v>
+        <v>1.91681</v>
       </c>
       <c r="D143" t="n">
-        <v>2.07571</v>
+        <v>1.9384</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.669403</v>
+        <v>0.669971</v>
       </c>
       <c r="C2" t="n">
-        <v>0.693199</v>
+        <v>0.705198</v>
       </c>
       <c r="D2" t="n">
-        <v>0.712499</v>
+        <v>0.720421</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.659156</v>
+        <v>0.6591</v>
       </c>
       <c r="C3" t="n">
-        <v>0.678145</v>
+        <v>0.6896870000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.698498</v>
+        <v>0.705756</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.650579</v>
+        <v>0.6505919999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.665011</v>
+        <v>0.676376</v>
       </c>
       <c r="D4" t="n">
-        <v>0.685823</v>
+        <v>0.692699</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.642448</v>
+        <v>0.64251</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6523910000000001</v>
+        <v>0.663934</v>
       </c>
       <c r="D5" t="n">
-        <v>0.674694</v>
+        <v>0.681281</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.635659</v>
+        <v>0.636015</v>
       </c>
       <c r="C6" t="n">
-        <v>0.640637</v>
+        <v>0.652441</v>
       </c>
       <c r="D6" t="n">
-        <v>0.664046</v>
+        <v>0.670452</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.631517</v>
+        <v>0.631728</v>
       </c>
       <c r="C7" t="n">
-        <v>0.630793</v>
+        <v>0.642268</v>
       </c>
       <c r="D7" t="n">
-        <v>0.656089</v>
+        <v>0.662173</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.630893</v>
+        <v>0.631374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.623351</v>
+        <v>0.634898</v>
       </c>
       <c r="D8" t="n">
-        <v>0.65177</v>
+        <v>0.657047</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.634699</v>
+        <v>0.635249</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6193149999999999</v>
+        <v>0.63224</v>
       </c>
       <c r="D9" t="n">
-        <v>0.858156</v>
+        <v>0.866652</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.763383</v>
+        <v>0.763023</v>
       </c>
       <c r="C10" t="n">
-        <v>0.819353</v>
+        <v>0.834334</v>
       </c>
       <c r="D10" t="n">
-        <v>0.836745</v>
+        <v>0.867357</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.746725</v>
+        <v>0.746781</v>
       </c>
       <c r="C11" t="n">
-        <v>0.798153</v>
+        <v>0.8118379999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.816308</v>
+        <v>0.824039</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.73175</v>
+        <v>0.731074</v>
       </c>
       <c r="C12" t="n">
-        <v>0.778683</v>
+        <v>0.791725</v>
       </c>
       <c r="D12" t="n">
-        <v>0.797297</v>
+        <v>0.804477</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.716947</v>
+        <v>0.7166169999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.759086</v>
+        <v>0.772091</v>
       </c>
       <c r="D13" t="n">
-        <v>0.779078</v>
+        <v>0.7857499999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.703256</v>
+        <v>0.703188</v>
       </c>
       <c r="C14" t="n">
-        <v>0.741383</v>
+        <v>0.753517</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7614300000000001</v>
+        <v>0.7684609999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.691156</v>
+        <v>0.690836</v>
       </c>
       <c r="C15" t="n">
-        <v>0.724224</v>
+        <v>0.736143</v>
       </c>
       <c r="D15" t="n">
-        <v>0.745344</v>
+        <v>0.751632</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.679368</v>
+        <v>0.679349</v>
       </c>
       <c r="C16" t="n">
-        <v>0.708506</v>
+        <v>0.719741</v>
       </c>
       <c r="D16" t="n">
-        <v>0.73008</v>
+        <v>0.759002</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.669002</v>
+        <v>0.668898</v>
       </c>
       <c r="C17" t="n">
-        <v>0.693478</v>
+        <v>0.704421</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7156439999999999</v>
+        <v>0.724859</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.65974</v>
+        <v>0.659403</v>
       </c>
       <c r="C18" t="n">
-        <v>0.678971</v>
+        <v>0.6898030000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7022699999999999</v>
+        <v>0.728498</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.651896</v>
+        <v>0.651863</v>
       </c>
       <c r="C19" t="n">
-        <v>0.666587</v>
+        <v>0.67735</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6907</v>
+        <v>0.710403</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.645717</v>
+        <v>0.645409</v>
       </c>
       <c r="C20" t="n">
-        <v>0.654384</v>
+        <v>0.665062</v>
       </c>
       <c r="D20" t="n">
-        <v>0.679441</v>
+        <v>0.698106</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.641494</v>
+        <v>0.641169</v>
       </c>
       <c r="C21" t="n">
-        <v>0.644163</v>
+        <v>0.654643</v>
       </c>
       <c r="D21" t="n">
-        <v>0.670507</v>
+        <v>0.693007</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6393219999999999</v>
+        <v>0.639004</v>
       </c>
       <c r="C22" t="n">
-        <v>0.635991</v>
+        <v>0.646378</v>
       </c>
       <c r="D22" t="n">
-        <v>0.664789</v>
+        <v>0.677868</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.64067</v>
+        <v>0.640524</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6304419999999999</v>
+        <v>0.641436</v>
       </c>
       <c r="D23" t="n">
-        <v>0.920356</v>
+        <v>0.929466</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.80833</v>
+        <v>0.808658</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9136</v>
+        <v>0.877053</v>
       </c>
       <c r="D24" t="n">
-        <v>0.897099</v>
+        <v>0.905508</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.789843</v>
+        <v>0.7906260000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.888795</v>
+        <v>0.854257</v>
       </c>
       <c r="D25" t="n">
-        <v>0.874707</v>
+        <v>0.8828</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.772715</v>
+        <v>0.773582</v>
       </c>
       <c r="C26" t="n">
-        <v>0.860459</v>
+        <v>0.832678</v>
       </c>
       <c r="D26" t="n">
-        <v>0.853125</v>
+        <v>0.860819</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.756364</v>
+        <v>0.75695</v>
       </c>
       <c r="C27" t="n">
-        <v>0.838284</v>
+        <v>0.81177</v>
       </c>
       <c r="D27" t="n">
-        <v>0.832346</v>
+        <v>0.839651</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.741186</v>
+        <v>0.742132</v>
       </c>
       <c r="C28" t="n">
-        <v>0.82195</v>
+        <v>0.792218</v>
       </c>
       <c r="D28" t="n">
-        <v>0.812953</v>
+        <v>0.820094</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.72675</v>
+        <v>0.727346</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7906879999999999</v>
+        <v>0.773221</v>
       </c>
       <c r="D29" t="n">
-        <v>0.794424</v>
+        <v>0.8015</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.712842</v>
+        <v>0.713842</v>
       </c>
       <c r="C30" t="n">
-        <v>0.782627</v>
+        <v>0.7557120000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.777459</v>
+        <v>0.784125</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.700695</v>
+        <v>0.701623</v>
       </c>
       <c r="C31" t="n">
-        <v>0.760598</v>
+        <v>0.738741</v>
       </c>
       <c r="D31" t="n">
-        <v>0.760588</v>
+        <v>0.767435</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.690261</v>
+        <v>0.69071</v>
       </c>
       <c r="C32" t="n">
-        <v>0.740171</v>
+        <v>0.723459</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7460290000000001</v>
+        <v>0.752026</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6799500000000001</v>
+        <v>0.681091</v>
       </c>
       <c r="C33" t="n">
-        <v>0.728617</v>
+        <v>0.709116</v>
       </c>
       <c r="D33" t="n">
-        <v>0.732451</v>
+        <v>0.738282</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.672623</v>
+        <v>0.672992</v>
       </c>
       <c r="C34" t="n">
-        <v>0.716971</v>
+        <v>0.696004</v>
       </c>
       <c r="D34" t="n">
-        <v>0.720028</v>
+        <v>0.7256280000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.667284</v>
+        <v>0.66709</v>
       </c>
       <c r="C35" t="n">
-        <v>0.700964</v>
+        <v>0.684902</v>
       </c>
       <c r="D35" t="n">
-        <v>0.709642</v>
+        <v>0.714977</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.663571</v>
+        <v>0.663902</v>
       </c>
       <c r="C36" t="n">
-        <v>0.672852</v>
+        <v>0.674813</v>
       </c>
       <c r="D36" t="n">
-        <v>0.701152</v>
+        <v>0.706143</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.663707</v>
+        <v>0.66418</v>
       </c>
       <c r="C37" t="n">
-        <v>0.684816</v>
+        <v>0.668577</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9424940000000001</v>
+        <v>0.951587</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.841353</v>
+        <v>0.840404</v>
       </c>
       <c r="C38" t="n">
-        <v>0.896972</v>
+        <v>0.910138</v>
       </c>
       <c r="D38" t="n">
-        <v>0.919246</v>
+        <v>0.928085</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.822921</v>
+        <v>0.821999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.894802</v>
+        <v>0.888073</v>
       </c>
       <c r="D39" t="n">
-        <v>0.896295</v>
+        <v>0.904682</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.804402</v>
+        <v>0.803559</v>
       </c>
       <c r="C40" t="n">
-        <v>0.853751</v>
+        <v>0.865787</v>
       </c>
       <c r="D40" t="n">
-        <v>0.874046</v>
+        <v>0.882742</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.78674</v>
+        <v>0.786102</v>
       </c>
       <c r="C41" t="n">
-        <v>0.831719</v>
+        <v>0.843649</v>
       </c>
       <c r="D41" t="n">
-        <v>0.853869</v>
+        <v>0.861623</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7699</v>
+        <v>0.769918</v>
       </c>
       <c r="C42" t="n">
-        <v>0.811165</v>
+        <v>0.8235209999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.834326</v>
+        <v>0.841284</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7544729999999999</v>
+        <v>0.754501</v>
       </c>
       <c r="C43" t="n">
-        <v>0.79494</v>
+        <v>0.804175</v>
       </c>
       <c r="D43" t="n">
-        <v>0.815573</v>
+        <v>0.8224320000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.740632</v>
+        <v>0.740066</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7746420000000001</v>
+        <v>0.7860780000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.798181</v>
+        <v>0.804706</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.726583</v>
+        <v>0.7270219999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.757989</v>
+        <v>0.7696</v>
       </c>
       <c r="D45" t="n">
-        <v>0.781608</v>
+        <v>0.788205</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.715468</v>
+        <v>0.715364</v>
       </c>
       <c r="C46" t="n">
-        <v>0.739622</v>
+        <v>0.752702</v>
       </c>
       <c r="D46" t="n">
-        <v>0.765428</v>
+        <v>0.772497</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7048720000000001</v>
+        <v>0.704577</v>
       </c>
       <c r="C47" t="n">
-        <v>0.72605</v>
+        <v>0.737102</v>
       </c>
       <c r="D47" t="n">
-        <v>0.751727</v>
+        <v>0.7580710000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6941929999999999</v>
+        <v>0.695698</v>
       </c>
       <c r="C48" t="n">
-        <v>0.71212</v>
+        <v>0.724424</v>
       </c>
       <c r="D48" t="n">
-        <v>0.73871</v>
+        <v>0.7451719999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6890770000000001</v>
+        <v>0.688785</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6996329999999999</v>
+        <v>0.711437</v>
       </c>
       <c r="D49" t="n">
-        <v>0.727458</v>
+        <v>0.7328710000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.684652</v>
+        <v>0.684584</v>
       </c>
       <c r="C50" t="n">
-        <v>0.694034</v>
+        <v>0.699936</v>
       </c>
       <c r="D50" t="n">
-        <v>0.718565</v>
+        <v>0.724454</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.683265</v>
+        <v>0.683456</v>
       </c>
       <c r="C51" t="n">
-        <v>0.691448</v>
+        <v>0.691804</v>
       </c>
       <c r="D51" t="n">
-        <v>0.967379</v>
+        <v>0.976787</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.685284</v>
+        <v>0.685402</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7000189999999999</v>
+        <v>0.686985</v>
       </c>
       <c r="D52" t="n">
-        <v>0.944101</v>
+        <v>0.952924</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.848451</v>
+        <v>0.848572</v>
       </c>
       <c r="C53" t="n">
-        <v>0.940509</v>
+        <v>0.915283</v>
       </c>
       <c r="D53" t="n">
-        <v>0.921023</v>
+        <v>0.9300079999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.830526</v>
+        <v>0.829954</v>
       </c>
       <c r="C54" t="n">
-        <v>0.915108</v>
+        <v>0.893868</v>
       </c>
       <c r="D54" t="n">
-        <v>0.899699</v>
+        <v>0.908694</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.812492</v>
+        <v>0.811985</v>
       </c>
       <c r="C55" t="n">
-        <v>0.895048</v>
+        <v>0.872373</v>
       </c>
       <c r="D55" t="n">
-        <v>0.878206</v>
+        <v>0.887101</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7956490000000001</v>
+        <v>0.794922</v>
       </c>
       <c r="C56" t="n">
-        <v>0.873345</v>
+        <v>0.851538</v>
       </c>
       <c r="D56" t="n">
-        <v>0.859855</v>
+        <v>0.867543</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.780202</v>
+        <v>0.7795879999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.850747</v>
+        <v>0.831583</v>
       </c>
       <c r="D57" t="n">
-        <v>0.841407</v>
+        <v>0.84803</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.765374</v>
+        <v>0.764811</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8236599999999999</v>
+        <v>0.81248</v>
       </c>
       <c r="D58" t="n">
-        <v>0.824132</v>
+        <v>0.830279</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.751499</v>
+        <v>0.751331</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8113939999999999</v>
+        <v>0.796009</v>
       </c>
       <c r="D59" t="n">
-        <v>0.807458</v>
+        <v>0.811636</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7396740000000001</v>
+        <v>0.737866</v>
       </c>
       <c r="C60" t="n">
-        <v>0.795976</v>
+        <v>0.778667</v>
       </c>
       <c r="D60" t="n">
-        <v>0.792075</v>
+        <v>0.795593</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.728558</v>
+        <v>0.727209</v>
       </c>
       <c r="C61" t="n">
-        <v>0.776911</v>
+        <v>0.764562</v>
       </c>
       <c r="D61" t="n">
-        <v>0.778379</v>
+        <v>0.783058</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.718163</v>
+        <v>0.719309</v>
       </c>
       <c r="C62" t="n">
-        <v>0.764564</v>
+        <v>0.750231</v>
       </c>
       <c r="D62" t="n">
-        <v>0.765201</v>
+        <v>0.770112</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.710358</v>
+        <v>0.711852</v>
       </c>
       <c r="C63" t="n">
-        <v>0.750776</v>
+        <v>0.737581</v>
       </c>
       <c r="D63" t="n">
-        <v>0.753463</v>
+        <v>0.758615</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.706607</v>
+        <v>0.706593</v>
       </c>
       <c r="C64" t="n">
-        <v>0.734156</v>
+        <v>0.726309</v>
       </c>
       <c r="D64" t="n">
-        <v>0.743833</v>
+        <v>0.748914</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.704197</v>
+        <v>0.703851</v>
       </c>
       <c r="C65" t="n">
-        <v>0.719203</v>
+        <v>0.717429</v>
       </c>
       <c r="D65" t="n">
-        <v>0.737386</v>
+        <v>0.742207</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.704859</v>
+        <v>0.705024</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7162770000000001</v>
+        <v>0.714172</v>
       </c>
       <c r="D66" t="n">
-        <v>0.972007</v>
+        <v>0.980171</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.871404</v>
+        <v>0.872933</v>
       </c>
       <c r="C67" t="n">
-        <v>0.951477</v>
+        <v>0.948808</v>
       </c>
       <c r="D67" t="n">
-        <v>0.950135</v>
+        <v>0.957765</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.853321</v>
+        <v>0.854053</v>
       </c>
       <c r="C68" t="n">
-        <v>0.928819</v>
+        <v>0.929447</v>
       </c>
       <c r="D68" t="n">
-        <v>0.929804</v>
+        <v>0.935585</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.836063</v>
+        <v>0.8353080000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.900066</v>
+        <v>0.906231</v>
       </c>
       <c r="D69" t="n">
-        <v>0.908779</v>
+        <v>0.914358</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.818418</v>
+        <v>0.818248</v>
       </c>
       <c r="C70" t="n">
-        <v>0.886875</v>
+        <v>0.884247</v>
       </c>
       <c r="D70" t="n">
-        <v>0.888189</v>
+        <v>0.89611</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.802494</v>
+        <v>0.80261</v>
       </c>
       <c r="C71" t="n">
-        <v>0.869913</v>
+        <v>0.864852</v>
       </c>
       <c r="D71" t="n">
-        <v>0.869487</v>
+        <v>0.875907</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.787487</v>
+        <v>0.788652</v>
       </c>
       <c r="C72" t="n">
-        <v>0.850314</v>
+        <v>0.846957</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8519910000000001</v>
+        <v>0.859646</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.773773</v>
+        <v>0.775713</v>
       </c>
       <c r="C73" t="n">
-        <v>0.825174</v>
+        <v>0.829456</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8357869999999999</v>
+        <v>0.843494</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.760714</v>
+        <v>0.762141</v>
       </c>
       <c r="C74" t="n">
-        <v>0.814076</v>
+        <v>0.812512</v>
       </c>
       <c r="D74" t="n">
-        <v>0.819964</v>
+        <v>0.826204</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.750094</v>
+        <v>0.750789</v>
       </c>
       <c r="C75" t="n">
-        <v>0.798625</v>
+        <v>0.797897</v>
       </c>
       <c r="D75" t="n">
-        <v>0.805173</v>
+        <v>0.811727</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.740142</v>
+        <v>0.7409520000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.784658</v>
+        <v>0.784208</v>
       </c>
       <c r="D76" t="n">
-        <v>0.792858</v>
+        <v>0.798965</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.731279</v>
+        <v>0.732415</v>
       </c>
       <c r="C77" t="n">
-        <v>0.765572</v>
+        <v>0.770062</v>
       </c>
       <c r="D77" t="n">
-        <v>0.781212</v>
+        <v>0.787456</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.72605</v>
+        <v>0.728838</v>
       </c>
       <c r="C78" t="n">
-        <v>0.753413</v>
+        <v>0.758148</v>
       </c>
       <c r="D78" t="n">
-        <v>0.771156</v>
+        <v>0.776554</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.722928</v>
+        <v>0.724073</v>
       </c>
       <c r="C79" t="n">
-        <v>0.738586</v>
+        <v>0.747288</v>
       </c>
       <c r="D79" t="n">
-        <v>0.764481</v>
+        <v>0.767948</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.723763</v>
+        <v>0.724515</v>
       </c>
       <c r="C80" t="n">
-        <v>0.728009</v>
+        <v>0.74112</v>
       </c>
       <c r="D80" t="n">
-        <v>1.02487</v>
+        <v>1.03599</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.918422</v>
+        <v>0.924548</v>
       </c>
       <c r="C81" t="n">
-        <v>1.01952</v>
+        <v>1.00244</v>
       </c>
       <c r="D81" t="n">
-        <v>1.00085</v>
+        <v>1.01321</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.903485</v>
+        <v>0.909691</v>
       </c>
       <c r="C82" t="n">
-        <v>1.00062</v>
+        <v>0.981994</v>
       </c>
       <c r="D82" t="n">
-        <v>0.980969</v>
+        <v>0.990293</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.889213</v>
+        <v>0.89433</v>
       </c>
       <c r="C83" t="n">
-        <v>0.981334</v>
+        <v>0.960972</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9607250000000001</v>
+        <v>0.968546</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.875294</v>
+        <v>0.876875</v>
       </c>
       <c r="C84" t="n">
-        <v>0.954949</v>
+        <v>0.9393629999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.940823</v>
+        <v>0.947843</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.859501</v>
+        <v>0.86145</v>
       </c>
       <c r="C85" t="n">
-        <v>0.938627</v>
+        <v>0.9195990000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.922417</v>
+        <v>0.928229</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.844519</v>
+        <v>0.846352</v>
       </c>
       <c r="C86" t="n">
-        <v>0.913338</v>
+        <v>0.900058</v>
       </c>
       <c r="D86" t="n">
-        <v>0.905153</v>
+        <v>0.9095760000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8318</v>
+        <v>0.833101</v>
       </c>
       <c r="C87" t="n">
-        <v>0.899907</v>
+        <v>0.882392</v>
       </c>
       <c r="D87" t="n">
-        <v>0.887384</v>
+        <v>0.891886</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.818574</v>
+        <v>0.818846</v>
       </c>
       <c r="C88" t="n">
-        <v>0.877085</v>
+        <v>0.865827</v>
       </c>
       <c r="D88" t="n">
-        <v>0.871</v>
+        <v>0.875422</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.805467</v>
+        <v>0.804889</v>
       </c>
       <c r="C89" t="n">
-        <v>0.861436</v>
+        <v>0.848616</v>
       </c>
       <c r="D89" t="n">
-        <v>0.855298</v>
+        <v>0.859357</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.794365</v>
+        <v>0.794636</v>
       </c>
       <c r="C90" t="n">
-        <v>0.84238</v>
+        <v>0.834743</v>
       </c>
       <c r="D90" t="n">
-        <v>0.841827</v>
+        <v>0.845814</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.784601</v>
+        <v>0.784864</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8294240000000001</v>
+        <v>0.8189610000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8277640000000001</v>
+        <v>0.831575</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.777034</v>
+        <v>0.776822</v>
       </c>
       <c r="C92" t="n">
-        <v>0.819778</v>
+        <v>0.806419</v>
       </c>
       <c r="D92" t="n">
-        <v>0.818194</v>
+        <v>0.81942</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.772425</v>
+        <v>0.770586</v>
       </c>
       <c r="C93" t="n">
-        <v>0.810239</v>
+        <v>0.794827</v>
       </c>
       <c r="D93" t="n">
-        <v>0.809393</v>
+        <v>0.8104789999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.771221</v>
+        <v>0.770006</v>
       </c>
       <c r="C94" t="n">
-        <v>0.799285</v>
+        <v>0.787889</v>
       </c>
       <c r="D94" t="n">
-        <v>1.08464</v>
+        <v>1.09154</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.969905</v>
+        <v>0.971177</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08595</v>
+        <v>1.05303</v>
       </c>
       <c r="D95" t="n">
-        <v>1.08368</v>
+        <v>1.08968</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.977576</v>
+        <v>0.977266</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08454</v>
+        <v>1.05624</v>
       </c>
       <c r="D96" t="n">
-        <v>1.07391</v>
+        <v>1.0796</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.974708</v>
+        <v>0.974361</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07308</v>
+        <v>1.05059</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06277</v>
+        <v>1.06741</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.969014</v>
+        <v>0.969067</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05946</v>
+        <v>1.03991</v>
       </c>
       <c r="D98" t="n">
-        <v>1.04851</v>
+        <v>1.05383</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.960985</v>
+        <v>0.961238</v>
       </c>
       <c r="C99" t="n">
-        <v>1.04837</v>
+        <v>1.02831</v>
       </c>
       <c r="D99" t="n">
-        <v>1.03476</v>
+        <v>1.03953</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.951747</v>
+        <v>0.951966</v>
       </c>
       <c r="C100" t="n">
-        <v>1.0289</v>
+        <v>1.01545</v>
       </c>
       <c r="D100" t="n">
-        <v>1.02086</v>
+        <v>1.02412</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.94265</v>
+        <v>0.942047</v>
       </c>
       <c r="C101" t="n">
-        <v>1.01999</v>
+        <v>1.00184</v>
       </c>
       <c r="D101" t="n">
-        <v>1.00657</v>
+        <v>1.01102</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.932476</v>
+        <v>0.932855</v>
       </c>
       <c r="C102" t="n">
-        <v>1.00945</v>
+        <v>0.991452</v>
       </c>
       <c r="D102" t="n">
-        <v>0.992681</v>
+        <v>0.997116</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.924288</v>
+        <v>0.924667</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9954769999999999</v>
+        <v>0.979457</v>
       </c>
       <c r="D103" t="n">
-        <v>0.980474</v>
+        <v>0.984349</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.916052</v>
+        <v>0.917447</v>
       </c>
       <c r="C104" t="n">
-        <v>0.982111</v>
+        <v>0.969855</v>
       </c>
       <c r="D104" t="n">
-        <v>0.968604</v>
+        <v>0.972835</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.909362</v>
+        <v>0.910168</v>
       </c>
       <c r="C105" t="n">
-        <v>0.971821</v>
+        <v>0.958937</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9567099999999999</v>
+        <v>0.960769</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.904111</v>
+        <v>0.905717</v>
       </c>
       <c r="C106" t="n">
-        <v>0.960082</v>
+        <v>0.94864</v>
       </c>
       <c r="D106" t="n">
-        <v>0.946088</v>
+        <v>0.9503200000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9006459999999999</v>
+        <v>0.90095</v>
       </c>
       <c r="C107" t="n">
-        <v>0.946442</v>
+        <v>0.940308</v>
       </c>
       <c r="D107" t="n">
-        <v>0.940287</v>
+        <v>0.942372</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9013600000000001</v>
+        <v>0.901594</v>
       </c>
       <c r="C108" t="n">
-        <v>0.944486</v>
+        <v>0.936064</v>
       </c>
       <c r="D108" t="n">
-        <v>1.21822</v>
+        <v>1.22594</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.906184</v>
+        <v>0.907786</v>
       </c>
       <c r="C109" t="n">
-        <v>0.93357</v>
+        <v>0.934959</v>
       </c>
       <c r="D109" t="n">
-        <v>1.23045</v>
+        <v>1.23701</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.11167</v>
+        <v>1.114</v>
       </c>
       <c r="C110" t="n">
-        <v>1.2183</v>
+        <v>1.21578</v>
       </c>
       <c r="D110" t="n">
-        <v>1.22987</v>
+        <v>1.23759</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.11676</v>
+        <v>1.11694</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22004</v>
+        <v>1.21966</v>
       </c>
       <c r="D111" t="n">
-        <v>1.22986</v>
+        <v>1.23662</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.1208</v>
+        <v>1.11803</v>
       </c>
       <c r="C112" t="n">
-        <v>1.22153</v>
+        <v>1.21904</v>
       </c>
       <c r="D112" t="n">
-        <v>1.22939</v>
+        <v>1.23622</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.12215</v>
+        <v>1.12226</v>
       </c>
       <c r="C113" t="n">
-        <v>1.22225</v>
+        <v>1.21956</v>
       </c>
       <c r="D113" t="n">
-        <v>1.22915</v>
+        <v>1.23504</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.1247</v>
+        <v>1.12707</v>
       </c>
       <c r="C114" t="n">
-        <v>1.22329</v>
+        <v>1.2214</v>
       </c>
       <c r="D114" t="n">
-        <v>1.22818</v>
+        <v>1.23469</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12549</v>
+        <v>1.12865</v>
       </c>
       <c r="C115" t="n">
-        <v>1.21809</v>
+        <v>1.22242</v>
       </c>
       <c r="D115" t="n">
-        <v>1.22728</v>
+        <v>1.23316</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12984</v>
+        <v>1.13072</v>
       </c>
       <c r="C116" t="n">
-        <v>1.21909</v>
+        <v>1.22155</v>
       </c>
       <c r="D116" t="n">
-        <v>1.2261</v>
+        <v>1.23225</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.13149</v>
+        <v>1.13389</v>
       </c>
       <c r="C117" t="n">
-        <v>1.22145</v>
+        <v>1.22212</v>
       </c>
       <c r="D117" t="n">
-        <v>1.22714</v>
+        <v>1.23061</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13394</v>
+        <v>1.13589</v>
       </c>
       <c r="C118" t="n">
-        <v>1.22421</v>
+        <v>1.2217</v>
       </c>
       <c r="D118" t="n">
-        <v>1.22578</v>
+        <v>1.22905</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13852</v>
+        <v>1.14027</v>
       </c>
       <c r="C119" t="n">
-        <v>1.22013</v>
+        <v>1.22401</v>
       </c>
       <c r="D119" t="n">
-        <v>1.22407</v>
+        <v>1.22777</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.14328</v>
+        <v>1.14419</v>
       </c>
       <c r="C120" t="n">
-        <v>1.22239</v>
+        <v>1.22547</v>
       </c>
       <c r="D120" t="n">
-        <v>1.22428</v>
+        <v>1.22749</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.15089</v>
+        <v>1.15264</v>
       </c>
       <c r="C121" t="n">
-        <v>1.21593</v>
+        <v>1.22726</v>
       </c>
       <c r="D121" t="n">
-        <v>1.22348</v>
+        <v>1.22676</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.15755</v>
+        <v>1.15929</v>
       </c>
       <c r="C122" t="n">
-        <v>1.22427</v>
+        <v>1.23012</v>
       </c>
       <c r="D122" t="n">
-        <v>1.22563</v>
+        <v>1.22777</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.16881</v>
+        <v>1.17045</v>
       </c>
       <c r="C123" t="n">
-        <v>1.22246</v>
+        <v>1.23469</v>
       </c>
       <c r="D123" t="n">
-        <v>1.51846</v>
+        <v>1.5231</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.3722</v>
+        <v>1.37313</v>
       </c>
       <c r="C124" t="n">
-        <v>1.53256</v>
+        <v>1.51656</v>
       </c>
       <c r="D124" t="n">
-        <v>1.52571</v>
+        <v>1.52956</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.37463</v>
+        <v>1.37587</v>
       </c>
       <c r="C125" t="n">
-        <v>1.53162</v>
+        <v>1.52201</v>
       </c>
       <c r="D125" t="n">
-        <v>1.53208</v>
+        <v>1.53525</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.37739</v>
+        <v>1.37741</v>
       </c>
       <c r="C126" t="n">
-        <v>1.53145</v>
+        <v>1.52779</v>
       </c>
       <c r="D126" t="n">
-        <v>1.53721</v>
+        <v>1.53997</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.37827</v>
+        <v>1.378</v>
       </c>
       <c r="C127" t="n">
-        <v>1.52213</v>
+        <v>1.53283</v>
       </c>
       <c r="D127" t="n">
-        <v>1.5428</v>
+        <v>1.54597</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.38109</v>
+        <v>1.38066</v>
       </c>
       <c r="C128" t="n">
-        <v>1.54624</v>
+        <v>1.53988</v>
       </c>
       <c r="D128" t="n">
-        <v>1.54835</v>
+        <v>1.55204</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.38263</v>
+        <v>1.3823</v>
       </c>
       <c r="C129" t="n">
-        <v>1.54719</v>
+        <v>1.54486</v>
       </c>
       <c r="D129" t="n">
-        <v>1.55319</v>
+        <v>1.55641</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.38457</v>
+        <v>1.38489</v>
       </c>
       <c r="C130" t="n">
-        <v>1.55039</v>
+        <v>1.55055</v>
       </c>
       <c r="D130" t="n">
-        <v>1.55785</v>
+        <v>1.56113</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.38643</v>
+        <v>1.38673</v>
       </c>
       <c r="C131" t="n">
-        <v>1.55838</v>
+        <v>1.55531</v>
       </c>
       <c r="D131" t="n">
-        <v>1.56228</v>
+        <v>1.56328</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.38892</v>
+        <v>1.38932</v>
       </c>
       <c r="C132" t="n">
-        <v>1.55683</v>
+        <v>1.55901</v>
       </c>
       <c r="D132" t="n">
-        <v>1.56593</v>
+        <v>1.56834</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.39325</v>
+        <v>1.39372</v>
       </c>
       <c r="C133" t="n">
-        <v>1.57009</v>
+        <v>1.56441</v>
       </c>
       <c r="D133" t="n">
-        <v>1.5709</v>
+        <v>1.57612</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.39757</v>
+        <v>1.3986</v>
       </c>
       <c r="C134" t="n">
-        <v>1.57559</v>
+        <v>1.57284</v>
       </c>
       <c r="D134" t="n">
-        <v>1.57726</v>
+        <v>1.5823</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40365</v>
+        <v>1.40599</v>
       </c>
       <c r="C135" t="n">
-        <v>1.5772</v>
+        <v>1.58452</v>
       </c>
       <c r="D135" t="n">
-        <v>1.58482</v>
+        <v>1.58965</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.41326</v>
+        <v>1.41329</v>
       </c>
       <c r="C136" t="n">
-        <v>1.59076</v>
+        <v>1.59066</v>
       </c>
       <c r="D136" t="n">
-        <v>1.59305</v>
+        <v>1.59459</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.42694</v>
+        <v>1.42781</v>
       </c>
       <c r="C137" t="n">
-        <v>1.5862</v>
+        <v>1.60104</v>
       </c>
       <c r="D137" t="n">
-        <v>1.88324</v>
+        <v>1.88678</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.63543</v>
+        <v>1.63589</v>
       </c>
       <c r="C138" t="n">
-        <v>1.87063</v>
+        <v>1.88192</v>
       </c>
       <c r="D138" t="n">
-        <v>1.89307</v>
+        <v>1.89753</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.63334</v>
+        <v>1.63294</v>
       </c>
       <c r="C139" t="n">
-        <v>1.88791</v>
+        <v>1.8912</v>
       </c>
       <c r="D139" t="n">
-        <v>1.90238</v>
+        <v>1.90703</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.62852</v>
+        <v>1.62926</v>
       </c>
       <c r="C140" t="n">
-        <v>1.88987</v>
+        <v>1.90183</v>
       </c>
       <c r="D140" t="n">
-        <v>1.91092</v>
+        <v>1.9158</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.627</v>
+        <v>1.62671</v>
       </c>
       <c r="C141" t="n">
-        <v>1.90579</v>
+        <v>1.90605</v>
       </c>
       <c r="D141" t="n">
-        <v>1.9219</v>
+        <v>1.92526</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.62428</v>
+        <v>1.62398</v>
       </c>
       <c r="C142" t="n">
-        <v>1.91149</v>
+        <v>1.91558</v>
       </c>
       <c r="D142" t="n">
-        <v>1.93181</v>
+        <v>1.93284</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.62345</v>
+        <v>1.62174</v>
       </c>
       <c r="C143" t="n">
-        <v>1.91681</v>
+        <v>1.92195</v>
       </c>
       <c r="D143" t="n">
-        <v>1.9384</v>
+        <v>1.94043</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.669971</v>
+        <v>0.678112</v>
       </c>
       <c r="C2" t="n">
-        <v>0.705198</v>
+        <v>0.704234</v>
       </c>
       <c r="D2" t="n">
-        <v>0.720421</v>
+        <v>0.7188020000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6591</v>
+        <v>0.667224</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6896870000000001</v>
+        <v>0.688785</v>
       </c>
       <c r="D3" t="n">
-        <v>0.705756</v>
+        <v>0.703585</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6505919999999999</v>
+        <v>0.658578</v>
       </c>
       <c r="C4" t="n">
-        <v>0.676376</v>
+        <v>0.675433</v>
       </c>
       <c r="D4" t="n">
-        <v>0.692699</v>
+        <v>0.690829</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.64251</v>
+        <v>0.650892</v>
       </c>
       <c r="C5" t="n">
-        <v>0.663934</v>
+        <v>0.662879</v>
       </c>
       <c r="D5" t="n">
-        <v>0.681281</v>
+        <v>0.679405</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.636015</v>
+        <v>0.643624</v>
       </c>
       <c r="C6" t="n">
-        <v>0.652441</v>
+        <v>0.651218</v>
       </c>
       <c r="D6" t="n">
-        <v>0.670452</v>
+        <v>0.668338</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.631728</v>
+        <v>0.639643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.642268</v>
+        <v>0.641711</v>
       </c>
       <c r="D7" t="n">
-        <v>0.662173</v>
+        <v>0.660388</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.631374</v>
+        <v>0.639943</v>
       </c>
       <c r="C8" t="n">
-        <v>0.634898</v>
+        <v>0.634907</v>
       </c>
       <c r="D8" t="n">
-        <v>0.657047</v>
+        <v>0.655981</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.635249</v>
+        <v>0.644471</v>
       </c>
       <c r="C9" t="n">
-        <v>0.63224</v>
+        <v>0.631351</v>
       </c>
       <c r="D9" t="n">
-        <v>0.866652</v>
+        <v>0.864439</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.763023</v>
+        <v>0.772431</v>
       </c>
       <c r="C10" t="n">
-        <v>0.834334</v>
+        <v>0.832218</v>
       </c>
       <c r="D10" t="n">
-        <v>0.867357</v>
+        <v>0.842234</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.746781</v>
+        <v>0.755847</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8118379999999999</v>
+        <v>0.810504</v>
       </c>
       <c r="D11" t="n">
-        <v>0.824039</v>
+        <v>0.821568</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.731074</v>
+        <v>0.739963</v>
       </c>
       <c r="C12" t="n">
-        <v>0.791725</v>
+        <v>0.7904679999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.804477</v>
+        <v>0.802193</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7166169999999999</v>
+        <v>0.724795</v>
       </c>
       <c r="C13" t="n">
-        <v>0.772091</v>
+        <v>0.770835</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7857499999999999</v>
+        <v>0.783104</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.703188</v>
+        <v>0.711175</v>
       </c>
       <c r="C14" t="n">
-        <v>0.753517</v>
+        <v>0.752869</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7684609999999999</v>
+        <v>0.765927</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.690836</v>
+        <v>0.698788</v>
       </c>
       <c r="C15" t="n">
-        <v>0.736143</v>
+        <v>0.735353</v>
       </c>
       <c r="D15" t="n">
-        <v>0.751632</v>
+        <v>0.74943</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.679349</v>
+        <v>0.687028</v>
       </c>
       <c r="C16" t="n">
-        <v>0.719741</v>
+        <v>0.719098</v>
       </c>
       <c r="D16" t="n">
-        <v>0.759002</v>
+        <v>0.7337360000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.668898</v>
+        <v>0.676359</v>
       </c>
       <c r="C17" t="n">
-        <v>0.704421</v>
+        <v>0.7035</v>
       </c>
       <c r="D17" t="n">
-        <v>0.724859</v>
+        <v>0.719237</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.659403</v>
+        <v>0.667309</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6898030000000001</v>
+        <v>0.689273</v>
       </c>
       <c r="D18" t="n">
-        <v>0.728498</v>
+        <v>0.70585</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.651863</v>
+        <v>0.659561</v>
       </c>
       <c r="C19" t="n">
-        <v>0.67735</v>
+        <v>0.676717</v>
       </c>
       <c r="D19" t="n">
-        <v>0.710403</v>
+        <v>0.694079</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.645409</v>
+        <v>0.6535879999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.665062</v>
+        <v>0.664637</v>
       </c>
       <c r="D20" t="n">
-        <v>0.698106</v>
+        <v>0.682683</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.641169</v>
+        <v>0.649935</v>
       </c>
       <c r="C21" t="n">
-        <v>0.654643</v>
+        <v>0.654373</v>
       </c>
       <c r="D21" t="n">
-        <v>0.693007</v>
+        <v>0.674007</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.639004</v>
+        <v>0.648023</v>
       </c>
       <c r="C22" t="n">
-        <v>0.646378</v>
+        <v>0.6462560000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.677868</v>
+        <v>0.668062</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.640524</v>
+        <v>0.650092</v>
       </c>
       <c r="C23" t="n">
-        <v>0.641436</v>
+        <v>0.641386</v>
       </c>
       <c r="D23" t="n">
-        <v>0.929466</v>
+        <v>0.9282589999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.808658</v>
+        <v>0.818608</v>
       </c>
       <c r="C24" t="n">
-        <v>0.877053</v>
+        <v>0.876185</v>
       </c>
       <c r="D24" t="n">
-        <v>0.905508</v>
+        <v>0.904606</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7906260000000001</v>
+        <v>0.800106</v>
       </c>
       <c r="C25" t="n">
-        <v>0.854257</v>
+        <v>0.853754</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8828</v>
+        <v>0.881284</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.773582</v>
+        <v>0.782498</v>
       </c>
       <c r="C26" t="n">
-        <v>0.832678</v>
+        <v>0.832159</v>
       </c>
       <c r="D26" t="n">
-        <v>0.860819</v>
+        <v>0.859659</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.75695</v>
+        <v>0.765926</v>
       </c>
       <c r="C27" t="n">
-        <v>0.81177</v>
+        <v>0.811025</v>
       </c>
       <c r="D27" t="n">
-        <v>0.839651</v>
+        <v>0.83854</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.742132</v>
+        <v>0.749885</v>
       </c>
       <c r="C28" t="n">
-        <v>0.792218</v>
+        <v>0.791656</v>
       </c>
       <c r="D28" t="n">
-        <v>0.820094</v>
+        <v>0.819342</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.727346</v>
+        <v>0.735617</v>
       </c>
       <c r="C29" t="n">
-        <v>0.773221</v>
+        <v>0.773183</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8015</v>
+        <v>0.80063</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.713842</v>
+        <v>0.722323</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7557120000000001</v>
+        <v>0.7553569999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.784125</v>
+        <v>0.782922</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.701623</v>
+        <v>0.709576</v>
       </c>
       <c r="C31" t="n">
-        <v>0.738741</v>
+        <v>0.7386</v>
       </c>
       <c r="D31" t="n">
-        <v>0.767435</v>
+        <v>0.766563</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.69071</v>
+        <v>0.698626</v>
       </c>
       <c r="C32" t="n">
-        <v>0.723459</v>
+        <v>0.723175</v>
       </c>
       <c r="D32" t="n">
-        <v>0.752026</v>
+        <v>0.751223</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.681091</v>
+        <v>0.689063</v>
       </c>
       <c r="C33" t="n">
-        <v>0.709116</v>
+        <v>0.709138</v>
       </c>
       <c r="D33" t="n">
-        <v>0.738282</v>
+        <v>0.737778</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.672992</v>
+        <v>0.681745</v>
       </c>
       <c r="C34" t="n">
-        <v>0.696004</v>
+        <v>0.696012</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7256280000000001</v>
+        <v>0.725164</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.66709</v>
+        <v>0.675752</v>
       </c>
       <c r="C35" t="n">
-        <v>0.684902</v>
+        <v>0.684298</v>
       </c>
       <c r="D35" t="n">
-        <v>0.714977</v>
+        <v>0.714313</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.663902</v>
+        <v>0.672617</v>
       </c>
       <c r="C36" t="n">
-        <v>0.674813</v>
+        <v>0.674159</v>
       </c>
       <c r="D36" t="n">
-        <v>0.706143</v>
+        <v>0.705933</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.66418</v>
+        <v>0.673851</v>
       </c>
       <c r="C37" t="n">
-        <v>0.668577</v>
+        <v>0.667781</v>
       </c>
       <c r="D37" t="n">
-        <v>0.951587</v>
+        <v>0.951286</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.840404</v>
+        <v>0.851239</v>
       </c>
       <c r="C38" t="n">
-        <v>0.910138</v>
+        <v>0.909529</v>
       </c>
       <c r="D38" t="n">
-        <v>0.928085</v>
+        <v>0.927642</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.821999</v>
+        <v>0.832481</v>
       </c>
       <c r="C39" t="n">
-        <v>0.888073</v>
+        <v>0.887192</v>
       </c>
       <c r="D39" t="n">
-        <v>0.904682</v>
+        <v>0.904304</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.803559</v>
+        <v>0.813512</v>
       </c>
       <c r="C40" t="n">
-        <v>0.865787</v>
+        <v>0.864448</v>
       </c>
       <c r="D40" t="n">
-        <v>0.882742</v>
+        <v>0.881761</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.786102</v>
+        <v>0.7957070000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.843649</v>
+        <v>0.842902</v>
       </c>
       <c r="D41" t="n">
-        <v>0.861623</v>
+        <v>0.86028</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.769918</v>
+        <v>0.778996</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8235209999999999</v>
+        <v>0.822754</v>
       </c>
       <c r="D42" t="n">
-        <v>0.841284</v>
+        <v>0.840807</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.754501</v>
+        <v>0.763641</v>
       </c>
       <c r="C43" t="n">
-        <v>0.804175</v>
+        <v>0.803121</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8224320000000001</v>
+        <v>0.821835</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.740066</v>
+        <v>0.749518</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7860780000000001</v>
+        <v>0.7850510000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.804706</v>
+        <v>0.804325</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7270219999999999</v>
+        <v>0.736113</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7696</v>
+        <v>0.767743</v>
       </c>
       <c r="D45" t="n">
-        <v>0.788205</v>
+        <v>0.7873019999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.715364</v>
+        <v>0.723688</v>
       </c>
       <c r="C46" t="n">
-        <v>0.752702</v>
+        <v>0.75199</v>
       </c>
       <c r="D46" t="n">
-        <v>0.772497</v>
+        <v>0.771964</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.704577</v>
+        <v>0.713141</v>
       </c>
       <c r="C47" t="n">
-        <v>0.737102</v>
+        <v>0.735699</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7580710000000001</v>
+        <v>0.757253</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.695698</v>
+        <v>0.704939</v>
       </c>
       <c r="C48" t="n">
-        <v>0.724424</v>
+        <v>0.722446</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7451719999999999</v>
+        <v>0.744119</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.688785</v>
+        <v>0.698244</v>
       </c>
       <c r="C49" t="n">
-        <v>0.711437</v>
+        <v>0.709851</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7328710000000001</v>
+        <v>0.732339</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.684584</v>
+        <v>0.6936059999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.699936</v>
+        <v>0.699094</v>
       </c>
       <c r="D50" t="n">
-        <v>0.724454</v>
+        <v>0.724262</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.683456</v>
+        <v>0.692558</v>
       </c>
       <c r="C51" t="n">
-        <v>0.691804</v>
+        <v>0.690822</v>
       </c>
       <c r="D51" t="n">
-        <v>0.976787</v>
+        <v>0.975261</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.685402</v>
+        <v>0.695208</v>
       </c>
       <c r="C52" t="n">
-        <v>0.686985</v>
+        <v>0.685879</v>
       </c>
       <c r="D52" t="n">
-        <v>0.952924</v>
+        <v>0.952238</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.848572</v>
+        <v>0.858587</v>
       </c>
       <c r="C53" t="n">
-        <v>0.915283</v>
+        <v>0.914933</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9300079999999999</v>
+        <v>0.928639</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.829954</v>
+        <v>0.839508</v>
       </c>
       <c r="C54" t="n">
-        <v>0.893868</v>
+        <v>0.891436</v>
       </c>
       <c r="D54" t="n">
-        <v>0.908694</v>
+        <v>0.905847</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.811985</v>
+        <v>0.821252</v>
       </c>
       <c r="C55" t="n">
-        <v>0.872373</v>
+        <v>0.8700059999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.887101</v>
+        <v>0.885325</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.794922</v>
+        <v>0.804638</v>
       </c>
       <c r="C56" t="n">
-        <v>0.851538</v>
+        <v>0.849056</v>
       </c>
       <c r="D56" t="n">
-        <v>0.867543</v>
+        <v>0.865263</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7795879999999999</v>
+        <v>0.788806</v>
       </c>
       <c r="C57" t="n">
-        <v>0.831583</v>
+        <v>0.830308</v>
       </c>
       <c r="D57" t="n">
-        <v>0.84803</v>
+        <v>0.845567</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.764811</v>
+        <v>0.773585</v>
       </c>
       <c r="C58" t="n">
-        <v>0.81248</v>
+        <v>0.813149</v>
       </c>
       <c r="D58" t="n">
-        <v>0.830279</v>
+        <v>0.828781</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.751331</v>
+        <v>0.759825</v>
       </c>
       <c r="C59" t="n">
-        <v>0.796009</v>
+        <v>0.796192</v>
       </c>
       <c r="D59" t="n">
-        <v>0.811636</v>
+        <v>0.812889</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.737866</v>
+        <v>0.7475619999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.778667</v>
+        <v>0.778871</v>
       </c>
       <c r="D60" t="n">
-        <v>0.795593</v>
+        <v>0.796887</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.727209</v>
+        <v>0.736894</v>
       </c>
       <c r="C61" t="n">
-        <v>0.764562</v>
+        <v>0.763386</v>
       </c>
       <c r="D61" t="n">
-        <v>0.783058</v>
+        <v>0.78243</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.719309</v>
+        <v>0.727227</v>
       </c>
       <c r="C62" t="n">
-        <v>0.750231</v>
+        <v>0.749455</v>
       </c>
       <c r="D62" t="n">
-        <v>0.770112</v>
+        <v>0.769828</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.711852</v>
+        <v>0.720171</v>
       </c>
       <c r="C63" t="n">
-        <v>0.737581</v>
+        <v>0.7378209999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.758615</v>
+        <v>0.75767</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.706593</v>
+        <v>0.715323</v>
       </c>
       <c r="C64" t="n">
-        <v>0.726309</v>
+        <v>0.726606</v>
       </c>
       <c r="D64" t="n">
-        <v>0.748914</v>
+        <v>0.7485889999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.703851</v>
+        <v>0.713144</v>
       </c>
       <c r="C65" t="n">
-        <v>0.717429</v>
+        <v>0.7175</v>
       </c>
       <c r="D65" t="n">
-        <v>0.742207</v>
+        <v>0.742265</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.705024</v>
+        <v>0.7149219999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.714172</v>
+        <v>0.711736</v>
       </c>
       <c r="D66" t="n">
-        <v>0.980171</v>
+        <v>0.982166</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.872933</v>
+        <v>0.8826270000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.948808</v>
+        <v>0.950921</v>
       </c>
       <c r="D67" t="n">
-        <v>0.957765</v>
+        <v>0.95878</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.854053</v>
+        <v>0.8629250000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.929447</v>
+        <v>0.927212</v>
       </c>
       <c r="D68" t="n">
-        <v>0.935585</v>
+        <v>0.93662</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8353080000000001</v>
+        <v>0.844233</v>
       </c>
       <c r="C69" t="n">
-        <v>0.906231</v>
+        <v>0.90494</v>
       </c>
       <c r="D69" t="n">
-        <v>0.914358</v>
+        <v>0.915788</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.818248</v>
+        <v>0.8265439999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.884247</v>
+        <v>0.884124</v>
       </c>
       <c r="D70" t="n">
-        <v>0.89611</v>
+        <v>0.895282</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.80261</v>
+        <v>0.810585</v>
       </c>
       <c r="C71" t="n">
-        <v>0.864852</v>
+        <v>0.864981</v>
       </c>
       <c r="D71" t="n">
-        <v>0.875907</v>
+        <v>0.8769479999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.788652</v>
+        <v>0.795241</v>
       </c>
       <c r="C72" t="n">
-        <v>0.846957</v>
+        <v>0.8453619999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.859646</v>
+        <v>0.858815</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.775713</v>
+        <v>0.781353</v>
       </c>
       <c r="C73" t="n">
-        <v>0.829456</v>
+        <v>0.828303</v>
       </c>
       <c r="D73" t="n">
-        <v>0.843494</v>
+        <v>0.841811</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.762141</v>
+        <v>0.769096</v>
       </c>
       <c r="C74" t="n">
-        <v>0.812512</v>
+        <v>0.8110619999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.826204</v>
+        <v>0.824786</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.750789</v>
+        <v>0.757678</v>
       </c>
       <c r="C75" t="n">
-        <v>0.797897</v>
+        <v>0.795096</v>
       </c>
       <c r="D75" t="n">
-        <v>0.811727</v>
+        <v>0.810345</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7409520000000001</v>
+        <v>0.7480019999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.784208</v>
+        <v>0.78047</v>
       </c>
       <c r="D76" t="n">
-        <v>0.798965</v>
+        <v>0.797876</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.732415</v>
+        <v>0.739714</v>
       </c>
       <c r="C77" t="n">
-        <v>0.770062</v>
+        <v>0.768026</v>
       </c>
       <c r="D77" t="n">
-        <v>0.787456</v>
+        <v>0.785614</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.728838</v>
+        <v>0.73423</v>
       </c>
       <c r="C78" t="n">
-        <v>0.758148</v>
+        <v>0.756202</v>
       </c>
       <c r="D78" t="n">
-        <v>0.776554</v>
+        <v>0.775589</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.724073</v>
+        <v>0.731717</v>
       </c>
       <c r="C79" t="n">
-        <v>0.747288</v>
+        <v>0.746886</v>
       </c>
       <c r="D79" t="n">
-        <v>0.767948</v>
+        <v>0.768545</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.724515</v>
+        <v>0.733022</v>
       </c>
       <c r="C80" t="n">
-        <v>0.74112</v>
+        <v>0.740676</v>
       </c>
       <c r="D80" t="n">
-        <v>1.03599</v>
+        <v>1.03319</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.924548</v>
+        <v>0.931102</v>
       </c>
       <c r="C81" t="n">
-        <v>1.00244</v>
+        <v>0.9997200000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>1.01321</v>
+        <v>1.01119</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.909691</v>
+        <v>0.915111</v>
       </c>
       <c r="C82" t="n">
-        <v>0.981994</v>
+        <v>0.978258</v>
       </c>
       <c r="D82" t="n">
-        <v>0.990293</v>
+        <v>0.989056</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.89433</v>
+        <v>0.897015</v>
       </c>
       <c r="C83" t="n">
-        <v>0.960972</v>
+        <v>0.9576210000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.968546</v>
+        <v>0.967511</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.876875</v>
+        <v>0.884161</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9393629999999999</v>
+        <v>0.937189</v>
       </c>
       <c r="D84" t="n">
-        <v>0.947843</v>
+        <v>0.947302</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.86145</v>
+        <v>0.86858</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9195990000000001</v>
+        <v>0.919222</v>
       </c>
       <c r="D85" t="n">
-        <v>0.928229</v>
+        <v>0.928694</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.846352</v>
+        <v>0.852988</v>
       </c>
       <c r="C86" t="n">
-        <v>0.900058</v>
+        <v>0.899692</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9095760000000001</v>
+        <v>0.909842</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.833101</v>
+        <v>0.839325</v>
       </c>
       <c r="C87" t="n">
-        <v>0.882392</v>
+        <v>0.8817700000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.891886</v>
+        <v>0.8925380000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.818846</v>
+        <v>0.8255710000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.865827</v>
+        <v>0.864476</v>
       </c>
       <c r="D88" t="n">
-        <v>0.875422</v>
+        <v>0.8759479999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.804889</v>
+        <v>0.812658</v>
       </c>
       <c r="C89" t="n">
-        <v>0.848616</v>
+        <v>0.847878</v>
       </c>
       <c r="D89" t="n">
-        <v>0.859357</v>
+        <v>0.858588</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.794636</v>
+        <v>0.801521</v>
       </c>
       <c r="C90" t="n">
-        <v>0.834743</v>
+        <v>0.8347599999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.845814</v>
+        <v>0.8462190000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.784864</v>
+        <v>0.791942</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8189610000000001</v>
+        <v>0.819821</v>
       </c>
       <c r="D91" t="n">
-        <v>0.831575</v>
+        <v>0.832076</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.776822</v>
+        <v>0.784585</v>
       </c>
       <c r="C92" t="n">
-        <v>0.806419</v>
+        <v>0.806643</v>
       </c>
       <c r="D92" t="n">
-        <v>0.81942</v>
+        <v>0.821024</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.770586</v>
+        <v>0.780698</v>
       </c>
       <c r="C93" t="n">
-        <v>0.794827</v>
+        <v>0.79701</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8104789999999999</v>
+        <v>0.8124479999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.770006</v>
+        <v>0.77912</v>
       </c>
       <c r="C94" t="n">
-        <v>0.787889</v>
+        <v>0.788533</v>
       </c>
       <c r="D94" t="n">
-        <v>1.09154</v>
+        <v>1.09296</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.971177</v>
+        <v>0.981283</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05303</v>
+        <v>1.05261</v>
       </c>
       <c r="D95" t="n">
-        <v>1.08968</v>
+        <v>1.08975</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.977266</v>
+        <v>0.9852</v>
       </c>
       <c r="C96" t="n">
-        <v>1.05624</v>
+        <v>1.05571</v>
       </c>
       <c r="D96" t="n">
-        <v>1.0796</v>
+        <v>1.0797</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.974361</v>
+        <v>0.983359</v>
       </c>
       <c r="C97" t="n">
-        <v>1.05059</v>
+        <v>1.04973</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06741</v>
+        <v>1.06787</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.969067</v>
+        <v>0.977638</v>
       </c>
       <c r="C98" t="n">
-        <v>1.03991</v>
+        <v>1.04061</v>
       </c>
       <c r="D98" t="n">
-        <v>1.05383</v>
+        <v>1.05505</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.961238</v>
+        <v>0.96919</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02831</v>
+        <v>1.0292</v>
       </c>
       <c r="D99" t="n">
-        <v>1.03953</v>
+        <v>1.04033</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.951966</v>
+        <v>0.958715</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01545</v>
+        <v>1.01517</v>
       </c>
       <c r="D100" t="n">
-        <v>1.02412</v>
+        <v>1.02477</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.942047</v>
+        <v>0.949434</v>
       </c>
       <c r="C101" t="n">
-        <v>1.00184</v>
+        <v>1.00365</v>
       </c>
       <c r="D101" t="n">
-        <v>1.01102</v>
+        <v>1.01064</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.932855</v>
+        <v>0.940076</v>
       </c>
       <c r="C102" t="n">
-        <v>0.991452</v>
+        <v>0.991765</v>
       </c>
       <c r="D102" t="n">
-        <v>0.997116</v>
+        <v>0.99759</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.924667</v>
+        <v>0.932125</v>
       </c>
       <c r="C103" t="n">
-        <v>0.979457</v>
+        <v>0.979823</v>
       </c>
       <c r="D103" t="n">
-        <v>0.984349</v>
+        <v>0.9840680000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.917447</v>
+        <v>0.923605</v>
       </c>
       <c r="C104" t="n">
-        <v>0.969855</v>
+        <v>0.969558</v>
       </c>
       <c r="D104" t="n">
-        <v>0.972835</v>
+        <v>0.971645</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.910168</v>
+        <v>0.917255</v>
       </c>
       <c r="C105" t="n">
-        <v>0.958937</v>
+        <v>0.958875</v>
       </c>
       <c r="D105" t="n">
-        <v>0.960769</v>
+        <v>0.9614</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.905717</v>
+        <v>0.9131359999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.94864</v>
+        <v>0.950563</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9503200000000001</v>
+        <v>0.951192</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.90095</v>
+        <v>0.910631</v>
       </c>
       <c r="C107" t="n">
-        <v>0.940308</v>
+        <v>0.940442</v>
       </c>
       <c r="D107" t="n">
-        <v>0.942372</v>
+        <v>0.943491</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.901594</v>
+        <v>0.909548</v>
       </c>
       <c r="C108" t="n">
-        <v>0.936064</v>
+        <v>0.934381</v>
       </c>
       <c r="D108" t="n">
-        <v>1.22594</v>
+        <v>1.22058</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.907786</v>
+        <v>0.91181</v>
       </c>
       <c r="C109" t="n">
-        <v>0.934959</v>
+        <v>0.931167</v>
       </c>
       <c r="D109" t="n">
-        <v>1.23701</v>
+        <v>1.23417</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.114</v>
+        <v>1.11899</v>
       </c>
       <c r="C110" t="n">
-        <v>1.21578</v>
+        <v>1.21385</v>
       </c>
       <c r="D110" t="n">
-        <v>1.23759</v>
+        <v>1.23607</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.11694</v>
+        <v>1.12163</v>
       </c>
       <c r="C111" t="n">
-        <v>1.21966</v>
+        <v>1.21685</v>
       </c>
       <c r="D111" t="n">
-        <v>1.23662</v>
+        <v>1.2344</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.11803</v>
+        <v>1.12577</v>
       </c>
       <c r="C112" t="n">
-        <v>1.21904</v>
+        <v>1.21797</v>
       </c>
       <c r="D112" t="n">
-        <v>1.23622</v>
+        <v>1.23513</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.12226</v>
+        <v>1.12979</v>
       </c>
       <c r="C113" t="n">
-        <v>1.21956</v>
+        <v>1.21577</v>
       </c>
       <c r="D113" t="n">
-        <v>1.23504</v>
+        <v>1.2325</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12707</v>
+        <v>1.13329</v>
       </c>
       <c r="C114" t="n">
-        <v>1.2214</v>
+        <v>1.21999</v>
       </c>
       <c r="D114" t="n">
-        <v>1.23469</v>
+        <v>1.23132</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12865</v>
+        <v>1.13521</v>
       </c>
       <c r="C115" t="n">
-        <v>1.22242</v>
+        <v>1.22007</v>
       </c>
       <c r="D115" t="n">
-        <v>1.23316</v>
+        <v>1.23189</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13072</v>
+        <v>1.13693</v>
       </c>
       <c r="C116" t="n">
-        <v>1.22155</v>
+        <v>1.21981</v>
       </c>
       <c r="D116" t="n">
-        <v>1.23225</v>
+        <v>1.23071</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.13389</v>
+        <v>1.13936</v>
       </c>
       <c r="C117" t="n">
-        <v>1.22212</v>
+        <v>1.22185</v>
       </c>
       <c r="D117" t="n">
-        <v>1.23061</v>
+        <v>1.22852</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13589</v>
+        <v>1.141</v>
       </c>
       <c r="C118" t="n">
-        <v>1.2217</v>
+        <v>1.22326</v>
       </c>
       <c r="D118" t="n">
-        <v>1.22905</v>
+        <v>1.22741</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.14027</v>
+        <v>1.1455</v>
       </c>
       <c r="C119" t="n">
-        <v>1.22401</v>
+        <v>1.22268</v>
       </c>
       <c r="D119" t="n">
-        <v>1.22777</v>
+        <v>1.22638</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.14419</v>
+        <v>1.15027</v>
       </c>
       <c r="C120" t="n">
-        <v>1.22547</v>
+        <v>1.22295</v>
       </c>
       <c r="D120" t="n">
-        <v>1.22749</v>
+        <v>1.22483</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.15264</v>
+        <v>1.15349</v>
       </c>
       <c r="C121" t="n">
-        <v>1.22726</v>
+        <v>1.2248</v>
       </c>
       <c r="D121" t="n">
-        <v>1.22676</v>
+        <v>1.2238</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.15929</v>
+        <v>1.16381</v>
       </c>
       <c r="C122" t="n">
-        <v>1.23012</v>
+        <v>1.22799</v>
       </c>
       <c r="D122" t="n">
-        <v>1.22777</v>
+        <v>1.22474</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.17045</v>
+        <v>1.17515</v>
       </c>
       <c r="C123" t="n">
-        <v>1.23469</v>
+        <v>1.23233</v>
       </c>
       <c r="D123" t="n">
-        <v>1.5231</v>
+        <v>1.52094</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.37313</v>
+        <v>1.37836</v>
       </c>
       <c r="C124" t="n">
-        <v>1.51656</v>
+        <v>1.51323</v>
       </c>
       <c r="D124" t="n">
-        <v>1.52956</v>
+        <v>1.52536</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.37587</v>
+        <v>1.38032</v>
       </c>
       <c r="C125" t="n">
-        <v>1.52201</v>
+        <v>1.51888</v>
       </c>
       <c r="D125" t="n">
-        <v>1.53525</v>
+        <v>1.53206</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.37741</v>
+        <v>1.38103</v>
       </c>
       <c r="C126" t="n">
-        <v>1.52779</v>
+        <v>1.5238</v>
       </c>
       <c r="D126" t="n">
-        <v>1.53997</v>
+        <v>1.53811</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.378</v>
+        <v>1.38167</v>
       </c>
       <c r="C127" t="n">
-        <v>1.53283</v>
+        <v>1.53024</v>
       </c>
       <c r="D127" t="n">
-        <v>1.54597</v>
+        <v>1.54132</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.38066</v>
+        <v>1.38331</v>
       </c>
       <c r="C128" t="n">
-        <v>1.53988</v>
+        <v>1.53479</v>
       </c>
       <c r="D128" t="n">
-        <v>1.55204</v>
+        <v>1.54686</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.3823</v>
+        <v>1.38541</v>
       </c>
       <c r="C129" t="n">
-        <v>1.54486</v>
+        <v>1.54375</v>
       </c>
       <c r="D129" t="n">
-        <v>1.55641</v>
+        <v>1.55164</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.38489</v>
+        <v>1.38722</v>
       </c>
       <c r="C130" t="n">
-        <v>1.55055</v>
+        <v>1.54724</v>
       </c>
       <c r="D130" t="n">
-        <v>1.56113</v>
+        <v>1.55707</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.38673</v>
+        <v>1.38938</v>
       </c>
       <c r="C131" t="n">
-        <v>1.55531</v>
+        <v>1.55199</v>
       </c>
       <c r="D131" t="n">
-        <v>1.56328</v>
+        <v>1.56161</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.38932</v>
+        <v>1.39185</v>
       </c>
       <c r="C132" t="n">
-        <v>1.55901</v>
+        <v>1.55763</v>
       </c>
       <c r="D132" t="n">
-        <v>1.56834</v>
+        <v>1.56475</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.39372</v>
+        <v>1.39867</v>
       </c>
       <c r="C133" t="n">
-        <v>1.56441</v>
+        <v>1.56525</v>
       </c>
       <c r="D133" t="n">
-        <v>1.57612</v>
+        <v>1.56901</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.3986</v>
+        <v>1.40309</v>
       </c>
       <c r="C134" t="n">
-        <v>1.57284</v>
+        <v>1.56711</v>
       </c>
       <c r="D134" t="n">
-        <v>1.5823</v>
+        <v>1.57311</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40599</v>
+        <v>1.40728</v>
       </c>
       <c r="C135" t="n">
-        <v>1.58452</v>
+        <v>1.58368</v>
       </c>
       <c r="D135" t="n">
-        <v>1.58965</v>
+        <v>1.58046</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.41329</v>
+        <v>1.41618</v>
       </c>
       <c r="C136" t="n">
-        <v>1.59066</v>
+        <v>1.58793</v>
       </c>
       <c r="D136" t="n">
-        <v>1.59459</v>
+        <v>1.58851</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.42781</v>
+        <v>1.42836</v>
       </c>
       <c r="C137" t="n">
-        <v>1.60104</v>
+        <v>1.60632</v>
       </c>
       <c r="D137" t="n">
-        <v>1.88678</v>
+        <v>1.88022</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.63589</v>
+        <v>1.63845</v>
       </c>
       <c r="C138" t="n">
-        <v>1.88192</v>
+        <v>1.88213</v>
       </c>
       <c r="D138" t="n">
-        <v>1.89753</v>
+        <v>1.89167</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.63294</v>
+        <v>1.63509</v>
       </c>
       <c r="C139" t="n">
-        <v>1.8912</v>
+        <v>1.88971</v>
       </c>
       <c r="D139" t="n">
-        <v>1.90703</v>
+        <v>1.90069</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.62926</v>
+        <v>1.63096</v>
       </c>
       <c r="C140" t="n">
-        <v>1.90183</v>
+        <v>1.89875</v>
       </c>
       <c r="D140" t="n">
-        <v>1.9158</v>
+        <v>1.90783</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.62671</v>
+        <v>1.62674</v>
       </c>
       <c r="C141" t="n">
-        <v>1.90605</v>
+        <v>1.90604</v>
       </c>
       <c r="D141" t="n">
-        <v>1.92526</v>
+        <v>1.91716</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.62398</v>
+        <v>1.62535</v>
       </c>
       <c r="C142" t="n">
-        <v>1.91558</v>
+        <v>1.91572</v>
       </c>
       <c r="D142" t="n">
-        <v>1.93284</v>
+        <v>1.92468</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.62174</v>
+        <v>1.62404</v>
       </c>
       <c r="C143" t="n">
-        <v>1.92195</v>
+        <v>1.92303</v>
       </c>
       <c r="D143" t="n">
-        <v>1.94043</v>
+        <v>1.93138</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.678112</v>
+        <v>0.670482</v>
       </c>
       <c r="C2" t="n">
-        <v>0.704234</v>
+        <v>0.705217</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7188020000000001</v>
+        <v>0.719372</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.667224</v>
+        <v>0.660066</v>
       </c>
       <c r="C3" t="n">
-        <v>0.688785</v>
+        <v>0.690079</v>
       </c>
       <c r="D3" t="n">
-        <v>0.703585</v>
+        <v>0.704525</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.658578</v>
+        <v>0.651351</v>
       </c>
       <c r="C4" t="n">
-        <v>0.675433</v>
+        <v>0.676309</v>
       </c>
       <c r="D4" t="n">
-        <v>0.690829</v>
+        <v>0.691927</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.650892</v>
+        <v>0.643293</v>
       </c>
       <c r="C5" t="n">
-        <v>0.662879</v>
+        <v>0.664029</v>
       </c>
       <c r="D5" t="n">
-        <v>0.679405</v>
+        <v>0.679831</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.643624</v>
+        <v>0.636413</v>
       </c>
       <c r="C6" t="n">
-        <v>0.651218</v>
+        <v>0.652379</v>
       </c>
       <c r="D6" t="n">
-        <v>0.668338</v>
+        <v>0.6694</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.639643</v>
+        <v>0.632001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.641711</v>
+        <v>0.642696</v>
       </c>
       <c r="D7" t="n">
-        <v>0.660388</v>
+        <v>0.661012</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.639943</v>
+        <v>0.631394</v>
       </c>
       <c r="C8" t="n">
-        <v>0.634907</v>
+        <v>0.635783</v>
       </c>
       <c r="D8" t="n">
-        <v>0.655981</v>
+        <v>0.656955</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.644471</v>
+        <v>0.635256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.631351</v>
+        <v>0.632654</v>
       </c>
       <c r="D9" t="n">
-        <v>0.864439</v>
+        <v>0.866591</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.772431</v>
+        <v>0.764009</v>
       </c>
       <c r="C10" t="n">
-        <v>0.832218</v>
+        <v>0.8338100000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.842234</v>
+        <v>0.844276</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.755847</v>
+        <v>0.747098</v>
       </c>
       <c r="C11" t="n">
-        <v>0.810504</v>
+        <v>0.812601</v>
       </c>
       <c r="D11" t="n">
-        <v>0.821568</v>
+        <v>0.823665</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.739963</v>
+        <v>0.732501</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7904679999999999</v>
+        <v>0.792339</v>
       </c>
       <c r="D12" t="n">
-        <v>0.802193</v>
+        <v>0.804628</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.724795</v>
+        <v>0.717201</v>
       </c>
       <c r="C13" t="n">
-        <v>0.770835</v>
+        <v>0.7729279999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.783104</v>
+        <v>0.785841</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.711175</v>
+        <v>0.703802</v>
       </c>
       <c r="C14" t="n">
-        <v>0.752869</v>
+        <v>0.7542219999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.765927</v>
+        <v>0.768108</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.698788</v>
+        <v>0.691157</v>
       </c>
       <c r="C15" t="n">
-        <v>0.735353</v>
+        <v>0.736997</v>
       </c>
       <c r="D15" t="n">
-        <v>0.74943</v>
+        <v>0.751864</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.687028</v>
+        <v>0.679687</v>
       </c>
       <c r="C16" t="n">
-        <v>0.719098</v>
+        <v>0.7206129999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7337360000000001</v>
+        <v>0.73634</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.676359</v>
+        <v>0.668919</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7035</v>
+        <v>0.705228</v>
       </c>
       <c r="D17" t="n">
-        <v>0.719237</v>
+        <v>0.721601</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.667309</v>
+        <v>0.659617</v>
       </c>
       <c r="C18" t="n">
-        <v>0.689273</v>
+        <v>0.69081</v>
       </c>
       <c r="D18" t="n">
-        <v>0.70585</v>
+        <v>0.708179</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.659561</v>
+        <v>0.652095</v>
       </c>
       <c r="C19" t="n">
-        <v>0.676717</v>
+        <v>0.678015</v>
       </c>
       <c r="D19" t="n">
-        <v>0.694079</v>
+        <v>0.69622</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6535879999999999</v>
+        <v>0.64542</v>
       </c>
       <c r="C20" t="n">
-        <v>0.664637</v>
+        <v>0.665958</v>
       </c>
       <c r="D20" t="n">
-        <v>0.682683</v>
+        <v>0.684711</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.649935</v>
+        <v>0.641447</v>
       </c>
       <c r="C21" t="n">
-        <v>0.654373</v>
+        <v>0.655465</v>
       </c>
       <c r="D21" t="n">
-        <v>0.674007</v>
+        <v>0.6754019999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.648023</v>
+        <v>0.639244</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6462560000000001</v>
+        <v>0.6475</v>
       </c>
       <c r="D22" t="n">
-        <v>0.668062</v>
+        <v>0.669126</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.650092</v>
+        <v>0.640445</v>
       </c>
       <c r="C23" t="n">
-        <v>0.641386</v>
+        <v>0.642234</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9282589999999999</v>
+        <v>0.929799</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.818608</v>
+        <v>0.8083900000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.876185</v>
+        <v>0.877822</v>
       </c>
       <c r="D24" t="n">
-        <v>0.904606</v>
+        <v>0.906185</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.800106</v>
+        <v>0.791013</v>
       </c>
       <c r="C25" t="n">
-        <v>0.853754</v>
+        <v>0.854621</v>
       </c>
       <c r="D25" t="n">
-        <v>0.881284</v>
+        <v>0.882773</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.782498</v>
+        <v>0.773329</v>
       </c>
       <c r="C26" t="n">
-        <v>0.832159</v>
+        <v>0.832655</v>
       </c>
       <c r="D26" t="n">
-        <v>0.859659</v>
+        <v>0.86078</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.765926</v>
+        <v>0.756515</v>
       </c>
       <c r="C27" t="n">
-        <v>0.811025</v>
+        <v>0.8116370000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.83854</v>
+        <v>0.839398</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.749885</v>
+        <v>0.741962</v>
       </c>
       <c r="C28" t="n">
-        <v>0.791656</v>
+        <v>0.792269</v>
       </c>
       <c r="D28" t="n">
-        <v>0.819342</v>
+        <v>0.819877</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.735617</v>
+        <v>0.72665</v>
       </c>
       <c r="C29" t="n">
-        <v>0.773183</v>
+        <v>0.773915</v>
       </c>
       <c r="D29" t="n">
-        <v>0.80063</v>
+        <v>0.801025</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.722323</v>
+        <v>0.713493</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7553569999999999</v>
+        <v>0.7562179999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.782922</v>
+        <v>0.783543</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.709576</v>
+        <v>0.701429</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7386</v>
+        <v>0.739144</v>
       </c>
       <c r="D31" t="n">
-        <v>0.766563</v>
+        <v>0.766853</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.698626</v>
+        <v>0.68998</v>
       </c>
       <c r="C32" t="n">
-        <v>0.723175</v>
+        <v>0.724012</v>
       </c>
       <c r="D32" t="n">
-        <v>0.751223</v>
+        <v>0.7518359999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.689063</v>
+        <v>0.680982</v>
       </c>
       <c r="C33" t="n">
-        <v>0.709138</v>
+        <v>0.70953</v>
       </c>
       <c r="D33" t="n">
-        <v>0.737778</v>
+        <v>0.738086</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.681745</v>
+        <v>0.672938</v>
       </c>
       <c r="C34" t="n">
-        <v>0.696012</v>
+        <v>0.69651</v>
       </c>
       <c r="D34" t="n">
-        <v>0.725164</v>
+        <v>0.725786</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.675752</v>
+        <v>0.666667</v>
       </c>
       <c r="C35" t="n">
-        <v>0.684298</v>
+        <v>0.684704</v>
       </c>
       <c r="D35" t="n">
-        <v>0.714313</v>
+        <v>0.714829</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.672617</v>
+        <v>0.664193</v>
       </c>
       <c r="C36" t="n">
-        <v>0.674159</v>
+        <v>0.675202</v>
       </c>
       <c r="D36" t="n">
-        <v>0.705933</v>
+        <v>0.706508</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.673851</v>
+        <v>0.664108</v>
       </c>
       <c r="C37" t="n">
-        <v>0.667781</v>
+        <v>0.668314</v>
       </c>
       <c r="D37" t="n">
-        <v>0.951286</v>
+        <v>0.9513470000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.851239</v>
+        <v>0.841325</v>
       </c>
       <c r="C38" t="n">
-        <v>0.909529</v>
+        <v>0.910536</v>
       </c>
       <c r="D38" t="n">
-        <v>0.927642</v>
+        <v>0.927222</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.832481</v>
+        <v>0.822839</v>
       </c>
       <c r="C39" t="n">
-        <v>0.887192</v>
+        <v>0.888404</v>
       </c>
       <c r="D39" t="n">
-        <v>0.904304</v>
+        <v>0.904428</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.813512</v>
+        <v>0.804558</v>
       </c>
       <c r="C40" t="n">
-        <v>0.864448</v>
+        <v>0.8648</v>
       </c>
       <c r="D40" t="n">
-        <v>0.881761</v>
+        <v>0.882045</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7957070000000001</v>
+        <v>0.786585</v>
       </c>
       <c r="C41" t="n">
-        <v>0.842902</v>
+        <v>0.843397</v>
       </c>
       <c r="D41" t="n">
-        <v>0.86028</v>
+        <v>0.8603769999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.778996</v>
+        <v>0.770124</v>
       </c>
       <c r="C42" t="n">
-        <v>0.822754</v>
+        <v>0.824012</v>
       </c>
       <c r="D42" t="n">
-        <v>0.840807</v>
+        <v>0.841087</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.763641</v>
+        <v>0.75482</v>
       </c>
       <c r="C43" t="n">
-        <v>0.803121</v>
+        <v>0.803812</v>
       </c>
       <c r="D43" t="n">
-        <v>0.821835</v>
+        <v>0.821886</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.749518</v>
+        <v>0.7410060000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7850510000000001</v>
+        <v>0.78543</v>
       </c>
       <c r="D44" t="n">
-        <v>0.804325</v>
+        <v>0.804141</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.736113</v>
+        <v>0.727872</v>
       </c>
       <c r="C45" t="n">
-        <v>0.767743</v>
+        <v>0.767826</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7873019999999999</v>
+        <v>0.7875799999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.723688</v>
+        <v>0.715653</v>
       </c>
       <c r="C46" t="n">
-        <v>0.75199</v>
+        <v>0.752205</v>
       </c>
       <c r="D46" t="n">
-        <v>0.771964</v>
+        <v>0.7718469999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.713141</v>
+        <v>0.705438</v>
       </c>
       <c r="C47" t="n">
-        <v>0.735699</v>
+        <v>0.736532</v>
       </c>
       <c r="D47" t="n">
-        <v>0.757253</v>
+        <v>0.757358</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.704939</v>
+        <v>0.696398</v>
       </c>
       <c r="C48" t="n">
-        <v>0.722446</v>
+        <v>0.7228520000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.744119</v>
+        <v>0.744367</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.698244</v>
+        <v>0.689683</v>
       </c>
       <c r="C49" t="n">
-        <v>0.709851</v>
+        <v>0.710793</v>
       </c>
       <c r="D49" t="n">
-        <v>0.732339</v>
+        <v>0.732967</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6936059999999999</v>
+        <v>0.68519</v>
       </c>
       <c r="C50" t="n">
-        <v>0.699094</v>
+        <v>0.699748</v>
       </c>
       <c r="D50" t="n">
-        <v>0.724262</v>
+        <v>0.723222</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.692558</v>
+        <v>0.68332</v>
       </c>
       <c r="C51" t="n">
-        <v>0.690822</v>
+        <v>0.691466</v>
       </c>
       <c r="D51" t="n">
-        <v>0.975261</v>
+        <v>0.975714</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.695208</v>
+        <v>0.68575</v>
       </c>
       <c r="C52" t="n">
-        <v>0.685879</v>
+        <v>0.6855869999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.952238</v>
+        <v>0.951756</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.858587</v>
+        <v>0.849186</v>
       </c>
       <c r="C53" t="n">
-        <v>0.914933</v>
+        <v>0.915009</v>
       </c>
       <c r="D53" t="n">
-        <v>0.928639</v>
+        <v>0.9290929999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.839508</v>
+        <v>0.830337</v>
       </c>
       <c r="C54" t="n">
-        <v>0.891436</v>
+        <v>0.892397</v>
       </c>
       <c r="D54" t="n">
-        <v>0.905847</v>
+        <v>0.906788</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.821252</v>
+        <v>0.812542</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8700059999999999</v>
+        <v>0.870678</v>
       </c>
       <c r="D55" t="n">
-        <v>0.885325</v>
+        <v>0.885752</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.804638</v>
+        <v>0.79612</v>
       </c>
       <c r="C56" t="n">
-        <v>0.849056</v>
+        <v>0.849494</v>
       </c>
       <c r="D56" t="n">
-        <v>0.865263</v>
+        <v>0.865211</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.788806</v>
+        <v>0.780263</v>
       </c>
       <c r="C57" t="n">
-        <v>0.830308</v>
+        <v>0.830966</v>
       </c>
       <c r="D57" t="n">
-        <v>0.845567</v>
+        <v>0.84639</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.773585</v>
+        <v>0.7651829999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.813149</v>
+        <v>0.812501</v>
       </c>
       <c r="D58" t="n">
-        <v>0.828781</v>
+        <v>0.827748</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.759825</v>
+        <v>0.751775</v>
       </c>
       <c r="C59" t="n">
-        <v>0.796192</v>
+        <v>0.795295</v>
       </c>
       <c r="D59" t="n">
-        <v>0.812889</v>
+        <v>0.812694</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7475619999999999</v>
+        <v>0.739849</v>
       </c>
       <c r="C60" t="n">
-        <v>0.778871</v>
+        <v>0.778076</v>
       </c>
       <c r="D60" t="n">
-        <v>0.796887</v>
+        <v>0.796573</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.736894</v>
+        <v>0.728132</v>
       </c>
       <c r="C61" t="n">
-        <v>0.763386</v>
+        <v>0.761912</v>
       </c>
       <c r="D61" t="n">
-        <v>0.78243</v>
+        <v>0.7827190000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.727227</v>
+        <v>0.718418</v>
       </c>
       <c r="C62" t="n">
-        <v>0.749455</v>
+        <v>0.750027</v>
       </c>
       <c r="D62" t="n">
-        <v>0.769828</v>
+        <v>0.769853</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.720171</v>
+        <v>0.711875</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7378209999999999</v>
+        <v>0.737622</v>
       </c>
       <c r="D63" t="n">
-        <v>0.75767</v>
+        <v>0.758499</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.715323</v>
+        <v>0.706606</v>
       </c>
       <c r="C64" t="n">
-        <v>0.726606</v>
+        <v>0.7260450000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7485889999999999</v>
+        <v>0.748497</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.713144</v>
+        <v>0.703911</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7175</v>
+        <v>0.717286</v>
       </c>
       <c r="D65" t="n">
-        <v>0.742265</v>
+        <v>0.7410639999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7149219999999999</v>
+        <v>0.705373</v>
       </c>
       <c r="C66" t="n">
-        <v>0.711736</v>
+        <v>0.710985</v>
       </c>
       <c r="D66" t="n">
-        <v>0.982166</v>
+        <v>0.9804040000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8826270000000001</v>
+        <v>0.872915</v>
       </c>
       <c r="C67" t="n">
-        <v>0.950921</v>
+        <v>0.94886</v>
       </c>
       <c r="D67" t="n">
-        <v>0.95878</v>
+        <v>0.958046</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8629250000000001</v>
+        <v>0.854944</v>
       </c>
       <c r="C68" t="n">
-        <v>0.927212</v>
+        <v>0.927223</v>
       </c>
       <c r="D68" t="n">
-        <v>0.93662</v>
+        <v>0.936252</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.844233</v>
+        <v>0.836965</v>
       </c>
       <c r="C69" t="n">
-        <v>0.90494</v>
+        <v>0.90604</v>
       </c>
       <c r="D69" t="n">
-        <v>0.915788</v>
+        <v>0.91582</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8265439999999999</v>
+        <v>0.819785</v>
       </c>
       <c r="C70" t="n">
-        <v>0.884124</v>
+        <v>0.884684</v>
       </c>
       <c r="D70" t="n">
-        <v>0.895282</v>
+        <v>0.895129</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.810585</v>
+        <v>0.803413</v>
       </c>
       <c r="C71" t="n">
-        <v>0.864981</v>
+        <v>0.863353</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8769479999999999</v>
+        <v>0.876043</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.795241</v>
+        <v>0.788751</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8453619999999999</v>
+        <v>0.846817</v>
       </c>
       <c r="D72" t="n">
-        <v>0.858815</v>
+        <v>0.858309</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.781353</v>
+        <v>0.773954</v>
       </c>
       <c r="C73" t="n">
-        <v>0.828303</v>
+        <v>0.827932</v>
       </c>
       <c r="D73" t="n">
-        <v>0.841811</v>
+        <v>0.841888</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.769096</v>
+        <v>0.761458</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8110619999999999</v>
+        <v>0.809632</v>
       </c>
       <c r="D74" t="n">
-        <v>0.824786</v>
+        <v>0.825125</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.757678</v>
+        <v>0.750284</v>
       </c>
       <c r="C75" t="n">
-        <v>0.795096</v>
+        <v>0.794651</v>
       </c>
       <c r="D75" t="n">
-        <v>0.810345</v>
+        <v>0.8111660000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7480019999999999</v>
+        <v>0.741299</v>
       </c>
       <c r="C76" t="n">
-        <v>0.78047</v>
+        <v>0.781957</v>
       </c>
       <c r="D76" t="n">
-        <v>0.797876</v>
+        <v>0.79798</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.739714</v>
+        <v>0.733663</v>
       </c>
       <c r="C77" t="n">
-        <v>0.768026</v>
+        <v>0.769329</v>
       </c>
       <c r="D77" t="n">
-        <v>0.785614</v>
+        <v>0.78667</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.73423</v>
+        <v>0.727617</v>
       </c>
       <c r="C78" t="n">
-        <v>0.756202</v>
+        <v>0.757729</v>
       </c>
       <c r="D78" t="n">
-        <v>0.775589</v>
+        <v>0.776697</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.731717</v>
+        <v>0.724566</v>
       </c>
       <c r="C79" t="n">
-        <v>0.746886</v>
+        <v>0.748013</v>
       </c>
       <c r="D79" t="n">
-        <v>0.768545</v>
+        <v>0.768306</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.733022</v>
+        <v>0.725118</v>
       </c>
       <c r="C80" t="n">
-        <v>0.740676</v>
+        <v>0.7401759999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>1.03319</v>
+        <v>1.03429</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.931102</v>
+        <v>0.923593</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9997200000000001</v>
+        <v>1.00052</v>
       </c>
       <c r="D81" t="n">
-        <v>1.01119</v>
+        <v>1.01257</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.915111</v>
+        <v>0.910586</v>
       </c>
       <c r="C82" t="n">
-        <v>0.978258</v>
+        <v>0.980518</v>
       </c>
       <c r="D82" t="n">
-        <v>0.989056</v>
+        <v>0.991179</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.897015</v>
+        <v>0.895607</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9576210000000001</v>
+        <v>0.960272</v>
       </c>
       <c r="D83" t="n">
-        <v>0.967511</v>
+        <v>0.970051</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.884161</v>
+        <v>0.879506</v>
       </c>
       <c r="C84" t="n">
-        <v>0.937189</v>
+        <v>0.939714</v>
       </c>
       <c r="D84" t="n">
-        <v>0.947302</v>
+        <v>0.948651</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.86858</v>
+        <v>0.864015</v>
       </c>
       <c r="C85" t="n">
-        <v>0.919222</v>
+        <v>0.919238</v>
       </c>
       <c r="D85" t="n">
-        <v>0.928694</v>
+        <v>0.9289500000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.852988</v>
+        <v>0.847568</v>
       </c>
       <c r="C86" t="n">
-        <v>0.899692</v>
+        <v>0.8999819999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.909842</v>
+        <v>0.909694</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.839325</v>
+        <v>0.83345</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8817700000000001</v>
+        <v>0.88175</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8925380000000001</v>
+        <v>0.8920129999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8255710000000001</v>
+        <v>0.820009</v>
       </c>
       <c r="C88" t="n">
-        <v>0.864476</v>
+        <v>0.864138</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8759479999999999</v>
+        <v>0.874707</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.812658</v>
+        <v>0.806854</v>
       </c>
       <c r="C89" t="n">
-        <v>0.847878</v>
+        <v>0.8469989999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.858588</v>
+        <v>0.859372</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.801521</v>
+        <v>0.795666</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8347599999999999</v>
+        <v>0.832946</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8462190000000001</v>
+        <v>0.8451419999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.791942</v>
+        <v>0.784726</v>
       </c>
       <c r="C91" t="n">
-        <v>0.819821</v>
+        <v>0.8192390000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.832076</v>
+        <v>0.831712</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.784585</v>
+        <v>0.777801</v>
       </c>
       <c r="C92" t="n">
-        <v>0.806643</v>
+        <v>0.806553</v>
       </c>
       <c r="D92" t="n">
-        <v>0.821024</v>
+        <v>0.8199880000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.780698</v>
+        <v>0.773066</v>
       </c>
       <c r="C93" t="n">
-        <v>0.79701</v>
+        <v>0.796027</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8124479999999999</v>
+        <v>0.811795</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.77912</v>
+        <v>0.771228</v>
       </c>
       <c r="C94" t="n">
-        <v>0.788533</v>
+        <v>0.788008</v>
       </c>
       <c r="D94" t="n">
-        <v>1.09296</v>
+        <v>1.09344</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.981283</v>
+        <v>0.972876</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05261</v>
+        <v>1.05402</v>
       </c>
       <c r="D95" t="n">
-        <v>1.08975</v>
+        <v>1.08959</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9852</v>
+        <v>0.977765</v>
       </c>
       <c r="C96" t="n">
-        <v>1.05571</v>
+        <v>1.05707</v>
       </c>
       <c r="D96" t="n">
-        <v>1.0797</v>
+        <v>1.08023</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.983359</v>
+        <v>0.976267</v>
       </c>
       <c r="C97" t="n">
-        <v>1.04973</v>
+        <v>1.0502</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06787</v>
+        <v>1.06826</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.977638</v>
+        <v>0.96923</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04061</v>
+        <v>1.03987</v>
       </c>
       <c r="D98" t="n">
-        <v>1.05505</v>
+        <v>1.05431</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.96919</v>
+        <v>0.96122</v>
       </c>
       <c r="C99" t="n">
-        <v>1.0292</v>
+        <v>1.02774</v>
       </c>
       <c r="D99" t="n">
-        <v>1.04033</v>
+        <v>1.0397</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.958715</v>
+        <v>0.951672</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01517</v>
+        <v>1.01548</v>
       </c>
       <c r="D100" t="n">
-        <v>1.02477</v>
+        <v>1.0246</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.949434</v>
+        <v>0.941284</v>
       </c>
       <c r="C101" t="n">
-        <v>1.00365</v>
+        <v>1.00215</v>
       </c>
       <c r="D101" t="n">
-        <v>1.01064</v>
+        <v>1.00901</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.940076</v>
+        <v>0.931181</v>
       </c>
       <c r="C102" t="n">
-        <v>0.991765</v>
+        <v>0.9897</v>
       </c>
       <c r="D102" t="n">
-        <v>0.99759</v>
+        <v>0.995995</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.932125</v>
+        <v>0.923226</v>
       </c>
       <c r="C103" t="n">
-        <v>0.979823</v>
+        <v>0.978104</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9840680000000001</v>
+        <v>0.982257</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.923605</v>
+        <v>0.914701</v>
       </c>
       <c r="C104" t="n">
-        <v>0.969558</v>
+        <v>0.967171</v>
       </c>
       <c r="D104" t="n">
-        <v>0.971645</v>
+        <v>0.971552</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.917255</v>
+        <v>0.906478</v>
       </c>
       <c r="C105" t="n">
-        <v>0.958875</v>
+        <v>0.954847</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9614</v>
+        <v>0.9582310000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9131359999999999</v>
+        <v>0.900625</v>
       </c>
       <c r="C106" t="n">
-        <v>0.950563</v>
+        <v>0.944485</v>
       </c>
       <c r="D106" t="n">
-        <v>0.951192</v>
+        <v>0.947248</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.910631</v>
+        <v>0.8968120000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.940442</v>
+        <v>0.936452</v>
       </c>
       <c r="D107" t="n">
-        <v>0.943491</v>
+        <v>0.93834</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.909548</v>
+        <v>0.897135</v>
       </c>
       <c r="C108" t="n">
-        <v>0.934381</v>
+        <v>0.931164</v>
       </c>
       <c r="D108" t="n">
-        <v>1.22058</v>
+        <v>1.222</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.91181</v>
+        <v>0.901829</v>
       </c>
       <c r="C109" t="n">
-        <v>0.931167</v>
+        <v>0.929117</v>
       </c>
       <c r="D109" t="n">
-        <v>1.23417</v>
+        <v>1.23386</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.11899</v>
+        <v>1.11236</v>
       </c>
       <c r="C110" t="n">
-        <v>1.21385</v>
+        <v>1.21198</v>
       </c>
       <c r="D110" t="n">
-        <v>1.23607</v>
+        <v>1.23369</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.12163</v>
+        <v>1.11524</v>
       </c>
       <c r="C111" t="n">
-        <v>1.21685</v>
+        <v>1.21531</v>
       </c>
       <c r="D111" t="n">
-        <v>1.2344</v>
+        <v>1.23272</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.12577</v>
+        <v>1.11729</v>
       </c>
       <c r="C112" t="n">
-        <v>1.21797</v>
+        <v>1.21543</v>
       </c>
       <c r="D112" t="n">
-        <v>1.23513</v>
+        <v>1.2311</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.12979</v>
+        <v>1.12101</v>
       </c>
       <c r="C113" t="n">
-        <v>1.21577</v>
+        <v>1.21576</v>
       </c>
       <c r="D113" t="n">
-        <v>1.2325</v>
+        <v>1.22976</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.13329</v>
+        <v>1.1228</v>
       </c>
       <c r="C114" t="n">
-        <v>1.21999</v>
+        <v>1.21587</v>
       </c>
       <c r="D114" t="n">
-        <v>1.23132</v>
+        <v>1.22917</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13521</v>
+        <v>1.126</v>
       </c>
       <c r="C115" t="n">
-        <v>1.22007</v>
+        <v>1.21641</v>
       </c>
       <c r="D115" t="n">
-        <v>1.23189</v>
+        <v>1.22701</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13693</v>
+        <v>1.12739</v>
       </c>
       <c r="C116" t="n">
-        <v>1.21981</v>
+        <v>1.21815</v>
       </c>
       <c r="D116" t="n">
-        <v>1.23071</v>
+        <v>1.22696</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.13936</v>
+        <v>1.1295</v>
       </c>
       <c r="C117" t="n">
-        <v>1.22185</v>
+        <v>1.2173</v>
       </c>
       <c r="D117" t="n">
-        <v>1.22852</v>
+        <v>1.2258</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.141</v>
+        <v>1.13391</v>
       </c>
       <c r="C118" t="n">
-        <v>1.22326</v>
+        <v>1.21841</v>
       </c>
       <c r="D118" t="n">
-        <v>1.22741</v>
+        <v>1.22435</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.1455</v>
+        <v>1.1353</v>
       </c>
       <c r="C119" t="n">
-        <v>1.22268</v>
+        <v>1.22054</v>
       </c>
       <c r="D119" t="n">
-        <v>1.22638</v>
+        <v>1.22409</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.15027</v>
+        <v>1.14179</v>
       </c>
       <c r="C120" t="n">
-        <v>1.22295</v>
+        <v>1.2217</v>
       </c>
       <c r="D120" t="n">
-        <v>1.22483</v>
+        <v>1.22306</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.15349</v>
+        <v>1.14786</v>
       </c>
       <c r="C121" t="n">
-        <v>1.2248</v>
+        <v>1.22315</v>
       </c>
       <c r="D121" t="n">
-        <v>1.2238</v>
+        <v>1.22339</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.16381</v>
+        <v>1.15517</v>
       </c>
       <c r="C122" t="n">
-        <v>1.22799</v>
+        <v>1.22519</v>
       </c>
       <c r="D122" t="n">
-        <v>1.22474</v>
+        <v>1.22318</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.17515</v>
+        <v>1.16575</v>
       </c>
       <c r="C123" t="n">
-        <v>1.23233</v>
+        <v>1.23074</v>
       </c>
       <c r="D123" t="n">
-        <v>1.52094</v>
+        <v>1.52178</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.37836</v>
+        <v>1.37065</v>
       </c>
       <c r="C124" t="n">
-        <v>1.51323</v>
+        <v>1.51151</v>
       </c>
       <c r="D124" t="n">
-        <v>1.52536</v>
+        <v>1.52668</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.38032</v>
+        <v>1.37361</v>
       </c>
       <c r="C125" t="n">
-        <v>1.51888</v>
+        <v>1.51896</v>
       </c>
       <c r="D125" t="n">
-        <v>1.53206</v>
+        <v>1.53287</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.38103</v>
+        <v>1.37473</v>
       </c>
       <c r="C126" t="n">
-        <v>1.5238</v>
+        <v>1.52463</v>
       </c>
       <c r="D126" t="n">
-        <v>1.53811</v>
+        <v>1.53857</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.38167</v>
+        <v>1.37565</v>
       </c>
       <c r="C127" t="n">
-        <v>1.53024</v>
+        <v>1.53064</v>
       </c>
       <c r="D127" t="n">
-        <v>1.54132</v>
+        <v>1.54243</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.38331</v>
+        <v>1.37752</v>
       </c>
       <c r="C128" t="n">
-        <v>1.53479</v>
+        <v>1.53545</v>
       </c>
       <c r="D128" t="n">
-        <v>1.54686</v>
+        <v>1.54701</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.38541</v>
+        <v>1.37933</v>
       </c>
       <c r="C129" t="n">
-        <v>1.54375</v>
+        <v>1.53955</v>
       </c>
       <c r="D129" t="n">
-        <v>1.55164</v>
+        <v>1.55274</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.38722</v>
+        <v>1.38023</v>
       </c>
       <c r="C130" t="n">
-        <v>1.54724</v>
+        <v>1.54572</v>
       </c>
       <c r="D130" t="n">
-        <v>1.55707</v>
+        <v>1.55611</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.38938</v>
+        <v>1.38467</v>
       </c>
       <c r="C131" t="n">
-        <v>1.55199</v>
+        <v>1.54983</v>
       </c>
       <c r="D131" t="n">
-        <v>1.56161</v>
+        <v>1.56078</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.39185</v>
+        <v>1.38647</v>
       </c>
       <c r="C132" t="n">
-        <v>1.55763</v>
+        <v>1.55428</v>
       </c>
       <c r="D132" t="n">
-        <v>1.56475</v>
+        <v>1.56471</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.39867</v>
+        <v>1.39082</v>
       </c>
       <c r="C133" t="n">
-        <v>1.56525</v>
+        <v>1.56108</v>
       </c>
       <c r="D133" t="n">
-        <v>1.56901</v>
+        <v>1.56937</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.40309</v>
+        <v>1.39485</v>
       </c>
       <c r="C134" t="n">
-        <v>1.56711</v>
+        <v>1.56696</v>
       </c>
       <c r="D134" t="n">
-        <v>1.57311</v>
+        <v>1.57465</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40728</v>
+        <v>1.40187</v>
       </c>
       <c r="C135" t="n">
-        <v>1.58368</v>
+        <v>1.57609</v>
       </c>
       <c r="D135" t="n">
-        <v>1.58046</v>
+        <v>1.58281</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.41618</v>
+        <v>1.41195</v>
       </c>
       <c r="C136" t="n">
-        <v>1.58793</v>
+        <v>1.58651</v>
       </c>
       <c r="D136" t="n">
-        <v>1.58851</v>
+        <v>1.58749</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.42836</v>
+        <v>1.42231</v>
       </c>
       <c r="C137" t="n">
-        <v>1.60632</v>
+        <v>1.59745</v>
       </c>
       <c r="D137" t="n">
-        <v>1.88022</v>
+        <v>1.88086</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.63845</v>
+        <v>1.63366</v>
       </c>
       <c r="C138" t="n">
-        <v>1.88213</v>
+        <v>1.87543</v>
       </c>
       <c r="D138" t="n">
-        <v>1.89167</v>
+        <v>1.89024</v>
       </c>
     </row>
     <row r="139">
@@ -5166,10 +5166,10 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.63509</v>
+        <v>1.62778</v>
       </c>
       <c r="C139" t="n">
-        <v>1.88971</v>
+        <v>1.88326</v>
       </c>
       <c r="D139" t="n">
         <v>1.90069</v>
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.63096</v>
+        <v>1.62509</v>
       </c>
       <c r="C140" t="n">
-        <v>1.89875</v>
+        <v>1.88969</v>
       </c>
       <c r="D140" t="n">
-        <v>1.90783</v>
+        <v>1.90917</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.62674</v>
+        <v>1.62253</v>
       </c>
       <c r="C141" t="n">
-        <v>1.90604</v>
+        <v>1.89981</v>
       </c>
       <c r="D141" t="n">
-        <v>1.91716</v>
+        <v>1.92022</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.62535</v>
+        <v>1.62095</v>
       </c>
       <c r="C142" t="n">
-        <v>1.91572</v>
+        <v>1.90559</v>
       </c>
       <c r="D142" t="n">
-        <v>1.92468</v>
+        <v>1.92521</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.62404</v>
+        <v>1.61804</v>
       </c>
       <c r="C143" t="n">
-        <v>1.92303</v>
+        <v>1.91674</v>
       </c>
       <c r="D143" t="n">
-        <v>1.93138</v>
+        <v>1.93364</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.670482</v>
+        <v>0.696319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.705217</v>
+        <v>0.703264</v>
       </c>
       <c r="D2" t="n">
-        <v>0.719372</v>
+        <v>0.710641</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.660066</v>
+        <v>0.684226</v>
       </c>
       <c r="C3" t="n">
-        <v>0.690079</v>
+        <v>0.687239</v>
       </c>
       <c r="D3" t="n">
-        <v>0.704525</v>
+        <v>0.695064</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.651351</v>
+        <v>0.677051</v>
       </c>
       <c r="C4" t="n">
-        <v>0.676309</v>
+        <v>0.675143</v>
       </c>
       <c r="D4" t="n">
-        <v>0.691927</v>
+        <v>0.6831700000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.643293</v>
+        <v>0.67021</v>
       </c>
       <c r="C5" t="n">
-        <v>0.664029</v>
+        <v>0.663725</v>
       </c>
       <c r="D5" t="n">
-        <v>0.679831</v>
+        <v>0.672619</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.636413</v>
+        <v>0.663757</v>
       </c>
       <c r="C6" t="n">
-        <v>0.652379</v>
+        <v>0.651572</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6694</v>
+        <v>0.661458</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.632001</v>
+        <v>0.660538</v>
       </c>
       <c r="C7" t="n">
-        <v>0.642696</v>
+        <v>0.641865</v>
       </c>
       <c r="D7" t="n">
-        <v>0.661012</v>
+        <v>0.65326</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.631394</v>
+        <v>0.661087</v>
       </c>
       <c r="C8" t="n">
-        <v>0.635783</v>
+        <v>0.634876</v>
       </c>
       <c r="D8" t="n">
-        <v>0.656955</v>
+        <v>0.648593</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.635256</v>
+        <v>0.666813</v>
       </c>
       <c r="C9" t="n">
-        <v>0.632654</v>
+        <v>0.631278</v>
       </c>
       <c r="D9" t="n">
-        <v>0.866591</v>
+        <v>0.856887</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.764009</v>
+        <v>0.793849</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8338100000000001</v>
+        <v>0.830477</v>
       </c>
       <c r="D10" t="n">
-        <v>0.844276</v>
+        <v>0.835755</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.747098</v>
+        <v>0.776174</v>
       </c>
       <c r="C11" t="n">
-        <v>0.812601</v>
+        <v>0.809343</v>
       </c>
       <c r="D11" t="n">
-        <v>0.823665</v>
+        <v>0.814649</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.732501</v>
+        <v>0.7610130000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.792339</v>
+        <v>0.790569</v>
       </c>
       <c r="D12" t="n">
-        <v>0.804628</v>
+        <v>0.796211</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.717201</v>
+        <v>0.744996</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7729279999999999</v>
+        <v>0.771205</v>
       </c>
       <c r="D13" t="n">
-        <v>0.785841</v>
+        <v>0.77667</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.703802</v>
+        <v>0.731213</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7542219999999999</v>
+        <v>0.753725</v>
       </c>
       <c r="D14" t="n">
-        <v>0.768108</v>
+        <v>0.759491</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.691157</v>
+        <v>0.718024</v>
       </c>
       <c r="C15" t="n">
-        <v>0.736997</v>
+        <v>0.737175</v>
       </c>
       <c r="D15" t="n">
-        <v>0.751864</v>
+        <v>0.743517</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.679687</v>
+        <v>0.705393</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7206129999999999</v>
+        <v>0.721153</v>
       </c>
       <c r="D16" t="n">
-        <v>0.73634</v>
+        <v>0.72739</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.668919</v>
+        <v>0.694</v>
       </c>
       <c r="C17" t="n">
-        <v>0.705228</v>
+        <v>0.7060999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.721601</v>
+        <v>0.713069</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.659617</v>
+        <v>0.684281</v>
       </c>
       <c r="C18" t="n">
-        <v>0.69081</v>
+        <v>0.692011</v>
       </c>
       <c r="D18" t="n">
-        <v>0.708179</v>
+        <v>0.699399</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.652095</v>
+        <v>0.676826</v>
       </c>
       <c r="C19" t="n">
-        <v>0.678015</v>
+        <v>0.679706</v>
       </c>
       <c r="D19" t="n">
-        <v>0.69622</v>
+        <v>0.687326</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.64542</v>
+        <v>0.670111</v>
       </c>
       <c r="C20" t="n">
-        <v>0.665958</v>
+        <v>0.66674</v>
       </c>
       <c r="D20" t="n">
-        <v>0.684711</v>
+        <v>0.675407</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.641447</v>
+        <v>0.665903</v>
       </c>
       <c r="C21" t="n">
-        <v>0.655465</v>
+        <v>0.655827</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6754019999999999</v>
+        <v>0.6660199999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.639244</v>
+        <v>0.663847</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6475</v>
+        <v>0.647208</v>
       </c>
       <c r="D22" t="n">
-        <v>0.669126</v>
+        <v>0.659714</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.640445</v>
+        <v>0.66547</v>
       </c>
       <c r="C23" t="n">
-        <v>0.642234</v>
+        <v>0.6401559999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.929799</v>
+        <v>0.919521</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8083900000000001</v>
+        <v>0.833558</v>
       </c>
       <c r="C24" t="n">
-        <v>0.877822</v>
+        <v>0.875013</v>
       </c>
       <c r="D24" t="n">
-        <v>0.906185</v>
+        <v>0.8960090000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.791013</v>
+        <v>0.814454</v>
       </c>
       <c r="C25" t="n">
-        <v>0.854621</v>
+        <v>0.852702</v>
       </c>
       <c r="D25" t="n">
-        <v>0.882773</v>
+        <v>0.872708</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.773329</v>
+        <v>0.796632</v>
       </c>
       <c r="C26" t="n">
-        <v>0.832655</v>
+        <v>0.831462</v>
       </c>
       <c r="D26" t="n">
-        <v>0.86078</v>
+        <v>0.850945</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.756515</v>
+        <v>0.779903</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8116370000000001</v>
+        <v>0.811051</v>
       </c>
       <c r="D27" t="n">
-        <v>0.839398</v>
+        <v>0.830222</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.741962</v>
+        <v>0.7643259999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.792269</v>
+        <v>0.79205</v>
       </c>
       <c r="D28" t="n">
-        <v>0.819877</v>
+        <v>0.810678</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.72665</v>
+        <v>0.749614</v>
       </c>
       <c r="C29" t="n">
-        <v>0.773915</v>
+        <v>0.773081</v>
       </c>
       <c r="D29" t="n">
-        <v>0.801025</v>
+        <v>0.791953</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.713493</v>
+        <v>0.735901</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7562179999999999</v>
+        <v>0.7559360000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.783543</v>
+        <v>0.774328</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.701429</v>
+        <v>0.723241</v>
       </c>
       <c r="C31" t="n">
-        <v>0.739144</v>
+        <v>0.739291</v>
       </c>
       <c r="D31" t="n">
-        <v>0.766853</v>
+        <v>0.75757</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.68998</v>
+        <v>0.712394</v>
       </c>
       <c r="C32" t="n">
-        <v>0.724012</v>
+        <v>0.724132</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7518359999999999</v>
+        <v>0.742555</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.680982</v>
+        <v>0.702835</v>
       </c>
       <c r="C33" t="n">
-        <v>0.70953</v>
+        <v>0.7098370000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.738086</v>
+        <v>0.728612</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.672938</v>
+        <v>0.695315</v>
       </c>
       <c r="C34" t="n">
-        <v>0.69651</v>
+        <v>0.696442</v>
       </c>
       <c r="D34" t="n">
-        <v>0.725786</v>
+        <v>0.715626</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.666667</v>
+        <v>0.68964</v>
       </c>
       <c r="C35" t="n">
-        <v>0.684704</v>
+        <v>0.684619</v>
       </c>
       <c r="D35" t="n">
-        <v>0.714829</v>
+        <v>0.70468</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.664193</v>
+        <v>0.686261</v>
       </c>
       <c r="C36" t="n">
-        <v>0.675202</v>
+        <v>0.674287</v>
       </c>
       <c r="D36" t="n">
-        <v>0.706508</v>
+        <v>0.695994</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.664108</v>
+        <v>0.68668</v>
       </c>
       <c r="C37" t="n">
-        <v>0.668314</v>
+        <v>0.666463</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9513470000000001</v>
+        <v>0.940463</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.841325</v>
+        <v>0.863942</v>
       </c>
       <c r="C38" t="n">
-        <v>0.910536</v>
+        <v>0.907761</v>
       </c>
       <c r="D38" t="n">
-        <v>0.927222</v>
+        <v>0.916642</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.822839</v>
+        <v>0.845005</v>
       </c>
       <c r="C39" t="n">
-        <v>0.888404</v>
+        <v>0.885593</v>
       </c>
       <c r="D39" t="n">
-        <v>0.904428</v>
+        <v>0.893852</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.804558</v>
+        <v>0.826101</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8648</v>
+        <v>0.863162</v>
       </c>
       <c r="D40" t="n">
-        <v>0.882045</v>
+        <v>0.870981</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.786585</v>
+        <v>0.808131</v>
       </c>
       <c r="C41" t="n">
-        <v>0.843397</v>
+        <v>0.84182</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8603769999999999</v>
+        <v>0.8501649999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.770124</v>
+        <v>0.791425</v>
       </c>
       <c r="C42" t="n">
-        <v>0.824012</v>
+        <v>0.822038</v>
       </c>
       <c r="D42" t="n">
-        <v>0.841087</v>
+        <v>0.830307</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.75482</v>
+        <v>0.775598</v>
       </c>
       <c r="C43" t="n">
-        <v>0.803812</v>
+        <v>0.802513</v>
       </c>
       <c r="D43" t="n">
-        <v>0.821886</v>
+        <v>0.810948</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7410060000000001</v>
+        <v>0.761171</v>
       </c>
       <c r="C44" t="n">
-        <v>0.78543</v>
+        <v>0.784655</v>
       </c>
       <c r="D44" t="n">
-        <v>0.804141</v>
+        <v>0.793203</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.727872</v>
+        <v>0.747893</v>
       </c>
       <c r="C45" t="n">
-        <v>0.767826</v>
+        <v>0.767211</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7875799999999999</v>
+        <v>0.776686</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.715653</v>
+        <v>0.735827</v>
       </c>
       <c r="C46" t="n">
-        <v>0.752205</v>
+        <v>0.7511060000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7718469999999999</v>
+        <v>0.7611329999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.705438</v>
+        <v>0.724923</v>
       </c>
       <c r="C47" t="n">
-        <v>0.736532</v>
+        <v>0.735487</v>
       </c>
       <c r="D47" t="n">
-        <v>0.757358</v>
+        <v>0.746769</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.696398</v>
+        <v>0.715695</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7228520000000001</v>
+        <v>0.721351</v>
       </c>
       <c r="D48" t="n">
-        <v>0.744367</v>
+        <v>0.733532</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.689683</v>
+        <v>0.708979</v>
       </c>
       <c r="C49" t="n">
-        <v>0.710793</v>
+        <v>0.708835</v>
       </c>
       <c r="D49" t="n">
-        <v>0.732967</v>
+        <v>0.722222</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.68519</v>
+        <v>0.70362</v>
       </c>
       <c r="C50" t="n">
-        <v>0.699748</v>
+        <v>0.6979649999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.723222</v>
+        <v>0.712896</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.68332</v>
+        <v>0.7027139999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.691466</v>
+        <v>0.6892160000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.975714</v>
+        <v>0.963803</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.68575</v>
+        <v>0.704946</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6855869999999999</v>
+        <v>0.684401</v>
       </c>
       <c r="D52" t="n">
-        <v>0.951756</v>
+        <v>0.9405480000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.849186</v>
+        <v>0.867425</v>
       </c>
       <c r="C53" t="n">
-        <v>0.915009</v>
+        <v>0.910637</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9290929999999999</v>
+        <v>0.91667</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.830337</v>
+        <v>0.848515</v>
       </c>
       <c r="C54" t="n">
-        <v>0.892397</v>
+        <v>0.8878549999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.906788</v>
+        <v>0.8947619999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.812542</v>
+        <v>0.830353</v>
       </c>
       <c r="C55" t="n">
-        <v>0.870678</v>
+        <v>0.866244</v>
       </c>
       <c r="D55" t="n">
-        <v>0.885752</v>
+        <v>0.873802</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.79612</v>
+        <v>0.813451</v>
       </c>
       <c r="C56" t="n">
-        <v>0.849494</v>
+        <v>0.846221</v>
       </c>
       <c r="D56" t="n">
-        <v>0.865211</v>
+        <v>0.854155</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.780263</v>
+        <v>0.797802</v>
       </c>
       <c r="C57" t="n">
-        <v>0.830966</v>
+        <v>0.827615</v>
       </c>
       <c r="D57" t="n">
-        <v>0.84639</v>
+        <v>0.83531</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7651829999999999</v>
+        <v>0.782881</v>
       </c>
       <c r="C58" t="n">
-        <v>0.812501</v>
+        <v>0.809375</v>
       </c>
       <c r="D58" t="n">
-        <v>0.827748</v>
+        <v>0.81791</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.751775</v>
+        <v>0.768262</v>
       </c>
       <c r="C59" t="n">
-        <v>0.795295</v>
+        <v>0.792647</v>
       </c>
       <c r="D59" t="n">
-        <v>0.812694</v>
+        <v>0.8015409999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.739849</v>
+        <v>0.7575539999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.778076</v>
+        <v>0.777201</v>
       </c>
       <c r="D60" t="n">
-        <v>0.796573</v>
+        <v>0.786269</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.728132</v>
+        <v>0.745992</v>
       </c>
       <c r="C61" t="n">
-        <v>0.761912</v>
+        <v>0.761279</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7827190000000001</v>
+        <v>0.771391</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.718418</v>
+        <v>0.737274</v>
       </c>
       <c r="C62" t="n">
-        <v>0.750027</v>
+        <v>0.747522</v>
       </c>
       <c r="D62" t="n">
-        <v>0.769853</v>
+        <v>0.757799</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.711875</v>
+        <v>0.729662</v>
       </c>
       <c r="C63" t="n">
-        <v>0.737622</v>
+        <v>0.734504</v>
       </c>
       <c r="D63" t="n">
-        <v>0.758499</v>
+        <v>0.747132</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.706606</v>
+        <v>0.723823</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7260450000000001</v>
+        <v>0.72357</v>
       </c>
       <c r="D64" t="n">
-        <v>0.748497</v>
+        <v>0.736834</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.703911</v>
+        <v>0.7221109999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.717286</v>
+        <v>0.712773</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7410639999999999</v>
+        <v>0.729164</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.705373</v>
+        <v>0.721746</v>
       </c>
       <c r="C66" t="n">
-        <v>0.710985</v>
+        <v>0.705915</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9804040000000001</v>
+        <v>0.969791</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.872915</v>
+        <v>0.889393</v>
       </c>
       <c r="C67" t="n">
-        <v>0.94886</v>
+        <v>0.943191</v>
       </c>
       <c r="D67" t="n">
-        <v>0.958046</v>
+        <v>0.945801</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.854944</v>
+        <v>0.8705079999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.927223</v>
+        <v>0.919273</v>
       </c>
       <c r="D68" t="n">
-        <v>0.936252</v>
+        <v>0.924194</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.836965</v>
+        <v>0.852877</v>
       </c>
       <c r="C69" t="n">
-        <v>0.90604</v>
+        <v>0.90037</v>
       </c>
       <c r="D69" t="n">
-        <v>0.91582</v>
+        <v>0.904007</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.819785</v>
+        <v>0.835751</v>
       </c>
       <c r="C70" t="n">
-        <v>0.884684</v>
+        <v>0.879377</v>
       </c>
       <c r="D70" t="n">
-        <v>0.895129</v>
+        <v>0.882775</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.803413</v>
+        <v>0.820375</v>
       </c>
       <c r="C71" t="n">
-        <v>0.863353</v>
+        <v>0.8586279999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.876043</v>
+        <v>0.864165</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.788751</v>
+        <v>0.804623</v>
       </c>
       <c r="C72" t="n">
-        <v>0.846817</v>
+        <v>0.839615</v>
       </c>
       <c r="D72" t="n">
-        <v>0.858309</v>
+        <v>0.846616</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.773954</v>
+        <v>0.791215</v>
       </c>
       <c r="C73" t="n">
-        <v>0.827932</v>
+        <v>0.821897</v>
       </c>
       <c r="D73" t="n">
-        <v>0.841888</v>
+        <v>0.829277</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.761458</v>
+        <v>0.7784450000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.809632</v>
+        <v>0.805627</v>
       </c>
       <c r="D74" t="n">
-        <v>0.825125</v>
+        <v>0.814295</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.750284</v>
+        <v>0.76678</v>
       </c>
       <c r="C75" t="n">
-        <v>0.794651</v>
+        <v>0.790605</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8111660000000001</v>
+        <v>0.798759</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.741299</v>
+        <v>0.756169</v>
       </c>
       <c r="C76" t="n">
-        <v>0.781957</v>
+        <v>0.776484</v>
       </c>
       <c r="D76" t="n">
-        <v>0.79798</v>
+        <v>0.786424</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.733663</v>
+        <v>0.749983</v>
       </c>
       <c r="C77" t="n">
-        <v>0.769329</v>
+        <v>0.7629359999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.78667</v>
+        <v>0.775686</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.727617</v>
+        <v>0.744343</v>
       </c>
       <c r="C78" t="n">
-        <v>0.757729</v>
+        <v>0.752684</v>
       </c>
       <c r="D78" t="n">
-        <v>0.776697</v>
+        <v>0.76569</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.724566</v>
+        <v>0.741414</v>
       </c>
       <c r="C79" t="n">
-        <v>0.748013</v>
+        <v>0.741684</v>
       </c>
       <c r="D79" t="n">
-        <v>0.768306</v>
+        <v>0.7573</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.725118</v>
+        <v>0.741913</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7401759999999999</v>
+        <v>0.733191</v>
       </c>
       <c r="D80" t="n">
-        <v>1.03429</v>
+        <v>1.02303</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.923593</v>
+        <v>0.939089</v>
       </c>
       <c r="C81" t="n">
-        <v>1.00052</v>
+        <v>0.993186</v>
       </c>
       <c r="D81" t="n">
-        <v>1.01257</v>
+        <v>0.99959</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.910586</v>
+        <v>0.924553</v>
       </c>
       <c r="C82" t="n">
-        <v>0.980518</v>
+        <v>0.970849</v>
       </c>
       <c r="D82" t="n">
-        <v>0.991179</v>
+        <v>0.977227</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.895607</v>
+        <v>0.90826</v>
       </c>
       <c r="C83" t="n">
-        <v>0.960272</v>
+        <v>0.9502890000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.970051</v>
+        <v>0.95608</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.879506</v>
+        <v>0.892416</v>
       </c>
       <c r="C84" t="n">
-        <v>0.939714</v>
+        <v>0.9299230000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.948651</v>
+        <v>0.935488</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.864015</v>
+        <v>0.875728</v>
       </c>
       <c r="C85" t="n">
-        <v>0.919238</v>
+        <v>0.91045</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9289500000000001</v>
+        <v>0.9162670000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.847568</v>
+        <v>0.861096</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8999819999999999</v>
+        <v>0.891198</v>
       </c>
       <c r="D86" t="n">
-        <v>0.909694</v>
+        <v>0.896661</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.83345</v>
+        <v>0.846156</v>
       </c>
       <c r="C87" t="n">
-        <v>0.88175</v>
+        <v>0.873111</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8920129999999999</v>
+        <v>0.878224</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.820009</v>
+        <v>0.83192</v>
       </c>
       <c r="C88" t="n">
-        <v>0.864138</v>
+        <v>0.8544929999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.874707</v>
+        <v>0.861115</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.806854</v>
+        <v>0.819088</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8469989999999999</v>
+        <v>0.839087</v>
       </c>
       <c r="D89" t="n">
-        <v>0.859372</v>
+        <v>0.8456129999999999</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.795666</v>
+        <v>0.807859</v>
       </c>
       <c r="C90" t="n">
-        <v>0.832946</v>
+        <v>0.823501</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8451419999999999</v>
+        <v>0.8305360000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.784726</v>
+        <v>0.7969580000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8192390000000001</v>
+        <v>0.809432</v>
       </c>
       <c r="D91" t="n">
-        <v>0.831712</v>
+        <v>0.817839</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.777801</v>
+        <v>0.790144</v>
       </c>
       <c r="C92" t="n">
-        <v>0.806553</v>
+        <v>0.797191</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8199880000000001</v>
+        <v>0.806626</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.773066</v>
+        <v>0.783092</v>
       </c>
       <c r="C93" t="n">
-        <v>0.796027</v>
+        <v>0.783896</v>
       </c>
       <c r="D93" t="n">
-        <v>0.811795</v>
+        <v>0.796133</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.771228</v>
+        <v>0.783273</v>
       </c>
       <c r="C94" t="n">
-        <v>0.788008</v>
+        <v>0.77601</v>
       </c>
       <c r="D94" t="n">
-        <v>1.09344</v>
+        <v>1.07473</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.972876</v>
+        <v>0.984783</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05402</v>
+        <v>1.04006</v>
       </c>
       <c r="D95" t="n">
-        <v>1.08959</v>
+        <v>1.06395</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.977765</v>
+        <v>0.988604</v>
       </c>
       <c r="C96" t="n">
-        <v>1.05707</v>
+        <v>1.03508</v>
       </c>
       <c r="D96" t="n">
-        <v>1.08023</v>
+        <v>1.04915</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.976267</v>
+        <v>0.984119</v>
       </c>
       <c r="C97" t="n">
-        <v>1.0502</v>
+        <v>1.02329</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06826</v>
+        <v>1.03374</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.96923</v>
+        <v>0.977168</v>
       </c>
       <c r="C98" t="n">
-        <v>1.03987</v>
+        <v>1.00794</v>
       </c>
       <c r="D98" t="n">
-        <v>1.05431</v>
+        <v>1.01653</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.96122</v>
+        <v>0.967456</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02774</v>
+        <v>0.99302</v>
       </c>
       <c r="D99" t="n">
-        <v>1.0397</v>
+        <v>0.999274</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.951672</v>
+        <v>0.956307</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01548</v>
+        <v>0.977631</v>
       </c>
       <c r="D100" t="n">
-        <v>1.0246</v>
+        <v>0.982024</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.941284</v>
+        <v>0.945746</v>
       </c>
       <c r="C101" t="n">
-        <v>1.00215</v>
+        <v>0.962652</v>
       </c>
       <c r="D101" t="n">
-        <v>1.00901</v>
+        <v>0.9677</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.931181</v>
+        <v>0.935676</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9897</v>
+        <v>0.948899</v>
       </c>
       <c r="D102" t="n">
-        <v>0.995995</v>
+        <v>0.952799</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.923226</v>
+        <v>0.92674</v>
       </c>
       <c r="C103" t="n">
-        <v>0.978104</v>
+        <v>0.934953</v>
       </c>
       <c r="D103" t="n">
-        <v>0.982257</v>
+        <v>0.938599</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.914701</v>
+        <v>0.9166069999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.967171</v>
+        <v>0.9219810000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.971552</v>
+        <v>0.92334</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.906478</v>
+        <v>0.907996</v>
       </c>
       <c r="C105" t="n">
-        <v>0.954847</v>
+        <v>0.910561</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9582310000000001</v>
+        <v>0.913007</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.900625</v>
+        <v>0.904358</v>
       </c>
       <c r="C106" t="n">
-        <v>0.944485</v>
+        <v>0.90052</v>
       </c>
       <c r="D106" t="n">
-        <v>0.947248</v>
+        <v>0.901959</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8968120000000001</v>
+        <v>0.899427</v>
       </c>
       <c r="C107" t="n">
-        <v>0.936452</v>
+        <v>0.889423</v>
       </c>
       <c r="D107" t="n">
-        <v>0.93834</v>
+        <v>0.893552</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.897135</v>
+        <v>0.899285</v>
       </c>
       <c r="C108" t="n">
-        <v>0.931164</v>
+        <v>0.88247</v>
       </c>
       <c r="D108" t="n">
-        <v>1.222</v>
+        <v>1.1705</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.901829</v>
+        <v>0.899803</v>
       </c>
       <c r="C109" t="n">
-        <v>0.929117</v>
+        <v>0.876172</v>
       </c>
       <c r="D109" t="n">
-        <v>1.23386</v>
+        <v>1.16801</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.11236</v>
+        <v>1.10532</v>
       </c>
       <c r="C110" t="n">
-        <v>1.21198</v>
+        <v>1.14588</v>
       </c>
       <c r="D110" t="n">
-        <v>1.23369</v>
+        <v>1.15572</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.11524</v>
+        <v>1.1065</v>
       </c>
       <c r="C111" t="n">
-        <v>1.21531</v>
+        <v>1.13616</v>
       </c>
       <c r="D111" t="n">
-        <v>1.23272</v>
+        <v>1.14376</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.11729</v>
+        <v>1.10785</v>
       </c>
       <c r="C112" t="n">
-        <v>1.21543</v>
+        <v>1.12621</v>
       </c>
       <c r="D112" t="n">
-        <v>1.2311</v>
+        <v>1.13213</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.12101</v>
+        <v>1.10528</v>
       </c>
       <c r="C113" t="n">
-        <v>1.21576</v>
+        <v>1.11467</v>
       </c>
       <c r="D113" t="n">
-        <v>1.22976</v>
+        <v>1.12048</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.1228</v>
+        <v>1.10519</v>
       </c>
       <c r="C114" t="n">
-        <v>1.21587</v>
+        <v>1.10635</v>
       </c>
       <c r="D114" t="n">
-        <v>1.22917</v>
+        <v>1.10985</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.126</v>
+        <v>1.1055</v>
       </c>
       <c r="C115" t="n">
-        <v>1.21641</v>
+        <v>1.0967</v>
       </c>
       <c r="D115" t="n">
-        <v>1.22701</v>
+        <v>1.10058</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12739</v>
+        <v>1.10548</v>
       </c>
       <c r="C116" t="n">
-        <v>1.21815</v>
+        <v>1.08757</v>
       </c>
       <c r="D116" t="n">
-        <v>1.22696</v>
+        <v>1.09028</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.1295</v>
+        <v>1.10561</v>
       </c>
       <c r="C117" t="n">
-        <v>1.2173</v>
+        <v>1.07963</v>
       </c>
       <c r="D117" t="n">
-        <v>1.2258</v>
+        <v>1.08226</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13391</v>
+        <v>1.10625</v>
       </c>
       <c r="C118" t="n">
-        <v>1.21841</v>
+        <v>1.07259</v>
       </c>
       <c r="D118" t="n">
-        <v>1.22435</v>
+        <v>1.07462</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.1353</v>
+        <v>1.10702</v>
       </c>
       <c r="C119" t="n">
-        <v>1.22054</v>
+        <v>1.06631</v>
       </c>
       <c r="D119" t="n">
-        <v>1.22409</v>
+        <v>1.06706</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.14179</v>
+        <v>1.11007</v>
       </c>
       <c r="C120" t="n">
-        <v>1.2217</v>
+        <v>1.06</v>
       </c>
       <c r="D120" t="n">
-        <v>1.22306</v>
+        <v>1.05938</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.14786</v>
+        <v>1.1118</v>
       </c>
       <c r="C121" t="n">
-        <v>1.22315</v>
+        <v>1.05549</v>
       </c>
       <c r="D121" t="n">
-        <v>1.22339</v>
+        <v>1.05511</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.15517</v>
+        <v>1.11791</v>
       </c>
       <c r="C122" t="n">
-        <v>1.22519</v>
+        <v>1.05237</v>
       </c>
       <c r="D122" t="n">
-        <v>1.22318</v>
+        <v>1.05202</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.16575</v>
+        <v>1.12554</v>
       </c>
       <c r="C123" t="n">
-        <v>1.23074</v>
+        <v>1.05013</v>
       </c>
       <c r="D123" t="n">
-        <v>1.52178</v>
+        <v>1.33213</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.37065</v>
+        <v>1.32848</v>
       </c>
       <c r="C124" t="n">
-        <v>1.51151</v>
+        <v>1.31936</v>
       </c>
       <c r="D124" t="n">
-        <v>1.52668</v>
+        <v>1.32329</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.37361</v>
+        <v>1.32825</v>
       </c>
       <c r="C125" t="n">
-        <v>1.51896</v>
+        <v>1.31401</v>
       </c>
       <c r="D125" t="n">
-        <v>1.53287</v>
+        <v>1.31804</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.37473</v>
+        <v>1.32879</v>
       </c>
       <c r="C126" t="n">
-        <v>1.52463</v>
+        <v>1.30765</v>
       </c>
       <c r="D126" t="n">
-        <v>1.53857</v>
+        <v>1.31088</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.37565</v>
+        <v>1.32842</v>
       </c>
       <c r="C127" t="n">
-        <v>1.53064</v>
+        <v>1.30275</v>
       </c>
       <c r="D127" t="n">
-        <v>1.54243</v>
+        <v>1.30657</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.37752</v>
+        <v>1.33075</v>
       </c>
       <c r="C128" t="n">
-        <v>1.53545</v>
+        <v>1.29787</v>
       </c>
       <c r="D128" t="n">
-        <v>1.54701</v>
+        <v>1.29988</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.37933</v>
+        <v>1.3311</v>
       </c>
       <c r="C129" t="n">
-        <v>1.53955</v>
+        <v>1.29353</v>
       </c>
       <c r="D129" t="n">
-        <v>1.55274</v>
+        <v>1.29488</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.38023</v>
+        <v>1.332</v>
       </c>
       <c r="C130" t="n">
-        <v>1.54572</v>
+        <v>1.28969</v>
       </c>
       <c r="D130" t="n">
-        <v>1.55611</v>
+        <v>1.29003</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.38467</v>
+        <v>1.33255</v>
       </c>
       <c r="C131" t="n">
-        <v>1.54983</v>
+        <v>1.28582</v>
       </c>
       <c r="D131" t="n">
-        <v>1.56078</v>
+        <v>1.28532</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.38647</v>
+        <v>1.33445</v>
       </c>
       <c r="C132" t="n">
-        <v>1.55428</v>
+        <v>1.28394</v>
       </c>
       <c r="D132" t="n">
-        <v>1.56471</v>
+        <v>1.28209</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.39082</v>
+        <v>1.33713</v>
       </c>
       <c r="C133" t="n">
-        <v>1.56108</v>
+        <v>1.27961</v>
       </c>
       <c r="D133" t="n">
-        <v>1.56937</v>
+        <v>1.27893</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.39485</v>
+        <v>1.33881</v>
       </c>
       <c r="C134" t="n">
-        <v>1.56696</v>
+        <v>1.27756</v>
       </c>
       <c r="D134" t="n">
-        <v>1.57465</v>
+        <v>1.27654</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40187</v>
+        <v>1.34281</v>
       </c>
       <c r="C135" t="n">
-        <v>1.57609</v>
+        <v>1.27673</v>
       </c>
       <c r="D135" t="n">
-        <v>1.58281</v>
+        <v>1.27454</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.41195</v>
+        <v>1.34927</v>
       </c>
       <c r="C136" t="n">
-        <v>1.58651</v>
+        <v>1.27539</v>
       </c>
       <c r="D136" t="n">
-        <v>1.58749</v>
+        <v>1.27242</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.42231</v>
+        <v>1.35927</v>
       </c>
       <c r="C137" t="n">
-        <v>1.59745</v>
+        <v>1.27686</v>
       </c>
       <c r="D137" t="n">
-        <v>1.88086</v>
+        <v>1.55164</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.63366</v>
+        <v>1.56666</v>
       </c>
       <c r="C138" t="n">
-        <v>1.87543</v>
+        <v>1.54454</v>
       </c>
       <c r="D138" t="n">
-        <v>1.89024</v>
+        <v>1.54705</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.62778</v>
+        <v>1.5647</v>
       </c>
       <c r="C139" t="n">
-        <v>1.88326</v>
+        <v>1.54209</v>
       </c>
       <c r="D139" t="n">
-        <v>1.90069</v>
+        <v>1.54496</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.62509</v>
+        <v>1.5621</v>
       </c>
       <c r="C140" t="n">
-        <v>1.88969</v>
+        <v>1.5399</v>
       </c>
       <c r="D140" t="n">
-        <v>1.90917</v>
+        <v>1.54185</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.62253</v>
+        <v>1.5593</v>
       </c>
       <c r="C141" t="n">
-        <v>1.89981</v>
+        <v>1.53704</v>
       </c>
       <c r="D141" t="n">
-        <v>1.92022</v>
+        <v>1.53811</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.62095</v>
+        <v>1.55752</v>
       </c>
       <c r="C142" t="n">
-        <v>1.90559</v>
+        <v>1.53569</v>
       </c>
       <c r="D142" t="n">
-        <v>1.92521</v>
+        <v>1.53528</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.61804</v>
+        <v>1.55629</v>
       </c>
       <c r="C143" t="n">
-        <v>1.91674</v>
+        <v>1.53457</v>
       </c>
       <c r="D143" t="n">
-        <v>1.93364</v>
+        <v>1.53286</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.696319</v>
+        <v>0.69442</v>
       </c>
       <c r="C2" t="n">
-        <v>0.703264</v>
+        <v>0.699515</v>
       </c>
       <c r="D2" t="n">
-        <v>0.710641</v>
+        <v>0.730531</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.684226</v>
+        <v>0.681827</v>
       </c>
       <c r="C3" t="n">
-        <v>0.687239</v>
+        <v>0.683034</v>
       </c>
       <c r="D3" t="n">
-        <v>0.695064</v>
+        <v>0.7145010000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.677051</v>
+        <v>0.674581</v>
       </c>
       <c r="C4" t="n">
-        <v>0.675143</v>
+        <v>0.6708150000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6831700000000001</v>
+        <v>0.702269</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.67021</v>
+        <v>0.667465</v>
       </c>
       <c r="C5" t="n">
-        <v>0.663725</v>
+        <v>0.659336</v>
       </c>
       <c r="D5" t="n">
-        <v>0.672619</v>
+        <v>0.691624</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.663757</v>
+        <v>0.660921</v>
       </c>
       <c r="C6" t="n">
-        <v>0.651572</v>
+        <v>0.647618</v>
       </c>
       <c r="D6" t="n">
-        <v>0.661458</v>
+        <v>0.680158</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.660538</v>
+        <v>0.657451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.641865</v>
+        <v>0.638133</v>
       </c>
       <c r="D7" t="n">
-        <v>0.65326</v>
+        <v>0.671913</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.661087</v>
+        <v>0.658008</v>
       </c>
       <c r="C8" t="n">
-        <v>0.634876</v>
+        <v>0.631285</v>
       </c>
       <c r="D8" t="n">
-        <v>0.648593</v>
+        <v>0.667014</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.666813</v>
+        <v>0.665194</v>
       </c>
       <c r="C9" t="n">
-        <v>0.631278</v>
+        <v>0.628009</v>
       </c>
       <c r="D9" t="n">
-        <v>0.856887</v>
+        <v>0.875613</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.793849</v>
+        <v>0.792314</v>
       </c>
       <c r="C10" t="n">
-        <v>0.830477</v>
+        <v>0.827527</v>
       </c>
       <c r="D10" t="n">
-        <v>0.835755</v>
+        <v>0.85351</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.776174</v>
+        <v>0.774318</v>
       </c>
       <c r="C11" t="n">
-        <v>0.809343</v>
+        <v>0.805878</v>
       </c>
       <c r="D11" t="n">
-        <v>0.814649</v>
+        <v>0.832404</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7610130000000001</v>
+        <v>0.7591869999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.790569</v>
+        <v>0.787096</v>
       </c>
       <c r="D12" t="n">
-        <v>0.796211</v>
+        <v>0.813903</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.744996</v>
+        <v>0.743362</v>
       </c>
       <c r="C13" t="n">
-        <v>0.771205</v>
+        <v>0.767715</v>
       </c>
       <c r="D13" t="n">
-        <v>0.77667</v>
+        <v>0.794841</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.731213</v>
+        <v>0.729396</v>
       </c>
       <c r="C14" t="n">
-        <v>0.753725</v>
+        <v>0.7502529999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.759491</v>
+        <v>0.777434</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.718024</v>
+        <v>0.716134</v>
       </c>
       <c r="C15" t="n">
-        <v>0.737175</v>
+        <v>0.7334619999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.743517</v>
+        <v>0.761242</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.705393</v>
+        <v>0.703775</v>
       </c>
       <c r="C16" t="n">
-        <v>0.721153</v>
+        <v>0.717589</v>
       </c>
       <c r="D16" t="n">
-        <v>0.72739</v>
+        <v>0.745776</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.694</v>
+        <v>0.6927410000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7060999999999999</v>
+        <v>0.702417</v>
       </c>
       <c r="D17" t="n">
-        <v>0.713069</v>
+        <v>0.730972</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.684281</v>
+        <v>0.682489</v>
       </c>
       <c r="C18" t="n">
-        <v>0.692011</v>
+        <v>0.6879420000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.699399</v>
+        <v>0.7172269999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.676826</v>
+        <v>0.675081</v>
       </c>
       <c r="C19" t="n">
-        <v>0.679706</v>
+        <v>0.675708</v>
       </c>
       <c r="D19" t="n">
-        <v>0.687326</v>
+        <v>0.705391</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.670111</v>
+        <v>0.668501</v>
       </c>
       <c r="C20" t="n">
-        <v>0.66674</v>
+        <v>0.662832</v>
       </c>
       <c r="D20" t="n">
-        <v>0.675407</v>
+        <v>0.693501</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.665903</v>
+        <v>0.6642980000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.655827</v>
+        <v>0.652066</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6660199999999999</v>
+        <v>0.684196</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.663847</v>
+        <v>0.662314</v>
       </c>
       <c r="C22" t="n">
-        <v>0.647208</v>
+        <v>0.643502</v>
       </c>
       <c r="D22" t="n">
-        <v>0.659714</v>
+        <v>0.677806</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.66547</v>
+        <v>0.663797</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6401559999999999</v>
+        <v>0.636752</v>
       </c>
       <c r="D23" t="n">
-        <v>0.919521</v>
+        <v>0.937046</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.833558</v>
+        <v>0.831448</v>
       </c>
       <c r="C24" t="n">
-        <v>0.875013</v>
+        <v>0.871186</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8960090000000001</v>
+        <v>0.913995</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.814454</v>
+        <v>0.812126</v>
       </c>
       <c r="C25" t="n">
-        <v>0.852702</v>
+        <v>0.848505</v>
       </c>
       <c r="D25" t="n">
-        <v>0.872708</v>
+        <v>0.890568</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.796632</v>
+        <v>0.794188</v>
       </c>
       <c r="C26" t="n">
-        <v>0.831462</v>
+        <v>0.827238</v>
       </c>
       <c r="D26" t="n">
-        <v>0.850945</v>
+        <v>0.868763</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.779903</v>
+        <v>0.777926</v>
       </c>
       <c r="C27" t="n">
-        <v>0.811051</v>
+        <v>0.806775</v>
       </c>
       <c r="D27" t="n">
-        <v>0.830222</v>
+        <v>0.848131</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7643259999999999</v>
+        <v>0.762334</v>
       </c>
       <c r="C28" t="n">
-        <v>0.79205</v>
+        <v>0.787486</v>
       </c>
       <c r="D28" t="n">
-        <v>0.810678</v>
+        <v>0.828695</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.749614</v>
+        <v>0.7475039999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.773081</v>
+        <v>0.7684609999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.791953</v>
+        <v>0.809592</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.735901</v>
+        <v>0.733865</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7559360000000001</v>
+        <v>0.751127</v>
       </c>
       <c r="D30" t="n">
-        <v>0.774328</v>
+        <v>0.792163</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.723241</v>
+        <v>0.7214</v>
       </c>
       <c r="C31" t="n">
-        <v>0.739291</v>
+        <v>0.734548</v>
       </c>
       <c r="D31" t="n">
-        <v>0.75757</v>
+        <v>0.775315</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.712394</v>
+        <v>0.710368</v>
       </c>
       <c r="C32" t="n">
-        <v>0.724132</v>
+        <v>0.71936</v>
       </c>
       <c r="D32" t="n">
-        <v>0.742555</v>
+        <v>0.760168</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.702835</v>
+        <v>0.701748</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7098370000000001</v>
+        <v>0.705053</v>
       </c>
       <c r="D33" t="n">
-        <v>0.728612</v>
+        <v>0.746134</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.695315</v>
+        <v>0.693611</v>
       </c>
       <c r="C34" t="n">
-        <v>0.696442</v>
+        <v>0.691649</v>
       </c>
       <c r="D34" t="n">
-        <v>0.715626</v>
+        <v>0.733334</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.68964</v>
+        <v>0.687944</v>
       </c>
       <c r="C35" t="n">
-        <v>0.684619</v>
+        <v>0.6794750000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.70468</v>
+        <v>0.721832</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.686261</v>
+        <v>0.6848030000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.674287</v>
+        <v>0.6694870000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.695994</v>
+        <v>0.713086</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.68668</v>
+        <v>0.68541</v>
       </c>
       <c r="C37" t="n">
-        <v>0.666463</v>
+        <v>0.662049</v>
       </c>
       <c r="D37" t="n">
-        <v>0.940463</v>
+        <v>0.958376</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.863942</v>
+        <v>0.862082</v>
       </c>
       <c r="C38" t="n">
-        <v>0.907761</v>
+        <v>0.903559</v>
       </c>
       <c r="D38" t="n">
-        <v>0.916642</v>
+        <v>0.934355</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.845005</v>
+        <v>0.845263</v>
       </c>
       <c r="C39" t="n">
-        <v>0.885593</v>
+        <v>0.881341</v>
       </c>
       <c r="D39" t="n">
-        <v>0.893852</v>
+        <v>0.911129</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.826101</v>
+        <v>0.8242930000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.863162</v>
+        <v>0.859005</v>
       </c>
       <c r="D40" t="n">
-        <v>0.870981</v>
+        <v>0.889122</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.808131</v>
+        <v>0.806593</v>
       </c>
       <c r="C41" t="n">
-        <v>0.84182</v>
+        <v>0.837723</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8501649999999999</v>
+        <v>0.867828</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.791425</v>
+        <v>0.790236</v>
       </c>
       <c r="C42" t="n">
-        <v>0.822038</v>
+        <v>0.81724</v>
       </c>
       <c r="D42" t="n">
-        <v>0.830307</v>
+        <v>0.847921</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.775598</v>
+        <v>0.774357</v>
       </c>
       <c r="C43" t="n">
-        <v>0.802513</v>
+        <v>0.797821</v>
       </c>
       <c r="D43" t="n">
-        <v>0.810948</v>
+        <v>0.829036</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.761171</v>
+        <v>0.760094</v>
       </c>
       <c r="C44" t="n">
-        <v>0.784655</v>
+        <v>0.779857</v>
       </c>
       <c r="D44" t="n">
-        <v>0.793203</v>
+        <v>0.811159</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.747893</v>
+        <v>0.746618</v>
       </c>
       <c r="C45" t="n">
-        <v>0.767211</v>
+        <v>0.762648</v>
       </c>
       <c r="D45" t="n">
-        <v>0.776686</v>
+        <v>0.7947109999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.735827</v>
+        <v>0.7343150000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7511060000000001</v>
+        <v>0.74663</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7611329999999999</v>
+        <v>0.778762</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.724923</v>
+        <v>0.7230569999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.735487</v>
+        <v>0.731255</v>
       </c>
       <c r="D47" t="n">
-        <v>0.746769</v>
+        <v>0.763807</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.715695</v>
+        <v>0.714938</v>
       </c>
       <c r="C48" t="n">
-        <v>0.721351</v>
+        <v>0.717906</v>
       </c>
       <c r="D48" t="n">
-        <v>0.733532</v>
+        <v>0.750837</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.708979</v>
+        <v>0.7085</v>
       </c>
       <c r="C49" t="n">
-        <v>0.708835</v>
+        <v>0.7048179999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.722222</v>
+        <v>0.739634</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.70362</v>
+        <v>0.7028450000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6979649999999999</v>
+        <v>0.6931389999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.712896</v>
+        <v>0.729997</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7027139999999999</v>
+        <v>0.702095</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6892160000000001</v>
+        <v>0.68507</v>
       </c>
       <c r="D51" t="n">
-        <v>0.963803</v>
+        <v>0.981948</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.704946</v>
+        <v>0.7035090000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.684401</v>
+        <v>0.678822</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9405480000000001</v>
+        <v>0.957824</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.867425</v>
+        <v>0.866591</v>
       </c>
       <c r="C53" t="n">
-        <v>0.910637</v>
+        <v>0.906682</v>
       </c>
       <c r="D53" t="n">
-        <v>0.91667</v>
+        <v>0.934596</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.848515</v>
+        <v>0.84734</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8878549999999999</v>
+        <v>0.884738</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8947619999999999</v>
+        <v>0.91243</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.830353</v>
+        <v>0.829419</v>
       </c>
       <c r="C55" t="n">
-        <v>0.866244</v>
+        <v>0.862572</v>
       </c>
       <c r="D55" t="n">
-        <v>0.873802</v>
+        <v>0.8919550000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.813451</v>
+        <v>0.812599</v>
       </c>
       <c r="C56" t="n">
-        <v>0.846221</v>
+        <v>0.842631</v>
       </c>
       <c r="D56" t="n">
-        <v>0.854155</v>
+        <v>0.871428</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.797802</v>
+        <v>0.796013</v>
       </c>
       <c r="C57" t="n">
-        <v>0.827615</v>
+        <v>0.823444</v>
       </c>
       <c r="D57" t="n">
-        <v>0.83531</v>
+        <v>0.853585</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.782881</v>
+        <v>0.781098</v>
       </c>
       <c r="C58" t="n">
-        <v>0.809375</v>
+        <v>0.805123</v>
       </c>
       <c r="D58" t="n">
-        <v>0.81791</v>
+        <v>0.83547</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.768262</v>
+        <v>0.7675419999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.792647</v>
+        <v>0.787357</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8015409999999999</v>
+        <v>0.818234</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7575539999999999</v>
+        <v>0.755725</v>
       </c>
       <c r="C60" t="n">
-        <v>0.777201</v>
+        <v>0.771553</v>
       </c>
       <c r="D60" t="n">
-        <v>0.786269</v>
+        <v>0.8028149999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.745992</v>
+        <v>0.743796</v>
       </c>
       <c r="C61" t="n">
-        <v>0.761279</v>
+        <v>0.756776</v>
       </c>
       <c r="D61" t="n">
-        <v>0.771391</v>
+        <v>0.787853</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.737274</v>
+        <v>0.735249</v>
       </c>
       <c r="C62" t="n">
-        <v>0.747522</v>
+        <v>0.742372</v>
       </c>
       <c r="D62" t="n">
-        <v>0.757799</v>
+        <v>0.774885</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.729662</v>
+        <v>0.728838</v>
       </c>
       <c r="C63" t="n">
-        <v>0.734504</v>
+        <v>0.730217</v>
       </c>
       <c r="D63" t="n">
-        <v>0.747132</v>
+        <v>0.762965</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.723823</v>
+        <v>0.723711</v>
       </c>
       <c r="C64" t="n">
-        <v>0.72357</v>
+        <v>0.718116</v>
       </c>
       <c r="D64" t="n">
-        <v>0.736834</v>
+        <v>0.7529</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7221109999999999</v>
+        <v>0.721226</v>
       </c>
       <c r="C65" t="n">
-        <v>0.712773</v>
+        <v>0.708876</v>
       </c>
       <c r="D65" t="n">
-        <v>0.729164</v>
+        <v>0.745919</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.721746</v>
+        <v>0.720481</v>
       </c>
       <c r="C66" t="n">
-        <v>0.705915</v>
+        <v>0.702084</v>
       </c>
       <c r="D66" t="n">
-        <v>0.969791</v>
+        <v>0.984845</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.889393</v>
+        <v>0.888665</v>
       </c>
       <c r="C67" t="n">
-        <v>0.943191</v>
+        <v>0.93859</v>
       </c>
       <c r="D67" t="n">
-        <v>0.945801</v>
+        <v>0.96167</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8705079999999999</v>
+        <v>0.869811</v>
       </c>
       <c r="C68" t="n">
-        <v>0.919273</v>
+        <v>0.91654</v>
       </c>
       <c r="D68" t="n">
-        <v>0.924194</v>
+        <v>0.940597</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.852877</v>
+        <v>0.851732</v>
       </c>
       <c r="C69" t="n">
-        <v>0.90037</v>
+        <v>0.896203</v>
       </c>
       <c r="D69" t="n">
-        <v>0.904007</v>
+        <v>0.920741</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.835751</v>
+        <v>0.834817</v>
       </c>
       <c r="C70" t="n">
-        <v>0.879377</v>
+        <v>0.876387</v>
       </c>
       <c r="D70" t="n">
-        <v>0.882775</v>
+        <v>0.900742</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.820375</v>
+        <v>0.818689</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8586279999999999</v>
+        <v>0.856606</v>
       </c>
       <c r="D71" t="n">
-        <v>0.864165</v>
+        <v>0.8822179999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.804623</v>
+        <v>0.802746</v>
       </c>
       <c r="C72" t="n">
-        <v>0.839615</v>
+        <v>0.83701</v>
       </c>
       <c r="D72" t="n">
-        <v>0.846616</v>
+        <v>0.863185</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.791215</v>
+        <v>0.788808</v>
       </c>
       <c r="C73" t="n">
-        <v>0.821897</v>
+        <v>0.817313</v>
       </c>
       <c r="D73" t="n">
-        <v>0.829277</v>
+        <v>0.843967</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7784450000000001</v>
+        <v>0.776409</v>
       </c>
       <c r="C74" t="n">
-        <v>0.805627</v>
+        <v>0.800558</v>
       </c>
       <c r="D74" t="n">
-        <v>0.814295</v>
+        <v>0.8282080000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.76678</v>
+        <v>0.765586</v>
       </c>
       <c r="C75" t="n">
-        <v>0.790605</v>
+        <v>0.785135</v>
       </c>
       <c r="D75" t="n">
-        <v>0.798759</v>
+        <v>0.81425</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.756169</v>
+        <v>0.755591</v>
       </c>
       <c r="C76" t="n">
-        <v>0.776484</v>
+        <v>0.769683</v>
       </c>
       <c r="D76" t="n">
-        <v>0.786424</v>
+        <v>0.799589</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.749983</v>
+        <v>0.747174</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7629359999999999</v>
+        <v>0.756825</v>
       </c>
       <c r="D77" t="n">
-        <v>0.775686</v>
+        <v>0.788033</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.744343</v>
+        <v>0.741326</v>
       </c>
       <c r="C78" t="n">
-        <v>0.752684</v>
+        <v>0.746121</v>
       </c>
       <c r="D78" t="n">
-        <v>0.76569</v>
+        <v>0.777845</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.741414</v>
+        <v>0.73886</v>
       </c>
       <c r="C79" t="n">
-        <v>0.741684</v>
+        <v>0.735164</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7573</v>
+        <v>0.769891</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.741913</v>
+        <v>0.7397010000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.733191</v>
+        <v>0.727846</v>
       </c>
       <c r="D80" t="n">
-        <v>1.02303</v>
+        <v>1.03394</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.939089</v>
+        <v>0.935216</v>
       </c>
       <c r="C81" t="n">
-        <v>0.993186</v>
+        <v>0.986056</v>
       </c>
       <c r="D81" t="n">
-        <v>0.99959</v>
+        <v>1.01153</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.924553</v>
+        <v>0.920831</v>
       </c>
       <c r="C82" t="n">
-        <v>0.970849</v>
+        <v>0.96533</v>
       </c>
       <c r="D82" t="n">
-        <v>0.977227</v>
+        <v>0.989922</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.90826</v>
+        <v>0.906236</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9502890000000001</v>
+        <v>0.944555</v>
       </c>
       <c r="D83" t="n">
-        <v>0.95608</v>
+        <v>0.968424</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.892416</v>
+        <v>0.890615</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9299230000000001</v>
+        <v>0.924261</v>
       </c>
       <c r="D84" t="n">
-        <v>0.935488</v>
+        <v>0.948126</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.875728</v>
+        <v>0.876529</v>
       </c>
       <c r="C85" t="n">
-        <v>0.91045</v>
+        <v>0.905404</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9162670000000001</v>
+        <v>0.929599</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.861096</v>
+        <v>0.860306</v>
       </c>
       <c r="C86" t="n">
-        <v>0.891198</v>
+        <v>0.886396</v>
       </c>
       <c r="D86" t="n">
-        <v>0.896661</v>
+        <v>0.910225</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.846156</v>
+        <v>0.845871</v>
       </c>
       <c r="C87" t="n">
-        <v>0.873111</v>
+        <v>0.868131</v>
       </c>
       <c r="D87" t="n">
-        <v>0.878224</v>
+        <v>0.891859</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.83192</v>
+        <v>0.831789</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8544929999999999</v>
+        <v>0.850654</v>
       </c>
       <c r="D88" t="n">
-        <v>0.861115</v>
+        <v>0.8750520000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.819088</v>
+        <v>0.819615</v>
       </c>
       <c r="C89" t="n">
-        <v>0.839087</v>
+        <v>0.834431</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8456129999999999</v>
+        <v>0.858962</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.807859</v>
+        <v>0.80822</v>
       </c>
       <c r="C90" t="n">
-        <v>0.823501</v>
+        <v>0.8191929999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8305360000000001</v>
+        <v>0.84497</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7969580000000001</v>
+        <v>0.798285</v>
       </c>
       <c r="C91" t="n">
-        <v>0.809432</v>
+        <v>0.805029</v>
       </c>
       <c r="D91" t="n">
-        <v>0.817839</v>
+        <v>0.83118</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.790144</v>
+        <v>0.790651</v>
       </c>
       <c r="C92" t="n">
-        <v>0.797191</v>
+        <v>0.793019</v>
       </c>
       <c r="D92" t="n">
-        <v>0.806626</v>
+        <v>0.82017</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.783092</v>
+        <v>0.785757</v>
       </c>
       <c r="C93" t="n">
-        <v>0.783896</v>
+        <v>0.781927</v>
       </c>
       <c r="D93" t="n">
-        <v>0.796133</v>
+        <v>0.8114130000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.783273</v>
+        <v>0.784957</v>
       </c>
       <c r="C94" t="n">
-        <v>0.77601</v>
+        <v>0.774218</v>
       </c>
       <c r="D94" t="n">
-        <v>1.07473</v>
+        <v>1.08719</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.984783</v>
+        <v>0.983376</v>
       </c>
       <c r="C95" t="n">
-        <v>1.04006</v>
+        <v>1.0356</v>
       </c>
       <c r="D95" t="n">
-        <v>1.06395</v>
+        <v>1.07527</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.988604</v>
+        <v>0.9873690000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>1.03508</v>
+        <v>1.02995</v>
       </c>
       <c r="D96" t="n">
-        <v>1.04915</v>
+        <v>1.05985</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.984119</v>
+        <v>0.983171</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02329</v>
+        <v>1.0176</v>
       </c>
       <c r="D97" t="n">
-        <v>1.03374</v>
+        <v>1.04364</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.977168</v>
+        <v>0.975988</v>
       </c>
       <c r="C98" t="n">
-        <v>1.00794</v>
+        <v>1.00354</v>
       </c>
       <c r="D98" t="n">
-        <v>1.01653</v>
+        <v>1.02699</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.967456</v>
+        <v>0.967221</v>
       </c>
       <c r="C99" t="n">
-        <v>0.99302</v>
+        <v>0.988695</v>
       </c>
       <c r="D99" t="n">
-        <v>0.999274</v>
+        <v>1.00947</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.956307</v>
+        <v>0.95652</v>
       </c>
       <c r="C100" t="n">
-        <v>0.977631</v>
+        <v>0.97362</v>
       </c>
       <c r="D100" t="n">
-        <v>0.982024</v>
+        <v>0.992778</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.945746</v>
+        <v>0.945365</v>
       </c>
       <c r="C101" t="n">
-        <v>0.962652</v>
+        <v>0.959006</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9677</v>
+        <v>0.9769600000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.935676</v>
+        <v>0.935095</v>
       </c>
       <c r="C102" t="n">
-        <v>0.948899</v>
+        <v>0.944587</v>
       </c>
       <c r="D102" t="n">
-        <v>0.952799</v>
+        <v>0.960903</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.92674</v>
+        <v>0.924145</v>
       </c>
       <c r="C103" t="n">
-        <v>0.934953</v>
+        <v>0.931077</v>
       </c>
       <c r="D103" t="n">
-        <v>0.938599</v>
+        <v>0.945708</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9166069999999999</v>
+        <v>0.91512</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9219810000000001</v>
+        <v>0.918417</v>
       </c>
       <c r="D104" t="n">
-        <v>0.92334</v>
+        <v>0.931766</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.907996</v>
+        <v>0.906659</v>
       </c>
       <c r="C105" t="n">
-        <v>0.910561</v>
+        <v>0.905298</v>
       </c>
       <c r="D105" t="n">
-        <v>0.913007</v>
+        <v>0.91897</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.904358</v>
+        <v>0.900289</v>
       </c>
       <c r="C106" t="n">
-        <v>0.90052</v>
+        <v>0.89457</v>
       </c>
       <c r="D106" t="n">
-        <v>0.901959</v>
+        <v>0.907235</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.899427</v>
+        <v>0.896622</v>
       </c>
       <c r="C107" t="n">
-        <v>0.889423</v>
+        <v>0.886448</v>
       </c>
       <c r="D107" t="n">
-        <v>0.893552</v>
+        <v>0.8993370000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.899285</v>
+        <v>0.896016</v>
       </c>
       <c r="C108" t="n">
-        <v>0.88247</v>
+        <v>0.878708</v>
       </c>
       <c r="D108" t="n">
-        <v>1.1705</v>
+        <v>1.17668</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.899803</v>
+        <v>0.8978660000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.876172</v>
+        <v>0.873593</v>
       </c>
       <c r="D109" t="n">
-        <v>1.16801</v>
+        <v>1.17363</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.10532</v>
+        <v>1.10455</v>
       </c>
       <c r="C110" t="n">
-        <v>1.14588</v>
+        <v>1.14446</v>
       </c>
       <c r="D110" t="n">
-        <v>1.15572</v>
+        <v>1.16167</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.1065</v>
+        <v>1.10626</v>
       </c>
       <c r="C111" t="n">
-        <v>1.13616</v>
+        <v>1.13436</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14376</v>
+        <v>1.14926</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.10785</v>
+        <v>1.10653</v>
       </c>
       <c r="C112" t="n">
-        <v>1.12621</v>
+        <v>1.12401</v>
       </c>
       <c r="D112" t="n">
-        <v>1.13213</v>
+        <v>1.13736</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.10528</v>
+        <v>1.10653</v>
       </c>
       <c r="C113" t="n">
-        <v>1.11467</v>
+        <v>1.11537</v>
       </c>
       <c r="D113" t="n">
-        <v>1.12048</v>
+        <v>1.1265</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.10519</v>
+        <v>1.10602</v>
       </c>
       <c r="C114" t="n">
-        <v>1.10635</v>
+        <v>1.1051</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10985</v>
+        <v>1.11613</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.1055</v>
+        <v>1.10638</v>
       </c>
       <c r="C115" t="n">
-        <v>1.0967</v>
+        <v>1.09733</v>
       </c>
       <c r="D115" t="n">
-        <v>1.10058</v>
+        <v>1.10593</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.10548</v>
+        <v>1.10634</v>
       </c>
       <c r="C116" t="n">
-        <v>1.08757</v>
+        <v>1.08871</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09028</v>
+        <v>1.0961</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.10561</v>
+        <v>1.10819</v>
       </c>
       <c r="C117" t="n">
-        <v>1.07963</v>
+        <v>1.08155</v>
       </c>
       <c r="D117" t="n">
-        <v>1.08226</v>
+        <v>1.08769</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10625</v>
+        <v>1.10809</v>
       </c>
       <c r="C118" t="n">
-        <v>1.07259</v>
+        <v>1.07287</v>
       </c>
       <c r="D118" t="n">
-        <v>1.07462</v>
+        <v>1.0785</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10702</v>
+        <v>1.10914</v>
       </c>
       <c r="C119" t="n">
-        <v>1.06631</v>
+        <v>1.06731</v>
       </c>
       <c r="D119" t="n">
-        <v>1.06706</v>
+        <v>1.07102</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.11007</v>
+        <v>1.11215</v>
       </c>
       <c r="C120" t="n">
-        <v>1.06</v>
+        <v>1.06172</v>
       </c>
       <c r="D120" t="n">
-        <v>1.05938</v>
+        <v>1.0652</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.1118</v>
+        <v>1.1151</v>
       </c>
       <c r="C121" t="n">
-        <v>1.05549</v>
+        <v>1.05667</v>
       </c>
       <c r="D121" t="n">
-        <v>1.05511</v>
+        <v>1.05916</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.11791</v>
+        <v>1.11958</v>
       </c>
       <c r="C122" t="n">
-        <v>1.05237</v>
+        <v>1.05377</v>
       </c>
       <c r="D122" t="n">
-        <v>1.05202</v>
+        <v>1.0557</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.12554</v>
+        <v>1.12795</v>
       </c>
       <c r="C123" t="n">
-        <v>1.05013</v>
+        <v>1.052</v>
       </c>
       <c r="D123" t="n">
-        <v>1.33213</v>
+        <v>1.33647</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.32848</v>
+        <v>1.33105</v>
       </c>
       <c r="C124" t="n">
-        <v>1.31936</v>
+        <v>1.3214</v>
       </c>
       <c r="D124" t="n">
-        <v>1.32329</v>
+        <v>1.32779</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.32825</v>
+        <v>1.33129</v>
       </c>
       <c r="C125" t="n">
-        <v>1.31401</v>
+        <v>1.31615</v>
       </c>
       <c r="D125" t="n">
-        <v>1.31804</v>
+        <v>1.32048</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32879</v>
+        <v>1.33246</v>
       </c>
       <c r="C126" t="n">
-        <v>1.30765</v>
+        <v>1.30945</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31088</v>
+        <v>1.31443</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32842</v>
+        <v>1.33342</v>
       </c>
       <c r="C127" t="n">
-        <v>1.30275</v>
+        <v>1.30485</v>
       </c>
       <c r="D127" t="n">
-        <v>1.30657</v>
+        <v>1.30784</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.33075</v>
+        <v>1.33408</v>
       </c>
       <c r="C128" t="n">
-        <v>1.29787</v>
+        <v>1.30032</v>
       </c>
       <c r="D128" t="n">
-        <v>1.29988</v>
+        <v>1.30118</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.3311</v>
+        <v>1.33527</v>
       </c>
       <c r="C129" t="n">
-        <v>1.29353</v>
+        <v>1.2944</v>
       </c>
       <c r="D129" t="n">
-        <v>1.29488</v>
+        <v>1.29573</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.332</v>
+        <v>1.33598</v>
       </c>
       <c r="C130" t="n">
-        <v>1.28969</v>
+        <v>1.29166</v>
       </c>
       <c r="D130" t="n">
-        <v>1.29003</v>
+        <v>1.29142</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.33255</v>
+        <v>1.33732</v>
       </c>
       <c r="C131" t="n">
-        <v>1.28582</v>
+        <v>1.28675</v>
       </c>
       <c r="D131" t="n">
-        <v>1.28532</v>
+        <v>1.28607</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.33445</v>
+        <v>1.33869</v>
       </c>
       <c r="C132" t="n">
-        <v>1.28394</v>
+        <v>1.28461</v>
       </c>
       <c r="D132" t="n">
-        <v>1.28209</v>
+        <v>1.28245</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.33713</v>
+        <v>1.3417</v>
       </c>
       <c r="C133" t="n">
-        <v>1.27961</v>
+        <v>1.28146</v>
       </c>
       <c r="D133" t="n">
-        <v>1.27893</v>
+        <v>1.27809</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.33881</v>
+        <v>1.34405</v>
       </c>
       <c r="C134" t="n">
-        <v>1.27756</v>
+        <v>1.28001</v>
       </c>
       <c r="D134" t="n">
-        <v>1.27654</v>
+        <v>1.27528</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.34281</v>
+        <v>1.34889</v>
       </c>
       <c r="C135" t="n">
-        <v>1.27673</v>
+        <v>1.27911</v>
       </c>
       <c r="D135" t="n">
-        <v>1.27454</v>
+        <v>1.27487</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.34927</v>
+        <v>1.35523</v>
       </c>
       <c r="C136" t="n">
-        <v>1.27539</v>
+        <v>1.27937</v>
       </c>
       <c r="D136" t="n">
-        <v>1.27242</v>
+        <v>1.27124</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.35927</v>
+        <v>1.36572</v>
       </c>
       <c r="C137" t="n">
-        <v>1.27686</v>
+        <v>1.27921</v>
       </c>
       <c r="D137" t="n">
-        <v>1.55164</v>
+        <v>1.55138</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.56666</v>
+        <v>1.57266</v>
       </c>
       <c r="C138" t="n">
-        <v>1.54454</v>
+        <v>1.55023</v>
       </c>
       <c r="D138" t="n">
-        <v>1.54705</v>
+        <v>1.54779</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.5647</v>
+        <v>1.57028</v>
       </c>
       <c r="C139" t="n">
-        <v>1.54209</v>
+        <v>1.54712</v>
       </c>
       <c r="D139" t="n">
-        <v>1.54496</v>
+        <v>1.54344</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.5621</v>
+        <v>1.56796</v>
       </c>
       <c r="C140" t="n">
-        <v>1.5399</v>
+        <v>1.54354</v>
       </c>
       <c r="D140" t="n">
-        <v>1.54185</v>
+        <v>1.54183</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.5593</v>
+        <v>1.56652</v>
       </c>
       <c r="C141" t="n">
-        <v>1.53704</v>
+        <v>1.54012</v>
       </c>
       <c r="D141" t="n">
-        <v>1.53811</v>
+        <v>1.53754</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.55752</v>
+        <v>1.5643</v>
       </c>
       <c r="C142" t="n">
-        <v>1.53569</v>
+        <v>1.53964</v>
       </c>
       <c r="D142" t="n">
-        <v>1.53528</v>
+        <v>1.53518</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.55629</v>
+        <v>1.56322</v>
       </c>
       <c r="C143" t="n">
-        <v>1.53457</v>
+        <v>1.54122</v>
       </c>
       <c r="D143" t="n">
-        <v>1.53286</v>
+        <v>1.53281</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.69442</v>
+        <v>0.493987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.699515</v>
+        <v>0.510755</v>
       </c>
       <c r="D2" t="n">
-        <v>0.730531</v>
+        <v>0.522183</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.681827</v>
+        <v>0.484792</v>
       </c>
       <c r="C3" t="n">
-        <v>0.683034</v>
+        <v>0.497017</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7145010000000001</v>
+        <v>0.507695</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.674581</v>
+        <v>0.476002</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6708150000000001</v>
+        <v>0.483759</v>
       </c>
       <c r="D4" t="n">
-        <v>0.702269</v>
+        <v>0.49515</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.667465</v>
+        <v>0.468665</v>
       </c>
       <c r="C5" t="n">
-        <v>0.659336</v>
+        <v>0.472064</v>
       </c>
       <c r="D5" t="n">
-        <v>0.691624</v>
+        <v>0.483978</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.660921</v>
+        <v>0.462838</v>
       </c>
       <c r="C6" t="n">
-        <v>0.647618</v>
+        <v>0.460962</v>
       </c>
       <c r="D6" t="n">
-        <v>0.680158</v>
+        <v>0.473371</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.657451</v>
+        <v>0.458965</v>
       </c>
       <c r="C7" t="n">
-        <v>0.638133</v>
+        <v>0.45071</v>
       </c>
       <c r="D7" t="n">
-        <v>0.671913</v>
+        <v>0.46455</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.658008</v>
+        <v>0.457973</v>
       </c>
       <c r="C8" t="n">
-        <v>0.631285</v>
+        <v>0.443769</v>
       </c>
       <c r="D8" t="n">
-        <v>0.667014</v>
+        <v>0.458981</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.665194</v>
+        <v>0.459727</v>
       </c>
       <c r="C9" t="n">
-        <v>0.628009</v>
+        <v>0.438503</v>
       </c>
       <c r="D9" t="n">
-        <v>0.875613</v>
+        <v>0.669822</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.792314</v>
+        <v>0.588078</v>
       </c>
       <c r="C10" t="n">
-        <v>0.827527</v>
+        <v>0.64116</v>
       </c>
       <c r="D10" t="n">
-        <v>0.85351</v>
+        <v>0.649596</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.774318</v>
+        <v>0.571248</v>
       </c>
       <c r="C11" t="n">
-        <v>0.805878</v>
+        <v>0.6205850000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.832404</v>
+        <v>0.629336</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7591869999999999</v>
+        <v>0.556122</v>
       </c>
       <c r="C12" t="n">
-        <v>0.787096</v>
+        <v>0.60126</v>
       </c>
       <c r="D12" t="n">
-        <v>0.813903</v>
+        <v>0.610182</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.743362</v>
+        <v>0.541235</v>
       </c>
       <c r="C13" t="n">
-        <v>0.767715</v>
+        <v>0.582724</v>
       </c>
       <c r="D13" t="n">
-        <v>0.794841</v>
+        <v>0.592251</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.729396</v>
+        <v>0.528053</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7502529999999999</v>
+        <v>0.564855</v>
       </c>
       <c r="D14" t="n">
-        <v>0.777434</v>
+        <v>0.574943</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.716134</v>
+        <v>0.515765</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7334619999999999</v>
+        <v>0.548423</v>
       </c>
       <c r="D15" t="n">
-        <v>0.761242</v>
+        <v>0.558775</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.703775</v>
+        <v>0.504107</v>
       </c>
       <c r="C16" t="n">
-        <v>0.717589</v>
+        <v>0.5328619999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.745776</v>
+        <v>0.543542</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6927410000000001</v>
+        <v>0.493704</v>
       </c>
       <c r="C17" t="n">
-        <v>0.702417</v>
+        <v>0.517839</v>
       </c>
       <c r="D17" t="n">
-        <v>0.730972</v>
+        <v>0.529331</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.682489</v>
+        <v>0.48378</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6879420000000001</v>
+        <v>0.504097</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7172269999999999</v>
+        <v>0.5157969999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.675081</v>
+        <v>0.476172</v>
       </c>
       <c r="C19" t="n">
-        <v>0.675708</v>
+        <v>0.491135</v>
       </c>
       <c r="D19" t="n">
-        <v>0.705391</v>
+        <v>0.503739</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.668501</v>
+        <v>0.469352</v>
       </c>
       <c r="C20" t="n">
-        <v>0.662832</v>
+        <v>0.479457</v>
       </c>
       <c r="D20" t="n">
-        <v>0.693501</v>
+        <v>0.492745</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6642980000000001</v>
+        <v>0.464129</v>
       </c>
       <c r="C21" t="n">
-        <v>0.652066</v>
+        <v>0.468607</v>
       </c>
       <c r="D21" t="n">
-        <v>0.684196</v>
+        <v>0.483502</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.662314</v>
+        <v>0.461911</v>
       </c>
       <c r="C22" t="n">
-        <v>0.643502</v>
+        <v>0.460107</v>
       </c>
       <c r="D22" t="n">
-        <v>0.677806</v>
+        <v>0.477481</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.663797</v>
+        <v>0.462611</v>
       </c>
       <c r="C23" t="n">
-        <v>0.636752</v>
+        <v>0.453521</v>
       </c>
       <c r="D23" t="n">
-        <v>0.937046</v>
+        <v>0.736998</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.831448</v>
+        <v>0.626736</v>
       </c>
       <c r="C24" t="n">
-        <v>0.871186</v>
+        <v>0.687114</v>
       </c>
       <c r="D24" t="n">
-        <v>0.913995</v>
+        <v>0.713765</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.812126</v>
+        <v>0.6090989999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.848505</v>
+        <v>0.664965</v>
       </c>
       <c r="D25" t="n">
-        <v>0.890568</v>
+        <v>0.6910770000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.794188</v>
+        <v>0.59226</v>
       </c>
       <c r="C26" t="n">
-        <v>0.827238</v>
+        <v>0.64393</v>
       </c>
       <c r="D26" t="n">
-        <v>0.868763</v>
+        <v>0.669732</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.777926</v>
+        <v>0.577272</v>
       </c>
       <c r="C27" t="n">
-        <v>0.806775</v>
+        <v>0.62393</v>
       </c>
       <c r="D27" t="n">
-        <v>0.848131</v>
+        <v>0.649172</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.762334</v>
+        <v>0.561245</v>
       </c>
       <c r="C28" t="n">
-        <v>0.787486</v>
+        <v>0.604657</v>
       </c>
       <c r="D28" t="n">
-        <v>0.828695</v>
+        <v>0.62881</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7475039999999999</v>
+        <v>0.54734</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7684609999999999</v>
+        <v>0.586546</v>
       </c>
       <c r="D29" t="n">
-        <v>0.809592</v>
+        <v>0.610468</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.733865</v>
+        <v>0.534851</v>
       </c>
       <c r="C30" t="n">
-        <v>0.751127</v>
+        <v>0.569488</v>
       </c>
       <c r="D30" t="n">
-        <v>0.792163</v>
+        <v>0.593008</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7214</v>
+        <v>0.522439</v>
       </c>
       <c r="C31" t="n">
-        <v>0.734548</v>
+        <v>0.553339</v>
       </c>
       <c r="D31" t="n">
-        <v>0.775315</v>
+        <v>0.57662</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.710368</v>
+        <v>0.512539</v>
       </c>
       <c r="C32" t="n">
-        <v>0.71936</v>
+        <v>0.537999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.760168</v>
+        <v>0.56149</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.701748</v>
+        <v>0.5024999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.705053</v>
+        <v>0.523863</v>
       </c>
       <c r="D33" t="n">
-        <v>0.746134</v>
+        <v>0.547264</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.693611</v>
+        <v>0.494839</v>
       </c>
       <c r="C34" t="n">
-        <v>0.691649</v>
+        <v>0.510834</v>
       </c>
       <c r="D34" t="n">
-        <v>0.733334</v>
+        <v>0.535097</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.687944</v>
+        <v>0.488572</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6794750000000001</v>
+        <v>0.499027</v>
       </c>
       <c r="D35" t="n">
-        <v>0.721832</v>
+        <v>0.524447</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6848030000000001</v>
+        <v>0.484949</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6694870000000001</v>
+        <v>0.489101</v>
       </c>
       <c r="D36" t="n">
-        <v>0.713086</v>
+        <v>0.5158430000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.68541</v>
+        <v>0.483815</v>
       </c>
       <c r="C37" t="n">
-        <v>0.662049</v>
+        <v>0.480811</v>
       </c>
       <c r="D37" t="n">
-        <v>0.958376</v>
+        <v>0.7608780000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.862082</v>
+        <v>0.661022</v>
       </c>
       <c r="C38" t="n">
-        <v>0.903559</v>
+        <v>0.72339</v>
       </c>
       <c r="D38" t="n">
-        <v>0.934355</v>
+        <v>0.736789</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.845263</v>
+        <v>0.642794</v>
       </c>
       <c r="C39" t="n">
-        <v>0.881341</v>
+        <v>0.700268</v>
       </c>
       <c r="D39" t="n">
-        <v>0.911129</v>
+        <v>0.713792</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8242930000000001</v>
+        <v>0.6246699999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.859005</v>
+        <v>0.678231</v>
       </c>
       <c r="D40" t="n">
-        <v>0.889122</v>
+        <v>0.692229</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.806593</v>
+        <v>0.608094</v>
       </c>
       <c r="C41" t="n">
-        <v>0.837723</v>
+        <v>0.656555</v>
       </c>
       <c r="D41" t="n">
-        <v>0.867828</v>
+        <v>0.6702090000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.790236</v>
+        <v>0.592392</v>
       </c>
       <c r="C42" t="n">
-        <v>0.81724</v>
+        <v>0.636903</v>
       </c>
       <c r="D42" t="n">
-        <v>0.847921</v>
+        <v>0.650994</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.774357</v>
+        <v>0.577433</v>
       </c>
       <c r="C43" t="n">
-        <v>0.797821</v>
+        <v>0.618614</v>
       </c>
       <c r="D43" t="n">
-        <v>0.829036</v>
+        <v>0.631918</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.760094</v>
+        <v>0.563765</v>
       </c>
       <c r="C44" t="n">
-        <v>0.779857</v>
+        <v>0.5994930000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.811159</v>
+        <v>0.614098</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.746618</v>
+        <v>0.5515330000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.762648</v>
+        <v>0.58338</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7947109999999999</v>
+        <v>0.597537</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7343150000000001</v>
+        <v>0.5398539999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.74663</v>
+        <v>0.567347</v>
       </c>
       <c r="D46" t="n">
-        <v>0.778762</v>
+        <v>0.582091</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7230569999999999</v>
+        <v>0.529832</v>
       </c>
       <c r="C47" t="n">
-        <v>0.731255</v>
+        <v>0.552956</v>
       </c>
       <c r="D47" t="n">
-        <v>0.763807</v>
+        <v>0.567811</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.714938</v>
+        <v>0.520759</v>
       </c>
       <c r="C48" t="n">
-        <v>0.717906</v>
+        <v>0.539164</v>
       </c>
       <c r="D48" t="n">
-        <v>0.750837</v>
+        <v>0.554229</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7085</v>
+        <v>0.5117620000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7048179999999999</v>
+        <v>0.524905</v>
       </c>
       <c r="D49" t="n">
-        <v>0.739634</v>
+        <v>0.5426569999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7028450000000001</v>
+        <v>0.508481</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6931389999999999</v>
+        <v>0.514995</v>
       </c>
       <c r="D50" t="n">
-        <v>0.729997</v>
+        <v>0.534129</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.702095</v>
+        <v>0.506661</v>
       </c>
       <c r="C51" t="n">
-        <v>0.68507</v>
+        <v>0.50658</v>
       </c>
       <c r="D51" t="n">
-        <v>0.981948</v>
+        <v>0.784505</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7035090000000001</v>
+        <v>0.507515</v>
       </c>
       <c r="C52" t="n">
-        <v>0.678822</v>
+        <v>0.497776</v>
       </c>
       <c r="D52" t="n">
-        <v>0.957824</v>
+        <v>0.7618239999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.866591</v>
+        <v>0.671802</v>
       </c>
       <c r="C53" t="n">
-        <v>0.906682</v>
+        <v>0.727875</v>
       </c>
       <c r="D53" t="n">
-        <v>0.934596</v>
+        <v>0.738078</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.84734</v>
+        <v>0.653042</v>
       </c>
       <c r="C54" t="n">
-        <v>0.884738</v>
+        <v>0.705277</v>
       </c>
       <c r="D54" t="n">
-        <v>0.91243</v>
+        <v>0.716031</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.829419</v>
+        <v>0.636378</v>
       </c>
       <c r="C55" t="n">
-        <v>0.862572</v>
+        <v>0.682378</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8919550000000001</v>
+        <v>0.695469</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.812599</v>
+        <v>0.619271</v>
       </c>
       <c r="C56" t="n">
-        <v>0.842631</v>
+        <v>0.665358</v>
       </c>
       <c r="D56" t="n">
-        <v>0.871428</v>
+        <v>0.675782</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.796013</v>
+        <v>0.603403</v>
       </c>
       <c r="C57" t="n">
-        <v>0.823444</v>
+        <v>0.6446190000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.853585</v>
+        <v>0.655399</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.781098</v>
+        <v>0.589042</v>
       </c>
       <c r="C58" t="n">
-        <v>0.805123</v>
+        <v>0.626337</v>
       </c>
       <c r="D58" t="n">
-        <v>0.83547</v>
+        <v>0.63861</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7675419999999999</v>
+        <v>0.5775</v>
       </c>
       <c r="C59" t="n">
-        <v>0.787357</v>
+        <v>0.610147</v>
       </c>
       <c r="D59" t="n">
-        <v>0.818234</v>
+        <v>0.623075</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.755725</v>
+        <v>0.565093</v>
       </c>
       <c r="C60" t="n">
-        <v>0.771553</v>
+        <v>0.593237</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8028149999999999</v>
+        <v>0.6066859999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.743796</v>
+        <v>0.554861</v>
       </c>
       <c r="C61" t="n">
-        <v>0.756776</v>
+        <v>0.5797020000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.787853</v>
+        <v>0.589797</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.735249</v>
+        <v>0.544639</v>
       </c>
       <c r="C62" t="n">
-        <v>0.742372</v>
+        <v>0.564978</v>
       </c>
       <c r="D62" t="n">
-        <v>0.774885</v>
+        <v>0.575698</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.728838</v>
+        <v>0.536583</v>
       </c>
       <c r="C63" t="n">
-        <v>0.730217</v>
+        <v>0.549916</v>
       </c>
       <c r="D63" t="n">
-        <v>0.762965</v>
+        <v>0.564273</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.723711</v>
+        <v>0.530949</v>
       </c>
       <c r="C64" t="n">
-        <v>0.718116</v>
+        <v>0.540233</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7529</v>
+        <v>0.554017</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.721226</v>
+        <v>0.530598</v>
       </c>
       <c r="C65" t="n">
-        <v>0.708876</v>
+        <v>0.5300049999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.745919</v>
+        <v>0.549608</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.720481</v>
+        <v>0.530623</v>
       </c>
       <c r="C66" t="n">
-        <v>0.702084</v>
+        <v>0.523786</v>
       </c>
       <c r="D66" t="n">
-        <v>0.984845</v>
+        <v>0.790739</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.888665</v>
+        <v>0.702004</v>
       </c>
       <c r="C67" t="n">
-        <v>0.93859</v>
+        <v>0.763219</v>
       </c>
       <c r="D67" t="n">
-        <v>0.96167</v>
+        <v>0.767324</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.869811</v>
+        <v>0.684076</v>
       </c>
       <c r="C68" t="n">
-        <v>0.91654</v>
+        <v>0.740028</v>
       </c>
       <c r="D68" t="n">
-        <v>0.940597</v>
+        <v>0.744752</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.851732</v>
+        <v>0.666963</v>
       </c>
       <c r="C69" t="n">
-        <v>0.896203</v>
+        <v>0.719451</v>
       </c>
       <c r="D69" t="n">
-        <v>0.920741</v>
+        <v>0.723729</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.834817</v>
+        <v>0.650671</v>
       </c>
       <c r="C70" t="n">
-        <v>0.876387</v>
+        <v>0.6979610000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.900742</v>
+        <v>0.703938</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.818689</v>
+        <v>0.635023</v>
       </c>
       <c r="C71" t="n">
-        <v>0.856606</v>
+        <v>0.679633</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8822179999999999</v>
+        <v>0.685549</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.802746</v>
+        <v>0.619892</v>
       </c>
       <c r="C72" t="n">
-        <v>0.83701</v>
+        <v>0.659589</v>
       </c>
       <c r="D72" t="n">
-        <v>0.863185</v>
+        <v>0.666713</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.788808</v>
+        <v>0.607091</v>
       </c>
       <c r="C73" t="n">
-        <v>0.817313</v>
+        <v>0.64208</v>
       </c>
       <c r="D73" t="n">
-        <v>0.843967</v>
+        <v>0.649777</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.776409</v>
+        <v>0.5947170000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.800558</v>
+        <v>0.625771</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8282080000000001</v>
+        <v>0.632545</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.765586</v>
+        <v>0.582693</v>
       </c>
       <c r="C75" t="n">
-        <v>0.785135</v>
+        <v>0.6091529999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.81425</v>
+        <v>0.618741</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.755591</v>
+        <v>0.573618</v>
       </c>
       <c r="C76" t="n">
-        <v>0.769683</v>
+        <v>0.596498</v>
       </c>
       <c r="D76" t="n">
-        <v>0.799589</v>
+        <v>0.605712</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.747174</v>
+        <v>0.565351</v>
       </c>
       <c r="C77" t="n">
-        <v>0.756825</v>
+        <v>0.584359</v>
       </c>
       <c r="D77" t="n">
-        <v>0.788033</v>
+        <v>0.593346</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.741326</v>
+        <v>0.560315</v>
       </c>
       <c r="C78" t="n">
-        <v>0.746121</v>
+        <v>0.571483</v>
       </c>
       <c r="D78" t="n">
-        <v>0.777845</v>
+        <v>0.5834859999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.73886</v>
+        <v>0.556958</v>
       </c>
       <c r="C79" t="n">
-        <v>0.735164</v>
+        <v>0.562083</v>
       </c>
       <c r="D79" t="n">
-        <v>0.769891</v>
+        <v>0.57633</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7397010000000001</v>
+        <v>0.5565099999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.727846</v>
+        <v>0.553694</v>
       </c>
       <c r="D80" t="n">
-        <v>1.03394</v>
+        <v>0.8383080000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.935216</v>
+        <v>0.746526</v>
       </c>
       <c r="C81" t="n">
-        <v>0.986056</v>
+        <v>0.80928</v>
       </c>
       <c r="D81" t="n">
-        <v>1.01153</v>
+        <v>0.815123</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.920831</v>
+        <v>0.732202</v>
       </c>
       <c r="C82" t="n">
-        <v>0.96533</v>
+        <v>0.788547</v>
       </c>
       <c r="D82" t="n">
-        <v>0.989922</v>
+        <v>0.792963</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.906236</v>
+        <v>0.718041</v>
       </c>
       <c r="C83" t="n">
-        <v>0.944555</v>
+        <v>0.76673</v>
       </c>
       <c r="D83" t="n">
-        <v>0.968424</v>
+        <v>0.771133</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.890615</v>
+        <v>0.70237</v>
       </c>
       <c r="C84" t="n">
-        <v>0.924261</v>
+        <v>0.746112</v>
       </c>
       <c r="D84" t="n">
-        <v>0.948126</v>
+        <v>0.750665</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.876529</v>
+        <v>0.6881350000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.905404</v>
+        <v>0.726694</v>
       </c>
       <c r="D85" t="n">
-        <v>0.929599</v>
+        <v>0.7307</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.860306</v>
+        <v>0.672851</v>
       </c>
       <c r="C86" t="n">
-        <v>0.886396</v>
+        <v>0.707055</v>
       </c>
       <c r="D86" t="n">
-        <v>0.910225</v>
+        <v>0.711932</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.845871</v>
+        <v>0.659281</v>
       </c>
       <c r="C87" t="n">
-        <v>0.868131</v>
+        <v>0.689236</v>
       </c>
       <c r="D87" t="n">
-        <v>0.891859</v>
+        <v>0.694123</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.831789</v>
+        <v>0.6466190000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.850654</v>
+        <v>0.672753</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8750520000000001</v>
+        <v>0.678374</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.819615</v>
+        <v>0.634663</v>
       </c>
       <c r="C89" t="n">
-        <v>0.834431</v>
+        <v>0.656098</v>
       </c>
       <c r="D89" t="n">
-        <v>0.858962</v>
+        <v>0.661209</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.80822</v>
+        <v>0.624669</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8191929999999999</v>
+        <v>0.642424</v>
       </c>
       <c r="D90" t="n">
-        <v>0.84497</v>
+        <v>0.648888</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.798285</v>
+        <v>0.616445</v>
       </c>
       <c r="C91" t="n">
-        <v>0.805029</v>
+        <v>0.629352</v>
       </c>
       <c r="D91" t="n">
-        <v>0.83118</v>
+        <v>0.635747</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.790651</v>
+        <v>0.608696</v>
       </c>
       <c r="C92" t="n">
-        <v>0.793019</v>
+        <v>0.616353</v>
       </c>
       <c r="D92" t="n">
-        <v>0.82017</v>
+        <v>0.622895</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.785757</v>
+        <v>0.602566</v>
       </c>
       <c r="C93" t="n">
-        <v>0.781927</v>
+        <v>0.603642</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8114130000000001</v>
+        <v>0.613996</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.784957</v>
+        <v>0.600106</v>
       </c>
       <c r="C94" t="n">
-        <v>0.774218</v>
+        <v>0.595372</v>
       </c>
       <c r="D94" t="n">
-        <v>1.08719</v>
+        <v>0.88978</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.983376</v>
+        <v>0.799324</v>
       </c>
       <c r="C95" t="n">
-        <v>1.0356</v>
+        <v>0.85699</v>
       </c>
       <c r="D95" t="n">
-        <v>1.07527</v>
+        <v>0.87897</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9873690000000001</v>
+        <v>0.7983209999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>1.02995</v>
+        <v>0.851004</v>
       </c>
       <c r="D96" t="n">
-        <v>1.05985</v>
+        <v>0.864795</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.983171</v>
+        <v>0.7915180000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>1.0176</v>
+        <v>0.838866</v>
       </c>
       <c r="D97" t="n">
-        <v>1.04364</v>
+        <v>0.848616</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.975988</v>
+        <v>0.782312</v>
       </c>
       <c r="C98" t="n">
-        <v>1.00354</v>
+        <v>0.824809</v>
       </c>
       <c r="D98" t="n">
-        <v>1.02699</v>
+        <v>0.832701</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.967221</v>
+        <v>0.772687</v>
       </c>
       <c r="C99" t="n">
-        <v>0.988695</v>
+        <v>0.809142</v>
       </c>
       <c r="D99" t="n">
-        <v>1.00947</v>
+        <v>0.815566</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.95652</v>
+        <v>0.763286</v>
       </c>
       <c r="C100" t="n">
-        <v>0.97362</v>
+        <v>0.7959270000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.992778</v>
+        <v>0.8001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.945365</v>
+        <v>0.752583</v>
       </c>
       <c r="C101" t="n">
-        <v>0.959006</v>
+        <v>0.781294</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9769600000000001</v>
+        <v>0.78549</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.935095</v>
+        <v>0.743877</v>
       </c>
       <c r="C102" t="n">
-        <v>0.944587</v>
+        <v>0.767966</v>
       </c>
       <c r="D102" t="n">
-        <v>0.960903</v>
+        <v>0.770701</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.924145</v>
+        <v>0.736379</v>
       </c>
       <c r="C103" t="n">
-        <v>0.931077</v>
+        <v>0.755939</v>
       </c>
       <c r="D103" t="n">
-        <v>0.945708</v>
+        <v>0.757984</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.91512</v>
+        <v>0.728418</v>
       </c>
       <c r="C104" t="n">
-        <v>0.918417</v>
+        <v>0.744486</v>
       </c>
       <c r="D104" t="n">
-        <v>0.931766</v>
+        <v>0.745475</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.906659</v>
+        <v>0.722157</v>
       </c>
       <c r="C105" t="n">
-        <v>0.905298</v>
+        <v>0.731853</v>
       </c>
       <c r="D105" t="n">
-        <v>0.91897</v>
+        <v>0.73327</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.900289</v>
+        <v>0.717002</v>
       </c>
       <c r="C106" t="n">
-        <v>0.89457</v>
+        <v>0.721719</v>
       </c>
       <c r="D106" t="n">
-        <v>0.907235</v>
+        <v>0.722608</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.896622</v>
+        <v>0.713684</v>
       </c>
       <c r="C107" t="n">
-        <v>0.886448</v>
+        <v>0.712016</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8993370000000001</v>
+        <v>0.713657</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.896016</v>
+        <v>0.712029</v>
       </c>
       <c r="C108" t="n">
-        <v>0.878708</v>
+        <v>0.704033</v>
       </c>
       <c r="D108" t="n">
-        <v>1.17668</v>
+        <v>0.990939</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8978660000000001</v>
+        <v>0.713745</v>
       </c>
       <c r="C109" t="n">
-        <v>0.873593</v>
+        <v>0.698676</v>
       </c>
       <c r="D109" t="n">
-        <v>1.17363</v>
+        <v>0.988298</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.10455</v>
+        <v>0.917408</v>
       </c>
       <c r="C110" t="n">
-        <v>1.14446</v>
+        <v>0.968298</v>
       </c>
       <c r="D110" t="n">
-        <v>1.16167</v>
+        <v>0.9777670000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.10626</v>
+        <v>0.912031</v>
       </c>
       <c r="C111" t="n">
-        <v>1.13436</v>
+        <v>0.957862</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14926</v>
+        <v>0.965569</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.10653</v>
+        <v>0.906133</v>
       </c>
       <c r="C112" t="n">
-        <v>1.12401</v>
+        <v>0.948247</v>
       </c>
       <c r="D112" t="n">
-        <v>1.13736</v>
+        <v>0.9564009999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.10653</v>
+        <v>0.90058</v>
       </c>
       <c r="C113" t="n">
-        <v>1.11537</v>
+        <v>0.938959</v>
       </c>
       <c r="D113" t="n">
-        <v>1.1265</v>
+        <v>0.9459649999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.10602</v>
+        <v>0.894804</v>
       </c>
       <c r="C114" t="n">
-        <v>1.1051</v>
+        <v>0.928544</v>
       </c>
       <c r="D114" t="n">
-        <v>1.11613</v>
+        <v>0.935634</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.10638</v>
+        <v>0.890005</v>
       </c>
       <c r="C115" t="n">
-        <v>1.09733</v>
+        <v>0.920299</v>
       </c>
       <c r="D115" t="n">
-        <v>1.10593</v>
+        <v>0.926374</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.10634</v>
+        <v>0.885629</v>
       </c>
       <c r="C116" t="n">
-        <v>1.08871</v>
+        <v>0.9115490000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>1.0961</v>
+        <v>0.917411</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.10819</v>
+        <v>0.88193</v>
       </c>
       <c r="C117" t="n">
-        <v>1.08155</v>
+        <v>0.903971</v>
       </c>
       <c r="D117" t="n">
-        <v>1.08769</v>
+        <v>0.909678</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10809</v>
+        <v>0.8800750000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>1.07287</v>
+        <v>0.896917</v>
       </c>
       <c r="D118" t="n">
-        <v>1.0785</v>
+        <v>0.9010359999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10914</v>
+        <v>0.878153</v>
       </c>
       <c r="C119" t="n">
-        <v>1.06731</v>
+        <v>0.890133</v>
       </c>
       <c r="D119" t="n">
-        <v>1.07102</v>
+        <v>0.895311</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.11215</v>
+        <v>0.87824</v>
       </c>
       <c r="C120" t="n">
-        <v>1.06172</v>
+        <v>0.884413</v>
       </c>
       <c r="D120" t="n">
-        <v>1.0652</v>
+        <v>0.889095</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.1151</v>
+        <v>0.879271</v>
       </c>
       <c r="C121" t="n">
-        <v>1.05667</v>
+        <v>0.879707</v>
       </c>
       <c r="D121" t="n">
-        <v>1.05916</v>
+        <v>0.8837120000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.11958</v>
+        <v>0.883188</v>
       </c>
       <c r="C122" t="n">
-        <v>1.05377</v>
+        <v>0.877605</v>
       </c>
       <c r="D122" t="n">
-        <v>1.0557</v>
+        <v>0.880173</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.12795</v>
+        <v>0.889485</v>
       </c>
       <c r="C123" t="n">
-        <v>1.052</v>
+        <v>0.87452</v>
       </c>
       <c r="D123" t="n">
-        <v>1.33647</v>
+        <v>1.16006</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.33105</v>
+        <v>1.08976</v>
       </c>
       <c r="C124" t="n">
-        <v>1.3214</v>
+        <v>1.14384</v>
       </c>
       <c r="D124" t="n">
-        <v>1.32779</v>
+        <v>1.1544</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.33129</v>
+        <v>1.08741</v>
       </c>
       <c r="C125" t="n">
-        <v>1.31615</v>
+        <v>1.13715</v>
       </c>
       <c r="D125" t="n">
-        <v>1.32048</v>
+        <v>1.14698</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33246</v>
+        <v>1.08487</v>
       </c>
       <c r="C126" t="n">
-        <v>1.30945</v>
+        <v>1.13119</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31443</v>
+        <v>1.14148</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.33342</v>
+        <v>1.08246</v>
       </c>
       <c r="C127" t="n">
-        <v>1.30485</v>
+        <v>1.12414</v>
       </c>
       <c r="D127" t="n">
-        <v>1.30784</v>
+        <v>1.13495</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.33408</v>
+        <v>1.08027</v>
       </c>
       <c r="C128" t="n">
-        <v>1.30032</v>
+        <v>1.11874</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30118</v>
+        <v>1.12915</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.33527</v>
+        <v>1.0787</v>
       </c>
       <c r="C129" t="n">
-        <v>1.2944</v>
+        <v>1.11426</v>
       </c>
       <c r="D129" t="n">
-        <v>1.29573</v>
+        <v>1.12511</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.33598</v>
+        <v>1.07719</v>
       </c>
       <c r="C130" t="n">
-        <v>1.29166</v>
+        <v>1.10976</v>
       </c>
       <c r="D130" t="n">
-        <v>1.29142</v>
+        <v>1.12001</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.33732</v>
+        <v>1.07706</v>
       </c>
       <c r="C131" t="n">
-        <v>1.28675</v>
+        <v>1.10517</v>
       </c>
       <c r="D131" t="n">
-        <v>1.28607</v>
+        <v>1.11609</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.33869</v>
+        <v>1.07785</v>
       </c>
       <c r="C132" t="n">
-        <v>1.28461</v>
+        <v>1.10108</v>
       </c>
       <c r="D132" t="n">
-        <v>1.28245</v>
+        <v>1.11151</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.3417</v>
+        <v>1.07859</v>
       </c>
       <c r="C133" t="n">
-        <v>1.28146</v>
+        <v>1.09721</v>
       </c>
       <c r="D133" t="n">
-        <v>1.27809</v>
+        <v>1.10869</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.34405</v>
+        <v>1.08208</v>
       </c>
       <c r="C134" t="n">
-        <v>1.28001</v>
+        <v>1.09569</v>
       </c>
       <c r="D134" t="n">
-        <v>1.27528</v>
+        <v>1.10743</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.34889</v>
+        <v>1.0859</v>
       </c>
       <c r="C135" t="n">
-        <v>1.27911</v>
+        <v>1.09482</v>
       </c>
       <c r="D135" t="n">
-        <v>1.27487</v>
+        <v>1.1063</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.35523</v>
+        <v>1.092</v>
       </c>
       <c r="C136" t="n">
-        <v>1.27937</v>
+        <v>1.09353</v>
       </c>
       <c r="D136" t="n">
-        <v>1.27124</v>
+        <v>1.10212</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.36572</v>
+        <v>1.09993</v>
       </c>
       <c r="C137" t="n">
-        <v>1.27921</v>
+        <v>1.09369</v>
       </c>
       <c r="D137" t="n">
-        <v>1.55138</v>
+        <v>1.38005</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.57266</v>
+        <v>1.30293</v>
       </c>
       <c r="C138" t="n">
-        <v>1.55023</v>
+        <v>1.36137</v>
       </c>
       <c r="D138" t="n">
-        <v>1.54779</v>
+        <v>1.37586</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.57028</v>
+        <v>1.30258</v>
       </c>
       <c r="C139" t="n">
-        <v>1.54712</v>
+        <v>1.35691</v>
       </c>
       <c r="D139" t="n">
-        <v>1.54344</v>
+        <v>1.37124</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.56796</v>
+        <v>1.30105</v>
       </c>
       <c r="C140" t="n">
-        <v>1.54354</v>
+        <v>1.35129</v>
       </c>
       <c r="D140" t="n">
-        <v>1.54183</v>
+        <v>1.36693</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.56652</v>
+        <v>1.30051</v>
       </c>
       <c r="C141" t="n">
-        <v>1.54012</v>
+        <v>1.34737</v>
       </c>
       <c r="D141" t="n">
-        <v>1.53754</v>
+        <v>1.364</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.5643</v>
+        <v>1.3</v>
       </c>
       <c r="C142" t="n">
-        <v>1.53964</v>
+        <v>1.34284</v>
       </c>
       <c r="D142" t="n">
-        <v>1.53518</v>
+        <v>1.36005</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.56322</v>
+        <v>1.30029</v>
       </c>
       <c r="C143" t="n">
-        <v>1.54122</v>
+        <v>1.33955</v>
       </c>
       <c r="D143" t="n">
-        <v>1.53281</v>
+        <v>1.35596</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.493987</v>
+        <v>0.512775</v>
       </c>
       <c r="C2" t="n">
-        <v>0.510755</v>
+        <v>0.556671</v>
       </c>
       <c r="D2" t="n">
-        <v>0.522183</v>
+        <v>0.558633</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.484792</v>
+        <v>0.5033530000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.497017</v>
+        <v>0.541083</v>
       </c>
       <c r="D3" t="n">
-        <v>0.507695</v>
+        <v>0.542876</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.476002</v>
+        <v>0.495095</v>
       </c>
       <c r="C4" t="n">
-        <v>0.483759</v>
+        <v>0.527517</v>
       </c>
       <c r="D4" t="n">
-        <v>0.49515</v>
+        <v>0.5293099999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.468665</v>
+        <v>0.488025</v>
       </c>
       <c r="C5" t="n">
-        <v>0.472064</v>
+        <v>0.514282</v>
       </c>
       <c r="D5" t="n">
-        <v>0.483978</v>
+        <v>0.51684</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.462838</v>
+        <v>0.498092</v>
       </c>
       <c r="C6" t="n">
-        <v>0.460962</v>
+        <v>0.502597</v>
       </c>
       <c r="D6" t="n">
-        <v>0.473371</v>
+        <v>0.505201</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.458965</v>
+        <v>0.497577</v>
       </c>
       <c r="C7" t="n">
-        <v>0.45071</v>
+        <v>0.491734</v>
       </c>
       <c r="D7" t="n">
-        <v>0.46455</v>
+        <v>0.495105</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.457973</v>
+        <v>0.475899</v>
       </c>
       <c r="C8" t="n">
-        <v>0.443769</v>
+        <v>0.484054</v>
       </c>
       <c r="D8" t="n">
-        <v>0.458981</v>
+        <v>0.487694</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.459727</v>
+        <v>0.497882</v>
       </c>
       <c r="C9" t="n">
-        <v>0.438503</v>
+        <v>0.478489</v>
       </c>
       <c r="D9" t="n">
-        <v>0.669822</v>
+        <v>0.803338</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.588078</v>
+        <v>0.669029</v>
       </c>
       <c r="C10" t="n">
-        <v>0.64116</v>
+        <v>0.757453</v>
       </c>
       <c r="D10" t="n">
-        <v>0.649596</v>
+        <v>0.777064</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.571248</v>
+        <v>0.649719</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6205850000000001</v>
+        <v>0.731766</v>
       </c>
       <c r="D11" t="n">
-        <v>0.629336</v>
+        <v>0.751016</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.556122</v>
+        <v>0.631776</v>
       </c>
       <c r="C12" t="n">
-        <v>0.60126</v>
+        <v>0.708387</v>
       </c>
       <c r="D12" t="n">
-        <v>0.610182</v>
+        <v>0.7274350000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.541235</v>
+        <v>0.614766</v>
       </c>
       <c r="C13" t="n">
-        <v>0.582724</v>
+        <v>0.685968</v>
       </c>
       <c r="D13" t="n">
-        <v>0.592251</v>
+        <v>0.704006</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.528053</v>
+        <v>0.597651</v>
       </c>
       <c r="C14" t="n">
-        <v>0.564855</v>
+        <v>0.664354</v>
       </c>
       <c r="D14" t="n">
-        <v>0.574943</v>
+        <v>0.682663</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.515765</v>
+        <v>0.582444</v>
       </c>
       <c r="C15" t="n">
-        <v>0.548423</v>
+        <v>0.643911</v>
       </c>
       <c r="D15" t="n">
-        <v>0.558775</v>
+        <v>0.662007</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.504107</v>
+        <v>0.568645</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5328619999999999</v>
+        <v>0.625221</v>
       </c>
       <c r="D16" t="n">
-        <v>0.543542</v>
+        <v>0.643138</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.493704</v>
+        <v>0.555413</v>
       </c>
       <c r="C17" t="n">
-        <v>0.517839</v>
+        <v>0.607011</v>
       </c>
       <c r="D17" t="n">
-        <v>0.529331</v>
+        <v>0.625228</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.48378</v>
+        <v>0.543728</v>
       </c>
       <c r="C18" t="n">
-        <v>0.504097</v>
+        <v>0.590193</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5157969999999999</v>
+        <v>0.6083460000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.476172</v>
+        <v>0.533679</v>
       </c>
       <c r="C19" t="n">
-        <v>0.491135</v>
+        <v>0.574005</v>
       </c>
       <c r="D19" t="n">
-        <v>0.503739</v>
+        <v>0.593087</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.469352</v>
+        <v>0.526118</v>
       </c>
       <c r="C20" t="n">
-        <v>0.479457</v>
+        <v>0.55938</v>
       </c>
       <c r="D20" t="n">
-        <v>0.492745</v>
+        <v>0.579399</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.464129</v>
+        <v>0.51905</v>
       </c>
       <c r="C21" t="n">
-        <v>0.468607</v>
+        <v>0.546445</v>
       </c>
       <c r="D21" t="n">
-        <v>0.483502</v>
+        <v>0.56778</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.461911</v>
+        <v>0.515049</v>
       </c>
       <c r="C22" t="n">
-        <v>0.460107</v>
+        <v>0.535344</v>
       </c>
       <c r="D22" t="n">
-        <v>0.477481</v>
+        <v>0.558895</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.462611</v>
+        <v>0.514261</v>
       </c>
       <c r="C23" t="n">
-        <v>0.453521</v>
+        <v>0.526311</v>
       </c>
       <c r="D23" t="n">
-        <v>0.736998</v>
+        <v>0.848115</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.626736</v>
+        <v>0.719158</v>
       </c>
       <c r="C24" t="n">
-        <v>0.687114</v>
+        <v>0.814582</v>
       </c>
       <c r="D24" t="n">
-        <v>0.713765</v>
+        <v>0.819862</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6090989999999999</v>
+        <v>0.69878</v>
       </c>
       <c r="C25" t="n">
-        <v>0.664965</v>
+        <v>0.788063</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6910770000000001</v>
+        <v>0.793286</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.59226</v>
+        <v>0.677897</v>
       </c>
       <c r="C26" t="n">
-        <v>0.64393</v>
+        <v>0.762116</v>
       </c>
       <c r="D26" t="n">
-        <v>0.669732</v>
+        <v>0.767983</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.577272</v>
+        <v>0.658673</v>
       </c>
       <c r="C27" t="n">
-        <v>0.62393</v>
+        <v>0.736334</v>
       </c>
       <c r="D27" t="n">
-        <v>0.649172</v>
+        <v>0.743959</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.561245</v>
+        <v>0.640834</v>
       </c>
       <c r="C28" t="n">
-        <v>0.604657</v>
+        <v>0.712925</v>
       </c>
       <c r="D28" t="n">
-        <v>0.62881</v>
+        <v>0.720105</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.54734</v>
+        <v>0.622711</v>
       </c>
       <c r="C29" t="n">
-        <v>0.586546</v>
+        <v>0.691429</v>
       </c>
       <c r="D29" t="n">
-        <v>0.610468</v>
+        <v>0.699834</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.534851</v>
+        <v>0.607303</v>
       </c>
       <c r="C30" t="n">
-        <v>0.569488</v>
+        <v>0.669949</v>
       </c>
       <c r="D30" t="n">
-        <v>0.593008</v>
+        <v>0.679511</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.522439</v>
+        <v>0.593862</v>
       </c>
       <c r="C31" t="n">
-        <v>0.553339</v>
+        <v>0.650266</v>
       </c>
       <c r="D31" t="n">
-        <v>0.57662</v>
+        <v>0.659786</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.512539</v>
+        <v>0.580736</v>
       </c>
       <c r="C32" t="n">
-        <v>0.537999</v>
+        <v>0.631938</v>
       </c>
       <c r="D32" t="n">
-        <v>0.56149</v>
+        <v>0.642139</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5024999999999999</v>
+        <v>0.5685480000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.523863</v>
+        <v>0.614302</v>
       </c>
       <c r="D33" t="n">
-        <v>0.547264</v>
+        <v>0.625445</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.494839</v>
+        <v>0.558779</v>
       </c>
       <c r="C34" t="n">
-        <v>0.510834</v>
+        <v>0.598177</v>
       </c>
       <c r="D34" t="n">
-        <v>0.535097</v>
+        <v>0.610832</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.488572</v>
+        <v>0.550301</v>
       </c>
       <c r="C35" t="n">
-        <v>0.499027</v>
+        <v>0.584059</v>
       </c>
       <c r="D35" t="n">
-        <v>0.524447</v>
+        <v>0.597858</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.484949</v>
+        <v>0.543882</v>
       </c>
       <c r="C36" t="n">
-        <v>0.489101</v>
+        <v>0.570005</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5158430000000001</v>
+        <v>0.586711</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.483815</v>
+        <v>0.540439</v>
       </c>
       <c r="C37" t="n">
-        <v>0.480811</v>
+        <v>0.5600349999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7608780000000001</v>
+        <v>0.879995</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.661022</v>
+        <v>0.7491910000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.72339</v>
+        <v>0.851618</v>
       </c>
       <c r="D38" t="n">
-        <v>0.736789</v>
+        <v>0.850885</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.642794</v>
+        <v>0.727864</v>
       </c>
       <c r="C39" t="n">
-        <v>0.700268</v>
+        <v>0.824668</v>
       </c>
       <c r="D39" t="n">
-        <v>0.713792</v>
+        <v>0.823861</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6246699999999999</v>
+        <v>0.706977</v>
       </c>
       <c r="C40" t="n">
-        <v>0.678231</v>
+        <v>0.798022</v>
       </c>
       <c r="D40" t="n">
-        <v>0.692229</v>
+        <v>0.796385</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.608094</v>
+        <v>0.686316</v>
       </c>
       <c r="C41" t="n">
-        <v>0.656555</v>
+        <v>0.77227</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6702090000000001</v>
+        <v>0.773563</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.592392</v>
+        <v>0.668215</v>
       </c>
       <c r="C42" t="n">
-        <v>0.636903</v>
+        <v>0.747847</v>
       </c>
       <c r="D42" t="n">
-        <v>0.650994</v>
+        <v>0.749881</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.577433</v>
+        <v>0.6505300000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.618614</v>
+        <v>0.725062</v>
       </c>
       <c r="D43" t="n">
-        <v>0.631918</v>
+        <v>0.727895</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.563765</v>
+        <v>0.634166</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5994930000000001</v>
+        <v>0.703179</v>
       </c>
       <c r="D44" t="n">
-        <v>0.614098</v>
+        <v>0.707188</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5515330000000001</v>
+        <v>0.6178399999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.58338</v>
+        <v>0.682708</v>
       </c>
       <c r="D45" t="n">
-        <v>0.597537</v>
+        <v>0.687424</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5398539999999999</v>
+        <v>0.604571</v>
       </c>
       <c r="C46" t="n">
-        <v>0.567347</v>
+        <v>0.663388</v>
       </c>
       <c r="D46" t="n">
-        <v>0.582091</v>
+        <v>0.66873</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.529832</v>
+        <v>0.591916</v>
       </c>
       <c r="C47" t="n">
-        <v>0.552956</v>
+        <v>0.644891</v>
       </c>
       <c r="D47" t="n">
-        <v>0.567811</v>
+        <v>0.651547</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.520759</v>
+        <v>0.57939</v>
       </c>
       <c r="C48" t="n">
-        <v>0.539164</v>
+        <v>0.62787</v>
       </c>
       <c r="D48" t="n">
-        <v>0.554229</v>
+        <v>0.635737</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5117620000000001</v>
+        <v>0.57179</v>
       </c>
       <c r="C49" t="n">
-        <v>0.524905</v>
+        <v>0.612769</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5426569999999999</v>
+        <v>0.621384</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.508481</v>
+        <v>0.564832</v>
       </c>
       <c r="C50" t="n">
-        <v>0.514995</v>
+        <v>0.599028</v>
       </c>
       <c r="D50" t="n">
-        <v>0.534129</v>
+        <v>0.609864</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.506661</v>
+        <v>0.560882</v>
       </c>
       <c r="C51" t="n">
-        <v>0.50658</v>
+        <v>0.586925</v>
       </c>
       <c r="D51" t="n">
-        <v>0.784505</v>
+        <v>0.911793</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.507515</v>
+        <v>0.55888</v>
       </c>
       <c r="C52" t="n">
-        <v>0.497776</v>
+        <v>0.579549</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7618239999999999</v>
+        <v>0.883616</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.671802</v>
+        <v>0.757463</v>
       </c>
       <c r="C53" t="n">
-        <v>0.727875</v>
+        <v>0.858774</v>
       </c>
       <c r="D53" t="n">
-        <v>0.738078</v>
+        <v>0.855283</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.653042</v>
+        <v>0.735607</v>
       </c>
       <c r="C54" t="n">
-        <v>0.705277</v>
+        <v>0.82946</v>
       </c>
       <c r="D54" t="n">
-        <v>0.716031</v>
+        <v>0.827595</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.636378</v>
+        <v>0.715417</v>
       </c>
       <c r="C55" t="n">
-        <v>0.682378</v>
+        <v>0.803911</v>
       </c>
       <c r="D55" t="n">
-        <v>0.695469</v>
+        <v>0.803489</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.619271</v>
+        <v>0.697105</v>
       </c>
       <c r="C56" t="n">
-        <v>0.665358</v>
+        <v>0.7800049999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.675782</v>
+        <v>0.780559</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.603403</v>
+        <v>0.678586</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6446190000000001</v>
+        <v>0.756835</v>
       </c>
       <c r="D57" t="n">
-        <v>0.655399</v>
+        <v>0.758744</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.589042</v>
+        <v>0.662483</v>
       </c>
       <c r="C58" t="n">
-        <v>0.626337</v>
+        <v>0.7368479999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.63861</v>
+        <v>0.73767</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5775</v>
+        <v>0.646369</v>
       </c>
       <c r="C59" t="n">
-        <v>0.610147</v>
+        <v>0.7157829999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.623075</v>
+        <v>0.718118</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.565093</v>
+        <v>0.633733</v>
       </c>
       <c r="C60" t="n">
-        <v>0.593237</v>
+        <v>0.696793</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6066859999999999</v>
+        <v>0.698485</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.554861</v>
+        <v>0.620035</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5797020000000001</v>
+        <v>0.676338</v>
       </c>
       <c r="D61" t="n">
-        <v>0.589797</v>
+        <v>0.681095</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.544639</v>
+        <v>0.608434</v>
       </c>
       <c r="C62" t="n">
-        <v>0.564978</v>
+        <v>0.658138</v>
       </c>
       <c r="D62" t="n">
-        <v>0.575698</v>
+        <v>0.66445</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.536583</v>
+        <v>0.59979</v>
       </c>
       <c r="C63" t="n">
-        <v>0.549916</v>
+        <v>0.64359</v>
       </c>
       <c r="D63" t="n">
-        <v>0.564273</v>
+        <v>0.649871</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.530949</v>
+        <v>0.591936</v>
       </c>
       <c r="C64" t="n">
-        <v>0.540233</v>
+        <v>0.629627</v>
       </c>
       <c r="D64" t="n">
-        <v>0.554017</v>
+        <v>0.637817</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.530598</v>
+        <v>0.586935</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5300049999999999</v>
+        <v>0.6161180000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.549608</v>
+        <v>0.627464</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.530623</v>
+        <v>0.584919</v>
       </c>
       <c r="C66" t="n">
-        <v>0.523786</v>
+        <v>0.6081260000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.790739</v>
+        <v>0.935567</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.702004</v>
+        <v>0.815237</v>
       </c>
       <c r="C67" t="n">
-        <v>0.763219</v>
+        <v>0.921841</v>
       </c>
       <c r="D67" t="n">
-        <v>0.767324</v>
+        <v>0.909022</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.684076</v>
+        <v>0.796122</v>
       </c>
       <c r="C68" t="n">
-        <v>0.740028</v>
+        <v>0.895132</v>
       </c>
       <c r="D68" t="n">
-        <v>0.744752</v>
+        <v>0.880887</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.666963</v>
+        <v>0.778809</v>
       </c>
       <c r="C69" t="n">
-        <v>0.719451</v>
+        <v>0.872731</v>
       </c>
       <c r="D69" t="n">
-        <v>0.723729</v>
+        <v>0.86102</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.650671</v>
+        <v>0.7651</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6979610000000001</v>
+        <v>0.846693</v>
       </c>
       <c r="D70" t="n">
-        <v>0.703938</v>
+        <v>0.836539</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.635023</v>
+        <v>0.746707</v>
       </c>
       <c r="C71" t="n">
-        <v>0.679633</v>
+        <v>0.821009</v>
       </c>
       <c r="D71" t="n">
-        <v>0.685549</v>
+        <v>0.811755</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.619892</v>
+        <v>0.731247</v>
       </c>
       <c r="C72" t="n">
-        <v>0.659589</v>
+        <v>0.799666</v>
       </c>
       <c r="D72" t="n">
-        <v>0.666713</v>
+        <v>0.791554</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.607091</v>
+        <v>0.718965</v>
       </c>
       <c r="C73" t="n">
-        <v>0.64208</v>
+        <v>0.779752</v>
       </c>
       <c r="D73" t="n">
-        <v>0.649777</v>
+        <v>0.771479</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5947170000000001</v>
+        <v>0.704511</v>
       </c>
       <c r="C74" t="n">
-        <v>0.625771</v>
+        <v>0.758057</v>
       </c>
       <c r="D74" t="n">
-        <v>0.632545</v>
+        <v>0.75244</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.582693</v>
+        <v>0.693165</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6091529999999999</v>
+        <v>0.739974</v>
       </c>
       <c r="D75" t="n">
-        <v>0.618741</v>
+        <v>0.734154</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.573618</v>
+        <v>0.67835</v>
       </c>
       <c r="C76" t="n">
-        <v>0.596498</v>
+        <v>0.719607</v>
       </c>
       <c r="D76" t="n">
-        <v>0.605712</v>
+        <v>0.715728</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.565351</v>
+        <v>0.666421</v>
       </c>
       <c r="C77" t="n">
-        <v>0.584359</v>
+        <v>0.7014629999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.593346</v>
+        <v>0.698958</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.560315</v>
+        <v>0.657774</v>
       </c>
       <c r="C78" t="n">
-        <v>0.571483</v>
+        <v>0.684422</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5834859999999999</v>
+        <v>0.682149</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.556958</v>
+        <v>0.646859</v>
       </c>
       <c r="C79" t="n">
-        <v>0.562083</v>
+        <v>0.670027</v>
       </c>
       <c r="D79" t="n">
-        <v>0.57633</v>
+        <v>0.672244</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5565099999999999</v>
+        <v>0.644131</v>
       </c>
       <c r="C80" t="n">
-        <v>0.553694</v>
+        <v>0.660035</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8383080000000001</v>
+        <v>1.01862</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.746526</v>
+        <v>0.892172</v>
       </c>
       <c r="C81" t="n">
-        <v>0.80928</v>
+        <v>1.00825</v>
       </c>
       <c r="D81" t="n">
-        <v>0.815123</v>
+        <v>0.997786</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.732202</v>
+        <v>0.88406</v>
       </c>
       <c r="C82" t="n">
-        <v>0.788547</v>
+        <v>0.991707</v>
       </c>
       <c r="D82" t="n">
-        <v>0.792963</v>
+        <v>0.975559</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.718041</v>
+        <v>0.873107</v>
       </c>
       <c r="C83" t="n">
-        <v>0.76673</v>
+        <v>0.971253</v>
       </c>
       <c r="D83" t="n">
-        <v>0.771133</v>
+        <v>0.9550380000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.70237</v>
+        <v>0.864121</v>
       </c>
       <c r="C84" t="n">
-        <v>0.746112</v>
+        <v>0.950721</v>
       </c>
       <c r="D84" t="n">
-        <v>0.750665</v>
+        <v>0.9325560000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6881350000000001</v>
+        <v>0.853842</v>
       </c>
       <c r="C85" t="n">
-        <v>0.726694</v>
+        <v>0.930055</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7307</v>
+        <v>0.910622</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.672851</v>
+        <v>0.842704</v>
       </c>
       <c r="C86" t="n">
-        <v>0.707055</v>
+        <v>0.907635</v>
       </c>
       <c r="D86" t="n">
-        <v>0.711932</v>
+        <v>0.888456</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.659281</v>
+        <v>0.8312659999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.689236</v>
+        <v>0.8858780000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.694123</v>
+        <v>0.860121</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6466190000000001</v>
+        <v>0.818022</v>
       </c>
       <c r="C88" t="n">
-        <v>0.672753</v>
+        <v>0.8686430000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.678374</v>
+        <v>0.848274</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.634663</v>
+        <v>0.810428</v>
       </c>
       <c r="C89" t="n">
-        <v>0.656098</v>
+        <v>0.847691</v>
       </c>
       <c r="D89" t="n">
-        <v>0.661209</v>
+        <v>0.827853</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.624669</v>
+        <v>0.79952</v>
       </c>
       <c r="C90" t="n">
-        <v>0.642424</v>
+        <v>0.828478</v>
       </c>
       <c r="D90" t="n">
-        <v>0.648888</v>
+        <v>0.808263</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.616445</v>
+        <v>0.7898230000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.629352</v>
+        <v>0.810554</v>
       </c>
       <c r="D91" t="n">
-        <v>0.635747</v>
+        <v>0.790107</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.608696</v>
+        <v>0.781678</v>
       </c>
       <c r="C92" t="n">
-        <v>0.616353</v>
+        <v>0.793609</v>
       </c>
       <c r="D92" t="n">
-        <v>0.622895</v>
+        <v>0.774739</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.602566</v>
+        <v>0.776072</v>
       </c>
       <c r="C93" t="n">
-        <v>0.603642</v>
+        <v>0.779952</v>
       </c>
       <c r="D93" t="n">
-        <v>0.613996</v>
+        <v>0.762142</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.600106</v>
+        <v>0.771802</v>
       </c>
       <c r="C94" t="n">
-        <v>0.595372</v>
+        <v>0.7673410000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.88978</v>
+        <v>1.11324</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.799324</v>
+        <v>1.02427</v>
       </c>
       <c r="C95" t="n">
-        <v>0.85699</v>
+        <v>1.12071</v>
       </c>
       <c r="D95" t="n">
-        <v>0.87897</v>
+        <v>1.1007</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.7983209999999999</v>
+        <v>1.02483</v>
       </c>
       <c r="C96" t="n">
-        <v>0.851004</v>
+        <v>1.11347</v>
       </c>
       <c r="D96" t="n">
-        <v>0.864795</v>
+        <v>1.08234</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7915180000000001</v>
+        <v>1.01515</v>
       </c>
       <c r="C97" t="n">
-        <v>0.838866</v>
+        <v>1.09397</v>
       </c>
       <c r="D97" t="n">
-        <v>0.848616</v>
+        <v>1.06214</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.782312</v>
+        <v>1.00442</v>
       </c>
       <c r="C98" t="n">
-        <v>0.824809</v>
+        <v>1.07539</v>
       </c>
       <c r="D98" t="n">
-        <v>0.832701</v>
+        <v>1.04152</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.772687</v>
+        <v>0.993857</v>
       </c>
       <c r="C99" t="n">
-        <v>0.809142</v>
+        <v>1.0553</v>
       </c>
       <c r="D99" t="n">
-        <v>0.815566</v>
+        <v>1.02145</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.763286</v>
+        <v>0.983498</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7959270000000001</v>
+        <v>1.03648</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8001</v>
+        <v>1.0019</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.752583</v>
+        <v>0.973826</v>
       </c>
       <c r="C101" t="n">
-        <v>0.781294</v>
+        <v>1.01831</v>
       </c>
       <c r="D101" t="n">
-        <v>0.78549</v>
+        <v>0.983484</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.743877</v>
+        <v>0.964546</v>
       </c>
       <c r="C102" t="n">
-        <v>0.767966</v>
+        <v>1.00064</v>
       </c>
       <c r="D102" t="n">
-        <v>0.770701</v>
+        <v>0.9656090000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.736379</v>
+        <v>0.956587</v>
       </c>
       <c r="C103" t="n">
-        <v>0.755939</v>
+        <v>0.985422</v>
       </c>
       <c r="D103" t="n">
-        <v>0.757984</v>
+        <v>0.94935</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.728418</v>
+        <v>0.948867</v>
       </c>
       <c r="C104" t="n">
-        <v>0.744486</v>
+        <v>0.969675</v>
       </c>
       <c r="D104" t="n">
-        <v>0.745475</v>
+        <v>0.933792</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.722157</v>
+        <v>0.942944</v>
       </c>
       <c r="C105" t="n">
-        <v>0.731853</v>
+        <v>0.956438</v>
       </c>
       <c r="D105" t="n">
-        <v>0.73327</v>
+        <v>0.919597</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.717002</v>
+        <v>0.938513</v>
       </c>
       <c r="C106" t="n">
-        <v>0.721719</v>
+        <v>0.943763</v>
       </c>
       <c r="D106" t="n">
-        <v>0.722608</v>
+        <v>0.9066650000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.713684</v>
+        <v>0.936159</v>
       </c>
       <c r="C107" t="n">
-        <v>0.712016</v>
+        <v>0.932352</v>
       </c>
       <c r="D107" t="n">
-        <v>0.713657</v>
+        <v>0.896472</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.712029</v>
+        <v>0.935891</v>
       </c>
       <c r="C108" t="n">
-        <v>0.704033</v>
+        <v>0.923585</v>
       </c>
       <c r="D108" t="n">
-        <v>0.990939</v>
+        <v>1.2478</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.713745</v>
+        <v>0.93999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.698676</v>
+        <v>0.917608</v>
       </c>
       <c r="D109" t="n">
-        <v>0.988298</v>
+        <v>1.23768</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.917408</v>
+        <v>1.18638</v>
       </c>
       <c r="C110" t="n">
-        <v>0.968298</v>
+        <v>1.2733</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9777670000000001</v>
+        <v>1.21867</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.912031</v>
+        <v>1.17414</v>
       </c>
       <c r="C111" t="n">
-        <v>0.957862</v>
+        <v>1.25299</v>
       </c>
       <c r="D111" t="n">
-        <v>0.965569</v>
+        <v>1.19982</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.906133</v>
+        <v>1.16206</v>
       </c>
       <c r="C112" t="n">
-        <v>0.948247</v>
+        <v>1.23378</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9564009999999999</v>
+        <v>1.18229</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.90058</v>
+        <v>1.15037</v>
       </c>
       <c r="C113" t="n">
-        <v>0.938959</v>
+        <v>1.21486</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9459649999999999</v>
+        <v>1.16415</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.894804</v>
+        <v>1.13948</v>
       </c>
       <c r="C114" t="n">
-        <v>0.928544</v>
+        <v>1.1969</v>
       </c>
       <c r="D114" t="n">
-        <v>0.935634</v>
+        <v>1.14775</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.890005</v>
+        <v>1.12868</v>
       </c>
       <c r="C115" t="n">
-        <v>0.920299</v>
+        <v>1.17939</v>
       </c>
       <c r="D115" t="n">
-        <v>0.926374</v>
+        <v>1.13272</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.885629</v>
+        <v>1.11967</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9115490000000001</v>
+        <v>1.16367</v>
       </c>
       <c r="D116" t="n">
-        <v>0.917411</v>
+        <v>1.11857</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.88193</v>
+        <v>1.11164</v>
       </c>
       <c r="C117" t="n">
-        <v>0.903971</v>
+        <v>1.14918</v>
       </c>
       <c r="D117" t="n">
-        <v>0.909678</v>
+        <v>1.10482</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8800750000000001</v>
+        <v>1.10451</v>
       </c>
       <c r="C118" t="n">
-        <v>0.896917</v>
+        <v>1.13532</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9010359999999999</v>
+        <v>1.09262</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.878153</v>
+        <v>1.09938</v>
       </c>
       <c r="C119" t="n">
-        <v>0.890133</v>
+        <v>1.12314</v>
       </c>
       <c r="D119" t="n">
-        <v>0.895311</v>
+        <v>1.08104</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.87824</v>
+        <v>1.09554</v>
       </c>
       <c r="C120" t="n">
-        <v>0.884413</v>
+        <v>1.11088</v>
       </c>
       <c r="D120" t="n">
-        <v>0.889095</v>
+        <v>1.06955</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.879271</v>
+        <v>1.09321</v>
       </c>
       <c r="C121" t="n">
-        <v>0.879707</v>
+        <v>1.10155</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8837120000000001</v>
+        <v>1.06025</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.883188</v>
+        <v>1.09374</v>
       </c>
       <c r="C122" t="n">
-        <v>0.877605</v>
+        <v>1.0927</v>
       </c>
       <c r="D122" t="n">
-        <v>0.880173</v>
+        <v>1.0527</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.889485</v>
+        <v>1.09865</v>
       </c>
       <c r="C123" t="n">
-        <v>0.87452</v>
+        <v>1.08766</v>
       </c>
       <c r="D123" t="n">
-        <v>1.16006</v>
+        <v>1.40206</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.08976</v>
+        <v>1.34788</v>
       </c>
       <c r="C124" t="n">
-        <v>1.14384</v>
+        <v>1.44225</v>
       </c>
       <c r="D124" t="n">
-        <v>1.1544</v>
+        <v>1.3857</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.08741</v>
+        <v>1.3373</v>
       </c>
       <c r="C125" t="n">
-        <v>1.13715</v>
+        <v>1.42477</v>
       </c>
       <c r="D125" t="n">
-        <v>1.14698</v>
+        <v>1.37035</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.08487</v>
+        <v>1.32787</v>
       </c>
       <c r="C126" t="n">
-        <v>1.13119</v>
+        <v>1.40667</v>
       </c>
       <c r="D126" t="n">
-        <v>1.14148</v>
+        <v>1.3567</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.08246</v>
+        <v>1.31902</v>
       </c>
       <c r="C127" t="n">
-        <v>1.12414</v>
+        <v>1.39046</v>
       </c>
       <c r="D127" t="n">
-        <v>1.13495</v>
+        <v>1.34445</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.08027</v>
+        <v>1.31</v>
       </c>
       <c r="C128" t="n">
-        <v>1.11874</v>
+        <v>1.3753</v>
       </c>
       <c r="D128" t="n">
-        <v>1.12915</v>
+        <v>1.33146</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.0787</v>
+        <v>1.30329</v>
       </c>
       <c r="C129" t="n">
-        <v>1.11426</v>
+        <v>1.36142</v>
       </c>
       <c r="D129" t="n">
-        <v>1.12511</v>
+        <v>1.32044</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.07719</v>
+        <v>1.29703</v>
       </c>
       <c r="C130" t="n">
-        <v>1.10976</v>
+        <v>1.34763</v>
       </c>
       <c r="D130" t="n">
-        <v>1.12001</v>
+        <v>1.30861</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.07706</v>
+        <v>1.29073</v>
       </c>
       <c r="C131" t="n">
-        <v>1.10517</v>
+        <v>1.33627</v>
       </c>
       <c r="D131" t="n">
-        <v>1.11609</v>
+        <v>1.2981</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.07785</v>
+        <v>1.28676</v>
       </c>
       <c r="C132" t="n">
-        <v>1.10108</v>
+        <v>1.3241</v>
       </c>
       <c r="D132" t="n">
-        <v>1.11151</v>
+        <v>1.28845</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.07859</v>
+        <v>1.28462</v>
       </c>
       <c r="C133" t="n">
-        <v>1.09721</v>
+        <v>1.31361</v>
       </c>
       <c r="D133" t="n">
-        <v>1.10869</v>
+        <v>1.28051</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.08208</v>
+        <v>1.28137</v>
       </c>
       <c r="C134" t="n">
-        <v>1.09569</v>
+        <v>1.30477</v>
       </c>
       <c r="D134" t="n">
-        <v>1.10743</v>
+        <v>1.27269</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.0859</v>
+        <v>1.28169</v>
       </c>
       <c r="C135" t="n">
-        <v>1.09482</v>
+        <v>1.29678</v>
       </c>
       <c r="D135" t="n">
-        <v>1.1063</v>
+        <v>1.26571</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.092</v>
+        <v>1.28386</v>
       </c>
       <c r="C136" t="n">
-        <v>1.09353</v>
+        <v>1.29044</v>
       </c>
       <c r="D136" t="n">
-        <v>1.10212</v>
+        <v>1.25669</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.09993</v>
+        <v>1.28819</v>
       </c>
       <c r="C137" t="n">
-        <v>1.09369</v>
+        <v>1.28549</v>
       </c>
       <c r="D137" t="n">
-        <v>1.38005</v>
+        <v>1.60298</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30293</v>
+        <v>1.53835</v>
       </c>
       <c r="C138" t="n">
-        <v>1.36137</v>
+        <v>1.64017</v>
       </c>
       <c r="D138" t="n">
-        <v>1.37586</v>
+        <v>1.59063</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.30258</v>
+        <v>1.53036</v>
       </c>
       <c r="C139" t="n">
-        <v>1.35691</v>
+        <v>1.62314</v>
       </c>
       <c r="D139" t="n">
-        <v>1.37124</v>
+        <v>1.57899</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.30105</v>
+        <v>1.52269</v>
       </c>
       <c r="C140" t="n">
-        <v>1.35129</v>
+        <v>1.60821</v>
       </c>
       <c r="D140" t="n">
-        <v>1.36693</v>
+        <v>1.56684</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.30051</v>
+        <v>1.51583</v>
       </c>
       <c r="C141" t="n">
-        <v>1.34737</v>
+        <v>1.59462</v>
       </c>
       <c r="D141" t="n">
-        <v>1.364</v>
+        <v>1.55545</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.3</v>
+        <v>1.50966</v>
       </c>
       <c r="C142" t="n">
-        <v>1.34284</v>
+        <v>1.58134</v>
       </c>
       <c r="D142" t="n">
-        <v>1.36005</v>
+        <v>1.54575</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.30029</v>
+        <v>1.50458</v>
       </c>
       <c r="C143" t="n">
-        <v>1.33955</v>
+        <v>1.56929</v>
       </c>
       <c r="D143" t="n">
-        <v>1.35596</v>
+        <v>1.536</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.176173</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.170454</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.16664</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.162842</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.15949</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.157601</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.157526</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.158158</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.224312</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.216303</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.20828</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.199434</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.192234</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.186342</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.179839</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.174481</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.169736</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.164781</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.161275</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.1601</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.160533</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.161606</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.244449</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.234816</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.226429</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.217678</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.209945</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.203289</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.196451</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.190226</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.187762</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.183073</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.179351</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.174756</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.174169</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.174738</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.249169</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.239482</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.230602</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.218626</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.210872</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.203724</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.196883</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.191412</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.18555</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.181005</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.177226</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.174961</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.173021</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.173452</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.17753</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.24268</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.233963</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.2252</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.217991</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.209943</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.203009</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.196908</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.191258</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.18607</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.182011</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.178467</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.177595</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.177299</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.180167</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.244646</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.235989</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.228156</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.220387</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.212482</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.205975</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.200613</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.194739</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.189617</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.184908</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.181292</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.178826</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.179163</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.181138</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.257644</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.249569</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.241893</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.234751</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.226978</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.219799</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.213375</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.207166</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.201474</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.19677</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.192537</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.189582</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.188357</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.18918</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.26912</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.263515</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.258001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.251707</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.244324</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.237919</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.232212</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.227439</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.221821</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.217357</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.213424</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.210226</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.207964</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.207921</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.209559</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.283981</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.277131</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.270794</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.264867</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.259794</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.253954</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.24921</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.244865</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.240339</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.236998</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.233953</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.231224</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.230513</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.231737</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.319243</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.313506</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.307885</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.302012</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.296555</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.291959</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.287332</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.283552</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.279594</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.276526</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.273541</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.271458</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.271185</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.271892</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.37228</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.367218</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.360389</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.354692</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.350179</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.345269</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.185496</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.17914</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.170524</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.169499</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.149657</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.161619</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.160816</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.161312</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.237105</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.225645</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.217736</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.210439</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.202388</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.195072</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.188701</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.182715</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.178189</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.173444</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.169013</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.16628</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.16432</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.164868</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.244335</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.234904</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.227016</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.218274</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.211272</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.204111</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.196912</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.190547</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.187527</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.182838</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.180848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.17426</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.172159</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.171778</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.256269</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.246739</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.23547</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.225397</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.217593</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.209907</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.202922</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.196554</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.190564</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.185285</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.180769</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.177066</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.174203</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.173722</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.175298</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.251635</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.242034</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.233004</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.225257</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.217553</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.209839</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.202907</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.197025</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.1914</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.186386</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.182207</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.179104</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.177727</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.178898</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.260092</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.251907</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.241291</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.232729</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.224656</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.216811</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.20989</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.203254</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.19737</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.192268</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.187689</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.184139</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.182458</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.182405</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.263051</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.254497</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.245979</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.237991</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.229829</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.222655</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.215492</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.208861</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.202819</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.197551</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.19288</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.189225</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.186981</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.18652</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.279398</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.272839</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.265664</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.25832</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.251327</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.243832</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.237699</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.231533</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.225275</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.221074</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.215871</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.212823</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.211155</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.210494</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.212712</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.296635</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.289079</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.281344</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.274607</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.268304</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.26231</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.256897</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.251768</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.247624</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.243795</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.240537</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.237909</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.237154</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.238699</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.324651</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.318184</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.312519</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.307125</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.302006</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.29769</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.293184</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.28978</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.286402</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.283895</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.281675</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.280269</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.280711</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.282617</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.382259</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.37477</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.368197</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.362373</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.35649</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.35135</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.177535</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.17311</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.162867</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.164279</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.160258</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.149896</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.158577</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.234336</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.224925</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.216883</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.20972</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.201848</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.194494</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.187921</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.182167</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.177316</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.171691</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.168023</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.165471</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.163669</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.163704</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.242678</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.235687</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.22455</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.218977</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.21035</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.203212</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.195416</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.188549</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.18509</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.182046</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.179224</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.177848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.173541</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.169102</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.254042</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.259149</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.236306</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.222767</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.216405</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.208142</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.201677</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.195548</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.189056</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.182624</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.178156</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.174608</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.171633</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.170934</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.255758</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.247302</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.23943</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.22978</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.220805</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.213086</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.206423</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.199202</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.193161</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.188345</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.183701</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.179105</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.175983</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.175207</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.176868</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.255168</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.245687</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.235894</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.228449</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.220252</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.212395</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.205789</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.198979</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.193168</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.187939</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.183439</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.179541</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.179061</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.179082</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.259911</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.251563</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.242857</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.234493</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.226465</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.218893</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.211566</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.20522</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.199014</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.193511</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.189531</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.185885</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.18375</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.183845</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.278244</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.271679</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.265508</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.256713</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.249207</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.24149</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.235856</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.228715</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.223444</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.218043</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.213537</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.210039</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.208195</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.208204</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.304461</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.297571</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.287177</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.279271</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.273178</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.266397</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.260727</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.255738</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.250645</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.245993</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.241963</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.238673</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.236356</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.235818</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.237864</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.32462</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.319055</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.314235</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.309144</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.304711</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.300168</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.296269</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.292886</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.289318</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.287032</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.285057</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.283504</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.284257</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.286675</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.386674</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.379899</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.37323</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.367346</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.361801</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.356534</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.351406</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.512775</v>
+        <v>0.512662</v>
       </c>
       <c r="C2" t="n">
-        <v>0.556671</v>
+        <v>0.55715</v>
       </c>
       <c r="D2" t="n">
-        <v>0.558633</v>
+        <v>0.55811</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5033530000000001</v>
+        <v>0.503549</v>
       </c>
       <c r="C3" t="n">
-        <v>0.541083</v>
+        <v>0.541284</v>
       </c>
       <c r="D3" t="n">
-        <v>0.542876</v>
+        <v>0.543018</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.495095</v>
+        <v>0.494921</v>
       </c>
       <c r="C4" t="n">
-        <v>0.527517</v>
+        <v>0.526518</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5293099999999999</v>
+        <v>0.529427</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.488025</v>
+        <v>0.487707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.514282</v>
+        <v>0.513693</v>
       </c>
       <c r="D5" t="n">
-        <v>0.51684</v>
+        <v>0.516494</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.498092</v>
+        <v>0.481175</v>
       </c>
       <c r="C6" t="n">
-        <v>0.502597</v>
+        <v>0.5024459999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.505201</v>
+        <v>0.505141</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.497577</v>
+        <v>0.477153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.491734</v>
+        <v>0.491586</v>
       </c>
       <c r="D7" t="n">
-        <v>0.495105</v>
+        <v>0.493811</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.475899</v>
+        <v>0.476028</v>
       </c>
       <c r="C8" t="n">
-        <v>0.484054</v>
+        <v>0.483915</v>
       </c>
       <c r="D8" t="n">
-        <v>0.487694</v>
+        <v>0.48724</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.497882</v>
+        <v>0.477714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.478489</v>
+        <v>0.477071</v>
       </c>
       <c r="D9" t="n">
-        <v>0.803338</v>
+        <v>0.803611</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.669029</v>
+        <v>0.669503</v>
       </c>
       <c r="C10" t="n">
-        <v>0.757453</v>
+        <v>0.757005</v>
       </c>
       <c r="D10" t="n">
-        <v>0.777064</v>
+        <v>0.776774</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.649719</v>
+        <v>0.65077</v>
       </c>
       <c r="C11" t="n">
-        <v>0.731766</v>
+        <v>0.732121</v>
       </c>
       <c r="D11" t="n">
-        <v>0.751016</v>
+        <v>0.751318</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.631776</v>
+        <v>0.631597</v>
       </c>
       <c r="C12" t="n">
-        <v>0.708387</v>
+        <v>0.709056</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7274350000000001</v>
+        <v>0.727548</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.614766</v>
+        <v>0.6145929999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.685968</v>
+        <v>0.686409</v>
       </c>
       <c r="D13" t="n">
-        <v>0.704006</v>
+        <v>0.704968</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.597651</v>
+        <v>0.598316</v>
       </c>
       <c r="C14" t="n">
-        <v>0.664354</v>
+        <v>0.6641010000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.682663</v>
+        <v>0.68343</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.582444</v>
+        <v>0.582979</v>
       </c>
       <c r="C15" t="n">
-        <v>0.643911</v>
+        <v>0.643738</v>
       </c>
       <c r="D15" t="n">
-        <v>0.662007</v>
+        <v>0.663065</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.568645</v>
+        <v>0.568697</v>
       </c>
       <c r="C16" t="n">
-        <v>0.625221</v>
+        <v>0.6254189999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.643138</v>
+        <v>0.643948</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.555413</v>
+        <v>0.557242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.607011</v>
+        <v>0.60763</v>
       </c>
       <c r="D17" t="n">
-        <v>0.625228</v>
+        <v>0.626461</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.543728</v>
+        <v>0.5442939999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.590193</v>
+        <v>0.589948</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6083460000000001</v>
+        <v>0.608977</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.533679</v>
+        <v>0.534782</v>
       </c>
       <c r="C19" t="n">
-        <v>0.574005</v>
+        <v>0.574267</v>
       </c>
       <c r="D19" t="n">
-        <v>0.593087</v>
+        <v>0.59358</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.526118</v>
+        <v>0.525316</v>
       </c>
       <c r="C20" t="n">
-        <v>0.55938</v>
+        <v>0.559414</v>
       </c>
       <c r="D20" t="n">
-        <v>0.579399</v>
+        <v>0.579643</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.51905</v>
+        <v>0.519301</v>
       </c>
       <c r="C21" t="n">
-        <v>0.546445</v>
+        <v>0.546203</v>
       </c>
       <c r="D21" t="n">
-        <v>0.56778</v>
+        <v>0.568159</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.515049</v>
+        <v>0.5150670000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.535344</v>
+        <v>0.5355490000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.558895</v>
+        <v>0.559273</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.514261</v>
+        <v>0.514634</v>
       </c>
       <c r="C23" t="n">
-        <v>0.526311</v>
+        <v>0.526837</v>
       </c>
       <c r="D23" t="n">
-        <v>0.848115</v>
+        <v>0.848735</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.719158</v>
+        <v>0.7190879999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.814582</v>
+        <v>0.815375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.819862</v>
+        <v>0.820702</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.69878</v>
+        <v>0.698449</v>
       </c>
       <c r="C25" t="n">
-        <v>0.788063</v>
+        <v>0.788595</v>
       </c>
       <c r="D25" t="n">
-        <v>0.793286</v>
+        <v>0.793638</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.677897</v>
+        <v>0.6778</v>
       </c>
       <c r="C26" t="n">
-        <v>0.762116</v>
+        <v>0.7627429999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.767983</v>
+        <v>0.768465</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.658673</v>
+        <v>0.658733</v>
       </c>
       <c r="C27" t="n">
-        <v>0.736334</v>
+        <v>0.7372840000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.743959</v>
+        <v>0.743458</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.640834</v>
+        <v>0.640755</v>
       </c>
       <c r="C28" t="n">
-        <v>0.712925</v>
+        <v>0.714218</v>
       </c>
       <c r="D28" t="n">
-        <v>0.720105</v>
+        <v>0.721839</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.622711</v>
+        <v>0.623723</v>
       </c>
       <c r="C29" t="n">
-        <v>0.691429</v>
+        <v>0.691626</v>
       </c>
       <c r="D29" t="n">
-        <v>0.699834</v>
+        <v>0.700456</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.607303</v>
+        <v>0.607422</v>
       </c>
       <c r="C30" t="n">
-        <v>0.669949</v>
+        <v>0.670974</v>
       </c>
       <c r="D30" t="n">
-        <v>0.679511</v>
+        <v>0.68027</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.593862</v>
+        <v>0.594063</v>
       </c>
       <c r="C31" t="n">
-        <v>0.650266</v>
+        <v>0.650209</v>
       </c>
       <c r="D31" t="n">
-        <v>0.659786</v>
+        <v>0.660883</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.580736</v>
+        <v>0.580618</v>
       </c>
       <c r="C32" t="n">
-        <v>0.631938</v>
+        <v>0.632159</v>
       </c>
       <c r="D32" t="n">
-        <v>0.642139</v>
+        <v>0.641853</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5685480000000001</v>
+        <v>0.568669</v>
       </c>
       <c r="C33" t="n">
-        <v>0.614302</v>
+        <v>0.6149250000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.625445</v>
+        <v>0.626342</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.558779</v>
+        <v>0.55871</v>
       </c>
       <c r="C34" t="n">
-        <v>0.598177</v>
+        <v>0.597847</v>
       </c>
       <c r="D34" t="n">
-        <v>0.610832</v>
+        <v>0.610822</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.550301</v>
+        <v>0.549925</v>
       </c>
       <c r="C35" t="n">
-        <v>0.584059</v>
+        <v>0.583797</v>
       </c>
       <c r="D35" t="n">
-        <v>0.597858</v>
+        <v>0.598069</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.543882</v>
+        <v>0.543802</v>
       </c>
       <c r="C36" t="n">
-        <v>0.570005</v>
+        <v>0.571171</v>
       </c>
       <c r="D36" t="n">
-        <v>0.586711</v>
+        <v>0.587093</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.540439</v>
+        <v>0.5399659999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5600349999999999</v>
+        <v>0.560301</v>
       </c>
       <c r="D37" t="n">
-        <v>0.879995</v>
+        <v>0.880845</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7491910000000001</v>
+        <v>0.749678</v>
       </c>
       <c r="C38" t="n">
-        <v>0.851618</v>
+        <v>0.852416</v>
       </c>
       <c r="D38" t="n">
-        <v>0.850885</v>
+        <v>0.852595</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.727864</v>
+        <v>0.7285970000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.824668</v>
+        <v>0.825638</v>
       </c>
       <c r="D39" t="n">
-        <v>0.823861</v>
+        <v>0.825173</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.706977</v>
+        <v>0.7072619999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.798022</v>
+        <v>0.798258</v>
       </c>
       <c r="D40" t="n">
-        <v>0.796385</v>
+        <v>0.799307</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.686316</v>
+        <v>0.686671</v>
       </c>
       <c r="C41" t="n">
-        <v>0.77227</v>
+        <v>0.772723</v>
       </c>
       <c r="D41" t="n">
-        <v>0.773563</v>
+        <v>0.774231</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.668215</v>
+        <v>0.668231</v>
       </c>
       <c r="C42" t="n">
-        <v>0.747847</v>
+        <v>0.748512</v>
       </c>
       <c r="D42" t="n">
-        <v>0.749881</v>
+        <v>0.750939</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6505300000000001</v>
+        <v>0.650468</v>
       </c>
       <c r="C43" t="n">
-        <v>0.725062</v>
+        <v>0.725328</v>
       </c>
       <c r="D43" t="n">
-        <v>0.727895</v>
+        <v>0.728313</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.634166</v>
+        <v>0.634169</v>
       </c>
       <c r="C44" t="n">
-        <v>0.703179</v>
+        <v>0.703148</v>
       </c>
       <c r="D44" t="n">
-        <v>0.707188</v>
+        <v>0.70753</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6178399999999999</v>
+        <v>0.618715</v>
       </c>
       <c r="C45" t="n">
-        <v>0.682708</v>
+        <v>0.682958</v>
       </c>
       <c r="D45" t="n">
-        <v>0.687424</v>
+        <v>0.688526</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.604571</v>
+        <v>0.603623</v>
       </c>
       <c r="C46" t="n">
-        <v>0.663388</v>
+        <v>0.663155</v>
       </c>
       <c r="D46" t="n">
-        <v>0.66873</v>
+        <v>0.66936</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.591916</v>
+        <v>0.591153</v>
       </c>
       <c r="C47" t="n">
-        <v>0.644891</v>
+        <v>0.644949</v>
       </c>
       <c r="D47" t="n">
-        <v>0.651547</v>
+        <v>0.652019</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.57939</v>
+        <v>0.581141</v>
       </c>
       <c r="C48" t="n">
-        <v>0.62787</v>
+        <v>0.628275</v>
       </c>
       <c r="D48" t="n">
-        <v>0.635737</v>
+        <v>0.635988</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.57179</v>
+        <v>0.571941</v>
       </c>
       <c r="C49" t="n">
-        <v>0.612769</v>
+        <v>0.61244</v>
       </c>
       <c r="D49" t="n">
-        <v>0.621384</v>
+        <v>0.621899</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.564832</v>
+        <v>0.562172</v>
       </c>
       <c r="C50" t="n">
-        <v>0.599028</v>
+        <v>0.597433</v>
       </c>
       <c r="D50" t="n">
-        <v>0.609864</v>
+        <v>0.610087</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.560882</v>
+        <v>0.560491</v>
       </c>
       <c r="C51" t="n">
-        <v>0.586925</v>
+        <v>0.587518</v>
       </c>
       <c r="D51" t="n">
-        <v>0.911793</v>
+        <v>0.911771</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.55888</v>
+        <v>0.559411</v>
       </c>
       <c r="C52" t="n">
-        <v>0.579549</v>
+        <v>0.578698</v>
       </c>
       <c r="D52" t="n">
-        <v>0.883616</v>
+        <v>0.883532</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.757463</v>
+        <v>0.757374</v>
       </c>
       <c r="C53" t="n">
-        <v>0.858774</v>
+        <v>0.85838</v>
       </c>
       <c r="D53" t="n">
-        <v>0.855283</v>
+        <v>0.85497</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.735607</v>
+        <v>0.735795</v>
       </c>
       <c r="C54" t="n">
-        <v>0.82946</v>
+        <v>0.830844</v>
       </c>
       <c r="D54" t="n">
-        <v>0.827595</v>
+        <v>0.828902</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.715417</v>
+        <v>0.716631</v>
       </c>
       <c r="C55" t="n">
-        <v>0.803911</v>
+        <v>0.804885</v>
       </c>
       <c r="D55" t="n">
-        <v>0.803489</v>
+        <v>0.804968</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.697105</v>
+        <v>0.697596</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7800049999999999</v>
+        <v>0.780571</v>
       </c>
       <c r="D56" t="n">
-        <v>0.780559</v>
+        <v>0.7802789999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.678586</v>
+        <v>0.680269</v>
       </c>
       <c r="C57" t="n">
-        <v>0.756835</v>
+        <v>0.758084</v>
       </c>
       <c r="D57" t="n">
-        <v>0.758744</v>
+        <v>0.759097</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.662483</v>
+        <v>0.664158</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7368479999999999</v>
+        <v>0.734822</v>
       </c>
       <c r="D58" t="n">
-        <v>0.73767</v>
+        <v>0.7374000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.646369</v>
+        <v>0.648174</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7157829999999999</v>
+        <v>0.715133</v>
       </c>
       <c r="D59" t="n">
-        <v>0.718118</v>
+        <v>0.718478</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.633733</v>
+        <v>0.634387</v>
       </c>
       <c r="C60" t="n">
-        <v>0.696793</v>
+        <v>0.696095</v>
       </c>
       <c r="D60" t="n">
-        <v>0.698485</v>
+        <v>0.69956</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.620035</v>
+        <v>0.6216930000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.676338</v>
+        <v>0.677809</v>
       </c>
       <c r="D61" t="n">
-        <v>0.681095</v>
+        <v>0.6818380000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.608434</v>
+        <v>0.609907</v>
       </c>
       <c r="C62" t="n">
-        <v>0.658138</v>
+        <v>0.660014</v>
       </c>
       <c r="D62" t="n">
-        <v>0.66445</v>
+        <v>0.665596</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.59979</v>
+        <v>0.600279</v>
       </c>
       <c r="C63" t="n">
-        <v>0.64359</v>
+        <v>0.6432639999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.649871</v>
+        <v>0.651196</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.591936</v>
+        <v>0.591916</v>
       </c>
       <c r="C64" t="n">
-        <v>0.629627</v>
+        <v>0.628564</v>
       </c>
       <c r="D64" t="n">
-        <v>0.637817</v>
+        <v>0.638807</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.586935</v>
+        <v>0.587418</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6161180000000001</v>
+        <v>0.6191719999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.627464</v>
+        <v>0.629263</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.584919</v>
+        <v>0.586179</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6081260000000001</v>
+        <v>0.607436</v>
       </c>
       <c r="D66" t="n">
-        <v>0.935567</v>
+        <v>0.9349690000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.815237</v>
+        <v>0.812833</v>
       </c>
       <c r="C67" t="n">
-        <v>0.921841</v>
+        <v>0.920286</v>
       </c>
       <c r="D67" t="n">
-        <v>0.909022</v>
+        <v>0.907737</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.796122</v>
+        <v>0.796064</v>
       </c>
       <c r="C68" t="n">
-        <v>0.895132</v>
+        <v>0.893593</v>
       </c>
       <c r="D68" t="n">
-        <v>0.880887</v>
+        <v>0.882562</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.778809</v>
+        <v>0.779341</v>
       </c>
       <c r="C69" t="n">
-        <v>0.872731</v>
+        <v>0.8691759999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.86102</v>
+        <v>0.857799</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7651</v>
+        <v>0.7622949999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.846693</v>
+        <v>0.84601</v>
       </c>
       <c r="D70" t="n">
-        <v>0.836539</v>
+        <v>0.833102</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.746707</v>
+        <v>0.744694</v>
       </c>
       <c r="C71" t="n">
-        <v>0.821009</v>
+        <v>0.821282</v>
       </c>
       <c r="D71" t="n">
-        <v>0.811755</v>
+        <v>0.812473</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.731247</v>
+        <v>0.732966</v>
       </c>
       <c r="C72" t="n">
-        <v>0.799666</v>
+        <v>0.7996760000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.791554</v>
+        <v>0.793066</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.718965</v>
+        <v>0.719237</v>
       </c>
       <c r="C73" t="n">
-        <v>0.779752</v>
+        <v>0.778759</v>
       </c>
       <c r="D73" t="n">
-        <v>0.771479</v>
+        <v>0.771459</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.704511</v>
+        <v>0.704681</v>
       </c>
       <c r="C74" t="n">
-        <v>0.758057</v>
+        <v>0.758315</v>
       </c>
       <c r="D74" t="n">
-        <v>0.75244</v>
+        <v>0.751889</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.693165</v>
+        <v>0.691804</v>
       </c>
       <c r="C75" t="n">
-        <v>0.739974</v>
+        <v>0.7369250000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.734154</v>
+        <v>0.732201</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.67835</v>
+        <v>0.675702</v>
       </c>
       <c r="C76" t="n">
-        <v>0.719607</v>
+        <v>0.716177</v>
       </c>
       <c r="D76" t="n">
-        <v>0.715728</v>
+        <v>0.713352</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.666421</v>
+        <v>0.6666069999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7014629999999999</v>
+        <v>0.700404</v>
       </c>
       <c r="D77" t="n">
-        <v>0.698958</v>
+        <v>0.699334</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.657774</v>
+        <v>0.658319</v>
       </c>
       <c r="C78" t="n">
-        <v>0.684422</v>
+        <v>0.686409</v>
       </c>
       <c r="D78" t="n">
-        <v>0.682149</v>
+        <v>0.68715</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.646859</v>
+        <v>0.650163</v>
       </c>
       <c r="C79" t="n">
-        <v>0.670027</v>
+        <v>0.671654</v>
       </c>
       <c r="D79" t="n">
-        <v>0.672244</v>
+        <v>0.674334</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.644131</v>
+        <v>0.644367</v>
       </c>
       <c r="C80" t="n">
-        <v>0.660035</v>
+        <v>0.660589</v>
       </c>
       <c r="D80" t="n">
-        <v>1.01862</v>
+        <v>1.02102</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.892172</v>
+        <v>0.893182</v>
       </c>
       <c r="C81" t="n">
-        <v>1.00825</v>
+        <v>1.01191</v>
       </c>
       <c r="D81" t="n">
-        <v>0.997786</v>
+        <v>1.00072</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.88406</v>
+        <v>0.886585</v>
       </c>
       <c r="C82" t="n">
-        <v>0.991707</v>
+        <v>0.995958</v>
       </c>
       <c r="D82" t="n">
-        <v>0.975559</v>
+        <v>0.976866</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.873107</v>
+        <v>0.874743</v>
       </c>
       <c r="C83" t="n">
-        <v>0.971253</v>
+        <v>0.97193</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9550380000000001</v>
+        <v>0.95422</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.864121</v>
+        <v>0.8643420000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.950721</v>
+        <v>0.950703</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9325560000000001</v>
+        <v>0.933916</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.853842</v>
+        <v>0.853935</v>
       </c>
       <c r="C85" t="n">
-        <v>0.930055</v>
+        <v>0.9299539999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.910622</v>
+        <v>0.912142</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.842704</v>
+        <v>0.843947</v>
       </c>
       <c r="C86" t="n">
-        <v>0.907635</v>
+        <v>0.909174</v>
       </c>
       <c r="D86" t="n">
-        <v>0.888456</v>
+        <v>0.889297</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8312659999999999</v>
+        <v>0.833493</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8858780000000001</v>
+        <v>0.888161</v>
       </c>
       <c r="D87" t="n">
-        <v>0.860121</v>
+        <v>0.867255</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.818022</v>
+        <v>0.820892</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8686430000000001</v>
+        <v>0.865907</v>
       </c>
       <c r="D88" t="n">
-        <v>0.848274</v>
+        <v>0.845895</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.810428</v>
+        <v>0.810627</v>
       </c>
       <c r="C89" t="n">
-        <v>0.847691</v>
+        <v>0.847648</v>
       </c>
       <c r="D89" t="n">
-        <v>0.827853</v>
+        <v>0.824846</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.79952</v>
+        <v>0.797551</v>
       </c>
       <c r="C90" t="n">
-        <v>0.828478</v>
+        <v>0.826678</v>
       </c>
       <c r="D90" t="n">
-        <v>0.808263</v>
+        <v>0.805634</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7898230000000001</v>
+        <v>0.790064</v>
       </c>
       <c r="C91" t="n">
-        <v>0.810554</v>
+        <v>0.808319</v>
       </c>
       <c r="D91" t="n">
-        <v>0.790107</v>
+        <v>0.7888849999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.781678</v>
+        <v>0.781061</v>
       </c>
       <c r="C92" t="n">
-        <v>0.793609</v>
+        <v>0.792239</v>
       </c>
       <c r="D92" t="n">
-        <v>0.774739</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.776072</v>
+        <v>0.774694</v>
       </c>
       <c r="C93" t="n">
-        <v>0.779952</v>
+        <v>0.777817</v>
       </c>
       <c r="D93" t="n">
-        <v>0.762142</v>
+        <v>0.760612</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.771802</v>
+        <v>0.770424</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7673410000000001</v>
+        <v>0.766868</v>
       </c>
       <c r="D94" t="n">
-        <v>1.11324</v>
+        <v>1.11244</v>
       </c>
     </row>
     <row r="95">
@@ -4550,10 +4550,10 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02427</v>
+        <v>1.02436</v>
       </c>
       <c r="C95" t="n">
-        <v>1.12071</v>
+        <v>1.12191</v>
       </c>
       <c r="D95" t="n">
         <v>1.1007</v>
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02483</v>
+        <v>1.02463</v>
       </c>
       <c r="C96" t="n">
-        <v>1.11347</v>
+        <v>1.11332</v>
       </c>
       <c r="D96" t="n">
-        <v>1.08234</v>
+        <v>1.08266</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01515</v>
+        <v>1.01521</v>
       </c>
       <c r="C97" t="n">
-        <v>1.09397</v>
+        <v>1.09463</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06214</v>
+        <v>1.06168</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00442</v>
+        <v>1.00471</v>
       </c>
       <c r="C98" t="n">
-        <v>1.07539</v>
+        <v>1.07434</v>
       </c>
       <c r="D98" t="n">
-        <v>1.04152</v>
+        <v>1.04133</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.993857</v>
+        <v>0.993547</v>
       </c>
       <c r="C99" t="n">
-        <v>1.0553</v>
+        <v>1.05522</v>
       </c>
       <c r="D99" t="n">
-        <v>1.02145</v>
+        <v>1.02051</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.983498</v>
+        <v>0.983032</v>
       </c>
       <c r="C100" t="n">
-        <v>1.03648</v>
+        <v>1.03539</v>
       </c>
       <c r="D100" t="n">
-        <v>1.0019</v>
+        <v>1.00107</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.973826</v>
+        <v>0.973391</v>
       </c>
       <c r="C101" t="n">
-        <v>1.01831</v>
+        <v>1.01794</v>
       </c>
       <c r="D101" t="n">
-        <v>0.983484</v>
+        <v>0.982883</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.964546</v>
+        <v>0.9641</v>
       </c>
       <c r="C102" t="n">
-        <v>1.00064</v>
+        <v>1.00167</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9656090000000001</v>
+        <v>0.965876</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.956587</v>
+        <v>0.957044</v>
       </c>
       <c r="C103" t="n">
-        <v>0.985422</v>
+        <v>0.985621</v>
       </c>
       <c r="D103" t="n">
-        <v>0.94935</v>
+        <v>0.949541</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.948867</v>
+        <v>0.948983</v>
       </c>
       <c r="C104" t="n">
-        <v>0.969675</v>
+        <v>0.970778</v>
       </c>
       <c r="D104" t="n">
-        <v>0.933792</v>
+        <v>0.934052</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.942944</v>
+        <v>0.942787</v>
       </c>
       <c r="C105" t="n">
-        <v>0.956438</v>
+        <v>0.956372</v>
       </c>
       <c r="D105" t="n">
-        <v>0.919597</v>
+        <v>0.920098</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.938513</v>
+        <v>0.938526</v>
       </c>
       <c r="C106" t="n">
-        <v>0.943763</v>
+        <v>0.943995</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9066650000000001</v>
+        <v>0.907355</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.936159</v>
+        <v>0.935553</v>
       </c>
       <c r="C107" t="n">
-        <v>0.932352</v>
+        <v>0.932925</v>
       </c>
       <c r="D107" t="n">
-        <v>0.896472</v>
+        <v>0.897161</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.935891</v>
+        <v>0.936714</v>
       </c>
       <c r="C108" t="n">
-        <v>0.923585</v>
+        <v>0.923438</v>
       </c>
       <c r="D108" t="n">
-        <v>1.2478</v>
+        <v>1.24745</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.93999</v>
+        <v>0.939457</v>
       </c>
       <c r="C109" t="n">
-        <v>0.917608</v>
+        <v>0.9161629999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>1.23768</v>
+        <v>1.23637</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18638</v>
+        <v>1.1861</v>
       </c>
       <c r="C110" t="n">
-        <v>1.2733</v>
+        <v>1.27331</v>
       </c>
       <c r="D110" t="n">
-        <v>1.21867</v>
+        <v>1.21812</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17414</v>
+        <v>1.17391</v>
       </c>
       <c r="C111" t="n">
-        <v>1.25299</v>
+        <v>1.25328</v>
       </c>
       <c r="D111" t="n">
-        <v>1.19982</v>
+        <v>1.19887</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16206</v>
+        <v>1.1613</v>
       </c>
       <c r="C112" t="n">
-        <v>1.23378</v>
+        <v>1.23329</v>
       </c>
       <c r="D112" t="n">
-        <v>1.18229</v>
+        <v>1.18089</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15037</v>
+        <v>1.14972</v>
       </c>
       <c r="C113" t="n">
-        <v>1.21486</v>
+        <v>1.21438</v>
       </c>
       <c r="D113" t="n">
-        <v>1.16415</v>
+        <v>1.16377</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.13948</v>
+        <v>1.13832</v>
       </c>
       <c r="C114" t="n">
-        <v>1.1969</v>
+        <v>1.19569</v>
       </c>
       <c r="D114" t="n">
-        <v>1.14775</v>
+        <v>1.14754</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12868</v>
+        <v>1.1282</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17939</v>
+        <v>1.17965</v>
       </c>
       <c r="D115" t="n">
-        <v>1.13272</v>
+        <v>1.13226</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.11967</v>
+        <v>1.1189</v>
       </c>
       <c r="C116" t="n">
-        <v>1.16367</v>
+        <v>1.16352</v>
       </c>
       <c r="D116" t="n">
-        <v>1.11857</v>
+        <v>1.11783</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11164</v>
+        <v>1.11078</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14918</v>
+        <v>1.14899</v>
       </c>
       <c r="D117" t="n">
-        <v>1.10482</v>
+        <v>1.10439</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10451</v>
+        <v>1.10643</v>
       </c>
       <c r="C118" t="n">
-        <v>1.13532</v>
+        <v>1.13702</v>
       </c>
       <c r="D118" t="n">
-        <v>1.09262</v>
+        <v>1.09377</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09938</v>
+        <v>1.09966</v>
       </c>
       <c r="C119" t="n">
-        <v>1.12314</v>
+        <v>1.12359</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08104</v>
+        <v>1.08163</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.09554</v>
+        <v>1.09557</v>
       </c>
       <c r="C120" t="n">
-        <v>1.11088</v>
+        <v>1.1118</v>
       </c>
       <c r="D120" t="n">
-        <v>1.06955</v>
+        <v>1.07006</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09321</v>
+        <v>1.09527</v>
       </c>
       <c r="C121" t="n">
-        <v>1.10155</v>
+        <v>1.1024</v>
       </c>
       <c r="D121" t="n">
-        <v>1.06025</v>
+        <v>1.06253</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09374</v>
+        <v>1.09577</v>
       </c>
       <c r="C122" t="n">
-        <v>1.0927</v>
+        <v>1.0932</v>
       </c>
       <c r="D122" t="n">
-        <v>1.0527</v>
+        <v>1.05387</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.09865</v>
+        <v>1.09989</v>
       </c>
       <c r="C123" t="n">
-        <v>1.08766</v>
+        <v>1.0876</v>
       </c>
       <c r="D123" t="n">
-        <v>1.40206</v>
+        <v>1.40392</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.34788</v>
+        <v>1.35025</v>
       </c>
       <c r="C124" t="n">
-        <v>1.44225</v>
+        <v>1.44384</v>
       </c>
       <c r="D124" t="n">
-        <v>1.3857</v>
+        <v>1.3885</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.3373</v>
+        <v>1.34041</v>
       </c>
       <c r="C125" t="n">
-        <v>1.42477</v>
+        <v>1.42546</v>
       </c>
       <c r="D125" t="n">
-        <v>1.37035</v>
+        <v>1.37438</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32787</v>
+        <v>1.33156</v>
       </c>
       <c r="C126" t="n">
-        <v>1.40667</v>
+        <v>1.4092</v>
       </c>
       <c r="D126" t="n">
-        <v>1.3567</v>
+        <v>1.35981</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31902</v>
+        <v>1.32209</v>
       </c>
       <c r="C127" t="n">
-        <v>1.39046</v>
+        <v>1.39325</v>
       </c>
       <c r="D127" t="n">
-        <v>1.34445</v>
+        <v>1.34677</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31</v>
+        <v>1.31382</v>
       </c>
       <c r="C128" t="n">
-        <v>1.3753</v>
+        <v>1.37711</v>
       </c>
       <c r="D128" t="n">
-        <v>1.33146</v>
+        <v>1.33487</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.30329</v>
+        <v>1.30625</v>
       </c>
       <c r="C129" t="n">
-        <v>1.36142</v>
+        <v>1.36289</v>
       </c>
       <c r="D129" t="n">
-        <v>1.32044</v>
+        <v>1.3227</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.29703</v>
+        <v>1.30006</v>
       </c>
       <c r="C130" t="n">
-        <v>1.34763</v>
+        <v>1.35003</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30861</v>
+        <v>1.31219</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29073</v>
+        <v>1.29466</v>
       </c>
       <c r="C131" t="n">
-        <v>1.33627</v>
+        <v>1.33745</v>
       </c>
       <c r="D131" t="n">
-        <v>1.2981</v>
+        <v>1.3016</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.28676</v>
+        <v>1.2895</v>
       </c>
       <c r="C132" t="n">
-        <v>1.3241</v>
+        <v>1.32561</v>
       </c>
       <c r="D132" t="n">
-        <v>1.28845</v>
+        <v>1.29245</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.28462</v>
+        <v>1.2868</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31361</v>
+        <v>1.31565</v>
       </c>
       <c r="D133" t="n">
-        <v>1.28051</v>
+        <v>1.28324</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.28137</v>
+        <v>1.28425</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30477</v>
+        <v>1.30524</v>
       </c>
       <c r="D134" t="n">
-        <v>1.27269</v>
+        <v>1.27274</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.28169</v>
+        <v>1.28151</v>
       </c>
       <c r="C135" t="n">
-        <v>1.29678</v>
+        <v>1.29645</v>
       </c>
       <c r="D135" t="n">
-        <v>1.26571</v>
+        <v>1.26514</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.28386</v>
+        <v>1.28322</v>
       </c>
       <c r="C136" t="n">
-        <v>1.29044</v>
+        <v>1.28955</v>
       </c>
       <c r="D136" t="n">
-        <v>1.25669</v>
+        <v>1.25614</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.28819</v>
+        <v>1.28737</v>
       </c>
       <c r="C137" t="n">
-        <v>1.28549</v>
+        <v>1.28447</v>
       </c>
       <c r="D137" t="n">
-        <v>1.60298</v>
+        <v>1.60382</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.53835</v>
+        <v>1.53904</v>
       </c>
       <c r="C138" t="n">
-        <v>1.64017</v>
+        <v>1.63862</v>
       </c>
       <c r="D138" t="n">
-        <v>1.59063</v>
+        <v>1.59218</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53036</v>
+        <v>1.53429</v>
       </c>
       <c r="C139" t="n">
-        <v>1.62314</v>
+        <v>1.62538</v>
       </c>
       <c r="D139" t="n">
-        <v>1.57899</v>
+        <v>1.5802</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.52269</v>
+        <v>1.52298</v>
       </c>
       <c r="C140" t="n">
-        <v>1.60821</v>
+        <v>1.6085</v>
       </c>
       <c r="D140" t="n">
-        <v>1.56684</v>
+        <v>1.56679</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.51583</v>
+        <v>1.51611</v>
       </c>
       <c r="C141" t="n">
-        <v>1.59462</v>
+        <v>1.59416</v>
       </c>
       <c r="D141" t="n">
-        <v>1.55545</v>
+        <v>1.55598</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.50966</v>
+        <v>1.50924</v>
       </c>
       <c r="C142" t="n">
-        <v>1.58134</v>
+        <v>1.58172</v>
       </c>
       <c r="D142" t="n">
-        <v>1.54575</v>
+        <v>1.54532</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.50458</v>
+        <v>1.50398</v>
       </c>
       <c r="C143" t="n">
-        <v>1.56929</v>
+        <v>1.5696</v>
       </c>
       <c r="D143" t="n">
-        <v>1.536</v>
+        <v>1.53556</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.512662</v>
+        <v>0.513805</v>
       </c>
       <c r="C2" t="n">
-        <v>0.55715</v>
+        <v>0.558165</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55811</v>
+        <v>0.55941</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.503549</v>
+        <v>0.504503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.541284</v>
+        <v>0.542729</v>
       </c>
       <c r="D3" t="n">
-        <v>0.543018</v>
+        <v>0.543607</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.494921</v>
+        <v>0.495957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.526518</v>
+        <v>0.528338</v>
       </c>
       <c r="D4" t="n">
-        <v>0.529427</v>
+        <v>0.529825</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.487707</v>
+        <v>0.489027</v>
       </c>
       <c r="C5" t="n">
-        <v>0.513693</v>
+        <v>0.51484</v>
       </c>
       <c r="D5" t="n">
-        <v>0.516494</v>
+        <v>0.516976</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.481175</v>
+        <v>0.482244</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5024459999999999</v>
+        <v>0.5030250000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.505141</v>
+        <v>0.505999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.477153</v>
+        <v>0.478564</v>
       </c>
       <c r="C7" t="n">
-        <v>0.491586</v>
+        <v>0.492058</v>
       </c>
       <c r="D7" t="n">
-        <v>0.493811</v>
+        <v>0.495504</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.476028</v>
+        <v>0.477095</v>
       </c>
       <c r="C8" t="n">
-        <v>0.483915</v>
+        <v>0.484645</v>
       </c>
       <c r="D8" t="n">
-        <v>0.48724</v>
+        <v>0.488226</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.477714</v>
+        <v>0.478822</v>
       </c>
       <c r="C9" t="n">
-        <v>0.477071</v>
+        <v>0.478049</v>
       </c>
       <c r="D9" t="n">
-        <v>0.803611</v>
+        <v>0.804211</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.669503</v>
+        <v>0.669076</v>
       </c>
       <c r="C10" t="n">
-        <v>0.757005</v>
+        <v>0.757602</v>
       </c>
       <c r="D10" t="n">
-        <v>0.776774</v>
+        <v>0.777498</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.65077</v>
+        <v>0.650388</v>
       </c>
       <c r="C11" t="n">
-        <v>0.732121</v>
+        <v>0.73197</v>
       </c>
       <c r="D11" t="n">
-        <v>0.751318</v>
+        <v>0.752265</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.631597</v>
+        <v>0.632656</v>
       </c>
       <c r="C12" t="n">
-        <v>0.709056</v>
+        <v>0.708362</v>
       </c>
       <c r="D12" t="n">
-        <v>0.727548</v>
+        <v>0.728272</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6145929999999999</v>
+        <v>0.615758</v>
       </c>
       <c r="C13" t="n">
-        <v>0.686409</v>
+        <v>0.686741</v>
       </c>
       <c r="D13" t="n">
-        <v>0.704968</v>
+        <v>0.705931</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.598316</v>
+        <v>0.599921</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6641010000000001</v>
+        <v>0.664565</v>
       </c>
       <c r="D14" t="n">
-        <v>0.68343</v>
+        <v>0.684597</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.582979</v>
+        <v>0.584078</v>
       </c>
       <c r="C15" t="n">
-        <v>0.643738</v>
+        <v>0.644172</v>
       </c>
       <c r="D15" t="n">
-        <v>0.663065</v>
+        <v>0.6640239999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.568697</v>
+        <v>0.5698299999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6254189999999999</v>
+        <v>0.625257</v>
       </c>
       <c r="D16" t="n">
-        <v>0.643948</v>
+        <v>0.6446539999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.557242</v>
+        <v>0.5570580000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.60763</v>
+        <v>0.606674</v>
       </c>
       <c r="D17" t="n">
-        <v>0.626461</v>
+        <v>0.626591</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5442939999999999</v>
+        <v>0.545513</v>
       </c>
       <c r="C18" t="n">
-        <v>0.589948</v>
+        <v>0.590788</v>
       </c>
       <c r="D18" t="n">
-        <v>0.608977</v>
+        <v>0.610103</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.534782</v>
+        <v>0.535687</v>
       </c>
       <c r="C19" t="n">
-        <v>0.574267</v>
+        <v>0.574485</v>
       </c>
       <c r="D19" t="n">
-        <v>0.59358</v>
+        <v>0.594309</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.525316</v>
+        <v>0.526926</v>
       </c>
       <c r="C20" t="n">
-        <v>0.559414</v>
+        <v>0.560013</v>
       </c>
       <c r="D20" t="n">
-        <v>0.579643</v>
+        <v>0.580651</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.519301</v>
+        <v>0.520637</v>
       </c>
       <c r="C21" t="n">
-        <v>0.546203</v>
+        <v>0.547044</v>
       </c>
       <c r="D21" t="n">
-        <v>0.568159</v>
+        <v>0.568797</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5150670000000001</v>
+        <v>0.516765</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5355490000000001</v>
+        <v>0.535852</v>
       </c>
       <c r="D22" t="n">
-        <v>0.559273</v>
+        <v>0.559827</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.514634</v>
+        <v>0.516052</v>
       </c>
       <c r="C23" t="n">
-        <v>0.526837</v>
+        <v>0.527042</v>
       </c>
       <c r="D23" t="n">
-        <v>0.848735</v>
+        <v>0.847643</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7190879999999999</v>
+        <v>0.7193659999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.815375</v>
+        <v>0.8144479999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.820702</v>
+        <v>0.820835</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.698449</v>
+        <v>0.698555</v>
       </c>
       <c r="C25" t="n">
-        <v>0.788595</v>
+        <v>0.788359</v>
       </c>
       <c r="D25" t="n">
-        <v>0.793638</v>
+        <v>0.794028</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6778</v>
+        <v>0.678543</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7627429999999999</v>
+        <v>0.7623220000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.768465</v>
+        <v>0.768727</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.658733</v>
+        <v>0.659138</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7372840000000001</v>
+        <v>0.738015</v>
       </c>
       <c r="D27" t="n">
-        <v>0.743458</v>
+        <v>0.744327</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.640755</v>
+        <v>0.641133</v>
       </c>
       <c r="C28" t="n">
-        <v>0.714218</v>
+        <v>0.714086</v>
       </c>
       <c r="D28" t="n">
-        <v>0.721839</v>
+        <v>0.72175</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.623723</v>
+        <v>0.624133</v>
       </c>
       <c r="C29" t="n">
-        <v>0.691626</v>
+        <v>0.6916020000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.700456</v>
+        <v>0.700558</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.607422</v>
+        <v>0.608281</v>
       </c>
       <c r="C30" t="n">
-        <v>0.670974</v>
+        <v>0.670953</v>
       </c>
       <c r="D30" t="n">
-        <v>0.68027</v>
+        <v>0.6803090000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.594063</v>
+        <v>0.594131</v>
       </c>
       <c r="C31" t="n">
-        <v>0.650209</v>
+        <v>0.651185</v>
       </c>
       <c r="D31" t="n">
-        <v>0.660883</v>
+        <v>0.660998</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.580618</v>
+        <v>0.58058</v>
       </c>
       <c r="C32" t="n">
-        <v>0.632159</v>
+        <v>0.632022</v>
       </c>
       <c r="D32" t="n">
-        <v>0.641853</v>
+        <v>0.64283</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.568669</v>
+        <v>0.5682779999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6149250000000001</v>
+        <v>0.61497</v>
       </c>
       <c r="D33" t="n">
-        <v>0.626342</v>
+        <v>0.625851</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.55871</v>
+        <v>0.55826</v>
       </c>
       <c r="C34" t="n">
-        <v>0.597847</v>
+        <v>0.59844</v>
       </c>
       <c r="D34" t="n">
-        <v>0.610822</v>
+        <v>0.610849</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.549925</v>
+        <v>0.549732</v>
       </c>
       <c r="C35" t="n">
-        <v>0.583797</v>
+        <v>0.58379</v>
       </c>
       <c r="D35" t="n">
-        <v>0.598069</v>
+        <v>0.597521</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.543802</v>
+        <v>0.543862</v>
       </c>
       <c r="C36" t="n">
-        <v>0.571171</v>
+        <v>0.570711</v>
       </c>
       <c r="D36" t="n">
-        <v>0.587093</v>
+        <v>0.587017</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5399659999999999</v>
+        <v>0.540044</v>
       </c>
       <c r="C37" t="n">
-        <v>0.560301</v>
+        <v>0.56005</v>
       </c>
       <c r="D37" t="n">
-        <v>0.880845</v>
+        <v>0.88017</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.749678</v>
+        <v>0.748708</v>
       </c>
       <c r="C38" t="n">
-        <v>0.852416</v>
+        <v>0.851174</v>
       </c>
       <c r="D38" t="n">
-        <v>0.852595</v>
+        <v>0.853509</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7285970000000001</v>
+        <v>0.7277749999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.825638</v>
+        <v>0.824711</v>
       </c>
       <c r="D39" t="n">
-        <v>0.825173</v>
+        <v>0.825833</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7072619999999999</v>
+        <v>0.706892</v>
       </c>
       <c r="C40" t="n">
-        <v>0.798258</v>
+        <v>0.797817</v>
       </c>
       <c r="D40" t="n">
-        <v>0.799307</v>
+        <v>0.79964</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.686671</v>
+        <v>0.686871</v>
       </c>
       <c r="C41" t="n">
-        <v>0.772723</v>
+        <v>0.772106</v>
       </c>
       <c r="D41" t="n">
-        <v>0.774231</v>
+        <v>0.77532</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.668231</v>
+        <v>0.668204</v>
       </c>
       <c r="C42" t="n">
-        <v>0.748512</v>
+        <v>0.747789</v>
       </c>
       <c r="D42" t="n">
-        <v>0.750939</v>
+        <v>0.751844</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.650468</v>
+        <v>0.649692</v>
       </c>
       <c r="C43" t="n">
-        <v>0.725328</v>
+        <v>0.724478</v>
       </c>
       <c r="D43" t="n">
-        <v>0.728313</v>
+        <v>0.728894</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.634169</v>
+        <v>0.633049</v>
       </c>
       <c r="C44" t="n">
-        <v>0.703148</v>
+        <v>0.70297</v>
       </c>
       <c r="D44" t="n">
-        <v>0.70753</v>
+        <v>0.707822</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.618715</v>
+        <v>0.617721</v>
       </c>
       <c r="C45" t="n">
-        <v>0.682958</v>
+        <v>0.681568</v>
       </c>
       <c r="D45" t="n">
-        <v>0.688526</v>
+        <v>0.688026</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.603623</v>
+        <v>0.604223</v>
       </c>
       <c r="C46" t="n">
-        <v>0.663155</v>
+        <v>0.6619969999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.66936</v>
+        <v>0.669284</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.591153</v>
+        <v>0.5911459999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.644949</v>
+        <v>0.643825</v>
       </c>
       <c r="D47" t="n">
-        <v>0.652019</v>
+        <v>0.651799</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.581141</v>
+        <v>0.5797020000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.628275</v>
+        <v>0.626537</v>
       </c>
       <c r="D48" t="n">
-        <v>0.635988</v>
+        <v>0.635656</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.571941</v>
+        <v>0.570334</v>
       </c>
       <c r="C49" t="n">
-        <v>0.61244</v>
+        <v>0.611699</v>
       </c>
       <c r="D49" t="n">
-        <v>0.621899</v>
+        <v>0.620678</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.562172</v>
+        <v>0.5636949999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.597433</v>
+        <v>0.597682</v>
       </c>
       <c r="D50" t="n">
-        <v>0.610087</v>
+        <v>0.6091220000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.560491</v>
+        <v>0.558914</v>
       </c>
       <c r="C51" t="n">
-        <v>0.587518</v>
+        <v>0.5855320000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.911771</v>
+        <v>0.910942</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.559411</v>
+        <v>0.558236</v>
       </c>
       <c r="C52" t="n">
-        <v>0.578698</v>
+        <v>0.577062</v>
       </c>
       <c r="D52" t="n">
-        <v>0.883532</v>
+        <v>0.883588</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.757374</v>
+        <v>0.756305</v>
       </c>
       <c r="C53" t="n">
-        <v>0.85838</v>
+        <v>0.856261</v>
       </c>
       <c r="D53" t="n">
-        <v>0.85497</v>
+        <v>0.855616</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.735795</v>
+        <v>0.733985</v>
       </c>
       <c r="C54" t="n">
-        <v>0.830844</v>
+        <v>0.829643</v>
       </c>
       <c r="D54" t="n">
-        <v>0.828902</v>
+        <v>0.829385</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.716631</v>
+        <v>0.713846</v>
       </c>
       <c r="C55" t="n">
-        <v>0.804885</v>
+        <v>0.805594</v>
       </c>
       <c r="D55" t="n">
-        <v>0.804968</v>
+        <v>0.805451</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.697596</v>
+        <v>0.695704</v>
       </c>
       <c r="C56" t="n">
-        <v>0.780571</v>
+        <v>0.7791400000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7802789999999999</v>
+        <v>0.781524</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.680269</v>
+        <v>0.6781779999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.758084</v>
+        <v>0.756297</v>
       </c>
       <c r="D57" t="n">
-        <v>0.759097</v>
+        <v>0.760045</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.664158</v>
+        <v>0.662158</v>
       </c>
       <c r="C58" t="n">
-        <v>0.734822</v>
+        <v>0.733903</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7374000000000001</v>
+        <v>0.738776</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.648174</v>
+        <v>0.64658</v>
       </c>
       <c r="C59" t="n">
-        <v>0.715133</v>
+        <v>0.713855</v>
       </c>
       <c r="D59" t="n">
-        <v>0.718478</v>
+        <v>0.71866</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.634387</v>
+        <v>0.63292</v>
       </c>
       <c r="C60" t="n">
-        <v>0.696095</v>
+        <v>0.692339</v>
       </c>
       <c r="D60" t="n">
-        <v>0.69956</v>
+        <v>0.698344</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6216930000000001</v>
+        <v>0.619371</v>
       </c>
       <c r="C61" t="n">
-        <v>0.677809</v>
+        <v>0.674388</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6818380000000001</v>
+        <v>0.6806950000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.609907</v>
+        <v>0.60638</v>
       </c>
       <c r="C62" t="n">
-        <v>0.660014</v>
+        <v>0.65611</v>
       </c>
       <c r="D62" t="n">
-        <v>0.665596</v>
+        <v>0.664313</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.600279</v>
+        <v>0.59674</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6432639999999999</v>
+        <v>0.640805</v>
       </c>
       <c r="D63" t="n">
-        <v>0.651196</v>
+        <v>0.649824</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.591916</v>
+        <v>0.589986</v>
       </c>
       <c r="C64" t="n">
-        <v>0.628564</v>
+        <v>0.6268359999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.638807</v>
+        <v>0.638016</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.587418</v>
+        <v>0.586139</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6191719999999999</v>
+        <v>0.613521</v>
       </c>
       <c r="D65" t="n">
-        <v>0.629263</v>
+        <v>0.628424</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.586179</v>
+        <v>0.583655</v>
       </c>
       <c r="C66" t="n">
-        <v>0.607436</v>
+        <v>0.603965</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9349690000000001</v>
+        <v>0.950358</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.812833</v>
+        <v>0.82468</v>
       </c>
       <c r="C67" t="n">
-        <v>0.920286</v>
+        <v>0.930102</v>
       </c>
       <c r="D67" t="n">
-        <v>0.907737</v>
+        <v>0.920342</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.796064</v>
+        <v>0.804849</v>
       </c>
       <c r="C68" t="n">
-        <v>0.893593</v>
+        <v>0.9051439999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.882562</v>
+        <v>0.89342</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.779341</v>
+        <v>0.787296</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8691759999999999</v>
+        <v>0.87827</v>
       </c>
       <c r="D69" t="n">
-        <v>0.857799</v>
+        <v>0.868383</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7622949999999999</v>
+        <v>0.772095</v>
       </c>
       <c r="C70" t="n">
-        <v>0.84601</v>
+        <v>0.853193</v>
       </c>
       <c r="D70" t="n">
-        <v>0.833102</v>
+        <v>0.846429</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.744694</v>
+        <v>0.760659</v>
       </c>
       <c r="C71" t="n">
-        <v>0.821282</v>
+        <v>0.8325939999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.812473</v>
+        <v>0.823645</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.732966</v>
+        <v>0.746096</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7996760000000001</v>
+        <v>0.810879</v>
       </c>
       <c r="D72" t="n">
-        <v>0.793066</v>
+        <v>0.804731</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.719237</v>
+        <v>0.731405</v>
       </c>
       <c r="C73" t="n">
-        <v>0.778759</v>
+        <v>0.788084</v>
       </c>
       <c r="D73" t="n">
-        <v>0.771459</v>
+        <v>0.781131</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.704681</v>
+        <v>0.715683</v>
       </c>
       <c r="C74" t="n">
-        <v>0.758315</v>
+        <v>0.763775</v>
       </c>
       <c r="D74" t="n">
-        <v>0.751889</v>
+        <v>0.758408</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.691804</v>
+        <v>0.700194</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7369250000000001</v>
+        <v>0.740582</v>
       </c>
       <c r="D75" t="n">
-        <v>0.732201</v>
+        <v>0.731639</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.675702</v>
+        <v>0.678379</v>
       </c>
       <c r="C76" t="n">
-        <v>0.716177</v>
+        <v>0.721596</v>
       </c>
       <c r="D76" t="n">
-        <v>0.713352</v>
+        <v>0.720626</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6666069999999999</v>
+        <v>0.673777</v>
       </c>
       <c r="C77" t="n">
-        <v>0.700404</v>
+        <v>0.703769</v>
       </c>
       <c r="D77" t="n">
-        <v>0.699334</v>
+        <v>0.703043</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.658319</v>
+        <v>0.6647420000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.686409</v>
+        <v>0.687519</v>
       </c>
       <c r="D78" t="n">
-        <v>0.68715</v>
+        <v>0.689254</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.650163</v>
+        <v>0.658008</v>
       </c>
       <c r="C79" t="n">
-        <v>0.671654</v>
+        <v>0.673524</v>
       </c>
       <c r="D79" t="n">
-        <v>0.674334</v>
+        <v>0.677682</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.644367</v>
+        <v>0.65352</v>
       </c>
       <c r="C80" t="n">
-        <v>0.660589</v>
+        <v>0.6629389999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>1.02102</v>
+        <v>1.04296</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.893182</v>
+        <v>0.909766</v>
       </c>
       <c r="C81" t="n">
-        <v>1.01191</v>
+        <v>1.03137</v>
       </c>
       <c r="D81" t="n">
-        <v>1.00072</v>
+        <v>1.02438</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.886585</v>
+        <v>0.904988</v>
       </c>
       <c r="C82" t="n">
-        <v>0.995958</v>
+        <v>1.01657</v>
       </c>
       <c r="D82" t="n">
-        <v>0.976866</v>
+        <v>1.0028</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.874743</v>
+        <v>0.895306</v>
       </c>
       <c r="C83" t="n">
-        <v>0.97193</v>
+        <v>0.9943610000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.95422</v>
+        <v>0.979465</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8643420000000001</v>
+        <v>0.885159</v>
       </c>
       <c r="C84" t="n">
-        <v>0.950703</v>
+        <v>0.973021</v>
       </c>
       <c r="D84" t="n">
-        <v>0.933916</v>
+        <v>0.956716</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.853935</v>
+        <v>0.875062</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9299539999999999</v>
+        <v>0.95148</v>
       </c>
       <c r="D85" t="n">
-        <v>0.912142</v>
+        <v>0.934399</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.843947</v>
+        <v>0.866252</v>
       </c>
       <c r="C86" t="n">
-        <v>0.909174</v>
+        <v>0.930465</v>
       </c>
       <c r="D86" t="n">
-        <v>0.889297</v>
+        <v>0.9131280000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.833493</v>
+        <v>0.857117</v>
       </c>
       <c r="C87" t="n">
-        <v>0.888161</v>
+        <v>0.909859</v>
       </c>
       <c r="D87" t="n">
-        <v>0.867255</v>
+        <v>0.890393</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.820892</v>
+        <v>0.845719</v>
       </c>
       <c r="C88" t="n">
-        <v>0.865907</v>
+        <v>0.888198</v>
       </c>
       <c r="D88" t="n">
-        <v>0.845895</v>
+        <v>0.866985</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.810627</v>
+        <v>0.832769</v>
       </c>
       <c r="C89" t="n">
-        <v>0.847648</v>
+        <v>0.866649</v>
       </c>
       <c r="D89" t="n">
-        <v>0.824846</v>
+        <v>0.846429</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.797551</v>
+        <v>0.824249</v>
       </c>
       <c r="C90" t="n">
-        <v>0.826678</v>
+        <v>0.84818</v>
       </c>
       <c r="D90" t="n">
-        <v>0.805634</v>
+        <v>0.827274</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.790064</v>
+        <v>0.814686</v>
       </c>
       <c r="C91" t="n">
-        <v>0.808319</v>
+        <v>0.83042</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7888849999999999</v>
+        <v>0.809671</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.781061</v>
+        <v>0.808942</v>
       </c>
       <c r="C92" t="n">
-        <v>0.792239</v>
+        <v>0.816093</v>
       </c>
       <c r="D92" t="n">
-        <v>0.774</v>
+        <v>0.796505</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.774694</v>
+        <v>0.801995</v>
       </c>
       <c r="C93" t="n">
-        <v>0.777817</v>
+        <v>0.801245</v>
       </c>
       <c r="D93" t="n">
-        <v>0.760612</v>
+        <v>0.782345</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.770424</v>
+        <v>0.799134</v>
       </c>
       <c r="C94" t="n">
-        <v>0.766868</v>
+        <v>0.788969</v>
       </c>
       <c r="D94" t="n">
-        <v>1.11244</v>
+        <v>1.1549</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02436</v>
+        <v>1.05817</v>
       </c>
       <c r="C95" t="n">
-        <v>1.12191</v>
+        <v>1.16009</v>
       </c>
       <c r="D95" t="n">
-        <v>1.1007</v>
+        <v>1.14379</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02463</v>
+        <v>1.05866</v>
       </c>
       <c r="C96" t="n">
-        <v>1.11332</v>
+        <v>1.15363</v>
       </c>
       <c r="D96" t="n">
-        <v>1.08266</v>
+        <v>1.12411</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01521</v>
+        <v>1.05148</v>
       </c>
       <c r="C97" t="n">
-        <v>1.09463</v>
+        <v>1.13705</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06168</v>
+        <v>1.10429</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00471</v>
+        <v>1.0418</v>
       </c>
       <c r="C98" t="n">
-        <v>1.07434</v>
+        <v>1.11619</v>
       </c>
       <c r="D98" t="n">
-        <v>1.04133</v>
+        <v>1.08388</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.993547</v>
+        <v>1.03236</v>
       </c>
       <c r="C99" t="n">
-        <v>1.05522</v>
+        <v>1.09871</v>
       </c>
       <c r="D99" t="n">
-        <v>1.02051</v>
+        <v>1.06317</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.983032</v>
+        <v>1.02325</v>
       </c>
       <c r="C100" t="n">
-        <v>1.03539</v>
+        <v>1.07962</v>
       </c>
       <c r="D100" t="n">
-        <v>1.00107</v>
+        <v>1.0441</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.973391</v>
+        <v>1.01351</v>
       </c>
       <c r="C101" t="n">
-        <v>1.01794</v>
+        <v>1.05982</v>
       </c>
       <c r="D101" t="n">
-        <v>0.982883</v>
+        <v>1.02214</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9641</v>
+        <v>1.00545</v>
       </c>
       <c r="C102" t="n">
-        <v>1.00167</v>
+        <v>1.04371</v>
       </c>
       <c r="D102" t="n">
-        <v>0.965876</v>
+        <v>1.00797</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.957044</v>
+        <v>0.999871</v>
       </c>
       <c r="C103" t="n">
-        <v>0.985621</v>
+        <v>1.02824</v>
       </c>
       <c r="D103" t="n">
-        <v>0.949541</v>
+        <v>0.990976</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.948983</v>
+        <v>0.994132</v>
       </c>
       <c r="C104" t="n">
-        <v>0.970778</v>
+        <v>1.0155</v>
       </c>
       <c r="D104" t="n">
-        <v>0.934052</v>
+        <v>0.976232</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.942787</v>
+        <v>0.989751</v>
       </c>
       <c r="C105" t="n">
-        <v>0.956372</v>
+        <v>1.00194</v>
       </c>
       <c r="D105" t="n">
-        <v>0.920098</v>
+        <v>0.961464</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.938526</v>
+        <v>0.985185</v>
       </c>
       <c r="C106" t="n">
-        <v>0.943995</v>
+        <v>0.9888749999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.907355</v>
+        <v>0.948939</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.935553</v>
+        <v>0.98372</v>
       </c>
       <c r="C107" t="n">
-        <v>0.932925</v>
+        <v>0.978115</v>
       </c>
       <c r="D107" t="n">
-        <v>0.897161</v>
+        <v>0.937505</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.936714</v>
+        <v>0.984047</v>
       </c>
       <c r="C108" t="n">
-        <v>0.923438</v>
+        <v>0.968409</v>
       </c>
       <c r="D108" t="n">
-        <v>1.24745</v>
+        <v>1.30885</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.939457</v>
+        <v>0.987959</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9161629999999999</v>
+        <v>0.963012</v>
       </c>
       <c r="D109" t="n">
-        <v>1.23637</v>
+        <v>1.2999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.1861</v>
+        <v>1.24891</v>
       </c>
       <c r="C110" t="n">
-        <v>1.27331</v>
+        <v>1.33789</v>
       </c>
       <c r="D110" t="n">
-        <v>1.21812</v>
+        <v>1.28118</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17391</v>
+        <v>1.23731</v>
       </c>
       <c r="C111" t="n">
-        <v>1.25328</v>
+        <v>1.31827</v>
       </c>
       <c r="D111" t="n">
-        <v>1.19887</v>
+        <v>1.26202</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.1613</v>
+        <v>1.22414</v>
       </c>
       <c r="C112" t="n">
-        <v>1.23329</v>
+        <v>1.29937</v>
       </c>
       <c r="D112" t="n">
-        <v>1.18089</v>
+        <v>1.24432</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.14972</v>
+        <v>1.21305</v>
       </c>
       <c r="C113" t="n">
-        <v>1.21438</v>
+        <v>1.28098</v>
       </c>
       <c r="D113" t="n">
-        <v>1.16377</v>
+        <v>1.22677</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.13832</v>
+        <v>1.2029</v>
       </c>
       <c r="C114" t="n">
-        <v>1.19569</v>
+        <v>1.26311</v>
       </c>
       <c r="D114" t="n">
-        <v>1.14754</v>
+        <v>1.21158</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.1282</v>
+        <v>1.19405</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17965</v>
+        <v>1.24803</v>
       </c>
       <c r="D115" t="n">
-        <v>1.13226</v>
+        <v>1.19646</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.1189</v>
+        <v>1.18588</v>
       </c>
       <c r="C116" t="n">
-        <v>1.16352</v>
+        <v>1.2314</v>
       </c>
       <c r="D116" t="n">
-        <v>1.11783</v>
+        <v>1.18154</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11078</v>
+        <v>1.17791</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14899</v>
+        <v>1.21655</v>
       </c>
       <c r="D117" t="n">
-        <v>1.10439</v>
+        <v>1.16923</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10643</v>
+        <v>1.17145</v>
       </c>
       <c r="C118" t="n">
-        <v>1.13702</v>
+        <v>1.20306</v>
       </c>
       <c r="D118" t="n">
-        <v>1.09377</v>
+        <v>1.15616</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09966</v>
+        <v>1.16764</v>
       </c>
       <c r="C119" t="n">
-        <v>1.12359</v>
+        <v>1.19111</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08163</v>
+        <v>1.14632</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.09557</v>
+        <v>1.16435</v>
       </c>
       <c r="C120" t="n">
-        <v>1.1118</v>
+        <v>1.18024</v>
       </c>
       <c r="D120" t="n">
-        <v>1.07006</v>
+        <v>1.13406</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09527</v>
+        <v>1.16294</v>
       </c>
       <c r="C121" t="n">
-        <v>1.1024</v>
+        <v>1.16979</v>
       </c>
       <c r="D121" t="n">
-        <v>1.06253</v>
+        <v>1.1243</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09577</v>
+        <v>1.16436</v>
       </c>
       <c r="C122" t="n">
-        <v>1.0932</v>
+        <v>1.16134</v>
       </c>
       <c r="D122" t="n">
-        <v>1.05387</v>
+        <v>1.11647</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.09989</v>
+        <v>1.16963</v>
       </c>
       <c r="C123" t="n">
-        <v>1.0876</v>
+        <v>1.15675</v>
       </c>
       <c r="D123" t="n">
-        <v>1.40392</v>
+        <v>1.48673</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35025</v>
+        <v>1.42639</v>
       </c>
       <c r="C124" t="n">
-        <v>1.44384</v>
+        <v>1.53106</v>
       </c>
       <c r="D124" t="n">
-        <v>1.3885</v>
+        <v>1.47281</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.34041</v>
+        <v>1.4176</v>
       </c>
       <c r="C125" t="n">
-        <v>1.42546</v>
+        <v>1.51366</v>
       </c>
       <c r="D125" t="n">
-        <v>1.37438</v>
+        <v>1.45812</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33156</v>
+        <v>1.40897</v>
       </c>
       <c r="C126" t="n">
-        <v>1.4092</v>
+        <v>1.49816</v>
       </c>
       <c r="D126" t="n">
-        <v>1.35981</v>
+        <v>1.44531</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32209</v>
+        <v>1.40163</v>
       </c>
       <c r="C127" t="n">
-        <v>1.39325</v>
+        <v>1.48209</v>
       </c>
       <c r="D127" t="n">
-        <v>1.34677</v>
+        <v>1.4322</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31382</v>
+        <v>1.39492</v>
       </c>
       <c r="C128" t="n">
-        <v>1.37711</v>
+        <v>1.46875</v>
       </c>
       <c r="D128" t="n">
-        <v>1.33487</v>
+        <v>1.4213</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.30625</v>
+        <v>1.38883</v>
       </c>
       <c r="C129" t="n">
-        <v>1.36289</v>
+        <v>1.45438</v>
       </c>
       <c r="D129" t="n">
-        <v>1.3227</v>
+        <v>1.41031</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30006</v>
+        <v>1.38386</v>
       </c>
       <c r="C130" t="n">
-        <v>1.35003</v>
+        <v>1.44162</v>
       </c>
       <c r="D130" t="n">
-        <v>1.31219</v>
+        <v>1.40005</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29466</v>
+        <v>1.37988</v>
       </c>
       <c r="C131" t="n">
-        <v>1.33745</v>
+        <v>1.42935</v>
       </c>
       <c r="D131" t="n">
-        <v>1.3016</v>
+        <v>1.3907</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.2895</v>
+        <v>1.37747</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32561</v>
+        <v>1.41854</v>
       </c>
       <c r="D132" t="n">
-        <v>1.29245</v>
+        <v>1.3821</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.2868</v>
+        <v>1.37442</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31565</v>
+        <v>1.40924</v>
       </c>
       <c r="D133" t="n">
-        <v>1.28324</v>
+        <v>1.37396</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.28425</v>
+        <v>1.37397</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30524</v>
+        <v>1.4004</v>
       </c>
       <c r="D134" t="n">
-        <v>1.27274</v>
+        <v>1.36785</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.28151</v>
+        <v>1.37487</v>
       </c>
       <c r="C135" t="n">
-        <v>1.29645</v>
+        <v>1.39318</v>
       </c>
       <c r="D135" t="n">
-        <v>1.26514</v>
+        <v>1.35952</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.28322</v>
+        <v>1.37843</v>
       </c>
       <c r="C136" t="n">
-        <v>1.28955</v>
+        <v>1.38689</v>
       </c>
       <c r="D136" t="n">
-        <v>1.25614</v>
+        <v>1.35116</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.28737</v>
+        <v>1.38376</v>
       </c>
       <c r="C137" t="n">
-        <v>1.28447</v>
+        <v>1.38255</v>
       </c>
       <c r="D137" t="n">
-        <v>1.60382</v>
+        <v>1.71761</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.53904</v>
+        <v>1.64165</v>
       </c>
       <c r="C138" t="n">
-        <v>1.63862</v>
+        <v>1.75644</v>
       </c>
       <c r="D138" t="n">
-        <v>1.59218</v>
+        <v>1.70589</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53429</v>
+        <v>1.63419</v>
       </c>
       <c r="C139" t="n">
-        <v>1.62538</v>
+        <v>1.74146</v>
       </c>
       <c r="D139" t="n">
-        <v>1.5802</v>
+        <v>1.69581</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.52298</v>
+        <v>1.62627</v>
       </c>
       <c r="C140" t="n">
-        <v>1.6085</v>
+        <v>1.72687</v>
       </c>
       <c r="D140" t="n">
-        <v>1.56679</v>
+        <v>1.68314</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.51611</v>
+        <v>1.61947</v>
       </c>
       <c r="C141" t="n">
-        <v>1.59416</v>
+        <v>1.71461</v>
       </c>
       <c r="D141" t="n">
-        <v>1.55598</v>
+        <v>1.67573</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.50924</v>
+        <v>1.61462</v>
       </c>
       <c r="C142" t="n">
-        <v>1.58172</v>
+        <v>1.70181</v>
       </c>
       <c r="D142" t="n">
-        <v>1.54532</v>
+        <v>1.66519</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.50398</v>
+        <v>1.60978</v>
       </c>
       <c r="C143" t="n">
-        <v>1.5696</v>
+        <v>1.69116</v>
       </c>
       <c r="D143" t="n">
-        <v>1.53556</v>
+        <v>1.65658</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.513805</v>
+        <v>0.516124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.558165</v>
+        <v>0.564249</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55941</v>
+        <v>0.563412</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.504503</v>
+        <v>0.506341</v>
       </c>
       <c r="C3" t="n">
-        <v>0.542729</v>
+        <v>0.5490080000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.543607</v>
+        <v>0.549254</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.495957</v>
+        <v>0.497776</v>
       </c>
       <c r="C4" t="n">
-        <v>0.528338</v>
+        <v>0.532786</v>
       </c>
       <c r="D4" t="n">
-        <v>0.529825</v>
+        <v>0.535184</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.489027</v>
+        <v>0.490467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.51484</v>
+        <v>0.5192</v>
       </c>
       <c r="D5" t="n">
-        <v>0.516976</v>
+        <v>0.522357</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.482244</v>
+        <v>0.483972</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5030250000000001</v>
+        <v>0.50641</v>
       </c>
       <c r="D6" t="n">
-        <v>0.505999</v>
+        <v>0.511077</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.478564</v>
+        <v>0.479301</v>
       </c>
       <c r="C7" t="n">
-        <v>0.492058</v>
+        <v>0.494679</v>
       </c>
       <c r="D7" t="n">
-        <v>0.495504</v>
+        <v>0.500587</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.477095</v>
+        <v>0.477718</v>
       </c>
       <c r="C8" t="n">
-        <v>0.484645</v>
+        <v>0.486016</v>
       </c>
       <c r="D8" t="n">
-        <v>0.488226</v>
+        <v>0.493326</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.478822</v>
+        <v>0.479561</v>
       </c>
       <c r="C9" t="n">
-        <v>0.478049</v>
+        <v>0.47858</v>
       </c>
       <c r="D9" t="n">
-        <v>0.804211</v>
+        <v>0.808598</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.669076</v>
+        <v>0.6722939999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.757602</v>
+        <v>0.766367</v>
       </c>
       <c r="D10" t="n">
-        <v>0.777498</v>
+        <v>0.7828580000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.650388</v>
+        <v>0.651153</v>
       </c>
       <c r="C11" t="n">
-        <v>0.73197</v>
+        <v>0.740761</v>
       </c>
       <c r="D11" t="n">
-        <v>0.752265</v>
+        <v>0.7566889999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.632656</v>
+        <v>0.634143</v>
       </c>
       <c r="C12" t="n">
-        <v>0.708362</v>
+        <v>0.715926</v>
       </c>
       <c r="D12" t="n">
-        <v>0.728272</v>
+        <v>0.7330759999999999</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.615758</v>
+        <v>0.615918</v>
       </c>
       <c r="C13" t="n">
-        <v>0.686741</v>
+        <v>0.692323</v>
       </c>
       <c r="D13" t="n">
-        <v>0.705931</v>
+        <v>0.710598</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.599921</v>
+        <v>0.599294</v>
       </c>
       <c r="C14" t="n">
-        <v>0.664565</v>
+        <v>0.670536</v>
       </c>
       <c r="D14" t="n">
-        <v>0.684597</v>
+        <v>0.688972</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.584078</v>
+        <v>0.5838</v>
       </c>
       <c r="C15" t="n">
-        <v>0.644172</v>
+        <v>0.649178</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6640239999999999</v>
+        <v>0.669295</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5698299999999999</v>
+        <v>0.569417</v>
       </c>
       <c r="C16" t="n">
-        <v>0.625257</v>
+        <v>0.628995</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6446539999999999</v>
+        <v>0.649302</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5570580000000001</v>
+        <v>0.55649</v>
       </c>
       <c r="C17" t="n">
-        <v>0.606674</v>
+        <v>0.610357</v>
       </c>
       <c r="D17" t="n">
-        <v>0.626591</v>
+        <v>0.631413</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.545513</v>
+        <v>0.544888</v>
       </c>
       <c r="C18" t="n">
-        <v>0.590788</v>
+        <v>0.592664</v>
       </c>
       <c r="D18" t="n">
-        <v>0.610103</v>
+        <v>0.613829</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.535687</v>
+        <v>0.535099</v>
       </c>
       <c r="C19" t="n">
-        <v>0.574485</v>
+        <v>0.576105</v>
       </c>
       <c r="D19" t="n">
-        <v>0.594309</v>
+        <v>0.597875</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.526926</v>
+        <v>0.527829</v>
       </c>
       <c r="C20" t="n">
-        <v>0.560013</v>
+        <v>0.560812</v>
       </c>
       <c r="D20" t="n">
-        <v>0.580651</v>
+        <v>0.583557</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.520637</v>
+        <v>0.520942</v>
       </c>
       <c r="C21" t="n">
-        <v>0.547044</v>
+        <v>0.546685</v>
       </c>
       <c r="D21" t="n">
-        <v>0.568797</v>
+        <v>0.5716059999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.516765</v>
+        <v>0.515606</v>
       </c>
       <c r="C22" t="n">
-        <v>0.535852</v>
+        <v>0.53496</v>
       </c>
       <c r="D22" t="n">
-        <v>0.559827</v>
+        <v>0.563122</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.516052</v>
+        <v>0.5145149999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.527042</v>
+        <v>0.525067</v>
       </c>
       <c r="D23" t="n">
-        <v>0.847643</v>
+        <v>0.8509989999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7193659999999999</v>
+        <v>0.72044</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8144479999999999</v>
+        <v>0.8236059999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.820835</v>
+        <v>0.823003</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.698555</v>
+        <v>0.699743</v>
       </c>
       <c r="C25" t="n">
-        <v>0.788359</v>
+        <v>0.7955989999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.794028</v>
+        <v>0.796641</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.678543</v>
+        <v>0.679382</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7623220000000001</v>
+        <v>0.769317</v>
       </c>
       <c r="D26" t="n">
-        <v>0.768727</v>
+        <v>0.770486</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.659138</v>
+        <v>0.659212</v>
       </c>
       <c r="C27" t="n">
-        <v>0.738015</v>
+        <v>0.742442</v>
       </c>
       <c r="D27" t="n">
-        <v>0.744327</v>
+        <v>0.747133</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.641133</v>
+        <v>0.641908</v>
       </c>
       <c r="C28" t="n">
-        <v>0.714086</v>
+        <v>0.719432</v>
       </c>
       <c r="D28" t="n">
-        <v>0.72175</v>
+        <v>0.72419</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.624133</v>
+        <v>0.62469</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6916020000000001</v>
+        <v>0.696667</v>
       </c>
       <c r="D29" t="n">
-        <v>0.700558</v>
+        <v>0.702464</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.608281</v>
+        <v>0.6089869999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.670953</v>
+        <v>0.674883</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6803090000000001</v>
+        <v>0.682156</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.594131</v>
+        <v>0.594608</v>
       </c>
       <c r="C31" t="n">
-        <v>0.651185</v>
+        <v>0.654061</v>
       </c>
       <c r="D31" t="n">
-        <v>0.660998</v>
+        <v>0.662736</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.58058</v>
+        <v>0.581541</v>
       </c>
       <c r="C32" t="n">
-        <v>0.632022</v>
+        <v>0.634721</v>
       </c>
       <c r="D32" t="n">
-        <v>0.64283</v>
+        <v>0.644878</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5682779999999999</v>
+        <v>0.569898</v>
       </c>
       <c r="C33" t="n">
-        <v>0.61497</v>
+        <v>0.61691</v>
       </c>
       <c r="D33" t="n">
-        <v>0.625851</v>
+        <v>0.627907</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.55826</v>
+        <v>0.559327</v>
       </c>
       <c r="C34" t="n">
-        <v>0.59844</v>
+        <v>0.600233</v>
       </c>
       <c r="D34" t="n">
-        <v>0.610849</v>
+        <v>0.61306</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.549732</v>
+        <v>0.550526</v>
       </c>
       <c r="C35" t="n">
-        <v>0.58379</v>
+        <v>0.5843970000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.597521</v>
+        <v>0.599795</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.543862</v>
+        <v>0.544721</v>
       </c>
       <c r="C36" t="n">
-        <v>0.570711</v>
+        <v>0.570532</v>
       </c>
       <c r="D36" t="n">
-        <v>0.587017</v>
+        <v>0.588818</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.540044</v>
+        <v>0.541138</v>
       </c>
       <c r="C37" t="n">
-        <v>0.56005</v>
+        <v>0.559494</v>
       </c>
       <c r="D37" t="n">
-        <v>0.88017</v>
+        <v>0.881271</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.748708</v>
+        <v>0.75122</v>
       </c>
       <c r="C38" t="n">
-        <v>0.851174</v>
+        <v>0.860436</v>
       </c>
       <c r="D38" t="n">
-        <v>0.853509</v>
+        <v>0.853212</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7277749999999999</v>
+        <v>0.7296280000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.824711</v>
+        <v>0.832116</v>
       </c>
       <c r="D39" t="n">
-        <v>0.825833</v>
+        <v>0.825624</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.706892</v>
+        <v>0.708623</v>
       </c>
       <c r="C40" t="n">
-        <v>0.797817</v>
+        <v>0.80449</v>
       </c>
       <c r="D40" t="n">
-        <v>0.79964</v>
+        <v>0.799759</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.686871</v>
+        <v>0.688646</v>
       </c>
       <c r="C41" t="n">
-        <v>0.772106</v>
+        <v>0.77819</v>
       </c>
       <c r="D41" t="n">
-        <v>0.77532</v>
+        <v>0.775078</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.668204</v>
+        <v>0.66973</v>
       </c>
       <c r="C42" t="n">
-        <v>0.747789</v>
+        <v>0.752932</v>
       </c>
       <c r="D42" t="n">
-        <v>0.751844</v>
+        <v>0.751688</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.649692</v>
+        <v>0.652124</v>
       </c>
       <c r="C43" t="n">
-        <v>0.724478</v>
+        <v>0.728746</v>
       </c>
       <c r="D43" t="n">
-        <v>0.728894</v>
+        <v>0.729653</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.633049</v>
+        <v>0.635425</v>
       </c>
       <c r="C44" t="n">
-        <v>0.70297</v>
+        <v>0.70641</v>
       </c>
       <c r="D44" t="n">
-        <v>0.707822</v>
+        <v>0.708414</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.617721</v>
+        <v>0.620366</v>
       </c>
       <c r="C45" t="n">
-        <v>0.681568</v>
+        <v>0.684847</v>
       </c>
       <c r="D45" t="n">
-        <v>0.688026</v>
+        <v>0.689037</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.604223</v>
+        <v>0.606006</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6619969999999999</v>
+        <v>0.664287</v>
       </c>
       <c r="D46" t="n">
-        <v>0.669284</v>
+        <v>0.66974</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5911459999999999</v>
+        <v>0.593056</v>
       </c>
       <c r="C47" t="n">
-        <v>0.643825</v>
+        <v>0.645688</v>
       </c>
       <c r="D47" t="n">
-        <v>0.651799</v>
+        <v>0.652914</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5797020000000001</v>
+        <v>0.581914</v>
       </c>
       <c r="C48" t="n">
-        <v>0.626537</v>
+        <v>0.627797</v>
       </c>
       <c r="D48" t="n">
-        <v>0.635656</v>
+        <v>0.6366000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.570334</v>
+        <v>0.572642</v>
       </c>
       <c r="C49" t="n">
-        <v>0.611699</v>
+        <v>0.611548</v>
       </c>
       <c r="D49" t="n">
-        <v>0.620678</v>
+        <v>0.622547</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5636949999999999</v>
+        <v>0.565963</v>
       </c>
       <c r="C50" t="n">
-        <v>0.597682</v>
+        <v>0.597697</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6091220000000001</v>
+        <v>0.611182</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.558914</v>
+        <v>0.56149</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5855320000000001</v>
+        <v>0.585373</v>
       </c>
       <c r="D51" t="n">
-        <v>0.910942</v>
+        <v>0.912251</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.558236</v>
+        <v>0.560882</v>
       </c>
       <c r="C52" t="n">
-        <v>0.577062</v>
+        <v>0.574748</v>
       </c>
       <c r="D52" t="n">
-        <v>0.883588</v>
+        <v>0.883811</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.756305</v>
+        <v>0.757204</v>
       </c>
       <c r="C53" t="n">
-        <v>0.856261</v>
+        <v>0.864608</v>
       </c>
       <c r="D53" t="n">
-        <v>0.855616</v>
+        <v>0.859143</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.733985</v>
+        <v>0.737499</v>
       </c>
       <c r="C54" t="n">
-        <v>0.829643</v>
+        <v>0.837211</v>
       </c>
       <c r="D54" t="n">
-        <v>0.829385</v>
+        <v>0.832415</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.713846</v>
+        <v>0.716673</v>
       </c>
       <c r="C55" t="n">
-        <v>0.805594</v>
+        <v>0.810453</v>
       </c>
       <c r="D55" t="n">
-        <v>0.805451</v>
+        <v>0.807115</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.695704</v>
+        <v>0.698012</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7791400000000001</v>
+        <v>0.785146</v>
       </c>
       <c r="D56" t="n">
-        <v>0.781524</v>
+        <v>0.783764</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6781779999999999</v>
+        <v>0.6798380000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.756297</v>
+        <v>0.760197</v>
       </c>
       <c r="D57" t="n">
-        <v>0.760045</v>
+        <v>0.761866</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.662158</v>
+        <v>0.663762</v>
       </c>
       <c r="C58" t="n">
-        <v>0.733903</v>
+        <v>0.736927</v>
       </c>
       <c r="D58" t="n">
-        <v>0.738776</v>
+        <v>0.7409249999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.64658</v>
+        <v>0.64852</v>
       </c>
       <c r="C59" t="n">
-        <v>0.713855</v>
+        <v>0.716069</v>
       </c>
       <c r="D59" t="n">
-        <v>0.71866</v>
+        <v>0.719013</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.63292</v>
+        <v>0.633617</v>
       </c>
       <c r="C60" t="n">
-        <v>0.692339</v>
+        <v>0.693246</v>
       </c>
       <c r="D60" t="n">
-        <v>0.698344</v>
+        <v>0.699784</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.619371</v>
+        <v>0.620273</v>
       </c>
       <c r="C61" t="n">
-        <v>0.674388</v>
+        <v>0.675033</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6806950000000001</v>
+        <v>0.682901</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.60638</v>
+        <v>0.608808</v>
       </c>
       <c r="C62" t="n">
-        <v>0.65611</v>
+        <v>0.656427</v>
       </c>
       <c r="D62" t="n">
-        <v>0.664313</v>
+        <v>0.666462</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.59674</v>
+        <v>0.5990799999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.640805</v>
+        <v>0.641439</v>
       </c>
       <c r="D63" t="n">
-        <v>0.649824</v>
+        <v>0.65208</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.589986</v>
+        <v>0.591248</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6268359999999999</v>
+        <v>0.624764</v>
       </c>
       <c r="D64" t="n">
-        <v>0.638016</v>
+        <v>0.6403759999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.586139</v>
+        <v>0.586977</v>
       </c>
       <c r="C65" t="n">
-        <v>0.613521</v>
+        <v>0.612989</v>
       </c>
       <c r="D65" t="n">
-        <v>0.628424</v>
+        <v>0.630485</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.583655</v>
+        <v>0.585191</v>
       </c>
       <c r="C66" t="n">
-        <v>0.603965</v>
+        <v>0.601975</v>
       </c>
       <c r="D66" t="n">
-        <v>0.950358</v>
+        <v>0.94703</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.82468</v>
+        <v>0.822477</v>
       </c>
       <c r="C67" t="n">
-        <v>0.930102</v>
+        <v>0.932392</v>
       </c>
       <c r="D67" t="n">
-        <v>0.920342</v>
+        <v>0.917309</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.804849</v>
+        <v>0.805096</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9051439999999999</v>
+        <v>0.9071669999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.89342</v>
+        <v>0.8915419999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.787296</v>
+        <v>0.786893</v>
       </c>
       <c r="C69" t="n">
-        <v>0.87827</v>
+        <v>0.877763</v>
       </c>
       <c r="D69" t="n">
-        <v>0.868383</v>
+        <v>0.866018</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.772095</v>
+        <v>0.771364</v>
       </c>
       <c r="C70" t="n">
-        <v>0.853193</v>
+        <v>0.8539099999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.846429</v>
+        <v>0.8423</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.760659</v>
+        <v>0.754199</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8325939999999999</v>
+        <v>0.827665</v>
       </c>
       <c r="D71" t="n">
-        <v>0.823645</v>
+        <v>0.818906</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.746096</v>
+        <v>0.737643</v>
       </c>
       <c r="C72" t="n">
-        <v>0.810879</v>
+        <v>0.804412</v>
       </c>
       <c r="D72" t="n">
-        <v>0.804731</v>
+        <v>0.796952</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.731405</v>
+        <v>0.721751</v>
       </c>
       <c r="C73" t="n">
-        <v>0.788084</v>
+        <v>0.779637</v>
       </c>
       <c r="D73" t="n">
-        <v>0.781131</v>
+        <v>0.774014</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.715683</v>
+        <v>0.70392</v>
       </c>
       <c r="C74" t="n">
-        <v>0.763775</v>
+        <v>0.756107</v>
       </c>
       <c r="D74" t="n">
-        <v>0.758408</v>
+        <v>0.752578</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.700194</v>
+        <v>0.6906949999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.740582</v>
+        <v>0.735145</v>
       </c>
       <c r="D75" t="n">
-        <v>0.731639</v>
+        <v>0.73513</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.678379</v>
+        <v>0.678948</v>
       </c>
       <c r="C76" t="n">
-        <v>0.721596</v>
+        <v>0.715628</v>
       </c>
       <c r="D76" t="n">
-        <v>0.720626</v>
+        <v>0.716037</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.673777</v>
+        <v>0.666313</v>
       </c>
       <c r="C77" t="n">
-        <v>0.703769</v>
+        <v>0.697256</v>
       </c>
       <c r="D77" t="n">
-        <v>0.703043</v>
+        <v>0.700631</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6647420000000001</v>
+        <v>0.657565</v>
       </c>
       <c r="C78" t="n">
-        <v>0.687519</v>
+        <v>0.681854</v>
       </c>
       <c r="D78" t="n">
-        <v>0.689254</v>
+        <v>0.688796</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.658008</v>
+        <v>0.650039</v>
       </c>
       <c r="C79" t="n">
-        <v>0.673524</v>
+        <v>0.666946</v>
       </c>
       <c r="D79" t="n">
-        <v>0.677682</v>
+        <v>0.677261</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.65352</v>
+        <v>0.645556</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6629389999999999</v>
+        <v>0.655106</v>
       </c>
       <c r="D80" t="n">
-        <v>1.04296</v>
+        <v>1.02164</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.909766</v>
+        <v>0.894065</v>
       </c>
       <c r="C81" t="n">
-        <v>1.03137</v>
+        <v>1.01403</v>
       </c>
       <c r="D81" t="n">
-        <v>1.02438</v>
+        <v>1.00162</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.904988</v>
+        <v>0.886804</v>
       </c>
       <c r="C82" t="n">
-        <v>1.01657</v>
+        <v>0.998092</v>
       </c>
       <c r="D82" t="n">
-        <v>1.0028</v>
+        <v>0.981104</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.895306</v>
+        <v>0.876718</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9943610000000001</v>
+        <v>0.977459</v>
       </c>
       <c r="D83" t="n">
-        <v>0.979465</v>
+        <v>0.958807</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.885159</v>
+        <v>0.866236</v>
       </c>
       <c r="C84" t="n">
-        <v>0.973021</v>
+        <v>0.956098</v>
       </c>
       <c r="D84" t="n">
-        <v>0.956716</v>
+        <v>0.936342</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.875062</v>
+        <v>0.85528</v>
       </c>
       <c r="C85" t="n">
-        <v>0.95148</v>
+        <v>0.933125</v>
       </c>
       <c r="D85" t="n">
-        <v>0.934399</v>
+        <v>0.91455</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.866252</v>
+        <v>0.844998</v>
       </c>
       <c r="C86" t="n">
-        <v>0.930465</v>
+        <v>0.911759</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9131280000000001</v>
+        <v>0.891023</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.857117</v>
+        <v>0.832335</v>
       </c>
       <c r="C87" t="n">
-        <v>0.909859</v>
+        <v>0.887769</v>
       </c>
       <c r="D87" t="n">
-        <v>0.890393</v>
+        <v>0.869414</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.845719</v>
+        <v>0.821532</v>
       </c>
       <c r="C88" t="n">
-        <v>0.888198</v>
+        <v>0.867937</v>
       </c>
       <c r="D88" t="n">
-        <v>0.866985</v>
+        <v>0.849877</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.832769</v>
+        <v>0.810652</v>
       </c>
       <c r="C89" t="n">
-        <v>0.866649</v>
+        <v>0.848234</v>
       </c>
       <c r="D89" t="n">
-        <v>0.846429</v>
+        <v>0.829913</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.824249</v>
+        <v>0.80109</v>
       </c>
       <c r="C90" t="n">
-        <v>0.84818</v>
+        <v>0.829088</v>
       </c>
       <c r="D90" t="n">
-        <v>0.827274</v>
+        <v>0.81033</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.814686</v>
+        <v>0.790651</v>
       </c>
       <c r="C91" t="n">
-        <v>0.83042</v>
+        <v>0.809705</v>
       </c>
       <c r="D91" t="n">
-        <v>0.809671</v>
+        <v>0.792349</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.808942</v>
+        <v>0.780852</v>
       </c>
       <c r="C92" t="n">
-        <v>0.816093</v>
+        <v>0.79112</v>
       </c>
       <c r="D92" t="n">
-        <v>0.796505</v>
+        <v>0.776181</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.801995</v>
+        <v>0.7763640000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.801245</v>
+        <v>0.776655</v>
       </c>
       <c r="D93" t="n">
-        <v>0.782345</v>
+        <v>0.762697</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.799134</v>
+        <v>0.7708930000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.788969</v>
+        <v>0.7642679999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>1.1549</v>
+        <v>1.11348</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.05817</v>
+        <v>1.02339</v>
       </c>
       <c r="C95" t="n">
-        <v>1.16009</v>
+        <v>1.12647</v>
       </c>
       <c r="D95" t="n">
-        <v>1.14379</v>
+        <v>1.10134</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.05866</v>
+        <v>1.02596</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15363</v>
+        <v>1.12077</v>
       </c>
       <c r="D96" t="n">
-        <v>1.12411</v>
+        <v>1.08388</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.05148</v>
+        <v>1.01556</v>
       </c>
       <c r="C97" t="n">
-        <v>1.13705</v>
+        <v>1.09658</v>
       </c>
       <c r="D97" t="n">
-        <v>1.10429</v>
+        <v>1.06312</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0418</v>
+        <v>1.00728</v>
       </c>
       <c r="C98" t="n">
-        <v>1.11619</v>
+        <v>1.08153</v>
       </c>
       <c r="D98" t="n">
-        <v>1.08388</v>
+        <v>1.04429</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.03236</v>
+        <v>0.9960599999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09871</v>
+        <v>1.06182</v>
       </c>
       <c r="D99" t="n">
-        <v>1.06317</v>
+        <v>1.02335</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.02325</v>
+        <v>0.984791</v>
       </c>
       <c r="C100" t="n">
-        <v>1.07962</v>
+        <v>1.04259</v>
       </c>
       <c r="D100" t="n">
-        <v>1.0441</v>
+        <v>1.00406</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.01351</v>
+        <v>0.975139</v>
       </c>
       <c r="C101" t="n">
-        <v>1.05982</v>
+        <v>1.02453</v>
       </c>
       <c r="D101" t="n">
-        <v>1.02214</v>
+        <v>0.986253</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.00545</v>
+        <v>0.965684</v>
       </c>
       <c r="C102" t="n">
-        <v>1.04371</v>
+        <v>1.00665</v>
       </c>
       <c r="D102" t="n">
-        <v>1.00797</v>
+        <v>0.9680530000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.999871</v>
+        <v>0.958029</v>
       </c>
       <c r="C103" t="n">
-        <v>1.02824</v>
+        <v>0.990811</v>
       </c>
       <c r="D103" t="n">
-        <v>0.990976</v>
+        <v>0.952141</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.994132</v>
+        <v>0.950342</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0155</v>
+        <v>0.974683</v>
       </c>
       <c r="D104" t="n">
-        <v>0.976232</v>
+        <v>0.935591</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.989751</v>
+        <v>0.944251</v>
       </c>
       <c r="C105" t="n">
-        <v>1.00194</v>
+        <v>0.959963</v>
       </c>
       <c r="D105" t="n">
-        <v>0.961464</v>
+        <v>0.921419</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.985185</v>
+        <v>0.940003</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9888749999999999</v>
+        <v>0.9471000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.948939</v>
+        <v>0.908918</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.98372</v>
+        <v>0.937312</v>
       </c>
       <c r="C107" t="n">
-        <v>0.978115</v>
+        <v>0.936548</v>
       </c>
       <c r="D107" t="n">
-        <v>0.937505</v>
+        <v>0.8977349999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.984047</v>
+        <v>0.937442</v>
       </c>
       <c r="C108" t="n">
-        <v>0.968409</v>
+        <v>0.926202</v>
       </c>
       <c r="D108" t="n">
-        <v>1.30885</v>
+        <v>1.24732</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.987959</v>
+        <v>0.940072</v>
       </c>
       <c r="C109" t="n">
-        <v>0.963012</v>
+        <v>0.919168</v>
       </c>
       <c r="D109" t="n">
-        <v>1.2999</v>
+        <v>1.23587</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.24891</v>
+        <v>1.18598</v>
       </c>
       <c r="C110" t="n">
-        <v>1.33789</v>
+        <v>1.28365</v>
       </c>
       <c r="D110" t="n">
-        <v>1.28118</v>
+        <v>1.21861</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.23731</v>
+        <v>1.17416</v>
       </c>
       <c r="C111" t="n">
-        <v>1.31827</v>
+        <v>1.26346</v>
       </c>
       <c r="D111" t="n">
-        <v>1.26202</v>
+        <v>1.19946</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22414</v>
+        <v>1.16145</v>
       </c>
       <c r="C112" t="n">
-        <v>1.29937</v>
+        <v>1.24444</v>
       </c>
       <c r="D112" t="n">
-        <v>1.24432</v>
+        <v>1.18193</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.21305</v>
+        <v>1.15008</v>
       </c>
       <c r="C113" t="n">
-        <v>1.28098</v>
+        <v>1.22387</v>
       </c>
       <c r="D113" t="n">
-        <v>1.22677</v>
+        <v>1.16334</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.2029</v>
+        <v>1.14021</v>
       </c>
       <c r="C114" t="n">
-        <v>1.26311</v>
+        <v>1.20742</v>
       </c>
       <c r="D114" t="n">
-        <v>1.21158</v>
+        <v>1.1493</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.19405</v>
+        <v>1.12948</v>
       </c>
       <c r="C115" t="n">
-        <v>1.24803</v>
+        <v>1.19023</v>
       </c>
       <c r="D115" t="n">
-        <v>1.19646</v>
+        <v>1.13401</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.18588</v>
+        <v>1.12081</v>
       </c>
       <c r="C116" t="n">
-        <v>1.2314</v>
+        <v>1.17287</v>
       </c>
       <c r="D116" t="n">
-        <v>1.18154</v>
+        <v>1.11938</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.17791</v>
+        <v>1.11186</v>
       </c>
       <c r="C117" t="n">
-        <v>1.21655</v>
+        <v>1.15789</v>
       </c>
       <c r="D117" t="n">
-        <v>1.16923</v>
+        <v>1.10561</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.17145</v>
+        <v>1.10418</v>
       </c>
       <c r="C118" t="n">
-        <v>1.20306</v>
+        <v>1.14347</v>
       </c>
       <c r="D118" t="n">
-        <v>1.15616</v>
+        <v>1.09312</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.16764</v>
+        <v>1.09842</v>
       </c>
       <c r="C119" t="n">
-        <v>1.19111</v>
+        <v>1.12977</v>
       </c>
       <c r="D119" t="n">
-        <v>1.14632</v>
+        <v>1.08127</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.16435</v>
+        <v>1.095</v>
       </c>
       <c r="C120" t="n">
-        <v>1.18024</v>
+        <v>1.11866</v>
       </c>
       <c r="D120" t="n">
-        <v>1.13406</v>
+        <v>1.0707</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.16294</v>
+        <v>1.09298</v>
       </c>
       <c r="C121" t="n">
-        <v>1.16979</v>
+        <v>1.10808</v>
       </c>
       <c r="D121" t="n">
-        <v>1.1243</v>
+        <v>1.0605</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.16436</v>
+        <v>1.0932</v>
       </c>
       <c r="C122" t="n">
-        <v>1.16134</v>
+        <v>1.09837</v>
       </c>
       <c r="D122" t="n">
-        <v>1.11647</v>
+        <v>1.05249</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.16963</v>
+        <v>1.097</v>
       </c>
       <c r="C123" t="n">
-        <v>1.15675</v>
+        <v>1.0926</v>
       </c>
       <c r="D123" t="n">
-        <v>1.48673</v>
+        <v>1.40096</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.42639</v>
+        <v>1.34791</v>
       </c>
       <c r="C124" t="n">
-        <v>1.53106</v>
+        <v>1.4574</v>
       </c>
       <c r="D124" t="n">
-        <v>1.47281</v>
+        <v>1.38523</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.4176</v>
+        <v>1.33772</v>
       </c>
       <c r="C125" t="n">
-        <v>1.51366</v>
+        <v>1.43934</v>
       </c>
       <c r="D125" t="n">
-        <v>1.45812</v>
+        <v>1.37037</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.40897</v>
+        <v>1.32748</v>
       </c>
       <c r="C126" t="n">
-        <v>1.49816</v>
+        <v>1.42068</v>
       </c>
       <c r="D126" t="n">
-        <v>1.44531</v>
+        <v>1.35673</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.40163</v>
+        <v>1.31889</v>
       </c>
       <c r="C127" t="n">
-        <v>1.48209</v>
+        <v>1.40419</v>
       </c>
       <c r="D127" t="n">
-        <v>1.4322</v>
+        <v>1.34328</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.39492</v>
+        <v>1.31096</v>
       </c>
       <c r="C128" t="n">
-        <v>1.46875</v>
+        <v>1.38801</v>
       </c>
       <c r="D128" t="n">
-        <v>1.4213</v>
+        <v>1.33196</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.38883</v>
+        <v>1.30287</v>
       </c>
       <c r="C129" t="n">
-        <v>1.45438</v>
+        <v>1.37295</v>
       </c>
       <c r="D129" t="n">
-        <v>1.41031</v>
+        <v>1.32037</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.38386</v>
+        <v>1.29674</v>
       </c>
       <c r="C130" t="n">
-        <v>1.44162</v>
+        <v>1.3589</v>
       </c>
       <c r="D130" t="n">
-        <v>1.40005</v>
+        <v>1.30947</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.37988</v>
+        <v>1.29136</v>
       </c>
       <c r="C131" t="n">
-        <v>1.42935</v>
+        <v>1.34694</v>
       </c>
       <c r="D131" t="n">
-        <v>1.3907</v>
+        <v>1.2999</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.37747</v>
+        <v>1.28709</v>
       </c>
       <c r="C132" t="n">
-        <v>1.41854</v>
+        <v>1.33509</v>
       </c>
       <c r="D132" t="n">
-        <v>1.3821</v>
+        <v>1.29063</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.37442</v>
+        <v>1.28438</v>
       </c>
       <c r="C133" t="n">
-        <v>1.40924</v>
+        <v>1.3241</v>
       </c>
       <c r="D133" t="n">
-        <v>1.37396</v>
+        <v>1.282</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.37397</v>
+        <v>1.28223</v>
       </c>
       <c r="C134" t="n">
-        <v>1.4004</v>
+        <v>1.31344</v>
       </c>
       <c r="D134" t="n">
-        <v>1.36785</v>
+        <v>1.27407</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.37487</v>
+        <v>1.28211</v>
       </c>
       <c r="C135" t="n">
-        <v>1.39318</v>
+        <v>1.30522</v>
       </c>
       <c r="D135" t="n">
-        <v>1.35952</v>
+        <v>1.26642</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.37843</v>
+        <v>1.28421</v>
       </c>
       <c r="C136" t="n">
-        <v>1.38689</v>
+        <v>1.29783</v>
       </c>
       <c r="D136" t="n">
-        <v>1.35116</v>
+        <v>1.25842</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.38376</v>
+        <v>1.28887</v>
       </c>
       <c r="C137" t="n">
-        <v>1.38255</v>
+        <v>1.29226</v>
       </c>
       <c r="D137" t="n">
-        <v>1.71761</v>
+        <v>1.60449</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.64165</v>
+        <v>1.53934</v>
       </c>
       <c r="C138" t="n">
-        <v>1.75644</v>
+        <v>1.65695</v>
       </c>
       <c r="D138" t="n">
-        <v>1.70589</v>
+        <v>1.59213</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.63419</v>
+        <v>1.53185</v>
       </c>
       <c r="C139" t="n">
-        <v>1.74146</v>
+        <v>1.64066</v>
       </c>
       <c r="D139" t="n">
-        <v>1.69581</v>
+        <v>1.57968</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.62627</v>
+        <v>1.52391</v>
       </c>
       <c r="C140" t="n">
-        <v>1.72687</v>
+        <v>1.62444</v>
       </c>
       <c r="D140" t="n">
-        <v>1.68314</v>
+        <v>1.56883</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.61947</v>
+        <v>1.51628</v>
       </c>
       <c r="C141" t="n">
-        <v>1.71461</v>
+        <v>1.60994</v>
       </c>
       <c r="D141" t="n">
-        <v>1.67573</v>
+        <v>1.55731</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.61462</v>
+        <v>1.51054</v>
       </c>
       <c r="C142" t="n">
-        <v>1.70181</v>
+        <v>1.59505</v>
       </c>
       <c r="D142" t="n">
-        <v>1.66519</v>
+        <v>1.54768</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.60978</v>
+        <v>1.50455</v>
       </c>
       <c r="C143" t="n">
-        <v>1.69116</v>
+        <v>1.58287</v>
       </c>
       <c r="D143" t="n">
-        <v>1.65658</v>
+        <v>1.53864</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.516124</v>
+        <v>0.515213</v>
       </c>
       <c r="C2" t="n">
-        <v>0.564249</v>
+        <v>0.572063</v>
       </c>
       <c r="D2" t="n">
-        <v>0.563412</v>
+        <v>0.552424</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.506341</v>
+        <v>0.506561</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5490080000000001</v>
+        <v>0.555853</v>
       </c>
       <c r="D3" t="n">
-        <v>0.549254</v>
+        <v>0.537446</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.497776</v>
+        <v>0.497087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.532786</v>
+        <v>0.540335</v>
       </c>
       <c r="D4" t="n">
-        <v>0.535184</v>
+        <v>0.52295</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.490467</v>
+        <v>0.489004</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5192</v>
+        <v>0.525918</v>
       </c>
       <c r="D5" t="n">
-        <v>0.522357</v>
+        <v>0.510347</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.483972</v>
+        <v>0.48221</v>
       </c>
       <c r="C6" t="n">
-        <v>0.50641</v>
+        <v>0.513371</v>
       </c>
       <c r="D6" t="n">
-        <v>0.511077</v>
+        <v>0.499474</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.479301</v>
+        <v>0.478002</v>
       </c>
       <c r="C7" t="n">
-        <v>0.494679</v>
+        <v>0.501934</v>
       </c>
       <c r="D7" t="n">
-        <v>0.500587</v>
+        <v>0.490046</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.477718</v>
+        <v>0.476718</v>
       </c>
       <c r="C8" t="n">
-        <v>0.486016</v>
+        <v>0.492759</v>
       </c>
       <c r="D8" t="n">
-        <v>0.493326</v>
+        <v>0.483425</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.479561</v>
+        <v>0.47859</v>
       </c>
       <c r="C9" t="n">
-        <v>0.47858</v>
+        <v>0.485772</v>
       </c>
       <c r="D9" t="n">
-        <v>0.808598</v>
+        <v>0.797288</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6722939999999999</v>
+        <v>0.6702050000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.766367</v>
+        <v>0.774609</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7828580000000001</v>
+        <v>0.770695</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.651153</v>
+        <v>0.6511130000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.740761</v>
+        <v>0.748354</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7566889999999999</v>
+        <v>0.745448</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.634143</v>
+        <v>0.633543</v>
       </c>
       <c r="C12" t="n">
-        <v>0.715926</v>
+        <v>0.723788</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7330759999999999</v>
+        <v>0.721241</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.615918</v>
+        <v>0.61651</v>
       </c>
       <c r="C13" t="n">
-        <v>0.692323</v>
+        <v>0.7001579999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.710598</v>
+        <v>0.698568</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.599294</v>
+        <v>0.600051</v>
       </c>
       <c r="C14" t="n">
-        <v>0.670536</v>
+        <v>0.677967</v>
       </c>
       <c r="D14" t="n">
-        <v>0.688972</v>
+        <v>0.676796</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5838</v>
+        <v>0.584582</v>
       </c>
       <c r="C15" t="n">
-        <v>0.649178</v>
+        <v>0.656572</v>
       </c>
       <c r="D15" t="n">
-        <v>0.669295</v>
+        <v>0.655841</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.569417</v>
+        <v>0.570469</v>
       </c>
       <c r="C16" t="n">
-        <v>0.628995</v>
+        <v>0.637019</v>
       </c>
       <c r="D16" t="n">
-        <v>0.649302</v>
+        <v>0.636416</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.55649</v>
+        <v>0.557429</v>
       </c>
       <c r="C17" t="n">
-        <v>0.610357</v>
+        <v>0.618007</v>
       </c>
       <c r="D17" t="n">
-        <v>0.631413</v>
+        <v>0.617989</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.544888</v>
+        <v>0.5455</v>
       </c>
       <c r="C18" t="n">
-        <v>0.592664</v>
+        <v>0.600415</v>
       </c>
       <c r="D18" t="n">
-        <v>0.613829</v>
+        <v>0.6009949999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.535099</v>
+        <v>0.535292</v>
       </c>
       <c r="C19" t="n">
-        <v>0.576105</v>
+        <v>0.583558</v>
       </c>
       <c r="D19" t="n">
-        <v>0.597875</v>
+        <v>0.584995</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.527829</v>
+        <v>0.526836</v>
       </c>
       <c r="C20" t="n">
-        <v>0.560812</v>
+        <v>0.568454</v>
       </c>
       <c r="D20" t="n">
-        <v>0.583557</v>
+        <v>0.570471</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.520942</v>
+        <v>0.520931</v>
       </c>
       <c r="C21" t="n">
-        <v>0.546685</v>
+        <v>0.554716</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5716059999999999</v>
+        <v>0.557721</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.515606</v>
+        <v>0.51651</v>
       </c>
       <c r="C22" t="n">
-        <v>0.53496</v>
+        <v>0.543187</v>
       </c>
       <c r="D22" t="n">
-        <v>0.563122</v>
+        <v>0.548269</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5145149999999999</v>
+        <v>0.5156269999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.525067</v>
+        <v>0.533422</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8509989999999999</v>
+        <v>0.834006</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.72044</v>
+        <v>0.718917</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8236059999999999</v>
+        <v>0.831762</v>
       </c>
       <c r="D24" t="n">
-        <v>0.823003</v>
+        <v>0.806423</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.699743</v>
+        <v>0.698228</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7955989999999999</v>
+        <v>0.8036489999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.796641</v>
+        <v>0.779711</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.679382</v>
+        <v>0.678085</v>
       </c>
       <c r="C26" t="n">
-        <v>0.769317</v>
+        <v>0.776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0.770486</v>
+        <v>0.754119</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.659212</v>
+        <v>0.66067</v>
       </c>
       <c r="C27" t="n">
-        <v>0.742442</v>
+        <v>0.751243</v>
       </c>
       <c r="D27" t="n">
-        <v>0.747133</v>
+        <v>0.730312</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.641908</v>
+        <v>0.640293</v>
       </c>
       <c r="C28" t="n">
-        <v>0.719432</v>
+        <v>0.727352</v>
       </c>
       <c r="D28" t="n">
-        <v>0.72419</v>
+        <v>0.707406</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.62469</v>
+        <v>0.623606</v>
       </c>
       <c r="C29" t="n">
-        <v>0.696667</v>
+        <v>0.704693</v>
       </c>
       <c r="D29" t="n">
-        <v>0.702464</v>
+        <v>0.685272</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6089869999999999</v>
+        <v>0.607704</v>
       </c>
       <c r="C30" t="n">
-        <v>0.674883</v>
+        <v>0.682424</v>
       </c>
       <c r="D30" t="n">
-        <v>0.682156</v>
+        <v>0.664809</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.594608</v>
+        <v>0.593375</v>
       </c>
       <c r="C31" t="n">
-        <v>0.654061</v>
+        <v>0.662067</v>
       </c>
       <c r="D31" t="n">
-        <v>0.662736</v>
+        <v>0.645873</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.581541</v>
+        <v>0.580137</v>
       </c>
       <c r="C32" t="n">
-        <v>0.634721</v>
+        <v>0.642909</v>
       </c>
       <c r="D32" t="n">
-        <v>0.644878</v>
+        <v>0.627899</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.569898</v>
+        <v>0.568334</v>
       </c>
       <c r="C33" t="n">
-        <v>0.61691</v>
+        <v>0.625051</v>
       </c>
       <c r="D33" t="n">
-        <v>0.627907</v>
+        <v>0.611113</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.559327</v>
+        <v>0.5580580000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.600233</v>
+        <v>0.608255</v>
       </c>
       <c r="D34" t="n">
-        <v>0.61306</v>
+        <v>0.595776</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.550526</v>
+        <v>0.549712</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5843970000000001</v>
+        <v>0.593081</v>
       </c>
       <c r="D35" t="n">
-        <v>0.599795</v>
+        <v>0.582629</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.544721</v>
+        <v>0.5430970000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.570532</v>
+        <v>0.579188</v>
       </c>
       <c r="D36" t="n">
-        <v>0.588818</v>
+        <v>0.571724</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.541138</v>
+        <v>0.539864</v>
       </c>
       <c r="C37" t="n">
-        <v>0.559494</v>
+        <v>0.568981</v>
       </c>
       <c r="D37" t="n">
-        <v>0.881271</v>
+        <v>0.862982</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.75122</v>
+        <v>0.748931</v>
       </c>
       <c r="C38" t="n">
-        <v>0.860436</v>
+        <v>0.869385</v>
       </c>
       <c r="D38" t="n">
-        <v>0.853212</v>
+        <v>0.835026</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7296280000000001</v>
+        <v>0.728324</v>
       </c>
       <c r="C39" t="n">
-        <v>0.832116</v>
+        <v>0.841379</v>
       </c>
       <c r="D39" t="n">
-        <v>0.825624</v>
+        <v>0.808326</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.708623</v>
+        <v>0.70712</v>
       </c>
       <c r="C40" t="n">
-        <v>0.80449</v>
+        <v>0.813043</v>
       </c>
       <c r="D40" t="n">
-        <v>0.799759</v>
+        <v>0.7812829999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.688646</v>
+        <v>0.6866139999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.77819</v>
+        <v>0.78677</v>
       </c>
       <c r="D41" t="n">
-        <v>0.775078</v>
+        <v>0.756945</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.66973</v>
+        <v>0.668133</v>
       </c>
       <c r="C42" t="n">
-        <v>0.752932</v>
+        <v>0.761872</v>
       </c>
       <c r="D42" t="n">
-        <v>0.751688</v>
+        <v>0.735016</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.652124</v>
+        <v>0.653455</v>
       </c>
       <c r="C43" t="n">
-        <v>0.728746</v>
+        <v>0.738066</v>
       </c>
       <c r="D43" t="n">
-        <v>0.729653</v>
+        <v>0.711728</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.635425</v>
+        <v>0.633862</v>
       </c>
       <c r="C44" t="n">
-        <v>0.70641</v>
+        <v>0.715387</v>
       </c>
       <c r="D44" t="n">
-        <v>0.708414</v>
+        <v>0.690026</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.620366</v>
+        <v>0.618645</v>
       </c>
       <c r="C45" t="n">
-        <v>0.684847</v>
+        <v>0.693984</v>
       </c>
       <c r="D45" t="n">
-        <v>0.689037</v>
+        <v>0.670365</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.606006</v>
+        <v>0.604698</v>
       </c>
       <c r="C46" t="n">
-        <v>0.664287</v>
+        <v>0.6730969999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.66974</v>
+        <v>0.651766</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.593056</v>
+        <v>0.591444</v>
       </c>
       <c r="C47" t="n">
-        <v>0.645688</v>
+        <v>0.6540010000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.652914</v>
+        <v>0.633401</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.581914</v>
+        <v>0.580234</v>
       </c>
       <c r="C48" t="n">
-        <v>0.627797</v>
+        <v>0.637061</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6366000000000001</v>
+        <v>0.617907</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.572642</v>
+        <v>0.5715710000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.611548</v>
+        <v>0.621408</v>
       </c>
       <c r="D49" t="n">
-        <v>0.622547</v>
+        <v>0.604165</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.565963</v>
+        <v>0.564415</v>
       </c>
       <c r="C50" t="n">
-        <v>0.597697</v>
+        <v>0.606196</v>
       </c>
       <c r="D50" t="n">
-        <v>0.611182</v>
+        <v>0.592022</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.56149</v>
+        <v>0.558691</v>
       </c>
       <c r="C51" t="n">
-        <v>0.585373</v>
+        <v>0.5937249999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.912251</v>
+        <v>0.892423</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.560882</v>
+        <v>0.559476</v>
       </c>
       <c r="C52" t="n">
-        <v>0.574748</v>
+        <v>0.584772</v>
       </c>
       <c r="D52" t="n">
-        <v>0.883811</v>
+        <v>0.86824</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.757204</v>
+        <v>0.760149</v>
       </c>
       <c r="C53" t="n">
-        <v>0.864608</v>
+        <v>0.877757</v>
       </c>
       <c r="D53" t="n">
-        <v>0.859143</v>
+        <v>0.839124</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.737499</v>
+        <v>0.739391</v>
       </c>
       <c r="C54" t="n">
-        <v>0.837211</v>
+        <v>0.850223</v>
       </c>
       <c r="D54" t="n">
-        <v>0.832415</v>
+        <v>0.814527</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.716673</v>
+        <v>0.7193929999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.810453</v>
+        <v>0.823837</v>
       </c>
       <c r="D55" t="n">
-        <v>0.807115</v>
+        <v>0.788691</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.698012</v>
+        <v>0.698396</v>
       </c>
       <c r="C56" t="n">
-        <v>0.785146</v>
+        <v>0.795134</v>
       </c>
       <c r="D56" t="n">
-        <v>0.783764</v>
+        <v>0.762728</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6798380000000001</v>
+        <v>0.680332</v>
       </c>
       <c r="C57" t="n">
-        <v>0.760197</v>
+        <v>0.770409</v>
       </c>
       <c r="D57" t="n">
-        <v>0.761866</v>
+        <v>0.74138</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.663762</v>
+        <v>0.663165</v>
       </c>
       <c r="C58" t="n">
-        <v>0.736927</v>
+        <v>0.747606</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7409249999999999</v>
+        <v>0.71814</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.64852</v>
+        <v>0.6453100000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.716069</v>
+        <v>0.724013</v>
       </c>
       <c r="D59" t="n">
-        <v>0.719013</v>
+        <v>0.696075</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.633617</v>
+        <v>0.631783</v>
       </c>
       <c r="C60" t="n">
-        <v>0.693246</v>
+        <v>0.704426</v>
       </c>
       <c r="D60" t="n">
-        <v>0.699784</v>
+        <v>0.6780659999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.620273</v>
+        <v>0.61882</v>
       </c>
       <c r="C61" t="n">
-        <v>0.675033</v>
+        <v>0.6851</v>
       </c>
       <c r="D61" t="n">
-        <v>0.682901</v>
+        <v>0.661143</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.608808</v>
+        <v>0.608362</v>
       </c>
       <c r="C62" t="n">
-        <v>0.656427</v>
+        <v>0.668564</v>
       </c>
       <c r="D62" t="n">
-        <v>0.666462</v>
+        <v>0.646697</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5990799999999999</v>
+        <v>0.599924</v>
       </c>
       <c r="C63" t="n">
-        <v>0.641439</v>
+        <v>0.651011</v>
       </c>
       <c r="D63" t="n">
-        <v>0.65208</v>
+        <v>0.63169</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.591248</v>
+        <v>0.59229</v>
       </c>
       <c r="C64" t="n">
-        <v>0.624764</v>
+        <v>0.636956</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6403759999999999</v>
+        <v>0.61881</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.586977</v>
+        <v>0.587759</v>
       </c>
       <c r="C65" t="n">
-        <v>0.612989</v>
+        <v>0.62418</v>
       </c>
       <c r="D65" t="n">
-        <v>0.630485</v>
+        <v>0.608912</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.585191</v>
+        <v>0.584912</v>
       </c>
       <c r="C66" t="n">
-        <v>0.601975</v>
+        <v>0.614028</v>
       </c>
       <c r="D66" t="n">
-        <v>0.94703</v>
+        <v>0.921961</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.822477</v>
+        <v>0.82025</v>
       </c>
       <c r="C67" t="n">
-        <v>0.932392</v>
+        <v>0.943267</v>
       </c>
       <c r="D67" t="n">
-        <v>0.917309</v>
+        <v>0.882046</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.805096</v>
+        <v>0.802293</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9071669999999999</v>
+        <v>0.921248</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8915419999999999</v>
+        <v>0.872123</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.786893</v>
+        <v>0.791666</v>
       </c>
       <c r="C69" t="n">
-        <v>0.877763</v>
+        <v>0.892066</v>
       </c>
       <c r="D69" t="n">
-        <v>0.866018</v>
+        <v>0.846036</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.771364</v>
+        <v>0.771959</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8539099999999999</v>
+        <v>0.86446</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8423</v>
+        <v>0.8193279999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.754199</v>
+        <v>0.753945</v>
       </c>
       <c r="C71" t="n">
-        <v>0.827665</v>
+        <v>0.8380649999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.818906</v>
+        <v>0.795031</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.737643</v>
+        <v>0.735141</v>
       </c>
       <c r="C72" t="n">
-        <v>0.804412</v>
+        <v>0.8122470000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.796952</v>
+        <v>0.769141</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.721751</v>
+        <v>0.716468</v>
       </c>
       <c r="C73" t="n">
-        <v>0.779637</v>
+        <v>0.786779</v>
       </c>
       <c r="D73" t="n">
-        <v>0.774014</v>
+        <v>0.749627</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.70392</v>
+        <v>0.7039800000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.756107</v>
+        <v>0.766084</v>
       </c>
       <c r="D74" t="n">
-        <v>0.752578</v>
+        <v>0.729664</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6906949999999999</v>
+        <v>0.69058</v>
       </c>
       <c r="C75" t="n">
-        <v>0.735145</v>
+        <v>0.744474</v>
       </c>
       <c r="D75" t="n">
-        <v>0.73513</v>
+        <v>0.709337</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.678948</v>
+        <v>0.675773</v>
       </c>
       <c r="C76" t="n">
-        <v>0.715628</v>
+        <v>0.722835</v>
       </c>
       <c r="D76" t="n">
-        <v>0.716037</v>
+        <v>0.693128</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.666313</v>
+        <v>0.666255</v>
       </c>
       <c r="C77" t="n">
-        <v>0.697256</v>
+        <v>0.7077639999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.700631</v>
+        <v>0.677682</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.657565</v>
+        <v>0.6593020000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.681854</v>
+        <v>0.693021</v>
       </c>
       <c r="D78" t="n">
-        <v>0.688796</v>
+        <v>0.664292</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.650039</v>
+        <v>0.650359</v>
       </c>
       <c r="C79" t="n">
-        <v>0.666946</v>
+        <v>0.677028</v>
       </c>
       <c r="D79" t="n">
-        <v>0.677261</v>
+        <v>0.651537</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.645556</v>
+        <v>0.645988</v>
       </c>
       <c r="C80" t="n">
-        <v>0.655106</v>
+        <v>0.661641</v>
       </c>
       <c r="D80" t="n">
-        <v>1.02164</v>
+        <v>0.993347</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.894065</v>
+        <v>0.892867</v>
       </c>
       <c r="C81" t="n">
-        <v>1.01403</v>
+        <v>1.02474</v>
       </c>
       <c r="D81" t="n">
-        <v>1.00162</v>
+        <v>0.975993</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.886804</v>
+        <v>0.885836</v>
       </c>
       <c r="C82" t="n">
-        <v>0.998092</v>
+        <v>1.00649</v>
       </c>
       <c r="D82" t="n">
-        <v>0.981104</v>
+        <v>0.954254</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.876718</v>
+        <v>0.876062</v>
       </c>
       <c r="C83" t="n">
-        <v>0.977459</v>
+        <v>0.985368</v>
       </c>
       <c r="D83" t="n">
-        <v>0.958807</v>
+        <v>0.931352</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.866236</v>
+        <v>0.86402</v>
       </c>
       <c r="C84" t="n">
-        <v>0.956098</v>
+        <v>0.960835</v>
       </c>
       <c r="D84" t="n">
-        <v>0.936342</v>
+        <v>0.907578</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.85528</v>
+        <v>0.853754</v>
       </c>
       <c r="C85" t="n">
-        <v>0.933125</v>
+        <v>0.939817</v>
       </c>
       <c r="D85" t="n">
-        <v>0.91455</v>
+        <v>0.886334</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.844998</v>
+        <v>0.842305</v>
       </c>
       <c r="C86" t="n">
-        <v>0.911759</v>
+        <v>0.916048</v>
       </c>
       <c r="D86" t="n">
-        <v>0.891023</v>
+        <v>0.863479</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.832335</v>
+        <v>0.830807</v>
       </c>
       <c r="C87" t="n">
-        <v>0.887769</v>
+        <v>0.893737</v>
       </c>
       <c r="D87" t="n">
-        <v>0.869414</v>
+        <v>0.842863</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.821532</v>
+        <v>0.820897</v>
       </c>
       <c r="C88" t="n">
-        <v>0.867937</v>
+        <v>0.873813</v>
       </c>
       <c r="D88" t="n">
-        <v>0.849877</v>
+        <v>0.82258</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.810652</v>
+        <v>0.811007</v>
       </c>
       <c r="C89" t="n">
-        <v>0.848234</v>
+        <v>0.853954</v>
       </c>
       <c r="D89" t="n">
-        <v>0.829913</v>
+        <v>0.802768</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.80109</v>
+        <v>0.799917</v>
       </c>
       <c r="C90" t="n">
-        <v>0.829088</v>
+        <v>0.834426</v>
       </c>
       <c r="D90" t="n">
-        <v>0.81033</v>
+        <v>0.784733</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.790651</v>
+        <v>0.789012</v>
       </c>
       <c r="C91" t="n">
-        <v>0.809705</v>
+        <v>0.81351</v>
       </c>
       <c r="D91" t="n">
-        <v>0.792349</v>
+        <v>0.766969</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.780852</v>
+        <v>0.781757</v>
       </c>
       <c r="C92" t="n">
-        <v>0.79112</v>
+        <v>0.798739</v>
       </c>
       <c r="D92" t="n">
-        <v>0.776181</v>
+        <v>0.7513649999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7763640000000001</v>
+        <v>0.776024</v>
       </c>
       <c r="C93" t="n">
-        <v>0.776655</v>
+        <v>0.783948</v>
       </c>
       <c r="D93" t="n">
-        <v>0.762697</v>
+        <v>0.737696</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7708930000000001</v>
+        <v>0.771248</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7642679999999999</v>
+        <v>0.771629</v>
       </c>
       <c r="D94" t="n">
-        <v>1.11348</v>
+        <v>1.08899</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02339</v>
+        <v>1.02204</v>
       </c>
       <c r="C95" t="n">
-        <v>1.12647</v>
+        <v>1.1347</v>
       </c>
       <c r="D95" t="n">
-        <v>1.10134</v>
+        <v>1.07454</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02596</v>
+        <v>1.02216</v>
       </c>
       <c r="C96" t="n">
-        <v>1.12077</v>
+        <v>1.12465</v>
       </c>
       <c r="D96" t="n">
-        <v>1.08388</v>
+        <v>1.05492</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01556</v>
+        <v>1.01269</v>
       </c>
       <c r="C97" t="n">
-        <v>1.09658</v>
+        <v>1.10515</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06312</v>
+        <v>1.03843</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00728</v>
+        <v>1.00228</v>
       </c>
       <c r="C98" t="n">
-        <v>1.08153</v>
+        <v>1.0838</v>
       </c>
       <c r="D98" t="n">
-        <v>1.04429</v>
+        <v>1.01471</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9960599999999999</v>
+        <v>0.991348</v>
       </c>
       <c r="C99" t="n">
-        <v>1.06182</v>
+        <v>1.06386</v>
       </c>
       <c r="D99" t="n">
-        <v>1.02335</v>
+        <v>0.995471</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.984791</v>
+        <v>0.9819369999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>1.04259</v>
+        <v>1.0449</v>
       </c>
       <c r="D100" t="n">
-        <v>1.00406</v>
+        <v>0.976902</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.975139</v>
+        <v>0.972854</v>
       </c>
       <c r="C101" t="n">
-        <v>1.02453</v>
+        <v>1.02668</v>
       </c>
       <c r="D101" t="n">
-        <v>0.986253</v>
+        <v>0.960178</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.965684</v>
+        <v>0.964635</v>
       </c>
       <c r="C102" t="n">
-        <v>1.00665</v>
+        <v>1.00859</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9680530000000001</v>
+        <v>0.9405790000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.958029</v>
+        <v>0.95652</v>
       </c>
       <c r="C103" t="n">
-        <v>0.990811</v>
+        <v>0.992808</v>
       </c>
       <c r="D103" t="n">
-        <v>0.952141</v>
+        <v>0.926024</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.950342</v>
+        <v>0.951007</v>
       </c>
       <c r="C104" t="n">
-        <v>0.974683</v>
+        <v>0.977513</v>
       </c>
       <c r="D104" t="n">
-        <v>0.935591</v>
+        <v>0.911413</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.944251</v>
+        <v>0.944009</v>
       </c>
       <c r="C105" t="n">
-        <v>0.959963</v>
+        <v>0.96344</v>
       </c>
       <c r="D105" t="n">
-        <v>0.921419</v>
+        <v>0.896359</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.940003</v>
+        <v>0.9395829999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9471000000000001</v>
+        <v>0.948843</v>
       </c>
       <c r="D106" t="n">
-        <v>0.908918</v>
+        <v>0.880715</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.937312</v>
+        <v>0.9366100000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.936548</v>
+        <v>0.937483</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8977349999999999</v>
+        <v>0.871183</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.937442</v>
+        <v>0.937307</v>
       </c>
       <c r="C108" t="n">
-        <v>0.926202</v>
+        <v>0.928308</v>
       </c>
       <c r="D108" t="n">
-        <v>1.24732</v>
+        <v>1.217</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.940072</v>
+        <v>0.941114</v>
       </c>
       <c r="C109" t="n">
-        <v>0.919168</v>
+        <v>0.922278</v>
       </c>
       <c r="D109" t="n">
-        <v>1.23587</v>
+        <v>1.20939</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18598</v>
+        <v>1.18423</v>
       </c>
       <c r="C110" t="n">
-        <v>1.28365</v>
+        <v>1.28488</v>
       </c>
       <c r="D110" t="n">
-        <v>1.21861</v>
+        <v>1.18954</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17416</v>
+        <v>1.17369</v>
       </c>
       <c r="C111" t="n">
-        <v>1.26346</v>
+        <v>1.26548</v>
       </c>
       <c r="D111" t="n">
-        <v>1.19946</v>
+        <v>1.17191</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16145</v>
+        <v>1.16115</v>
       </c>
       <c r="C112" t="n">
-        <v>1.24444</v>
+        <v>1.24475</v>
       </c>
       <c r="D112" t="n">
-        <v>1.18193</v>
+        <v>1.15474</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15008</v>
+        <v>1.15088</v>
       </c>
       <c r="C113" t="n">
-        <v>1.22387</v>
+        <v>1.22485</v>
       </c>
       <c r="D113" t="n">
-        <v>1.16334</v>
+        <v>1.13657</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14021</v>
+        <v>1.14049</v>
       </c>
       <c r="C114" t="n">
-        <v>1.20742</v>
+        <v>1.20884</v>
       </c>
       <c r="D114" t="n">
-        <v>1.1493</v>
+        <v>1.12308</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12948</v>
+        <v>1.13171</v>
       </c>
       <c r="C115" t="n">
-        <v>1.19023</v>
+        <v>1.19166</v>
       </c>
       <c r="D115" t="n">
-        <v>1.13401</v>
+        <v>1.10821</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12081</v>
+        <v>1.12291</v>
       </c>
       <c r="C116" t="n">
-        <v>1.17287</v>
+        <v>1.17455</v>
       </c>
       <c r="D116" t="n">
-        <v>1.11938</v>
+        <v>1.0963</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11186</v>
+        <v>1.11559</v>
       </c>
       <c r="C117" t="n">
-        <v>1.15789</v>
+        <v>1.15883</v>
       </c>
       <c r="D117" t="n">
-        <v>1.10561</v>
+        <v>1.08096</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10418</v>
+        <v>1.10945</v>
       </c>
       <c r="C118" t="n">
-        <v>1.14347</v>
+        <v>1.14498</v>
       </c>
       <c r="D118" t="n">
-        <v>1.09312</v>
+        <v>1.06825</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09842</v>
+        <v>1.10368</v>
       </c>
       <c r="C119" t="n">
-        <v>1.12977</v>
+        <v>1.13326</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08127</v>
+        <v>1.05916</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.095</v>
+        <v>1.09966</v>
       </c>
       <c r="C120" t="n">
-        <v>1.11866</v>
+        <v>1.1211</v>
       </c>
       <c r="D120" t="n">
-        <v>1.0707</v>
+        <v>1.04803</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09298</v>
+        <v>1.09837</v>
       </c>
       <c r="C121" t="n">
-        <v>1.10808</v>
+        <v>1.11059</v>
       </c>
       <c r="D121" t="n">
-        <v>1.0605</v>
+        <v>1.03762</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.0932</v>
+        <v>1.09913</v>
       </c>
       <c r="C122" t="n">
-        <v>1.09837</v>
+        <v>1.10028</v>
       </c>
       <c r="D122" t="n">
-        <v>1.05249</v>
+        <v>1.02956</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.097</v>
+        <v>1.10359</v>
       </c>
       <c r="C123" t="n">
-        <v>1.0926</v>
+        <v>1.09498</v>
       </c>
       <c r="D123" t="n">
-        <v>1.40096</v>
+        <v>1.37379</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.34791</v>
+        <v>1.35057</v>
       </c>
       <c r="C124" t="n">
-        <v>1.4574</v>
+        <v>1.45564</v>
       </c>
       <c r="D124" t="n">
-        <v>1.38523</v>
+        <v>1.36057</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.33772</v>
+        <v>1.34115</v>
       </c>
       <c r="C125" t="n">
-        <v>1.43934</v>
+        <v>1.44013</v>
       </c>
       <c r="D125" t="n">
-        <v>1.37037</v>
+        <v>1.3463</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32748</v>
+        <v>1.3325</v>
       </c>
       <c r="C126" t="n">
-        <v>1.42068</v>
+        <v>1.4236</v>
       </c>
       <c r="D126" t="n">
-        <v>1.35673</v>
+        <v>1.3322</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31889</v>
+        <v>1.32441</v>
       </c>
       <c r="C127" t="n">
-        <v>1.40419</v>
+        <v>1.40563</v>
       </c>
       <c r="D127" t="n">
-        <v>1.34328</v>
+        <v>1.32042</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31096</v>
+        <v>1.3156</v>
       </c>
       <c r="C128" t="n">
-        <v>1.38801</v>
+        <v>1.38963</v>
       </c>
       <c r="D128" t="n">
-        <v>1.33196</v>
+        <v>1.30733</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.30287</v>
+        <v>1.31034</v>
       </c>
       <c r="C129" t="n">
-        <v>1.37295</v>
+        <v>1.37577</v>
       </c>
       <c r="D129" t="n">
-        <v>1.32037</v>
+        <v>1.29503</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.29674</v>
+        <v>1.30356</v>
       </c>
       <c r="C130" t="n">
-        <v>1.3589</v>
+        <v>1.36181</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30947</v>
+        <v>1.28683</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29136</v>
+        <v>1.29846</v>
       </c>
       <c r="C131" t="n">
-        <v>1.34694</v>
+        <v>1.34934</v>
       </c>
       <c r="D131" t="n">
-        <v>1.2999</v>
+        <v>1.27743</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.28709</v>
+        <v>1.29553</v>
       </c>
       <c r="C132" t="n">
-        <v>1.33509</v>
+        <v>1.33837</v>
       </c>
       <c r="D132" t="n">
-        <v>1.29063</v>
+        <v>1.26894</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.28438</v>
+        <v>1.29273</v>
       </c>
       <c r="C133" t="n">
-        <v>1.3241</v>
+        <v>1.32646</v>
       </c>
       <c r="D133" t="n">
-        <v>1.282</v>
+        <v>1.25953</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.28223</v>
+        <v>1.29079</v>
       </c>
       <c r="C134" t="n">
-        <v>1.31344</v>
+        <v>1.3162</v>
       </c>
       <c r="D134" t="n">
-        <v>1.27407</v>
+        <v>1.25098</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.28211</v>
+        <v>1.29053</v>
       </c>
       <c r="C135" t="n">
-        <v>1.30522</v>
+        <v>1.30776</v>
       </c>
       <c r="D135" t="n">
-        <v>1.26642</v>
+        <v>1.24548</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.28421</v>
+        <v>1.2935</v>
       </c>
       <c r="C136" t="n">
-        <v>1.29783</v>
+        <v>1.30112</v>
       </c>
       <c r="D136" t="n">
-        <v>1.25842</v>
+        <v>1.23681</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.28887</v>
+        <v>1.29848</v>
       </c>
       <c r="C137" t="n">
-        <v>1.29226</v>
+        <v>1.29626</v>
       </c>
       <c r="D137" t="n">
-        <v>1.60449</v>
+        <v>1.57783</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.53934</v>
+        <v>1.54338</v>
       </c>
       <c r="C138" t="n">
-        <v>1.65695</v>
+        <v>1.65777</v>
       </c>
       <c r="D138" t="n">
-        <v>1.59213</v>
+        <v>1.56744</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53185</v>
+        <v>1.53756</v>
       </c>
       <c r="C139" t="n">
-        <v>1.64066</v>
+        <v>1.64016</v>
       </c>
       <c r="D139" t="n">
-        <v>1.57968</v>
+        <v>1.55429</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.52391</v>
+        <v>1.52942</v>
       </c>
       <c r="C140" t="n">
-        <v>1.62444</v>
+        <v>1.62527</v>
       </c>
       <c r="D140" t="n">
-        <v>1.56883</v>
+        <v>1.54334</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.51628</v>
+        <v>1.52333</v>
       </c>
       <c r="C141" t="n">
-        <v>1.60994</v>
+        <v>1.6105</v>
       </c>
       <c r="D141" t="n">
-        <v>1.55731</v>
+        <v>1.53348</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.51054</v>
+        <v>1.51721</v>
       </c>
       <c r="C142" t="n">
-        <v>1.59505</v>
+        <v>1.5973</v>
       </c>
       <c r="D142" t="n">
-        <v>1.54768</v>
+        <v>1.52279</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.50455</v>
+        <v>1.51218</v>
       </c>
       <c r="C143" t="n">
-        <v>1.58287</v>
+        <v>1.58435</v>
       </c>
       <c r="D143" t="n">
-        <v>1.53864</v>
+        <v>1.51579</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.515213</v>
+        <v>0.572653</v>
       </c>
       <c r="C2" t="n">
-        <v>0.572063</v>
+        <v>0.60872</v>
       </c>
       <c r="D2" t="n">
-        <v>0.552424</v>
+        <v>0.60926</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.506561</v>
+        <v>0.560608</v>
       </c>
       <c r="C3" t="n">
-        <v>0.555853</v>
+        <v>0.5908330000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.537446</v>
+        <v>0.591392</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.497087</v>
+        <v>0.548647</v>
       </c>
       <c r="C4" t="n">
-        <v>0.540335</v>
+        <v>0.573283</v>
       </c>
       <c r="D4" t="n">
-        <v>0.52295</v>
+        <v>0.5739109999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.489004</v>
+        <v>0.538744</v>
       </c>
       <c r="C5" t="n">
-        <v>0.525918</v>
+        <v>0.558154</v>
       </c>
       <c r="D5" t="n">
-        <v>0.510347</v>
+        <v>0.558545</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.48221</v>
+        <v>0.530401</v>
       </c>
       <c r="C6" t="n">
-        <v>0.513371</v>
+        <v>0.543676</v>
       </c>
       <c r="D6" t="n">
-        <v>0.499474</v>
+        <v>0.545329</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.478002</v>
+        <v>0.523493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.501934</v>
+        <v>0.530451</v>
       </c>
       <c r="D7" t="n">
-        <v>0.490046</v>
+        <v>0.533452</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.476718</v>
+        <v>0.520107</v>
       </c>
       <c r="C8" t="n">
-        <v>0.492759</v>
+        <v>0.521284</v>
       </c>
       <c r="D8" t="n">
-        <v>0.483425</v>
+        <v>0.52503</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.47859</v>
+        <v>0.520234</v>
       </c>
       <c r="C9" t="n">
-        <v>0.485772</v>
+        <v>0.5121559999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.797288</v>
+        <v>0.809474</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6702050000000001</v>
+        <v>0.6680120000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.774609</v>
+        <v>0.746519</v>
       </c>
       <c r="D10" t="n">
-        <v>0.770695</v>
+        <v>0.781386</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6511130000000001</v>
+        <v>0.648079</v>
       </c>
       <c r="C11" t="n">
-        <v>0.748354</v>
+        <v>0.721061</v>
       </c>
       <c r="D11" t="n">
-        <v>0.745448</v>
+        <v>0.7547739999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.633543</v>
+        <v>0.62957</v>
       </c>
       <c r="C12" t="n">
-        <v>0.723788</v>
+        <v>0.697671</v>
       </c>
       <c r="D12" t="n">
-        <v>0.721241</v>
+        <v>0.729288</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.61651</v>
+        <v>0.612245</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7001579999999999</v>
+        <v>0.67531</v>
       </c>
       <c r="D13" t="n">
-        <v>0.698568</v>
+        <v>0.705735</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.600051</v>
+        <v>0.5962809999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.677967</v>
+        <v>0.654027</v>
       </c>
       <c r="D14" t="n">
-        <v>0.676796</v>
+        <v>0.683434</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.584582</v>
+        <v>0.580962</v>
       </c>
       <c r="C15" t="n">
-        <v>0.656572</v>
+        <v>0.634026</v>
       </c>
       <c r="D15" t="n">
-        <v>0.655841</v>
+        <v>0.661888</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.570469</v>
+        <v>0.566976</v>
       </c>
       <c r="C16" t="n">
-        <v>0.637019</v>
+        <v>0.615416</v>
       </c>
       <c r="D16" t="n">
-        <v>0.636416</v>
+        <v>0.64279</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.557429</v>
+        <v>0.554125</v>
       </c>
       <c r="C17" t="n">
-        <v>0.618007</v>
+        <v>0.59712</v>
       </c>
       <c r="D17" t="n">
-        <v>0.617989</v>
+        <v>0.623104</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5455</v>
+        <v>0.542978</v>
       </c>
       <c r="C18" t="n">
-        <v>0.600415</v>
+        <v>0.580433</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6009949999999999</v>
+        <v>0.605422</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.535292</v>
+        <v>0.532088</v>
       </c>
       <c r="C19" t="n">
-        <v>0.583558</v>
+        <v>0.56442</v>
       </c>
       <c r="D19" t="n">
-        <v>0.584995</v>
+        <v>0.58869</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.526836</v>
+        <v>0.523398</v>
       </c>
       <c r="C20" t="n">
-        <v>0.568454</v>
+        <v>0.550023</v>
       </c>
       <c r="D20" t="n">
-        <v>0.570471</v>
+        <v>0.573773</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.520931</v>
+        <v>0.516257</v>
       </c>
       <c r="C21" t="n">
-        <v>0.554716</v>
+        <v>0.536555</v>
       </c>
       <c r="D21" t="n">
-        <v>0.557721</v>
+        <v>0.5609229999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.51651</v>
+        <v>0.513467</v>
       </c>
       <c r="C22" t="n">
-        <v>0.543187</v>
+        <v>0.525874</v>
       </c>
       <c r="D22" t="n">
-        <v>0.548269</v>
+        <v>0.5510659999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5156269999999999</v>
+        <v>0.511283</v>
       </c>
       <c r="C23" t="n">
-        <v>0.533422</v>
+        <v>0.516866</v>
       </c>
       <c r="D23" t="n">
-        <v>0.834006</v>
+        <v>0.847508</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.718917</v>
+        <v>0.7160029999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.831762</v>
+        <v>0.800338</v>
       </c>
       <c r="D24" t="n">
-        <v>0.806423</v>
+        <v>0.81939</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.698228</v>
+        <v>0.695082</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8036489999999999</v>
+        <v>0.773737</v>
       </c>
       <c r="D25" t="n">
-        <v>0.779711</v>
+        <v>0.7916609999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.678085</v>
+        <v>0.674907</v>
       </c>
       <c r="C26" t="n">
-        <v>0.776591</v>
+        <v>0.748111</v>
       </c>
       <c r="D26" t="n">
-        <v>0.754119</v>
+        <v>0.765303</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.66067</v>
+        <v>0.655338</v>
       </c>
       <c r="C27" t="n">
-        <v>0.751243</v>
+        <v>0.724757</v>
       </c>
       <c r="D27" t="n">
-        <v>0.730312</v>
+        <v>0.741631</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.640293</v>
+        <v>0.638396</v>
       </c>
       <c r="C28" t="n">
-        <v>0.727352</v>
+        <v>0.700648</v>
       </c>
       <c r="D28" t="n">
-        <v>0.707406</v>
+        <v>0.716708</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.623606</v>
+        <v>0.6218669999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.704693</v>
+        <v>0.680061</v>
       </c>
       <c r="D29" t="n">
-        <v>0.685272</v>
+        <v>0.6950539999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.607704</v>
+        <v>0.606102</v>
       </c>
       <c r="C30" t="n">
-        <v>0.682424</v>
+        <v>0.657872</v>
       </c>
       <c r="D30" t="n">
-        <v>0.664809</v>
+        <v>0.6720699999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.593375</v>
+        <v>0.5915049999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.662067</v>
+        <v>0.639003</v>
       </c>
       <c r="D31" t="n">
-        <v>0.645873</v>
+        <v>0.653819</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.580137</v>
+        <v>0.577506</v>
       </c>
       <c r="C32" t="n">
-        <v>0.642909</v>
+        <v>0.6198090000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.627899</v>
+        <v>0.634903</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.568334</v>
+        <v>0.5666600000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.625051</v>
+        <v>0.602719</v>
       </c>
       <c r="D33" t="n">
-        <v>0.611113</v>
+        <v>0.616914</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5580580000000001</v>
+        <v>0.556191</v>
       </c>
       <c r="C34" t="n">
-        <v>0.608255</v>
+        <v>0.587858</v>
       </c>
       <c r="D34" t="n">
-        <v>0.595776</v>
+        <v>0.602087</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.549712</v>
+        <v>0.54784</v>
       </c>
       <c r="C35" t="n">
-        <v>0.593081</v>
+        <v>0.573342</v>
       </c>
       <c r="D35" t="n">
-        <v>0.582629</v>
+        <v>0.588577</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5430970000000001</v>
+        <v>0.541313</v>
       </c>
       <c r="C36" t="n">
-        <v>0.579188</v>
+        <v>0.560452</v>
       </c>
       <c r="D36" t="n">
-        <v>0.571724</v>
+        <v>0.577251</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.539864</v>
+        <v>0.538241</v>
       </c>
       <c r="C37" t="n">
-        <v>0.568981</v>
+        <v>0.5503</v>
       </c>
       <c r="D37" t="n">
-        <v>0.862982</v>
+        <v>0.876954</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.748931</v>
+        <v>0.746739</v>
       </c>
       <c r="C38" t="n">
-        <v>0.869385</v>
+        <v>0.836018</v>
       </c>
       <c r="D38" t="n">
-        <v>0.835026</v>
+        <v>0.84777</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.728324</v>
+        <v>0.726001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.841379</v>
+        <v>0.809634</v>
       </c>
       <c r="D39" t="n">
-        <v>0.808326</v>
+        <v>0.81948</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.70712</v>
+        <v>0.704994</v>
       </c>
       <c r="C40" t="n">
-        <v>0.813043</v>
+        <v>0.783151</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7812829999999999</v>
+        <v>0.792607</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6866139999999999</v>
+        <v>0.685157</v>
       </c>
       <c r="C41" t="n">
-        <v>0.78677</v>
+        <v>0.757765</v>
       </c>
       <c r="D41" t="n">
-        <v>0.756945</v>
+        <v>0.766991</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.668133</v>
+        <v>0.666408</v>
       </c>
       <c r="C42" t="n">
-        <v>0.761872</v>
+        <v>0.7337630000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.735016</v>
+        <v>0.743093</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.653455</v>
+        <v>0.648421</v>
       </c>
       <c r="C43" t="n">
-        <v>0.738066</v>
+        <v>0.711062</v>
       </c>
       <c r="D43" t="n">
-        <v>0.711728</v>
+        <v>0.720037</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.633862</v>
+        <v>0.632184</v>
       </c>
       <c r="C44" t="n">
-        <v>0.715387</v>
+        <v>0.689785</v>
       </c>
       <c r="D44" t="n">
-        <v>0.690026</v>
+        <v>0.69834</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.618645</v>
+        <v>0.616853</v>
       </c>
       <c r="C45" t="n">
-        <v>0.693984</v>
+        <v>0.669699</v>
       </c>
       <c r="D45" t="n">
-        <v>0.670365</v>
+        <v>0.677956</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.604698</v>
+        <v>0.603055</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6730969999999999</v>
+        <v>0.650165</v>
       </c>
       <c r="D46" t="n">
-        <v>0.651766</v>
+        <v>0.658535</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.591444</v>
+        <v>0.589809</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6540010000000001</v>
+        <v>0.6318780000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.633401</v>
+        <v>0.640525</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.580234</v>
+        <v>0.578717</v>
       </c>
       <c r="C48" t="n">
-        <v>0.637061</v>
+        <v>0.616515</v>
       </c>
       <c r="D48" t="n">
-        <v>0.617907</v>
+        <v>0.623878</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5715710000000001</v>
+        <v>0.5706369999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.621408</v>
+        <v>0.600661</v>
       </c>
       <c r="D49" t="n">
-        <v>0.604165</v>
+        <v>0.6089329999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.564415</v>
+        <v>0.563508</v>
       </c>
       <c r="C50" t="n">
-        <v>0.606196</v>
+        <v>0.586772</v>
       </c>
       <c r="D50" t="n">
-        <v>0.592022</v>
+        <v>0.597028</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.558691</v>
+        <v>0.559152</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5937249999999999</v>
+        <v>0.574684</v>
       </c>
       <c r="D51" t="n">
-        <v>0.892423</v>
+        <v>0.904833</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.559476</v>
+        <v>0.557833</v>
       </c>
       <c r="C52" t="n">
-        <v>0.584772</v>
+        <v>0.566356</v>
       </c>
       <c r="D52" t="n">
-        <v>0.86824</v>
+        <v>0.875578</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.760149</v>
+        <v>0.754529</v>
       </c>
       <c r="C53" t="n">
-        <v>0.877757</v>
+        <v>0.840157</v>
       </c>
       <c r="D53" t="n">
-        <v>0.839124</v>
+        <v>0.847312</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.739391</v>
+        <v>0.733482</v>
       </c>
       <c r="C54" t="n">
-        <v>0.850223</v>
+        <v>0.813212</v>
       </c>
       <c r="D54" t="n">
-        <v>0.814527</v>
+        <v>0.820358</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7193929999999999</v>
+        <v>0.713827</v>
       </c>
       <c r="C55" t="n">
-        <v>0.823837</v>
+        <v>0.787837</v>
       </c>
       <c r="D55" t="n">
-        <v>0.788691</v>
+        <v>0.79515</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.698396</v>
+        <v>0.694982</v>
       </c>
       <c r="C56" t="n">
-        <v>0.795134</v>
+        <v>0.764189</v>
       </c>
       <c r="D56" t="n">
-        <v>0.762728</v>
+        <v>0.771127</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.680332</v>
+        <v>0.67747</v>
       </c>
       <c r="C57" t="n">
-        <v>0.770409</v>
+        <v>0.741019</v>
       </c>
       <c r="D57" t="n">
-        <v>0.74138</v>
+        <v>0.747721</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.663165</v>
+        <v>0.660578</v>
       </c>
       <c r="C58" t="n">
-        <v>0.747606</v>
+        <v>0.719248</v>
       </c>
       <c r="D58" t="n">
-        <v>0.71814</v>
+        <v>0.726349</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6453100000000001</v>
+        <v>0.64549</v>
       </c>
       <c r="C59" t="n">
-        <v>0.724013</v>
+        <v>0.69855</v>
       </c>
       <c r="D59" t="n">
-        <v>0.696075</v>
+        <v>0.706083</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.631783</v>
+        <v>0.631281</v>
       </c>
       <c r="C60" t="n">
-        <v>0.704426</v>
+        <v>0.679839</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6780659999999999</v>
+        <v>0.686781</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.61882</v>
+        <v>0.618382</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6851</v>
+        <v>0.66266</v>
       </c>
       <c r="D61" t="n">
-        <v>0.661143</v>
+        <v>0.6689659999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.608362</v>
+        <v>0.607208</v>
       </c>
       <c r="C62" t="n">
-        <v>0.668564</v>
+        <v>0.644468</v>
       </c>
       <c r="D62" t="n">
-        <v>0.646697</v>
+        <v>0.65185</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.599924</v>
+        <v>0.597549</v>
       </c>
       <c r="C63" t="n">
-        <v>0.651011</v>
+        <v>0.6281600000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.63169</v>
+        <v>0.636988</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.59229</v>
+        <v>0.590028</v>
       </c>
       <c r="C64" t="n">
-        <v>0.636956</v>
+        <v>0.614745</v>
       </c>
       <c r="D64" t="n">
-        <v>0.61881</v>
+        <v>0.624297</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.587759</v>
+        <v>0.585001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.62418</v>
+        <v>0.602248</v>
       </c>
       <c r="D65" t="n">
-        <v>0.608912</v>
+        <v>0.613124</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.584912</v>
+        <v>0.582815</v>
       </c>
       <c r="C66" t="n">
-        <v>0.614028</v>
+        <v>0.59239</v>
       </c>
       <c r="D66" t="n">
-        <v>0.921961</v>
+        <v>0.925949</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.82025</v>
+        <v>0.809755</v>
       </c>
       <c r="C67" t="n">
-        <v>0.943267</v>
+        <v>0.8998119999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.882046</v>
+        <v>0.89793</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.802293</v>
+        <v>0.791482</v>
       </c>
       <c r="C68" t="n">
-        <v>0.921248</v>
+        <v>0.873973</v>
       </c>
       <c r="D68" t="n">
-        <v>0.872123</v>
+        <v>0.870422</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.791666</v>
+        <v>0.773662</v>
       </c>
       <c r="C69" t="n">
-        <v>0.892066</v>
+        <v>0.84662</v>
       </c>
       <c r="D69" t="n">
-        <v>0.846036</v>
+        <v>0.843397</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.771959</v>
+        <v>0.756783</v>
       </c>
       <c r="C70" t="n">
-        <v>0.86446</v>
+        <v>0.821668</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8193279999999999</v>
+        <v>0.818537</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.753945</v>
+        <v>0.741319</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8380649999999999</v>
+        <v>0.798592</v>
       </c>
       <c r="D71" t="n">
-        <v>0.795031</v>
+        <v>0.796106</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.735141</v>
+        <v>0.727318</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8122470000000001</v>
+        <v>0.777385</v>
       </c>
       <c r="D72" t="n">
-        <v>0.769141</v>
+        <v>0.773687</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.716468</v>
+        <v>0.710879</v>
       </c>
       <c r="C73" t="n">
-        <v>0.786779</v>
+        <v>0.755511</v>
       </c>
       <c r="D73" t="n">
-        <v>0.749627</v>
+        <v>0.751735</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7039800000000001</v>
+        <v>0.696807</v>
       </c>
       <c r="C74" t="n">
-        <v>0.766084</v>
+        <v>0.7339599999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.729664</v>
+        <v>0.731908</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.69058</v>
+        <v>0.6830580000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.744474</v>
+        <v>0.714889</v>
       </c>
       <c r="D75" t="n">
-        <v>0.709337</v>
+        <v>0.712514</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.675773</v>
+        <v>0.671238</v>
       </c>
       <c r="C76" t="n">
-        <v>0.722835</v>
+        <v>0.696587</v>
       </c>
       <c r="D76" t="n">
-        <v>0.693128</v>
+        <v>0.695284</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.666255</v>
+        <v>0.659641</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7077639999999999</v>
+        <v>0.67975</v>
       </c>
       <c r="D77" t="n">
-        <v>0.677682</v>
+        <v>0.6787</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6593020000000001</v>
+        <v>0.650789</v>
       </c>
       <c r="C78" t="n">
-        <v>0.693021</v>
+        <v>0.663587</v>
       </c>
       <c r="D78" t="n">
-        <v>0.664292</v>
+        <v>0.6643869999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.650359</v>
+        <v>0.644652</v>
       </c>
       <c r="C79" t="n">
-        <v>0.677028</v>
+        <v>0.651024</v>
       </c>
       <c r="D79" t="n">
-        <v>0.651537</v>
+        <v>0.653056</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.645988</v>
+        <v>0.640478</v>
       </c>
       <c r="C80" t="n">
-        <v>0.661641</v>
+        <v>0.639645</v>
       </c>
       <c r="D80" t="n">
-        <v>0.993347</v>
+        <v>1.00536</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.892867</v>
+        <v>0.890096</v>
       </c>
       <c r="C81" t="n">
-        <v>1.02474</v>
+        <v>0.985326</v>
       </c>
       <c r="D81" t="n">
-        <v>0.975993</v>
+        <v>0.985393</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.885836</v>
+        <v>0.883613</v>
       </c>
       <c r="C82" t="n">
-        <v>1.00649</v>
+        <v>0.968847</v>
       </c>
       <c r="D82" t="n">
-        <v>0.954254</v>
+        <v>0.963225</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.876062</v>
+        <v>0.873081</v>
       </c>
       <c r="C83" t="n">
-        <v>0.985368</v>
+        <v>0.94946</v>
       </c>
       <c r="D83" t="n">
-        <v>0.931352</v>
+        <v>0.940362</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.86402</v>
+        <v>0.8626</v>
       </c>
       <c r="C84" t="n">
-        <v>0.960835</v>
+        <v>0.928925</v>
       </c>
       <c r="D84" t="n">
-        <v>0.907578</v>
+        <v>0.917403</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.853754</v>
+        <v>0.851722</v>
       </c>
       <c r="C85" t="n">
-        <v>0.939817</v>
+        <v>0.9071979999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.886334</v>
+        <v>0.894185</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.842305</v>
+        <v>0.840571</v>
       </c>
       <c r="C86" t="n">
-        <v>0.916048</v>
+        <v>0.886846</v>
       </c>
       <c r="D86" t="n">
-        <v>0.863479</v>
+        <v>0.8723030000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.830807</v>
+        <v>0.829174</v>
       </c>
       <c r="C87" t="n">
-        <v>0.893737</v>
+        <v>0.865556</v>
       </c>
       <c r="D87" t="n">
-        <v>0.842863</v>
+        <v>0.849769</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.820897</v>
+        <v>0.817832</v>
       </c>
       <c r="C88" t="n">
-        <v>0.873813</v>
+        <v>0.845394</v>
       </c>
       <c r="D88" t="n">
-        <v>0.82258</v>
+        <v>0.828584</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.811007</v>
+        <v>0.806851</v>
       </c>
       <c r="C89" t="n">
-        <v>0.853954</v>
+        <v>0.825823</v>
       </c>
       <c r="D89" t="n">
-        <v>0.802768</v>
+        <v>0.807319</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.799917</v>
+        <v>0.796308</v>
       </c>
       <c r="C90" t="n">
-        <v>0.834426</v>
+        <v>0.807992</v>
       </c>
       <c r="D90" t="n">
-        <v>0.784733</v>
+        <v>0.788926</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.789012</v>
+        <v>0.787906</v>
       </c>
       <c r="C91" t="n">
-        <v>0.81351</v>
+        <v>0.790517</v>
       </c>
       <c r="D91" t="n">
-        <v>0.766969</v>
+        <v>0.771757</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.781757</v>
+        <v>0.779416</v>
       </c>
       <c r="C92" t="n">
-        <v>0.798739</v>
+        <v>0.775424</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7513649999999999</v>
+        <v>0.755314</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.776024</v>
+        <v>0.773014</v>
       </c>
       <c r="C93" t="n">
-        <v>0.783948</v>
+        <v>0.761078</v>
       </c>
       <c r="D93" t="n">
-        <v>0.737696</v>
+        <v>0.740971</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.771248</v>
+        <v>0.768424</v>
       </c>
       <c r="C94" t="n">
-        <v>0.771629</v>
+        <v>0.748347</v>
       </c>
       <c r="D94" t="n">
-        <v>1.08899</v>
+        <v>1.09806</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02204</v>
+        <v>1.02099</v>
       </c>
       <c r="C95" t="n">
-        <v>1.1347</v>
+        <v>1.09497</v>
       </c>
       <c r="D95" t="n">
-        <v>1.07454</v>
+        <v>1.08507</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02216</v>
+        <v>1.02174</v>
       </c>
       <c r="C96" t="n">
-        <v>1.12465</v>
+        <v>1.08751</v>
       </c>
       <c r="D96" t="n">
-        <v>1.05492</v>
+        <v>1.067</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01269</v>
+        <v>1.01263</v>
       </c>
       <c r="C97" t="n">
-        <v>1.10515</v>
+        <v>1.07127</v>
       </c>
       <c r="D97" t="n">
-        <v>1.03843</v>
+        <v>1.04555</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00228</v>
+        <v>1.00203</v>
       </c>
       <c r="C98" t="n">
-        <v>1.0838</v>
+        <v>1.05231</v>
       </c>
       <c r="D98" t="n">
-        <v>1.01471</v>
+        <v>1.02537</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.991348</v>
+        <v>0.99086</v>
       </c>
       <c r="C99" t="n">
-        <v>1.06386</v>
+        <v>1.03481</v>
       </c>
       <c r="D99" t="n">
-        <v>0.995471</v>
+        <v>1.00514</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9819369999999999</v>
+        <v>0.980998</v>
       </c>
       <c r="C100" t="n">
-        <v>1.0449</v>
+        <v>1.01622</v>
       </c>
       <c r="D100" t="n">
-        <v>0.976902</v>
+        <v>0.985582</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.972854</v>
+        <v>0.971183</v>
       </c>
       <c r="C101" t="n">
-        <v>1.02668</v>
+        <v>0.999351</v>
       </c>
       <c r="D101" t="n">
-        <v>0.960178</v>
+        <v>0.967161</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.964635</v>
+        <v>0.961721</v>
       </c>
       <c r="C102" t="n">
-        <v>1.00859</v>
+        <v>0.982333</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9405790000000001</v>
+        <v>0.948904</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.95652</v>
+        <v>0.95424</v>
       </c>
       <c r="C103" t="n">
-        <v>0.992808</v>
+        <v>0.967202</v>
       </c>
       <c r="D103" t="n">
-        <v>0.926024</v>
+        <v>0.9316680000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.951007</v>
+        <v>0.947254</v>
       </c>
       <c r="C104" t="n">
-        <v>0.977513</v>
+        <v>0.9534319999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.911413</v>
+        <v>0.916621</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.944009</v>
+        <v>0.941182</v>
       </c>
       <c r="C105" t="n">
-        <v>0.96344</v>
+        <v>0.939072</v>
       </c>
       <c r="D105" t="n">
-        <v>0.896359</v>
+        <v>0.90166</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9395829999999999</v>
+        <v>0.93696</v>
       </c>
       <c r="C106" t="n">
-        <v>0.948843</v>
+        <v>0.927491</v>
       </c>
       <c r="D106" t="n">
-        <v>0.880715</v>
+        <v>0.887777</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9366100000000001</v>
+        <v>0.9338920000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.937483</v>
+        <v>0.916954</v>
       </c>
       <c r="D107" t="n">
-        <v>0.871183</v>
+        <v>0.8767470000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.937307</v>
+        <v>0.934604</v>
       </c>
       <c r="C108" t="n">
-        <v>0.928308</v>
+        <v>0.908334</v>
       </c>
       <c r="D108" t="n">
-        <v>1.217</v>
+        <v>1.23288</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.941114</v>
+        <v>0.93881</v>
       </c>
       <c r="C109" t="n">
-        <v>0.922278</v>
+        <v>0.903856</v>
       </c>
       <c r="D109" t="n">
-        <v>1.20939</v>
+        <v>1.22209</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18423</v>
+        <v>1.1832</v>
       </c>
       <c r="C110" t="n">
-        <v>1.28488</v>
+        <v>1.25004</v>
       </c>
       <c r="D110" t="n">
-        <v>1.18954</v>
+        <v>1.20276</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17369</v>
+        <v>1.17233</v>
       </c>
       <c r="C111" t="n">
-        <v>1.26548</v>
+        <v>1.23286</v>
       </c>
       <c r="D111" t="n">
-        <v>1.17191</v>
+        <v>1.1843</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16115</v>
+        <v>1.16032</v>
       </c>
       <c r="C112" t="n">
-        <v>1.24475</v>
+        <v>1.21378</v>
       </c>
       <c r="D112" t="n">
-        <v>1.15474</v>
+        <v>1.1663</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15088</v>
+        <v>1.14884</v>
       </c>
       <c r="C113" t="n">
-        <v>1.22485</v>
+        <v>1.19654</v>
       </c>
       <c r="D113" t="n">
-        <v>1.13657</v>
+        <v>1.1501</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14049</v>
+        <v>1.13834</v>
       </c>
       <c r="C114" t="n">
-        <v>1.20884</v>
+        <v>1.17994</v>
       </c>
       <c r="D114" t="n">
-        <v>1.12308</v>
+        <v>1.13357</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13171</v>
+        <v>1.12861</v>
       </c>
       <c r="C115" t="n">
-        <v>1.19166</v>
+        <v>1.16421</v>
       </c>
       <c r="D115" t="n">
-        <v>1.10821</v>
+        <v>1.11803</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12291</v>
+        <v>1.1198</v>
       </c>
       <c r="C116" t="n">
-        <v>1.17455</v>
+        <v>1.14877</v>
       </c>
       <c r="D116" t="n">
-        <v>1.0963</v>
+        <v>1.10325</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11559</v>
+        <v>1.11251</v>
       </c>
       <c r="C117" t="n">
-        <v>1.15883</v>
+        <v>1.13536</v>
       </c>
       <c r="D117" t="n">
-        <v>1.08096</v>
+        <v>1.08996</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10945</v>
+        <v>1.10549</v>
       </c>
       <c r="C118" t="n">
-        <v>1.14498</v>
+        <v>1.1229</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06825</v>
+        <v>1.07781</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10368</v>
+        <v>1.10098</v>
       </c>
       <c r="C119" t="n">
-        <v>1.13326</v>
+        <v>1.10971</v>
       </c>
       <c r="D119" t="n">
-        <v>1.05916</v>
+        <v>1.06487</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.09966</v>
+        <v>1.09711</v>
       </c>
       <c r="C120" t="n">
-        <v>1.1211</v>
+        <v>1.09983</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04803</v>
+        <v>1.05431</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09837</v>
+        <v>1.09549</v>
       </c>
       <c r="C121" t="n">
-        <v>1.11059</v>
+        <v>1.09045</v>
       </c>
       <c r="D121" t="n">
-        <v>1.03762</v>
+        <v>1.04463</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09913</v>
+        <v>1.09622</v>
       </c>
       <c r="C122" t="n">
-        <v>1.10028</v>
+        <v>1.08312</v>
       </c>
       <c r="D122" t="n">
-        <v>1.02956</v>
+        <v>1.0356</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10359</v>
+        <v>1.10052</v>
       </c>
       <c r="C123" t="n">
-        <v>1.09498</v>
+        <v>1.0768</v>
       </c>
       <c r="D123" t="n">
-        <v>1.37379</v>
+        <v>1.38788</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35057</v>
+        <v>1.34804</v>
       </c>
       <c r="C124" t="n">
-        <v>1.45564</v>
+        <v>1.42338</v>
       </c>
       <c r="D124" t="n">
-        <v>1.36057</v>
+        <v>1.37371</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.34115</v>
+        <v>1.3388</v>
       </c>
       <c r="C125" t="n">
-        <v>1.44013</v>
+        <v>1.4066</v>
       </c>
       <c r="D125" t="n">
-        <v>1.3463</v>
+        <v>1.35721</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.3325</v>
+        <v>1.32995</v>
       </c>
       <c r="C126" t="n">
-        <v>1.4236</v>
+        <v>1.38993</v>
       </c>
       <c r="D126" t="n">
-        <v>1.3322</v>
+        <v>1.34521</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32441</v>
+        <v>1.32117</v>
       </c>
       <c r="C127" t="n">
-        <v>1.40563</v>
+        <v>1.37577</v>
       </c>
       <c r="D127" t="n">
-        <v>1.32042</v>
+        <v>1.3325</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.3156</v>
+        <v>1.31395</v>
       </c>
       <c r="C128" t="n">
-        <v>1.38963</v>
+        <v>1.36167</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30733</v>
+        <v>1.31954</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31034</v>
+        <v>1.30685</v>
       </c>
       <c r="C129" t="n">
-        <v>1.37577</v>
+        <v>1.34737</v>
       </c>
       <c r="D129" t="n">
-        <v>1.29503</v>
+        <v>1.30576</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30356</v>
+        <v>1.30013</v>
       </c>
       <c r="C130" t="n">
-        <v>1.36181</v>
+        <v>1.3344</v>
       </c>
       <c r="D130" t="n">
-        <v>1.28683</v>
+        <v>1.2977</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29846</v>
+        <v>1.29595</v>
       </c>
       <c r="C131" t="n">
-        <v>1.34934</v>
+        <v>1.32391</v>
       </c>
       <c r="D131" t="n">
-        <v>1.27743</v>
+        <v>1.28781</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29553</v>
+        <v>1.29162</v>
       </c>
       <c r="C132" t="n">
-        <v>1.33837</v>
+        <v>1.31199</v>
       </c>
       <c r="D132" t="n">
-        <v>1.26894</v>
+        <v>1.27771</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29273</v>
+        <v>1.28845</v>
       </c>
       <c r="C133" t="n">
-        <v>1.32646</v>
+        <v>1.30358</v>
       </c>
       <c r="D133" t="n">
-        <v>1.25953</v>
+        <v>1.26889</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.29079</v>
+        <v>1.28768</v>
       </c>
       <c r="C134" t="n">
-        <v>1.3162</v>
+        <v>1.29412</v>
       </c>
       <c r="D134" t="n">
-        <v>1.25098</v>
+        <v>1.26097</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.29053</v>
+        <v>1.28831</v>
       </c>
       <c r="C135" t="n">
-        <v>1.30776</v>
+        <v>1.28647</v>
       </c>
       <c r="D135" t="n">
-        <v>1.24548</v>
+        <v>1.25312</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.2935</v>
+        <v>1.29057</v>
       </c>
       <c r="C136" t="n">
-        <v>1.30112</v>
+        <v>1.27956</v>
       </c>
       <c r="D136" t="n">
-        <v>1.23681</v>
+        <v>1.24197</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.29848</v>
+        <v>1.29478</v>
       </c>
       <c r="C137" t="n">
-        <v>1.29626</v>
+        <v>1.27606</v>
       </c>
       <c r="D137" t="n">
-        <v>1.57783</v>
+        <v>1.59325</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54338</v>
+        <v>1.54189</v>
       </c>
       <c r="C138" t="n">
-        <v>1.65777</v>
+        <v>1.61945</v>
       </c>
       <c r="D138" t="n">
-        <v>1.56744</v>
+        <v>1.58209</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53756</v>
+        <v>1.53533</v>
       </c>
       <c r="C139" t="n">
-        <v>1.64016</v>
+        <v>1.6055</v>
       </c>
       <c r="D139" t="n">
-        <v>1.55429</v>
+        <v>1.57017</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.52942</v>
+        <v>1.52898</v>
       </c>
       <c r="C140" t="n">
-        <v>1.62527</v>
+        <v>1.59298</v>
       </c>
       <c r="D140" t="n">
-        <v>1.54334</v>
+        <v>1.56019</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52333</v>
+        <v>1.52346</v>
       </c>
       <c r="C141" t="n">
-        <v>1.6105</v>
+        <v>1.58067</v>
       </c>
       <c r="D141" t="n">
-        <v>1.53348</v>
+        <v>1.5492</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.51721</v>
+        <v>1.51764</v>
       </c>
       <c r="C142" t="n">
-        <v>1.5973</v>
+        <v>1.56917</v>
       </c>
       <c r="D142" t="n">
-        <v>1.52279</v>
+        <v>1.53956</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51218</v>
+        <v>1.5141</v>
       </c>
       <c r="C143" t="n">
-        <v>1.58435</v>
+        <v>1.55843</v>
       </c>
       <c r="D143" t="n">
-        <v>1.51579</v>
+        <v>1.53057</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.572653</v>
+        <v>0.578851</v>
       </c>
       <c r="C2" t="n">
-        <v>0.60872</v>
+        <v>0.60947</v>
       </c>
       <c r="D2" t="n">
-        <v>0.60926</v>
+        <v>0.607706</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.560608</v>
+        <v>0.564758</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5908330000000001</v>
+        <v>0.591062</v>
       </c>
       <c r="D3" t="n">
-        <v>0.591392</v>
+        <v>0.589853</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.548647</v>
+        <v>0.552783</v>
       </c>
       <c r="C4" t="n">
-        <v>0.573283</v>
+        <v>0.574233</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5739109999999999</v>
+        <v>0.573384</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.538744</v>
+        <v>0.542674</v>
       </c>
       <c r="C5" t="n">
-        <v>0.558154</v>
+        <v>0.558594</v>
       </c>
       <c r="D5" t="n">
-        <v>0.558545</v>
+        <v>0.559465</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.530401</v>
+        <v>0.534147</v>
       </c>
       <c r="C6" t="n">
-        <v>0.543676</v>
+        <v>0.54474</v>
       </c>
       <c r="D6" t="n">
-        <v>0.545329</v>
+        <v>0.545749</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.523493</v>
+        <v>0.527508</v>
       </c>
       <c r="C7" t="n">
-        <v>0.530451</v>
+        <v>0.531587</v>
       </c>
       <c r="D7" t="n">
-        <v>0.533452</v>
+        <v>0.5345569999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.520107</v>
+        <v>0.523962</v>
       </c>
       <c r="C8" t="n">
-        <v>0.521284</v>
+        <v>0.521445</v>
       </c>
       <c r="D8" t="n">
-        <v>0.52503</v>
+        <v>0.526293</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.520234</v>
+        <v>0.523828</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5121559999999999</v>
+        <v>0.512951</v>
       </c>
       <c r="D9" t="n">
-        <v>0.809474</v>
+        <v>0.805326</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6680120000000001</v>
+        <v>0.671252</v>
       </c>
       <c r="C10" t="n">
-        <v>0.746519</v>
+        <v>0.746828</v>
       </c>
       <c r="D10" t="n">
-        <v>0.781386</v>
+        <v>0.777506</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.648079</v>
+        <v>0.651427</v>
       </c>
       <c r="C11" t="n">
-        <v>0.721061</v>
+        <v>0.721799</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7547739999999999</v>
+        <v>0.751798</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.62957</v>
+        <v>0.6326580000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.697671</v>
+        <v>0.698321</v>
       </c>
       <c r="D12" t="n">
-        <v>0.729288</v>
+        <v>0.728609</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.612245</v>
+        <v>0.614916</v>
       </c>
       <c r="C13" t="n">
-        <v>0.67531</v>
+        <v>0.6759810000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.705735</v>
+        <v>0.704456</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5962809999999999</v>
+        <v>0.599019</v>
       </c>
       <c r="C14" t="n">
-        <v>0.654027</v>
+        <v>0.654703</v>
       </c>
       <c r="D14" t="n">
-        <v>0.683434</v>
+        <v>0.681964</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.580962</v>
+        <v>0.58517</v>
       </c>
       <c r="C15" t="n">
-        <v>0.634026</v>
+        <v>0.634606</v>
       </c>
       <c r="D15" t="n">
-        <v>0.661888</v>
+        <v>0.661527</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.566976</v>
+        <v>0.569483</v>
       </c>
       <c r="C16" t="n">
-        <v>0.615416</v>
+        <v>0.61539</v>
       </c>
       <c r="D16" t="n">
-        <v>0.64279</v>
+        <v>0.641385</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.554125</v>
+        <v>0.55689</v>
       </c>
       <c r="C17" t="n">
-        <v>0.59712</v>
+        <v>0.597545</v>
       </c>
       <c r="D17" t="n">
-        <v>0.623104</v>
+        <v>0.62274</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.542978</v>
+        <v>0.545851</v>
       </c>
       <c r="C18" t="n">
-        <v>0.580433</v>
+        <v>0.5809</v>
       </c>
       <c r="D18" t="n">
-        <v>0.605422</v>
+        <v>0.605295</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.532088</v>
+        <v>0.536523</v>
       </c>
       <c r="C19" t="n">
-        <v>0.56442</v>
+        <v>0.565196</v>
       </c>
       <c r="D19" t="n">
-        <v>0.58869</v>
+        <v>0.589184</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.523398</v>
+        <v>0.526227</v>
       </c>
       <c r="C20" t="n">
-        <v>0.550023</v>
+        <v>0.550658</v>
       </c>
       <c r="D20" t="n">
-        <v>0.573773</v>
+        <v>0.574402</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.516257</v>
+        <v>0.519268</v>
       </c>
       <c r="C21" t="n">
-        <v>0.536555</v>
+        <v>0.537507</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5609229999999999</v>
+        <v>0.561495</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.513467</v>
+        <v>0.51649</v>
       </c>
       <c r="C22" t="n">
-        <v>0.525874</v>
+        <v>0.527011</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5510659999999999</v>
+        <v>0.551613</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.511283</v>
+        <v>0.514447</v>
       </c>
       <c r="C23" t="n">
-        <v>0.516866</v>
+        <v>0.517609</v>
       </c>
       <c r="D23" t="n">
-        <v>0.847508</v>
+        <v>0.844361</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7160029999999999</v>
+        <v>0.719579</v>
       </c>
       <c r="C24" t="n">
-        <v>0.800338</v>
+        <v>0.802387</v>
       </c>
       <c r="D24" t="n">
-        <v>0.81939</v>
+        <v>0.819129</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.695082</v>
+        <v>0.699075</v>
       </c>
       <c r="C25" t="n">
-        <v>0.773737</v>
+        <v>0.776912</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7916609999999999</v>
+        <v>0.791957</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.674907</v>
+        <v>0.6788110000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.748111</v>
+        <v>0.750687</v>
       </c>
       <c r="D26" t="n">
-        <v>0.765303</v>
+        <v>0.765667</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.655338</v>
+        <v>0.659644</v>
       </c>
       <c r="C27" t="n">
-        <v>0.724757</v>
+        <v>0.726587</v>
       </c>
       <c r="D27" t="n">
-        <v>0.741631</v>
+        <v>0.737798</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.638396</v>
+        <v>0.640418</v>
       </c>
       <c r="C28" t="n">
-        <v>0.700648</v>
+        <v>0.7024359999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.716708</v>
+        <v>0.713275</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6218669999999999</v>
+        <v>0.623653</v>
       </c>
       <c r="C29" t="n">
-        <v>0.680061</v>
+        <v>0.679723</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6950539999999999</v>
+        <v>0.6932469999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.606102</v>
+        <v>0.608021</v>
       </c>
       <c r="C30" t="n">
-        <v>0.657872</v>
+        <v>0.660835</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6720699999999999</v>
+        <v>0.672405</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5915049999999999</v>
+        <v>0.593504</v>
       </c>
       <c r="C31" t="n">
-        <v>0.639003</v>
+        <v>0.640219</v>
       </c>
       <c r="D31" t="n">
-        <v>0.653819</v>
+        <v>0.649624</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.577506</v>
+        <v>0.578667</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6198090000000001</v>
+        <v>0.621983</v>
       </c>
       <c r="D32" t="n">
-        <v>0.634903</v>
+        <v>0.632872</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5666600000000001</v>
+        <v>0.568683</v>
       </c>
       <c r="C33" t="n">
-        <v>0.602719</v>
+        <v>0.604523</v>
       </c>
       <c r="D33" t="n">
-        <v>0.616914</v>
+        <v>0.615843</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.556191</v>
+        <v>0.557934</v>
       </c>
       <c r="C34" t="n">
-        <v>0.587858</v>
+        <v>0.588553</v>
       </c>
       <c r="D34" t="n">
-        <v>0.602087</v>
+        <v>0.600711</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.54784</v>
+        <v>0.549377</v>
       </c>
       <c r="C35" t="n">
-        <v>0.573342</v>
+        <v>0.574048</v>
       </c>
       <c r="D35" t="n">
-        <v>0.588577</v>
+        <v>0.587029</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.541313</v>
+        <v>0.543179</v>
       </c>
       <c r="C36" t="n">
-        <v>0.560452</v>
+        <v>0.561303</v>
       </c>
       <c r="D36" t="n">
-        <v>0.577251</v>
+        <v>0.575968</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.538241</v>
+        <v>0.539864</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5503</v>
+        <v>0.550856</v>
       </c>
       <c r="D37" t="n">
-        <v>0.876954</v>
+        <v>0.878963</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.746739</v>
+        <v>0.7523339999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.836018</v>
+        <v>0.842904</v>
       </c>
       <c r="D38" t="n">
-        <v>0.84777</v>
+        <v>0.849332</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.726001</v>
+        <v>0.7310759999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.809634</v>
+        <v>0.815123</v>
       </c>
       <c r="D39" t="n">
-        <v>0.81948</v>
+        <v>0.823099</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.704994</v>
+        <v>0.710761</v>
       </c>
       <c r="C40" t="n">
-        <v>0.783151</v>
+        <v>0.790889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.792607</v>
+        <v>0.797306</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.685157</v>
+        <v>0.6892740000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.757765</v>
+        <v>0.760987</v>
       </c>
       <c r="D41" t="n">
-        <v>0.766991</v>
+        <v>0.765695</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.666408</v>
+        <v>0.669161</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7337630000000001</v>
+        <v>0.735889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.743093</v>
+        <v>0.739475</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.648421</v>
+        <v>0.65068</v>
       </c>
       <c r="C43" t="n">
-        <v>0.711062</v>
+        <v>0.712284</v>
       </c>
       <c r="D43" t="n">
-        <v>0.720037</v>
+        <v>0.716461</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.632184</v>
+        <v>0.6340519999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.689785</v>
+        <v>0.691191</v>
       </c>
       <c r="D44" t="n">
-        <v>0.69834</v>
+        <v>0.696287</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.616853</v>
+        <v>0.618274</v>
       </c>
       <c r="C45" t="n">
-        <v>0.669699</v>
+        <v>0.671104</v>
       </c>
       <c r="D45" t="n">
-        <v>0.677956</v>
+        <v>0.676216</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.603055</v>
+        <v>0.604602</v>
       </c>
       <c r="C46" t="n">
-        <v>0.650165</v>
+        <v>0.651288</v>
       </c>
       <c r="D46" t="n">
-        <v>0.658535</v>
+        <v>0.656686</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.589809</v>
+        <v>0.592605</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6318780000000001</v>
+        <v>0.634587</v>
       </c>
       <c r="D47" t="n">
-        <v>0.640525</v>
+        <v>0.64061</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.578717</v>
+        <v>0.580933</v>
       </c>
       <c r="C48" t="n">
-        <v>0.616515</v>
+        <v>0.616703</v>
       </c>
       <c r="D48" t="n">
-        <v>0.623878</v>
+        <v>0.62508</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5706369999999999</v>
+        <v>0.571886</v>
       </c>
       <c r="C49" t="n">
-        <v>0.600661</v>
+        <v>0.603633</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6089329999999999</v>
+        <v>0.6135890000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.563508</v>
+        <v>0.565489</v>
       </c>
       <c r="C50" t="n">
-        <v>0.586772</v>
+        <v>0.589903</v>
       </c>
       <c r="D50" t="n">
-        <v>0.597028</v>
+        <v>0.601392</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.559152</v>
+        <v>0.561561</v>
       </c>
       <c r="C51" t="n">
-        <v>0.574684</v>
+        <v>0.57827</v>
       </c>
       <c r="D51" t="n">
-        <v>0.904833</v>
+        <v>0.915548</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.557833</v>
+        <v>0.559518</v>
       </c>
       <c r="C52" t="n">
-        <v>0.566356</v>
+        <v>0.569005</v>
       </c>
       <c r="D52" t="n">
-        <v>0.875578</v>
+        <v>0.886561</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.754529</v>
+        <v>0.768369</v>
       </c>
       <c r="C53" t="n">
-        <v>0.840157</v>
+        <v>0.8557399999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.847312</v>
+        <v>0.857386</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.733482</v>
+        <v>0.746621</v>
       </c>
       <c r="C54" t="n">
-        <v>0.813212</v>
+        <v>0.827883</v>
       </c>
       <c r="D54" t="n">
-        <v>0.820358</v>
+        <v>0.828044</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.713827</v>
+        <v>0.715859</v>
       </c>
       <c r="C55" t="n">
-        <v>0.787837</v>
+        <v>0.794299</v>
       </c>
       <c r="D55" t="n">
-        <v>0.79515</v>
+        <v>0.797637</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.694982</v>
+        <v>0.702275</v>
       </c>
       <c r="C56" t="n">
-        <v>0.764189</v>
+        <v>0.77268</v>
       </c>
       <c r="D56" t="n">
-        <v>0.771127</v>
+        <v>0.772853</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.67747</v>
+        <v>0.682593</v>
       </c>
       <c r="C57" t="n">
-        <v>0.741019</v>
+        <v>0.751051</v>
       </c>
       <c r="D57" t="n">
-        <v>0.747721</v>
+        <v>0.754008</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.660578</v>
+        <v>0.668026</v>
       </c>
       <c r="C58" t="n">
-        <v>0.719248</v>
+        <v>0.7266860000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.726349</v>
+        <v>0.729393</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.64549</v>
+        <v>0.6518389999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.69855</v>
+        <v>0.70557</v>
       </c>
       <c r="D59" t="n">
-        <v>0.706083</v>
+        <v>0.708802</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.631281</v>
+        <v>0.6377</v>
       </c>
       <c r="C60" t="n">
-        <v>0.679839</v>
+        <v>0.685785</v>
       </c>
       <c r="D60" t="n">
-        <v>0.686781</v>
+        <v>0.6889420000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.618382</v>
+        <v>0.624735</v>
       </c>
       <c r="C61" t="n">
-        <v>0.66266</v>
+        <v>0.666844</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6689659999999999</v>
+        <v>0.668921</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.607208</v>
+        <v>0.609645</v>
       </c>
       <c r="C62" t="n">
-        <v>0.644468</v>
+        <v>0.649641</v>
       </c>
       <c r="D62" t="n">
-        <v>0.65185</v>
+        <v>0.654213</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.597549</v>
+        <v>0.602765</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6281600000000001</v>
+        <v>0.633693</v>
       </c>
       <c r="D63" t="n">
-        <v>0.636988</v>
+        <v>0.636531</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.590028</v>
+        <v>0.592546</v>
       </c>
       <c r="C64" t="n">
-        <v>0.614745</v>
+        <v>0.616565</v>
       </c>
       <c r="D64" t="n">
-        <v>0.624297</v>
+        <v>0.625402</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.585001</v>
+        <v>0.586383</v>
       </c>
       <c r="C65" t="n">
-        <v>0.602248</v>
+        <v>0.600707</v>
       </c>
       <c r="D65" t="n">
-        <v>0.613124</v>
+        <v>0.610841</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.582815</v>
+        <v>0.583498</v>
       </c>
       <c r="C66" t="n">
-        <v>0.59239</v>
+        <v>0.592279</v>
       </c>
       <c r="D66" t="n">
-        <v>0.925949</v>
+        <v>0.920755</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.809755</v>
+        <v>0.81571</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8998119999999999</v>
+        <v>0.9048620000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.89793</v>
+        <v>0.894352</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.791482</v>
+        <v>0.803218</v>
       </c>
       <c r="C68" t="n">
-        <v>0.873973</v>
+        <v>0.886512</v>
       </c>
       <c r="D68" t="n">
-        <v>0.870422</v>
+        <v>0.875848</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.773662</v>
+        <v>0.78742</v>
       </c>
       <c r="C69" t="n">
-        <v>0.84662</v>
+        <v>0.860827</v>
       </c>
       <c r="D69" t="n">
-        <v>0.843397</v>
+        <v>0.849173</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.756783</v>
+        <v>0.772161</v>
       </c>
       <c r="C70" t="n">
-        <v>0.821668</v>
+        <v>0.834129</v>
       </c>
       <c r="D70" t="n">
-        <v>0.818537</v>
+        <v>0.824201</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.741319</v>
+        <v>0.753389</v>
       </c>
       <c r="C71" t="n">
-        <v>0.798592</v>
+        <v>0.809849</v>
       </c>
       <c r="D71" t="n">
-        <v>0.796106</v>
+        <v>0.799818</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.727318</v>
+        <v>0.73682</v>
       </c>
       <c r="C72" t="n">
-        <v>0.777385</v>
+        <v>0.786266</v>
       </c>
       <c r="D72" t="n">
-        <v>0.773687</v>
+        <v>0.777185</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.710879</v>
+        <v>0.721688</v>
       </c>
       <c r="C73" t="n">
-        <v>0.755511</v>
+        <v>0.764343</v>
       </c>
       <c r="D73" t="n">
-        <v>0.751735</v>
+        <v>0.755686</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.696807</v>
+        <v>0.707826</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7339599999999999</v>
+        <v>0.742704</v>
       </c>
       <c r="D74" t="n">
-        <v>0.731908</v>
+        <v>0.735166</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6830580000000001</v>
+        <v>0.6946369999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.714889</v>
+        <v>0.724543</v>
       </c>
       <c r="D75" t="n">
-        <v>0.712514</v>
+        <v>0.716932</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.671238</v>
+        <v>0.682566</v>
       </c>
       <c r="C76" t="n">
-        <v>0.696587</v>
+        <v>0.705735</v>
       </c>
       <c r="D76" t="n">
-        <v>0.695284</v>
+        <v>0.6981619999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.659641</v>
+        <v>0.6687110000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.67975</v>
+        <v>0.685631</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6787</v>
+        <v>0.681497</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.650789</v>
+        <v>0.660505</v>
       </c>
       <c r="C78" t="n">
-        <v>0.663587</v>
+        <v>0.6717880000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6643869999999999</v>
+        <v>0.667944</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.644652</v>
+        <v>0.653466</v>
       </c>
       <c r="C79" t="n">
-        <v>0.651024</v>
+        <v>0.657253</v>
       </c>
       <c r="D79" t="n">
-        <v>0.653056</v>
+        <v>0.655742</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.640478</v>
+        <v>0.647938</v>
       </c>
       <c r="C80" t="n">
-        <v>0.639645</v>
+        <v>0.646273</v>
       </c>
       <c r="D80" t="n">
-        <v>1.00536</v>
+        <v>1.00055</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.890096</v>
+        <v>0.893371</v>
       </c>
       <c r="C81" t="n">
-        <v>0.985326</v>
+        <v>0.989447</v>
       </c>
       <c r="D81" t="n">
-        <v>0.985393</v>
+        <v>0.980941</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.883613</v>
+        <v>0.887608</v>
       </c>
       <c r="C82" t="n">
-        <v>0.968847</v>
+        <v>0.974424</v>
       </c>
       <c r="D82" t="n">
-        <v>0.963225</v>
+        <v>0.9595359999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.873081</v>
+        <v>0.877794</v>
       </c>
       <c r="C83" t="n">
-        <v>0.94946</v>
+        <v>0.95464</v>
       </c>
       <c r="D83" t="n">
-        <v>0.940362</v>
+        <v>0.937532</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8626</v>
+        <v>0.867248</v>
       </c>
       <c r="C84" t="n">
-        <v>0.928925</v>
+        <v>0.934396</v>
       </c>
       <c r="D84" t="n">
-        <v>0.917403</v>
+        <v>0.91477</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.851722</v>
+        <v>0.854941</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9071979999999999</v>
+        <v>0.911121</v>
       </c>
       <c r="D85" t="n">
-        <v>0.894185</v>
+        <v>0.8906500000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.840571</v>
+        <v>0.843955</v>
       </c>
       <c r="C86" t="n">
-        <v>0.886846</v>
+        <v>0.89005</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8723030000000001</v>
+        <v>0.86861</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.829174</v>
+        <v>0.83249</v>
       </c>
       <c r="C87" t="n">
-        <v>0.865556</v>
+        <v>0.869856</v>
       </c>
       <c r="D87" t="n">
-        <v>0.849769</v>
+        <v>0.846597</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.817832</v>
+        <v>0.8222120000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.845394</v>
+        <v>0.848922</v>
       </c>
       <c r="D88" t="n">
-        <v>0.828584</v>
+        <v>0.826554</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.806851</v>
+        <v>0.811526</v>
       </c>
       <c r="C89" t="n">
-        <v>0.825823</v>
+        <v>0.830107</v>
       </c>
       <c r="D89" t="n">
-        <v>0.807319</v>
+        <v>0.806155</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.796308</v>
+        <v>0.800438</v>
       </c>
       <c r="C90" t="n">
-        <v>0.807992</v>
+        <v>0.8117220000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.788926</v>
+        <v>0.788032</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.787906</v>
+        <v>0.791586</v>
       </c>
       <c r="C91" t="n">
-        <v>0.790517</v>
+        <v>0.794813</v>
       </c>
       <c r="D91" t="n">
-        <v>0.771757</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.779416</v>
+        <v>0.782276</v>
       </c>
       <c r="C92" t="n">
-        <v>0.775424</v>
+        <v>0.777779</v>
       </c>
       <c r="D92" t="n">
-        <v>0.755314</v>
+        <v>0.752902</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.773014</v>
+        <v>0.776373</v>
       </c>
       <c r="C93" t="n">
-        <v>0.761078</v>
+        <v>0.763884</v>
       </c>
       <c r="D93" t="n">
-        <v>0.740971</v>
+        <v>0.739966</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.768424</v>
+        <v>0.773589</v>
       </c>
       <c r="C94" t="n">
-        <v>0.748347</v>
+        <v>0.752518</v>
       </c>
       <c r="D94" t="n">
-        <v>1.09806</v>
+        <v>1.09373</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02099</v>
+        <v>1.02636</v>
       </c>
       <c r="C95" t="n">
-        <v>1.09497</v>
+        <v>1.09873</v>
       </c>
       <c r="D95" t="n">
-        <v>1.08507</v>
+        <v>1.07999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02174</v>
+        <v>1.0263</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08751</v>
+        <v>1.09279</v>
       </c>
       <c r="D96" t="n">
-        <v>1.067</v>
+        <v>1.06168</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01263</v>
+        <v>1.01746</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07127</v>
+        <v>1.07385</v>
       </c>
       <c r="D97" t="n">
-        <v>1.04555</v>
+        <v>1.04118</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00203</v>
+        <v>1.0059</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05231</v>
+        <v>1.05466</v>
       </c>
       <c r="D98" t="n">
-        <v>1.02537</v>
+        <v>1.02058</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.99086</v>
+        <v>0.995135</v>
       </c>
       <c r="C99" t="n">
-        <v>1.03481</v>
+        <v>1.03551</v>
       </c>
       <c r="D99" t="n">
-        <v>1.00514</v>
+        <v>1.00033</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.980998</v>
+        <v>0.9853229999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01622</v>
+        <v>1.01804</v>
       </c>
       <c r="D100" t="n">
-        <v>0.985582</v>
+        <v>0.98095</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.971183</v>
+        <v>0.9746089999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.999351</v>
+        <v>1.00107</v>
       </c>
       <c r="D101" t="n">
-        <v>0.967161</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.961721</v>
+        <v>0.966488</v>
       </c>
       <c r="C102" t="n">
-        <v>0.982333</v>
+        <v>0.984615</v>
       </c>
       <c r="D102" t="n">
-        <v>0.948904</v>
+        <v>0.945097</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.95424</v>
+        <v>0.957945</v>
       </c>
       <c r="C103" t="n">
-        <v>0.967202</v>
+        <v>0.969157</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9316680000000001</v>
+        <v>0.927553</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.947254</v>
+        <v>0.9513200000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9534319999999999</v>
+        <v>0.954906</v>
       </c>
       <c r="D104" t="n">
-        <v>0.916621</v>
+        <v>0.912053</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.941182</v>
+        <v>0.944983</v>
       </c>
       <c r="C105" t="n">
-        <v>0.939072</v>
+        <v>0.941262</v>
       </c>
       <c r="D105" t="n">
-        <v>0.90166</v>
+        <v>0.89753</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.93696</v>
+        <v>0.940033</v>
       </c>
       <c r="C106" t="n">
-        <v>0.927491</v>
+        <v>0.929467</v>
       </c>
       <c r="D106" t="n">
-        <v>0.887777</v>
+        <v>0.883597</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9338920000000001</v>
+        <v>0.937225</v>
       </c>
       <c r="C107" t="n">
-        <v>0.916954</v>
+        <v>0.917815</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8767470000000001</v>
+        <v>0.871932</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.934604</v>
+        <v>0.937036</v>
       </c>
       <c r="C108" t="n">
-        <v>0.908334</v>
+        <v>0.909646</v>
       </c>
       <c r="D108" t="n">
-        <v>1.23288</v>
+        <v>1.2238</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.93881</v>
+        <v>0.940647</v>
       </c>
       <c r="C109" t="n">
-        <v>0.903856</v>
+        <v>0.9049779999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>1.22209</v>
+        <v>1.21345</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.1832</v>
+        <v>1.18667</v>
       </c>
       <c r="C110" t="n">
-        <v>1.25004</v>
+        <v>1.25125</v>
       </c>
       <c r="D110" t="n">
-        <v>1.20276</v>
+        <v>1.19478</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17233</v>
+        <v>1.17403</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23286</v>
+        <v>1.23245</v>
       </c>
       <c r="D111" t="n">
-        <v>1.1843</v>
+        <v>1.17537</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16032</v>
+        <v>1.16222</v>
       </c>
       <c r="C112" t="n">
-        <v>1.21378</v>
+        <v>1.21421</v>
       </c>
       <c r="D112" t="n">
-        <v>1.1663</v>
+        <v>1.1576</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.14884</v>
+        <v>1.15045</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19654</v>
+        <v>1.19648</v>
       </c>
       <c r="D113" t="n">
-        <v>1.1501</v>
+        <v>1.14063</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.13834</v>
+        <v>1.13931</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17994</v>
+        <v>1.17912</v>
       </c>
       <c r="D114" t="n">
-        <v>1.13357</v>
+        <v>1.12505</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12861</v>
+        <v>1.12954</v>
       </c>
       <c r="C115" t="n">
-        <v>1.16421</v>
+        <v>1.16297</v>
       </c>
       <c r="D115" t="n">
-        <v>1.11803</v>
+        <v>1.10896</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.1198</v>
+        <v>1.12044</v>
       </c>
       <c r="C116" t="n">
-        <v>1.14877</v>
+        <v>1.14793</v>
       </c>
       <c r="D116" t="n">
-        <v>1.10325</v>
+        <v>1.09554</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11251</v>
+        <v>1.11256</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13536</v>
+        <v>1.13403</v>
       </c>
       <c r="D117" t="n">
-        <v>1.08996</v>
+        <v>1.08152</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10549</v>
+        <v>1.10582</v>
       </c>
       <c r="C118" t="n">
-        <v>1.1229</v>
+        <v>1.12071</v>
       </c>
       <c r="D118" t="n">
-        <v>1.07781</v>
+        <v>1.06824</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10098</v>
+        <v>1.09975</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10971</v>
+        <v>1.10862</v>
       </c>
       <c r="D119" t="n">
-        <v>1.06487</v>
+        <v>1.05659</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.09711</v>
+        <v>1.09641</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09983</v>
+        <v>1.09803</v>
       </c>
       <c r="D120" t="n">
-        <v>1.05431</v>
+        <v>1.04582</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09549</v>
+        <v>1.09446</v>
       </c>
       <c r="C121" t="n">
-        <v>1.09045</v>
+        <v>1.08794</v>
       </c>
       <c r="D121" t="n">
-        <v>1.04463</v>
+        <v>1.03454</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09622</v>
+        <v>1.09458</v>
       </c>
       <c r="C122" t="n">
-        <v>1.08312</v>
+        <v>1.08064</v>
       </c>
       <c r="D122" t="n">
-        <v>1.0356</v>
+        <v>1.02744</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10052</v>
+        <v>1.09947</v>
       </c>
       <c r="C123" t="n">
-        <v>1.0768</v>
+        <v>1.07502</v>
       </c>
       <c r="D123" t="n">
-        <v>1.38788</v>
+        <v>1.37669</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.34804</v>
+        <v>1.34877</v>
       </c>
       <c r="C124" t="n">
-        <v>1.42338</v>
+        <v>1.42353</v>
       </c>
       <c r="D124" t="n">
-        <v>1.37371</v>
+        <v>1.36297</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.3388</v>
+        <v>1.33975</v>
       </c>
       <c r="C125" t="n">
-        <v>1.4066</v>
+        <v>1.40686</v>
       </c>
       <c r="D125" t="n">
-        <v>1.35721</v>
+        <v>1.34836</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32995</v>
+        <v>1.33034</v>
       </c>
       <c r="C126" t="n">
-        <v>1.38993</v>
+        <v>1.39027</v>
       </c>
       <c r="D126" t="n">
-        <v>1.34521</v>
+        <v>1.33493</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32117</v>
+        <v>1.32243</v>
       </c>
       <c r="C127" t="n">
-        <v>1.37577</v>
+        <v>1.37453</v>
       </c>
       <c r="D127" t="n">
-        <v>1.3325</v>
+        <v>1.32143</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31395</v>
+        <v>1.31474</v>
       </c>
       <c r="C128" t="n">
-        <v>1.36167</v>
+        <v>1.36209</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31954</v>
+        <v>1.31021</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.30685</v>
+        <v>1.30781</v>
       </c>
       <c r="C129" t="n">
-        <v>1.34737</v>
+        <v>1.34601</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30576</v>
+        <v>1.2983</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30013</v>
+        <v>1.3009</v>
       </c>
       <c r="C130" t="n">
-        <v>1.3344</v>
+        <v>1.33445</v>
       </c>
       <c r="D130" t="n">
-        <v>1.2977</v>
+        <v>1.28867</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29595</v>
+        <v>1.29714</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32391</v>
+        <v>1.32265</v>
       </c>
       <c r="D131" t="n">
-        <v>1.28781</v>
+        <v>1.27704</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29162</v>
+        <v>1.29309</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31199</v>
+        <v>1.31354</v>
       </c>
       <c r="D132" t="n">
-        <v>1.27771</v>
+        <v>1.26903</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.28845</v>
+        <v>1.29061</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30358</v>
+        <v>1.30271</v>
       </c>
       <c r="D133" t="n">
-        <v>1.26889</v>
+        <v>1.25985</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.28768</v>
+        <v>1.28873</v>
       </c>
       <c r="C134" t="n">
-        <v>1.29412</v>
+        <v>1.29272</v>
       </c>
       <c r="D134" t="n">
-        <v>1.26097</v>
+        <v>1.25107</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.28831</v>
+        <v>1.28905</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28647</v>
+        <v>1.28594</v>
       </c>
       <c r="D135" t="n">
-        <v>1.25312</v>
+        <v>1.24337</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.29057</v>
+        <v>1.29109</v>
       </c>
       <c r="C136" t="n">
-        <v>1.27956</v>
+        <v>1.27928</v>
       </c>
       <c r="D136" t="n">
-        <v>1.24197</v>
+        <v>1.23607</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.29478</v>
+        <v>1.29611</v>
       </c>
       <c r="C137" t="n">
-        <v>1.27606</v>
+        <v>1.27392</v>
       </c>
       <c r="D137" t="n">
-        <v>1.59325</v>
+        <v>1.58151</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54189</v>
+        <v>1.54321</v>
       </c>
       <c r="C138" t="n">
-        <v>1.61945</v>
+        <v>1.6202</v>
       </c>
       <c r="D138" t="n">
-        <v>1.58209</v>
+        <v>1.56874</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53533</v>
+        <v>1.53543</v>
       </c>
       <c r="C139" t="n">
-        <v>1.6055</v>
+        <v>1.60334</v>
       </c>
       <c r="D139" t="n">
-        <v>1.57017</v>
+        <v>1.55639</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.52898</v>
+        <v>1.52762</v>
       </c>
       <c r="C140" t="n">
-        <v>1.59298</v>
+        <v>1.58833</v>
       </c>
       <c r="D140" t="n">
-        <v>1.56019</v>
+        <v>1.54409</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52346</v>
+        <v>1.52123</v>
       </c>
       <c r="C141" t="n">
-        <v>1.58067</v>
+        <v>1.57567</v>
       </c>
       <c r="D141" t="n">
-        <v>1.5492</v>
+        <v>1.53349</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.51764</v>
+        <v>1.51535</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56917</v>
+        <v>1.56312</v>
       </c>
       <c r="D142" t="n">
-        <v>1.53956</v>
+        <v>1.52396</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.5141</v>
+        <v>1.51016</v>
       </c>
       <c r="C143" t="n">
-        <v>1.55843</v>
+        <v>1.55175</v>
       </c>
       <c r="D143" t="n">
-        <v>1.53057</v>
+        <v>1.51491</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.578851</v>
+        <v>0.573636</v>
       </c>
       <c r="C2" t="n">
-        <v>0.60947</v>
+        <v>0.591784</v>
       </c>
       <c r="D2" t="n">
-        <v>0.607706</v>
+        <v>0.572828</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564758</v>
+        <v>0.561906</v>
       </c>
       <c r="C3" t="n">
-        <v>0.591062</v>
+        <v>0.574754</v>
       </c>
       <c r="D3" t="n">
-        <v>0.589853</v>
+        <v>0.556773</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.552783</v>
+        <v>0.549705</v>
       </c>
       <c r="C4" t="n">
-        <v>0.574233</v>
+        <v>0.558677</v>
       </c>
       <c r="D4" t="n">
-        <v>0.573384</v>
+        <v>0.540824</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.542674</v>
+        <v>0.539485</v>
       </c>
       <c r="C5" t="n">
-        <v>0.558594</v>
+        <v>0.543473</v>
       </c>
       <c r="D5" t="n">
-        <v>0.559465</v>
+        <v>0.527725</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.534147</v>
+        <v>0.531327</v>
       </c>
       <c r="C6" t="n">
-        <v>0.54474</v>
+        <v>0.530775</v>
       </c>
       <c r="D6" t="n">
-        <v>0.545749</v>
+        <v>0.515292</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.527508</v>
+        <v>0.524124</v>
       </c>
       <c r="C7" t="n">
-        <v>0.531587</v>
+        <v>0.517588</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5345569999999999</v>
+        <v>0.504602</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.523962</v>
+        <v>0.5203449999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.521445</v>
+        <v>0.508586</v>
       </c>
       <c r="D8" t="n">
-        <v>0.526293</v>
+        <v>0.496608</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.523828</v>
+        <v>0.521584</v>
       </c>
       <c r="C9" t="n">
-        <v>0.512951</v>
+        <v>0.500812</v>
       </c>
       <c r="D9" t="n">
-        <v>0.805326</v>
+        <v>0.760555</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.671252</v>
+        <v>0.671156</v>
       </c>
       <c r="C10" t="n">
-        <v>0.746828</v>
+        <v>0.728582</v>
       </c>
       <c r="D10" t="n">
-        <v>0.777506</v>
+        <v>0.735564</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.651427</v>
+        <v>0.6507309999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.721799</v>
+        <v>0.70447</v>
       </c>
       <c r="D11" t="n">
-        <v>0.751798</v>
+        <v>0.711087</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6326580000000001</v>
+        <v>0.632505</v>
       </c>
       <c r="C12" t="n">
-        <v>0.698321</v>
+        <v>0.681922</v>
       </c>
       <c r="D12" t="n">
-        <v>0.728609</v>
+        <v>0.687319</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.614916</v>
+        <v>0.614444</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6759810000000001</v>
+        <v>0.660071</v>
       </c>
       <c r="D13" t="n">
-        <v>0.704456</v>
+        <v>0.6658809999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.599019</v>
+        <v>0.598716</v>
       </c>
       <c r="C14" t="n">
-        <v>0.654703</v>
+        <v>0.639701</v>
       </c>
       <c r="D14" t="n">
-        <v>0.681964</v>
+        <v>0.644417</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.58517</v>
+        <v>0.582982</v>
       </c>
       <c r="C15" t="n">
-        <v>0.634606</v>
+        <v>0.62012</v>
       </c>
       <c r="D15" t="n">
-        <v>0.661527</v>
+        <v>0.624702</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.569483</v>
+        <v>0.5688530000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.61539</v>
+        <v>0.602098</v>
       </c>
       <c r="D16" t="n">
-        <v>0.641385</v>
+        <v>0.606384</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.55689</v>
+        <v>0.556184</v>
       </c>
       <c r="C17" t="n">
-        <v>0.597545</v>
+        <v>0.584411</v>
       </c>
       <c r="D17" t="n">
-        <v>0.62274</v>
+        <v>0.588433</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.545851</v>
+        <v>0.544592</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5809</v>
+        <v>0.5682469999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.605295</v>
+        <v>0.572556</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.536523</v>
+        <v>0.533628</v>
       </c>
       <c r="C19" t="n">
-        <v>0.565196</v>
+        <v>0.55336</v>
       </c>
       <c r="D19" t="n">
-        <v>0.589184</v>
+        <v>0.557341</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.526227</v>
+        <v>0.524973</v>
       </c>
       <c r="C20" t="n">
-        <v>0.550658</v>
+        <v>0.539453</v>
       </c>
       <c r="D20" t="n">
-        <v>0.574402</v>
+        <v>0.54447</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.519268</v>
+        <v>0.5189319999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.537507</v>
+        <v>0.526541</v>
       </c>
       <c r="D21" t="n">
-        <v>0.561495</v>
+        <v>0.532484</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.51649</v>
+        <v>0.513163</v>
       </c>
       <c r="C22" t="n">
-        <v>0.527011</v>
+        <v>0.516821</v>
       </c>
       <c r="D22" t="n">
-        <v>0.551613</v>
+        <v>0.523119</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.514447</v>
+        <v>0.512292</v>
       </c>
       <c r="C23" t="n">
-        <v>0.517609</v>
+        <v>0.5081</v>
       </c>
       <c r="D23" t="n">
-        <v>0.844361</v>
+        <v>0.798312</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.719579</v>
+        <v>0.716662</v>
       </c>
       <c r="C24" t="n">
-        <v>0.802387</v>
+        <v>0.785801</v>
       </c>
       <c r="D24" t="n">
-        <v>0.819129</v>
+        <v>0.7723680000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.699075</v>
+        <v>0.696139</v>
       </c>
       <c r="C25" t="n">
-        <v>0.776912</v>
+        <v>0.760056</v>
       </c>
       <c r="D25" t="n">
-        <v>0.791957</v>
+        <v>0.74662</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6788110000000001</v>
+        <v>0.675967</v>
       </c>
       <c r="C26" t="n">
-        <v>0.750687</v>
+        <v>0.735247</v>
       </c>
       <c r="D26" t="n">
-        <v>0.765667</v>
+        <v>0.722145</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.659644</v>
+        <v>0.656728</v>
       </c>
       <c r="C27" t="n">
-        <v>0.726587</v>
+        <v>0.712194</v>
       </c>
       <c r="D27" t="n">
-        <v>0.737798</v>
+        <v>0.69896</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.640418</v>
+        <v>0.638898</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7024359999999999</v>
+        <v>0.689986</v>
       </c>
       <c r="D28" t="n">
-        <v>0.713275</v>
+        <v>0.677272</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.623653</v>
+        <v>0.621891</v>
       </c>
       <c r="C29" t="n">
-        <v>0.679723</v>
+        <v>0.668324</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6932469999999999</v>
+        <v>0.655924</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.608021</v>
+        <v>0.6060449999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.660835</v>
+        <v>0.647894</v>
       </c>
       <c r="D30" t="n">
-        <v>0.672405</v>
+        <v>0.636935</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.593504</v>
+        <v>0.591829</v>
       </c>
       <c r="C31" t="n">
-        <v>0.640219</v>
+        <v>0.628865</v>
       </c>
       <c r="D31" t="n">
-        <v>0.649624</v>
+        <v>0.6181140000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.578667</v>
+        <v>0.578009</v>
       </c>
       <c r="C32" t="n">
-        <v>0.621983</v>
+        <v>0.611106</v>
       </c>
       <c r="D32" t="n">
-        <v>0.632872</v>
+        <v>0.600743</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.568683</v>
+        <v>0.566401</v>
       </c>
       <c r="C33" t="n">
-        <v>0.604523</v>
+        <v>0.594471</v>
       </c>
       <c r="D33" t="n">
-        <v>0.615843</v>
+        <v>0.58434</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.557934</v>
+        <v>0.556359</v>
       </c>
       <c r="C34" t="n">
-        <v>0.588553</v>
+        <v>0.577978</v>
       </c>
       <c r="D34" t="n">
-        <v>0.600711</v>
+        <v>0.5700769999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.549377</v>
+        <v>0.546709</v>
       </c>
       <c r="C35" t="n">
-        <v>0.574048</v>
+        <v>0.563483</v>
       </c>
       <c r="D35" t="n">
-        <v>0.587029</v>
+        <v>0.557338</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.543179</v>
+        <v>0.5408500000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.561303</v>
+        <v>0.551648</v>
       </c>
       <c r="D36" t="n">
-        <v>0.575968</v>
+        <v>0.545758</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.539864</v>
+        <v>0.537663</v>
       </c>
       <c r="C37" t="n">
-        <v>0.550856</v>
+        <v>0.54143</v>
       </c>
       <c r="D37" t="n">
-        <v>0.878963</v>
+        <v>0.825751</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7523339999999999</v>
+        <v>0.7464769999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.842904</v>
+        <v>0.820869</v>
       </c>
       <c r="D38" t="n">
-        <v>0.849332</v>
+        <v>0.79897</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7310759999999999</v>
+        <v>0.726093</v>
       </c>
       <c r="C39" t="n">
-        <v>0.815123</v>
+        <v>0.795218</v>
       </c>
       <c r="D39" t="n">
-        <v>0.823099</v>
+        <v>0.772649</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.710761</v>
+        <v>0.704578</v>
       </c>
       <c r="C40" t="n">
-        <v>0.790889</v>
+        <v>0.769593</v>
       </c>
       <c r="D40" t="n">
-        <v>0.797306</v>
+        <v>0.748196</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6892740000000001</v>
+        <v>0.685192</v>
       </c>
       <c r="C41" t="n">
-        <v>0.760987</v>
+        <v>0.744102</v>
       </c>
       <c r="D41" t="n">
-        <v>0.765695</v>
+        <v>0.724647</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.669161</v>
+        <v>0.66559</v>
       </c>
       <c r="C42" t="n">
-        <v>0.735889</v>
+        <v>0.719652</v>
       </c>
       <c r="D42" t="n">
-        <v>0.739475</v>
+        <v>0.7018489999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.65068</v>
+        <v>0.648237</v>
       </c>
       <c r="C43" t="n">
-        <v>0.712284</v>
+        <v>0.699004</v>
       </c>
       <c r="D43" t="n">
-        <v>0.716461</v>
+        <v>0.679785</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6340519999999999</v>
+        <v>0.62993</v>
       </c>
       <c r="C44" t="n">
-        <v>0.691191</v>
+        <v>0.677324</v>
       </c>
       <c r="D44" t="n">
-        <v>0.696287</v>
+        <v>0.660286</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.618274</v>
+        <v>0.616425</v>
       </c>
       <c r="C45" t="n">
-        <v>0.671104</v>
+        <v>0.658287</v>
       </c>
       <c r="D45" t="n">
-        <v>0.676216</v>
+        <v>0.640744</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.604602</v>
+        <v>0.601588</v>
       </c>
       <c r="C46" t="n">
-        <v>0.651288</v>
+        <v>0.63812</v>
       </c>
       <c r="D46" t="n">
-        <v>0.656686</v>
+        <v>0.624004</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.592605</v>
+        <v>0.590419</v>
       </c>
       <c r="C47" t="n">
-        <v>0.634587</v>
+        <v>0.623012</v>
       </c>
       <c r="D47" t="n">
-        <v>0.64061</v>
+        <v>0.607688</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.580933</v>
+        <v>0.578425</v>
       </c>
       <c r="C48" t="n">
-        <v>0.616703</v>
+        <v>0.605637</v>
       </c>
       <c r="D48" t="n">
-        <v>0.62508</v>
+        <v>0.591878</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.571886</v>
+        <v>0.567702</v>
       </c>
       <c r="C49" t="n">
-        <v>0.603633</v>
+        <v>0.592929</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6135890000000001</v>
+        <v>0.578659</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.565489</v>
+        <v>0.5608610000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.589903</v>
+        <v>0.575978</v>
       </c>
       <c r="D50" t="n">
-        <v>0.601392</v>
+        <v>0.567033</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.561561</v>
+        <v>0.5587220000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.57827</v>
+        <v>0.566514</v>
       </c>
       <c r="D51" t="n">
-        <v>0.915548</v>
+        <v>0.854603</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.559518</v>
+        <v>0.557149</v>
       </c>
       <c r="C52" t="n">
-        <v>0.569005</v>
+        <v>0.558435</v>
       </c>
       <c r="D52" t="n">
-        <v>0.886561</v>
+        <v>0.827964</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.768369</v>
+        <v>0.754431</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8557399999999999</v>
+        <v>0.82558</v>
       </c>
       <c r="D53" t="n">
-        <v>0.857386</v>
+        <v>0.801913</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.746621</v>
+        <v>0.733812</v>
       </c>
       <c r="C54" t="n">
-        <v>0.827883</v>
+        <v>0.801324</v>
       </c>
       <c r="D54" t="n">
-        <v>0.828044</v>
+        <v>0.776926</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.715859</v>
+        <v>0.713876</v>
       </c>
       <c r="C55" t="n">
-        <v>0.794299</v>
+        <v>0.776828</v>
       </c>
       <c r="D55" t="n">
-        <v>0.797637</v>
+        <v>0.753857</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.702275</v>
+        <v>0.69528</v>
       </c>
       <c r="C56" t="n">
-        <v>0.77268</v>
+        <v>0.7534459999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.772853</v>
+        <v>0.731027</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.682593</v>
+        <v>0.677196</v>
       </c>
       <c r="C57" t="n">
-        <v>0.751051</v>
+        <v>0.729849</v>
       </c>
       <c r="D57" t="n">
-        <v>0.754008</v>
+        <v>0.708869</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.668026</v>
+        <v>0.6601590000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7266860000000001</v>
+        <v>0.708805</v>
       </c>
       <c r="D58" t="n">
-        <v>0.729393</v>
+        <v>0.6886910000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6518389999999999</v>
+        <v>0.646228</v>
       </c>
       <c r="C59" t="n">
-        <v>0.70557</v>
+        <v>0.69029</v>
       </c>
       <c r="D59" t="n">
-        <v>0.708802</v>
+        <v>0.671102</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6377</v>
+        <v>0.632068</v>
       </c>
       <c r="C60" t="n">
-        <v>0.685785</v>
+        <v>0.671241</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6889420000000001</v>
+        <v>0.652552</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.624735</v>
+        <v>0.619083</v>
       </c>
       <c r="C61" t="n">
-        <v>0.666844</v>
+        <v>0.65325</v>
       </c>
       <c r="D61" t="n">
-        <v>0.668921</v>
+        <v>0.6363529999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.609645</v>
+        <v>0.607668</v>
       </c>
       <c r="C62" t="n">
-        <v>0.649641</v>
+        <v>0.63644</v>
       </c>
       <c r="D62" t="n">
-        <v>0.654213</v>
+        <v>0.620244</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.602765</v>
+        <v>0.598202</v>
       </c>
       <c r="C63" t="n">
-        <v>0.633693</v>
+        <v>0.621344</v>
       </c>
       <c r="D63" t="n">
-        <v>0.636531</v>
+        <v>0.606517</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.592546</v>
+        <v>0.590333</v>
       </c>
       <c r="C64" t="n">
-        <v>0.616565</v>
+        <v>0.6071260000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.625402</v>
+        <v>0.594461</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.586383</v>
+        <v>0.584966</v>
       </c>
       <c r="C65" t="n">
-        <v>0.600707</v>
+        <v>0.594824</v>
       </c>
       <c r="D65" t="n">
-        <v>0.610841</v>
+        <v>0.584727</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.583498</v>
+        <v>0.583162</v>
       </c>
       <c r="C66" t="n">
-        <v>0.592279</v>
+        <v>0.585384</v>
       </c>
       <c r="D66" t="n">
-        <v>0.920755</v>
+        <v>0.879688</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.81571</v>
+        <v>0.81223</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9048620000000001</v>
+        <v>0.891162</v>
       </c>
       <c r="D67" t="n">
-        <v>0.894352</v>
+        <v>0.855561</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.803218</v>
+        <v>0.795319</v>
       </c>
       <c r="C68" t="n">
-        <v>0.886512</v>
+        <v>0.861008</v>
       </c>
       <c r="D68" t="n">
-        <v>0.875848</v>
+        <v>0.8282389999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.78742</v>
+        <v>0.775572</v>
       </c>
       <c r="C69" t="n">
-        <v>0.860827</v>
+        <v>0.835465</v>
       </c>
       <c r="D69" t="n">
-        <v>0.849173</v>
+        <v>0.802907</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.772161</v>
+        <v>0.758693</v>
       </c>
       <c r="C70" t="n">
-        <v>0.834129</v>
+        <v>0.812845</v>
       </c>
       <c r="D70" t="n">
-        <v>0.824201</v>
+        <v>0.781538</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.753389</v>
+        <v>0.7440330000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.809849</v>
+        <v>0.789042</v>
       </c>
       <c r="D71" t="n">
-        <v>0.799818</v>
+        <v>0.7588</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.73682</v>
+        <v>0.72697</v>
       </c>
       <c r="C72" t="n">
-        <v>0.786266</v>
+        <v>0.764698</v>
       </c>
       <c r="D72" t="n">
-        <v>0.777185</v>
+        <v>0.735575</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.721688</v>
+        <v>0.708754</v>
       </c>
       <c r="C73" t="n">
-        <v>0.764343</v>
+        <v>0.742904</v>
       </c>
       <c r="D73" t="n">
-        <v>0.755686</v>
+        <v>0.7167790000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.707826</v>
+        <v>0.696711</v>
       </c>
       <c r="C74" t="n">
-        <v>0.742704</v>
+        <v>0.723965</v>
       </c>
       <c r="D74" t="n">
-        <v>0.735166</v>
+        <v>0.698433</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6946369999999999</v>
+        <v>0.682984</v>
       </c>
       <c r="C75" t="n">
-        <v>0.724543</v>
+        <v>0.705391</v>
       </c>
       <c r="D75" t="n">
-        <v>0.716932</v>
+        <v>0.679574</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.682566</v>
+        <v>0.669933</v>
       </c>
       <c r="C76" t="n">
-        <v>0.705735</v>
+        <v>0.687367</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6981619999999999</v>
+        <v>0.663137</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6687110000000001</v>
+        <v>0.659262</v>
       </c>
       <c r="C77" t="n">
-        <v>0.685631</v>
+        <v>0.670377</v>
       </c>
       <c r="D77" t="n">
-        <v>0.681497</v>
+        <v>0.6480399999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.660505</v>
+        <v>0.6515919999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6717880000000001</v>
+        <v>0.655595</v>
       </c>
       <c r="D78" t="n">
-        <v>0.667944</v>
+        <v>0.636089</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.653466</v>
+        <v>0.645498</v>
       </c>
       <c r="C79" t="n">
-        <v>0.657253</v>
+        <v>0.643295</v>
       </c>
       <c r="D79" t="n">
-        <v>0.655742</v>
+        <v>0.62552</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.647938</v>
+        <v>0.64107</v>
       </c>
       <c r="C80" t="n">
-        <v>0.646273</v>
+        <v>0.633084</v>
       </c>
       <c r="D80" t="n">
-        <v>1.00055</v>
+        <v>0.957445</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.893371</v>
+        <v>0.891339</v>
       </c>
       <c r="C81" t="n">
-        <v>0.989447</v>
+        <v>0.969706</v>
       </c>
       <c r="D81" t="n">
-        <v>0.980941</v>
+        <v>0.940569</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.887608</v>
+        <v>0.883646</v>
       </c>
       <c r="C82" t="n">
-        <v>0.974424</v>
+        <v>0.952678</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9595359999999999</v>
+        <v>0.919677</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.877794</v>
+        <v>0.873304</v>
       </c>
       <c r="C83" t="n">
-        <v>0.95464</v>
+        <v>0.93365</v>
       </c>
       <c r="D83" t="n">
-        <v>0.937532</v>
+        <v>0.898376</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.867248</v>
+        <v>0.8628400000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.934396</v>
+        <v>0.913755</v>
       </c>
       <c r="D84" t="n">
-        <v>0.91477</v>
+        <v>0.877008</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.854941</v>
+        <v>0.853055</v>
       </c>
       <c r="C85" t="n">
-        <v>0.911121</v>
+        <v>0.894804</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8906500000000001</v>
+        <v>0.856828</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.843955</v>
+        <v>0.8417210000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.89005</v>
+        <v>0.8749169999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.86861</v>
+        <v>0.836203</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.83249</v>
+        <v>0.831025</v>
       </c>
       <c r="C87" t="n">
-        <v>0.869856</v>
+        <v>0.85347</v>
       </c>
       <c r="D87" t="n">
-        <v>0.846597</v>
+        <v>0.8148339999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8222120000000001</v>
+        <v>0.818756</v>
       </c>
       <c r="C88" t="n">
-        <v>0.848922</v>
+        <v>0.833758</v>
       </c>
       <c r="D88" t="n">
-        <v>0.826554</v>
+        <v>0.795251</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.811526</v>
+        <v>0.806957</v>
       </c>
       <c r="C89" t="n">
-        <v>0.830107</v>
+        <v>0.8146600000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.806155</v>
+        <v>0.775809</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.800438</v>
+        <v>0.796604</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8117220000000001</v>
+        <v>0.797351</v>
       </c>
       <c r="D90" t="n">
-        <v>0.788032</v>
+        <v>0.7579129999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.791586</v>
+        <v>0.788365</v>
       </c>
       <c r="C91" t="n">
-        <v>0.794813</v>
+        <v>0.781722</v>
       </c>
       <c r="D91" t="n">
-        <v>0.77</v>
+        <v>0.7423070000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.782276</v>
+        <v>0.780479</v>
       </c>
       <c r="C92" t="n">
-        <v>0.777779</v>
+        <v>0.76591</v>
       </c>
       <c r="D92" t="n">
-        <v>0.752902</v>
+        <v>0.727862</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.776373</v>
+        <v>0.7742790000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.763884</v>
+        <v>0.753139</v>
       </c>
       <c r="D93" t="n">
-        <v>0.739966</v>
+        <v>0.715577</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.773589</v>
+        <v>0.771535</v>
       </c>
       <c r="C94" t="n">
-        <v>0.752518</v>
+        <v>0.741013</v>
       </c>
       <c r="D94" t="n">
-        <v>1.09373</v>
+        <v>1.0517</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02636</v>
+        <v>1.02248</v>
       </c>
       <c r="C95" t="n">
-        <v>1.09873</v>
+        <v>1.07597</v>
       </c>
       <c r="D95" t="n">
-        <v>1.07999</v>
+        <v>1.03967</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.0263</v>
+        <v>1.02301</v>
       </c>
       <c r="C96" t="n">
-        <v>1.09279</v>
+        <v>1.0703</v>
       </c>
       <c r="D96" t="n">
-        <v>1.06168</v>
+        <v>1.02402</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01746</v>
+        <v>1.01379</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07385</v>
+        <v>1.05418</v>
       </c>
       <c r="D97" t="n">
-        <v>1.04118</v>
+        <v>1.00508</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0059</v>
+        <v>1.00305</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05466</v>
+        <v>1.03617</v>
       </c>
       <c r="D98" t="n">
-        <v>1.02058</v>
+        <v>0.986656</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.995135</v>
+        <v>0.993231</v>
       </c>
       <c r="C99" t="n">
-        <v>1.03551</v>
+        <v>1.01906</v>
       </c>
       <c r="D99" t="n">
-        <v>1.00033</v>
+        <v>0.968247</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9853229999999999</v>
+        <v>0.982459</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01804</v>
+        <v>1.00113</v>
       </c>
       <c r="D100" t="n">
-        <v>0.98095</v>
+        <v>0.949387</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9746089999999999</v>
+        <v>0.971975</v>
       </c>
       <c r="C101" t="n">
-        <v>1.00107</v>
+        <v>0.984553</v>
       </c>
       <c r="D101" t="n">
-        <v>0.962</v>
+        <v>0.933055</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.966488</v>
+        <v>0.963426</v>
       </c>
       <c r="C102" t="n">
-        <v>0.984615</v>
+        <v>0.968324</v>
       </c>
       <c r="D102" t="n">
-        <v>0.945097</v>
+        <v>0.916223</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.957945</v>
+        <v>0.956078</v>
       </c>
       <c r="C103" t="n">
-        <v>0.969157</v>
+        <v>0.954691</v>
       </c>
       <c r="D103" t="n">
-        <v>0.927553</v>
+        <v>0.901311</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9513200000000001</v>
+        <v>0.949093</v>
       </c>
       <c r="C104" t="n">
-        <v>0.954906</v>
+        <v>0.941433</v>
       </c>
       <c r="D104" t="n">
-        <v>0.912053</v>
+        <v>0.886792</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.944983</v>
+        <v>0.9431040000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.941262</v>
+        <v>0.928372</v>
       </c>
       <c r="D105" t="n">
-        <v>0.89753</v>
+        <v>0.87375</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.940033</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.929467</v>
+        <v>0.917005</v>
       </c>
       <c r="D106" t="n">
-        <v>0.883597</v>
+        <v>0.861066</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.937225</v>
+        <v>0.9359459999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.917815</v>
+        <v>0.906244</v>
       </c>
       <c r="D107" t="n">
-        <v>0.871932</v>
+        <v>0.850152</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.937036</v>
+        <v>0.936017</v>
       </c>
       <c r="C108" t="n">
-        <v>0.909646</v>
+        <v>0.898825</v>
       </c>
       <c r="D108" t="n">
-        <v>1.2238</v>
+        <v>1.18622</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.940647</v>
+        <v>0.93963</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9049779999999999</v>
+        <v>0.893327</v>
       </c>
       <c r="D109" t="n">
-        <v>1.21345</v>
+        <v>1.17719</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18667</v>
+        <v>1.18455</v>
       </c>
       <c r="C110" t="n">
-        <v>1.25125</v>
+        <v>1.23173</v>
       </c>
       <c r="D110" t="n">
-        <v>1.19478</v>
+        <v>1.16161</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17403</v>
+        <v>1.17344</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23245</v>
+        <v>1.2148</v>
       </c>
       <c r="D111" t="n">
-        <v>1.17537</v>
+        <v>1.14402</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16222</v>
+        <v>1.1614</v>
       </c>
       <c r="C112" t="n">
-        <v>1.21421</v>
+        <v>1.19646</v>
       </c>
       <c r="D112" t="n">
-        <v>1.1576</v>
+        <v>1.12882</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15045</v>
+        <v>1.15064</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19648</v>
+        <v>1.18034</v>
       </c>
       <c r="D113" t="n">
-        <v>1.14063</v>
+        <v>1.11427</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.13931</v>
+        <v>1.1401</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17912</v>
+        <v>1.16471</v>
       </c>
       <c r="D114" t="n">
-        <v>1.12505</v>
+        <v>1.09983</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12954</v>
+        <v>1.13141</v>
       </c>
       <c r="C115" t="n">
-        <v>1.16297</v>
+        <v>1.14968</v>
       </c>
       <c r="D115" t="n">
-        <v>1.10896</v>
+        <v>1.08617</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12044</v>
+        <v>1.12289</v>
       </c>
       <c r="C116" t="n">
-        <v>1.14793</v>
+        <v>1.13474</v>
       </c>
       <c r="D116" t="n">
-        <v>1.09554</v>
+        <v>1.07245</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11256</v>
+        <v>1.11513</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13403</v>
+        <v>1.12327</v>
       </c>
       <c r="D117" t="n">
-        <v>1.08152</v>
+        <v>1.06195</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10582</v>
+        <v>1.10852</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12071</v>
+        <v>1.11224</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06824</v>
+        <v>1.05039</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.09975</v>
+        <v>1.1037</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10862</v>
+        <v>1.10024</v>
       </c>
       <c r="D119" t="n">
-        <v>1.05659</v>
+        <v>1.03954</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.09641</v>
+        <v>1.09996</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09803</v>
+        <v>1.09015</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04582</v>
+        <v>1.03014</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09446</v>
+        <v>1.09851</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08794</v>
+        <v>1.08161</v>
       </c>
       <c r="D121" t="n">
-        <v>1.03454</v>
+        <v>1.02011</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09458</v>
+        <v>1.09963</v>
       </c>
       <c r="C122" t="n">
-        <v>1.08064</v>
+        <v>1.07431</v>
       </c>
       <c r="D122" t="n">
-        <v>1.02744</v>
+        <v>1.01334</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.09947</v>
+        <v>1.10323</v>
       </c>
       <c r="C123" t="n">
-        <v>1.07502</v>
+        <v>1.06831</v>
       </c>
       <c r="D123" t="n">
-        <v>1.37669</v>
+        <v>1.34719</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.34877</v>
+        <v>1.35084</v>
       </c>
       <c r="C124" t="n">
-        <v>1.42353</v>
+        <v>1.40608</v>
       </c>
       <c r="D124" t="n">
-        <v>1.36297</v>
+        <v>1.33413</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.33975</v>
+        <v>1.34217</v>
       </c>
       <c r="C125" t="n">
-        <v>1.40686</v>
+        <v>1.39167</v>
       </c>
       <c r="D125" t="n">
-        <v>1.34836</v>
+        <v>1.32228</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33034</v>
+        <v>1.33273</v>
       </c>
       <c r="C126" t="n">
-        <v>1.39027</v>
+        <v>1.37542</v>
       </c>
       <c r="D126" t="n">
-        <v>1.33493</v>
+        <v>1.31081</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32243</v>
+        <v>1.3246</v>
       </c>
       <c r="C127" t="n">
-        <v>1.37453</v>
+        <v>1.36216</v>
       </c>
       <c r="D127" t="n">
-        <v>1.32143</v>
+        <v>1.29846</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31474</v>
+        <v>1.31657</v>
       </c>
       <c r="C128" t="n">
-        <v>1.36209</v>
+        <v>1.3479</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31021</v>
+        <v>1.28798</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.30781</v>
+        <v>1.31005</v>
       </c>
       <c r="C129" t="n">
-        <v>1.34601</v>
+        <v>1.33473</v>
       </c>
       <c r="D129" t="n">
-        <v>1.2983</v>
+        <v>1.27715</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.3009</v>
+        <v>1.30362</v>
       </c>
       <c r="C130" t="n">
-        <v>1.33445</v>
+        <v>1.32439</v>
       </c>
       <c r="D130" t="n">
-        <v>1.28867</v>
+        <v>1.26808</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29714</v>
+        <v>1.29908</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32265</v>
+        <v>1.31461</v>
       </c>
       <c r="D131" t="n">
-        <v>1.27704</v>
+        <v>1.25954</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29309</v>
+        <v>1.29465</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31354</v>
+        <v>1.30363</v>
       </c>
       <c r="D132" t="n">
-        <v>1.26903</v>
+        <v>1.2514</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29061</v>
+        <v>1.29138</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30271</v>
+        <v>1.29322</v>
       </c>
       <c r="D133" t="n">
-        <v>1.25985</v>
+        <v>1.24359</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.28873</v>
+        <v>1.29117</v>
       </c>
       <c r="C134" t="n">
-        <v>1.29272</v>
+        <v>1.28707</v>
       </c>
       <c r="D134" t="n">
-        <v>1.25107</v>
+        <v>1.23728</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.28905</v>
+        <v>1.29121</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28594</v>
+        <v>1.28005</v>
       </c>
       <c r="D135" t="n">
-        <v>1.24337</v>
+        <v>1.22949</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.29109</v>
+        <v>1.29249</v>
       </c>
       <c r="C136" t="n">
-        <v>1.27928</v>
+        <v>1.27395</v>
       </c>
       <c r="D136" t="n">
-        <v>1.23607</v>
+        <v>1.22261</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.29611</v>
+        <v>1.29788</v>
       </c>
       <c r="C137" t="n">
-        <v>1.27392</v>
+        <v>1.26895</v>
       </c>
       <c r="D137" t="n">
-        <v>1.58151</v>
+        <v>1.54999</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54321</v>
+        <v>1.5466</v>
       </c>
       <c r="C138" t="n">
-        <v>1.6202</v>
+        <v>1.60377</v>
       </c>
       <c r="D138" t="n">
-        <v>1.56874</v>
+        <v>1.54115</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53543</v>
+        <v>1.53829</v>
       </c>
       <c r="C139" t="n">
-        <v>1.60334</v>
+        <v>1.59146</v>
       </c>
       <c r="D139" t="n">
-        <v>1.55639</v>
+        <v>1.53152</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.52762</v>
+        <v>1.53243</v>
       </c>
       <c r="C140" t="n">
-        <v>1.58833</v>
+        <v>1.57887</v>
       </c>
       <c r="D140" t="n">
-        <v>1.54409</v>
+        <v>1.52332</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52123</v>
+        <v>1.52684</v>
       </c>
       <c r="C141" t="n">
-        <v>1.57567</v>
+        <v>1.56946</v>
       </c>
       <c r="D141" t="n">
-        <v>1.53349</v>
+        <v>1.51613</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.51535</v>
+        <v>1.52034</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56312</v>
+        <v>1.55714</v>
       </c>
       <c r="D142" t="n">
-        <v>1.52396</v>
+        <v>1.50688</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51016</v>
+        <v>1.5161</v>
       </c>
       <c r="C143" t="n">
-        <v>1.55175</v>
+        <v>1.54821</v>
       </c>
       <c r="D143" t="n">
-        <v>1.51491</v>
+        <v>1.49891</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.573636</v>
+        <v>0.575125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.591784</v>
+        <v>0.6019640000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.572828</v>
+        <v>0.596836</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.561906</v>
+        <v>0.5641</v>
       </c>
       <c r="C3" t="n">
-        <v>0.574754</v>
+        <v>0.584317</v>
       </c>
       <c r="D3" t="n">
-        <v>0.556773</v>
+        <v>0.579102</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.549705</v>
+        <v>0.551418</v>
       </c>
       <c r="C4" t="n">
-        <v>0.558677</v>
+        <v>0.567706</v>
       </c>
       <c r="D4" t="n">
-        <v>0.540824</v>
+        <v>0.56319</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.539485</v>
+        <v>0.540929</v>
       </c>
       <c r="C5" t="n">
-        <v>0.543473</v>
+        <v>0.552428</v>
       </c>
       <c r="D5" t="n">
-        <v>0.527725</v>
+        <v>0.549079</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.531327</v>
+        <v>0.532256</v>
       </c>
       <c r="C6" t="n">
-        <v>0.530775</v>
+        <v>0.538852</v>
       </c>
       <c r="D6" t="n">
-        <v>0.515292</v>
+        <v>0.536789</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.524124</v>
+        <v>0.525917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.517588</v>
+        <v>0.526415</v>
       </c>
       <c r="D7" t="n">
-        <v>0.504602</v>
+        <v>0.524996</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5203449999999999</v>
+        <v>0.522409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.508586</v>
+        <v>0.51666</v>
       </c>
       <c r="D8" t="n">
-        <v>0.496608</v>
+        <v>0.516689</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.521584</v>
+        <v>0.5223640000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.500812</v>
+        <v>0.50898</v>
       </c>
       <c r="D9" t="n">
-        <v>0.760555</v>
+        <v>0.783007</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.671156</v>
+        <v>0.67178</v>
       </c>
       <c r="C10" t="n">
-        <v>0.728582</v>
+        <v>0.740783</v>
       </c>
       <c r="D10" t="n">
-        <v>0.735564</v>
+        <v>0.756929</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6507309999999999</v>
+        <v>0.652954</v>
       </c>
       <c r="C11" t="n">
-        <v>0.70447</v>
+        <v>0.715625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.711087</v>
+        <v>0.7334270000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.632505</v>
+        <v>0.633225</v>
       </c>
       <c r="C12" t="n">
-        <v>0.681922</v>
+        <v>0.692893</v>
       </c>
       <c r="D12" t="n">
-        <v>0.687319</v>
+        <v>0.710497</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.614444</v>
+        <v>0.61681</v>
       </c>
       <c r="C13" t="n">
-        <v>0.660071</v>
+        <v>0.6709000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6658809999999999</v>
+        <v>0.687931</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.598716</v>
+        <v>0.599668</v>
       </c>
       <c r="C14" t="n">
-        <v>0.639701</v>
+        <v>0.650331</v>
       </c>
       <c r="D14" t="n">
-        <v>0.644417</v>
+        <v>0.667012</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.582982</v>
+        <v>0.585197</v>
       </c>
       <c r="C15" t="n">
-        <v>0.62012</v>
+        <v>0.631066</v>
       </c>
       <c r="D15" t="n">
-        <v>0.624702</v>
+        <v>0.647261</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5688530000000001</v>
+        <v>0.571346</v>
       </c>
       <c r="C16" t="n">
-        <v>0.602098</v>
+        <v>0.61138</v>
       </c>
       <c r="D16" t="n">
-        <v>0.606384</v>
+        <v>0.629462</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.556184</v>
+        <v>0.5584789999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.584411</v>
+        <v>0.593906</v>
       </c>
       <c r="D17" t="n">
-        <v>0.588433</v>
+        <v>0.6128749999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.544592</v>
+        <v>0.547447</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5682469999999999</v>
+        <v>0.577508</v>
       </c>
       <c r="D18" t="n">
-        <v>0.572556</v>
+        <v>0.596818</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.533628</v>
+        <v>0.536537</v>
       </c>
       <c r="C19" t="n">
-        <v>0.55336</v>
+        <v>0.562169</v>
       </c>
       <c r="D19" t="n">
-        <v>0.557341</v>
+        <v>0.580986</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.524973</v>
+        <v>0.525946</v>
       </c>
       <c r="C20" t="n">
-        <v>0.539453</v>
+        <v>0.548117</v>
       </c>
       <c r="D20" t="n">
-        <v>0.54447</v>
+        <v>0.568549</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5189319999999999</v>
+        <v>0.5207580000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.526541</v>
+        <v>0.535407</v>
       </c>
       <c r="D21" t="n">
-        <v>0.532484</v>
+        <v>0.557165</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.513163</v>
+        <v>0.516003</v>
       </c>
       <c r="C22" t="n">
-        <v>0.516821</v>
+        <v>0.524191</v>
       </c>
       <c r="D22" t="n">
-        <v>0.523119</v>
+        <v>0.548339</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.512292</v>
+        <v>0.5144339999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5081</v>
+        <v>0.515692</v>
       </c>
       <c r="D23" t="n">
-        <v>0.798312</v>
+        <v>0.824864</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.716662</v>
+        <v>0.719159</v>
       </c>
       <c r="C24" t="n">
-        <v>0.785801</v>
+        <v>0.7963710000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7723680000000001</v>
+        <v>0.798753</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.696139</v>
+        <v>0.69857</v>
       </c>
       <c r="C25" t="n">
-        <v>0.760056</v>
+        <v>0.769801</v>
       </c>
       <c r="D25" t="n">
-        <v>0.74662</v>
+        <v>0.773164</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.675967</v>
+        <v>0.678441</v>
       </c>
       <c r="C26" t="n">
-        <v>0.735247</v>
+        <v>0.745575</v>
       </c>
       <c r="D26" t="n">
-        <v>0.722145</v>
+        <v>0.748615</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.656728</v>
+        <v>0.6588850000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.712194</v>
+        <v>0.721688</v>
       </c>
       <c r="D27" t="n">
-        <v>0.69896</v>
+        <v>0.725404</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.638898</v>
+        <v>0.640442</v>
       </c>
       <c r="C28" t="n">
-        <v>0.689986</v>
+        <v>0.698985</v>
       </c>
       <c r="D28" t="n">
-        <v>0.677272</v>
+        <v>0.704033</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.621891</v>
+        <v>0.624015</v>
       </c>
       <c r="C29" t="n">
-        <v>0.668324</v>
+        <v>0.677284</v>
       </c>
       <c r="D29" t="n">
-        <v>0.655924</v>
+        <v>0.683283</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6060449999999999</v>
+        <v>0.608258</v>
       </c>
       <c r="C30" t="n">
-        <v>0.647894</v>
+        <v>0.655282</v>
       </c>
       <c r="D30" t="n">
-        <v>0.636935</v>
+        <v>0.662208</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.591829</v>
+        <v>0.593615</v>
       </c>
       <c r="C31" t="n">
-        <v>0.628865</v>
+        <v>0.6369</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6181140000000001</v>
+        <v>0.645136</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.578009</v>
+        <v>0.580409</v>
       </c>
       <c r="C32" t="n">
-        <v>0.611106</v>
+        <v>0.619094</v>
       </c>
       <c r="D32" t="n">
-        <v>0.600743</v>
+        <v>0.628205</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.566401</v>
+        <v>0.5683049999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.594471</v>
+        <v>0.60095</v>
       </c>
       <c r="D33" t="n">
-        <v>0.58434</v>
+        <v>0.612401</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.556359</v>
+        <v>0.558131</v>
       </c>
       <c r="C34" t="n">
-        <v>0.577978</v>
+        <v>0.586587</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5700769999999999</v>
+        <v>0.598405</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.546709</v>
+        <v>0.547828</v>
       </c>
       <c r="C35" t="n">
-        <v>0.563483</v>
+        <v>0.570483</v>
       </c>
       <c r="D35" t="n">
-        <v>0.557338</v>
+        <v>0.5853930000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5408500000000001</v>
+        <v>0.543303</v>
       </c>
       <c r="C36" t="n">
-        <v>0.551648</v>
+        <v>0.559827</v>
       </c>
       <c r="D36" t="n">
-        <v>0.545758</v>
+        <v>0.574454</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.537663</v>
+        <v>0.538058</v>
       </c>
       <c r="C37" t="n">
-        <v>0.54143</v>
+        <v>0.549893</v>
       </c>
       <c r="D37" t="n">
-        <v>0.825751</v>
+        <v>0.855102</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7464769999999999</v>
+        <v>0.749288</v>
       </c>
       <c r="C38" t="n">
-        <v>0.820869</v>
+        <v>0.831588</v>
       </c>
       <c r="D38" t="n">
-        <v>0.79897</v>
+        <v>0.826637</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.726093</v>
+        <v>0.728295</v>
       </c>
       <c r="C39" t="n">
-        <v>0.795218</v>
+        <v>0.805055</v>
       </c>
       <c r="D39" t="n">
-        <v>0.772649</v>
+        <v>0.801447</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.704578</v>
+        <v>0.706996</v>
       </c>
       <c r="C40" t="n">
-        <v>0.769593</v>
+        <v>0.778927</v>
       </c>
       <c r="D40" t="n">
-        <v>0.748196</v>
+        <v>0.77755</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.685192</v>
+        <v>0.687297</v>
       </c>
       <c r="C41" t="n">
-        <v>0.744102</v>
+        <v>0.7549</v>
       </c>
       <c r="D41" t="n">
-        <v>0.724647</v>
+        <v>0.75354</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.66559</v>
+        <v>0.667531</v>
       </c>
       <c r="C42" t="n">
-        <v>0.719652</v>
+        <v>0.730925</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7018489999999999</v>
+        <v>0.731706</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.648237</v>
+        <v>0.650953</v>
       </c>
       <c r="C43" t="n">
-        <v>0.699004</v>
+        <v>0.707882</v>
       </c>
       <c r="D43" t="n">
-        <v>0.679785</v>
+        <v>0.709549</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.62993</v>
+        <v>0.6324650000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.677324</v>
+        <v>0.685759</v>
       </c>
       <c r="D44" t="n">
-        <v>0.660286</v>
+        <v>0.689295</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.616425</v>
+        <v>0.619462</v>
       </c>
       <c r="C45" t="n">
-        <v>0.658287</v>
+        <v>0.667338</v>
       </c>
       <c r="D45" t="n">
-        <v>0.640744</v>
+        <v>0.670724</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.601588</v>
+        <v>0.604683</v>
       </c>
       <c r="C46" t="n">
-        <v>0.63812</v>
+        <v>0.64668</v>
       </c>
       <c r="D46" t="n">
-        <v>0.624004</v>
+        <v>0.654527</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.590419</v>
+        <v>0.592657</v>
       </c>
       <c r="C47" t="n">
-        <v>0.623012</v>
+        <v>0.631013</v>
       </c>
       <c r="D47" t="n">
-        <v>0.607688</v>
+        <v>0.637323</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.578425</v>
+        <v>0.581759</v>
       </c>
       <c r="C48" t="n">
-        <v>0.605637</v>
+        <v>0.613976</v>
       </c>
       <c r="D48" t="n">
-        <v>0.591878</v>
+        <v>0.622001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.567702</v>
+        <v>0.572855</v>
       </c>
       <c r="C49" t="n">
-        <v>0.592929</v>
+        <v>0.598208</v>
       </c>
       <c r="D49" t="n">
-        <v>0.578659</v>
+        <v>0.609273</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5608610000000001</v>
+        <v>0.5653</v>
       </c>
       <c r="C50" t="n">
-        <v>0.575978</v>
+        <v>0.585633</v>
       </c>
       <c r="D50" t="n">
-        <v>0.567033</v>
+        <v>0.598637</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5587220000000001</v>
+        <v>0.560577</v>
       </c>
       <c r="C51" t="n">
-        <v>0.566514</v>
+        <v>0.573259</v>
       </c>
       <c r="D51" t="n">
-        <v>0.854603</v>
+        <v>0.885767</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.557149</v>
+        <v>0.560599</v>
       </c>
       <c r="C52" t="n">
-        <v>0.558435</v>
+        <v>0.564628</v>
       </c>
       <c r="D52" t="n">
-        <v>0.827964</v>
+        <v>0.858826</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.754431</v>
+        <v>0.757596</v>
       </c>
       <c r="C53" t="n">
-        <v>0.82558</v>
+        <v>0.836771</v>
       </c>
       <c r="D53" t="n">
-        <v>0.801913</v>
+        <v>0.832786</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.733812</v>
+        <v>0.735942</v>
       </c>
       <c r="C54" t="n">
-        <v>0.801324</v>
+        <v>0.810576</v>
       </c>
       <c r="D54" t="n">
-        <v>0.776926</v>
+        <v>0.80675</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.713876</v>
+        <v>0.715531</v>
       </c>
       <c r="C55" t="n">
-        <v>0.776828</v>
+        <v>0.7849</v>
       </c>
       <c r="D55" t="n">
-        <v>0.753857</v>
+        <v>0.783853</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.69528</v>
+        <v>0.697856</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7534459999999999</v>
+        <v>0.760826</v>
       </c>
       <c r="D56" t="n">
-        <v>0.731027</v>
+        <v>0.761127</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.677196</v>
+        <v>0.679025</v>
       </c>
       <c r="C57" t="n">
-        <v>0.729849</v>
+        <v>0.737657</v>
       </c>
       <c r="D57" t="n">
-        <v>0.708869</v>
+        <v>0.738866</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6601590000000001</v>
+        <v>0.661544</v>
       </c>
       <c r="C58" t="n">
-        <v>0.708805</v>
+        <v>0.716354</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6886910000000001</v>
+        <v>0.720314</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.646228</v>
+        <v>0.6465649999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.69029</v>
+        <v>0.696226</v>
       </c>
       <c r="D59" t="n">
-        <v>0.671102</v>
+        <v>0.700274</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.632068</v>
+        <v>0.632349</v>
       </c>
       <c r="C60" t="n">
-        <v>0.671241</v>
+        <v>0.676627</v>
       </c>
       <c r="D60" t="n">
-        <v>0.652552</v>
+        <v>0.682705</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.619083</v>
+        <v>0.619402</v>
       </c>
       <c r="C61" t="n">
-        <v>0.65325</v>
+        <v>0.659274</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6363529999999999</v>
+        <v>0.666673</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.607668</v>
+        <v>0.608136</v>
       </c>
       <c r="C62" t="n">
-        <v>0.63644</v>
+        <v>0.64305</v>
       </c>
       <c r="D62" t="n">
-        <v>0.620244</v>
+        <v>0.651212</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.598202</v>
+        <v>0.598556</v>
       </c>
       <c r="C63" t="n">
-        <v>0.621344</v>
+        <v>0.627308</v>
       </c>
       <c r="D63" t="n">
-        <v>0.606517</v>
+        <v>0.637066</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.590333</v>
+        <v>0.590664</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6071260000000001</v>
+        <v>0.611723</v>
       </c>
       <c r="D64" t="n">
-        <v>0.594461</v>
+        <v>0.623957</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.584966</v>
+        <v>0.585474</v>
       </c>
       <c r="C65" t="n">
-        <v>0.594824</v>
+        <v>0.600235</v>
       </c>
       <c r="D65" t="n">
-        <v>0.584727</v>
+        <v>0.6158130000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.583162</v>
+        <v>0.583925</v>
       </c>
       <c r="C66" t="n">
-        <v>0.585384</v>
+        <v>0.592342</v>
       </c>
       <c r="D66" t="n">
-        <v>0.879688</v>
+        <v>0.910176</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.81223</v>
+        <v>0.814482</v>
       </c>
       <c r="C67" t="n">
-        <v>0.891162</v>
+        <v>0.896436</v>
       </c>
       <c r="D67" t="n">
-        <v>0.855561</v>
+        <v>0.883072</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.795319</v>
+        <v>0.796357</v>
       </c>
       <c r="C68" t="n">
-        <v>0.861008</v>
+        <v>0.868514</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8282389999999999</v>
+        <v>0.856576</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.775572</v>
+        <v>0.77703</v>
       </c>
       <c r="C69" t="n">
-        <v>0.835465</v>
+        <v>0.8424469999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.802907</v>
+        <v>0.83185</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.758693</v>
+        <v>0.759142</v>
       </c>
       <c r="C70" t="n">
-        <v>0.812845</v>
+        <v>0.816598</v>
       </c>
       <c r="D70" t="n">
-        <v>0.781538</v>
+        <v>0.808692</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7440330000000001</v>
+        <v>0.747559</v>
       </c>
       <c r="C71" t="n">
-        <v>0.789042</v>
+        <v>0.797906</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7588</v>
+        <v>0.792898</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.72697</v>
+        <v>0.731658</v>
       </c>
       <c r="C72" t="n">
-        <v>0.764698</v>
+        <v>0.777747</v>
       </c>
       <c r="D72" t="n">
-        <v>0.735575</v>
+        <v>0.773454</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.708754</v>
+        <v>0.718813</v>
       </c>
       <c r="C73" t="n">
-        <v>0.742904</v>
+        <v>0.7576079999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7167790000000001</v>
+        <v>0.753345</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.696711</v>
+        <v>0.70457</v>
       </c>
       <c r="C74" t="n">
-        <v>0.723965</v>
+        <v>0.73867</v>
       </c>
       <c r="D74" t="n">
-        <v>0.698433</v>
+        <v>0.734496</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.682984</v>
+        <v>0.690692</v>
       </c>
       <c r="C75" t="n">
-        <v>0.705391</v>
+        <v>0.717573</v>
       </c>
       <c r="D75" t="n">
-        <v>0.679574</v>
+        <v>0.71615</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.669933</v>
+        <v>0.6782629999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.687367</v>
+        <v>0.697732</v>
       </c>
       <c r="D76" t="n">
-        <v>0.663137</v>
+        <v>0.69747</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.659262</v>
+        <v>0.666123</v>
       </c>
       <c r="C77" t="n">
-        <v>0.670377</v>
+        <v>0.681499</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6480399999999999</v>
+        <v>0.683908</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6515919999999999</v>
+        <v>0.655708</v>
       </c>
       <c r="C78" t="n">
-        <v>0.655595</v>
+        <v>0.664991</v>
       </c>
       <c r="D78" t="n">
-        <v>0.636089</v>
+        <v>0.669574</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.645498</v>
+        <v>0.649663</v>
       </c>
       <c r="C79" t="n">
-        <v>0.643295</v>
+        <v>0.652095</v>
       </c>
       <c r="D79" t="n">
-        <v>0.62552</v>
+        <v>0.659857</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.64107</v>
+        <v>0.644905</v>
       </c>
       <c r="C80" t="n">
-        <v>0.633084</v>
+        <v>0.640433</v>
       </c>
       <c r="D80" t="n">
-        <v>0.957445</v>
+        <v>0.988241</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.891339</v>
+        <v>0.8922639999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.969706</v>
+        <v>0.981544</v>
       </c>
       <c r="D81" t="n">
-        <v>0.940569</v>
+        <v>0.9709680000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.883646</v>
+        <v>0.885284</v>
       </c>
       <c r="C82" t="n">
-        <v>0.952678</v>
+        <v>0.9655820000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.919677</v>
+        <v>0.951027</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.873304</v>
+        <v>0.87599</v>
       </c>
       <c r="C83" t="n">
-        <v>0.93365</v>
+        <v>0.946838</v>
       </c>
       <c r="D83" t="n">
-        <v>0.898376</v>
+        <v>0.929335</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8628400000000001</v>
+        <v>0.865273</v>
       </c>
       <c r="C84" t="n">
-        <v>0.913755</v>
+        <v>0.92533</v>
       </c>
       <c r="D84" t="n">
-        <v>0.877008</v>
+        <v>0.907413</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.853055</v>
+        <v>0.852819</v>
       </c>
       <c r="C85" t="n">
-        <v>0.894804</v>
+        <v>0.905432</v>
       </c>
       <c r="D85" t="n">
-        <v>0.856828</v>
+        <v>0.886194</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8417210000000001</v>
+        <v>0.8431999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8749169999999999</v>
+        <v>0.884456</v>
       </c>
       <c r="D86" t="n">
-        <v>0.836203</v>
+        <v>0.865333</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.831025</v>
+        <v>0.831253</v>
       </c>
       <c r="C87" t="n">
-        <v>0.85347</v>
+        <v>0.86385</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8148339999999999</v>
+        <v>0.844451</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.818756</v>
+        <v>0.820251</v>
       </c>
       <c r="C88" t="n">
-        <v>0.833758</v>
+        <v>0.84376</v>
       </c>
       <c r="D88" t="n">
-        <v>0.795251</v>
+        <v>0.8247139999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.806957</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8146600000000001</v>
+        <v>0.82599</v>
       </c>
       <c r="D89" t="n">
-        <v>0.775809</v>
+        <v>0.806022</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.796604</v>
+        <v>0.798872</v>
       </c>
       <c r="C90" t="n">
-        <v>0.797351</v>
+        <v>0.806858</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7579129999999999</v>
+        <v>0.788063</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.788365</v>
+        <v>0.789181</v>
       </c>
       <c r="C91" t="n">
-        <v>0.781722</v>
+        <v>0.789984</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7423070000000001</v>
+        <v>0.771959</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.780479</v>
+        <v>0.7814990000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.76591</v>
+        <v>0.774501</v>
       </c>
       <c r="D92" t="n">
-        <v>0.727862</v>
+        <v>0.757391</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7742790000000001</v>
+        <v>0.775141</v>
       </c>
       <c r="C93" t="n">
-        <v>0.753139</v>
+        <v>0.760298</v>
       </c>
       <c r="D93" t="n">
-        <v>0.715577</v>
+        <v>0.74491</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.771535</v>
+        <v>0.772563</v>
       </c>
       <c r="C94" t="n">
-        <v>0.741013</v>
+        <v>0.748115</v>
       </c>
       <c r="D94" t="n">
-        <v>1.0517</v>
+        <v>1.08082</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02248</v>
+        <v>1.02438</v>
       </c>
       <c r="C95" t="n">
-        <v>1.07597</v>
+        <v>1.09158</v>
       </c>
       <c r="D95" t="n">
-        <v>1.03967</v>
+        <v>1.06848</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02301</v>
+        <v>1.02417</v>
       </c>
       <c r="C96" t="n">
-        <v>1.0703</v>
+        <v>1.08436</v>
       </c>
       <c r="D96" t="n">
-        <v>1.02402</v>
+        <v>1.05079</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01379</v>
+        <v>1.01475</v>
       </c>
       <c r="C97" t="n">
-        <v>1.05418</v>
+        <v>1.06832</v>
       </c>
       <c r="D97" t="n">
-        <v>1.00508</v>
+        <v>1.03212</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00305</v>
+        <v>1.0039</v>
       </c>
       <c r="C98" t="n">
-        <v>1.03617</v>
+        <v>1.04957</v>
       </c>
       <c r="D98" t="n">
-        <v>0.986656</v>
+        <v>1.01288</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.993231</v>
+        <v>0.993541</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01906</v>
+        <v>1.03193</v>
       </c>
       <c r="D99" t="n">
-        <v>0.968247</v>
+        <v>0.994631</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.982459</v>
+        <v>0.983125</v>
       </c>
       <c r="C100" t="n">
-        <v>1.00113</v>
+        <v>1.01355</v>
       </c>
       <c r="D100" t="n">
-        <v>0.949387</v>
+        <v>0.975286</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.971975</v>
+        <v>0.972705</v>
       </c>
       <c r="C101" t="n">
-        <v>0.984553</v>
+        <v>0.9961370000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.933055</v>
+        <v>0.957464</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.963426</v>
+        <v>0.963831</v>
       </c>
       <c r="C102" t="n">
-        <v>0.968324</v>
+        <v>0.980715</v>
       </c>
       <c r="D102" t="n">
-        <v>0.916223</v>
+        <v>0.94098</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.956078</v>
+        <v>0.95594</v>
       </c>
       <c r="C103" t="n">
-        <v>0.954691</v>
+        <v>0.9648409999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.901311</v>
+        <v>0.925475</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.949093</v>
+        <v>0.9495479999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.941433</v>
+        <v>0.950587</v>
       </c>
       <c r="D104" t="n">
-        <v>0.886792</v>
+        <v>0.910734</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9431040000000001</v>
+        <v>0.942989</v>
       </c>
       <c r="C105" t="n">
-        <v>0.928372</v>
+        <v>0.9375250000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.87375</v>
+        <v>0.897985</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.93885</v>
       </c>
       <c r="C106" t="n">
-        <v>0.917005</v>
+        <v>0.925194</v>
       </c>
       <c r="D106" t="n">
-        <v>0.861066</v>
+        <v>0.885715</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9359459999999999</v>
+        <v>0.93602</v>
       </c>
       <c r="C107" t="n">
-        <v>0.906244</v>
+        <v>0.915396</v>
       </c>
       <c r="D107" t="n">
-        <v>0.850152</v>
+        <v>0.874918</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.936017</v>
+        <v>0.936249</v>
       </c>
       <c r="C108" t="n">
-        <v>0.898825</v>
+        <v>0.906945</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18622</v>
+        <v>1.20982</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.93963</v>
+        <v>0.93968</v>
       </c>
       <c r="C109" t="n">
-        <v>0.893327</v>
+        <v>0.900674</v>
       </c>
       <c r="D109" t="n">
-        <v>1.17719</v>
+        <v>1.19996</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18455</v>
+        <v>1.18517</v>
       </c>
       <c r="C110" t="n">
-        <v>1.23173</v>
+        <v>1.24655</v>
       </c>
       <c r="D110" t="n">
-        <v>1.16161</v>
+        <v>1.18226</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17344</v>
+        <v>1.17383</v>
       </c>
       <c r="C111" t="n">
-        <v>1.2148</v>
+        <v>1.22865</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14402</v>
+        <v>1.16523</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.1614</v>
+        <v>1.16101</v>
       </c>
       <c r="C112" t="n">
-        <v>1.19646</v>
+        <v>1.20934</v>
       </c>
       <c r="D112" t="n">
-        <v>1.12882</v>
+        <v>1.14801</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15064</v>
+        <v>1.15003</v>
       </c>
       <c r="C113" t="n">
-        <v>1.18034</v>
+        <v>1.19188</v>
       </c>
       <c r="D113" t="n">
-        <v>1.11427</v>
+        <v>1.13216</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.1401</v>
+        <v>1.13938</v>
       </c>
       <c r="C114" t="n">
-        <v>1.16471</v>
+        <v>1.17598</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09983</v>
+        <v>1.117</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13141</v>
+        <v>1.12891</v>
       </c>
       <c r="C115" t="n">
-        <v>1.14968</v>
+        <v>1.15995</v>
       </c>
       <c r="D115" t="n">
-        <v>1.08617</v>
+        <v>1.10358</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12289</v>
+        <v>1.1197</v>
       </c>
       <c r="C116" t="n">
-        <v>1.13474</v>
+        <v>1.14477</v>
       </c>
       <c r="D116" t="n">
-        <v>1.07245</v>
+        <v>1.08941</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11513</v>
+        <v>1.11224</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12327</v>
+        <v>1.13149</v>
       </c>
       <c r="D117" t="n">
-        <v>1.06195</v>
+        <v>1.07661</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10852</v>
+        <v>1.1052</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11224</v>
+        <v>1.11824</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05039</v>
+        <v>1.06569</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.1037</v>
+        <v>1.10013</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10024</v>
+        <v>1.10696</v>
       </c>
       <c r="D119" t="n">
-        <v>1.03954</v>
+        <v>1.05452</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.09996</v>
+        <v>1.09585</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09015</v>
+        <v>1.09588</v>
       </c>
       <c r="D120" t="n">
-        <v>1.03014</v>
+        <v>1.04469</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09851</v>
+        <v>1.09353</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08161</v>
+        <v>1.08638</v>
       </c>
       <c r="D121" t="n">
-        <v>1.02011</v>
+        <v>1.03491</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09963</v>
+        <v>1.09403</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07431</v>
+        <v>1.07873</v>
       </c>
       <c r="D122" t="n">
-        <v>1.01334</v>
+        <v>1.02789</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10323</v>
+        <v>1.09888</v>
       </c>
       <c r="C123" t="n">
-        <v>1.06831</v>
+        <v>1.07285</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34719</v>
+        <v>1.361</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35084</v>
+        <v>1.34875</v>
       </c>
       <c r="C124" t="n">
-        <v>1.40608</v>
+        <v>1.41983</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33413</v>
+        <v>1.34693</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.34217</v>
+        <v>1.33994</v>
       </c>
       <c r="C125" t="n">
-        <v>1.39167</v>
+        <v>1.40356</v>
       </c>
       <c r="D125" t="n">
-        <v>1.32228</v>
+        <v>1.33518</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33273</v>
+        <v>1.33093</v>
       </c>
       <c r="C126" t="n">
-        <v>1.37542</v>
+        <v>1.38816</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31081</v>
+        <v>1.32341</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.3246</v>
+        <v>1.32243</v>
       </c>
       <c r="C127" t="n">
-        <v>1.36216</v>
+        <v>1.37307</v>
       </c>
       <c r="D127" t="n">
-        <v>1.29846</v>
+        <v>1.31073</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31657</v>
+        <v>1.31409</v>
       </c>
       <c r="C128" t="n">
-        <v>1.3479</v>
+        <v>1.35877</v>
       </c>
       <c r="D128" t="n">
-        <v>1.28798</v>
+        <v>1.30003</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31005</v>
+        <v>1.30743</v>
       </c>
       <c r="C129" t="n">
-        <v>1.33473</v>
+        <v>1.34564</v>
       </c>
       <c r="D129" t="n">
-        <v>1.27715</v>
+        <v>1.28952</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30362</v>
+        <v>1.30118</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32439</v>
+        <v>1.33309</v>
       </c>
       <c r="D130" t="n">
-        <v>1.26808</v>
+        <v>1.28033</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29908</v>
+        <v>1.29628</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31461</v>
+        <v>1.32249</v>
       </c>
       <c r="D131" t="n">
-        <v>1.25954</v>
+        <v>1.27209</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29465</v>
+        <v>1.29233</v>
       </c>
       <c r="C132" t="n">
-        <v>1.30363</v>
+        <v>1.31128</v>
       </c>
       <c r="D132" t="n">
-        <v>1.2514</v>
+        <v>1.26309</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29138</v>
+        <v>1.28953</v>
       </c>
       <c r="C133" t="n">
-        <v>1.29322</v>
+        <v>1.30232</v>
       </c>
       <c r="D133" t="n">
-        <v>1.24359</v>
+        <v>1.25574</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.29117</v>
+        <v>1.28787</v>
       </c>
       <c r="C134" t="n">
-        <v>1.28707</v>
+        <v>1.29331</v>
       </c>
       <c r="D134" t="n">
-        <v>1.23728</v>
+        <v>1.24904</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.29121</v>
+        <v>1.28909</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28005</v>
+        <v>1.28586</v>
       </c>
       <c r="D135" t="n">
-        <v>1.22949</v>
+        <v>1.24234</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.29249</v>
+        <v>1.29036</v>
       </c>
       <c r="C136" t="n">
-        <v>1.27395</v>
+        <v>1.27983</v>
       </c>
       <c r="D136" t="n">
-        <v>1.22261</v>
+        <v>1.23479</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.29788</v>
+        <v>1.29549</v>
       </c>
       <c r="C137" t="n">
-        <v>1.26895</v>
+        <v>1.27513</v>
       </c>
       <c r="D137" t="n">
-        <v>1.54999</v>
+        <v>1.56399</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.5466</v>
+        <v>1.54412</v>
       </c>
       <c r="C138" t="n">
-        <v>1.60377</v>
+        <v>1.61856</v>
       </c>
       <c r="D138" t="n">
-        <v>1.54115</v>
+        <v>1.55388</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53829</v>
+        <v>1.53527</v>
       </c>
       <c r="C139" t="n">
-        <v>1.59146</v>
+        <v>1.60379</v>
       </c>
       <c r="D139" t="n">
-        <v>1.53152</v>
+        <v>1.54312</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.53243</v>
+        <v>1.52813</v>
       </c>
       <c r="C140" t="n">
-        <v>1.57887</v>
+        <v>1.59101</v>
       </c>
       <c r="D140" t="n">
-        <v>1.52332</v>
+        <v>1.5339</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52684</v>
+        <v>1.52158</v>
       </c>
       <c r="C141" t="n">
-        <v>1.56946</v>
+        <v>1.57832</v>
       </c>
       <c r="D141" t="n">
-        <v>1.51613</v>
+        <v>1.52496</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.52034</v>
+        <v>1.51613</v>
       </c>
       <c r="C142" t="n">
-        <v>1.55714</v>
+        <v>1.56569</v>
       </c>
       <c r="D142" t="n">
-        <v>1.50688</v>
+        <v>1.51637</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.5161</v>
+        <v>1.51094</v>
       </c>
       <c r="C143" t="n">
-        <v>1.54821</v>
+        <v>1.5563</v>
       </c>
       <c r="D143" t="n">
-        <v>1.49891</v>
+        <v>1.50815</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575125</v>
+        <v>0.577458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6019640000000001</v>
+        <v>0.5976050000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.596836</v>
+        <v>0.589997</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5641</v>
+        <v>0.564624</v>
       </c>
       <c r="C3" t="n">
-        <v>0.584317</v>
+        <v>0.580701</v>
       </c>
       <c r="D3" t="n">
-        <v>0.579102</v>
+        <v>0.57317</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.551418</v>
+        <v>0.55271</v>
       </c>
       <c r="C4" t="n">
-        <v>0.567706</v>
+        <v>0.5629189999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.56319</v>
+        <v>0.557998</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.540929</v>
+        <v>0.542415</v>
       </c>
       <c r="C5" t="n">
-        <v>0.552428</v>
+        <v>0.548638</v>
       </c>
       <c r="D5" t="n">
-        <v>0.549079</v>
+        <v>0.544442</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.532256</v>
+        <v>0.534185</v>
       </c>
       <c r="C6" t="n">
-        <v>0.538852</v>
+        <v>0.535005</v>
       </c>
       <c r="D6" t="n">
-        <v>0.536789</v>
+        <v>0.53157</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.525917</v>
+        <v>0.5267579999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.526415</v>
+        <v>0.5225030000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.524996</v>
+        <v>0.520438</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.522409</v>
+        <v>0.52412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.51666</v>
+        <v>0.51233</v>
       </c>
       <c r="D8" t="n">
-        <v>0.516689</v>
+        <v>0.513479</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5223640000000001</v>
+        <v>0.524307</v>
       </c>
       <c r="C9" t="n">
-        <v>0.50898</v>
+        <v>0.504315</v>
       </c>
       <c r="D9" t="n">
-        <v>0.783007</v>
+        <v>0.776616</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.67178</v>
+        <v>0.671716</v>
       </c>
       <c r="C10" t="n">
-        <v>0.740783</v>
+        <v>0.734707</v>
       </c>
       <c r="D10" t="n">
-        <v>0.756929</v>
+        <v>0.75109</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.652954</v>
+        <v>0.65285</v>
       </c>
       <c r="C11" t="n">
-        <v>0.715625</v>
+        <v>0.7105939999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7334270000000001</v>
+        <v>0.726566</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.633225</v>
+        <v>0.634034</v>
       </c>
       <c r="C12" t="n">
-        <v>0.692893</v>
+        <v>0.687462</v>
       </c>
       <c r="D12" t="n">
-        <v>0.710497</v>
+        <v>0.70401</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.61681</v>
+        <v>0.616453</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6709000000000001</v>
+        <v>0.665819</v>
       </c>
       <c r="D13" t="n">
-        <v>0.687931</v>
+        <v>0.68193</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.599668</v>
+        <v>0.600366</v>
       </c>
       <c r="C14" t="n">
-        <v>0.650331</v>
+        <v>0.645003</v>
       </c>
       <c r="D14" t="n">
-        <v>0.667012</v>
+        <v>0.6607229999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.585197</v>
+        <v>0.585525</v>
       </c>
       <c r="C15" t="n">
-        <v>0.631066</v>
+        <v>0.625629</v>
       </c>
       <c r="D15" t="n">
-        <v>0.647261</v>
+        <v>0.641351</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.571346</v>
+        <v>0.57112</v>
       </c>
       <c r="C16" t="n">
-        <v>0.61138</v>
+        <v>0.6067979999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.629462</v>
+        <v>0.622658</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5584789999999999</v>
+        <v>0.558192</v>
       </c>
       <c r="C17" t="n">
-        <v>0.593906</v>
+        <v>0.589225</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6128749999999999</v>
+        <v>0.605093</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.547447</v>
+        <v>0.546709</v>
       </c>
       <c r="C18" t="n">
-        <v>0.577508</v>
+        <v>0.57283</v>
       </c>
       <c r="D18" t="n">
-        <v>0.596818</v>
+        <v>0.588693</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.536537</v>
+        <v>0.536346</v>
       </c>
       <c r="C19" t="n">
-        <v>0.562169</v>
+        <v>0.557648</v>
       </c>
       <c r="D19" t="n">
-        <v>0.580986</v>
+        <v>0.573755</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.525946</v>
+        <v>0.527544</v>
       </c>
       <c r="C20" t="n">
-        <v>0.548117</v>
+        <v>0.543529</v>
       </c>
       <c r="D20" t="n">
-        <v>0.568549</v>
+        <v>0.559952</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5207580000000001</v>
+        <v>0.520546</v>
       </c>
       <c r="C21" t="n">
-        <v>0.535407</v>
+        <v>0.530565</v>
       </c>
       <c r="D21" t="n">
-        <v>0.557165</v>
+        <v>0.548417</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.516003</v>
+        <v>0.516347</v>
       </c>
       <c r="C22" t="n">
-        <v>0.524191</v>
+        <v>0.520044</v>
       </c>
       <c r="D22" t="n">
-        <v>0.548339</v>
+        <v>0.539403</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5144339999999999</v>
+        <v>0.515614</v>
       </c>
       <c r="C23" t="n">
-        <v>0.515692</v>
+        <v>0.511185</v>
       </c>
       <c r="D23" t="n">
-        <v>0.824864</v>
+        <v>0.81345</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.719159</v>
+        <v>0.71828</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7963710000000001</v>
+        <v>0.789976</v>
       </c>
       <c r="D24" t="n">
-        <v>0.798753</v>
+        <v>0.787113</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.69857</v>
+        <v>0.697322</v>
       </c>
       <c r="C25" t="n">
-        <v>0.769801</v>
+        <v>0.763846</v>
       </c>
       <c r="D25" t="n">
-        <v>0.773164</v>
+        <v>0.761208</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.678441</v>
+        <v>0.67731</v>
       </c>
       <c r="C26" t="n">
-        <v>0.745575</v>
+        <v>0.73929</v>
       </c>
       <c r="D26" t="n">
-        <v>0.748615</v>
+        <v>0.737221</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6588850000000001</v>
+        <v>0.657985</v>
       </c>
       <c r="C27" t="n">
-        <v>0.721688</v>
+        <v>0.715859</v>
       </c>
       <c r="D27" t="n">
-        <v>0.725404</v>
+        <v>0.713689</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.640442</v>
+        <v>0.639973</v>
       </c>
       <c r="C28" t="n">
-        <v>0.698985</v>
+        <v>0.693204</v>
       </c>
       <c r="D28" t="n">
-        <v>0.704033</v>
+        <v>0.691291</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.624015</v>
+        <v>0.62321</v>
       </c>
       <c r="C29" t="n">
-        <v>0.677284</v>
+        <v>0.6711549999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.683283</v>
+        <v>0.670638</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.608258</v>
+        <v>0.608108</v>
       </c>
       <c r="C30" t="n">
-        <v>0.655282</v>
+        <v>0.650782</v>
       </c>
       <c r="D30" t="n">
-        <v>0.662208</v>
+        <v>0.651018</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.593615</v>
+        <v>0.593638</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6369</v>
+        <v>0.631473</v>
       </c>
       <c r="D31" t="n">
-        <v>0.645136</v>
+        <v>0.632931</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.580409</v>
+        <v>0.579583</v>
       </c>
       <c r="C32" t="n">
-        <v>0.619094</v>
+        <v>0.613328</v>
       </c>
       <c r="D32" t="n">
-        <v>0.628205</v>
+        <v>0.615312</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5683049999999999</v>
+        <v>0.567904</v>
       </c>
       <c r="C33" t="n">
-        <v>0.60095</v>
+        <v>0.596544</v>
       </c>
       <c r="D33" t="n">
-        <v>0.612401</v>
+        <v>0.599248</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.558131</v>
+        <v>0.557911</v>
       </c>
       <c r="C34" t="n">
-        <v>0.586587</v>
+        <v>0.580674</v>
       </c>
       <c r="D34" t="n">
-        <v>0.598405</v>
+        <v>0.584764</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.547828</v>
+        <v>0.5490159999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.570483</v>
+        <v>0.565975</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5853930000000001</v>
+        <v>0.5724860000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.543303</v>
+        <v>0.5431319999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.559827</v>
+        <v>0.553389</v>
       </c>
       <c r="D36" t="n">
-        <v>0.574454</v>
+        <v>0.562109</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.538058</v>
+        <v>0.539526</v>
       </c>
       <c r="C37" t="n">
-        <v>0.549893</v>
+        <v>0.543139</v>
       </c>
       <c r="D37" t="n">
-        <v>0.855102</v>
+        <v>0.840428</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.749288</v>
+        <v>0.7486699999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.831588</v>
+        <v>0.824499</v>
       </c>
       <c r="D38" t="n">
-        <v>0.826637</v>
+        <v>0.812907</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.728295</v>
+        <v>0.72731</v>
       </c>
       <c r="C39" t="n">
-        <v>0.805055</v>
+        <v>0.798298</v>
       </c>
       <c r="D39" t="n">
-        <v>0.801447</v>
+        <v>0.786952</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.706996</v>
+        <v>0.706753</v>
       </c>
       <c r="C40" t="n">
-        <v>0.778927</v>
+        <v>0.773145</v>
       </c>
       <c r="D40" t="n">
-        <v>0.77755</v>
+        <v>0.763219</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.687297</v>
+        <v>0.686633</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7549</v>
+        <v>0.747599</v>
       </c>
       <c r="D41" t="n">
-        <v>0.75354</v>
+        <v>0.739002</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.667531</v>
+        <v>0.667777</v>
       </c>
       <c r="C42" t="n">
-        <v>0.730925</v>
+        <v>0.724569</v>
       </c>
       <c r="D42" t="n">
-        <v>0.731706</v>
+        <v>0.717062</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.650953</v>
+        <v>0.650312</v>
       </c>
       <c r="C43" t="n">
-        <v>0.707882</v>
+        <v>0.703189</v>
       </c>
       <c r="D43" t="n">
-        <v>0.709549</v>
+        <v>0.696117</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6324650000000001</v>
+        <v>0.633706</v>
       </c>
       <c r="C44" t="n">
-        <v>0.685759</v>
+        <v>0.681108</v>
       </c>
       <c r="D44" t="n">
-        <v>0.689295</v>
+        <v>0.67576</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.619462</v>
+        <v>0.618671</v>
       </c>
       <c r="C45" t="n">
-        <v>0.667338</v>
+        <v>0.661261</v>
       </c>
       <c r="D45" t="n">
-        <v>0.670724</v>
+        <v>0.657068</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.604683</v>
+        <v>0.604912</v>
       </c>
       <c r="C46" t="n">
-        <v>0.64668</v>
+        <v>0.642259</v>
       </c>
       <c r="D46" t="n">
-        <v>0.654527</v>
+        <v>0.639253</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.592657</v>
+        <v>0.592375</v>
       </c>
       <c r="C47" t="n">
-        <v>0.631013</v>
+        <v>0.624513</v>
       </c>
       <c r="D47" t="n">
-        <v>0.637323</v>
+        <v>0.623278</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.581759</v>
+        <v>0.581089</v>
       </c>
       <c r="C48" t="n">
-        <v>0.613976</v>
+        <v>0.608931</v>
       </c>
       <c r="D48" t="n">
-        <v>0.622001</v>
+        <v>0.607523</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.572855</v>
+        <v>0.570538</v>
       </c>
       <c r="C49" t="n">
-        <v>0.598208</v>
+        <v>0.592395</v>
       </c>
       <c r="D49" t="n">
-        <v>0.609273</v>
+        <v>0.59398</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5653</v>
+        <v>0.563387</v>
       </c>
       <c r="C50" t="n">
-        <v>0.585633</v>
+        <v>0.5795169999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.598637</v>
+        <v>0.582672</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.560577</v>
+        <v>0.56089</v>
       </c>
       <c r="C51" t="n">
-        <v>0.573259</v>
+        <v>0.569056</v>
       </c>
       <c r="D51" t="n">
-        <v>0.885767</v>
+        <v>0.874842</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.560599</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.564628</v>
+        <v>0.558843</v>
       </c>
       <c r="D52" t="n">
-        <v>0.858826</v>
+        <v>0.848635</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.757596</v>
+        <v>0.759729</v>
       </c>
       <c r="C53" t="n">
-        <v>0.836771</v>
+        <v>0.834874</v>
       </c>
       <c r="D53" t="n">
-        <v>0.832786</v>
+        <v>0.822556</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.735942</v>
+        <v>0.7373499999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.810576</v>
+        <v>0.807796</v>
       </c>
       <c r="D54" t="n">
-        <v>0.80675</v>
+        <v>0.794436</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.715531</v>
+        <v>0.718058</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7849</v>
+        <v>0.782717</v>
       </c>
       <c r="D55" t="n">
-        <v>0.783853</v>
+        <v>0.772136</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.697856</v>
+        <v>0.6972660000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.760826</v>
+        <v>0.7560249999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.761127</v>
+        <v>0.747583</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.679025</v>
+        <v>0.679625</v>
       </c>
       <c r="C57" t="n">
-        <v>0.737657</v>
+        <v>0.733617</v>
       </c>
       <c r="D57" t="n">
-        <v>0.738866</v>
+        <v>0.726321</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.661544</v>
+        <v>0.6630239999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.716354</v>
+        <v>0.711446</v>
       </c>
       <c r="D58" t="n">
-        <v>0.720314</v>
+        <v>0.705516</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6465649999999999</v>
+        <v>0.647546</v>
       </c>
       <c r="C59" t="n">
-        <v>0.696226</v>
+        <v>0.691326</v>
       </c>
       <c r="D59" t="n">
-        <v>0.700274</v>
+        <v>0.688312</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.632349</v>
+        <v>0.635482</v>
       </c>
       <c r="C60" t="n">
-        <v>0.676627</v>
+        <v>0.674783</v>
       </c>
       <c r="D60" t="n">
-        <v>0.682705</v>
+        <v>0.671798</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.619402</v>
+        <v>0.625414</v>
       </c>
       <c r="C61" t="n">
-        <v>0.659274</v>
+        <v>0.65696</v>
       </c>
       <c r="D61" t="n">
-        <v>0.666673</v>
+        <v>0.654958</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.608136</v>
+        <v>0.6140600000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.64305</v>
+        <v>0.638536</v>
       </c>
       <c r="D62" t="n">
-        <v>0.651212</v>
+        <v>0.638297</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.598556</v>
+        <v>0.603703</v>
       </c>
       <c r="C63" t="n">
-        <v>0.627308</v>
+        <v>0.623125</v>
       </c>
       <c r="D63" t="n">
-        <v>0.637066</v>
+        <v>0.62331</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.590664</v>
+        <v>0.594709</v>
       </c>
       <c r="C64" t="n">
-        <v>0.611723</v>
+        <v>0.60846</v>
       </c>
       <c r="D64" t="n">
-        <v>0.623957</v>
+        <v>0.611236</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.585474</v>
+        <v>0.589832</v>
       </c>
       <c r="C65" t="n">
-        <v>0.600235</v>
+        <v>0.595544</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6158130000000001</v>
+        <v>0.602484</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.583925</v>
+        <v>0.588332</v>
       </c>
       <c r="C66" t="n">
-        <v>0.592342</v>
+        <v>0.58584</v>
       </c>
       <c r="D66" t="n">
-        <v>0.910176</v>
+        <v>0.90515</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.814482</v>
+        <v>0.821769</v>
       </c>
       <c r="C67" t="n">
-        <v>0.896436</v>
+        <v>0.899393</v>
       </c>
       <c r="D67" t="n">
-        <v>0.883072</v>
+        <v>0.8774380000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.796357</v>
+        <v>0.804765</v>
       </c>
       <c r="C68" t="n">
-        <v>0.868514</v>
+        <v>0.873519</v>
       </c>
       <c r="D68" t="n">
-        <v>0.856576</v>
+        <v>0.851911</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.77703</v>
+        <v>0.784304</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8424469999999999</v>
+        <v>0.844902</v>
       </c>
       <c r="D69" t="n">
-        <v>0.83185</v>
+        <v>0.8243</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.759142</v>
+        <v>0.767576</v>
       </c>
       <c r="C70" t="n">
-        <v>0.816598</v>
+        <v>0.821034</v>
       </c>
       <c r="D70" t="n">
-        <v>0.808692</v>
+        <v>0.802203</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.747559</v>
+        <v>0.753063</v>
       </c>
       <c r="C71" t="n">
-        <v>0.797906</v>
+        <v>0.798404</v>
       </c>
       <c r="D71" t="n">
-        <v>0.792898</v>
+        <v>0.7810780000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.731658</v>
+        <v>0.737228</v>
       </c>
       <c r="C72" t="n">
-        <v>0.777747</v>
+        <v>0.774471</v>
       </c>
       <c r="D72" t="n">
-        <v>0.773454</v>
+        <v>0.7591639999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.718813</v>
+        <v>0.722036</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7576079999999999</v>
+        <v>0.753171</v>
       </c>
       <c r="D73" t="n">
-        <v>0.753345</v>
+        <v>0.7380640000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.70457</v>
+        <v>0.705058</v>
       </c>
       <c r="C74" t="n">
-        <v>0.73867</v>
+        <v>0.7295</v>
       </c>
       <c r="D74" t="n">
-        <v>0.734496</v>
+        <v>0.715932</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.690692</v>
+        <v>0.689432</v>
       </c>
       <c r="C75" t="n">
-        <v>0.717573</v>
+        <v>0.710831</v>
       </c>
       <c r="D75" t="n">
-        <v>0.71615</v>
+        <v>0.703004</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6782629999999999</v>
+        <v>0.6829460000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.697732</v>
+        <v>0.696555</v>
       </c>
       <c r="D76" t="n">
-        <v>0.69747</v>
+        <v>0.685069</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.666123</v>
+        <v>0.670506</v>
       </c>
       <c r="C77" t="n">
-        <v>0.681499</v>
+        <v>0.678386</v>
       </c>
       <c r="D77" t="n">
-        <v>0.683908</v>
+        <v>0.67133</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.655708</v>
+        <v>0.662389</v>
       </c>
       <c r="C78" t="n">
-        <v>0.664991</v>
+        <v>0.663674</v>
       </c>
       <c r="D78" t="n">
-        <v>0.669574</v>
+        <v>0.658213</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.649663</v>
+        <v>0.655594</v>
       </c>
       <c r="C79" t="n">
-        <v>0.652095</v>
+        <v>0.650277</v>
       </c>
       <c r="D79" t="n">
-        <v>0.659857</v>
+        <v>0.646627</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.644905</v>
+        <v>0.647251</v>
       </c>
       <c r="C80" t="n">
-        <v>0.640433</v>
+        <v>0.635993</v>
       </c>
       <c r="D80" t="n">
-        <v>0.988241</v>
+        <v>0.97479</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8922639999999999</v>
+        <v>0.892976</v>
       </c>
       <c r="C81" t="n">
-        <v>0.981544</v>
+        <v>0.978186</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9709680000000001</v>
+        <v>0.959531</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.885284</v>
+        <v>0.88751</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9655820000000001</v>
+        <v>0.9621189999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.951027</v>
+        <v>0.9363860000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.87599</v>
+        <v>0.876348</v>
       </c>
       <c r="C83" t="n">
-        <v>0.946838</v>
+        <v>0.944432</v>
       </c>
       <c r="D83" t="n">
-        <v>0.929335</v>
+        <v>0.9176</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.865273</v>
+        <v>0.86757</v>
       </c>
       <c r="C84" t="n">
-        <v>0.92533</v>
+        <v>0.923839</v>
       </c>
       <c r="D84" t="n">
-        <v>0.907413</v>
+        <v>0.895305</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.852819</v>
+        <v>0.856416</v>
       </c>
       <c r="C85" t="n">
-        <v>0.905432</v>
+        <v>0.903597</v>
       </c>
       <c r="D85" t="n">
-        <v>0.886194</v>
+        <v>0.874969</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8431999999999999</v>
+        <v>0.8466360000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.884456</v>
+        <v>0.882847</v>
       </c>
       <c r="D86" t="n">
-        <v>0.865333</v>
+        <v>0.852994</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.831253</v>
+        <v>0.833619</v>
       </c>
       <c r="C87" t="n">
-        <v>0.86385</v>
+        <v>0.860519</v>
       </c>
       <c r="D87" t="n">
-        <v>0.844451</v>
+        <v>0.832168</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.820251</v>
+        <v>0.822244</v>
       </c>
       <c r="C88" t="n">
-        <v>0.84376</v>
+        <v>0.84087</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8247139999999999</v>
+        <v>0.811424</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.811685</v>
       </c>
       <c r="C89" t="n">
-        <v>0.82599</v>
+        <v>0.823546</v>
       </c>
       <c r="D89" t="n">
-        <v>0.806022</v>
+        <v>0.794947</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.798872</v>
+        <v>0.802438</v>
       </c>
       <c r="C90" t="n">
-        <v>0.806858</v>
+        <v>0.806279</v>
       </c>
       <c r="D90" t="n">
-        <v>0.788063</v>
+        <v>0.7774759999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.789181</v>
+        <v>0.79423</v>
       </c>
       <c r="C91" t="n">
-        <v>0.789984</v>
+        <v>0.788961</v>
       </c>
       <c r="D91" t="n">
-        <v>0.771959</v>
+        <v>0.7611250000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.7814990000000001</v>
+        <v>0.786292</v>
       </c>
       <c r="C92" t="n">
-        <v>0.774501</v>
+        <v>0.773937</v>
       </c>
       <c r="D92" t="n">
-        <v>0.757391</v>
+        <v>0.746872</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.775141</v>
+        <v>0.779744</v>
       </c>
       <c r="C93" t="n">
-        <v>0.760298</v>
+        <v>0.759563</v>
       </c>
       <c r="D93" t="n">
-        <v>0.74491</v>
+        <v>0.734119</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.772563</v>
+        <v>0.775917</v>
       </c>
       <c r="C94" t="n">
-        <v>0.748115</v>
+        <v>0.747689</v>
       </c>
       <c r="D94" t="n">
-        <v>1.08082</v>
+        <v>1.07098</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02438</v>
+        <v>1.02795</v>
       </c>
       <c r="C95" t="n">
-        <v>1.09158</v>
+        <v>1.09179</v>
       </c>
       <c r="D95" t="n">
-        <v>1.06848</v>
+        <v>1.06008</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02417</v>
+        <v>1.02914</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08436</v>
+        <v>1.08533</v>
       </c>
       <c r="D96" t="n">
-        <v>1.05079</v>
+        <v>1.04329</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01475</v>
+        <v>1.01907</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06832</v>
+        <v>1.06839</v>
       </c>
       <c r="D97" t="n">
-        <v>1.03212</v>
+        <v>1.02409</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0039</v>
+        <v>1.00865</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04957</v>
+        <v>1.05036</v>
       </c>
       <c r="D98" t="n">
-        <v>1.01288</v>
+        <v>1.00536</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.993541</v>
+        <v>0.998315</v>
       </c>
       <c r="C99" t="n">
-        <v>1.03193</v>
+        <v>1.03126</v>
       </c>
       <c r="D99" t="n">
-        <v>0.994631</v>
+        <v>0.986135</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.983125</v>
+        <v>0.987563</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01355</v>
+        <v>1.01308</v>
       </c>
       <c r="D100" t="n">
-        <v>0.975286</v>
+        <v>0.968386</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.972705</v>
+        <v>0.978014</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9961370000000001</v>
+        <v>0.996061</v>
       </c>
       <c r="D101" t="n">
-        <v>0.957464</v>
+        <v>0.951054</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.963831</v>
+        <v>0.969414</v>
       </c>
       <c r="C102" t="n">
-        <v>0.980715</v>
+        <v>0.979761</v>
       </c>
       <c r="D102" t="n">
-        <v>0.94098</v>
+        <v>0.933829</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.95594</v>
+        <v>0.960537</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9648409999999999</v>
+        <v>0.963656</v>
       </c>
       <c r="D103" t="n">
-        <v>0.925475</v>
+        <v>0.917745</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9495479999999999</v>
+        <v>0.953646</v>
       </c>
       <c r="C104" t="n">
-        <v>0.950587</v>
+        <v>0.950165</v>
       </c>
       <c r="D104" t="n">
-        <v>0.910734</v>
+        <v>0.903985</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.942989</v>
+        <v>0.947724</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9375250000000001</v>
+        <v>0.93566</v>
       </c>
       <c r="D105" t="n">
-        <v>0.897985</v>
+        <v>0.8899629999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.93885</v>
+        <v>0.942801</v>
       </c>
       <c r="C106" t="n">
-        <v>0.925194</v>
+        <v>0.92328</v>
       </c>
       <c r="D106" t="n">
-        <v>0.885715</v>
+        <v>0.878026</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.93602</v>
+        <v>0.940228</v>
       </c>
       <c r="C107" t="n">
-        <v>0.915396</v>
+        <v>0.912927</v>
       </c>
       <c r="D107" t="n">
-        <v>0.874918</v>
+        <v>0.86772</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.936249</v>
+        <v>0.940226</v>
       </c>
       <c r="C108" t="n">
-        <v>0.906945</v>
+        <v>0.903939</v>
       </c>
       <c r="D108" t="n">
-        <v>1.20982</v>
+        <v>1.20381</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.93968</v>
+        <v>0.943473</v>
       </c>
       <c r="C109" t="n">
-        <v>0.900674</v>
+        <v>0.897159</v>
       </c>
       <c r="D109" t="n">
-        <v>1.19996</v>
+        <v>1.19458</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18517</v>
+        <v>1.18847</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24655</v>
+        <v>1.24413</v>
       </c>
       <c r="D110" t="n">
-        <v>1.18226</v>
+        <v>1.17719</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17383</v>
+        <v>1.17741</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22865</v>
+        <v>1.2266</v>
       </c>
       <c r="D111" t="n">
-        <v>1.16523</v>
+        <v>1.16035</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16101</v>
+        <v>1.16475</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20934</v>
+        <v>1.20813</v>
       </c>
       <c r="D112" t="n">
-        <v>1.14801</v>
+        <v>1.144</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15003</v>
+        <v>1.15308</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19188</v>
+        <v>1.19001</v>
       </c>
       <c r="D113" t="n">
-        <v>1.13216</v>
+        <v>1.1285</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.13938</v>
+        <v>1.14251</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17598</v>
+        <v>1.17362</v>
       </c>
       <c r="D114" t="n">
-        <v>1.117</v>
+        <v>1.11396</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12891</v>
+        <v>1.13268</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15995</v>
+        <v>1.15851</v>
       </c>
       <c r="D115" t="n">
-        <v>1.10358</v>
+        <v>1.10025</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.1197</v>
+        <v>1.12455</v>
       </c>
       <c r="C116" t="n">
-        <v>1.14477</v>
+        <v>1.143</v>
       </c>
       <c r="D116" t="n">
-        <v>1.08941</v>
+        <v>1.08595</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11224</v>
+        <v>1.115</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13149</v>
+        <v>1.12807</v>
       </c>
       <c r="D117" t="n">
-        <v>1.07661</v>
+        <v>1.07331</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.1052</v>
+        <v>1.10838</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11824</v>
+        <v>1.11423</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06569</v>
+        <v>1.06204</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10013</v>
+        <v>1.1027</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10696</v>
+        <v>1.10202</v>
       </c>
       <c r="D119" t="n">
-        <v>1.05452</v>
+        <v>1.05071</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.09585</v>
+        <v>1.09906</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09588</v>
+        <v>1.09212</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04469</v>
+        <v>1.04191</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09353</v>
+        <v>1.09732</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08638</v>
+        <v>1.08206</v>
       </c>
       <c r="D121" t="n">
-        <v>1.03491</v>
+        <v>1.03253</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09403</v>
+        <v>1.09831</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07873</v>
+        <v>1.07413</v>
       </c>
       <c r="D122" t="n">
-        <v>1.02789</v>
+        <v>1.02524</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.09888</v>
+        <v>1.10234</v>
       </c>
       <c r="C123" t="n">
-        <v>1.07285</v>
+        <v>1.06834</v>
       </c>
       <c r="D123" t="n">
-        <v>1.361</v>
+        <v>1.36015</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.34875</v>
+        <v>1.35221</v>
       </c>
       <c r="C124" t="n">
-        <v>1.41983</v>
+        <v>1.41461</v>
       </c>
       <c r="D124" t="n">
-        <v>1.34693</v>
+        <v>1.34627</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.33994</v>
+        <v>1.34314</v>
       </c>
       <c r="C125" t="n">
-        <v>1.40356</v>
+        <v>1.3991</v>
       </c>
       <c r="D125" t="n">
-        <v>1.33518</v>
+        <v>1.33294</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33093</v>
+        <v>1.33318</v>
       </c>
       <c r="C126" t="n">
-        <v>1.38816</v>
+        <v>1.3836</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32341</v>
+        <v>1.322</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32243</v>
+        <v>1.32568</v>
       </c>
       <c r="C127" t="n">
-        <v>1.37307</v>
+        <v>1.36859</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31073</v>
+        <v>1.3107</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31409</v>
+        <v>1.31726</v>
       </c>
       <c r="C128" t="n">
-        <v>1.35877</v>
+        <v>1.3551</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30003</v>
+        <v>1.29983</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.30743</v>
+        <v>1.31072</v>
       </c>
       <c r="C129" t="n">
-        <v>1.34564</v>
+        <v>1.34199</v>
       </c>
       <c r="D129" t="n">
-        <v>1.28952</v>
+        <v>1.28937</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30118</v>
+        <v>1.30411</v>
       </c>
       <c r="C130" t="n">
-        <v>1.33309</v>
+        <v>1.32909</v>
       </c>
       <c r="D130" t="n">
-        <v>1.28033</v>
+        <v>1.27969</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29628</v>
+        <v>1.29948</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32249</v>
+        <v>1.31787</v>
       </c>
       <c r="D131" t="n">
-        <v>1.27209</v>
+        <v>1.27127</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29233</v>
+        <v>1.29499</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31128</v>
+        <v>1.30668</v>
       </c>
       <c r="D132" t="n">
-        <v>1.26309</v>
+        <v>1.26352</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.28953</v>
+        <v>1.29304</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30232</v>
+        <v>1.29908</v>
       </c>
       <c r="D133" t="n">
-        <v>1.25574</v>
+        <v>1.25564</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.28787</v>
+        <v>1.29224</v>
       </c>
       <c r="C134" t="n">
-        <v>1.29331</v>
+        <v>1.28917</v>
       </c>
       <c r="D134" t="n">
-        <v>1.24904</v>
+        <v>1.24827</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.28909</v>
+        <v>1.29199</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28586</v>
+        <v>1.28245</v>
       </c>
       <c r="D135" t="n">
-        <v>1.24234</v>
+        <v>1.24215</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.29036</v>
+        <v>1.29444</v>
       </c>
       <c r="C136" t="n">
-        <v>1.27983</v>
+        <v>1.27606</v>
       </c>
       <c r="D136" t="n">
-        <v>1.23479</v>
+        <v>1.2346</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.29549</v>
+        <v>1.29892</v>
       </c>
       <c r="C137" t="n">
-        <v>1.27513</v>
+        <v>1.26992</v>
       </c>
       <c r="D137" t="n">
-        <v>1.56399</v>
+        <v>1.56487</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54412</v>
+        <v>1.54567</v>
       </c>
       <c r="C138" t="n">
-        <v>1.61856</v>
+        <v>1.6135</v>
       </c>
       <c r="D138" t="n">
-        <v>1.55388</v>
+        <v>1.55437</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53527</v>
+        <v>1.53815</v>
       </c>
       <c r="C139" t="n">
-        <v>1.60379</v>
+        <v>1.59896</v>
       </c>
       <c r="D139" t="n">
-        <v>1.54312</v>
+        <v>1.54326</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.52813</v>
+        <v>1.5318</v>
       </c>
       <c r="C140" t="n">
-        <v>1.59101</v>
+        <v>1.58618</v>
       </c>
       <c r="D140" t="n">
-        <v>1.5339</v>
+        <v>1.53419</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52158</v>
+        <v>1.5254</v>
       </c>
       <c r="C141" t="n">
-        <v>1.57832</v>
+        <v>1.57394</v>
       </c>
       <c r="D141" t="n">
-        <v>1.52496</v>
+        <v>1.52357</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.51613</v>
+        <v>1.51894</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56569</v>
+        <v>1.56233</v>
       </c>
       <c r="D142" t="n">
-        <v>1.51637</v>
+        <v>1.51544</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51094</v>
+        <v>1.51333</v>
       </c>
       <c r="C143" t="n">
-        <v>1.5563</v>
+        <v>1.55204</v>
       </c>
       <c r="D143" t="n">
-        <v>1.50815</v>
+        <v>1.50868</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.577458</v>
+        <v>0.588392</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5976050000000001</v>
+        <v>0.578061</v>
       </c>
       <c r="D2" t="n">
-        <v>0.589997</v>
+        <v>0.5861769999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564624</v>
+        <v>0.578061</v>
       </c>
       <c r="C3" t="n">
-        <v>0.580701</v>
+        <v>0.569098</v>
       </c>
       <c r="D3" t="n">
-        <v>0.57317</v>
+        <v>0.5687680000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.55271</v>
+        <v>0.566535</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5629189999999999</v>
+        <v>0.561445</v>
       </c>
       <c r="D4" t="n">
-        <v>0.557998</v>
+        <v>0.554028</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.542415</v>
+        <v>0.5558340000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.548638</v>
+        <v>0.555183</v>
       </c>
       <c r="D5" t="n">
-        <v>0.544442</v>
+        <v>0.540075</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.534185</v>
+        <v>0.547608</v>
       </c>
       <c r="C6" t="n">
-        <v>0.535005</v>
+        <v>0.550963</v>
       </c>
       <c r="D6" t="n">
-        <v>0.53157</v>
+        <v>0.527983</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5267579999999999</v>
+        <v>0.539991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5225030000000001</v>
+        <v>0.547251</v>
       </c>
       <c r="D7" t="n">
-        <v>0.520438</v>
+        <v>0.517586</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.52412</v>
+        <v>0.535012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.51233</v>
+        <v>0.671211</v>
       </c>
       <c r="D8" t="n">
-        <v>0.513479</v>
+        <v>0.509675</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.524307</v>
+        <v>0.535067</v>
       </c>
       <c r="C9" t="n">
-        <v>0.504315</v>
+        <v>0.652656</v>
       </c>
       <c r="D9" t="n">
-        <v>0.776616</v>
+        <v>0.76756</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.671716</v>
+        <v>0.68352</v>
       </c>
       <c r="C10" t="n">
-        <v>0.734707</v>
+        <v>0.598947</v>
       </c>
       <c r="D10" t="n">
-        <v>0.75109</v>
+        <v>0.742082</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.65285</v>
+        <v>0.66276</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7105939999999999</v>
+        <v>0.576344</v>
       </c>
       <c r="D11" t="n">
-        <v>0.726566</v>
+        <v>0.717915</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.634034</v>
+        <v>0.6437659999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.687462</v>
+        <v>0.562692</v>
       </c>
       <c r="D12" t="n">
-        <v>0.70401</v>
+        <v>0.69541</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.616453</v>
+        <v>0.627622</v>
       </c>
       <c r="C13" t="n">
-        <v>0.665819</v>
+        <v>0.591599</v>
       </c>
       <c r="D13" t="n">
-        <v>0.68193</v>
+        <v>0.6745139999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.600366</v>
+        <v>0.608932</v>
       </c>
       <c r="C14" t="n">
-        <v>0.645003</v>
+        <v>0.581763</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6607229999999999</v>
+        <v>0.653902</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.585525</v>
+        <v>0.593522</v>
       </c>
       <c r="C15" t="n">
-        <v>0.625629</v>
+        <v>0.572284</v>
       </c>
       <c r="D15" t="n">
-        <v>0.641351</v>
+        <v>0.634197</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.57112</v>
+        <v>0.579138</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6067979999999999</v>
+        <v>0.563068</v>
       </c>
       <c r="D16" t="n">
-        <v>0.622658</v>
+        <v>0.616058</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.558192</v>
+        <v>0.566123</v>
       </c>
       <c r="C17" t="n">
-        <v>0.589225</v>
+        <v>0.554177</v>
       </c>
       <c r="D17" t="n">
-        <v>0.605093</v>
+        <v>0.599143</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.546709</v>
+        <v>0.555485</v>
       </c>
       <c r="C18" t="n">
-        <v>0.57283</v>
+        <v>0.550702</v>
       </c>
       <c r="D18" t="n">
-        <v>0.588693</v>
+        <v>0.584581</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.536346</v>
+        <v>0.54437</v>
       </c>
       <c r="C19" t="n">
-        <v>0.557648</v>
+        <v>0.548581</v>
       </c>
       <c r="D19" t="n">
-        <v>0.573755</v>
+        <v>0.570043</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.527544</v>
+        <v>0.534784</v>
       </c>
       <c r="C20" t="n">
-        <v>0.543529</v>
+        <v>0.543055</v>
       </c>
       <c r="D20" t="n">
-        <v>0.559952</v>
+        <v>0.556792</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.520546</v>
+        <v>0.528119</v>
       </c>
       <c r="C21" t="n">
-        <v>0.530565</v>
+        <v>0.540709</v>
       </c>
       <c r="D21" t="n">
-        <v>0.548417</v>
+        <v>0.545162</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.516347</v>
+        <v>0.524352</v>
       </c>
       <c r="C22" t="n">
-        <v>0.520044</v>
+        <v>0.681053</v>
       </c>
       <c r="D22" t="n">
-        <v>0.539403</v>
+        <v>0.53825</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.515614</v>
+        <v>0.523065</v>
       </c>
       <c r="C23" t="n">
-        <v>0.511185</v>
+        <v>0.666489</v>
       </c>
       <c r="D23" t="n">
-        <v>0.81345</v>
+        <v>0.806115</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.71828</v>
+        <v>0.7249370000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.789976</v>
+        <v>0.647832</v>
       </c>
       <c r="D24" t="n">
-        <v>0.787113</v>
+        <v>0.780841</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.697322</v>
+        <v>0.704093</v>
       </c>
       <c r="C25" t="n">
-        <v>0.763846</v>
+        <v>0.631098</v>
       </c>
       <c r="D25" t="n">
-        <v>0.761208</v>
+        <v>0.75565</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.67731</v>
+        <v>0.683285</v>
       </c>
       <c r="C26" t="n">
-        <v>0.73929</v>
+        <v>0.618121</v>
       </c>
       <c r="D26" t="n">
-        <v>0.737221</v>
+        <v>0.7325</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.657985</v>
+        <v>0.664212</v>
       </c>
       <c r="C27" t="n">
-        <v>0.715859</v>
+        <v>0.647387</v>
       </c>
       <c r="D27" t="n">
-        <v>0.713689</v>
+        <v>0.7093429999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.639973</v>
+        <v>0.645954</v>
       </c>
       <c r="C28" t="n">
-        <v>0.693204</v>
+        <v>0.635144</v>
       </c>
       <c r="D28" t="n">
-        <v>0.691291</v>
+        <v>0.688261</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.62321</v>
+        <v>0.6285849999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6711549999999999</v>
+        <v>0.6237</v>
       </c>
       <c r="D29" t="n">
-        <v>0.670638</v>
+        <v>0.667691</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.608108</v>
+        <v>0.61274</v>
       </c>
       <c r="C30" t="n">
-        <v>0.650782</v>
+        <v>0.613789</v>
       </c>
       <c r="D30" t="n">
-        <v>0.651018</v>
+        <v>0.648377</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.593638</v>
+        <v>0.598011</v>
       </c>
       <c r="C31" t="n">
-        <v>0.631473</v>
+        <v>0.605371</v>
       </c>
       <c r="D31" t="n">
-        <v>0.632931</v>
+        <v>0.63027</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.579583</v>
+        <v>0.584498</v>
       </c>
       <c r="C32" t="n">
-        <v>0.613328</v>
+        <v>0.5971649999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.615312</v>
+        <v>0.6132570000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.567904</v>
+        <v>0.5724590000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.596544</v>
+        <v>0.592333</v>
       </c>
       <c r="D33" t="n">
-        <v>0.599248</v>
+        <v>0.597783</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.557911</v>
+        <v>0.562292</v>
       </c>
       <c r="C34" t="n">
-        <v>0.580674</v>
+        <v>0.585436</v>
       </c>
       <c r="D34" t="n">
-        <v>0.584764</v>
+        <v>0.583501</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5490159999999999</v>
+        <v>0.553942</v>
       </c>
       <c r="C35" t="n">
-        <v>0.565975</v>
+        <v>0.582206</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5724860000000001</v>
+        <v>0.571123</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5431319999999999</v>
+        <v>0.547253</v>
       </c>
       <c r="C36" t="n">
-        <v>0.553389</v>
+        <v>0.581051</v>
       </c>
       <c r="D36" t="n">
-        <v>0.562109</v>
+        <v>0.560631</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.539526</v>
+        <v>0.544257</v>
       </c>
       <c r="C37" t="n">
-        <v>0.543139</v>
+        <v>0.746771</v>
       </c>
       <c r="D37" t="n">
-        <v>0.840428</v>
+        <v>0.840619</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7486699999999999</v>
+        <v>0.753033</v>
       </c>
       <c r="C38" t="n">
-        <v>0.824499</v>
+        <v>0.7286859999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.812907</v>
+        <v>0.814415</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.72731</v>
+        <v>0.73194</v>
       </c>
       <c r="C39" t="n">
-        <v>0.798298</v>
+        <v>0.710839</v>
       </c>
       <c r="D39" t="n">
-        <v>0.786952</v>
+        <v>0.788791</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.706753</v>
+        <v>0.710072</v>
       </c>
       <c r="C40" t="n">
-        <v>0.773145</v>
+        <v>0.693808</v>
       </c>
       <c r="D40" t="n">
-        <v>0.763219</v>
+        <v>0.7630670000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.686633</v>
+        <v>0.689819</v>
       </c>
       <c r="C41" t="n">
-        <v>0.747599</v>
+        <v>0.7201880000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.739002</v>
+        <v>0.740185</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.667777</v>
+        <v>0.6711549999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.724569</v>
+        <v>0.704626</v>
       </c>
       <c r="D42" t="n">
-        <v>0.717062</v>
+        <v>0.717589</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.650312</v>
+        <v>0.653184</v>
       </c>
       <c r="C43" t="n">
-        <v>0.703189</v>
+        <v>0.690615</v>
       </c>
       <c r="D43" t="n">
-        <v>0.696117</v>
+        <v>0.696309</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.633706</v>
+        <v>0.636206</v>
       </c>
       <c r="C44" t="n">
-        <v>0.681108</v>
+        <v>0.6773439999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.67576</v>
+        <v>0.677708</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.618671</v>
+        <v>0.621465</v>
       </c>
       <c r="C45" t="n">
-        <v>0.661261</v>
+        <v>0.666256</v>
       </c>
       <c r="D45" t="n">
-        <v>0.657068</v>
+        <v>0.657435</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.604912</v>
+        <v>0.6069</v>
       </c>
       <c r="C46" t="n">
-        <v>0.642259</v>
+        <v>0.655408</v>
       </c>
       <c r="D46" t="n">
-        <v>0.639253</v>
+        <v>0.640884</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.592375</v>
+        <v>0.595172</v>
       </c>
       <c r="C47" t="n">
-        <v>0.624513</v>
+        <v>0.646258</v>
       </c>
       <c r="D47" t="n">
-        <v>0.623278</v>
+        <v>0.6236</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.581089</v>
+        <v>0.583782</v>
       </c>
       <c r="C48" t="n">
-        <v>0.608931</v>
+        <v>0.639084</v>
       </c>
       <c r="D48" t="n">
-        <v>0.607523</v>
+        <v>0.607824</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.570538</v>
+        <v>0.57339</v>
       </c>
       <c r="C49" t="n">
-        <v>0.592395</v>
+        <v>0.634276</v>
       </c>
       <c r="D49" t="n">
-        <v>0.59398</v>
+        <v>0.595641</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.563387</v>
+        <v>0.567367</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5795169999999999</v>
+        <v>0.631616</v>
       </c>
       <c r="D50" t="n">
-        <v>0.582672</v>
+        <v>0.584744</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.56089</v>
+        <v>0.562666</v>
       </c>
       <c r="C51" t="n">
-        <v>0.569056</v>
+        <v>0.840013</v>
       </c>
       <c r="D51" t="n">
-        <v>0.874842</v>
+        <v>0.895548</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.561572</v>
       </c>
       <c r="C52" t="n">
-        <v>0.558843</v>
+        <v>0.816201</v>
       </c>
       <c r="D52" t="n">
-        <v>0.848635</v>
+        <v>0.867241</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.759729</v>
+        <v>0.758061</v>
       </c>
       <c r="C53" t="n">
-        <v>0.834874</v>
+        <v>0.793645</v>
       </c>
       <c r="D53" t="n">
-        <v>0.822556</v>
+        <v>0.838813</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7373499999999999</v>
+        <v>0.736131</v>
       </c>
       <c r="C54" t="n">
-        <v>0.807796</v>
+        <v>0.773382</v>
       </c>
       <c r="D54" t="n">
-        <v>0.794436</v>
+        <v>0.814094</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.718058</v>
+        <v>0.716633</v>
       </c>
       <c r="C55" t="n">
-        <v>0.782717</v>
+        <v>0.75431</v>
       </c>
       <c r="D55" t="n">
-        <v>0.772136</v>
+        <v>0.790172</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6972660000000001</v>
+        <v>0.69776</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7560249999999999</v>
+        <v>0.782641</v>
       </c>
       <c r="D56" t="n">
-        <v>0.747583</v>
+        <v>0.768868</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.679625</v>
+        <v>0.68214</v>
       </c>
       <c r="C57" t="n">
-        <v>0.733617</v>
+        <v>0.767764</v>
       </c>
       <c r="D57" t="n">
-        <v>0.726321</v>
+        <v>0.748325</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6630239999999999</v>
+        <v>0.6671319999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.711446</v>
+        <v>0.753945</v>
       </c>
       <c r="D58" t="n">
-        <v>0.705516</v>
+        <v>0.725633</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.647546</v>
+        <v>0.651159</v>
       </c>
       <c r="C59" t="n">
-        <v>0.691326</v>
+        <v>0.737946</v>
       </c>
       <c r="D59" t="n">
-        <v>0.688312</v>
+        <v>0.707166</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.635482</v>
+        <v>0.637799</v>
       </c>
       <c r="C60" t="n">
-        <v>0.674783</v>
+        <v>0.721063</v>
       </c>
       <c r="D60" t="n">
-        <v>0.671798</v>
+        <v>0.685588</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.625414</v>
+        <v>0.623363</v>
       </c>
       <c r="C61" t="n">
-        <v>0.65696</v>
+        <v>0.712858</v>
       </c>
       <c r="D61" t="n">
-        <v>0.654958</v>
+        <v>0.671586</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6140600000000001</v>
+        <v>0.613915</v>
       </c>
       <c r="C62" t="n">
-        <v>0.638536</v>
+        <v>0.702633</v>
       </c>
       <c r="D62" t="n">
-        <v>0.638297</v>
+        <v>0.6553330000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.603703</v>
+        <v>0.605257</v>
       </c>
       <c r="C63" t="n">
-        <v>0.623125</v>
+        <v>0.6955170000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.62331</v>
+        <v>0.642002</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.594709</v>
+        <v>0.597839</v>
       </c>
       <c r="C64" t="n">
-        <v>0.60846</v>
+        <v>0.690169</v>
       </c>
       <c r="D64" t="n">
-        <v>0.611236</v>
+        <v>0.628283</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.589832</v>
+        <v>0.588535</v>
       </c>
       <c r="C65" t="n">
-        <v>0.595544</v>
+        <v>0.944287</v>
       </c>
       <c r="D65" t="n">
-        <v>0.602484</v>
+        <v>0.617881</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.588332</v>
+        <v>0.587306</v>
       </c>
       <c r="C66" t="n">
-        <v>0.58584</v>
+        <v>0.919703</v>
       </c>
       <c r="D66" t="n">
-        <v>0.90515</v>
+        <v>0.93552</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.821769</v>
+        <v>0.813273</v>
       </c>
       <c r="C67" t="n">
-        <v>0.899393</v>
+        <v>0.890442</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8774380000000001</v>
+        <v>0.904608</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.804765</v>
+        <v>0.792476</v>
       </c>
       <c r="C68" t="n">
-        <v>0.873519</v>
+        <v>0.865556</v>
       </c>
       <c r="D68" t="n">
-        <v>0.851911</v>
+        <v>0.87448</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.784304</v>
+        <v>0.773479</v>
       </c>
       <c r="C69" t="n">
-        <v>0.844902</v>
+        <v>0.842693</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8243</v>
+        <v>0.8524890000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.767576</v>
+        <v>0.756749</v>
       </c>
       <c r="C70" t="n">
-        <v>0.821034</v>
+        <v>0.8763300000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.802203</v>
+        <v>0.8314589999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.753063</v>
+        <v>0.74338</v>
       </c>
       <c r="C71" t="n">
-        <v>0.798404</v>
+        <v>0.857564</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7810780000000001</v>
+        <v>0.8083630000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.737228</v>
+        <v>0.727159</v>
       </c>
       <c r="C72" t="n">
-        <v>0.774471</v>
+        <v>0.838927</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7591639999999999</v>
+        <v>0.783802</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.722036</v>
+        <v>0.712699</v>
       </c>
       <c r="C73" t="n">
-        <v>0.753171</v>
+        <v>0.820566</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7380640000000001</v>
+        <v>0.76515</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.705058</v>
+        <v>0.698748</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7295</v>
+        <v>0.803946</v>
       </c>
       <c r="D74" t="n">
-        <v>0.715932</v>
+        <v>0.744722</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.689432</v>
+        <v>0.682611</v>
       </c>
       <c r="C75" t="n">
-        <v>0.710831</v>
+        <v>0.786946</v>
       </c>
       <c r="D75" t="n">
-        <v>0.703004</v>
+        <v>0.72495</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6829460000000001</v>
+        <v>0.673085</v>
       </c>
       <c r="C76" t="n">
-        <v>0.696555</v>
+        <v>0.775715</v>
       </c>
       <c r="D76" t="n">
-        <v>0.685069</v>
+        <v>0.710129</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.670506</v>
+        <v>0.66134</v>
       </c>
       <c r="C77" t="n">
-        <v>0.678386</v>
+        <v>0.764219</v>
       </c>
       <c r="D77" t="n">
-        <v>0.67133</v>
+        <v>0.692662</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.662389</v>
+        <v>0.651831</v>
       </c>
       <c r="C78" t="n">
-        <v>0.663674</v>
+        <v>0.754055</v>
       </c>
       <c r="D78" t="n">
-        <v>0.658213</v>
+        <v>0.679399</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.655594</v>
+        <v>0.64417</v>
       </c>
       <c r="C79" t="n">
-        <v>0.650277</v>
+        <v>1.04701</v>
       </c>
       <c r="D79" t="n">
-        <v>0.646627</v>
+        <v>0.668184</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.647251</v>
+        <v>0.640435</v>
       </c>
       <c r="C80" t="n">
-        <v>0.635993</v>
+        <v>1.01444</v>
       </c>
       <c r="D80" t="n">
-        <v>0.97479</v>
+        <v>1.016</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.892976</v>
+        <v>0.886701</v>
       </c>
       <c r="C81" t="n">
-        <v>0.978186</v>
+        <v>0.984698</v>
       </c>
       <c r="D81" t="n">
-        <v>0.959531</v>
+        <v>0.995752</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.88751</v>
+        <v>0.881393</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9621189999999999</v>
+        <v>0.957242</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9363860000000001</v>
+        <v>0.976232</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.876348</v>
+        <v>0.871799</v>
       </c>
       <c r="C83" t="n">
-        <v>0.944432</v>
+        <v>0.933404</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9176</v>
+        <v>0.951612</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.86757</v>
+        <v>0.860375</v>
       </c>
       <c r="C84" t="n">
-        <v>0.923839</v>
+        <v>0.981092</v>
       </c>
       <c r="D84" t="n">
-        <v>0.895305</v>
+        <v>0.933065</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.856416</v>
+        <v>0.852496</v>
       </c>
       <c r="C85" t="n">
-        <v>0.903597</v>
+        <v>0.972623</v>
       </c>
       <c r="D85" t="n">
-        <v>0.874969</v>
+        <v>0.912323</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8466360000000001</v>
+        <v>0.842689</v>
       </c>
       <c r="C86" t="n">
-        <v>0.882847</v>
+        <v>0.957848</v>
       </c>
       <c r="D86" t="n">
-        <v>0.852994</v>
+        <v>0.889756</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.833619</v>
+        <v>0.8319800000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.860519</v>
+        <v>0.935728</v>
       </c>
       <c r="D87" t="n">
-        <v>0.832168</v>
+        <v>0.867883</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.822244</v>
+        <v>0.8207</v>
       </c>
       <c r="C88" t="n">
-        <v>0.84087</v>
+        <v>0.917803</v>
       </c>
       <c r="D88" t="n">
-        <v>0.811424</v>
+        <v>0.846949</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.811685</v>
+        <v>0.809768</v>
       </c>
       <c r="C89" t="n">
-        <v>0.823546</v>
+        <v>0.899896</v>
       </c>
       <c r="D89" t="n">
-        <v>0.794947</v>
+        <v>0.826728</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.802438</v>
+        <v>0.799431</v>
       </c>
       <c r="C90" t="n">
-        <v>0.806279</v>
+        <v>0.882825</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7774759999999999</v>
+        <v>0.808106</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.79423</v>
+        <v>0.78916</v>
       </c>
       <c r="C91" t="n">
-        <v>0.788961</v>
+        <v>0.867502</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7611250000000001</v>
+        <v>0.788618</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.786292</v>
+        <v>0.782325</v>
       </c>
       <c r="C92" t="n">
-        <v>0.773937</v>
+        <v>0.854955</v>
       </c>
       <c r="D92" t="n">
-        <v>0.746872</v>
+        <v>0.772714</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.779744</v>
+        <v>0.772394</v>
       </c>
       <c r="C93" t="n">
-        <v>0.759563</v>
+        <v>0.845326</v>
       </c>
       <c r="D93" t="n">
-        <v>0.734119</v>
+        <v>0.761991</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.775917</v>
+        <v>0.772657</v>
       </c>
       <c r="C94" t="n">
-        <v>0.747689</v>
+        <v>1.21762</v>
       </c>
       <c r="D94" t="n">
-        <v>1.07098</v>
+        <v>1.11054</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02795</v>
+        <v>1.02555</v>
       </c>
       <c r="C95" t="n">
-        <v>1.09179</v>
+        <v>1.1909</v>
       </c>
       <c r="D95" t="n">
-        <v>1.06008</v>
+        <v>1.1009</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02914</v>
+        <v>1.02474</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08533</v>
+        <v>1.15904</v>
       </c>
       <c r="D96" t="n">
-        <v>1.04329</v>
+        <v>1.08511</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01907</v>
+        <v>1.01515</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06839</v>
+        <v>1.13394</v>
       </c>
       <c r="D97" t="n">
-        <v>1.02409</v>
+        <v>1.06396</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00865</v>
+        <v>1.0056</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05036</v>
+        <v>1.17369</v>
       </c>
       <c r="D98" t="n">
-        <v>1.00536</v>
+        <v>1.04153</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.998315</v>
+        <v>0.99358</v>
       </c>
       <c r="C99" t="n">
-        <v>1.03126</v>
+        <v>1.1549</v>
       </c>
       <c r="D99" t="n">
-        <v>0.986135</v>
+        <v>1.01778</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.987563</v>
+        <v>0.983616</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01308</v>
+        <v>1.13487</v>
       </c>
       <c r="D100" t="n">
-        <v>0.968386</v>
+        <v>0.996089</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.978014</v>
+        <v>0.974612</v>
       </c>
       <c r="C101" t="n">
-        <v>0.996061</v>
+        <v>1.10968</v>
       </c>
       <c r="D101" t="n">
-        <v>0.951054</v>
+        <v>0.977376</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.969414</v>
+        <v>0.966882</v>
       </c>
       <c r="C102" t="n">
-        <v>0.979761</v>
+        <v>1.09571</v>
       </c>
       <c r="D102" t="n">
-        <v>0.933829</v>
+        <v>0.959903</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.960537</v>
+        <v>0.958468</v>
       </c>
       <c r="C103" t="n">
-        <v>0.963656</v>
+        <v>1.07901</v>
       </c>
       <c r="D103" t="n">
-        <v>0.917745</v>
+        <v>0.943066</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.953646</v>
+        <v>0.95137</v>
       </c>
       <c r="C104" t="n">
-        <v>0.950165</v>
+        <v>1.06214</v>
       </c>
       <c r="D104" t="n">
-        <v>0.903985</v>
+        <v>0.927211</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.947724</v>
+        <v>0.945541</v>
       </c>
       <c r="C105" t="n">
-        <v>0.93566</v>
+        <v>1.04908</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8899629999999999</v>
+        <v>0.9144679999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.942801</v>
+        <v>0.941453</v>
       </c>
       <c r="C106" t="n">
-        <v>0.92328</v>
+        <v>1.03427</v>
       </c>
       <c r="D106" t="n">
-        <v>0.878026</v>
+        <v>0.901204</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.940228</v>
+        <v>0.940576</v>
       </c>
       <c r="C107" t="n">
-        <v>0.912927</v>
+        <v>1.02288</v>
       </c>
       <c r="D107" t="n">
-        <v>0.86772</v>
+        <v>0.891945</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.940226</v>
+        <v>0.939706</v>
       </c>
       <c r="C108" t="n">
-        <v>0.903939</v>
+        <v>1.49455</v>
       </c>
       <c r="D108" t="n">
-        <v>1.20381</v>
+        <v>1.24593</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.943473</v>
+        <v>0.9440460000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.897159</v>
+        <v>1.47929</v>
       </c>
       <c r="D109" t="n">
-        <v>1.19458</v>
+        <v>1.2301</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18847</v>
+        <v>1.18592</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24413</v>
+        <v>1.44348</v>
       </c>
       <c r="D110" t="n">
-        <v>1.17719</v>
+        <v>1.21699</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17741</v>
+        <v>1.1754</v>
       </c>
       <c r="C111" t="n">
-        <v>1.2266</v>
+        <v>1.41559</v>
       </c>
       <c r="D111" t="n">
-        <v>1.16035</v>
+        <v>1.19543</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16475</v>
+        <v>1.16452</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20813</v>
+        <v>1.43459</v>
       </c>
       <c r="D112" t="n">
-        <v>1.144</v>
+        <v>1.18093</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15308</v>
+        <v>1.15277</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19001</v>
+        <v>1.41957</v>
       </c>
       <c r="D113" t="n">
-        <v>1.1285</v>
+        <v>1.16246</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14251</v>
+        <v>1.14206</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17362</v>
+        <v>1.38101</v>
       </c>
       <c r="D114" t="n">
-        <v>1.11396</v>
+        <v>1.14046</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13268</v>
+        <v>1.13231</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15851</v>
+        <v>1.36153</v>
       </c>
       <c r="D115" t="n">
-        <v>1.10025</v>
+        <v>1.12812</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12455</v>
+        <v>1.12383</v>
       </c>
       <c r="C116" t="n">
-        <v>1.143</v>
+        <v>1.3369</v>
       </c>
       <c r="D116" t="n">
-        <v>1.08595</v>
+        <v>1.11133</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.115</v>
+        <v>1.11702</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12807</v>
+        <v>1.32412</v>
       </c>
       <c r="D117" t="n">
-        <v>1.07331</v>
+        <v>1.09789</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10838</v>
+        <v>1.11069</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11423</v>
+        <v>1.30931</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06204</v>
+        <v>1.08512</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.1027</v>
+        <v>1.10455</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10202</v>
+        <v>1.29444</v>
       </c>
       <c r="D119" t="n">
-        <v>1.05071</v>
+        <v>1.08034</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.09906</v>
+        <v>1.10102</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09212</v>
+        <v>1.29306</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04191</v>
+        <v>1.06587</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09732</v>
+        <v>1.09952</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08206</v>
+        <v>1.28766</v>
       </c>
       <c r="D121" t="n">
-        <v>1.03253</v>
+        <v>1.05203</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09831</v>
+        <v>1.1</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07413</v>
+        <v>1.83749</v>
       </c>
       <c r="D122" t="n">
-        <v>1.02524</v>
+        <v>1.04812</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10234</v>
+        <v>1.10486</v>
       </c>
       <c r="C123" t="n">
-        <v>1.06834</v>
+        <v>1.79528</v>
       </c>
       <c r="D123" t="n">
-        <v>1.36015</v>
+        <v>1.39966</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35221</v>
+        <v>1.35193</v>
       </c>
       <c r="C124" t="n">
-        <v>1.41461</v>
+        <v>1.74262</v>
       </c>
       <c r="D124" t="n">
-        <v>1.34627</v>
+        <v>1.38562</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.34314</v>
+        <v>1.34305</v>
       </c>
       <c r="C125" t="n">
-        <v>1.3991</v>
+        <v>1.70259</v>
       </c>
       <c r="D125" t="n">
-        <v>1.33294</v>
+        <v>1.37211</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33318</v>
+        <v>1.33342</v>
       </c>
       <c r="C126" t="n">
-        <v>1.3836</v>
+        <v>1.66822</v>
       </c>
       <c r="D126" t="n">
-        <v>1.322</v>
+        <v>1.35802</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32568</v>
+        <v>1.32573</v>
       </c>
       <c r="C127" t="n">
-        <v>1.36859</v>
+        <v>1.68817</v>
       </c>
       <c r="D127" t="n">
-        <v>1.3107</v>
+        <v>1.34433</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31726</v>
+        <v>1.31933</v>
       </c>
       <c r="C128" t="n">
-        <v>1.3551</v>
+        <v>1.64828</v>
       </c>
       <c r="D128" t="n">
-        <v>1.29983</v>
+        <v>1.33313</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31072</v>
+        <v>1.31222</v>
       </c>
       <c r="C129" t="n">
-        <v>1.34199</v>
+        <v>1.61326</v>
       </c>
       <c r="D129" t="n">
-        <v>1.28937</v>
+        <v>1.3214</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30411</v>
+        <v>1.3061</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32909</v>
+        <v>1.58518</v>
       </c>
       <c r="D130" t="n">
-        <v>1.27969</v>
+        <v>1.3039</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29948</v>
+        <v>1.30159</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31787</v>
+        <v>1.56667</v>
       </c>
       <c r="D131" t="n">
-        <v>1.27127</v>
+        <v>1.29311</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29499</v>
+        <v>1.29741</v>
       </c>
       <c r="C132" t="n">
-        <v>1.30668</v>
+        <v>1.53775</v>
       </c>
       <c r="D132" t="n">
-        <v>1.26352</v>
+        <v>1.291</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29304</v>
+        <v>1.29547</v>
       </c>
       <c r="C133" t="n">
-        <v>1.29908</v>
+        <v>1.52652</v>
       </c>
       <c r="D133" t="n">
-        <v>1.25564</v>
+        <v>1.28381</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.29224</v>
+        <v>1.29487</v>
       </c>
       <c r="C134" t="n">
-        <v>1.28917</v>
+        <v>1.52323</v>
       </c>
       <c r="D134" t="n">
-        <v>1.24827</v>
+        <v>1.27484</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.29199</v>
+        <v>1.2952</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28245</v>
+        <v>1.50602</v>
       </c>
       <c r="D135" t="n">
-        <v>1.24215</v>
+        <v>1.2689</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.29444</v>
+        <v>1.2977</v>
       </c>
       <c r="C136" t="n">
-        <v>1.27606</v>
+        <v>2.09981</v>
       </c>
       <c r="D136" t="n">
-        <v>1.2346</v>
+        <v>1.26004</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.29892</v>
+        <v>1.30289</v>
       </c>
       <c r="C137" t="n">
-        <v>1.26992</v>
+        <v>2.04564</v>
       </c>
       <c r="D137" t="n">
-        <v>1.56487</v>
+        <v>1.60949</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54567</v>
+        <v>1.54762</v>
       </c>
       <c r="C138" t="n">
-        <v>1.6135</v>
+        <v>1.98992</v>
       </c>
       <c r="D138" t="n">
-        <v>1.55437</v>
+        <v>1.59193</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53815</v>
+        <v>1.54132</v>
       </c>
       <c r="C139" t="n">
-        <v>1.59896</v>
+        <v>1.94095</v>
       </c>
       <c r="D139" t="n">
-        <v>1.54326</v>
+        <v>1.58158</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.5318</v>
+        <v>1.53478</v>
       </c>
       <c r="C140" t="n">
-        <v>1.58618</v>
+        <v>1.89362</v>
       </c>
       <c r="D140" t="n">
-        <v>1.53419</v>
+        <v>1.57203</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.5254</v>
+        <v>1.52937</v>
       </c>
       <c r="C141" t="n">
-        <v>1.57394</v>
+        <v>1.90344</v>
       </c>
       <c r="D141" t="n">
-        <v>1.52357</v>
+        <v>1.56001</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.51894</v>
+        <v>1.5231</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56233</v>
+        <v>1.85693</v>
       </c>
       <c r="D142" t="n">
-        <v>1.51544</v>
+        <v>1.54825</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51333</v>
+        <v>1.5167</v>
       </c>
       <c r="C143" t="n">
-        <v>1.55204</v>
+        <v>1.82071</v>
       </c>
       <c r="D143" t="n">
-        <v>1.50868</v>
+        <v>1.54028</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.176173</v>
+                  <v>0.158876</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.170454</v>
+                  <v>0.161214</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.16664</v>
+                  <v>0.155941</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.162842</v>
+                  <v>0.151916</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.15949</v>
+                  <v>0.150106</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.157601</v>
+                  <v>0.148802</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.157526</v>
+                  <v>0.149237</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.158158</v>
+                  <v>0.140723</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224312</v>
+                  <v>0.210905</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216303</v>
+                  <v>0.198261</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20828</v>
+                  <v>0.204428</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.199434</v>
+                  <v>0.196456</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.192234</v>
+                  <v>0.177931</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186342</v>
+                  <v>0.176255</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.179839</v>
+                  <v>0.170107</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174481</v>
+                  <v>0.163874</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.169736</v>
+                  <v>0.159725</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164781</v>
+                  <v>0.157348</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.161275</v>
+                  <v>0.151874</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1601</v>
+                  <v>0.152381</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.160533</v>
+                  <v>0.154995</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.161606</v>
+                  <v>0.157347</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244449</v>
+                  <v>0.237559</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234816</v>
+                  <v>0.220873</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.226429</v>
+                  <v>0.214475</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.217678</v>
+                  <v>0.206091</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.209945</v>
+                  <v>0.197067</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.203289</v>
+                  <v>0.192214</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196451</v>
+                  <v>0.184954</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190226</v>
+                  <v>0.184717</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187762</v>
+                  <v>0.176078</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.183073</v>
+                  <v>0.170965</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.179351</v>
+                  <v>0.169165</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.174756</v>
+                  <v>0.168637</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.174169</v>
+                  <v>0.167198</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.174738</v>
+                  <v>0.163541</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.249169</v>
+                  <v>0.241383</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.239482</v>
+                  <v>0.233404</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.230602</v>
+                  <v>0.225761</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218626</v>
+                  <v>0.217497</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210872</v>
+                  <v>0.207765</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203724</v>
+                  <v>0.200795</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196883</v>
+                  <v>0.19468</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.191412</v>
+                  <v>0.189512</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.18555</v>
+                  <v>0.183938</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.181005</v>
+                  <v>0.179517</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.177226</v>
+                  <v>0.17516</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174961</v>
+                  <v>0.172927</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173021</v>
+                  <v>0.171961</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173452</v>
+                  <v>0.17438</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.17753</v>
+                  <v>0.178211</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.24268</v>
+                  <v>0.245341</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233963</v>
+                  <v>0.23579</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.2252</v>
+                  <v>0.227579</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.217991</v>
+                  <v>0.219406</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.209943</v>
+                  <v>0.211736</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.203009</v>
+                  <v>0.205172</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.196908</v>
+                  <v>0.196218</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.191258</v>
+                  <v>0.190791</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.18607</v>
+                  <v>0.18588</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182011</v>
+                  <v>0.181958</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178467</v>
+                  <v>0.178817</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177595</v>
+                  <v>0.177214</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177299</v>
+                  <v>0.177436</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180167</v>
+                  <v>0.17996</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244646</v>
+                  <v>0.245532</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235989</v>
+                  <v>0.236902</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228156</v>
+                  <v>0.228132</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220387</v>
+                  <v>0.219607</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212482</v>
+                  <v>0.213187</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205975</v>
+                  <v>0.206148</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200613</v>
+                  <v>0.200273</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.194739</v>
+                  <v>0.195172</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.189617</v>
+                  <v>0.189341</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184908</v>
+                  <v>0.185412</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181292</v>
+                  <v>0.181546</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178826</v>
+                  <v>0.180116</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179163</v>
+                  <v>0.179348</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.181138</v>
+                  <v>0.182272</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257644</v>
+                  <v>0.259263</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.249569</v>
+                  <v>0.251205</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.241893</v>
+                  <v>0.2435</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.234751</v>
+                  <v>0.235615</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.226978</v>
+                  <v>0.228388</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219799</v>
+                  <v>0.221376</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213375</v>
+                  <v>0.214945</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207166</v>
+                  <v>0.208247</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201474</v>
+                  <v>0.202942</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19677</v>
+                  <v>0.197737</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192537</v>
+                  <v>0.193751</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189582</v>
+                  <v>0.190759</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188357</v>
+                  <v>0.189849</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18918</v>
+                  <v>0.190332</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.26912</v>
+                  <v>0.278685</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263515</v>
+                  <v>0.272544</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258001</v>
+                  <v>0.265182</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251707</v>
+                  <v>0.258313</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.244324</v>
+                  <v>0.251306</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.237919</v>
+                  <v>0.244968</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232212</v>
+                  <v>0.238935</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227439</v>
+                  <v>0.23311</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221821</v>
+                  <v>0.227571</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217357</v>
+                  <v>0.223329</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213424</v>
+                  <v>0.218763</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210226</v>
+                  <v>0.215284</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.207964</v>
+                  <v>0.213046</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207921</v>
+                  <v>0.212911</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209559</v>
+                  <v>0.214607</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.283981</v>
+                  <v>0.288817</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277131</v>
+                  <v>0.28218</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.270794</v>
+                  <v>0.275825</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.264867</v>
+                  <v>0.269577</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259794</v>
+                  <v>0.263923</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.253954</v>
+                  <v>0.258708</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.24921</v>
+                  <v>0.253064</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.244865</v>
+                  <v>0.248715</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.240339</v>
+                  <v>0.24411</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.236998</v>
+                  <v>0.240326</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.233953</v>
+                  <v>0.237178</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231224</v>
+                  <v>0.234517</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.230513</v>
+                  <v>0.236811</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.231737</v>
+                  <v>0.234526</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319243</v>
+                  <v>0.318667</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.313506</v>
+                  <v>0.312584</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.307885</v>
+                  <v>0.306993</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.302012</v>
+                  <v>0.301362</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.296555</v>
+                  <v>0.296711</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291959</v>
+                  <v>0.29159</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.287332</v>
+                  <v>0.287093</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.283552</v>
+                  <v>0.283405</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.279594</v>
+                  <v>0.280238</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.276526</v>
+                  <v>0.275407</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.273541</v>
+                  <v>0.272868</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.271458</v>
+                  <v>0.270697</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.271185</v>
+                  <v>0.270941</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.271892</v>
+                  <v>0.277476</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.37228</v>
+                  <v>0.379316</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.367218</v>
+                  <v>0.373187</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.360389</v>
+                  <v>0.366806</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.354692</v>
+                  <v>0.362246</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.350179</v>
+                  <v>0.356714</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.345269</v>
+                  <v>0.352186</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185496</v>
+                  <v>0.242276</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17914</v>
+                  <v>0.245317</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.170524</v>
+                  <v>0.238347</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.169499</v>
+                  <v>0.248739</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.149657</v>
+                  <v>0.239565</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.161619</v>
+                  <v>0.253177</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160816</v>
+                  <v>0.303239</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.161312</v>
+                  <v>0.293143</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.237105</v>
+                  <v>0.289925</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225645</v>
+                  <v>0.280454</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217736</v>
+                  <v>0.280751</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210439</v>
+                  <v>0.276354</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.202388</v>
+                  <v>0.277223</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.195072</v>
+                  <v>0.275769</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.188701</v>
+                  <v>0.267259</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.182715</v>
+                  <v>0.271819</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.178189</v>
+                  <v>0.267378</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.173444</v>
+                  <v>0.26539</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.169013</v>
+                  <v>0.275272</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.16628</v>
+                  <v>0.277668</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.16432</v>
+                  <v>0.335169</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164868</v>
+                  <v>0.328025</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244335</v>
+                  <v>0.317668</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234904</v>
+                  <v>0.310287</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227016</v>
+                  <v>0.303702</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218274</v>
+                  <v>0.315946</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211272</v>
+                  <v>0.318479</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.204111</v>
+                  <v>0.309369</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196912</v>
+                  <v>0.300635</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190547</v>
+                  <v>0.306206</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187527</v>
+                  <v>0.303272</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.182838</v>
+                  <v>0.301406</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.180848</v>
+                  <v>0.300323</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.17426</v>
+                  <v>0.302527</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.172159</v>
+                  <v>0.303998</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171778</v>
+                  <v>0.355212</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.256269</v>
+                  <v>0.348006</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.246739</v>
+                  <v>0.341682</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.23547</v>
+                  <v>0.330945</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225397</v>
+                  <v>0.33383</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.217593</v>
+                  <v>0.3284</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.209907</v>
+                  <v>0.322896</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.202922</v>
+                  <v>0.319092</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.196554</v>
+                  <v>0.315296</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.190564</v>
+                  <v>0.311465</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.185285</v>
+                  <v>0.310595</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.180769</v>
+                  <v>0.311461</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.177066</v>
+                  <v>0.312306</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.174203</v>
+                  <v>0.315883</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173722</v>
+                  <v>0.376165</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.175298</v>
+                  <v>0.366457</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.251635</v>
+                  <v>0.356919</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.242034</v>
+                  <v>0.348636</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.233004</v>
+                  <v>0.34225</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.225257</v>
+                  <v>0.349186</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217553</v>
+                  <v>0.342571</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.209839</v>
+                  <v>0.338049</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.202907</v>
+                  <v>0.330812</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.197025</v>
+                  <v>0.328029</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.1914</v>
+                  <v>0.325825</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.186386</v>
+                  <v>0.325188</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.182207</v>
+                  <v>0.326234</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.179104</v>
+                  <v>0.328388</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177727</v>
+                  <v>0.394765</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178898</v>
+                  <v>0.383521</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.260092</v>
+                  <v>0.373421</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.251907</v>
+                  <v>0.363382</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.241291</v>
+                  <v>0.355342</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.232729</v>
+                  <v>0.359583</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224656</v>
+                  <v>0.353516</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216811</v>
+                  <v>0.347095</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.20989</v>
+                  <v>0.343045</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.203254</v>
+                  <v>0.33957</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.19737</v>
+                  <v>0.335342</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.192268</v>
+                  <v>0.335714</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.187689</v>
+                  <v>0.335851</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.184139</v>
+                  <v>0.337831</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.182458</v>
+                  <v>0.417771</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.182405</v>
+                  <v>0.409385</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.263051</v>
+                  <v>0.398219</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.254497</v>
+                  <v>0.388863</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245979</v>
+                  <v>0.379638</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.237991</v>
+                  <v>0.380784</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.229829</v>
+                  <v>0.374844</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222655</v>
+                  <v>0.367629</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215492</v>
+                  <v>0.363659</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208861</v>
+                  <v>0.35982</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.202819</v>
+                  <v>0.357441</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197551</v>
+                  <v>0.354621</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.19288</v>
+                  <v>0.35597</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189225</v>
+                  <v>0.35806</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.186981</v>
+                  <v>0.361104</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18652</v>
+                  <v>0.460271</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.279398</v>
+                  <v>0.448516</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.272839</v>
+                  <v>0.438966</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.265664</v>
+                  <v>0.429595</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.25832</v>
+                  <v>0.431839</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.251327</v>
+                  <v>0.425911</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.243832</v>
+                  <v>0.419946</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.237699</v>
+                  <v>0.415513</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.231533</v>
+                  <v>0.412338</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.225275</v>
+                  <v>0.411588</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.221074</v>
+                  <v>0.411164</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.215871</v>
+                  <v>0.414228</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212823</v>
+                  <v>0.419344</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.211155</v>
+                  <v>0.42665</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.210494</v>
+                  <v>0.549334</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.212712</v>
+                  <v>0.536852</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.296635</v>
+                  <v>0.524792</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.289079</v>
+                  <v>0.514422</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.281344</v>
+                  <v>0.515606</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.274607</v>
+                  <v>0.507982</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.268304</v>
+                  <v>0.500902</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.26231</v>
+                  <v>0.494814</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256897</v>
+                  <v>0.491499</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.251768</v>
+                  <v>0.491159</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.247624</v>
+                  <v>0.493968</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.243795</v>
+                  <v>0.501803</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.240537</v>
+                  <v>0.513307</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.237909</v>
+                  <v>0.528149</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237154</v>
+                  <v>0.676284</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.238699</v>
+                  <v>0.6586689999999999</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.324651</v>
+                  <v>0.643774</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.318184</v>
+                  <v>0.629144</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.312519</v>
+                  <v>0.61551</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.307125</v>
+                  <v>0.6149019999999999</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.302006</v>
+                  <v>0.603787</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.29769</v>
+                  <v>0.595767</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.293184</v>
+                  <v>0.582529</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28978</v>
+                  <v>0.582479</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.286402</v>
+                  <v>0.583156</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.283895</v>
+                  <v>0.592506</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.281675</v>
+                  <v>0.60753</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.280269</v>
+                  <v>0.626672</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.280711</v>
+                  <v>0.798616</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.282617</v>
+                  <v>0.778193</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.382259</v>
+                  <v>0.757042</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37477</v>
+                  <v>0.73654</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.368197</v>
+                  <v>0.720079</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.362373</v>
+                  <v>0.718014</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.35649</v>
+                  <v>0.70311</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.35135</v>
+                  <v>0.691505</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.177535</v>
+                  <v>0.146893</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17311</v>
+                  <v>0.131691</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.162867</v>
+                  <v>0.137036</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.164279</v>
+                  <v>0.131842</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.160258</v>
+                  <v>0.125616</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149896</v>
+                  <v>0.121087</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.158577</v>
+                  <v>0.121584</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.234336</v>
+                  <v>0.194024</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224925</v>
+                  <v>0.184754</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216883</v>
+                  <v>0.180606</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20972</v>
+                  <v>0.174134</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.201848</v>
+                  <v>0.171019</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194494</v>
+                  <v>0.162719</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.187921</v>
+                  <v>0.155949</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.182167</v>
+                  <v>0.152252</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.177316</v>
+                  <v>0.149936</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.171691</v>
+                  <v>0.140064</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.168023</v>
+                  <v>0.137412</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165471</v>
+                  <v>0.136896</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.163669</v>
+                  <v>0.131549</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163704</v>
+                  <v>0.138279</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.242678</v>
+                  <v>0.226752</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235687</v>
+                  <v>0.217993</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.22455</v>
+                  <v>0.211366</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.218977</v>
+                  <v>0.201647</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.21035</v>
+                  <v>0.195417</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.203212</v>
+                  <v>0.187558</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.195416</v>
+                  <v>0.176767</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.188549</v>
+                  <v>0.17144</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.18509</v>
+                  <v>0.162653</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182046</v>
+                  <v>0.158209</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179224</v>
+                  <v>0.156432</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.177848</v>
+                  <v>0.152501</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.173541</v>
+                  <v>0.149703</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.169102</v>
+                  <v>0.148753</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.254042</v>
+                  <v>0.227069</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.259149</v>
+                  <v>0.217668</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236306</v>
+                  <v>0.209495</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.222767</v>
+                  <v>0.201759</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.216405</v>
+                  <v>0.194217</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.208142</v>
+                  <v>0.18695</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.201677</v>
+                  <v>0.180087</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.195548</v>
+                  <v>0.173936</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.189056</v>
+                  <v>0.168134</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.182624</v>
+                  <v>0.163137</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.178156</v>
+                  <v>0.158203</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.174608</v>
+                  <v>0.154742</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.171633</v>
+                  <v>0.152434</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.170934</v>
+                  <v>0.152332</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.255758</v>
+                  <v>0.239051</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.247302</v>
+                  <v>0.229893</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.23943</v>
+                  <v>0.220943</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.22978</v>
+                  <v>0.212713</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.220805</v>
+                  <v>0.204206</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.213086</v>
+                  <v>0.196844</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.206423</v>
+                  <v>0.189546</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.199202</v>
+                  <v>0.182825</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.193161</v>
+                  <v>0.174747</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.188345</v>
+                  <v>0.168998</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.183701</v>
+                  <v>0.164893</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.179105</v>
+                  <v>0.160717</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.175983</v>
+                  <v>0.158017</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.175207</v>
+                  <v>0.156965</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176868</v>
+                  <v>0.158007</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.255168</v>
+                  <v>0.235105</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.245687</v>
+                  <v>0.226133</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235894</v>
+                  <v>0.217421</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228449</v>
+                  <v>0.209352</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220252</v>
+                  <v>0.201509</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212395</v>
+                  <v>0.194248</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205789</v>
+                  <v>0.187578</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.198979</v>
+                  <v>0.18116</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.193168</v>
+                  <v>0.175182</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.187939</v>
+                  <v>0.170499</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183439</v>
+                  <v>0.166167</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.179541</v>
+                  <v>0.163124</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.179061</v>
+                  <v>0.161408</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179082</v>
+                  <v>0.162135</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.259911</v>
+                  <v>0.239824</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251563</v>
+                  <v>0.231207</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.242857</v>
+                  <v>0.223021</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.234493</v>
+                  <v>0.214563</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.226465</v>
+                  <v>0.207392</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218893</v>
+                  <v>0.199601</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.211566</v>
+                  <v>0.192903</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.20522</v>
+                  <v>0.18693</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.199014</v>
+                  <v>0.18099</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.193511</v>
+                  <v>0.175736</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.189531</v>
+                  <v>0.171048</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.185885</v>
+                  <v>0.167716</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.18375</v>
+                  <v>0.16583</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183845</v>
+                  <v>0.165434</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.278244</v>
+                  <v>0.268553</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271679</v>
+                  <v>0.260033</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265508</v>
+                  <v>0.252128</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.256713</v>
+                  <v>0.243344</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.249207</v>
+                  <v>0.235396</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24149</v>
+                  <v>0.227774</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.235856</v>
+                  <v>0.220711</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228715</v>
+                  <v>0.214081</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.223444</v>
+                  <v>0.20743</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.218043</v>
+                  <v>0.201386</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213537</v>
+                  <v>0.1967</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210039</v>
+                  <v>0.192345</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.208195</v>
+                  <v>0.189046</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208204</v>
+                  <v>0.18825</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.304461</v>
+                  <v>0.27939</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.297571</v>
+                  <v>0.272222</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.287177</v>
+                  <v>0.264317</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.279271</v>
+                  <v>0.255839</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.273178</v>
+                  <v>0.248083</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266397</v>
+                  <v>0.241457</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260727</v>
+                  <v>0.234387</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255738</v>
+                  <v>0.227987</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250645</v>
+                  <v>0.22155</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245993</v>
+                  <v>0.216636</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241963</v>
+                  <v>0.212065</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.238673</v>
+                  <v>0.207207</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.236356</v>
+                  <v>0.204174</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.235818</v>
+                  <v>0.20283</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237864</v>
+                  <v>0.203562</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.32462</v>
+                  <v>0.289005</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319055</v>
+                  <v>0.281919</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.314235</v>
+                  <v>0.27536</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.309144</v>
+                  <v>0.269401</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.304711</v>
+                  <v>0.264112</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.300168</v>
+                  <v>0.25879</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.296269</v>
+                  <v>0.254136</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.292886</v>
+                  <v>0.252103</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.289318</v>
+                  <v>0.247631</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.287032</v>
+                  <v>0.243658</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.285057</v>
+                  <v>0.240053</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.283504</v>
+                  <v>0.237326</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.284257</v>
+                  <v>0.236049</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.286675</v>
+                  <v>0.234281</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.386674</v>
+                  <v>0.33018</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.379899</v>
+                  <v>0.324289</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37323</v>
+                  <v>0.318664</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.367346</v>
+                  <v>0.312845</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.361801</v>
+                  <v>0.30874</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.356534</v>
+                  <v>0.303599</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.351406</v>
+                  <v>0.299485</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.577458</v>
+        <v>0.576319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5976050000000001</v>
+        <v>0.596445</v>
       </c>
       <c r="D2" t="n">
-        <v>0.589997</v>
+        <v>0.587151</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564624</v>
+        <v>0.564096</v>
       </c>
       <c r="C3" t="n">
-        <v>0.580701</v>
+        <v>0.578647</v>
       </c>
       <c r="D3" t="n">
-        <v>0.57317</v>
+        <v>0.57064</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.55271</v>
+        <v>0.552254</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5629189999999999</v>
+        <v>0.5621350000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.557998</v>
+        <v>0.555299</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.542415</v>
+        <v>0.542288</v>
       </c>
       <c r="C5" t="n">
-        <v>0.548638</v>
+        <v>0.546841</v>
       </c>
       <c r="D5" t="n">
-        <v>0.544442</v>
+        <v>0.54217</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.534185</v>
+        <v>0.534487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.535005</v>
+        <v>0.533421</v>
       </c>
       <c r="D6" t="n">
-        <v>0.53157</v>
+        <v>0.529203</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5267579999999999</v>
+        <v>0.528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5225030000000001</v>
+        <v>0.520504</v>
       </c>
       <c r="D7" t="n">
-        <v>0.520438</v>
+        <v>0.518716</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.52412</v>
+        <v>0.525182</v>
       </c>
       <c r="C8" t="n">
-        <v>0.51233</v>
+        <v>0.510049</v>
       </c>
       <c r="D8" t="n">
-        <v>0.513479</v>
+        <v>0.511348</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.524307</v>
+        <v>0.525516</v>
       </c>
       <c r="C9" t="n">
-        <v>0.504315</v>
+        <v>0.5014960000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.776616</v>
+        <v>0.7732329999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.671716</v>
+        <v>0.672838</v>
       </c>
       <c r="C10" t="n">
-        <v>0.734707</v>
+        <v>0.731975</v>
       </c>
       <c r="D10" t="n">
-        <v>0.75109</v>
+        <v>0.74837</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.65285</v>
+        <v>0.654493</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7105939999999999</v>
+        <v>0.708199</v>
       </c>
       <c r="D11" t="n">
-        <v>0.726566</v>
+        <v>0.7244620000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.634034</v>
+        <v>0.635277</v>
       </c>
       <c r="C12" t="n">
-        <v>0.687462</v>
+        <v>0.685532</v>
       </c>
       <c r="D12" t="n">
-        <v>0.70401</v>
+        <v>0.701032</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.616453</v>
+        <v>0.617627</v>
       </c>
       <c r="C13" t="n">
-        <v>0.665819</v>
+        <v>0.66379</v>
       </c>
       <c r="D13" t="n">
-        <v>0.68193</v>
+        <v>0.679229</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.600366</v>
+        <v>0.601529</v>
       </c>
       <c r="C14" t="n">
-        <v>0.645003</v>
+        <v>0.642662</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6607229999999999</v>
+        <v>0.658339</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.585525</v>
+        <v>0.58646</v>
       </c>
       <c r="C15" t="n">
-        <v>0.625629</v>
+        <v>0.623282</v>
       </c>
       <c r="D15" t="n">
-        <v>0.641351</v>
+        <v>0.639191</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.57112</v>
+        <v>0.571845</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6067979999999999</v>
+        <v>0.604877</v>
       </c>
       <c r="D16" t="n">
-        <v>0.622658</v>
+        <v>0.620358</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.558192</v>
+        <v>0.55888</v>
       </c>
       <c r="C17" t="n">
-        <v>0.589225</v>
+        <v>0.587306</v>
       </c>
       <c r="D17" t="n">
-        <v>0.605093</v>
+        <v>0.6026280000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.546709</v>
+        <v>0.54788</v>
       </c>
       <c r="C18" t="n">
-        <v>0.57283</v>
+        <v>0.570897</v>
       </c>
       <c r="D18" t="n">
-        <v>0.588693</v>
+        <v>0.586966</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.536346</v>
+        <v>0.537168</v>
       </c>
       <c r="C19" t="n">
-        <v>0.557648</v>
+        <v>0.555716</v>
       </c>
       <c r="D19" t="n">
-        <v>0.573755</v>
+        <v>0.571984</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.527544</v>
+        <v>0.52827</v>
       </c>
       <c r="C20" t="n">
-        <v>0.543529</v>
+        <v>0.541353</v>
       </c>
       <c r="D20" t="n">
-        <v>0.559952</v>
+        <v>0.558786</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.520546</v>
+        <v>0.5214530000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.530565</v>
+        <v>0.52851</v>
       </c>
       <c r="D21" t="n">
-        <v>0.548417</v>
+        <v>0.547126</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.516347</v>
+        <v>0.5174</v>
       </c>
       <c r="C22" t="n">
-        <v>0.520044</v>
+        <v>0.517714</v>
       </c>
       <c r="D22" t="n">
-        <v>0.539403</v>
+        <v>0.539436</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.515614</v>
+        <v>0.517227</v>
       </c>
       <c r="C23" t="n">
-        <v>0.511185</v>
+        <v>0.509099</v>
       </c>
       <c r="D23" t="n">
-        <v>0.81345</v>
+        <v>0.81241</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.71828</v>
+        <v>0.720479</v>
       </c>
       <c r="C24" t="n">
-        <v>0.789976</v>
+        <v>0.787285</v>
       </c>
       <c r="D24" t="n">
-        <v>0.787113</v>
+        <v>0.7851399999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.697322</v>
+        <v>0.701945</v>
       </c>
       <c r="C25" t="n">
-        <v>0.763846</v>
+        <v>0.761467</v>
       </c>
       <c r="D25" t="n">
-        <v>0.761208</v>
+        <v>0.759934</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.67731</v>
+        <v>0.679214</v>
       </c>
       <c r="C26" t="n">
-        <v>0.73929</v>
+        <v>0.736809</v>
       </c>
       <c r="D26" t="n">
-        <v>0.737221</v>
+        <v>0.736717</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.657985</v>
+        <v>0.659979</v>
       </c>
       <c r="C27" t="n">
-        <v>0.715859</v>
+        <v>0.712645</v>
       </c>
       <c r="D27" t="n">
-        <v>0.713689</v>
+        <v>0.71343</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.639973</v>
+        <v>0.642118</v>
       </c>
       <c r="C28" t="n">
-        <v>0.693204</v>
+        <v>0.690572</v>
       </c>
       <c r="D28" t="n">
-        <v>0.691291</v>
+        <v>0.690948</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.62321</v>
+        <v>0.625339</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6711549999999999</v>
+        <v>0.669058</v>
       </c>
       <c r="D29" t="n">
-        <v>0.670638</v>
+        <v>0.669656</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.608108</v>
+        <v>0.609294</v>
       </c>
       <c r="C30" t="n">
-        <v>0.650782</v>
+        <v>0.648493</v>
       </c>
       <c r="D30" t="n">
-        <v>0.651018</v>
+        <v>0.650729</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.593638</v>
+        <v>0.594889</v>
       </c>
       <c r="C31" t="n">
-        <v>0.631473</v>
+        <v>0.629231</v>
       </c>
       <c r="D31" t="n">
-        <v>0.632931</v>
+        <v>0.632288</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.579583</v>
+        <v>0.581522</v>
       </c>
       <c r="C32" t="n">
-        <v>0.613328</v>
+        <v>0.610172</v>
       </c>
       <c r="D32" t="n">
-        <v>0.615312</v>
+        <v>0.614073</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.567904</v>
+        <v>0.569721</v>
       </c>
       <c r="C33" t="n">
-        <v>0.596544</v>
+        <v>0.594116</v>
       </c>
       <c r="D33" t="n">
-        <v>0.599248</v>
+        <v>0.597382</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.557911</v>
+        <v>0.559497</v>
       </c>
       <c r="C34" t="n">
-        <v>0.580674</v>
+        <v>0.577612</v>
       </c>
       <c r="D34" t="n">
-        <v>0.584764</v>
+        <v>0.584139</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5490159999999999</v>
+        <v>0.55078</v>
       </c>
       <c r="C35" t="n">
-        <v>0.565975</v>
+        <v>0.564436</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5724860000000001</v>
+        <v>0.571241</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5431319999999999</v>
+        <v>0.544552</v>
       </c>
       <c r="C36" t="n">
-        <v>0.553389</v>
+        <v>0.550309</v>
       </c>
       <c r="D36" t="n">
-        <v>0.562109</v>
+        <v>0.5618919999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.539526</v>
+        <v>0.541789</v>
       </c>
       <c r="C37" t="n">
-        <v>0.543139</v>
+        <v>0.540581</v>
       </c>
       <c r="D37" t="n">
-        <v>0.840428</v>
+        <v>0.84199</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7486699999999999</v>
+        <v>0.75134</v>
       </c>
       <c r="C38" t="n">
-        <v>0.824499</v>
+        <v>0.821646</v>
       </c>
       <c r="D38" t="n">
-        <v>0.812907</v>
+        <v>0.814228</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.72731</v>
+        <v>0.728456</v>
       </c>
       <c r="C39" t="n">
-        <v>0.798298</v>
+        <v>0.796462</v>
       </c>
       <c r="D39" t="n">
-        <v>0.786952</v>
+        <v>0.788243</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.706753</v>
+        <v>0.708973</v>
       </c>
       <c r="C40" t="n">
-        <v>0.773145</v>
+        <v>0.769335</v>
       </c>
       <c r="D40" t="n">
-        <v>0.763219</v>
+        <v>0.7630940000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.686633</v>
+        <v>0.688681</v>
       </c>
       <c r="C41" t="n">
-        <v>0.747599</v>
+        <v>0.745202</v>
       </c>
       <c r="D41" t="n">
-        <v>0.739002</v>
+        <v>0.738792</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.667777</v>
+        <v>0.6697959999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.724569</v>
+        <v>0.7201379999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.717062</v>
+        <v>0.7157790000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.650312</v>
+        <v>0.651956</v>
       </c>
       <c r="C43" t="n">
-        <v>0.703189</v>
+        <v>0.699172</v>
       </c>
       <c r="D43" t="n">
-        <v>0.696117</v>
+        <v>0.6947179999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.633706</v>
+        <v>0.635629</v>
       </c>
       <c r="C44" t="n">
-        <v>0.681108</v>
+        <v>0.676685</v>
       </c>
       <c r="D44" t="n">
-        <v>0.67576</v>
+        <v>0.674613</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.618671</v>
+        <v>0.6206159999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.661261</v>
+        <v>0.657626</v>
       </c>
       <c r="D45" t="n">
-        <v>0.657068</v>
+        <v>0.655204</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.604912</v>
+        <v>0.605758</v>
       </c>
       <c r="C46" t="n">
-        <v>0.642259</v>
+        <v>0.639252</v>
       </c>
       <c r="D46" t="n">
-        <v>0.639253</v>
+        <v>0.638736</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.592375</v>
+        <v>0.5933890000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.624513</v>
+        <v>0.620216</v>
       </c>
       <c r="D47" t="n">
-        <v>0.623278</v>
+        <v>0.621463</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.581089</v>
+        <v>0.582959</v>
       </c>
       <c r="C48" t="n">
-        <v>0.608931</v>
+        <v>0.605337</v>
       </c>
       <c r="D48" t="n">
-        <v>0.607523</v>
+        <v>0.606786</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.570538</v>
+        <v>0.572854</v>
       </c>
       <c r="C49" t="n">
-        <v>0.592395</v>
+        <v>0.588939</v>
       </c>
       <c r="D49" t="n">
-        <v>0.59398</v>
+        <v>0.593654</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.563387</v>
+        <v>0.565887</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5795169999999999</v>
+        <v>0.576909</v>
       </c>
       <c r="D50" t="n">
-        <v>0.582672</v>
+        <v>0.582067</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.56089</v>
+        <v>0.562881</v>
       </c>
       <c r="C51" t="n">
-        <v>0.569056</v>
+        <v>0.563625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.874842</v>
+        <v>0.86716</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.561844</v>
       </c>
       <c r="C52" t="n">
-        <v>0.558843</v>
+        <v>0.556707</v>
       </c>
       <c r="D52" t="n">
-        <v>0.848635</v>
+        <v>0.84067</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.759729</v>
+        <v>0.7579320000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.834874</v>
+        <v>0.825882</v>
       </c>
       <c r="D53" t="n">
-        <v>0.822556</v>
+        <v>0.814304</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7373499999999999</v>
+        <v>0.736592</v>
       </c>
       <c r="C54" t="n">
-        <v>0.807796</v>
+        <v>0.799712</v>
       </c>
       <c r="D54" t="n">
-        <v>0.794436</v>
+        <v>0.7900239999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.718058</v>
+        <v>0.7168330000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.782717</v>
+        <v>0.77502</v>
       </c>
       <c r="D55" t="n">
-        <v>0.772136</v>
+        <v>0.766736</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6972660000000001</v>
+        <v>0.697738</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7560249999999999</v>
+        <v>0.751091</v>
       </c>
       <c r="D56" t="n">
-        <v>0.747583</v>
+        <v>0.744008</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.679625</v>
+        <v>0.680246</v>
       </c>
       <c r="C57" t="n">
-        <v>0.733617</v>
+        <v>0.729013</v>
       </c>
       <c r="D57" t="n">
-        <v>0.726321</v>
+        <v>0.723041</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6630239999999999</v>
+        <v>0.6639620000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.711446</v>
+        <v>0.708148</v>
       </c>
       <c r="D58" t="n">
-        <v>0.705516</v>
+        <v>0.703912</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.647546</v>
+        <v>0.648473</v>
       </c>
       <c r="C59" t="n">
-        <v>0.691326</v>
+        <v>0.688731</v>
       </c>
       <c r="D59" t="n">
-        <v>0.688312</v>
+        <v>0.6852470000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.635482</v>
+        <v>0.635134</v>
       </c>
       <c r="C60" t="n">
-        <v>0.674783</v>
+        <v>0.669431</v>
       </c>
       <c r="D60" t="n">
-        <v>0.671798</v>
+        <v>0.66712</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.625414</v>
+        <v>0.621393</v>
       </c>
       <c r="C61" t="n">
-        <v>0.65696</v>
+        <v>0.650336</v>
       </c>
       <c r="D61" t="n">
-        <v>0.654958</v>
+        <v>0.649406</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6140600000000001</v>
+        <v>0.609527</v>
       </c>
       <c r="C62" t="n">
-        <v>0.638536</v>
+        <v>0.63412</v>
       </c>
       <c r="D62" t="n">
-        <v>0.638297</v>
+        <v>0.634881</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.603703</v>
+        <v>0.599422</v>
       </c>
       <c r="C63" t="n">
-        <v>0.623125</v>
+        <v>0.6203610000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.62331</v>
+        <v>0.620848</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.594709</v>
+        <v>0.5918600000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.60846</v>
+        <v>0.605064</v>
       </c>
       <c r="D64" t="n">
-        <v>0.611236</v>
+        <v>0.609057</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.589832</v>
+        <v>0.587495</v>
       </c>
       <c r="C65" t="n">
-        <v>0.595544</v>
+        <v>0.593145</v>
       </c>
       <c r="D65" t="n">
-        <v>0.602484</v>
+        <v>0.599849</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.588332</v>
+        <v>0.585942</v>
       </c>
       <c r="C66" t="n">
-        <v>0.58584</v>
+        <v>0.583364</v>
       </c>
       <c r="D66" t="n">
-        <v>0.90515</v>
+        <v>0.896741</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.821769</v>
+        <v>0.8174940000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.899393</v>
+        <v>0.8907929999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8774380000000001</v>
+        <v>0.869635</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.804765</v>
+        <v>0.799071</v>
       </c>
       <c r="C68" t="n">
-        <v>0.873519</v>
+        <v>0.864771</v>
       </c>
       <c r="D68" t="n">
-        <v>0.851911</v>
+        <v>0.844061</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.784304</v>
+        <v>0.7813059999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.844902</v>
+        <v>0.841971</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8243</v>
+        <v>0.823026</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.767576</v>
+        <v>0.766797</v>
       </c>
       <c r="C70" t="n">
-        <v>0.821034</v>
+        <v>0.816766</v>
       </c>
       <c r="D70" t="n">
-        <v>0.802203</v>
+        <v>0.798976</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.753063</v>
+        <v>0.7471</v>
       </c>
       <c r="C71" t="n">
-        <v>0.798404</v>
+        <v>0.788851</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7810780000000001</v>
+        <v>0.770891</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.737228</v>
+        <v>0.727867</v>
       </c>
       <c r="C72" t="n">
-        <v>0.774471</v>
+        <v>0.764077</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7591639999999999</v>
+        <v>0.749268</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.722036</v>
+        <v>0.7131</v>
       </c>
       <c r="C73" t="n">
-        <v>0.753171</v>
+        <v>0.741962</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7380640000000001</v>
+        <v>0.728959</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.705058</v>
+        <v>0.6978760000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7295</v>
+        <v>0.720927</v>
       </c>
       <c r="D74" t="n">
-        <v>0.715932</v>
+        <v>0.710944</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.689432</v>
+        <v>0.68713</v>
       </c>
       <c r="C75" t="n">
-        <v>0.710831</v>
+        <v>0.704035</v>
       </c>
       <c r="D75" t="n">
-        <v>0.703004</v>
+        <v>0.694154</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6829460000000001</v>
+        <v>0.674154</v>
       </c>
       <c r="C76" t="n">
-        <v>0.696555</v>
+        <v>0.686863</v>
       </c>
       <c r="D76" t="n">
-        <v>0.685069</v>
+        <v>0.677781</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.670506</v>
+        <v>0.662364</v>
       </c>
       <c r="C77" t="n">
-        <v>0.678386</v>
+        <v>0.669307</v>
       </c>
       <c r="D77" t="n">
-        <v>0.67133</v>
+        <v>0.663782</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.662389</v>
+        <v>0.656635</v>
       </c>
       <c r="C78" t="n">
-        <v>0.663674</v>
+        <v>0.654941</v>
       </c>
       <c r="D78" t="n">
-        <v>0.658213</v>
+        <v>0.65106</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.655594</v>
+        <v>0.648678</v>
       </c>
       <c r="C79" t="n">
-        <v>0.650277</v>
+        <v>0.645348</v>
       </c>
       <c r="D79" t="n">
-        <v>0.646627</v>
+        <v>0.645486</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.647251</v>
+        <v>0.650093</v>
       </c>
       <c r="C80" t="n">
-        <v>0.635993</v>
+        <v>0.63545</v>
       </c>
       <c r="D80" t="n">
-        <v>0.97479</v>
+        <v>0.973737</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.892976</v>
+        <v>0.895437</v>
       </c>
       <c r="C81" t="n">
-        <v>0.978186</v>
+        <v>0.97312</v>
       </c>
       <c r="D81" t="n">
-        <v>0.959531</v>
+        <v>0.954714</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.88751</v>
+        <v>0.887327</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9621189999999999</v>
+        <v>0.957025</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9363860000000001</v>
+        <v>0.9351159999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.876348</v>
+        <v>0.877963</v>
       </c>
       <c r="C83" t="n">
-        <v>0.944432</v>
+        <v>0.938096</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9176</v>
+        <v>0.913754</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.86757</v>
+        <v>0.867327</v>
       </c>
       <c r="C84" t="n">
-        <v>0.923839</v>
+        <v>0.917992</v>
       </c>
       <c r="D84" t="n">
-        <v>0.895305</v>
+        <v>0.892756</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.856416</v>
+        <v>0.856177</v>
       </c>
       <c r="C85" t="n">
-        <v>0.903597</v>
+        <v>0.8974220000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.874969</v>
+        <v>0.8723</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8466360000000001</v>
+        <v>0.844726</v>
       </c>
       <c r="C86" t="n">
-        <v>0.882847</v>
+        <v>0.877354</v>
       </c>
       <c r="D86" t="n">
-        <v>0.852994</v>
+        <v>0.850848</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.833619</v>
+        <v>0.833945</v>
       </c>
       <c r="C87" t="n">
-        <v>0.860519</v>
+        <v>0.856838</v>
       </c>
       <c r="D87" t="n">
-        <v>0.832168</v>
+        <v>0.830493</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.822244</v>
+        <v>0.822805</v>
       </c>
       <c r="C88" t="n">
-        <v>0.84087</v>
+        <v>0.837936</v>
       </c>
       <c r="D88" t="n">
-        <v>0.811424</v>
+        <v>0.8111120000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.811685</v>
+        <v>0.811163</v>
       </c>
       <c r="C89" t="n">
-        <v>0.823546</v>
+        <v>0.817235</v>
       </c>
       <c r="D89" t="n">
-        <v>0.794947</v>
+        <v>0.791743</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.802438</v>
+        <v>0.800978</v>
       </c>
       <c r="C90" t="n">
-        <v>0.806279</v>
+        <v>0.800079</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7774759999999999</v>
+        <v>0.774235</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.79423</v>
+        <v>0.791214</v>
       </c>
       <c r="C91" t="n">
-        <v>0.788961</v>
+        <v>0.782649</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7611250000000001</v>
+        <v>0.757445</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.786292</v>
+        <v>0.783292</v>
       </c>
       <c r="C92" t="n">
-        <v>0.773937</v>
+        <v>0.767187</v>
       </c>
       <c r="D92" t="n">
-        <v>0.746872</v>
+        <v>0.742496</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.779744</v>
+        <v>0.7770089999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.759563</v>
+        <v>0.7536310000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.734119</v>
+        <v>0.729973</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.775917</v>
+        <v>0.774318</v>
       </c>
       <c r="C94" t="n">
-        <v>0.747689</v>
+        <v>0.740961</v>
       </c>
       <c r="D94" t="n">
-        <v>1.07098</v>
+        <v>1.06413</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02795</v>
+        <v>1.02361</v>
       </c>
       <c r="C95" t="n">
-        <v>1.09179</v>
+        <v>1.08126</v>
       </c>
       <c r="D95" t="n">
-        <v>1.06008</v>
+        <v>1.0513</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02914</v>
+        <v>1.02396</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08533</v>
+        <v>1.07414</v>
       </c>
       <c r="D96" t="n">
-        <v>1.04329</v>
+        <v>1.03434</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01907</v>
+        <v>1.01386</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06839</v>
+        <v>1.05704</v>
       </c>
       <c r="D97" t="n">
-        <v>1.02409</v>
+        <v>1.01622</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00865</v>
+        <v>1.00332</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05036</v>
+        <v>1.03859</v>
       </c>
       <c r="D98" t="n">
-        <v>1.00536</v>
+        <v>0.996665</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.998315</v>
+        <v>0.993552</v>
       </c>
       <c r="C99" t="n">
-        <v>1.03126</v>
+        <v>1.02128</v>
       </c>
       <c r="D99" t="n">
-        <v>0.986135</v>
+        <v>0.9795970000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.987563</v>
+        <v>0.983142</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01308</v>
+        <v>1.00443</v>
       </c>
       <c r="D100" t="n">
-        <v>0.968386</v>
+        <v>0.962086</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.978014</v>
+        <v>0.973718</v>
       </c>
       <c r="C101" t="n">
-        <v>0.996061</v>
+        <v>0.987024</v>
       </c>
       <c r="D101" t="n">
-        <v>0.951054</v>
+        <v>0.944912</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.969414</v>
+        <v>0.965266</v>
       </c>
       <c r="C102" t="n">
-        <v>0.979761</v>
+        <v>0.9726129999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.933829</v>
+        <v>0.928633</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.960537</v>
+        <v>0.956578</v>
       </c>
       <c r="C103" t="n">
-        <v>0.963656</v>
+        <v>0.9558720000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.917745</v>
+        <v>0.912297</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.953646</v>
+        <v>0.950183</v>
       </c>
       <c r="C104" t="n">
-        <v>0.950165</v>
+        <v>0.941475</v>
       </c>
       <c r="D104" t="n">
-        <v>0.903985</v>
+        <v>0.899327</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.947724</v>
+        <v>0.9446560000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.93566</v>
+        <v>0.930167</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8899629999999999</v>
+        <v>0.886594</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.942801</v>
+        <v>0.94037</v>
       </c>
       <c r="C106" t="n">
-        <v>0.92328</v>
+        <v>0.917447</v>
       </c>
       <c r="D106" t="n">
-        <v>0.878026</v>
+        <v>0.873479</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.940228</v>
+        <v>0.937927</v>
       </c>
       <c r="C107" t="n">
-        <v>0.912927</v>
+        <v>0.907703</v>
       </c>
       <c r="D107" t="n">
-        <v>0.86772</v>
+        <v>0.863214</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.940226</v>
+        <v>0.938106</v>
       </c>
       <c r="C108" t="n">
-        <v>0.903939</v>
+        <v>0.899542</v>
       </c>
       <c r="D108" t="n">
-        <v>1.20381</v>
+        <v>1.19392</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.943473</v>
+        <v>0.94229</v>
       </c>
       <c r="C109" t="n">
-        <v>0.897159</v>
+        <v>0.8932600000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>1.19458</v>
+        <v>1.18481</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18847</v>
+        <v>1.18409</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24413</v>
+        <v>1.23276</v>
       </c>
       <c r="D110" t="n">
-        <v>1.17719</v>
+        <v>1.16857</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17741</v>
+        <v>1.17323</v>
       </c>
       <c r="C111" t="n">
-        <v>1.2266</v>
+        <v>1.21648</v>
       </c>
       <c r="D111" t="n">
-        <v>1.16035</v>
+        <v>1.15143</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16475</v>
+        <v>1.16064</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20813</v>
+        <v>1.1969</v>
       </c>
       <c r="D112" t="n">
-        <v>1.144</v>
+        <v>1.13576</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15308</v>
+        <v>1.149</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19001</v>
+        <v>1.18027</v>
       </c>
       <c r="D113" t="n">
-        <v>1.1285</v>
+        <v>1.12049</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14251</v>
+        <v>1.13833</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17362</v>
+        <v>1.16368</v>
       </c>
       <c r="D114" t="n">
-        <v>1.11396</v>
+        <v>1.10596</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13268</v>
+        <v>1.12933</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15851</v>
+        <v>1.1482</v>
       </c>
       <c r="D115" t="n">
-        <v>1.10025</v>
+        <v>1.09272</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12455</v>
+        <v>1.12041</v>
       </c>
       <c r="C116" t="n">
-        <v>1.143</v>
+        <v>1.1345</v>
       </c>
       <c r="D116" t="n">
-        <v>1.08595</v>
+        <v>1.08021</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.115</v>
+        <v>1.11327</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12807</v>
+        <v>1.12039</v>
       </c>
       <c r="D117" t="n">
-        <v>1.07331</v>
+        <v>1.06878</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10838</v>
+        <v>1.1064</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11423</v>
+        <v>1.10747</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06204</v>
+        <v>1.05559</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.1027</v>
+        <v>1.1018</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10202</v>
+        <v>1.09615</v>
       </c>
       <c r="D119" t="n">
-        <v>1.05071</v>
+        <v>1.04466</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.09906</v>
+        <v>1.098</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09212</v>
+        <v>1.08807</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04191</v>
+        <v>1.03734</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09732</v>
+        <v>1.09617</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08206</v>
+        <v>1.07885</v>
       </c>
       <c r="D121" t="n">
-        <v>1.03253</v>
+        <v>1.02871</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09831</v>
+        <v>1.09763</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07413</v>
+        <v>1.07015</v>
       </c>
       <c r="D122" t="n">
-        <v>1.02524</v>
+        <v>1.02201</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10234</v>
+        <v>1.10261</v>
       </c>
       <c r="C123" t="n">
-        <v>1.06834</v>
+        <v>1.06281</v>
       </c>
       <c r="D123" t="n">
-        <v>1.36015</v>
+        <v>1.34842</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35221</v>
+        <v>1.34887</v>
       </c>
       <c r="C124" t="n">
-        <v>1.41461</v>
+        <v>1.40837</v>
       </c>
       <c r="D124" t="n">
-        <v>1.34627</v>
+        <v>1.33962</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.34314</v>
+        <v>1.33972</v>
       </c>
       <c r="C125" t="n">
-        <v>1.3991</v>
+        <v>1.39391</v>
       </c>
       <c r="D125" t="n">
-        <v>1.33294</v>
+        <v>1.32727</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33318</v>
+        <v>1.33018</v>
       </c>
       <c r="C126" t="n">
-        <v>1.3836</v>
+        <v>1.37565</v>
       </c>
       <c r="D126" t="n">
-        <v>1.322</v>
+        <v>1.31067</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32568</v>
+        <v>1.32221</v>
       </c>
       <c r="C127" t="n">
-        <v>1.36859</v>
+        <v>1.35883</v>
       </c>
       <c r="D127" t="n">
-        <v>1.3107</v>
+        <v>1.30292</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31726</v>
+        <v>1.31437</v>
       </c>
       <c r="C128" t="n">
-        <v>1.3551</v>
+        <v>1.34737</v>
       </c>
       <c r="D128" t="n">
-        <v>1.29983</v>
+        <v>1.28867</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31072</v>
+        <v>1.30776</v>
       </c>
       <c r="C129" t="n">
-        <v>1.34199</v>
+        <v>1.33461</v>
       </c>
       <c r="D129" t="n">
-        <v>1.28937</v>
+        <v>1.28013</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30411</v>
+        <v>1.30184</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32909</v>
+        <v>1.32209</v>
       </c>
       <c r="D130" t="n">
-        <v>1.27969</v>
+        <v>1.27483</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29948</v>
+        <v>1.2968</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31787</v>
+        <v>1.31041</v>
       </c>
       <c r="D131" t="n">
-        <v>1.27127</v>
+        <v>1.26411</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29499</v>
+        <v>1.29287</v>
       </c>
       <c r="C132" t="n">
-        <v>1.30668</v>
+        <v>1.3018</v>
       </c>
       <c r="D132" t="n">
-        <v>1.26352</v>
+        <v>1.25811</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29304</v>
+        <v>1.29006</v>
       </c>
       <c r="C133" t="n">
-        <v>1.29908</v>
+        <v>1.29102</v>
       </c>
       <c r="D133" t="n">
-        <v>1.25564</v>
+        <v>1.25023</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.29224</v>
+        <v>1.28877</v>
       </c>
       <c r="C134" t="n">
-        <v>1.28917</v>
+        <v>1.28288</v>
       </c>
       <c r="D134" t="n">
-        <v>1.24827</v>
+        <v>1.24316</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.29199</v>
+        <v>1.28957</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28245</v>
+        <v>1.27592</v>
       </c>
       <c r="D135" t="n">
-        <v>1.24215</v>
+        <v>1.23701</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.29444</v>
+        <v>1.29263</v>
       </c>
       <c r="C136" t="n">
-        <v>1.27606</v>
+        <v>1.2697</v>
       </c>
       <c r="D136" t="n">
-        <v>1.2346</v>
+        <v>1.23046</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.29892</v>
+        <v>1.29707</v>
       </c>
       <c r="C137" t="n">
-        <v>1.26992</v>
+        <v>1.26497</v>
       </c>
       <c r="D137" t="n">
-        <v>1.56487</v>
+        <v>1.55764</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54567</v>
+        <v>1.54381</v>
       </c>
       <c r="C138" t="n">
-        <v>1.6135</v>
+        <v>1.6054</v>
       </c>
       <c r="D138" t="n">
-        <v>1.55437</v>
+        <v>1.54395</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53815</v>
+        <v>1.53651</v>
       </c>
       <c r="C139" t="n">
-        <v>1.59896</v>
+        <v>1.591</v>
       </c>
       <c r="D139" t="n">
-        <v>1.54326</v>
+        <v>1.53348</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.5318</v>
+        <v>1.5288</v>
       </c>
       <c r="C140" t="n">
-        <v>1.58618</v>
+        <v>1.58121</v>
       </c>
       <c r="D140" t="n">
-        <v>1.53419</v>
+        <v>1.52692</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.5254</v>
+        <v>1.52222</v>
       </c>
       <c r="C141" t="n">
-        <v>1.57394</v>
+        <v>1.56588</v>
       </c>
       <c r="D141" t="n">
-        <v>1.52357</v>
+        <v>1.51657</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.51894</v>
+        <v>1.51675</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56233</v>
+        <v>1.55531</v>
       </c>
       <c r="D142" t="n">
-        <v>1.51544</v>
+        <v>1.50925</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51333</v>
+        <v>1.51209</v>
       </c>
       <c r="C143" t="n">
-        <v>1.55204</v>
+        <v>1.54463</v>
       </c>
       <c r="D143" t="n">
-        <v>1.50868</v>
+        <v>1.50121</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.576319</v>
+        <v>0.575464</v>
       </c>
       <c r="C2" t="n">
-        <v>0.596445</v>
+        <v>0.596988</v>
       </c>
       <c r="D2" t="n">
-        <v>0.587151</v>
+        <v>0.58949</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564096</v>
+        <v>0.5634749999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.578647</v>
+        <v>0.579601</v>
       </c>
       <c r="D3" t="n">
-        <v>0.57064</v>
+        <v>0.572374</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.552254</v>
+        <v>0.551503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5621350000000001</v>
+        <v>0.56343</v>
       </c>
       <c r="D4" t="n">
-        <v>0.555299</v>
+        <v>0.55662</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.542288</v>
+        <v>0.541724</v>
       </c>
       <c r="C5" t="n">
-        <v>0.546841</v>
+        <v>0.54825</v>
       </c>
       <c r="D5" t="n">
-        <v>0.54217</v>
+        <v>0.542543</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.534487</v>
+        <v>0.533893</v>
       </c>
       <c r="C6" t="n">
-        <v>0.533421</v>
+        <v>0.5347730000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.529203</v>
+        <v>0.530357</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.528</v>
+        <v>0.527742</v>
       </c>
       <c r="C7" t="n">
-        <v>0.520504</v>
+        <v>0.522008</v>
       </c>
       <c r="D7" t="n">
-        <v>0.518716</v>
+        <v>0.519885</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.525182</v>
+        <v>0.524582</v>
       </c>
       <c r="C8" t="n">
-        <v>0.510049</v>
+        <v>0.512054</v>
       </c>
       <c r="D8" t="n">
-        <v>0.511348</v>
+        <v>0.512161</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.525516</v>
+        <v>0.525796</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5014960000000001</v>
+        <v>0.503791</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7732329999999999</v>
+        <v>0.775033</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.672838</v>
+        <v>0.673138</v>
       </c>
       <c r="C10" t="n">
-        <v>0.731975</v>
+        <v>0.734934</v>
       </c>
       <c r="D10" t="n">
-        <v>0.74837</v>
+        <v>0.74977</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.654493</v>
+        <v>0.654473</v>
       </c>
       <c r="C11" t="n">
-        <v>0.708199</v>
+        <v>0.711256</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7244620000000001</v>
+        <v>0.725252</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.635277</v>
+        <v>0.635504</v>
       </c>
       <c r="C12" t="n">
-        <v>0.685532</v>
+        <v>0.687956</v>
       </c>
       <c r="D12" t="n">
-        <v>0.701032</v>
+        <v>0.702016</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.617627</v>
+        <v>0.618381</v>
       </c>
       <c r="C13" t="n">
-        <v>0.66379</v>
+        <v>0.666222</v>
       </c>
       <c r="D13" t="n">
-        <v>0.679229</v>
+        <v>0.680295</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.601529</v>
+        <v>0.601673</v>
       </c>
       <c r="C14" t="n">
-        <v>0.642662</v>
+        <v>0.64485</v>
       </c>
       <c r="D14" t="n">
-        <v>0.658339</v>
+        <v>0.659762</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.58646</v>
+        <v>0.586418</v>
       </c>
       <c r="C15" t="n">
-        <v>0.623282</v>
+        <v>0.62551</v>
       </c>
       <c r="D15" t="n">
-        <v>0.639191</v>
+        <v>0.639839</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.571845</v>
+        <v>0.572242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.604877</v>
+        <v>0.607105</v>
       </c>
       <c r="D16" t="n">
-        <v>0.620358</v>
+        <v>0.620947</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.55888</v>
+        <v>0.559694</v>
       </c>
       <c r="C17" t="n">
-        <v>0.587306</v>
+        <v>0.5893</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6026280000000001</v>
+        <v>0.603133</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.54788</v>
+        <v>0.548049</v>
       </c>
       <c r="C18" t="n">
-        <v>0.570897</v>
+        <v>0.572909</v>
       </c>
       <c r="D18" t="n">
-        <v>0.586966</v>
+        <v>0.58653</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.537168</v>
+        <v>0.5376840000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.555716</v>
+        <v>0.557698</v>
       </c>
       <c r="D19" t="n">
-        <v>0.571984</v>
+        <v>0.570972</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.52827</v>
+        <v>0.5287230000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.541353</v>
+        <v>0.543691</v>
       </c>
       <c r="D20" t="n">
-        <v>0.558786</v>
+        <v>0.55744</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5214530000000001</v>
+        <v>0.521858</v>
       </c>
       <c r="C21" t="n">
-        <v>0.52851</v>
+        <v>0.53059</v>
       </c>
       <c r="D21" t="n">
-        <v>0.547126</v>
+        <v>0.545501</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5174</v>
+        <v>0.51745</v>
       </c>
       <c r="C22" t="n">
-        <v>0.517714</v>
+        <v>0.519831</v>
       </c>
       <c r="D22" t="n">
-        <v>0.539436</v>
+        <v>0.537061</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.517227</v>
+        <v>0.517398</v>
       </c>
       <c r="C23" t="n">
-        <v>0.509099</v>
+        <v>0.51097</v>
       </c>
       <c r="D23" t="n">
-        <v>0.81241</v>
+        <v>0.810913</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.720479</v>
+        <v>0.720697</v>
       </c>
       <c r="C24" t="n">
-        <v>0.787285</v>
+        <v>0.790418</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7851399999999999</v>
+        <v>0.783523</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.701945</v>
+        <v>0.699366</v>
       </c>
       <c r="C25" t="n">
-        <v>0.761467</v>
+        <v>0.764465</v>
       </c>
       <c r="D25" t="n">
-        <v>0.759934</v>
+        <v>0.757596</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.679214</v>
+        <v>0.678917</v>
       </c>
       <c r="C26" t="n">
-        <v>0.736809</v>
+        <v>0.739467</v>
       </c>
       <c r="D26" t="n">
-        <v>0.736717</v>
+        <v>0.732958</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.659979</v>
+        <v>0.659928</v>
       </c>
       <c r="C27" t="n">
-        <v>0.712645</v>
+        <v>0.715526</v>
       </c>
       <c r="D27" t="n">
-        <v>0.71343</v>
+        <v>0.709925</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.642118</v>
+        <v>0.6418160000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.690572</v>
+        <v>0.692524</v>
       </c>
       <c r="D28" t="n">
-        <v>0.690948</v>
+        <v>0.687714</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.625339</v>
+        <v>0.624851</v>
       </c>
       <c r="C29" t="n">
-        <v>0.669058</v>
+        <v>0.671329</v>
       </c>
       <c r="D29" t="n">
-        <v>0.669656</v>
+        <v>0.666802</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.609294</v>
+        <v>0.609252</v>
       </c>
       <c r="C30" t="n">
-        <v>0.648493</v>
+        <v>0.651429</v>
       </c>
       <c r="D30" t="n">
-        <v>0.650729</v>
+        <v>0.64694</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.594889</v>
+        <v>0.594643</v>
       </c>
       <c r="C31" t="n">
-        <v>0.629231</v>
+        <v>0.631782</v>
       </c>
       <c r="D31" t="n">
-        <v>0.632288</v>
+        <v>0.6284729999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.581522</v>
+        <v>0.581276</v>
       </c>
       <c r="C32" t="n">
-        <v>0.610172</v>
+        <v>0.613843</v>
       </c>
       <c r="D32" t="n">
-        <v>0.614073</v>
+        <v>0.610867</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.569721</v>
+        <v>0.569534</v>
       </c>
       <c r="C33" t="n">
-        <v>0.594116</v>
+        <v>0.596593</v>
       </c>
       <c r="D33" t="n">
-        <v>0.597382</v>
+        <v>0.594607</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.559497</v>
+        <v>0.559057</v>
       </c>
       <c r="C34" t="n">
-        <v>0.577612</v>
+        <v>0.580959</v>
       </c>
       <c r="D34" t="n">
-        <v>0.584139</v>
+        <v>0.5798759999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.55078</v>
+        <v>0.550597</v>
       </c>
       <c r="C35" t="n">
-        <v>0.564436</v>
+        <v>0.566639</v>
       </c>
       <c r="D35" t="n">
-        <v>0.571241</v>
+        <v>0.567075</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.544552</v>
+        <v>0.544618</v>
       </c>
       <c r="C36" t="n">
-        <v>0.550309</v>
+        <v>0.553966</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5618919999999999</v>
+        <v>0.557042</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.541789</v>
+        <v>0.541723</v>
       </c>
       <c r="C37" t="n">
-        <v>0.540581</v>
+        <v>0.543651</v>
       </c>
       <c r="D37" t="n">
-        <v>0.84199</v>
+        <v>0.836697</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.75134</v>
+        <v>0.751247</v>
       </c>
       <c r="C38" t="n">
-        <v>0.821646</v>
+        <v>0.825829</v>
       </c>
       <c r="D38" t="n">
-        <v>0.814228</v>
+        <v>0.809258</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.728456</v>
+        <v>0.729502</v>
       </c>
       <c r="C39" t="n">
-        <v>0.796462</v>
+        <v>0.7992860000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.788243</v>
+        <v>0.782126</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.708973</v>
+        <v>0.70867</v>
       </c>
       <c r="C40" t="n">
-        <v>0.769335</v>
+        <v>0.773237</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7630940000000001</v>
+        <v>0.756436</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.688681</v>
+        <v>0.688481</v>
       </c>
       <c r="C41" t="n">
-        <v>0.745202</v>
+        <v>0.747881</v>
       </c>
       <c r="D41" t="n">
-        <v>0.738792</v>
+        <v>0.732715</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6697959999999999</v>
+        <v>0.669275</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7201379999999999</v>
+        <v>0.72496</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7157790000000001</v>
+        <v>0.710812</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.651956</v>
+        <v>0.651823</v>
       </c>
       <c r="C43" t="n">
-        <v>0.699172</v>
+        <v>0.70305</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6947179999999999</v>
+        <v>0.689367</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.635629</v>
+        <v>0.635454</v>
       </c>
       <c r="C44" t="n">
-        <v>0.676685</v>
+        <v>0.681303</v>
       </c>
       <c r="D44" t="n">
-        <v>0.674613</v>
+        <v>0.668702</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6206159999999999</v>
+        <v>0.620242</v>
       </c>
       <c r="C45" t="n">
-        <v>0.657626</v>
+        <v>0.6615839999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.655204</v>
+        <v>0.649959</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.605758</v>
+        <v>0.605036</v>
       </c>
       <c r="C46" t="n">
-        <v>0.639252</v>
+        <v>0.64281</v>
       </c>
       <c r="D46" t="n">
-        <v>0.638736</v>
+        <v>0.631989</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5933890000000001</v>
+        <v>0.593894</v>
       </c>
       <c r="C47" t="n">
-        <v>0.620216</v>
+        <v>0.624846</v>
       </c>
       <c r="D47" t="n">
-        <v>0.621463</v>
+        <v>0.615183</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.582959</v>
+        <v>0.580278</v>
       </c>
       <c r="C48" t="n">
-        <v>0.605337</v>
+        <v>0.607231</v>
       </c>
       <c r="D48" t="n">
-        <v>0.606786</v>
+        <v>0.599867</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.572854</v>
+        <v>0.573469</v>
       </c>
       <c r="C49" t="n">
-        <v>0.588939</v>
+        <v>0.59295</v>
       </c>
       <c r="D49" t="n">
-        <v>0.593654</v>
+        <v>0.585373</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.565887</v>
+        <v>0.566635</v>
       </c>
       <c r="C50" t="n">
-        <v>0.576909</v>
+        <v>0.580611</v>
       </c>
       <c r="D50" t="n">
-        <v>0.582067</v>
+        <v>0.575222</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.562881</v>
+        <v>0.562849</v>
       </c>
       <c r="C51" t="n">
-        <v>0.563625</v>
+        <v>0.5687410000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.86716</v>
+        <v>0.863312</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.561844</v>
+        <v>0.562573</v>
       </c>
       <c r="C52" t="n">
-        <v>0.556707</v>
+        <v>0.559643</v>
       </c>
       <c r="D52" t="n">
-        <v>0.84067</v>
+        <v>0.833911</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7579320000000001</v>
+        <v>0.759562</v>
       </c>
       <c r="C53" t="n">
-        <v>0.825882</v>
+        <v>0.8303970000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.814304</v>
+        <v>0.808451</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.736592</v>
+        <v>0.737684</v>
       </c>
       <c r="C54" t="n">
-        <v>0.799712</v>
+        <v>0.802818</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7900239999999999</v>
+        <v>0.781308</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7168330000000001</v>
+        <v>0.717701</v>
       </c>
       <c r="C55" t="n">
-        <v>0.77502</v>
+        <v>0.77886</v>
       </c>
       <c r="D55" t="n">
-        <v>0.766736</v>
+        <v>0.758346</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.697738</v>
+        <v>0.699055</v>
       </c>
       <c r="C56" t="n">
-        <v>0.751091</v>
+        <v>0.755084</v>
       </c>
       <c r="D56" t="n">
-        <v>0.744008</v>
+        <v>0.735466</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.680246</v>
+        <v>0.680731</v>
       </c>
       <c r="C57" t="n">
-        <v>0.729013</v>
+        <v>0.732163</v>
       </c>
       <c r="D57" t="n">
-        <v>0.723041</v>
+        <v>0.713884</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6639620000000001</v>
+        <v>0.663674</v>
       </c>
       <c r="C58" t="n">
-        <v>0.708148</v>
+        <v>0.710893</v>
       </c>
       <c r="D58" t="n">
-        <v>0.703912</v>
+        <v>0.69353</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.648473</v>
+        <v>0.64837</v>
       </c>
       <c r="C59" t="n">
-        <v>0.688731</v>
+        <v>0.691149</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6852470000000001</v>
+        <v>0.673942</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.635134</v>
+        <v>0.634511</v>
       </c>
       <c r="C60" t="n">
-        <v>0.669431</v>
+        <v>0.672188</v>
       </c>
       <c r="D60" t="n">
-        <v>0.66712</v>
+        <v>0.655357</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.621393</v>
+        <v>0.622013</v>
       </c>
       <c r="C61" t="n">
-        <v>0.650336</v>
+        <v>0.653074</v>
       </c>
       <c r="D61" t="n">
-        <v>0.649406</v>
+        <v>0.6385690000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.609527</v>
+        <v>0.6102030000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.63412</v>
+        <v>0.636852</v>
       </c>
       <c r="D62" t="n">
-        <v>0.634881</v>
+        <v>0.622922</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.599422</v>
+        <v>0.600671</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6203610000000001</v>
+        <v>0.621409</v>
       </c>
       <c r="D63" t="n">
-        <v>0.620848</v>
+        <v>0.6093420000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5918600000000001</v>
+        <v>0.592925</v>
       </c>
       <c r="C64" t="n">
-        <v>0.605064</v>
+        <v>0.606931</v>
       </c>
       <c r="D64" t="n">
-        <v>0.609057</v>
+        <v>0.5975780000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.587495</v>
+        <v>0.588143</v>
       </c>
       <c r="C65" t="n">
-        <v>0.593145</v>
+        <v>0.597123</v>
       </c>
       <c r="D65" t="n">
-        <v>0.599849</v>
+        <v>0.588121</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.585942</v>
+        <v>0.586596</v>
       </c>
       <c r="C66" t="n">
-        <v>0.583364</v>
+        <v>0.586736</v>
       </c>
       <c r="D66" t="n">
-        <v>0.896741</v>
+        <v>0.882973</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8174940000000001</v>
+        <v>0.8176330000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8907929999999999</v>
+        <v>0.894454</v>
       </c>
       <c r="D67" t="n">
-        <v>0.869635</v>
+        <v>0.859079</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.799071</v>
+        <v>0.800185</v>
       </c>
       <c r="C68" t="n">
-        <v>0.864771</v>
+        <v>0.869718</v>
       </c>
       <c r="D68" t="n">
-        <v>0.844061</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7813059999999999</v>
+        <v>0.7838850000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.841971</v>
+        <v>0.8448560000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.823026</v>
+        <v>0.810762</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.766797</v>
+        <v>0.767713</v>
       </c>
       <c r="C70" t="n">
-        <v>0.816766</v>
+        <v>0.820241</v>
       </c>
       <c r="D70" t="n">
-        <v>0.798976</v>
+        <v>0.78682</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7471</v>
+        <v>0.751135</v>
       </c>
       <c r="C71" t="n">
-        <v>0.788851</v>
+        <v>0.796357</v>
       </c>
       <c r="D71" t="n">
-        <v>0.770891</v>
+        <v>0.764243</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.727867</v>
+        <v>0.732994</v>
       </c>
       <c r="C72" t="n">
-        <v>0.764077</v>
+        <v>0.771405</v>
       </c>
       <c r="D72" t="n">
-        <v>0.749268</v>
+        <v>0.739935</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7131</v>
+        <v>0.716553</v>
       </c>
       <c r="C73" t="n">
-        <v>0.741962</v>
+        <v>0.748851</v>
       </c>
       <c r="D73" t="n">
-        <v>0.728959</v>
+        <v>0.7192269999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6978760000000001</v>
+        <v>0.703612</v>
       </c>
       <c r="C74" t="n">
-        <v>0.720927</v>
+        <v>0.725779</v>
       </c>
       <c r="D74" t="n">
-        <v>0.710944</v>
+        <v>0.69786</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.68713</v>
+        <v>0.684559</v>
       </c>
       <c r="C75" t="n">
-        <v>0.704035</v>
+        <v>0.704973</v>
       </c>
       <c r="D75" t="n">
-        <v>0.694154</v>
+        <v>0.678486</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.674154</v>
+        <v>0.6754289999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.686863</v>
+        <v>0.690133</v>
       </c>
       <c r="D76" t="n">
-        <v>0.677781</v>
+        <v>0.66362</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.662364</v>
+        <v>0.663129</v>
       </c>
       <c r="C77" t="n">
-        <v>0.669307</v>
+        <v>0.672436</v>
       </c>
       <c r="D77" t="n">
-        <v>0.663782</v>
+        <v>0.649061</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.656635</v>
+        <v>0.656323</v>
       </c>
       <c r="C78" t="n">
-        <v>0.654941</v>
+        <v>0.659511</v>
       </c>
       <c r="D78" t="n">
-        <v>0.65106</v>
+        <v>0.636301</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.648678</v>
+        <v>0.649987</v>
       </c>
       <c r="C79" t="n">
-        <v>0.645348</v>
+        <v>0.6457850000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.645486</v>
+        <v>0.627247</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.650093</v>
+        <v>0.647649</v>
       </c>
       <c r="C80" t="n">
-        <v>0.63545</v>
+        <v>0.636581</v>
       </c>
       <c r="D80" t="n">
-        <v>0.973737</v>
+        <v>0.959059</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.895437</v>
+        <v>0.896226</v>
       </c>
       <c r="C81" t="n">
-        <v>0.97312</v>
+        <v>0.977597</v>
       </c>
       <c r="D81" t="n">
-        <v>0.954714</v>
+        <v>0.939755</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.887327</v>
+        <v>0.888531</v>
       </c>
       <c r="C82" t="n">
-        <v>0.957025</v>
+        <v>0.961803</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9351159999999999</v>
+        <v>0.9196839999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.877963</v>
+        <v>0.878082</v>
       </c>
       <c r="C83" t="n">
-        <v>0.938096</v>
+        <v>0.942127</v>
       </c>
       <c r="D83" t="n">
-        <v>0.913754</v>
+        <v>0.89869</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.867327</v>
+        <v>0.86761</v>
       </c>
       <c r="C84" t="n">
-        <v>0.917992</v>
+        <v>0.922356</v>
       </c>
       <c r="D84" t="n">
-        <v>0.892756</v>
+        <v>0.8780210000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.856177</v>
+        <v>0.856645</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8974220000000001</v>
+        <v>0.899556</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8723</v>
+        <v>0.85426</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.844726</v>
+        <v>0.842527</v>
       </c>
       <c r="C86" t="n">
-        <v>0.877354</v>
+        <v>0.878138</v>
       </c>
       <c r="D86" t="n">
-        <v>0.850848</v>
+        <v>0.833195</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.833945</v>
+        <v>0.832284</v>
       </c>
       <c r="C87" t="n">
-        <v>0.856838</v>
+        <v>0.858894</v>
       </c>
       <c r="D87" t="n">
-        <v>0.830493</v>
+        <v>0.812391</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.822805</v>
+        <v>0.820619</v>
       </c>
       <c r="C88" t="n">
-        <v>0.837936</v>
+        <v>0.83817</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8111120000000001</v>
+        <v>0.792912</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.811163</v>
+        <v>0.808739</v>
       </c>
       <c r="C89" t="n">
-        <v>0.817235</v>
+        <v>0.818922</v>
       </c>
       <c r="D89" t="n">
-        <v>0.791743</v>
+        <v>0.774882</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.800978</v>
+        <v>0.800129</v>
       </c>
       <c r="C90" t="n">
-        <v>0.800079</v>
+        <v>0.802321</v>
       </c>
       <c r="D90" t="n">
-        <v>0.774235</v>
+        <v>0.758735</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.791214</v>
+        <v>0.790953</v>
       </c>
       <c r="C91" t="n">
-        <v>0.782649</v>
+        <v>0.785054</v>
       </c>
       <c r="D91" t="n">
-        <v>0.757445</v>
+        <v>0.741603</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.783292</v>
+        <v>0.78305</v>
       </c>
       <c r="C92" t="n">
-        <v>0.767187</v>
+        <v>0.769605</v>
       </c>
       <c r="D92" t="n">
-        <v>0.742496</v>
+        <v>0.7270219999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7770089999999999</v>
+        <v>0.777825</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7536310000000001</v>
+        <v>0.756477</v>
       </c>
       <c r="D93" t="n">
-        <v>0.729973</v>
+        <v>0.714401</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.774318</v>
+        <v>0.773406</v>
       </c>
       <c r="C94" t="n">
-        <v>0.740961</v>
+        <v>0.743859</v>
       </c>
       <c r="D94" t="n">
-        <v>1.06413</v>
+        <v>1.05098</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02361</v>
+        <v>1.02751</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08126</v>
+        <v>1.08931</v>
       </c>
       <c r="D95" t="n">
-        <v>1.0513</v>
+        <v>1.0395</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02396</v>
+        <v>1.02633</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07414</v>
+        <v>1.08195</v>
       </c>
       <c r="D96" t="n">
-        <v>1.03434</v>
+        <v>1.02334</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01386</v>
+        <v>1.01831</v>
       </c>
       <c r="C97" t="n">
-        <v>1.05704</v>
+        <v>1.0655</v>
       </c>
       <c r="D97" t="n">
-        <v>1.01622</v>
+        <v>1.00522</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00332</v>
+        <v>1.00735</v>
       </c>
       <c r="C98" t="n">
-        <v>1.03859</v>
+        <v>1.04692</v>
       </c>
       <c r="D98" t="n">
-        <v>0.996665</v>
+        <v>0.986631</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.993552</v>
+        <v>0.997436</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02128</v>
+        <v>1.02823</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9795970000000001</v>
+        <v>0.967263</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.983142</v>
+        <v>0.986735</v>
       </c>
       <c r="C100" t="n">
-        <v>1.00443</v>
+        <v>1.0099</v>
       </c>
       <c r="D100" t="n">
-        <v>0.962086</v>
+        <v>0.950821</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.973718</v>
+        <v>0.977542</v>
       </c>
       <c r="C101" t="n">
-        <v>0.987024</v>
+        <v>0.99432</v>
       </c>
       <c r="D101" t="n">
-        <v>0.944912</v>
+        <v>0.933707</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.965266</v>
+        <v>0.968033</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9726129999999999</v>
+        <v>0.978724</v>
       </c>
       <c r="D102" t="n">
-        <v>0.928633</v>
+        <v>0.917297</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.956578</v>
+        <v>0.961014</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9558720000000001</v>
+        <v>0.963484</v>
       </c>
       <c r="D103" t="n">
-        <v>0.912297</v>
+        <v>0.902039</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.950183</v>
+        <v>0.9535130000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.941475</v>
+        <v>0.949194</v>
       </c>
       <c r="D104" t="n">
-        <v>0.899327</v>
+        <v>0.887024</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9446560000000001</v>
+        <v>0.947568</v>
       </c>
       <c r="C105" t="n">
-        <v>0.930167</v>
+        <v>0.9366</v>
       </c>
       <c r="D105" t="n">
-        <v>0.886594</v>
+        <v>0.873833</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.94037</v>
+        <v>0.943412</v>
       </c>
       <c r="C106" t="n">
-        <v>0.917447</v>
+        <v>0.924005</v>
       </c>
       <c r="D106" t="n">
-        <v>0.873479</v>
+        <v>0.862799</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.937927</v>
+        <v>0.9400849999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.907703</v>
+        <v>0.912591</v>
       </c>
       <c r="D107" t="n">
-        <v>0.863214</v>
+        <v>0.851374</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.938106</v>
+        <v>0.940575</v>
       </c>
       <c r="C108" t="n">
-        <v>0.899542</v>
+        <v>0.903497</v>
       </c>
       <c r="D108" t="n">
-        <v>1.19392</v>
+        <v>1.18402</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.94229</v>
+        <v>0.945031</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8932600000000001</v>
+        <v>0.897676</v>
       </c>
       <c r="D109" t="n">
-        <v>1.18481</v>
+        <v>1.17513</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18409</v>
+        <v>1.18683</v>
       </c>
       <c r="C110" t="n">
-        <v>1.23276</v>
+        <v>1.24258</v>
       </c>
       <c r="D110" t="n">
-        <v>1.16857</v>
+        <v>1.15974</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17323</v>
+        <v>1.17501</v>
       </c>
       <c r="C111" t="n">
-        <v>1.21648</v>
+        <v>1.22498</v>
       </c>
       <c r="D111" t="n">
-        <v>1.15143</v>
+        <v>1.14222</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16064</v>
+        <v>1.16371</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1969</v>
+        <v>1.20654</v>
       </c>
       <c r="D112" t="n">
-        <v>1.13576</v>
+        <v>1.12682</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.149</v>
+        <v>1.15165</v>
       </c>
       <c r="C113" t="n">
-        <v>1.18027</v>
+        <v>1.18865</v>
       </c>
       <c r="D113" t="n">
-        <v>1.12049</v>
+        <v>1.11149</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.13833</v>
+        <v>1.14174</v>
       </c>
       <c r="C114" t="n">
-        <v>1.16368</v>
+        <v>1.17292</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10596</v>
+        <v>1.09807</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.12933</v>
+        <v>1.13151</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1482</v>
+        <v>1.15705</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09272</v>
+        <v>1.08392</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12041</v>
+        <v>1.12258</v>
       </c>
       <c r="C116" t="n">
-        <v>1.1345</v>
+        <v>1.14189</v>
       </c>
       <c r="D116" t="n">
-        <v>1.08021</v>
+        <v>1.07143</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11327</v>
+        <v>1.11553</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12039</v>
+        <v>1.12691</v>
       </c>
       <c r="D117" t="n">
-        <v>1.06878</v>
+        <v>1.05825</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.1064</v>
+        <v>1.10858</v>
       </c>
       <c r="C118" t="n">
-        <v>1.10747</v>
+        <v>1.11423</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05559</v>
+        <v>1.04625</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.1018</v>
+        <v>1.10346</v>
       </c>
       <c r="C119" t="n">
-        <v>1.09615</v>
+        <v>1.10225</v>
       </c>
       <c r="D119" t="n">
-        <v>1.04466</v>
+        <v>1.03844</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.098</v>
+        <v>1.09985</v>
       </c>
       <c r="C120" t="n">
-        <v>1.08807</v>
+        <v>1.09318</v>
       </c>
       <c r="D120" t="n">
-        <v>1.03734</v>
+        <v>1.02932</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09617</v>
+        <v>1.09834</v>
       </c>
       <c r="C121" t="n">
-        <v>1.07885</v>
+        <v>1.08241</v>
       </c>
       <c r="D121" t="n">
-        <v>1.02871</v>
+        <v>1.01993</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09763</v>
+        <v>1.09916</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07015</v>
+        <v>1.07518</v>
       </c>
       <c r="D122" t="n">
-        <v>1.02201</v>
+        <v>1.01199</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10261</v>
+        <v>1.10378</v>
       </c>
       <c r="C123" t="n">
-        <v>1.06281</v>
+        <v>1.06866</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34842</v>
+        <v>1.34033</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.34887</v>
+        <v>1.35092</v>
       </c>
       <c r="C124" t="n">
-        <v>1.40837</v>
+        <v>1.41432</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33962</v>
+        <v>1.33167</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.33972</v>
+        <v>1.34146</v>
       </c>
       <c r="C125" t="n">
-        <v>1.39391</v>
+        <v>1.3977</v>
       </c>
       <c r="D125" t="n">
-        <v>1.32727</v>
+        <v>1.31907</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33018</v>
+        <v>1.33241</v>
       </c>
       <c r="C126" t="n">
-        <v>1.37565</v>
+        <v>1.38286</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31067</v>
+        <v>1.30782</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32221</v>
+        <v>1.32427</v>
       </c>
       <c r="C127" t="n">
-        <v>1.35883</v>
+        <v>1.36816</v>
       </c>
       <c r="D127" t="n">
-        <v>1.30292</v>
+        <v>1.29312</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31437</v>
+        <v>1.31598</v>
       </c>
       <c r="C128" t="n">
-        <v>1.34737</v>
+        <v>1.353</v>
       </c>
       <c r="D128" t="n">
-        <v>1.28867</v>
+        <v>1.28721</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.30776</v>
+        <v>1.30979</v>
       </c>
       <c r="C129" t="n">
-        <v>1.33461</v>
+        <v>1.33954</v>
       </c>
       <c r="D129" t="n">
-        <v>1.28013</v>
+        <v>1.27327</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30184</v>
+        <v>1.3031</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32209</v>
+        <v>1.32967</v>
       </c>
       <c r="D130" t="n">
-        <v>1.27483</v>
+        <v>1.26746</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.2968</v>
+        <v>1.29786</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31041</v>
+        <v>1.31628</v>
       </c>
       <c r="D131" t="n">
-        <v>1.26411</v>
+        <v>1.25894</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29287</v>
+        <v>1.29441</v>
       </c>
       <c r="C132" t="n">
-        <v>1.3018</v>
+        <v>1.30546</v>
       </c>
       <c r="D132" t="n">
-        <v>1.25811</v>
+        <v>1.25056</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29006</v>
+        <v>1.2907</v>
       </c>
       <c r="C133" t="n">
-        <v>1.29102</v>
+        <v>1.29473</v>
       </c>
       <c r="D133" t="n">
-        <v>1.25023</v>
+        <v>1.23992</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.28877</v>
+        <v>1.28981</v>
       </c>
       <c r="C134" t="n">
-        <v>1.28288</v>
+        <v>1.28793</v>
       </c>
       <c r="D134" t="n">
-        <v>1.24316</v>
+        <v>1.23473</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.28957</v>
+        <v>1.28998</v>
       </c>
       <c r="C135" t="n">
-        <v>1.27592</v>
+        <v>1.28</v>
       </c>
       <c r="D135" t="n">
-        <v>1.23701</v>
+        <v>1.22867</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.29263</v>
+        <v>1.29251</v>
       </c>
       <c r="C136" t="n">
-        <v>1.2697</v>
+        <v>1.274</v>
       </c>
       <c r="D136" t="n">
-        <v>1.23046</v>
+        <v>1.22002</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.29707</v>
+        <v>1.29847</v>
       </c>
       <c r="C137" t="n">
-        <v>1.26497</v>
+        <v>1.26908</v>
       </c>
       <c r="D137" t="n">
-        <v>1.55764</v>
+        <v>1.5491</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54381</v>
+        <v>1.54515</v>
       </c>
       <c r="C138" t="n">
-        <v>1.6054</v>
+        <v>1.6114</v>
       </c>
       <c r="D138" t="n">
-        <v>1.54395</v>
+        <v>1.54161</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53651</v>
+        <v>1.53831</v>
       </c>
       <c r="C139" t="n">
-        <v>1.591</v>
+        <v>1.59738</v>
       </c>
       <c r="D139" t="n">
-        <v>1.53348</v>
+        <v>1.53004</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.5288</v>
+        <v>1.53094</v>
       </c>
       <c r="C140" t="n">
-        <v>1.58121</v>
+        <v>1.5851</v>
       </c>
       <c r="D140" t="n">
-        <v>1.52692</v>
+        <v>1.52144</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52222</v>
+        <v>1.52481</v>
       </c>
       <c r="C141" t="n">
-        <v>1.56588</v>
+        <v>1.57439</v>
       </c>
       <c r="D141" t="n">
-        <v>1.51657</v>
+        <v>1.51373</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.51675</v>
+        <v>1.51916</v>
       </c>
       <c r="C142" t="n">
-        <v>1.55531</v>
+        <v>1.56172</v>
       </c>
       <c r="D142" t="n">
-        <v>1.50925</v>
+        <v>1.50617</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51209</v>
+        <v>1.51508</v>
       </c>
       <c r="C143" t="n">
-        <v>1.54463</v>
+        <v>1.55197</v>
       </c>
       <c r="D143" t="n">
-        <v>1.50121</v>
+        <v>1.49671</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575464</v>
+        <v>0.576433</v>
       </c>
       <c r="C2" t="n">
-        <v>0.596988</v>
+        <v>0.598651</v>
       </c>
       <c r="D2" t="n">
-        <v>0.58949</v>
+        <v>0.589015</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5634749999999999</v>
+        <v>0.564131</v>
       </c>
       <c r="C3" t="n">
-        <v>0.579601</v>
+        <v>0.580372</v>
       </c>
       <c r="D3" t="n">
-        <v>0.572374</v>
+        <v>0.572484</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.551503</v>
+        <v>0.552465</v>
       </c>
       <c r="C4" t="n">
-        <v>0.56343</v>
+        <v>0.563724</v>
       </c>
       <c r="D4" t="n">
-        <v>0.55662</v>
+        <v>0.556601</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.541724</v>
+        <v>0.542837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.54825</v>
+        <v>0.548465</v>
       </c>
       <c r="D5" t="n">
-        <v>0.542543</v>
+        <v>0.542593</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.533893</v>
+        <v>0.534134</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5347730000000001</v>
+        <v>0.534689</v>
       </c>
       <c r="D6" t="n">
-        <v>0.530357</v>
+        <v>0.529979</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.527742</v>
+        <v>0.528064</v>
       </c>
       <c r="C7" t="n">
-        <v>0.522008</v>
+        <v>0.521917</v>
       </c>
       <c r="D7" t="n">
-        <v>0.519885</v>
+        <v>0.520076</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.524582</v>
+        <v>0.525077</v>
       </c>
       <c r="C8" t="n">
-        <v>0.512054</v>
+        <v>0.51263</v>
       </c>
       <c r="D8" t="n">
-        <v>0.512161</v>
+        <v>0.512389</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.525796</v>
+        <v>0.525856</v>
       </c>
       <c r="C9" t="n">
-        <v>0.503791</v>
+        <v>0.504332</v>
       </c>
       <c r="D9" t="n">
-        <v>0.775033</v>
+        <v>0.775989</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.673138</v>
+        <v>0.674223</v>
       </c>
       <c r="C10" t="n">
-        <v>0.734934</v>
+        <v>0.735372</v>
       </c>
       <c r="D10" t="n">
-        <v>0.74977</v>
+        <v>0.750121</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.654473</v>
+        <v>0.654933</v>
       </c>
       <c r="C11" t="n">
-        <v>0.711256</v>
+        <v>0.711413</v>
       </c>
       <c r="D11" t="n">
-        <v>0.725252</v>
+        <v>0.726116</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.635504</v>
+        <v>0.635921</v>
       </c>
       <c r="C12" t="n">
-        <v>0.687956</v>
+        <v>0.688127</v>
       </c>
       <c r="D12" t="n">
-        <v>0.702016</v>
+        <v>0.702688</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.618381</v>
+        <v>0.618303</v>
       </c>
       <c r="C13" t="n">
-        <v>0.666222</v>
+        <v>0.666252</v>
       </c>
       <c r="D13" t="n">
-        <v>0.680295</v>
+        <v>0.680889</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.601673</v>
+        <v>0.602649</v>
       </c>
       <c r="C14" t="n">
-        <v>0.64485</v>
+        <v>0.645418</v>
       </c>
       <c r="D14" t="n">
-        <v>0.659762</v>
+        <v>0.659924</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.586418</v>
+        <v>0.586972</v>
       </c>
       <c r="C15" t="n">
-        <v>0.62551</v>
+        <v>0.625543</v>
       </c>
       <c r="D15" t="n">
-        <v>0.639839</v>
+        <v>0.640311</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.572242</v>
+        <v>0.572621</v>
       </c>
       <c r="C16" t="n">
-        <v>0.607105</v>
+        <v>0.606938</v>
       </c>
       <c r="D16" t="n">
-        <v>0.620947</v>
+        <v>0.621706</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.559694</v>
+        <v>0.560091</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5893</v>
+        <v>0.58969</v>
       </c>
       <c r="D17" t="n">
-        <v>0.603133</v>
+        <v>0.603754</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.548049</v>
+        <v>0.548677</v>
       </c>
       <c r="C18" t="n">
-        <v>0.572909</v>
+        <v>0.5732699999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.58653</v>
+        <v>0.586668</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5376840000000001</v>
+        <v>0.53808</v>
       </c>
       <c r="C19" t="n">
-        <v>0.557698</v>
+        <v>0.557849</v>
       </c>
       <c r="D19" t="n">
-        <v>0.570972</v>
+        <v>0.570892</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5287230000000001</v>
+        <v>0.5292519999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.543691</v>
+        <v>0.543879</v>
       </c>
       <c r="D20" t="n">
-        <v>0.55744</v>
+        <v>0.5578</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.521858</v>
+        <v>0.522075</v>
       </c>
       <c r="C21" t="n">
-        <v>0.53059</v>
+        <v>0.530911</v>
       </c>
       <c r="D21" t="n">
-        <v>0.545501</v>
+        <v>0.545977</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.51745</v>
+        <v>0.518003</v>
       </c>
       <c r="C22" t="n">
-        <v>0.519831</v>
+        <v>0.520307</v>
       </c>
       <c r="D22" t="n">
-        <v>0.537061</v>
+        <v>0.537009</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.517398</v>
+        <v>0.517904</v>
       </c>
       <c r="C23" t="n">
-        <v>0.51097</v>
+        <v>0.511846</v>
       </c>
       <c r="D23" t="n">
-        <v>0.810913</v>
+        <v>0.810922</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.720697</v>
+        <v>0.721706</v>
       </c>
       <c r="C24" t="n">
-        <v>0.790418</v>
+        <v>0.790584</v>
       </c>
       <c r="D24" t="n">
-        <v>0.783523</v>
+        <v>0.783609</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.699366</v>
+        <v>0.700439</v>
       </c>
       <c r="C25" t="n">
-        <v>0.764465</v>
+        <v>0.764812</v>
       </c>
       <c r="D25" t="n">
-        <v>0.757596</v>
+        <v>0.757881</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.678917</v>
+        <v>0.6802589999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.739467</v>
+        <v>0.7399559999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.732958</v>
+        <v>0.73369</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.659928</v>
+        <v>0.660857</v>
       </c>
       <c r="C27" t="n">
-        <v>0.715526</v>
+        <v>0.716106</v>
       </c>
       <c r="D27" t="n">
-        <v>0.709925</v>
+        <v>0.71027</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6418160000000001</v>
+        <v>0.6427619999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.692524</v>
+        <v>0.69278</v>
       </c>
       <c r="D28" t="n">
-        <v>0.687714</v>
+        <v>0.688078</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.624851</v>
+        <v>0.625705</v>
       </c>
       <c r="C29" t="n">
-        <v>0.671329</v>
+        <v>0.671444</v>
       </c>
       <c r="D29" t="n">
-        <v>0.666802</v>
+        <v>0.667055</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.609252</v>
+        <v>0.610006</v>
       </c>
       <c r="C30" t="n">
-        <v>0.651429</v>
+        <v>0.651387</v>
       </c>
       <c r="D30" t="n">
-        <v>0.64694</v>
+        <v>0.647219</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.594643</v>
+        <v>0.5951340000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.631782</v>
+        <v>0.631733</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6284729999999999</v>
+        <v>0.629041</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.581276</v>
+        <v>0.581983</v>
       </c>
       <c r="C32" t="n">
-        <v>0.613843</v>
+        <v>0.613442</v>
       </c>
       <c r="D32" t="n">
-        <v>0.610867</v>
+        <v>0.610939</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.569534</v>
+        <v>0.570244</v>
       </c>
       <c r="C33" t="n">
-        <v>0.596593</v>
+        <v>0.596973</v>
       </c>
       <c r="D33" t="n">
-        <v>0.594607</v>
+        <v>0.595186</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.559057</v>
+        <v>0.55963</v>
       </c>
       <c r="C34" t="n">
-        <v>0.580959</v>
+        <v>0.581224</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5798759999999999</v>
+        <v>0.580298</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.550597</v>
+        <v>0.551176</v>
       </c>
       <c r="C35" t="n">
-        <v>0.566639</v>
+        <v>0.566628</v>
       </c>
       <c r="D35" t="n">
-        <v>0.567075</v>
+        <v>0.567367</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.544618</v>
+        <v>0.545168</v>
       </c>
       <c r="C36" t="n">
-        <v>0.553966</v>
+        <v>0.553743</v>
       </c>
       <c r="D36" t="n">
-        <v>0.557042</v>
+        <v>0.557249</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.541723</v>
+        <v>0.541864</v>
       </c>
       <c r="C37" t="n">
-        <v>0.543651</v>
+        <v>0.543778</v>
       </c>
       <c r="D37" t="n">
-        <v>0.836697</v>
+        <v>0.837228</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.751247</v>
+        <v>0.75239</v>
       </c>
       <c r="C38" t="n">
-        <v>0.825829</v>
+        <v>0.826249</v>
       </c>
       <c r="D38" t="n">
-        <v>0.809258</v>
+        <v>0.80911</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.729502</v>
+        <v>0.730843</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7992860000000001</v>
+        <v>0.800175</v>
       </c>
       <c r="D39" t="n">
-        <v>0.782126</v>
+        <v>0.783013</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.70867</v>
+        <v>0.709748</v>
       </c>
       <c r="C40" t="n">
-        <v>0.773237</v>
+        <v>0.773943</v>
       </c>
       <c r="D40" t="n">
-        <v>0.756436</v>
+        <v>0.7571830000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.688481</v>
+        <v>0.689296</v>
       </c>
       <c r="C41" t="n">
-        <v>0.747881</v>
+        <v>0.748383</v>
       </c>
       <c r="D41" t="n">
-        <v>0.732715</v>
+        <v>0.733069</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.669275</v>
+        <v>0.67057</v>
       </c>
       <c r="C42" t="n">
-        <v>0.72496</v>
+        <v>0.725615</v>
       </c>
       <c r="D42" t="n">
-        <v>0.710812</v>
+        <v>0.710878</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.651823</v>
+        <v>0.652379</v>
       </c>
       <c r="C43" t="n">
-        <v>0.70305</v>
+        <v>0.702948</v>
       </c>
       <c r="D43" t="n">
-        <v>0.689367</v>
+        <v>0.68963</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.635454</v>
+        <v>0.635287</v>
       </c>
       <c r="C44" t="n">
-        <v>0.681303</v>
+        <v>0.682221</v>
       </c>
       <c r="D44" t="n">
-        <v>0.668702</v>
+        <v>0.669632</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.620242</v>
+        <v>0.619864</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6615839999999999</v>
+        <v>0.662142</v>
       </c>
       <c r="D45" t="n">
-        <v>0.649959</v>
+        <v>0.650409</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.605036</v>
+        <v>0.605689</v>
       </c>
       <c r="C46" t="n">
-        <v>0.64281</v>
+        <v>0.642952</v>
       </c>
       <c r="D46" t="n">
-        <v>0.631989</v>
+        <v>0.631993</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.593894</v>
+        <v>0.59427</v>
       </c>
       <c r="C47" t="n">
-        <v>0.624846</v>
+        <v>0.625244</v>
       </c>
       <c r="D47" t="n">
-        <v>0.615183</v>
+        <v>0.614977</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.580278</v>
+        <v>0.582508</v>
       </c>
       <c r="C48" t="n">
-        <v>0.607231</v>
+        <v>0.608283</v>
       </c>
       <c r="D48" t="n">
-        <v>0.599867</v>
+        <v>0.599164</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.573469</v>
+        <v>0.573829</v>
       </c>
       <c r="C49" t="n">
-        <v>0.59295</v>
+        <v>0.592733</v>
       </c>
       <c r="D49" t="n">
-        <v>0.585373</v>
+        <v>0.584758</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.566635</v>
+        <v>0.567299</v>
       </c>
       <c r="C50" t="n">
-        <v>0.580611</v>
+        <v>0.580155</v>
       </c>
       <c r="D50" t="n">
-        <v>0.575222</v>
+        <v>0.574678</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.562849</v>
+        <v>0.562983</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5687410000000001</v>
+        <v>0.568782</v>
       </c>
       <c r="D51" t="n">
-        <v>0.863312</v>
+        <v>0.864161</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.562573</v>
+        <v>0.5632</v>
       </c>
       <c r="C52" t="n">
-        <v>0.559643</v>
+        <v>0.559585</v>
       </c>
       <c r="D52" t="n">
-        <v>0.833911</v>
+        <v>0.835483</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.759562</v>
+        <v>0.75886</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8303970000000001</v>
+        <v>0.82955</v>
       </c>
       <c r="D53" t="n">
-        <v>0.808451</v>
+        <v>0.807882</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.737684</v>
+        <v>0.73815</v>
       </c>
       <c r="C54" t="n">
-        <v>0.802818</v>
+        <v>0.8030620000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.781308</v>
+        <v>0.782081</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.717701</v>
+        <v>0.717149</v>
       </c>
       <c r="C55" t="n">
-        <v>0.77886</v>
+        <v>0.7773600000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.758346</v>
+        <v>0.75749</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.699055</v>
+        <v>0.698165</v>
       </c>
       <c r="C56" t="n">
-        <v>0.755084</v>
+        <v>0.756984</v>
       </c>
       <c r="D56" t="n">
-        <v>0.735466</v>
+        <v>0.735385</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.680731</v>
+        <v>0.681855</v>
       </c>
       <c r="C57" t="n">
-        <v>0.732163</v>
+        <v>0.733297</v>
       </c>
       <c r="D57" t="n">
-        <v>0.713884</v>
+        <v>0.714512</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.663674</v>
+        <v>0.664595</v>
       </c>
       <c r="C58" t="n">
-        <v>0.710893</v>
+        <v>0.7105939999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.69353</v>
+        <v>0.694173</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.64837</v>
+        <v>0.647965</v>
       </c>
       <c r="C59" t="n">
-        <v>0.691149</v>
+        <v>0.6903319999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.673942</v>
+        <v>0.675253</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.634511</v>
+        <v>0.635701</v>
       </c>
       <c r="C60" t="n">
-        <v>0.672188</v>
+        <v>0.671229</v>
       </c>
       <c r="D60" t="n">
-        <v>0.655357</v>
+        <v>0.65715</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.622013</v>
+        <v>0.622847</v>
       </c>
       <c r="C61" t="n">
-        <v>0.653074</v>
+        <v>0.653617</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6385690000000001</v>
+        <v>0.640063</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6102030000000001</v>
+        <v>0.6101799999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.636852</v>
+        <v>0.6362139999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.622922</v>
+        <v>0.623323</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.600671</v>
+        <v>0.600172</v>
       </c>
       <c r="C63" t="n">
-        <v>0.621409</v>
+        <v>0.620959</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6093420000000001</v>
+        <v>0.609227</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.592925</v>
+        <v>0.592845</v>
       </c>
       <c r="C64" t="n">
-        <v>0.606931</v>
+        <v>0.605792</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5975780000000001</v>
+        <v>0.597069</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.588143</v>
+        <v>0.5879529999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.597123</v>
+        <v>0.5936979999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.588121</v>
+        <v>0.588136</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.586596</v>
+        <v>0.5862540000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.586736</v>
+        <v>0.583788</v>
       </c>
       <c r="D66" t="n">
-        <v>0.882973</v>
+        <v>0.8871329999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8176330000000001</v>
+        <v>0.8190809999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.894454</v>
+        <v>0.89364</v>
       </c>
       <c r="D67" t="n">
-        <v>0.859079</v>
+        <v>0.857638</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.800185</v>
+        <v>0.799889</v>
       </c>
       <c r="C68" t="n">
-        <v>0.869718</v>
+        <v>0.866313</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8333</v>
+        <v>0.834997</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7838850000000001</v>
+        <v>0.7841320000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8448560000000001</v>
+        <v>0.843839</v>
       </c>
       <c r="D69" t="n">
-        <v>0.810762</v>
+        <v>0.8101</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.767713</v>
+        <v>0.765787</v>
       </c>
       <c r="C70" t="n">
-        <v>0.820241</v>
+        <v>0.817263</v>
       </c>
       <c r="D70" t="n">
-        <v>0.78682</v>
+        <v>0.786064</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.751135</v>
+        <v>0.750793</v>
       </c>
       <c r="C71" t="n">
-        <v>0.796357</v>
+        <v>0.793345</v>
       </c>
       <c r="D71" t="n">
-        <v>0.764243</v>
+        <v>0.762026</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.732994</v>
+        <v>0.732288</v>
       </c>
       <c r="C72" t="n">
-        <v>0.771405</v>
+        <v>0.77002</v>
       </c>
       <c r="D72" t="n">
-        <v>0.739935</v>
+        <v>0.738903</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.716553</v>
+        <v>0.716549</v>
       </c>
       <c r="C73" t="n">
-        <v>0.748851</v>
+        <v>0.746729</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7192269999999999</v>
+        <v>0.7166670000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.703612</v>
+        <v>0.699621</v>
       </c>
       <c r="C74" t="n">
-        <v>0.725779</v>
+        <v>0.726015</v>
       </c>
       <c r="D74" t="n">
-        <v>0.69786</v>
+        <v>0.700678</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.684559</v>
+        <v>0.68926</v>
       </c>
       <c r="C75" t="n">
-        <v>0.704973</v>
+        <v>0.709018</v>
       </c>
       <c r="D75" t="n">
-        <v>0.678486</v>
+        <v>0.683231</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6754289999999999</v>
+        <v>0.677173</v>
       </c>
       <c r="C76" t="n">
-        <v>0.690133</v>
+        <v>0.69121</v>
       </c>
       <c r="D76" t="n">
-        <v>0.66362</v>
+        <v>0.66703</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.663129</v>
+        <v>0.666917</v>
       </c>
       <c r="C77" t="n">
-        <v>0.672436</v>
+        <v>0.675193</v>
       </c>
       <c r="D77" t="n">
-        <v>0.649061</v>
+        <v>0.6524759999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.656323</v>
+        <v>0.658079</v>
       </c>
       <c r="C78" t="n">
-        <v>0.659511</v>
+        <v>0.659447</v>
       </c>
       <c r="D78" t="n">
-        <v>0.636301</v>
+        <v>0.636704</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.649987</v>
+        <v>0.652844</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6457850000000001</v>
+        <v>0.646933</v>
       </c>
       <c r="D79" t="n">
-        <v>0.627247</v>
+        <v>0.6294920000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.647649</v>
+        <v>0.6495840000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.636581</v>
+        <v>0.635732</v>
       </c>
       <c r="D80" t="n">
-        <v>0.959059</v>
+        <v>0.957292</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.896226</v>
+        <v>0.896591</v>
       </c>
       <c r="C81" t="n">
-        <v>0.977597</v>
+        <v>0.976208</v>
       </c>
       <c r="D81" t="n">
-        <v>0.939755</v>
+        <v>0.939661</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.888531</v>
+        <v>0.888495</v>
       </c>
       <c r="C82" t="n">
-        <v>0.961803</v>
+        <v>0.9627019999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9196839999999999</v>
+        <v>0.921894</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.878082</v>
+        <v>0.879748</v>
       </c>
       <c r="C83" t="n">
-        <v>0.942127</v>
+        <v>0.942558</v>
       </c>
       <c r="D83" t="n">
-        <v>0.89869</v>
+        <v>0.900475</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.86761</v>
+        <v>0.869439</v>
       </c>
       <c r="C84" t="n">
-        <v>0.922356</v>
+        <v>0.92164</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8780210000000001</v>
+        <v>0.87932</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.856645</v>
+        <v>0.858241</v>
       </c>
       <c r="C85" t="n">
-        <v>0.899556</v>
+        <v>0.901666</v>
       </c>
       <c r="D85" t="n">
-        <v>0.85426</v>
+        <v>0.858518</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.842527</v>
+        <v>0.847014</v>
       </c>
       <c r="C86" t="n">
-        <v>0.878138</v>
+        <v>0.880771</v>
       </c>
       <c r="D86" t="n">
-        <v>0.833195</v>
+        <v>0.836845</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.832284</v>
+        <v>0.835634</v>
       </c>
       <c r="C87" t="n">
-        <v>0.858894</v>
+        <v>0.860926</v>
       </c>
       <c r="D87" t="n">
-        <v>0.812391</v>
+        <v>0.816608</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.820619</v>
+        <v>0.824616</v>
       </c>
       <c r="C88" t="n">
-        <v>0.83817</v>
+        <v>0.840727</v>
       </c>
       <c r="D88" t="n">
-        <v>0.792912</v>
+        <v>0.79495</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.808739</v>
+        <v>0.811242</v>
       </c>
       <c r="C89" t="n">
-        <v>0.818922</v>
+        <v>0.81994</v>
       </c>
       <c r="D89" t="n">
-        <v>0.774882</v>
+        <v>0.774865</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.800129</v>
+        <v>0.802679</v>
       </c>
       <c r="C90" t="n">
-        <v>0.802321</v>
+        <v>0.804224</v>
       </c>
       <c r="D90" t="n">
-        <v>0.758735</v>
+        <v>0.7593529999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.790953</v>
+        <v>0.793273</v>
       </c>
       <c r="C91" t="n">
-        <v>0.785054</v>
+        <v>0.785868</v>
       </c>
       <c r="D91" t="n">
-        <v>0.741603</v>
+        <v>0.742096</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.78305</v>
+        <v>0.785627</v>
       </c>
       <c r="C92" t="n">
-        <v>0.769605</v>
+        <v>0.770467</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7270219999999999</v>
+        <v>0.728868</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.777825</v>
+        <v>0.780274</v>
       </c>
       <c r="C93" t="n">
-        <v>0.756477</v>
+        <v>0.756804</v>
       </c>
       <c r="D93" t="n">
-        <v>0.714401</v>
+        <v>0.716168</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.773406</v>
+        <v>0.776493</v>
       </c>
       <c r="C94" t="n">
-        <v>0.743859</v>
+        <v>0.745833</v>
       </c>
       <c r="D94" t="n">
-        <v>1.05098</v>
+        <v>1.05158</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02751</v>
+        <v>1.02892</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08931</v>
+        <v>1.0889</v>
       </c>
       <c r="D95" t="n">
-        <v>1.0395</v>
+        <v>1.0402</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02633</v>
+        <v>1.02819</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08195</v>
+        <v>1.08392</v>
       </c>
       <c r="D96" t="n">
-        <v>1.02334</v>
+        <v>1.02601</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01831</v>
+        <v>1.02072</v>
       </c>
       <c r="C97" t="n">
-        <v>1.0655</v>
+        <v>1.06544</v>
       </c>
       <c r="D97" t="n">
-        <v>1.00522</v>
+        <v>1.00698</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00735</v>
+        <v>1.00927</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04692</v>
+        <v>1.04685</v>
       </c>
       <c r="D98" t="n">
-        <v>0.986631</v>
+        <v>0.987686</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.997436</v>
+        <v>0.998797</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02823</v>
+        <v>1.02918</v>
       </c>
       <c r="D99" t="n">
-        <v>0.967263</v>
+        <v>0.969252</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.986735</v>
+        <v>0.988542</v>
       </c>
       <c r="C100" t="n">
-        <v>1.0099</v>
+        <v>1.01185</v>
       </c>
       <c r="D100" t="n">
-        <v>0.950821</v>
+        <v>0.951711</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.977542</v>
+        <v>0.978589</v>
       </c>
       <c r="C101" t="n">
-        <v>0.99432</v>
+        <v>0.994255</v>
       </c>
       <c r="D101" t="n">
-        <v>0.933707</v>
+        <v>0.932974</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.968033</v>
+        <v>0.969892</v>
       </c>
       <c r="C102" t="n">
-        <v>0.978724</v>
+        <v>0.979032</v>
       </c>
       <c r="D102" t="n">
-        <v>0.917297</v>
+        <v>0.917702</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.961014</v>
+        <v>0.961561</v>
       </c>
       <c r="C103" t="n">
-        <v>0.963484</v>
+        <v>0.964585</v>
       </c>
       <c r="D103" t="n">
-        <v>0.902039</v>
+        <v>0.903991</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9535130000000001</v>
+        <v>0.955037</v>
       </c>
       <c r="C104" t="n">
-        <v>0.949194</v>
+        <v>0.949896</v>
       </c>
       <c r="D104" t="n">
-        <v>0.887024</v>
+        <v>0.889315</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.947568</v>
+        <v>0.949345</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9366</v>
+        <v>0.935712</v>
       </c>
       <c r="D105" t="n">
-        <v>0.873833</v>
+        <v>0.874723</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.943412</v>
+        <v>0.944186</v>
       </c>
       <c r="C106" t="n">
-        <v>0.924005</v>
+        <v>0.922597</v>
       </c>
       <c r="D106" t="n">
-        <v>0.862799</v>
+        <v>0.862351</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9400849999999999</v>
+        <v>0.9412700000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.912591</v>
+        <v>0.912023</v>
       </c>
       <c r="D107" t="n">
-        <v>0.851374</v>
+        <v>0.851832</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.940575</v>
+        <v>0.942207</v>
       </c>
       <c r="C108" t="n">
-        <v>0.903497</v>
+        <v>0.903937</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18402</v>
+        <v>1.18519</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.945031</v>
+        <v>0.946105</v>
       </c>
       <c r="C109" t="n">
-        <v>0.897676</v>
+        <v>0.898379</v>
       </c>
       <c r="D109" t="n">
-        <v>1.17513</v>
+        <v>1.17757</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18683</v>
+        <v>1.18903</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24258</v>
+        <v>1.24425</v>
       </c>
       <c r="D110" t="n">
-        <v>1.15974</v>
+        <v>1.16208</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17501</v>
+        <v>1.17755</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22498</v>
+        <v>1.22599</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14222</v>
+        <v>1.14532</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16371</v>
+        <v>1.16517</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20654</v>
+        <v>1.20817</v>
       </c>
       <c r="D112" t="n">
-        <v>1.12682</v>
+        <v>1.13001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15165</v>
+        <v>1.15551</v>
       </c>
       <c r="C113" t="n">
-        <v>1.18865</v>
+        <v>1.18914</v>
       </c>
       <c r="D113" t="n">
-        <v>1.11149</v>
+        <v>1.11491</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14174</v>
+        <v>1.14461</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17292</v>
+        <v>1.17196</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09807</v>
+        <v>1.09671</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13151</v>
+        <v>1.13638</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15705</v>
+        <v>1.15707</v>
       </c>
       <c r="D115" t="n">
-        <v>1.08392</v>
+        <v>1.08522</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12258</v>
+        <v>1.12671</v>
       </c>
       <c r="C116" t="n">
-        <v>1.14189</v>
+        <v>1.14136</v>
       </c>
       <c r="D116" t="n">
-        <v>1.07143</v>
+        <v>1.07166</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11553</v>
+        <v>1.11817</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12691</v>
+        <v>1.12969</v>
       </c>
       <c r="D117" t="n">
-        <v>1.05825</v>
+        <v>1.06257</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10858</v>
+        <v>1.11174</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11423</v>
+        <v>1.11756</v>
       </c>
       <c r="D118" t="n">
-        <v>1.04625</v>
+        <v>1.05015</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10346</v>
+        <v>1.10723</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10225</v>
+        <v>1.10464</v>
       </c>
       <c r="D119" t="n">
-        <v>1.03844</v>
+        <v>1.03951</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.09985</v>
+        <v>1.10401</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09318</v>
+        <v>1.09314</v>
       </c>
       <c r="D120" t="n">
-        <v>1.02932</v>
+        <v>1.02949</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09834</v>
+        <v>1.10339</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08241</v>
+        <v>1.08679</v>
       </c>
       <c r="D121" t="n">
-        <v>1.01993</v>
+        <v>1.02442</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09916</v>
+        <v>1.10388</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07518</v>
+        <v>1.07581</v>
       </c>
       <c r="D122" t="n">
-        <v>1.01199</v>
+        <v>1.01541</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10378</v>
+        <v>1.10814</v>
       </c>
       <c r="C123" t="n">
-        <v>1.06866</v>
+        <v>1.07131</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34033</v>
+        <v>1.34839</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35092</v>
+        <v>1.35485</v>
       </c>
       <c r="C124" t="n">
-        <v>1.41432</v>
+        <v>1.41636</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33167</v>
+        <v>1.335</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.34146</v>
+        <v>1.34568</v>
       </c>
       <c r="C125" t="n">
-        <v>1.3977</v>
+        <v>1.39923</v>
       </c>
       <c r="D125" t="n">
-        <v>1.31907</v>
+        <v>1.3225</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33241</v>
+        <v>1.33689</v>
       </c>
       <c r="C126" t="n">
-        <v>1.38286</v>
+        <v>1.38582</v>
       </c>
       <c r="D126" t="n">
-        <v>1.30782</v>
+        <v>1.31171</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32427</v>
+        <v>1.32825</v>
       </c>
       <c r="C127" t="n">
-        <v>1.36816</v>
+        <v>1.3705</v>
       </c>
       <c r="D127" t="n">
-        <v>1.29312</v>
+        <v>1.29952</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31598</v>
+        <v>1.32091</v>
       </c>
       <c r="C128" t="n">
-        <v>1.353</v>
+        <v>1.35742</v>
       </c>
       <c r="D128" t="n">
-        <v>1.28721</v>
+        <v>1.29056</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.30979</v>
+        <v>1.31367</v>
       </c>
       <c r="C129" t="n">
-        <v>1.33954</v>
+        <v>1.34325</v>
       </c>
       <c r="D129" t="n">
-        <v>1.27327</v>
+        <v>1.28011</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.3031</v>
+        <v>1.30784</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32967</v>
+        <v>1.33174</v>
       </c>
       <c r="D130" t="n">
-        <v>1.26746</v>
+        <v>1.27127</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29786</v>
+        <v>1.30195</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31628</v>
+        <v>1.31957</v>
       </c>
       <c r="D131" t="n">
-        <v>1.25894</v>
+        <v>1.2594</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29441</v>
+        <v>1.29897</v>
       </c>
       <c r="C132" t="n">
-        <v>1.30546</v>
+        <v>1.30939</v>
       </c>
       <c r="D132" t="n">
-        <v>1.25056</v>
+        <v>1.25342</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.2907</v>
+        <v>1.29598</v>
       </c>
       <c r="C133" t="n">
-        <v>1.29473</v>
+        <v>1.30046</v>
       </c>
       <c r="D133" t="n">
-        <v>1.23992</v>
+        <v>1.24719</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.28981</v>
+        <v>1.29429</v>
       </c>
       <c r="C134" t="n">
-        <v>1.28793</v>
+        <v>1.29034</v>
       </c>
       <c r="D134" t="n">
-        <v>1.23473</v>
+        <v>1.24016</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.28998</v>
+        <v>1.29534</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28</v>
+        <v>1.28516</v>
       </c>
       <c r="D135" t="n">
-        <v>1.22867</v>
+        <v>1.23425</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.29251</v>
+        <v>1.29758</v>
       </c>
       <c r="C136" t="n">
-        <v>1.274</v>
+        <v>1.27797</v>
       </c>
       <c r="D136" t="n">
-        <v>1.22002</v>
+        <v>1.22655</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.29847</v>
+        <v>1.30274</v>
       </c>
       <c r="C137" t="n">
-        <v>1.26908</v>
+        <v>1.2728</v>
       </c>
       <c r="D137" t="n">
-        <v>1.5491</v>
+        <v>1.55566</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54515</v>
+        <v>1.54884</v>
       </c>
       <c r="C138" t="n">
-        <v>1.6114</v>
+        <v>1.61458</v>
       </c>
       <c r="D138" t="n">
-        <v>1.54161</v>
+        <v>1.54397</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53831</v>
+        <v>1.54132</v>
       </c>
       <c r="C139" t="n">
-        <v>1.59738</v>
+        <v>1.60292</v>
       </c>
       <c r="D139" t="n">
-        <v>1.53004</v>
+        <v>1.5356</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.53094</v>
+        <v>1.53553</v>
       </c>
       <c r="C140" t="n">
-        <v>1.5851</v>
+        <v>1.58835</v>
       </c>
       <c r="D140" t="n">
-        <v>1.52144</v>
+        <v>1.52628</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52481</v>
+        <v>1.52944</v>
       </c>
       <c r="C141" t="n">
-        <v>1.57439</v>
+        <v>1.57804</v>
       </c>
       <c r="D141" t="n">
-        <v>1.51373</v>
+        <v>1.51663</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.51916</v>
+        <v>1.52391</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56172</v>
+        <v>1.56546</v>
       </c>
       <c r="D142" t="n">
-        <v>1.50617</v>
+        <v>1.50992</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51508</v>
+        <v>1.51933</v>
       </c>
       <c r="C143" t="n">
-        <v>1.55197</v>
+        <v>1.55612</v>
       </c>
       <c r="D143" t="n">
-        <v>1.49671</v>
+        <v>1.50059</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.576433</v>
+        <v>0.576948</v>
       </c>
       <c r="C2" t="n">
-        <v>0.598651</v>
+        <v>0.598562</v>
       </c>
       <c r="D2" t="n">
-        <v>0.589015</v>
+        <v>0.58973</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564131</v>
+        <v>0.56397</v>
       </c>
       <c r="C3" t="n">
-        <v>0.580372</v>
+        <v>0.580164</v>
       </c>
       <c r="D3" t="n">
-        <v>0.572484</v>
+        <v>0.5725170000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.552465</v>
+        <v>0.552005</v>
       </c>
       <c r="C4" t="n">
-        <v>0.563724</v>
+        <v>0.564539</v>
       </c>
       <c r="D4" t="n">
-        <v>0.556601</v>
+        <v>0.556823</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.542837</v>
+        <v>0.542722</v>
       </c>
       <c r="C5" t="n">
-        <v>0.548465</v>
+        <v>0.548832</v>
       </c>
       <c r="D5" t="n">
-        <v>0.542593</v>
+        <v>0.542483</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.534134</v>
+        <v>0.533986</v>
       </c>
       <c r="C6" t="n">
-        <v>0.534689</v>
+        <v>0.535545</v>
       </c>
       <c r="D6" t="n">
-        <v>0.529979</v>
+        <v>0.530702</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.528064</v>
+        <v>0.527625</v>
       </c>
       <c r="C7" t="n">
-        <v>0.521917</v>
+        <v>0.5229510000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.520076</v>
+        <v>0.52021</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.525077</v>
+        <v>0.524885</v>
       </c>
       <c r="C8" t="n">
-        <v>0.51263</v>
+        <v>0.51279</v>
       </c>
       <c r="D8" t="n">
-        <v>0.512389</v>
+        <v>0.511401</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.525856</v>
+        <v>0.525272</v>
       </c>
       <c r="C9" t="n">
-        <v>0.504332</v>
+        <v>0.504597</v>
       </c>
       <c r="D9" t="n">
-        <v>0.775989</v>
+        <v>0.776054</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.674223</v>
+        <v>0.673731</v>
       </c>
       <c r="C10" t="n">
-        <v>0.735372</v>
+        <v>0.734722</v>
       </c>
       <c r="D10" t="n">
-        <v>0.750121</v>
+        <v>0.749882</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.654933</v>
+        <v>0.653213</v>
       </c>
       <c r="C11" t="n">
-        <v>0.711413</v>
+        <v>0.711471</v>
       </c>
       <c r="D11" t="n">
-        <v>0.726116</v>
+        <v>0.725052</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.635921</v>
+        <v>0.634285</v>
       </c>
       <c r="C12" t="n">
-        <v>0.688127</v>
+        <v>0.687202</v>
       </c>
       <c r="D12" t="n">
-        <v>0.702688</v>
+        <v>0.701982</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.618303</v>
+        <v>0.616537</v>
       </c>
       <c r="C13" t="n">
-        <v>0.666252</v>
+        <v>0.66534</v>
       </c>
       <c r="D13" t="n">
-        <v>0.680889</v>
+        <v>0.680131</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.602649</v>
+        <v>0.600589</v>
       </c>
       <c r="C14" t="n">
-        <v>0.645418</v>
+        <v>0.644729</v>
       </c>
       <c r="D14" t="n">
-        <v>0.659924</v>
+        <v>0.659206</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.586972</v>
+        <v>0.586064</v>
       </c>
       <c r="C15" t="n">
-        <v>0.625543</v>
+        <v>0.624403</v>
       </c>
       <c r="D15" t="n">
-        <v>0.640311</v>
+        <v>0.63968</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.572621</v>
+        <v>0.570916</v>
       </c>
       <c r="C16" t="n">
-        <v>0.606938</v>
+        <v>0.606028</v>
       </c>
       <c r="D16" t="n">
-        <v>0.621706</v>
+        <v>0.62066</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.560091</v>
+        <v>0.558165</v>
       </c>
       <c r="C17" t="n">
-        <v>0.58969</v>
+        <v>0.588577</v>
       </c>
       <c r="D17" t="n">
-        <v>0.603754</v>
+        <v>0.60359</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.548677</v>
+        <v>0.547121</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5732699999999999</v>
+        <v>0.573379</v>
       </c>
       <c r="D18" t="n">
-        <v>0.586668</v>
+        <v>0.585924</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.53808</v>
+        <v>0.536181</v>
       </c>
       <c r="C19" t="n">
-        <v>0.557849</v>
+        <v>0.556798</v>
       </c>
       <c r="D19" t="n">
-        <v>0.570892</v>
+        <v>0.570715</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5292519999999999</v>
+        <v>0.528292</v>
       </c>
       <c r="C20" t="n">
-        <v>0.543879</v>
+        <v>0.542552</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5578</v>
+        <v>0.556774</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.522075</v>
+        <v>0.520488</v>
       </c>
       <c r="C21" t="n">
-        <v>0.530911</v>
+        <v>0.529574</v>
       </c>
       <c r="D21" t="n">
-        <v>0.545977</v>
+        <v>0.544666</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.518003</v>
+        <v>0.516522</v>
       </c>
       <c r="C22" t="n">
-        <v>0.520307</v>
+        <v>0.51899</v>
       </c>
       <c r="D22" t="n">
-        <v>0.537009</v>
+        <v>0.536046</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.517904</v>
+        <v>0.516123</v>
       </c>
       <c r="C23" t="n">
-        <v>0.511846</v>
+        <v>0.510339</v>
       </c>
       <c r="D23" t="n">
-        <v>0.810922</v>
+        <v>0.827423</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.721706</v>
+        <v>0.725501</v>
       </c>
       <c r="C24" t="n">
-        <v>0.790584</v>
+        <v>0.7944020000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.783609</v>
+        <v>0.7980660000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.700439</v>
+        <v>0.705897</v>
       </c>
       <c r="C25" t="n">
-        <v>0.764812</v>
+        <v>0.769028</v>
       </c>
       <c r="D25" t="n">
-        <v>0.757881</v>
+        <v>0.773119</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6802589999999999</v>
+        <v>0.685357</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7399559999999999</v>
+        <v>0.743799</v>
       </c>
       <c r="D26" t="n">
-        <v>0.73369</v>
+        <v>0.747426</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.660857</v>
+        <v>0.665365</v>
       </c>
       <c r="C27" t="n">
-        <v>0.716106</v>
+        <v>0.718507</v>
       </c>
       <c r="D27" t="n">
-        <v>0.71027</v>
+        <v>0.710626</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6427619999999999</v>
+        <v>0.6431</v>
       </c>
       <c r="C28" t="n">
-        <v>0.69278</v>
+        <v>0.694478</v>
       </c>
       <c r="D28" t="n">
-        <v>0.688078</v>
+        <v>0.688798</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.625705</v>
+        <v>0.626167</v>
       </c>
       <c r="C29" t="n">
-        <v>0.671444</v>
+        <v>0.6725680000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.667055</v>
+        <v>0.667876</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.610006</v>
+        <v>0.610525</v>
       </c>
       <c r="C30" t="n">
-        <v>0.651387</v>
+        <v>0.651756</v>
       </c>
       <c r="D30" t="n">
-        <v>0.647219</v>
+        <v>0.64811</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5951340000000001</v>
+        <v>0.595804</v>
       </c>
       <c r="C31" t="n">
-        <v>0.631733</v>
+        <v>0.6323530000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.629041</v>
+        <v>0.62896</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.581983</v>
+        <v>0.582491</v>
       </c>
       <c r="C32" t="n">
-        <v>0.613442</v>
+        <v>0.613659</v>
       </c>
       <c r="D32" t="n">
-        <v>0.610939</v>
+        <v>0.621234</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.570244</v>
+        <v>0.572481</v>
       </c>
       <c r="C33" t="n">
-        <v>0.596973</v>
+        <v>0.599051</v>
       </c>
       <c r="D33" t="n">
-        <v>0.595186</v>
+        <v>0.599458</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.55963</v>
+        <v>0.562182</v>
       </c>
       <c r="C34" t="n">
-        <v>0.581224</v>
+        <v>0.583712</v>
       </c>
       <c r="D34" t="n">
-        <v>0.580298</v>
+        <v>0.587096</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.551176</v>
+        <v>0.551513</v>
       </c>
       <c r="C35" t="n">
-        <v>0.566628</v>
+        <v>0.56789</v>
       </c>
       <c r="D35" t="n">
-        <v>0.567367</v>
+        <v>0.5685789999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.545168</v>
+        <v>0.545336</v>
       </c>
       <c r="C36" t="n">
-        <v>0.553743</v>
+        <v>0.554893</v>
       </c>
       <c r="D36" t="n">
-        <v>0.557249</v>
+        <v>0.558622</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.541864</v>
+        <v>0.542388</v>
       </c>
       <c r="C37" t="n">
-        <v>0.543778</v>
+        <v>0.544811</v>
       </c>
       <c r="D37" t="n">
-        <v>0.837228</v>
+        <v>0.868019</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.75239</v>
+        <v>0.768539</v>
       </c>
       <c r="C38" t="n">
-        <v>0.826249</v>
+        <v>0.84645</v>
       </c>
       <c r="D38" t="n">
-        <v>0.80911</v>
+        <v>0.839428</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.730843</v>
+        <v>0.746905</v>
       </c>
       <c r="C39" t="n">
-        <v>0.800175</v>
+        <v>0.8192739999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.783013</v>
+        <v>0.811095</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.709748</v>
+        <v>0.72496</v>
       </c>
       <c r="C40" t="n">
-        <v>0.773943</v>
+        <v>0.792201</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7571830000000001</v>
+        <v>0.785103</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.689296</v>
+        <v>0.704959</v>
       </c>
       <c r="C41" t="n">
-        <v>0.748383</v>
+        <v>0.76684</v>
       </c>
       <c r="D41" t="n">
-        <v>0.733069</v>
+        <v>0.75912</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.67057</v>
+        <v>0.683951</v>
       </c>
       <c r="C42" t="n">
-        <v>0.725615</v>
+        <v>0.741859</v>
       </c>
       <c r="D42" t="n">
-        <v>0.710878</v>
+        <v>0.735487</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.652379</v>
+        <v>0.6655799999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.702948</v>
+        <v>0.718743</v>
       </c>
       <c r="D43" t="n">
-        <v>0.68963</v>
+        <v>0.713086</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.635287</v>
+        <v>0.651444</v>
       </c>
       <c r="C44" t="n">
-        <v>0.682221</v>
+        <v>0.700192</v>
       </c>
       <c r="D44" t="n">
-        <v>0.669632</v>
+        <v>0.69424</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.619864</v>
+        <v>0.6373180000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.662142</v>
+        <v>0.6805330000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.650409</v>
+        <v>0.6755910000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.605689</v>
+        <v>0.623478</v>
       </c>
       <c r="C46" t="n">
-        <v>0.642952</v>
+        <v>0.660039</v>
       </c>
       <c r="D46" t="n">
-        <v>0.631993</v>
+        <v>0.656272</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.59427</v>
+        <v>0.610703</v>
       </c>
       <c r="C47" t="n">
-        <v>0.625244</v>
+        <v>0.642145</v>
       </c>
       <c r="D47" t="n">
-        <v>0.614977</v>
+        <v>0.637181</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.582508</v>
+        <v>0.597052</v>
       </c>
       <c r="C48" t="n">
-        <v>0.608283</v>
+        <v>0.620789</v>
       </c>
       <c r="D48" t="n">
-        <v>0.599164</v>
+        <v>0.617154</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.573829</v>
+        <v>0.583248</v>
       </c>
       <c r="C49" t="n">
-        <v>0.592733</v>
+        <v>0.605398</v>
       </c>
       <c r="D49" t="n">
-        <v>0.584758</v>
+        <v>0.602875</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.567299</v>
+        <v>0.575948</v>
       </c>
       <c r="C50" t="n">
-        <v>0.580155</v>
+        <v>0.591029</v>
       </c>
       <c r="D50" t="n">
-        <v>0.574678</v>
+        <v>0.58871</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.562983</v>
+        <v>0.569847</v>
       </c>
       <c r="C51" t="n">
-        <v>0.568782</v>
+        <v>0.577334</v>
       </c>
       <c r="D51" t="n">
-        <v>0.864161</v>
+        <v>0.898983</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5632</v>
+        <v>0.568738</v>
       </c>
       <c r="C52" t="n">
-        <v>0.559585</v>
+        <v>0.568684</v>
       </c>
       <c r="D52" t="n">
-        <v>0.835483</v>
+        <v>0.87302</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.75886</v>
+        <v>0.790307</v>
       </c>
       <c r="C53" t="n">
-        <v>0.82955</v>
+        <v>0.8602959999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.807882</v>
+        <v>0.841258</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.73815</v>
+        <v>0.767413</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8030620000000001</v>
+        <v>0.83061</v>
       </c>
       <c r="D54" t="n">
-        <v>0.782081</v>
+        <v>0.813173</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.717149</v>
+        <v>0.747278</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7773600000000001</v>
+        <v>0.804531</v>
       </c>
       <c r="D55" t="n">
-        <v>0.75749</v>
+        <v>0.787673</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.698165</v>
+        <v>0.726309</v>
       </c>
       <c r="C56" t="n">
-        <v>0.756984</v>
+        <v>0.7795609999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.735385</v>
+        <v>0.764943</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.681855</v>
+        <v>0.7088370000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.733297</v>
+        <v>0.753471</v>
       </c>
       <c r="D57" t="n">
-        <v>0.714512</v>
+        <v>0.737557</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.664595</v>
+        <v>0.690308</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7105939999999999</v>
+        <v>0.730789</v>
       </c>
       <c r="D58" t="n">
-        <v>0.694173</v>
+        <v>0.716237</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.647965</v>
+        <v>0.674589</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6903319999999999</v>
+        <v>0.709966</v>
       </c>
       <c r="D59" t="n">
-        <v>0.675253</v>
+        <v>0.696035</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.635701</v>
+        <v>0.662868</v>
       </c>
       <c r="C60" t="n">
-        <v>0.671229</v>
+        <v>0.693563</v>
       </c>
       <c r="D60" t="n">
-        <v>0.65715</v>
+        <v>0.679325</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.622847</v>
+        <v>0.6217780000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.653617</v>
+        <v>0.653181</v>
       </c>
       <c r="D61" t="n">
-        <v>0.640063</v>
+        <v>0.638825</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6101799999999999</v>
+        <v>0.609673</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6362139999999999</v>
+        <v>0.636915</v>
       </c>
       <c r="D62" t="n">
-        <v>0.623323</v>
+        <v>0.62357</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.600172</v>
+        <v>0.600257</v>
       </c>
       <c r="C63" t="n">
-        <v>0.620959</v>
+        <v>0.621511</v>
       </c>
       <c r="D63" t="n">
-        <v>0.609227</v>
+        <v>0.60926</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.592845</v>
+        <v>0.592569</v>
       </c>
       <c r="C64" t="n">
-        <v>0.605792</v>
+        <v>0.606957</v>
       </c>
       <c r="D64" t="n">
-        <v>0.597069</v>
+        <v>0.597356</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5879529999999999</v>
+        <v>0.587975</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5936979999999999</v>
+        <v>0.595296</v>
       </c>
       <c r="D65" t="n">
-        <v>0.588136</v>
+        <v>0.588489</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5862540000000001</v>
+        <v>0.586994</v>
       </c>
       <c r="C66" t="n">
-        <v>0.583788</v>
+        <v>0.587031</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8871329999999999</v>
+        <v>0.881307</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8190809999999999</v>
+        <v>0.814658</v>
       </c>
       <c r="C67" t="n">
-        <v>0.89364</v>
+        <v>0.891381</v>
       </c>
       <c r="D67" t="n">
-        <v>0.857638</v>
+        <v>0.85446</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.799889</v>
+        <v>0.796933</v>
       </c>
       <c r="C68" t="n">
-        <v>0.866313</v>
+        <v>0.864322</v>
       </c>
       <c r="D68" t="n">
-        <v>0.834997</v>
+        <v>0.829503</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7841320000000001</v>
+        <v>0.780149</v>
       </c>
       <c r="C69" t="n">
-        <v>0.843839</v>
+        <v>0.8393620000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8101</v>
+        <v>0.804959</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.765787</v>
+        <v>0.76295</v>
       </c>
       <c r="C70" t="n">
-        <v>0.817263</v>
+        <v>0.813333</v>
       </c>
       <c r="D70" t="n">
-        <v>0.786064</v>
+        <v>0.780738</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.750793</v>
+        <v>0.745138</v>
       </c>
       <c r="C71" t="n">
-        <v>0.793345</v>
+        <v>0.790181</v>
       </c>
       <c r="D71" t="n">
-        <v>0.762026</v>
+        <v>0.758228</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.732288</v>
+        <v>0.7299639999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.77002</v>
+        <v>0.768605</v>
       </c>
       <c r="D72" t="n">
-        <v>0.738903</v>
+        <v>0.7375119999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.716549</v>
+        <v>0.71447</v>
       </c>
       <c r="C73" t="n">
-        <v>0.746729</v>
+        <v>0.74686</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7166670000000001</v>
+        <v>0.717332</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.699621</v>
+        <v>0.69991</v>
       </c>
       <c r="C74" t="n">
-        <v>0.726015</v>
+        <v>0.726075</v>
       </c>
       <c r="D74" t="n">
-        <v>0.700678</v>
+        <v>0.697873</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.68926</v>
+        <v>0.686526</v>
       </c>
       <c r="C75" t="n">
-        <v>0.709018</v>
+        <v>0.7068179999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.683231</v>
+        <v>0.680078</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.677173</v>
+        <v>0.674961</v>
       </c>
       <c r="C76" t="n">
-        <v>0.69121</v>
+        <v>0.689487</v>
       </c>
       <c r="D76" t="n">
-        <v>0.66703</v>
+        <v>0.663893</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.666917</v>
+        <v>0.663497</v>
       </c>
       <c r="C77" t="n">
-        <v>0.675193</v>
+        <v>0.672897</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6524759999999999</v>
+        <v>0.648946</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.658079</v>
+        <v>0.655102</v>
       </c>
       <c r="C78" t="n">
-        <v>0.659447</v>
+        <v>0.66884</v>
       </c>
       <c r="D78" t="n">
-        <v>0.636704</v>
+        <v>0.651011</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.652844</v>
+        <v>0.667664</v>
       </c>
       <c r="C79" t="n">
-        <v>0.646933</v>
+        <v>0.658799</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6294920000000001</v>
+        <v>0.639953</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6495840000000001</v>
+        <v>0.662641</v>
       </c>
       <c r="C80" t="n">
-        <v>0.635732</v>
+        <v>0.647487</v>
       </c>
       <c r="D80" t="n">
-        <v>0.957292</v>
+        <v>0.971298</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.896591</v>
+        <v>0.909573</v>
       </c>
       <c r="C81" t="n">
-        <v>0.976208</v>
+        <v>0.9906470000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.939661</v>
+        <v>0.953793</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.888495</v>
+        <v>0.902075</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9627019999999999</v>
+        <v>0.975208</v>
       </c>
       <c r="D82" t="n">
-        <v>0.921894</v>
+        <v>0.933727</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.879748</v>
+        <v>0.891806</v>
       </c>
       <c r="C83" t="n">
-        <v>0.942558</v>
+        <v>0.955413</v>
       </c>
       <c r="D83" t="n">
-        <v>0.900475</v>
+        <v>0.91206</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.869439</v>
+        <v>0.879864</v>
       </c>
       <c r="C84" t="n">
-        <v>0.92164</v>
+        <v>0.93452</v>
       </c>
       <c r="D84" t="n">
-        <v>0.87932</v>
+        <v>0.890702</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.858241</v>
+        <v>0.868175</v>
       </c>
       <c r="C85" t="n">
-        <v>0.901666</v>
+        <v>0.913189</v>
       </c>
       <c r="D85" t="n">
-        <v>0.858518</v>
+        <v>0.868852</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.847014</v>
+        <v>0.855619</v>
       </c>
       <c r="C86" t="n">
-        <v>0.880771</v>
+        <v>0.891637</v>
       </c>
       <c r="D86" t="n">
-        <v>0.836845</v>
+        <v>0.8472460000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.835634</v>
+        <v>0.844384</v>
       </c>
       <c r="C87" t="n">
-        <v>0.860926</v>
+        <v>0.870441</v>
       </c>
       <c r="D87" t="n">
-        <v>0.816608</v>
+        <v>0.826387</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.824616</v>
+        <v>0.831575</v>
       </c>
       <c r="C88" t="n">
-        <v>0.840727</v>
+        <v>0.849484</v>
       </c>
       <c r="D88" t="n">
-        <v>0.79495</v>
+        <v>0.805124</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.811242</v>
+        <v>0.819679</v>
       </c>
       <c r="C89" t="n">
-        <v>0.81994</v>
+        <v>0.8312580000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.774865</v>
+        <v>0.786995</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.802679</v>
+        <v>0.809929</v>
       </c>
       <c r="C90" t="n">
-        <v>0.804224</v>
+        <v>0.813333</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7593529999999999</v>
+        <v>0.768684</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.793273</v>
+        <v>0.800015</v>
       </c>
       <c r="C91" t="n">
-        <v>0.785868</v>
+        <v>0.7957959999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.742096</v>
+        <v>0.752257</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.785627</v>
+        <v>0.7924020000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.770467</v>
+        <v>0.779346</v>
       </c>
       <c r="D92" t="n">
-        <v>0.728868</v>
+        <v>0.736376</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.780274</v>
+        <v>0.786593</v>
       </c>
       <c r="C93" t="n">
-        <v>0.756804</v>
+        <v>0.765482</v>
       </c>
       <c r="D93" t="n">
-        <v>0.716168</v>
+        <v>0.723539</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.776493</v>
+        <v>0.782139</v>
       </c>
       <c r="C94" t="n">
-        <v>0.745833</v>
+        <v>0.753575</v>
       </c>
       <c r="D94" t="n">
-        <v>1.05158</v>
+        <v>1.0593</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02892</v>
+        <v>1.03507</v>
       </c>
       <c r="C95" t="n">
-        <v>1.0889</v>
+        <v>1.09682</v>
       </c>
       <c r="D95" t="n">
-        <v>1.0402</v>
+        <v>1.04873</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02819</v>
+        <v>1.03396</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08392</v>
+        <v>1.08843</v>
       </c>
       <c r="D96" t="n">
-        <v>1.02601</v>
+        <v>1.03138</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02072</v>
+        <v>1.02387</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06544</v>
+        <v>1.07207</v>
       </c>
       <c r="D97" t="n">
-        <v>1.00698</v>
+        <v>1.01265</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00927</v>
+        <v>1.01333</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04685</v>
+        <v>1.05224</v>
       </c>
       <c r="D98" t="n">
-        <v>0.987686</v>
+        <v>0.993869</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.998797</v>
+        <v>1.00229</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02918</v>
+        <v>1.03419</v>
       </c>
       <c r="D99" t="n">
-        <v>0.969252</v>
+        <v>0.974315</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.988542</v>
+        <v>0.991783</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01185</v>
+        <v>1.01612</v>
       </c>
       <c r="D100" t="n">
-        <v>0.951711</v>
+        <v>0.95604</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.978589</v>
+        <v>0.9810759999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.994255</v>
+        <v>0.999591</v>
       </c>
       <c r="D101" t="n">
-        <v>0.932974</v>
+        <v>0.938909</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.969892</v>
+        <v>0.9721880000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.979032</v>
+        <v>0.983283</v>
       </c>
       <c r="D102" t="n">
-        <v>0.917702</v>
+        <v>0.922567</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.961561</v>
+        <v>0.964255</v>
       </c>
       <c r="C103" t="n">
-        <v>0.964585</v>
+        <v>0.967557</v>
       </c>
       <c r="D103" t="n">
-        <v>0.903991</v>
+        <v>0.906892</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.955037</v>
+        <v>0.956546</v>
       </c>
       <c r="C104" t="n">
-        <v>0.949896</v>
+        <v>0.953156</v>
       </c>
       <c r="D104" t="n">
-        <v>0.889315</v>
+        <v>0.892074</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.949345</v>
+        <v>0.950554</v>
       </c>
       <c r="C105" t="n">
-        <v>0.935712</v>
+        <v>0.939528</v>
       </c>
       <c r="D105" t="n">
-        <v>0.874723</v>
+        <v>0.879087</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.944186</v>
+        <v>0.9458259999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.922597</v>
+        <v>0.927284</v>
       </c>
       <c r="D106" t="n">
-        <v>0.862351</v>
+        <v>0.866474</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9412700000000001</v>
+        <v>0.943008</v>
       </c>
       <c r="C107" t="n">
-        <v>0.912023</v>
+        <v>0.916304</v>
       </c>
       <c r="D107" t="n">
-        <v>0.851832</v>
+        <v>0.856189</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.942207</v>
+        <v>0.94299</v>
       </c>
       <c r="C108" t="n">
-        <v>0.903937</v>
+        <v>0.907705</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18519</v>
+        <v>1.1912</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.946105</v>
+        <v>0.947384</v>
       </c>
       <c r="C109" t="n">
-        <v>0.898379</v>
+        <v>0.901304</v>
       </c>
       <c r="D109" t="n">
-        <v>1.17757</v>
+        <v>1.18219</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18903</v>
+        <v>1.19319</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24425</v>
+        <v>1.24928</v>
       </c>
       <c r="D110" t="n">
-        <v>1.16208</v>
+        <v>1.16508</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17755</v>
+        <v>1.18131</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22599</v>
+        <v>1.22984</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14532</v>
+        <v>1.14747</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16517</v>
+        <v>1.1688</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20817</v>
+        <v>1.21209</v>
       </c>
       <c r="D112" t="n">
-        <v>1.13001</v>
+        <v>1.13214</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15551</v>
+        <v>1.15643</v>
       </c>
       <c r="C113" t="n">
-        <v>1.18914</v>
+        <v>1.19424</v>
       </c>
       <c r="D113" t="n">
-        <v>1.11491</v>
+        <v>1.11685</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14461</v>
+        <v>1.14555</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17196</v>
+        <v>1.17643</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09671</v>
+        <v>1.10188</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13638</v>
+        <v>1.13577</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15707</v>
+        <v>1.16098</v>
       </c>
       <c r="D115" t="n">
-        <v>1.08522</v>
+        <v>1.08846</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12671</v>
+        <v>1.12636</v>
       </c>
       <c r="C116" t="n">
-        <v>1.14136</v>
+        <v>1.14537</v>
       </c>
       <c r="D116" t="n">
-        <v>1.07166</v>
+        <v>1.07545</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11817</v>
+        <v>1.11894</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12969</v>
+        <v>1.13191</v>
       </c>
       <c r="D117" t="n">
-        <v>1.06257</v>
+        <v>1.0638</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.11174</v>
+        <v>1.11153</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11756</v>
+        <v>1.11858</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05015</v>
+        <v>1.05179</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10723</v>
+        <v>1.10614</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10464</v>
+        <v>1.10648</v>
       </c>
       <c r="D119" t="n">
-        <v>1.03951</v>
+        <v>1.04118</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.10401</v>
+        <v>1.10168</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09314</v>
+        <v>1.09464</v>
       </c>
       <c r="D120" t="n">
-        <v>1.02949</v>
+        <v>1.03054</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10339</v>
+        <v>1.09883</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08679</v>
+        <v>1.08452</v>
       </c>
       <c r="D121" t="n">
-        <v>1.02442</v>
+        <v>1.02196</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.10388</v>
+        <v>1.10011</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07581</v>
+        <v>1.07685</v>
       </c>
       <c r="D122" t="n">
-        <v>1.01541</v>
+        <v>1.01487</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10814</v>
+        <v>1.10487</v>
       </c>
       <c r="C123" t="n">
-        <v>1.07131</v>
+        <v>1.07062</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34839</v>
+        <v>1.34662</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35485</v>
+        <v>1.35385</v>
       </c>
       <c r="C124" t="n">
-        <v>1.41636</v>
+        <v>1.41533</v>
       </c>
       <c r="D124" t="n">
-        <v>1.335</v>
+        <v>1.33425</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.34568</v>
+        <v>1.34468</v>
       </c>
       <c r="C125" t="n">
-        <v>1.39923</v>
+        <v>1.40022</v>
       </c>
       <c r="D125" t="n">
-        <v>1.3225</v>
+        <v>1.32213</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33689</v>
+        <v>1.33489</v>
       </c>
       <c r="C126" t="n">
-        <v>1.38582</v>
+        <v>1.38451</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31171</v>
+        <v>1.31022</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32825</v>
+        <v>1.32626</v>
       </c>
       <c r="C127" t="n">
-        <v>1.3705</v>
+        <v>1.37023</v>
       </c>
       <c r="D127" t="n">
-        <v>1.29952</v>
+        <v>1.29904</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.32091</v>
+        <v>1.31828</v>
       </c>
       <c r="C128" t="n">
-        <v>1.35742</v>
+        <v>1.35538</v>
       </c>
       <c r="D128" t="n">
-        <v>1.29056</v>
+        <v>1.28825</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31367</v>
+        <v>1.31056</v>
       </c>
       <c r="C129" t="n">
-        <v>1.34325</v>
+        <v>1.3416</v>
       </c>
       <c r="D129" t="n">
-        <v>1.28011</v>
+        <v>1.27757</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30784</v>
+        <v>1.30379</v>
       </c>
       <c r="C130" t="n">
-        <v>1.33174</v>
+        <v>1.32869</v>
       </c>
       <c r="D130" t="n">
-        <v>1.27127</v>
+        <v>1.26821</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.30195</v>
+        <v>1.29841</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31957</v>
+        <v>1.31695</v>
       </c>
       <c r="D131" t="n">
-        <v>1.2594</v>
+        <v>1.25861</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29897</v>
+        <v>1.29414</v>
       </c>
       <c r="C132" t="n">
-        <v>1.30939</v>
+        <v>1.30673</v>
       </c>
       <c r="D132" t="n">
-        <v>1.25342</v>
+        <v>1.25085</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29598</v>
+        <v>1.29173</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30046</v>
+        <v>1.29672</v>
       </c>
       <c r="D133" t="n">
-        <v>1.24719</v>
+        <v>1.24321</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.29429</v>
+        <v>1.28992</v>
       </c>
       <c r="C134" t="n">
-        <v>1.29034</v>
+        <v>1.28865</v>
       </c>
       <c r="D134" t="n">
-        <v>1.24016</v>
+        <v>1.23706</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.29534</v>
+        <v>1.28969</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28516</v>
+        <v>1.27983</v>
       </c>
       <c r="D135" t="n">
-        <v>1.23425</v>
+        <v>1.22956</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.29758</v>
+        <v>1.29244</v>
       </c>
       <c r="C136" t="n">
-        <v>1.27797</v>
+        <v>1.27391</v>
       </c>
       <c r="D136" t="n">
-        <v>1.22655</v>
+        <v>1.22171</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.30274</v>
+        <v>1.29688</v>
       </c>
       <c r="C137" t="n">
-        <v>1.2728</v>
+        <v>1.26863</v>
       </c>
       <c r="D137" t="n">
-        <v>1.55566</v>
+        <v>1.55334</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54884</v>
+        <v>1.54634</v>
       </c>
       <c r="C138" t="n">
-        <v>1.61458</v>
+        <v>1.61278</v>
       </c>
       <c r="D138" t="n">
-        <v>1.54397</v>
+        <v>1.54167</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.54132</v>
+        <v>1.53845</v>
       </c>
       <c r="C139" t="n">
-        <v>1.60292</v>
+        <v>1.59904</v>
       </c>
       <c r="D139" t="n">
-        <v>1.5356</v>
+        <v>1.53201</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.53553</v>
+        <v>1.5308</v>
       </c>
       <c r="C140" t="n">
-        <v>1.58835</v>
+        <v>1.58603</v>
       </c>
       <c r="D140" t="n">
-        <v>1.52628</v>
+        <v>1.5211</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52944</v>
+        <v>1.52455</v>
       </c>
       <c r="C141" t="n">
-        <v>1.57804</v>
+        <v>1.57377</v>
       </c>
       <c r="D141" t="n">
-        <v>1.51663</v>
+        <v>1.51235</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.52391</v>
+        <v>1.51809</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56546</v>
+        <v>1.5612</v>
       </c>
       <c r="D142" t="n">
-        <v>1.50992</v>
+        <v>1.5024</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51933</v>
+        <v>1.51301</v>
       </c>
       <c r="C143" t="n">
-        <v>1.55612</v>
+        <v>1.55075</v>
       </c>
       <c r="D143" t="n">
-        <v>1.50059</v>
+        <v>1.49509</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.576948</v>
+        <v>0.575745</v>
       </c>
       <c r="C2" t="n">
-        <v>0.598562</v>
+        <v>0.59746</v>
       </c>
       <c r="D2" t="n">
-        <v>0.58973</v>
+        <v>0.620799</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.56397</v>
+        <v>0.564062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.580164</v>
+        <v>0.580227</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5725170000000001</v>
+        <v>0.602989</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.552005</v>
+        <v>0.550764</v>
       </c>
       <c r="C4" t="n">
-        <v>0.564539</v>
+        <v>0.563352</v>
       </c>
       <c r="D4" t="n">
-        <v>0.556823</v>
+        <v>0.585268</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.542722</v>
+        <v>0.540615</v>
       </c>
       <c r="C5" t="n">
-        <v>0.548832</v>
+        <v>0.548523</v>
       </c>
       <c r="D5" t="n">
-        <v>0.542483</v>
+        <v>0.570336</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.533986</v>
+        <v>0.531734</v>
       </c>
       <c r="C6" t="n">
-        <v>0.535545</v>
+        <v>0.53438</v>
       </c>
       <c r="D6" t="n">
-        <v>0.530702</v>
+        <v>0.556805</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.527625</v>
+        <v>0.525213</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5229510000000001</v>
+        <v>0.521795</v>
       </c>
       <c r="D7" t="n">
-        <v>0.52021</v>
+        <v>0.545291</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.524885</v>
+        <v>0.5215649999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.51279</v>
+        <v>0.512099</v>
       </c>
       <c r="D8" t="n">
-        <v>0.511401</v>
+        <v>0.536502</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.525272</v>
+        <v>0.521369</v>
       </c>
       <c r="C9" t="n">
-        <v>0.504597</v>
+        <v>0.503704</v>
       </c>
       <c r="D9" t="n">
-        <v>0.776054</v>
+        <v>0.531199</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.673731</v>
+        <v>0.7229179999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.734722</v>
+        <v>0.776807</v>
       </c>
       <c r="D10" t="n">
-        <v>0.749882</v>
+        <v>0.809142</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.653213</v>
+        <v>0.701664</v>
       </c>
       <c r="C11" t="n">
-        <v>0.711471</v>
+        <v>0.751423</v>
       </c>
       <c r="D11" t="n">
-        <v>0.725052</v>
+        <v>0.781913</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.634285</v>
+        <v>0.680184</v>
       </c>
       <c r="C12" t="n">
-        <v>0.687202</v>
+        <v>0.726491</v>
       </c>
       <c r="D12" t="n">
-        <v>0.701982</v>
+        <v>0.755722</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.616537</v>
+        <v>0.660477</v>
       </c>
       <c r="C13" t="n">
-        <v>0.66534</v>
+        <v>0.702258</v>
       </c>
       <c r="D13" t="n">
-        <v>0.680131</v>
+        <v>0.730908</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.600589</v>
+        <v>0.642315</v>
       </c>
       <c r="C14" t="n">
-        <v>0.644729</v>
+        <v>0.680221</v>
       </c>
       <c r="D14" t="n">
-        <v>0.659206</v>
+        <v>0.707474</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.586064</v>
+        <v>0.6238320000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.624403</v>
+        <v>0.658533</v>
       </c>
       <c r="D15" t="n">
-        <v>0.63968</v>
+        <v>0.684983</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.570916</v>
+        <v>0.608258</v>
       </c>
       <c r="C16" t="n">
-        <v>0.606028</v>
+        <v>0.638881</v>
       </c>
       <c r="D16" t="n">
-        <v>0.62066</v>
+        <v>0.663524</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.558165</v>
+        <v>0.59384</v>
       </c>
       <c r="C17" t="n">
-        <v>0.588577</v>
+        <v>0.618998</v>
       </c>
       <c r="D17" t="n">
-        <v>0.60359</v>
+        <v>0.643536</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.547121</v>
+        <v>0.580692</v>
       </c>
       <c r="C18" t="n">
-        <v>0.573379</v>
+        <v>0.601583</v>
       </c>
       <c r="D18" t="n">
-        <v>0.585924</v>
+        <v>0.625005</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.536181</v>
+        <v>0.56738</v>
       </c>
       <c r="C19" t="n">
-        <v>0.556798</v>
+        <v>0.584905</v>
       </c>
       <c r="D19" t="n">
-        <v>0.570715</v>
+        <v>0.606914</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.528292</v>
+        <v>0.5581700000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.542552</v>
+        <v>0.568535</v>
       </c>
       <c r="D20" t="n">
-        <v>0.556774</v>
+        <v>0.591744</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.520488</v>
+        <v>0.548152</v>
       </c>
       <c r="C21" t="n">
-        <v>0.529574</v>
+        <v>0.55444</v>
       </c>
       <c r="D21" t="n">
-        <v>0.544666</v>
+        <v>0.577519</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.516522</v>
+        <v>0.543641</v>
       </c>
       <c r="C22" t="n">
-        <v>0.51899</v>
+        <v>0.543081</v>
       </c>
       <c r="D22" t="n">
-        <v>0.536046</v>
+        <v>0.566706</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.516123</v>
+        <v>0.5406609999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.510339</v>
+        <v>0.534125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.827423</v>
+        <v>0.559667</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.725501</v>
+        <v>0.743927</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7944020000000001</v>
+        <v>0.812029</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7980660000000001</v>
+        <v>0.842488</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.705897</v>
+        <v>0.722531</v>
       </c>
       <c r="C25" t="n">
-        <v>0.769028</v>
+        <v>0.785609</v>
       </c>
       <c r="D25" t="n">
-        <v>0.773119</v>
+        <v>0.814548</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.685357</v>
+        <v>0.70108</v>
       </c>
       <c r="C26" t="n">
-        <v>0.743799</v>
+        <v>0.7595499999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.747426</v>
+        <v>0.787375</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.665365</v>
+        <v>0.679549</v>
       </c>
       <c r="C27" t="n">
-        <v>0.718507</v>
+        <v>0.734726</v>
       </c>
       <c r="D27" t="n">
-        <v>0.710626</v>
+        <v>0.760772</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6431</v>
+        <v>0.660732</v>
       </c>
       <c r="C28" t="n">
-        <v>0.694478</v>
+        <v>0.710769</v>
       </c>
       <c r="D28" t="n">
-        <v>0.688798</v>
+        <v>0.736133</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.626167</v>
+        <v>0.642687</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6725680000000001</v>
+        <v>0.689005</v>
       </c>
       <c r="D29" t="n">
-        <v>0.667876</v>
+        <v>0.712514</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.610525</v>
+        <v>0.62602</v>
       </c>
       <c r="C30" t="n">
-        <v>0.651756</v>
+        <v>0.667673</v>
       </c>
       <c r="D30" t="n">
-        <v>0.64811</v>
+        <v>0.690397</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.595804</v>
+        <v>0.610646</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6323530000000001</v>
+        <v>0.648157</v>
       </c>
       <c r="D31" t="n">
-        <v>0.62896</v>
+        <v>0.668665</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.582491</v>
+        <v>0.596616</v>
       </c>
       <c r="C32" t="n">
-        <v>0.613659</v>
+        <v>0.628342</v>
       </c>
       <c r="D32" t="n">
-        <v>0.621234</v>
+        <v>0.6498350000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.572481</v>
+        <v>0.583197</v>
       </c>
       <c r="C33" t="n">
-        <v>0.599051</v>
+        <v>0.61068</v>
       </c>
       <c r="D33" t="n">
-        <v>0.599458</v>
+        <v>0.631321</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.562182</v>
+        <v>0.571477</v>
       </c>
       <c r="C34" t="n">
-        <v>0.583712</v>
+        <v>0.596237</v>
       </c>
       <c r="D34" t="n">
-        <v>0.587096</v>
+        <v>0.614434</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.551513</v>
+        <v>0.563107</v>
       </c>
       <c r="C35" t="n">
-        <v>0.56789</v>
+        <v>0.580802</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5685789999999999</v>
+        <v>0.6009910000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.545336</v>
+        <v>0.556167</v>
       </c>
       <c r="C36" t="n">
-        <v>0.554893</v>
+        <v>0.567597</v>
       </c>
       <c r="D36" t="n">
-        <v>0.558622</v>
+        <v>0.587932</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.542388</v>
+        <v>0.550636</v>
       </c>
       <c r="C37" t="n">
-        <v>0.544811</v>
+        <v>0.555725</v>
       </c>
       <c r="D37" t="n">
-        <v>0.868019</v>
+        <v>0.579097</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.768539</v>
+        <v>0.770323</v>
       </c>
       <c r="C38" t="n">
-        <v>0.84645</v>
+        <v>0.852918</v>
       </c>
       <c r="D38" t="n">
-        <v>0.839428</v>
+        <v>0.88258</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.746905</v>
+        <v>0.748629</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8192739999999999</v>
+        <v>0.816168</v>
       </c>
       <c r="D39" t="n">
-        <v>0.811095</v>
+        <v>0.841681</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.72496</v>
+        <v>0.718178</v>
       </c>
       <c r="C40" t="n">
-        <v>0.792201</v>
+        <v>0.786319</v>
       </c>
       <c r="D40" t="n">
-        <v>0.785103</v>
+        <v>0.824806</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.704959</v>
+        <v>0.704747</v>
       </c>
       <c r="C41" t="n">
-        <v>0.76684</v>
+        <v>0.771698</v>
       </c>
       <c r="D41" t="n">
-        <v>0.75912</v>
+        <v>0.797597</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.683951</v>
+        <v>0.684798</v>
       </c>
       <c r="C42" t="n">
-        <v>0.741859</v>
+        <v>0.747264</v>
       </c>
       <c r="D42" t="n">
-        <v>0.735487</v>
+        <v>0.7701710000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6655799999999999</v>
+        <v>0.665718</v>
       </c>
       <c r="C43" t="n">
-        <v>0.718743</v>
+        <v>0.722587</v>
       </c>
       <c r="D43" t="n">
-        <v>0.713086</v>
+        <v>0.745219</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.651444</v>
+        <v>0.648522</v>
       </c>
       <c r="C44" t="n">
-        <v>0.700192</v>
+        <v>0.7014590000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.69424</v>
+        <v>0.7229139999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6373180000000001</v>
+        <v>0.632881</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6805330000000001</v>
+        <v>0.680515</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6755910000000001</v>
+        <v>0.701137</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.623478</v>
+        <v>0.61831</v>
       </c>
       <c r="C46" t="n">
-        <v>0.660039</v>
+        <v>0.660442</v>
       </c>
       <c r="D46" t="n">
-        <v>0.656272</v>
+        <v>0.680146</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.610703</v>
+        <v>0.6015160000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.642145</v>
+        <v>0.633597</v>
       </c>
       <c r="D47" t="n">
-        <v>0.637181</v>
+        <v>0.65302</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.597052</v>
+        <v>0.588237</v>
       </c>
       <c r="C48" t="n">
-        <v>0.620789</v>
+        <v>0.6160639999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.617154</v>
+        <v>0.634602</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.583248</v>
+        <v>0.576408</v>
       </c>
       <c r="C49" t="n">
-        <v>0.605398</v>
+        <v>0.601419</v>
       </c>
       <c r="D49" t="n">
-        <v>0.602875</v>
+        <v>0.621027</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.575948</v>
+        <v>0.571767</v>
       </c>
       <c r="C50" t="n">
-        <v>0.591029</v>
+        <v>0.5903</v>
       </c>
       <c r="D50" t="n">
-        <v>0.58871</v>
+        <v>0.6097860000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.569847</v>
+        <v>0.567053</v>
       </c>
       <c r="C51" t="n">
-        <v>0.577334</v>
+        <v>0.577119</v>
       </c>
       <c r="D51" t="n">
-        <v>0.898983</v>
+        <v>0.597794</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.568738</v>
+        <v>0.565334</v>
       </c>
       <c r="C52" t="n">
-        <v>0.568684</v>
+        <v>0.568065</v>
       </c>
       <c r="D52" t="n">
-        <v>0.87302</v>
+        <v>0.591096</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.790307</v>
+        <v>0.762587</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8602959999999999</v>
+        <v>0.842813</v>
       </c>
       <c r="D53" t="n">
-        <v>0.841258</v>
+        <v>0.870023</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.767413</v>
+        <v>0.73908</v>
       </c>
       <c r="C54" t="n">
-        <v>0.83061</v>
+        <v>0.814907</v>
       </c>
       <c r="D54" t="n">
-        <v>0.813173</v>
+        <v>0.84161</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.747278</v>
+        <v>0.71884</v>
       </c>
       <c r="C55" t="n">
-        <v>0.804531</v>
+        <v>0.792144</v>
       </c>
       <c r="D55" t="n">
-        <v>0.787673</v>
+        <v>0.818735</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.726309</v>
+        <v>0.701162</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7795609999999999</v>
+        <v>0.766007</v>
       </c>
       <c r="D56" t="n">
-        <v>0.764943</v>
+        <v>0.789076</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7088370000000001</v>
+        <v>0.681131</v>
       </c>
       <c r="C57" t="n">
-        <v>0.753471</v>
+        <v>0.742607</v>
       </c>
       <c r="D57" t="n">
-        <v>0.737557</v>
+        <v>0.767134</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.690308</v>
+        <v>0.669106</v>
       </c>
       <c r="C58" t="n">
-        <v>0.730789</v>
+        <v>0.730448</v>
       </c>
       <c r="D58" t="n">
-        <v>0.716237</v>
+        <v>0.754439</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.674589</v>
+        <v>0.6635259999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.709966</v>
+        <v>0.712927</v>
       </c>
       <c r="D59" t="n">
-        <v>0.696035</v>
+        <v>0.733108</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.662868</v>
+        <v>0.64984</v>
       </c>
       <c r="C60" t="n">
-        <v>0.693563</v>
+        <v>0.693395</v>
       </c>
       <c r="D60" t="n">
-        <v>0.679325</v>
+        <v>0.712144</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6217780000000001</v>
+        <v>0.636749</v>
       </c>
       <c r="C61" t="n">
-        <v>0.653181</v>
+        <v>0.674028</v>
       </c>
       <c r="D61" t="n">
-        <v>0.638825</v>
+        <v>0.692968</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.609673</v>
+        <v>0.626359</v>
       </c>
       <c r="C62" t="n">
-        <v>0.636915</v>
+        <v>0.657048</v>
       </c>
       <c r="D62" t="n">
-        <v>0.62357</v>
+        <v>0.674457</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.600257</v>
+        <v>0.61513</v>
       </c>
       <c r="C63" t="n">
-        <v>0.621511</v>
+        <v>0.639769</v>
       </c>
       <c r="D63" t="n">
-        <v>0.60926</v>
+        <v>0.657128</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.592569</v>
+        <v>0.60247</v>
       </c>
       <c r="C64" t="n">
-        <v>0.606957</v>
+        <v>0.6238669999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.597356</v>
+        <v>0.642367</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.587975</v>
+        <v>0.59261</v>
       </c>
       <c r="C65" t="n">
-        <v>0.595296</v>
+        <v>0.606016</v>
       </c>
       <c r="D65" t="n">
-        <v>0.588489</v>
+        <v>0.623602</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.586994</v>
+        <v>0.586263</v>
       </c>
       <c r="C66" t="n">
-        <v>0.587031</v>
+        <v>0.599931</v>
       </c>
       <c r="D66" t="n">
-        <v>0.881307</v>
+        <v>0.622449</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.814658</v>
+        <v>0.825</v>
       </c>
       <c r="C67" t="n">
-        <v>0.891381</v>
+        <v>0.910886</v>
       </c>
       <c r="D67" t="n">
-        <v>0.85446</v>
+        <v>0.934692</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.796933</v>
+        <v>0.807595</v>
       </c>
       <c r="C68" t="n">
-        <v>0.864322</v>
+        <v>0.88389</v>
       </c>
       <c r="D68" t="n">
-        <v>0.829503</v>
+        <v>0.907643</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.780149</v>
+        <v>0.791418</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8393620000000001</v>
+        <v>0.859138</v>
       </c>
       <c r="D69" t="n">
-        <v>0.804959</v>
+        <v>0.881184</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.76295</v>
+        <v>0.773782</v>
       </c>
       <c r="C70" t="n">
-        <v>0.813333</v>
+        <v>0.834777</v>
       </c>
       <c r="D70" t="n">
-        <v>0.780738</v>
+        <v>0.854183</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.745138</v>
+        <v>0.754327</v>
       </c>
       <c r="C71" t="n">
-        <v>0.790181</v>
+        <v>0.805902</v>
       </c>
       <c r="D71" t="n">
-        <v>0.758228</v>
+        <v>0.824294</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7299639999999999</v>
+        <v>0.738426</v>
       </c>
       <c r="C72" t="n">
-        <v>0.768605</v>
+        <v>0.783316</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7375119999999999</v>
+        <v>0.799811</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.71447</v>
+        <v>0.719307</v>
       </c>
       <c r="C73" t="n">
-        <v>0.74686</v>
+        <v>0.7588009999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.717332</v>
+        <v>0.775062</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.69991</v>
+        <v>0.705255</v>
       </c>
       <c r="C74" t="n">
-        <v>0.726075</v>
+        <v>0.740387</v>
       </c>
       <c r="D74" t="n">
-        <v>0.697873</v>
+        <v>0.7569090000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.686526</v>
+        <v>0.696733</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7068179999999999</v>
+        <v>0.721998</v>
       </c>
       <c r="D75" t="n">
-        <v>0.680078</v>
+        <v>0.736437</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.674961</v>
+        <v>0.684981</v>
       </c>
       <c r="C76" t="n">
-        <v>0.689487</v>
+        <v>0.704396</v>
       </c>
       <c r="D76" t="n">
-        <v>0.663893</v>
+        <v>0.718351</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.663497</v>
+        <v>0.673383</v>
       </c>
       <c r="C77" t="n">
-        <v>0.672897</v>
+        <v>0.686991</v>
       </c>
       <c r="D77" t="n">
-        <v>0.648946</v>
+        <v>0.700772</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.655102</v>
+        <v>0.663982</v>
       </c>
       <c r="C78" t="n">
-        <v>0.66884</v>
+        <v>0.6715449999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.651011</v>
+        <v>0.686534</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.667664</v>
+        <v>0.657726</v>
       </c>
       <c r="C79" t="n">
-        <v>0.658799</v>
+        <v>0.658569</v>
       </c>
       <c r="D79" t="n">
-        <v>0.639953</v>
+        <v>0.67339</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.662641</v>
+        <v>0.653338</v>
       </c>
       <c r="C80" t="n">
-        <v>0.647487</v>
+        <v>0.6466229999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.971298</v>
+        <v>0.6628500000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.909573</v>
+        <v>0.898965</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9906470000000001</v>
+        <v>0.986644</v>
       </c>
       <c r="D81" t="n">
-        <v>0.953793</v>
+        <v>0.9977009999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.902075</v>
+        <v>0.891174</v>
       </c>
       <c r="C82" t="n">
-        <v>0.975208</v>
+        <v>0.970226</v>
       </c>
       <c r="D82" t="n">
-        <v>0.933727</v>
+        <v>0.9809290000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.891806</v>
+        <v>0.8815499999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.955413</v>
+        <v>0.952086</v>
       </c>
       <c r="D83" t="n">
-        <v>0.91206</v>
+        <v>0.9616980000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.879864</v>
+        <v>0.871672</v>
       </c>
       <c r="C84" t="n">
-        <v>0.93452</v>
+        <v>0.931257</v>
       </c>
       <c r="D84" t="n">
-        <v>0.890702</v>
+        <v>0.940484</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.868175</v>
+        <v>0.860706</v>
       </c>
       <c r="C85" t="n">
-        <v>0.913189</v>
+        <v>0.909782</v>
       </c>
       <c r="D85" t="n">
-        <v>0.868852</v>
+        <v>0.919009</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.855619</v>
+        <v>0.849176</v>
       </c>
       <c r="C86" t="n">
-        <v>0.891637</v>
+        <v>0.889105</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8472460000000001</v>
+        <v>0.897344</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.844384</v>
+        <v>0.8378139999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.870441</v>
+        <v>0.869153</v>
       </c>
       <c r="D87" t="n">
-        <v>0.826387</v>
+        <v>0.876102</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.831575</v>
+        <v>0.826203</v>
       </c>
       <c r="C88" t="n">
-        <v>0.849484</v>
+        <v>0.84881</v>
       </c>
       <c r="D88" t="n">
-        <v>0.805124</v>
+        <v>0.854754</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.819679</v>
+        <v>0.815567</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8312580000000001</v>
+        <v>0.829067</v>
       </c>
       <c r="D89" t="n">
-        <v>0.786995</v>
+        <v>0.834708</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.809929</v>
+        <v>0.8048650000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.813333</v>
+        <v>0.811611</v>
       </c>
       <c r="D90" t="n">
-        <v>0.768684</v>
+        <v>0.81571</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.800015</v>
+        <v>0.795254</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7957959999999999</v>
+        <v>0.793243</v>
       </c>
       <c r="D91" t="n">
-        <v>0.752257</v>
+        <v>0.794756</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.7924020000000001</v>
+        <v>0.784482</v>
       </c>
       <c r="C92" t="n">
-        <v>0.779346</v>
+        <v>0.7745</v>
       </c>
       <c r="D92" t="n">
-        <v>0.736376</v>
+        <v>0.779206</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.786593</v>
+        <v>0.780512</v>
       </c>
       <c r="C93" t="n">
-        <v>0.765482</v>
+        <v>0.7627</v>
       </c>
       <c r="D93" t="n">
-        <v>0.723539</v>
+        <v>0.768014</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.782139</v>
+        <v>0.777214</v>
       </c>
       <c r="C94" t="n">
-        <v>0.753575</v>
+        <v>0.751487</v>
       </c>
       <c r="D94" t="n">
-        <v>1.0593</v>
+        <v>0.758113</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03507</v>
+        <v>1.02677</v>
       </c>
       <c r="C95" t="n">
-        <v>1.09682</v>
+        <v>1.09364</v>
       </c>
       <c r="D95" t="n">
-        <v>1.04873</v>
+        <v>1.09297</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.03396</v>
+        <v>1.02805</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08843</v>
+        <v>1.08672</v>
       </c>
       <c r="D96" t="n">
-        <v>1.03138</v>
+        <v>1.08583</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02387</v>
+        <v>1.0183</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07207</v>
+        <v>1.06991</v>
       </c>
       <c r="D97" t="n">
-        <v>1.01265</v>
+        <v>1.068</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.01333</v>
+        <v>1.00753</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05224</v>
+        <v>1.05022</v>
       </c>
       <c r="D98" t="n">
-        <v>0.993869</v>
+        <v>1.04913</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00229</v>
+        <v>0.9971</v>
       </c>
       <c r="C99" t="n">
-        <v>1.03419</v>
+        <v>1.03258</v>
       </c>
       <c r="D99" t="n">
-        <v>0.974315</v>
+        <v>1.03005</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.991783</v>
+        <v>0.986024</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01612</v>
+        <v>1.01068</v>
       </c>
       <c r="D100" t="n">
-        <v>0.95604</v>
+        <v>1.01489</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9810759999999999</v>
+        <v>0.97787</v>
       </c>
       <c r="C101" t="n">
-        <v>0.999591</v>
+        <v>0.9997819999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.938909</v>
+        <v>0.996742</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9721880000000001</v>
+        <v>0.968651</v>
       </c>
       <c r="C102" t="n">
-        <v>0.983283</v>
+        <v>0.982858</v>
       </c>
       <c r="D102" t="n">
-        <v>0.922567</v>
+        <v>0.979815</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.964255</v>
+        <v>0.960992</v>
       </c>
       <c r="C103" t="n">
-        <v>0.967557</v>
+        <v>0.967025</v>
       </c>
       <c r="D103" t="n">
-        <v>0.906892</v>
+        <v>0.9640300000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.956546</v>
+        <v>0.95173</v>
       </c>
       <c r="C104" t="n">
-        <v>0.953156</v>
+        <v>0.948993</v>
       </c>
       <c r="D104" t="n">
-        <v>0.892074</v>
+        <v>0.946653</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.950554</v>
+        <v>0.944573</v>
       </c>
       <c r="C105" t="n">
-        <v>0.939528</v>
+        <v>0.935809</v>
       </c>
       <c r="D105" t="n">
-        <v>0.879087</v>
+        <v>0.932525</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9458259999999999</v>
+        <v>0.941312</v>
       </c>
       <c r="C106" t="n">
-        <v>0.927284</v>
+        <v>0.924374</v>
       </c>
       <c r="D106" t="n">
-        <v>0.866474</v>
+        <v>0.9225950000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.943008</v>
+        <v>0.939536</v>
       </c>
       <c r="C107" t="n">
-        <v>0.916304</v>
+        <v>0.914521</v>
       </c>
       <c r="D107" t="n">
-        <v>0.856189</v>
+        <v>0.912822</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.94299</v>
+        <v>0.939262</v>
       </c>
       <c r="C108" t="n">
-        <v>0.907705</v>
+        <v>0.906071</v>
       </c>
       <c r="D108" t="n">
-        <v>1.1912</v>
+        <v>0.904605</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.947384</v>
+        <v>0.942713</v>
       </c>
       <c r="C109" t="n">
-        <v>0.901304</v>
+        <v>0.899443</v>
       </c>
       <c r="D109" t="n">
-        <v>1.18219</v>
+        <v>0.89774</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19319</v>
+        <v>1.18861</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24928</v>
+        <v>1.24472</v>
       </c>
       <c r="D110" t="n">
-        <v>1.16508</v>
+        <v>1.23514</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18131</v>
+        <v>1.17599</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22984</v>
+        <v>1.22566</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14747</v>
+        <v>1.21679</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.1688</v>
+        <v>1.16398</v>
       </c>
       <c r="C112" t="n">
-        <v>1.21209</v>
+        <v>1.20822</v>
       </c>
       <c r="D112" t="n">
-        <v>1.13214</v>
+        <v>1.19966</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15643</v>
+        <v>1.15264</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19424</v>
+        <v>1.1901</v>
       </c>
       <c r="D113" t="n">
-        <v>1.11685</v>
+        <v>1.18146</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14555</v>
+        <v>1.14131</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17643</v>
+        <v>1.17378</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10188</v>
+        <v>1.16506</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13577</v>
+        <v>1.13119</v>
       </c>
       <c r="C115" t="n">
-        <v>1.16098</v>
+        <v>1.15598</v>
       </c>
       <c r="D115" t="n">
-        <v>1.08846</v>
+        <v>1.14891</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12636</v>
+        <v>1.12253</v>
       </c>
       <c r="C116" t="n">
-        <v>1.14537</v>
+        <v>1.1423</v>
       </c>
       <c r="D116" t="n">
-        <v>1.07545</v>
+        <v>1.13465</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11894</v>
+        <v>1.115</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13191</v>
+        <v>1.1271</v>
       </c>
       <c r="D117" t="n">
-        <v>1.0638</v>
+        <v>1.11993</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.11153</v>
+        <v>1.10722</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11858</v>
+        <v>1.11634</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05179</v>
+        <v>1.10939</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10614</v>
+        <v>1.10317</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10648</v>
+        <v>1.10379</v>
       </c>
       <c r="D119" t="n">
-        <v>1.04118</v>
+        <v>1.0962</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.10168</v>
+        <v>1.09891</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09464</v>
+        <v>1.09311</v>
       </c>
       <c r="D120" t="n">
-        <v>1.03054</v>
+        <v>1.08564</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09883</v>
+        <v>1.09674</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08452</v>
+        <v>1.08272</v>
       </c>
       <c r="D121" t="n">
-        <v>1.02196</v>
+        <v>1.07595</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.10011</v>
+        <v>1.09714</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07685</v>
+        <v>1.07457</v>
       </c>
       <c r="D122" t="n">
-        <v>1.01487</v>
+        <v>1.06637</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10487</v>
+        <v>1.10091</v>
       </c>
       <c r="C123" t="n">
-        <v>1.07062</v>
+        <v>1.06881</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34662</v>
+        <v>1.06152</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35385</v>
+        <v>1.35151</v>
       </c>
       <c r="C124" t="n">
-        <v>1.41533</v>
+        <v>1.41538</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33425</v>
+        <v>1.39987</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.34468</v>
+        <v>1.34216</v>
       </c>
       <c r="C125" t="n">
-        <v>1.40022</v>
+        <v>1.39899</v>
       </c>
       <c r="D125" t="n">
-        <v>1.32213</v>
+        <v>1.38413</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33489</v>
+        <v>1.33281</v>
       </c>
       <c r="C126" t="n">
-        <v>1.38451</v>
+        <v>1.38305</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31022</v>
+        <v>1.36869</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32626</v>
+        <v>1.32374</v>
       </c>
       <c r="C127" t="n">
-        <v>1.37023</v>
+        <v>1.36777</v>
       </c>
       <c r="D127" t="n">
-        <v>1.29904</v>
+        <v>1.35369</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31828</v>
+        <v>1.3154</v>
       </c>
       <c r="C128" t="n">
-        <v>1.35538</v>
+        <v>1.35344</v>
       </c>
       <c r="D128" t="n">
-        <v>1.28825</v>
+        <v>1.33997</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31056</v>
+        <v>1.30842</v>
       </c>
       <c r="C129" t="n">
-        <v>1.3416</v>
+        <v>1.33971</v>
       </c>
       <c r="D129" t="n">
-        <v>1.27757</v>
+        <v>1.32652</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30379</v>
+        <v>1.30165</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32869</v>
+        <v>1.32731</v>
       </c>
       <c r="D130" t="n">
-        <v>1.26821</v>
+        <v>1.31522</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29841</v>
+        <v>1.29715</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31695</v>
+        <v>1.31643</v>
       </c>
       <c r="D131" t="n">
-        <v>1.25861</v>
+        <v>1.30291</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29414</v>
+        <v>1.29302</v>
       </c>
       <c r="C132" t="n">
-        <v>1.30673</v>
+        <v>1.30477</v>
       </c>
       <c r="D132" t="n">
-        <v>1.25085</v>
+        <v>1.29194</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29173</v>
+        <v>1.28985</v>
       </c>
       <c r="C133" t="n">
-        <v>1.29672</v>
+        <v>1.29433</v>
       </c>
       <c r="D133" t="n">
-        <v>1.24321</v>
+        <v>1.28252</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.28992</v>
+        <v>1.28857</v>
       </c>
       <c r="C134" t="n">
-        <v>1.28865</v>
+        <v>1.28705</v>
       </c>
       <c r="D134" t="n">
-        <v>1.23706</v>
+        <v>1.27321</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.28969</v>
+        <v>1.28957</v>
       </c>
       <c r="C135" t="n">
-        <v>1.27983</v>
+        <v>1.27981</v>
       </c>
       <c r="D135" t="n">
-        <v>1.22956</v>
+        <v>1.26558</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.29244</v>
+        <v>1.29122</v>
       </c>
       <c r="C136" t="n">
-        <v>1.27391</v>
+        <v>1.27267</v>
       </c>
       <c r="D136" t="n">
-        <v>1.22171</v>
+        <v>1.25738</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.29688</v>
+        <v>1.29608</v>
       </c>
       <c r="C137" t="n">
-        <v>1.26863</v>
+        <v>1.26813</v>
       </c>
       <c r="D137" t="n">
-        <v>1.55334</v>
+        <v>1.24953</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54634</v>
+        <v>1.54536</v>
       </c>
       <c r="C138" t="n">
-        <v>1.61278</v>
+        <v>1.61142</v>
       </c>
       <c r="D138" t="n">
-        <v>1.54167</v>
+        <v>1.58602</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53845</v>
+        <v>1.53748</v>
       </c>
       <c r="C139" t="n">
-        <v>1.59904</v>
+        <v>1.59755</v>
       </c>
       <c r="D139" t="n">
-        <v>1.53201</v>
+        <v>1.57237</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.5308</v>
+        <v>1.5293</v>
       </c>
       <c r="C140" t="n">
-        <v>1.58603</v>
+        <v>1.58459</v>
       </c>
       <c r="D140" t="n">
-        <v>1.5211</v>
+        <v>1.56032</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52455</v>
+        <v>1.5239</v>
       </c>
       <c r="C141" t="n">
-        <v>1.57377</v>
+        <v>1.57036</v>
       </c>
       <c r="D141" t="n">
-        <v>1.51235</v>
+        <v>1.54761</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.51809</v>
+        <v>1.51743</v>
       </c>
       <c r="C142" t="n">
-        <v>1.5612</v>
+        <v>1.56039</v>
       </c>
       <c r="D142" t="n">
-        <v>1.5024</v>
+        <v>1.53635</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51301</v>
+        <v>1.51251</v>
       </c>
       <c r="C143" t="n">
-        <v>1.55075</v>
+        <v>1.54978</v>
       </c>
       <c r="D143" t="n">
-        <v>1.49509</v>
+        <v>1.52543</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575745</v>
+        <v>0.575366</v>
       </c>
       <c r="C2" t="n">
-        <v>0.59746</v>
+        <v>0.596639</v>
       </c>
       <c r="D2" t="n">
-        <v>0.620799</v>
+        <v>0.621546</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564062</v>
+        <v>0.5626949999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.580227</v>
+        <v>0.579308</v>
       </c>
       <c r="D3" t="n">
-        <v>0.602989</v>
+        <v>0.602231</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.550764</v>
+        <v>0.549818</v>
       </c>
       <c r="C4" t="n">
-        <v>0.563352</v>
+        <v>0.56265</v>
       </c>
       <c r="D4" t="n">
-        <v>0.585268</v>
+        <v>0.5852270000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.540615</v>
+        <v>0.540254</v>
       </c>
       <c r="C5" t="n">
-        <v>0.548523</v>
+        <v>0.548019</v>
       </c>
       <c r="D5" t="n">
-        <v>0.570336</v>
+        <v>0.570102</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.531734</v>
+        <v>0.531587</v>
       </c>
       <c r="C6" t="n">
-        <v>0.53438</v>
+        <v>0.534474</v>
       </c>
       <c r="D6" t="n">
-        <v>0.556805</v>
+        <v>0.556947</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.525213</v>
+        <v>0.524487</v>
       </c>
       <c r="C7" t="n">
-        <v>0.521795</v>
+        <v>0.52146</v>
       </c>
       <c r="D7" t="n">
-        <v>0.545291</v>
+        <v>0.545441</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5215649999999999</v>
+        <v>0.520509</v>
       </c>
       <c r="C8" t="n">
-        <v>0.512099</v>
+        <v>0.511798</v>
       </c>
       <c r="D8" t="n">
-        <v>0.536502</v>
+        <v>0.536181</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.521369</v>
+        <v>0.520691</v>
       </c>
       <c r="C9" t="n">
-        <v>0.503704</v>
+        <v>0.5037160000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.531199</v>
+        <v>0.531485</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7229179999999999</v>
+        <v>0.722244</v>
       </c>
       <c r="C10" t="n">
-        <v>0.776807</v>
+        <v>0.776917</v>
       </c>
       <c r="D10" t="n">
-        <v>0.809142</v>
+        <v>0.809273</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.701664</v>
+        <v>0.699481</v>
       </c>
       <c r="C11" t="n">
-        <v>0.751423</v>
+        <v>0.749807</v>
       </c>
       <c r="D11" t="n">
-        <v>0.781913</v>
+        <v>0.781442</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.680184</v>
+        <v>0.678775</v>
       </c>
       <c r="C12" t="n">
-        <v>0.726491</v>
+        <v>0.725266</v>
       </c>
       <c r="D12" t="n">
-        <v>0.755722</v>
+        <v>0.75543</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.660477</v>
+        <v>0.658516</v>
       </c>
       <c r="C13" t="n">
-        <v>0.702258</v>
+        <v>0.701199</v>
       </c>
       <c r="D13" t="n">
-        <v>0.730908</v>
+        <v>0.730672</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.642315</v>
+        <v>0.640493</v>
       </c>
       <c r="C14" t="n">
-        <v>0.680221</v>
+        <v>0.679133</v>
       </c>
       <c r="D14" t="n">
-        <v>0.707474</v>
+        <v>0.706947</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6238320000000001</v>
+        <v>0.624578</v>
       </c>
       <c r="C15" t="n">
-        <v>0.658533</v>
+        <v>0.658241</v>
       </c>
       <c r="D15" t="n">
-        <v>0.684983</v>
+        <v>0.684842</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.608258</v>
+        <v>0.608127</v>
       </c>
       <c r="C16" t="n">
-        <v>0.638881</v>
+        <v>0.638278</v>
       </c>
       <c r="D16" t="n">
-        <v>0.663524</v>
+        <v>0.66366</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.59384</v>
+        <v>0.593566</v>
       </c>
       <c r="C17" t="n">
-        <v>0.618998</v>
+        <v>0.619054</v>
       </c>
       <c r="D17" t="n">
-        <v>0.643536</v>
+        <v>0.643277</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.580692</v>
+        <v>0.580752</v>
       </c>
       <c r="C18" t="n">
-        <v>0.601583</v>
+        <v>0.601434</v>
       </c>
       <c r="D18" t="n">
-        <v>0.625005</v>
+        <v>0.624793</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.56738</v>
+        <v>0.568344</v>
       </c>
       <c r="C19" t="n">
-        <v>0.584905</v>
+        <v>0.584815</v>
       </c>
       <c r="D19" t="n">
-        <v>0.606914</v>
+        <v>0.607185</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5581700000000001</v>
+        <v>0.557853</v>
       </c>
       <c r="C20" t="n">
-        <v>0.568535</v>
+        <v>0.569265</v>
       </c>
       <c r="D20" t="n">
-        <v>0.591744</v>
+        <v>0.591412</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.548152</v>
+        <v>0.549534</v>
       </c>
       <c r="C21" t="n">
-        <v>0.55444</v>
+        <v>0.555198</v>
       </c>
       <c r="D21" t="n">
-        <v>0.577519</v>
+        <v>0.577667</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.543641</v>
+        <v>0.543425</v>
       </c>
       <c r="C22" t="n">
-        <v>0.543081</v>
+        <v>0.543226</v>
       </c>
       <c r="D22" t="n">
-        <v>0.566706</v>
+        <v>0.567174</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5406609999999999</v>
+        <v>0.541234</v>
       </c>
       <c r="C23" t="n">
-        <v>0.534125</v>
+        <v>0.5336340000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.559667</v>
+        <v>0.559485</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.743927</v>
+        <v>0.742696</v>
       </c>
       <c r="C24" t="n">
-        <v>0.812029</v>
+        <v>0.813429</v>
       </c>
       <c r="D24" t="n">
-        <v>0.842488</v>
+        <v>0.841861</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.722531</v>
+        <v>0.720797</v>
       </c>
       <c r="C25" t="n">
-        <v>0.785609</v>
+        <v>0.7848000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.814548</v>
+        <v>0.813476</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.70108</v>
+        <v>0.699371</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7595499999999999</v>
+        <v>0.7596270000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.787375</v>
+        <v>0.786373</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.679549</v>
+        <v>0.6793709999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.734726</v>
+        <v>0.733975</v>
       </c>
       <c r="D27" t="n">
-        <v>0.760772</v>
+        <v>0.760734</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.660732</v>
+        <v>0.660417</v>
       </c>
       <c r="C28" t="n">
-        <v>0.710769</v>
+        <v>0.710737</v>
       </c>
       <c r="D28" t="n">
-        <v>0.736133</v>
+        <v>0.735325</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.642687</v>
+        <v>0.642285</v>
       </c>
       <c r="C29" t="n">
-        <v>0.689005</v>
+        <v>0.689021</v>
       </c>
       <c r="D29" t="n">
-        <v>0.712514</v>
+        <v>0.711894</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.62602</v>
+        <v>0.62585</v>
       </c>
       <c r="C30" t="n">
-        <v>0.667673</v>
+        <v>0.666719</v>
       </c>
       <c r="D30" t="n">
-        <v>0.690397</v>
+        <v>0.68991</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.610646</v>
+        <v>0.610158</v>
       </c>
       <c r="C31" t="n">
-        <v>0.648157</v>
+        <v>0.647054</v>
       </c>
       <c r="D31" t="n">
-        <v>0.668665</v>
+        <v>0.668689</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.596616</v>
+        <v>0.595857</v>
       </c>
       <c r="C32" t="n">
-        <v>0.628342</v>
+        <v>0.628136</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6498350000000001</v>
+        <v>0.648937</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.583197</v>
+        <v>0.583623</v>
       </c>
       <c r="C33" t="n">
-        <v>0.61068</v>
+        <v>0.61017</v>
       </c>
       <c r="D33" t="n">
-        <v>0.631321</v>
+        <v>0.630927</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.571477</v>
+        <v>0.572271</v>
       </c>
       <c r="C34" t="n">
-        <v>0.596237</v>
+        <v>0.594414</v>
       </c>
       <c r="D34" t="n">
-        <v>0.614434</v>
+        <v>0.614607</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.563107</v>
+        <v>0.562687</v>
       </c>
       <c r="C35" t="n">
-        <v>0.580802</v>
+        <v>0.579481</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6009910000000001</v>
+        <v>0.600225</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.556167</v>
+        <v>0.556451</v>
       </c>
       <c r="C36" t="n">
-        <v>0.567597</v>
+        <v>0.566157</v>
       </c>
       <c r="D36" t="n">
-        <v>0.587932</v>
+        <v>0.587226</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.550636</v>
+        <v>0.552495</v>
       </c>
       <c r="C37" t="n">
-        <v>0.555725</v>
+        <v>0.555765</v>
       </c>
       <c r="D37" t="n">
-        <v>0.579097</v>
+        <v>0.579118</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.770323</v>
+        <v>0.760558</v>
       </c>
       <c r="C38" t="n">
-        <v>0.852918</v>
+        <v>0.835858</v>
       </c>
       <c r="D38" t="n">
-        <v>0.88258</v>
+        <v>0.867313</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.748629</v>
+        <v>0.739509</v>
       </c>
       <c r="C39" t="n">
-        <v>0.816168</v>
+        <v>0.810847</v>
       </c>
       <c r="D39" t="n">
-        <v>0.841681</v>
+        <v>0.839086</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.718178</v>
+        <v>0.717269</v>
       </c>
       <c r="C40" t="n">
-        <v>0.786319</v>
+        <v>0.78408</v>
       </c>
       <c r="D40" t="n">
-        <v>0.824806</v>
+        <v>0.810365</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.704747</v>
+        <v>0.696438</v>
       </c>
       <c r="C41" t="n">
-        <v>0.771698</v>
+        <v>0.75845</v>
       </c>
       <c r="D41" t="n">
-        <v>0.797597</v>
+        <v>0.784188</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.684798</v>
+        <v>0.677891</v>
       </c>
       <c r="C42" t="n">
-        <v>0.747264</v>
+        <v>0.735336</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7701710000000001</v>
+        <v>0.758954</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.665718</v>
+        <v>0.65959</v>
       </c>
       <c r="C43" t="n">
-        <v>0.722587</v>
+        <v>0.711006</v>
       </c>
       <c r="D43" t="n">
-        <v>0.745219</v>
+        <v>0.734753</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.648522</v>
+        <v>0.642863</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7014590000000001</v>
+        <v>0.690228</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7229139999999999</v>
+        <v>0.711638</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.632881</v>
+        <v>0.627196</v>
       </c>
       <c r="C45" t="n">
-        <v>0.680515</v>
+        <v>0.66999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.701137</v>
+        <v>0.6904400000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.61831</v>
+        <v>0.612745</v>
       </c>
       <c r="C46" t="n">
-        <v>0.660442</v>
+        <v>0.649907</v>
       </c>
       <c r="D46" t="n">
-        <v>0.680146</v>
+        <v>0.669757</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6015160000000001</v>
+        <v>0.598947</v>
       </c>
       <c r="C47" t="n">
-        <v>0.633597</v>
+        <v>0.63159</v>
       </c>
       <c r="D47" t="n">
-        <v>0.65302</v>
+        <v>0.651775</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.588237</v>
+        <v>0.587329</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6160639999999999</v>
+        <v>0.615584</v>
       </c>
       <c r="D48" t="n">
-        <v>0.634602</v>
+        <v>0.634395</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.576408</v>
+        <v>0.578516</v>
       </c>
       <c r="C49" t="n">
-        <v>0.601419</v>
+        <v>0.599739</v>
       </c>
       <c r="D49" t="n">
-        <v>0.621027</v>
+        <v>0.6193070000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.571767</v>
+        <v>0.571587</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5903</v>
+        <v>0.586349</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6097860000000001</v>
+        <v>0.606196</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.567053</v>
+        <v>0.566752</v>
       </c>
       <c r="C51" t="n">
-        <v>0.577119</v>
+        <v>0.575117</v>
       </c>
       <c r="D51" t="n">
-        <v>0.597794</v>
+        <v>0.597295</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.565334</v>
+        <v>0.564407</v>
       </c>
       <c r="C52" t="n">
-        <v>0.568065</v>
+        <v>0.565487</v>
       </c>
       <c r="D52" t="n">
-        <v>0.591096</v>
+        <v>0.589469</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.762587</v>
+        <v>0.760566</v>
       </c>
       <c r="C53" t="n">
-        <v>0.842813</v>
+        <v>0.843018</v>
       </c>
       <c r="D53" t="n">
-        <v>0.870023</v>
+        <v>0.870981</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.73908</v>
+        <v>0.738706</v>
       </c>
       <c r="C54" t="n">
-        <v>0.814907</v>
+        <v>0.814841</v>
       </c>
       <c r="D54" t="n">
-        <v>0.84161</v>
+        <v>0.839961</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.71884</v>
+        <v>0.7198909999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.792144</v>
+        <v>0.790042</v>
       </c>
       <c r="D55" t="n">
-        <v>0.818735</v>
+        <v>0.815045</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.701162</v>
+        <v>0.7018990000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.766007</v>
+        <v>0.76858</v>
       </c>
       <c r="D56" t="n">
-        <v>0.789076</v>
+        <v>0.791923</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.681131</v>
+        <v>0.682572</v>
       </c>
       <c r="C57" t="n">
-        <v>0.742607</v>
+        <v>0.743883</v>
       </c>
       <c r="D57" t="n">
-        <v>0.767134</v>
+        <v>0.765557</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.669106</v>
+        <v>0.665375</v>
       </c>
       <c r="C58" t="n">
-        <v>0.730448</v>
+        <v>0.721507</v>
       </c>
       <c r="D58" t="n">
-        <v>0.754439</v>
+        <v>0.741286</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6635259999999999</v>
+        <v>0.648421</v>
       </c>
       <c r="C59" t="n">
-        <v>0.712927</v>
+        <v>0.700192</v>
       </c>
       <c r="D59" t="n">
-        <v>0.733108</v>
+        <v>0.720388</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.64984</v>
+        <v>0.635429</v>
       </c>
       <c r="C60" t="n">
-        <v>0.693395</v>
+        <v>0.680862</v>
       </c>
       <c r="D60" t="n">
-        <v>0.712144</v>
+        <v>0.69977</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.636749</v>
+        <v>0.6219</v>
       </c>
       <c r="C61" t="n">
-        <v>0.674028</v>
+        <v>0.662703</v>
       </c>
       <c r="D61" t="n">
-        <v>0.692968</v>
+        <v>0.6801</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.626359</v>
+        <v>0.609916</v>
       </c>
       <c r="C62" t="n">
-        <v>0.657048</v>
+        <v>0.643738</v>
       </c>
       <c r="D62" t="n">
-        <v>0.674457</v>
+        <v>0.662062</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.61513</v>
+        <v>0.600156</v>
       </c>
       <c r="C63" t="n">
-        <v>0.639769</v>
+        <v>0.627818</v>
       </c>
       <c r="D63" t="n">
-        <v>0.657128</v>
+        <v>0.6455959999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.60247</v>
+        <v>0.592732</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6238669999999999</v>
+        <v>0.613852</v>
       </c>
       <c r="D64" t="n">
-        <v>0.642367</v>
+        <v>0.631893</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.59261</v>
+        <v>0.58932</v>
       </c>
       <c r="C65" t="n">
-        <v>0.606016</v>
+        <v>0.603539</v>
       </c>
       <c r="D65" t="n">
-        <v>0.623602</v>
+        <v>0.622838</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.586263</v>
+        <v>0.586835</v>
       </c>
       <c r="C66" t="n">
-        <v>0.599931</v>
+        <v>0.592774</v>
       </c>
       <c r="D66" t="n">
-        <v>0.622449</v>
+        <v>0.613419</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.825</v>
+        <v>0.816943</v>
       </c>
       <c r="C67" t="n">
-        <v>0.910886</v>
+        <v>0.9033949999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.934692</v>
+        <v>0.927015</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.807595</v>
+        <v>0.797645</v>
       </c>
       <c r="C68" t="n">
-        <v>0.88389</v>
+        <v>0.87897</v>
       </c>
       <c r="D68" t="n">
-        <v>0.907643</v>
+        <v>0.902135</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.791418</v>
+        <v>0.784058</v>
       </c>
       <c r="C69" t="n">
-        <v>0.859138</v>
+        <v>0.853498</v>
       </c>
       <c r="D69" t="n">
-        <v>0.881184</v>
+        <v>0.8745230000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.773782</v>
+        <v>0.765374</v>
       </c>
       <c r="C70" t="n">
-        <v>0.834777</v>
+        <v>0.827736</v>
       </c>
       <c r="D70" t="n">
-        <v>0.854183</v>
+        <v>0.8483270000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.754327</v>
+        <v>0.74714</v>
       </c>
       <c r="C71" t="n">
-        <v>0.805902</v>
+        <v>0.798594</v>
       </c>
       <c r="D71" t="n">
-        <v>0.824294</v>
+        <v>0.816595</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.738426</v>
+        <v>0.733367</v>
       </c>
       <c r="C72" t="n">
-        <v>0.783316</v>
+        <v>0.780763</v>
       </c>
       <c r="D72" t="n">
-        <v>0.799811</v>
+        <v>0.790305</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.719307</v>
+        <v>0.710843</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7588009999999999</v>
+        <v>0.749743</v>
       </c>
       <c r="D73" t="n">
-        <v>0.775062</v>
+        <v>0.765893</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.705255</v>
+        <v>0.7033430000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.740387</v>
+        <v>0.73782</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7569090000000001</v>
+        <v>0.754216</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.696733</v>
+        <v>0.689134</v>
       </c>
       <c r="C75" t="n">
-        <v>0.721998</v>
+        <v>0.716402</v>
       </c>
       <c r="D75" t="n">
-        <v>0.736437</v>
+        <v>0.730747</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.684981</v>
+        <v>0.675805</v>
       </c>
       <c r="C76" t="n">
-        <v>0.704396</v>
+        <v>0.69915</v>
       </c>
       <c r="D76" t="n">
-        <v>0.718351</v>
+        <v>0.712684</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.673383</v>
+        <v>0.665811</v>
       </c>
       <c r="C77" t="n">
-        <v>0.686991</v>
+        <v>0.680941</v>
       </c>
       <c r="D77" t="n">
-        <v>0.700772</v>
+        <v>0.695213</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.663982</v>
+        <v>0.656995</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6715449999999999</v>
+        <v>0.6664870000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.686534</v>
+        <v>0.680414</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.657726</v>
+        <v>0.650715</v>
       </c>
       <c r="C79" t="n">
-        <v>0.658569</v>
+        <v>0.653206</v>
       </c>
       <c r="D79" t="n">
-        <v>0.67339</v>
+        <v>0.667507</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.653338</v>
+        <v>0.644787</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6466229999999999</v>
+        <v>0.640734</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6628500000000001</v>
+        <v>0.6579199999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.898965</v>
+        <v>0.892962</v>
       </c>
       <c r="C81" t="n">
-        <v>0.986644</v>
+        <v>0.980198</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9977009999999999</v>
+        <v>0.990992</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.891174</v>
+        <v>0.884626</v>
       </c>
       <c r="C82" t="n">
-        <v>0.970226</v>
+        <v>0.964691</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9809290000000001</v>
+        <v>0.9781530000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8815499999999999</v>
+        <v>0.8774149999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.952086</v>
+        <v>0.948868</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9616980000000001</v>
+        <v>0.958472</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.871672</v>
+        <v>0.867557</v>
       </c>
       <c r="C84" t="n">
-        <v>0.931257</v>
+        <v>0.929441</v>
       </c>
       <c r="D84" t="n">
-        <v>0.940484</v>
+        <v>0.93781</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.860706</v>
+        <v>0.8560489999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.909782</v>
+        <v>0.906799</v>
       </c>
       <c r="D85" t="n">
-        <v>0.919009</v>
+        <v>0.914764</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.849176</v>
+        <v>0.845336</v>
       </c>
       <c r="C86" t="n">
-        <v>0.889105</v>
+        <v>0.886521</v>
       </c>
       <c r="D86" t="n">
-        <v>0.897344</v>
+        <v>0.893494</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8378139999999999</v>
+        <v>0.8347329999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.869153</v>
+        <v>0.865743</v>
       </c>
       <c r="D87" t="n">
-        <v>0.876102</v>
+        <v>0.872005</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.826203</v>
+        <v>0.8224320000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.84881</v>
+        <v>0.846241</v>
       </c>
       <c r="D88" t="n">
-        <v>0.854754</v>
+        <v>0.852226</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.815567</v>
+        <v>0.811142</v>
       </c>
       <c r="C89" t="n">
-        <v>0.829067</v>
+        <v>0.824985</v>
       </c>
       <c r="D89" t="n">
-        <v>0.834708</v>
+        <v>0.828406</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8048650000000001</v>
+        <v>0.797811</v>
       </c>
       <c r="C90" t="n">
-        <v>0.811611</v>
+        <v>0.8048419999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.81571</v>
+        <v>0.809793</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.795254</v>
+        <v>0.790793</v>
       </c>
       <c r="C91" t="n">
-        <v>0.793243</v>
+        <v>0.790676</v>
       </c>
       <c r="D91" t="n">
-        <v>0.794756</v>
+        <v>0.79488</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.784482</v>
+        <v>0.78444</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7745</v>
+        <v>0.774429</v>
       </c>
       <c r="D92" t="n">
-        <v>0.779206</v>
+        <v>0.778661</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.780512</v>
+        <v>0.777214</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7627</v>
+        <v>0.760595</v>
       </c>
       <c r="D93" t="n">
-        <v>0.768014</v>
+        <v>0.764378</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.777214</v>
+        <v>0.774119</v>
       </c>
       <c r="C94" t="n">
-        <v>0.751487</v>
+        <v>0.749037</v>
       </c>
       <c r="D94" t="n">
-        <v>0.758113</v>
+        <v>0.755145</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02677</v>
+        <v>1.02664</v>
       </c>
       <c r="C95" t="n">
-        <v>1.09364</v>
+        <v>1.0926</v>
       </c>
       <c r="D95" t="n">
-        <v>1.09297</v>
+        <v>1.09138</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02805</v>
+        <v>1.02633</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08672</v>
+        <v>1.08571</v>
       </c>
       <c r="D96" t="n">
-        <v>1.08583</v>
+        <v>1.08545</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.0183</v>
+        <v>1.01791</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06991</v>
+        <v>1.06902</v>
       </c>
       <c r="D97" t="n">
-        <v>1.068</v>
+        <v>1.06656</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00753</v>
+        <v>1.00648</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05022</v>
+        <v>1.04973</v>
       </c>
       <c r="D98" t="n">
-        <v>1.04913</v>
+        <v>1.04929</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9971</v>
+        <v>0.995859</v>
       </c>
       <c r="C99" t="n">
-        <v>1.03258</v>
+        <v>1.03036</v>
       </c>
       <c r="D99" t="n">
-        <v>1.03005</v>
+        <v>1.02976</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.986024</v>
+        <v>0.986105</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01068</v>
+        <v>1.01302</v>
       </c>
       <c r="D100" t="n">
-        <v>1.01489</v>
+        <v>1.01062</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.97787</v>
+        <v>0.975055</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9997819999999999</v>
+        <v>0.996706</v>
       </c>
       <c r="D101" t="n">
-        <v>0.996742</v>
+        <v>0.994557</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.968651</v>
+        <v>0.967141</v>
       </c>
       <c r="C102" t="n">
-        <v>0.982858</v>
+        <v>0.981244</v>
       </c>
       <c r="D102" t="n">
-        <v>0.979815</v>
+        <v>0.979342</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.960992</v>
+        <v>0.960027</v>
       </c>
       <c r="C103" t="n">
-        <v>0.967025</v>
+        <v>0.965584</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9640300000000001</v>
+        <v>0.963659</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.95173</v>
+        <v>0.952634</v>
       </c>
       <c r="C104" t="n">
-        <v>0.948993</v>
+        <v>0.951759</v>
       </c>
       <c r="D104" t="n">
-        <v>0.946653</v>
+        <v>0.949995</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.944573</v>
+        <v>0.946973</v>
       </c>
       <c r="C105" t="n">
-        <v>0.935809</v>
+        <v>0.93755</v>
       </c>
       <c r="D105" t="n">
-        <v>0.932525</v>
+        <v>0.934931</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.941312</v>
+        <v>0.942582</v>
       </c>
       <c r="C106" t="n">
-        <v>0.924374</v>
+        <v>0.9259579999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9225950000000001</v>
+        <v>0.923637</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.939536</v>
+        <v>0.94004</v>
       </c>
       <c r="C107" t="n">
-        <v>0.914521</v>
+        <v>0.916087</v>
       </c>
       <c r="D107" t="n">
-        <v>0.912822</v>
+        <v>0.912862</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.939262</v>
+        <v>0.939437</v>
       </c>
       <c r="C108" t="n">
-        <v>0.906071</v>
+        <v>0.90571</v>
       </c>
       <c r="D108" t="n">
-        <v>0.904605</v>
+        <v>0.902474</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.942713</v>
+        <v>0.94258</v>
       </c>
       <c r="C109" t="n">
-        <v>0.899443</v>
+        <v>0.899311</v>
       </c>
       <c r="D109" t="n">
-        <v>0.89774</v>
+        <v>0.898071</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18861</v>
+        <v>1.18777</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24472</v>
+        <v>1.24607</v>
       </c>
       <c r="D110" t="n">
-        <v>1.23514</v>
+        <v>1.23552</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17599</v>
+        <v>1.1762</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22566</v>
+        <v>1.22681</v>
       </c>
       <c r="D111" t="n">
-        <v>1.21679</v>
+        <v>1.21805</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16398</v>
+        <v>1.16532</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20822</v>
+        <v>1.20875</v>
       </c>
       <c r="D112" t="n">
-        <v>1.19966</v>
+        <v>1.20012</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15264</v>
+        <v>1.15415</v>
       </c>
       <c r="C113" t="n">
-        <v>1.1901</v>
+        <v>1.19203</v>
       </c>
       <c r="D113" t="n">
-        <v>1.18146</v>
+        <v>1.18276</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14131</v>
+        <v>1.14296</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17378</v>
+        <v>1.17492</v>
       </c>
       <c r="D114" t="n">
-        <v>1.16506</v>
+        <v>1.16639</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13119</v>
+        <v>1.13341</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15598</v>
+        <v>1.1591</v>
       </c>
       <c r="D115" t="n">
-        <v>1.14891</v>
+        <v>1.1512</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12253</v>
+        <v>1.12486</v>
       </c>
       <c r="C116" t="n">
-        <v>1.1423</v>
+        <v>1.14471</v>
       </c>
       <c r="D116" t="n">
-        <v>1.13465</v>
+        <v>1.13646</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.115</v>
+        <v>1.11669</v>
       </c>
       <c r="C117" t="n">
-        <v>1.1271</v>
+        <v>1.13061</v>
       </c>
       <c r="D117" t="n">
-        <v>1.11993</v>
+        <v>1.12178</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10722</v>
+        <v>1.10942</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11634</v>
+        <v>1.11708</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10939</v>
+        <v>1.10996</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10317</v>
+        <v>1.10463</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10379</v>
+        <v>1.10578</v>
       </c>
       <c r="D119" t="n">
-        <v>1.0962</v>
+        <v>1.09813</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.09891</v>
+        <v>1.10076</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09311</v>
+        <v>1.09303</v>
       </c>
       <c r="D120" t="n">
-        <v>1.08564</v>
+        <v>1.08668</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09674</v>
+        <v>1.09865</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08272</v>
+        <v>1.08407</v>
       </c>
       <c r="D121" t="n">
-        <v>1.07595</v>
+        <v>1.07656</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09714</v>
+        <v>1.09866</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07457</v>
+        <v>1.07576</v>
       </c>
       <c r="D122" t="n">
-        <v>1.06637</v>
+        <v>1.06802</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10091</v>
+        <v>1.10368</v>
       </c>
       <c r="C123" t="n">
-        <v>1.06881</v>
+        <v>1.0712</v>
       </c>
       <c r="D123" t="n">
-        <v>1.06152</v>
+        <v>1.06355</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35151</v>
+        <v>1.35215</v>
       </c>
       <c r="C124" t="n">
-        <v>1.41538</v>
+        <v>1.41687</v>
       </c>
       <c r="D124" t="n">
-        <v>1.39987</v>
+        <v>1.40062</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.34216</v>
+        <v>1.3431</v>
       </c>
       <c r="C125" t="n">
-        <v>1.39899</v>
+        <v>1.40052</v>
       </c>
       <c r="D125" t="n">
-        <v>1.38413</v>
+        <v>1.38542</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33281</v>
+        <v>1.33359</v>
       </c>
       <c r="C126" t="n">
-        <v>1.38305</v>
+        <v>1.38482</v>
       </c>
       <c r="D126" t="n">
-        <v>1.36869</v>
+        <v>1.36961</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32374</v>
+        <v>1.3253</v>
       </c>
       <c r="C127" t="n">
-        <v>1.36777</v>
+        <v>1.36964</v>
       </c>
       <c r="D127" t="n">
-        <v>1.35369</v>
+        <v>1.35577</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.3154</v>
+        <v>1.31808</v>
       </c>
       <c r="C128" t="n">
-        <v>1.35344</v>
+        <v>1.35661</v>
       </c>
       <c r="D128" t="n">
-        <v>1.33997</v>
+        <v>1.3415</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.30842</v>
+        <v>1.31087</v>
       </c>
       <c r="C129" t="n">
-        <v>1.33971</v>
+        <v>1.3427</v>
       </c>
       <c r="D129" t="n">
-        <v>1.32652</v>
+        <v>1.32893</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30165</v>
+        <v>1.30445</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32731</v>
+        <v>1.3298</v>
       </c>
       <c r="D130" t="n">
-        <v>1.31522</v>
+        <v>1.31607</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29715</v>
+        <v>1.29993</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31643</v>
+        <v>1.31882</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30291</v>
+        <v>1.30526</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29302</v>
+        <v>1.29533</v>
       </c>
       <c r="C132" t="n">
-        <v>1.30477</v>
+        <v>1.30752</v>
       </c>
       <c r="D132" t="n">
-        <v>1.29194</v>
+        <v>1.2935</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.28985</v>
+        <v>1.293</v>
       </c>
       <c r="C133" t="n">
-        <v>1.29433</v>
+        <v>1.29707</v>
       </c>
       <c r="D133" t="n">
-        <v>1.28252</v>
+        <v>1.28401</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.28857</v>
+        <v>1.292</v>
       </c>
       <c r="C134" t="n">
-        <v>1.28705</v>
+        <v>1.28985</v>
       </c>
       <c r="D134" t="n">
-        <v>1.27321</v>
+        <v>1.27557</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.28957</v>
+        <v>1.29205</v>
       </c>
       <c r="C135" t="n">
-        <v>1.27981</v>
+        <v>1.28234</v>
       </c>
       <c r="D135" t="n">
-        <v>1.26558</v>
+        <v>1.26712</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.29122</v>
+        <v>1.29501</v>
       </c>
       <c r="C136" t="n">
-        <v>1.27267</v>
+        <v>1.27585</v>
       </c>
       <c r="D136" t="n">
-        <v>1.25738</v>
+        <v>1.25988</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.29608</v>
+        <v>1.2987</v>
       </c>
       <c r="C137" t="n">
-        <v>1.26813</v>
+        <v>1.27028</v>
       </c>
       <c r="D137" t="n">
-        <v>1.24953</v>
+        <v>1.25166</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54536</v>
+        <v>1.54739</v>
       </c>
       <c r="C138" t="n">
-        <v>1.61142</v>
+        <v>1.61489</v>
       </c>
       <c r="D138" t="n">
-        <v>1.58602</v>
+        <v>1.5877</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53748</v>
+        <v>1.53914</v>
       </c>
       <c r="C139" t="n">
-        <v>1.59755</v>
+        <v>1.60033</v>
       </c>
       <c r="D139" t="n">
-        <v>1.57237</v>
+        <v>1.57404</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.5293</v>
+        <v>1.53207</v>
       </c>
       <c r="C140" t="n">
-        <v>1.58459</v>
+        <v>1.58643</v>
       </c>
       <c r="D140" t="n">
-        <v>1.56032</v>
+        <v>1.56243</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.5239</v>
+        <v>1.52687</v>
       </c>
       <c r="C141" t="n">
-        <v>1.57036</v>
+        <v>1.57513</v>
       </c>
       <c r="D141" t="n">
-        <v>1.54761</v>
+        <v>1.55089</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.51743</v>
+        <v>1.52087</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56039</v>
+        <v>1.56341</v>
       </c>
       <c r="D142" t="n">
-        <v>1.53635</v>
+        <v>1.54006</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51251</v>
+        <v>1.51606</v>
       </c>
       <c r="C143" t="n">
-        <v>1.54978</v>
+        <v>1.55367</v>
       </c>
       <c r="D143" t="n">
-        <v>1.52543</v>
+        <v>1.52882</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575366</v>
+        <v>0.577883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.596639</v>
+        <v>0.592669</v>
       </c>
       <c r="D2" t="n">
-        <v>0.621546</v>
+        <v>0.6264690000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5626949999999999</v>
+        <v>0.565465</v>
       </c>
       <c r="C3" t="n">
-        <v>0.579308</v>
+        <v>0.575018</v>
       </c>
       <c r="D3" t="n">
-        <v>0.602231</v>
+        <v>0.606877</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.549818</v>
+        <v>0.5532550000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.56265</v>
+        <v>0.558552</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5852270000000001</v>
+        <v>0.58953</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.540254</v>
+        <v>0.543405</v>
       </c>
       <c r="C5" t="n">
-        <v>0.548019</v>
+        <v>0.543143</v>
       </c>
       <c r="D5" t="n">
-        <v>0.570102</v>
+        <v>0.574377</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.531587</v>
+        <v>0.534301</v>
       </c>
       <c r="C6" t="n">
-        <v>0.534474</v>
+        <v>0.5294410000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.556947</v>
+        <v>0.561334</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.524487</v>
+        <v>0.528096</v>
       </c>
       <c r="C7" t="n">
-        <v>0.52146</v>
+        <v>0.516498</v>
       </c>
       <c r="D7" t="n">
-        <v>0.545441</v>
+        <v>0.549115</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.520509</v>
+        <v>0.524659</v>
       </c>
       <c r="C8" t="n">
-        <v>0.511798</v>
+        <v>0.50647</v>
       </c>
       <c r="D8" t="n">
-        <v>0.536181</v>
+        <v>0.540524</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.520691</v>
+        <v>0.52533</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5037160000000001</v>
+        <v>0.498687</v>
       </c>
       <c r="D9" t="n">
-        <v>0.531485</v>
+        <v>0.534683</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.722244</v>
+        <v>0.7242690000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.776917</v>
+        <v>0.772259</v>
       </c>
       <c r="D10" t="n">
-        <v>0.809273</v>
+        <v>0.81389</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.699481</v>
+        <v>0.702806</v>
       </c>
       <c r="C11" t="n">
-        <v>0.749807</v>
+        <v>0.74599</v>
       </c>
       <c r="D11" t="n">
-        <v>0.781442</v>
+        <v>0.786535</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.678775</v>
+        <v>0.682136</v>
       </c>
       <c r="C12" t="n">
-        <v>0.725266</v>
+        <v>0.720896</v>
       </c>
       <c r="D12" t="n">
-        <v>0.75543</v>
+        <v>0.760511</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.658516</v>
+        <v>0.662641</v>
       </c>
       <c r="C13" t="n">
-        <v>0.701199</v>
+        <v>0.697263</v>
       </c>
       <c r="D13" t="n">
-        <v>0.730672</v>
+        <v>0.735632</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.640493</v>
+        <v>0.643938</v>
       </c>
       <c r="C14" t="n">
-        <v>0.679133</v>
+        <v>0.674723</v>
       </c>
       <c r="D14" t="n">
-        <v>0.706947</v>
+        <v>0.712247</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.624578</v>
+        <v>0.62684</v>
       </c>
       <c r="C15" t="n">
-        <v>0.658241</v>
+        <v>0.653768</v>
       </c>
       <c r="D15" t="n">
-        <v>0.684842</v>
+        <v>0.689213</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.608127</v>
+        <v>0.61078</v>
       </c>
       <c r="C16" t="n">
-        <v>0.638278</v>
+        <v>0.633775</v>
       </c>
       <c r="D16" t="n">
-        <v>0.66366</v>
+        <v>0.6679349999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.593566</v>
+        <v>0.596036</v>
       </c>
       <c r="C17" t="n">
-        <v>0.619054</v>
+        <v>0.614958</v>
       </c>
       <c r="D17" t="n">
-        <v>0.643277</v>
+        <v>0.647984</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.580752</v>
+        <v>0.582977</v>
       </c>
       <c r="C18" t="n">
-        <v>0.601434</v>
+        <v>0.596784</v>
       </c>
       <c r="D18" t="n">
-        <v>0.624793</v>
+        <v>0.628671</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.568344</v>
+        <v>0.570496</v>
       </c>
       <c r="C19" t="n">
-        <v>0.584815</v>
+        <v>0.580048</v>
       </c>
       <c r="D19" t="n">
-        <v>0.607185</v>
+        <v>0.611044</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.557853</v>
+        <v>0.560419</v>
       </c>
       <c r="C20" t="n">
-        <v>0.569265</v>
+        <v>0.5643359999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.591412</v>
+        <v>0.595732</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.549534</v>
+        <v>0.551987</v>
       </c>
       <c r="C21" t="n">
-        <v>0.555198</v>
+        <v>0.55035</v>
       </c>
       <c r="D21" t="n">
-        <v>0.577667</v>
+        <v>0.58166</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.543425</v>
+        <v>0.545857</v>
       </c>
       <c r="C22" t="n">
-        <v>0.543226</v>
+        <v>0.538443</v>
       </c>
       <c r="D22" t="n">
-        <v>0.567174</v>
+        <v>0.570812</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.541234</v>
+        <v>0.544082</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5336340000000001</v>
+        <v>0.528751</v>
       </c>
       <c r="D23" t="n">
-        <v>0.559485</v>
+        <v>0.5630309999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.742696</v>
+        <v>0.745197</v>
       </c>
       <c r="C24" t="n">
-        <v>0.813429</v>
+        <v>0.806488</v>
       </c>
       <c r="D24" t="n">
-        <v>0.841861</v>
+        <v>0.847191</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.720797</v>
+        <v>0.722865</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7848000000000001</v>
+        <v>0.7798850000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.813476</v>
+        <v>0.819271</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.699371</v>
+        <v>0.701265</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7596270000000001</v>
+        <v>0.753875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.786373</v>
+        <v>0.79149</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6793709999999999</v>
+        <v>0.6812009999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.733975</v>
+        <v>0.729189</v>
       </c>
       <c r="D27" t="n">
-        <v>0.760734</v>
+        <v>0.765578</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.660417</v>
+        <v>0.662299</v>
       </c>
       <c r="C28" t="n">
-        <v>0.710737</v>
+        <v>0.705756</v>
       </c>
       <c r="D28" t="n">
-        <v>0.735325</v>
+        <v>0.740232</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.642285</v>
+        <v>0.644695</v>
       </c>
       <c r="C29" t="n">
-        <v>0.689021</v>
+        <v>0.683246</v>
       </c>
       <c r="D29" t="n">
-        <v>0.711894</v>
+        <v>0.716315</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.62585</v>
+        <v>0.627797</v>
       </c>
       <c r="C30" t="n">
-        <v>0.666719</v>
+        <v>0.661801</v>
       </c>
       <c r="D30" t="n">
-        <v>0.68991</v>
+        <v>0.694441</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.610158</v>
+        <v>0.6123420000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.647054</v>
+        <v>0.641741</v>
       </c>
       <c r="D31" t="n">
-        <v>0.668689</v>
+        <v>0.67309</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.595857</v>
+        <v>0.598021</v>
       </c>
       <c r="C32" t="n">
-        <v>0.628136</v>
+        <v>0.622861</v>
       </c>
       <c r="D32" t="n">
-        <v>0.648937</v>
+        <v>0.652853</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.583623</v>
+        <v>0.585694</v>
       </c>
       <c r="C33" t="n">
-        <v>0.61017</v>
+        <v>0.604999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.630927</v>
+        <v>0.634919</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.572271</v>
+        <v>0.574666</v>
       </c>
       <c r="C34" t="n">
-        <v>0.594414</v>
+        <v>0.588734</v>
       </c>
       <c r="D34" t="n">
-        <v>0.614607</v>
+        <v>0.618324</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.562687</v>
+        <v>0.564676</v>
       </c>
       <c r="C35" t="n">
-        <v>0.579481</v>
+        <v>0.573663</v>
       </c>
       <c r="D35" t="n">
-        <v>0.600225</v>
+        <v>0.603586</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.556451</v>
+        <v>0.558335</v>
       </c>
       <c r="C36" t="n">
-        <v>0.566157</v>
+        <v>0.560383</v>
       </c>
       <c r="D36" t="n">
-        <v>0.587226</v>
+        <v>0.591253</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.552495</v>
+        <v>0.553633</v>
       </c>
       <c r="C37" t="n">
-        <v>0.555765</v>
+        <v>0.54966</v>
       </c>
       <c r="D37" t="n">
-        <v>0.579118</v>
+        <v>0.582758</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.760558</v>
+        <v>0.76291</v>
       </c>
       <c r="C38" t="n">
-        <v>0.835858</v>
+        <v>0.831601</v>
       </c>
       <c r="D38" t="n">
-        <v>0.867313</v>
+        <v>0.8722839999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.739509</v>
+        <v>0.740827</v>
       </c>
       <c r="C39" t="n">
-        <v>0.810847</v>
+        <v>0.80514</v>
       </c>
       <c r="D39" t="n">
-        <v>0.839086</v>
+        <v>0.843742</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.717269</v>
+        <v>0.7185279999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.78408</v>
+        <v>0.777829</v>
       </c>
       <c r="D40" t="n">
-        <v>0.810365</v>
+        <v>0.815111</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.696438</v>
+        <v>0.697855</v>
       </c>
       <c r="C41" t="n">
-        <v>0.75845</v>
+        <v>0.752842</v>
       </c>
       <c r="D41" t="n">
-        <v>0.784188</v>
+        <v>0.788666</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.677891</v>
+        <v>0.679057</v>
       </c>
       <c r="C42" t="n">
-        <v>0.735336</v>
+        <v>0.729523</v>
       </c>
       <c r="D42" t="n">
-        <v>0.758954</v>
+        <v>0.762218</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.65959</v>
+        <v>0.660801</v>
       </c>
       <c r="C43" t="n">
-        <v>0.711006</v>
+        <v>0.70642</v>
       </c>
       <c r="D43" t="n">
-        <v>0.734753</v>
+        <v>0.738993</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.642863</v>
+        <v>0.643173</v>
       </c>
       <c r="C44" t="n">
-        <v>0.690228</v>
+        <v>0.684411</v>
       </c>
       <c r="D44" t="n">
-        <v>0.711638</v>
+        <v>0.715579</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.627196</v>
+        <v>0.6275500000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.66999</v>
+        <v>0.663532</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6904400000000001</v>
+        <v>0.6938530000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.612745</v>
+        <v>0.613148</v>
       </c>
       <c r="C46" t="n">
-        <v>0.649907</v>
+        <v>0.643961</v>
       </c>
       <c r="D46" t="n">
-        <v>0.669757</v>
+        <v>0.673099</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.598947</v>
+        <v>0.599664</v>
       </c>
       <c r="C47" t="n">
-        <v>0.63159</v>
+        <v>0.6255849999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.651775</v>
+        <v>0.654213</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.587329</v>
+        <v>0.589616</v>
       </c>
       <c r="C48" t="n">
-        <v>0.615584</v>
+        <v>0.609225</v>
       </c>
       <c r="D48" t="n">
-        <v>0.634395</v>
+        <v>0.637251</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.578516</v>
+        <v>0.578901</v>
       </c>
       <c r="C49" t="n">
-        <v>0.599739</v>
+        <v>0.59291</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6193070000000001</v>
+        <v>0.621069</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.571587</v>
+        <v>0.5725789999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.586349</v>
+        <v>0.579086</v>
       </c>
       <c r="D50" t="n">
-        <v>0.606196</v>
+        <v>0.608493</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.566752</v>
+        <v>0.566541</v>
       </c>
       <c r="C51" t="n">
-        <v>0.575117</v>
+        <v>0.567066</v>
       </c>
       <c r="D51" t="n">
-        <v>0.597295</v>
+        <v>0.598039</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.564407</v>
+        <v>0.564341</v>
       </c>
       <c r="C52" t="n">
-        <v>0.565487</v>
+        <v>0.558514</v>
       </c>
       <c r="D52" t="n">
-        <v>0.589469</v>
+        <v>0.5912539999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.760566</v>
+        <v>0.761294</v>
       </c>
       <c r="C53" t="n">
-        <v>0.843018</v>
+        <v>0.836998</v>
       </c>
       <c r="D53" t="n">
-        <v>0.870981</v>
+        <v>0.875176</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.738706</v>
+        <v>0.739814</v>
       </c>
       <c r="C54" t="n">
-        <v>0.814841</v>
+        <v>0.80905</v>
       </c>
       <c r="D54" t="n">
-        <v>0.839961</v>
+        <v>0.845539</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7198909999999999</v>
+        <v>0.719232</v>
       </c>
       <c r="C55" t="n">
-        <v>0.790042</v>
+        <v>0.783045</v>
       </c>
       <c r="D55" t="n">
-        <v>0.815045</v>
+        <v>0.817743</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7018990000000001</v>
+        <v>0.700691</v>
       </c>
       <c r="C56" t="n">
-        <v>0.76858</v>
+        <v>0.7607699999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.791923</v>
+        <v>0.79466</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.682572</v>
+        <v>0.685279</v>
       </c>
       <c r="C57" t="n">
-        <v>0.743883</v>
+        <v>0.737751</v>
       </c>
       <c r="D57" t="n">
-        <v>0.765557</v>
+        <v>0.770774</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.665375</v>
+        <v>0.667559</v>
       </c>
       <c r="C58" t="n">
-        <v>0.721507</v>
+        <v>0.714917</v>
       </c>
       <c r="D58" t="n">
-        <v>0.741286</v>
+        <v>0.745244</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.648421</v>
+        <v>0.651875</v>
       </c>
       <c r="C59" t="n">
-        <v>0.700192</v>
+        <v>0.694204</v>
       </c>
       <c r="D59" t="n">
-        <v>0.720388</v>
+        <v>0.723872</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.635429</v>
+        <v>0.637534</v>
       </c>
       <c r="C60" t="n">
-        <v>0.680862</v>
+        <v>0.6743</v>
       </c>
       <c r="D60" t="n">
-        <v>0.69977</v>
+        <v>0.702744</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6219</v>
+        <v>0.624459</v>
       </c>
       <c r="C61" t="n">
-        <v>0.662703</v>
+        <v>0.655942</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6801</v>
+        <v>0.683814</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.609916</v>
+        <v>0.611164</v>
       </c>
       <c r="C62" t="n">
-        <v>0.643738</v>
+        <v>0.638646</v>
       </c>
       <c r="D62" t="n">
-        <v>0.662062</v>
+        <v>0.665265</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.600156</v>
+        <v>0.60212</v>
       </c>
       <c r="C63" t="n">
-        <v>0.627818</v>
+        <v>0.621601</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6455959999999999</v>
+        <v>0.648035</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.592732</v>
+        <v>0.594083</v>
       </c>
       <c r="C64" t="n">
-        <v>0.613852</v>
+        <v>0.60681</v>
       </c>
       <c r="D64" t="n">
-        <v>0.631893</v>
+        <v>0.633372</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.58932</v>
+        <v>0.588314</v>
       </c>
       <c r="C65" t="n">
-        <v>0.603539</v>
+        <v>0.593965</v>
       </c>
       <c r="D65" t="n">
-        <v>0.622838</v>
+        <v>0.622766</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.586835</v>
+        <v>0.5871459999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.592774</v>
+        <v>0.584951</v>
       </c>
       <c r="D66" t="n">
-        <v>0.613419</v>
+        <v>0.61541</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.816943</v>
+        <v>0.8250960000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9033949999999999</v>
+        <v>0.904344</v>
       </c>
       <c r="D67" t="n">
-        <v>0.927015</v>
+        <v>0.939539</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.797645</v>
+        <v>0.807111</v>
       </c>
       <c r="C68" t="n">
-        <v>0.87897</v>
+        <v>0.876265</v>
       </c>
       <c r="D68" t="n">
-        <v>0.902135</v>
+        <v>0.9113869999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.784058</v>
+        <v>0.792893</v>
       </c>
       <c r="C69" t="n">
-        <v>0.853498</v>
+        <v>0.853114</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8745230000000001</v>
+        <v>0.885843</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.765374</v>
+        <v>0.77637</v>
       </c>
       <c r="C70" t="n">
-        <v>0.827736</v>
+        <v>0.826665</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8483270000000001</v>
+        <v>0.856749</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.74714</v>
+        <v>0.754672</v>
       </c>
       <c r="C71" t="n">
-        <v>0.798594</v>
+        <v>0.7975139999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.816595</v>
+        <v>0.828434</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.733367</v>
+        <v>0.741328</v>
       </c>
       <c r="C72" t="n">
-        <v>0.780763</v>
+        <v>0.77667</v>
       </c>
       <c r="D72" t="n">
-        <v>0.790305</v>
+        <v>0.803543</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.710843</v>
+        <v>0.725611</v>
       </c>
       <c r="C73" t="n">
-        <v>0.749743</v>
+        <v>0.75746</v>
       </c>
       <c r="D73" t="n">
-        <v>0.765893</v>
+        <v>0.784238</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7033430000000001</v>
+        <v>0.714994</v>
       </c>
       <c r="C74" t="n">
-        <v>0.73782</v>
+        <v>0.735381</v>
       </c>
       <c r="D74" t="n">
-        <v>0.754216</v>
+        <v>0.763869</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.689134</v>
+        <v>0.703246</v>
       </c>
       <c r="C75" t="n">
-        <v>0.716402</v>
+        <v>0.71715</v>
       </c>
       <c r="D75" t="n">
-        <v>0.730747</v>
+        <v>0.742777</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.675805</v>
+        <v>0.6898919999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.69915</v>
+        <v>0.697161</v>
       </c>
       <c r="D76" t="n">
-        <v>0.712684</v>
+        <v>0.721505</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.665811</v>
+        <v>0.678137</v>
       </c>
       <c r="C77" t="n">
-        <v>0.680941</v>
+        <v>0.678904</v>
       </c>
       <c r="D77" t="n">
-        <v>0.695213</v>
+        <v>0.703682</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.656995</v>
+        <v>0.6671859999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6664870000000001</v>
+        <v>0.663821</v>
       </c>
       <c r="D78" t="n">
-        <v>0.680414</v>
+        <v>0.68706</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.650715</v>
+        <v>0.6602479999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.653206</v>
+        <v>0.650815</v>
       </c>
       <c r="D79" t="n">
-        <v>0.667507</v>
+        <v>0.675253</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.644787</v>
+        <v>0.6564140000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.640734</v>
+        <v>0.637941</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6579199999999999</v>
+        <v>0.6655799999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.892962</v>
+        <v>0.909335</v>
       </c>
       <c r="C81" t="n">
-        <v>0.980198</v>
+        <v>0.994652</v>
       </c>
       <c r="D81" t="n">
-        <v>0.990992</v>
+        <v>1.02336</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.884626</v>
+        <v>0.905425</v>
       </c>
       <c r="C82" t="n">
-        <v>0.964691</v>
+        <v>0.979777</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9781530000000001</v>
+        <v>1.00805</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8774149999999999</v>
+        <v>0.897652</v>
       </c>
       <c r="C83" t="n">
-        <v>0.948868</v>
+        <v>0.961087</v>
       </c>
       <c r="D83" t="n">
-        <v>0.958472</v>
+        <v>0.986204</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.867557</v>
+        <v>0.88602</v>
       </c>
       <c r="C84" t="n">
-        <v>0.929441</v>
+        <v>0.940195</v>
       </c>
       <c r="D84" t="n">
-        <v>0.93781</v>
+        <v>0.966235</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8560489999999999</v>
+        <v>0.8790210000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.906799</v>
+        <v>0.9197380000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.914764</v>
+        <v>0.944998</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.845336</v>
+        <v>0.868352</v>
       </c>
       <c r="C86" t="n">
-        <v>0.886521</v>
+        <v>0.897945</v>
       </c>
       <c r="D86" t="n">
-        <v>0.893494</v>
+        <v>0.9212590000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8347329999999999</v>
+        <v>0.858306</v>
       </c>
       <c r="C87" t="n">
-        <v>0.865743</v>
+        <v>0.881555</v>
       </c>
       <c r="D87" t="n">
-        <v>0.872005</v>
+        <v>0.903502</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8224320000000001</v>
+        <v>0.84841</v>
       </c>
       <c r="C88" t="n">
-        <v>0.846241</v>
+        <v>0.861004</v>
       </c>
       <c r="D88" t="n">
-        <v>0.852226</v>
+        <v>0.8807970000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.811142</v>
+        <v>0.837093</v>
       </c>
       <c r="C89" t="n">
-        <v>0.824985</v>
+        <v>0.84053</v>
       </c>
       <c r="D89" t="n">
-        <v>0.828406</v>
+        <v>0.860067</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.797811</v>
+        <v>0.826197</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8048419999999999</v>
+        <v>0.822118</v>
       </c>
       <c r="D90" t="n">
-        <v>0.809793</v>
+        <v>0.839544</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.790793</v>
+        <v>0.818385</v>
       </c>
       <c r="C91" t="n">
-        <v>0.790676</v>
+        <v>0.806675</v>
       </c>
       <c r="D91" t="n">
-        <v>0.79488</v>
+        <v>0.821813</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.78444</v>
+        <v>0.81027</v>
       </c>
       <c r="C92" t="n">
-        <v>0.774429</v>
+        <v>0.78813</v>
       </c>
       <c r="D92" t="n">
-        <v>0.778661</v>
+        <v>0.804519</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.777214</v>
+        <v>0.804005</v>
       </c>
       <c r="C93" t="n">
-        <v>0.760595</v>
+        <v>0.773494</v>
       </c>
       <c r="D93" t="n">
-        <v>0.764378</v>
+        <v>0.791428</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.774119</v>
+        <v>0.799411</v>
       </c>
       <c r="C94" t="n">
-        <v>0.749037</v>
+        <v>0.762159</v>
       </c>
       <c r="D94" t="n">
-        <v>0.755145</v>
+        <v>0.780766</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02664</v>
+        <v>1.05725</v>
       </c>
       <c r="C95" t="n">
-        <v>1.0926</v>
+        <v>1.12115</v>
       </c>
       <c r="D95" t="n">
-        <v>1.09138</v>
+        <v>1.14233</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02633</v>
+        <v>1.06221</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08571</v>
+        <v>1.11973</v>
       </c>
       <c r="D96" t="n">
-        <v>1.08545</v>
+        <v>1.13968</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01791</v>
+        <v>1.05283</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06902</v>
+        <v>1.10253</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06656</v>
+        <v>1.12045</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00648</v>
+        <v>1.04259</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04973</v>
+        <v>1.08377</v>
       </c>
       <c r="D98" t="n">
-        <v>1.04929</v>
+        <v>1.10216</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.995859</v>
+        <v>1.03485</v>
       </c>
       <c r="C99" t="n">
-        <v>1.03036</v>
+        <v>1.06783</v>
       </c>
       <c r="D99" t="n">
-        <v>1.02976</v>
+        <v>1.08385</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.986105</v>
+        <v>1.02563</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01302</v>
+        <v>1.0486</v>
       </c>
       <c r="D100" t="n">
-        <v>1.01062</v>
+        <v>1.06573</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.975055</v>
+        <v>1.01609</v>
       </c>
       <c r="C101" t="n">
-        <v>0.996706</v>
+        <v>1.03263</v>
       </c>
       <c r="D101" t="n">
-        <v>0.994557</v>
+        <v>1.04753</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.967141</v>
+        <v>1.00799</v>
       </c>
       <c r="C102" t="n">
-        <v>0.981244</v>
+        <v>1.01555</v>
       </c>
       <c r="D102" t="n">
-        <v>0.979342</v>
+        <v>1.02931</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.960027</v>
+        <v>1.00122</v>
       </c>
       <c r="C103" t="n">
-        <v>0.965584</v>
+        <v>1.00184</v>
       </c>
       <c r="D103" t="n">
-        <v>0.963659</v>
+        <v>1.01512</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.952634</v>
+        <v>0.996047</v>
       </c>
       <c r="C104" t="n">
-        <v>0.951759</v>
+        <v>0.987237</v>
       </c>
       <c r="D104" t="n">
-        <v>0.949995</v>
+        <v>1.00009</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.946973</v>
+        <v>0.990086</v>
       </c>
       <c r="C105" t="n">
-        <v>0.93755</v>
+        <v>0.97472</v>
       </c>
       <c r="D105" t="n">
-        <v>0.934931</v>
+        <v>0.986734</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.942582</v>
+        <v>0.986415</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9259579999999999</v>
+        <v>0.96213</v>
       </c>
       <c r="D106" t="n">
-        <v>0.923637</v>
+        <v>0.973899</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.94004</v>
+        <v>0.984386</v>
       </c>
       <c r="C107" t="n">
-        <v>0.916087</v>
+        <v>0.951968</v>
       </c>
       <c r="D107" t="n">
-        <v>0.912862</v>
+        <v>0.962461</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.939437</v>
+        <v>0.985662</v>
       </c>
       <c r="C108" t="n">
-        <v>0.90571</v>
+        <v>0.943476</v>
       </c>
       <c r="D108" t="n">
-        <v>0.902474</v>
+        <v>0.953761</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.94258</v>
+        <v>0.989579</v>
       </c>
       <c r="C109" t="n">
-        <v>0.899311</v>
+        <v>0.93811</v>
       </c>
       <c r="D109" t="n">
-        <v>0.898071</v>
+        <v>0.948829</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18777</v>
+        <v>1.24952</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24607</v>
+        <v>1.30198</v>
       </c>
       <c r="D110" t="n">
-        <v>1.23552</v>
+        <v>1.31371</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.1762</v>
+        <v>1.23998</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22681</v>
+        <v>1.28667</v>
       </c>
       <c r="D111" t="n">
-        <v>1.21805</v>
+        <v>1.29645</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16532</v>
+        <v>1.22787</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20875</v>
+        <v>1.26948</v>
       </c>
       <c r="D112" t="n">
-        <v>1.20012</v>
+        <v>1.27799</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15415</v>
+        <v>1.21704</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19203</v>
+        <v>1.25121</v>
       </c>
       <c r="D113" t="n">
-        <v>1.18276</v>
+        <v>1.25957</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14296</v>
+        <v>1.20617</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17492</v>
+        <v>1.23451</v>
       </c>
       <c r="D114" t="n">
-        <v>1.16639</v>
+        <v>1.24306</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13341</v>
+        <v>1.19766</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1591</v>
+        <v>1.21978</v>
       </c>
       <c r="D115" t="n">
-        <v>1.1512</v>
+        <v>1.22772</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12486</v>
+        <v>1.18967</v>
       </c>
       <c r="C116" t="n">
-        <v>1.14471</v>
+        <v>1.20445</v>
       </c>
       <c r="D116" t="n">
-        <v>1.13646</v>
+        <v>1.21243</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11669</v>
+        <v>1.18281</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13061</v>
+        <v>1.19175</v>
       </c>
       <c r="D117" t="n">
-        <v>1.12178</v>
+        <v>1.19927</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.10942</v>
+        <v>1.17618</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11708</v>
+        <v>1.17906</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10996</v>
+        <v>1.186</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10463</v>
+        <v>1.1708</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10578</v>
+        <v>1.16842</v>
       </c>
       <c r="D119" t="n">
-        <v>1.09813</v>
+        <v>1.17449</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.10076</v>
+        <v>1.16893</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09303</v>
+        <v>1.15716</v>
       </c>
       <c r="D120" t="n">
-        <v>1.08668</v>
+        <v>1.16262</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09865</v>
+        <v>1.16628</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08407</v>
+        <v>1.14704</v>
       </c>
       <c r="D121" t="n">
-        <v>1.07656</v>
+        <v>1.15189</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.09866</v>
+        <v>1.16697</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07576</v>
+        <v>1.13962</v>
       </c>
       <c r="D122" t="n">
-        <v>1.06802</v>
+        <v>1.14348</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10368</v>
+        <v>1.17261</v>
       </c>
       <c r="C123" t="n">
-        <v>1.0712</v>
+        <v>1.13497</v>
       </c>
       <c r="D123" t="n">
-        <v>1.06355</v>
+        <v>1.13776</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35215</v>
+        <v>1.42649</v>
       </c>
       <c r="C124" t="n">
-        <v>1.41687</v>
+        <v>1.495</v>
       </c>
       <c r="D124" t="n">
-        <v>1.40062</v>
+        <v>1.50095</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.3431</v>
+        <v>1.4186</v>
       </c>
       <c r="C125" t="n">
-        <v>1.40052</v>
+        <v>1.48015</v>
       </c>
       <c r="D125" t="n">
-        <v>1.38542</v>
+        <v>1.48469</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33359</v>
+        <v>1.40959</v>
       </c>
       <c r="C126" t="n">
-        <v>1.38482</v>
+        <v>1.46554</v>
       </c>
       <c r="D126" t="n">
-        <v>1.36961</v>
+        <v>1.46825</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.3253</v>
+        <v>1.40297</v>
       </c>
       <c r="C127" t="n">
-        <v>1.36964</v>
+        <v>1.4504</v>
       </c>
       <c r="D127" t="n">
-        <v>1.35577</v>
+        <v>1.45444</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31808</v>
+        <v>1.39544</v>
       </c>
       <c r="C128" t="n">
-        <v>1.35661</v>
+        <v>1.4375</v>
       </c>
       <c r="D128" t="n">
-        <v>1.3415</v>
+        <v>1.44077</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31087</v>
+        <v>1.39023</v>
       </c>
       <c r="C129" t="n">
-        <v>1.3427</v>
+        <v>1.42417</v>
       </c>
       <c r="D129" t="n">
-        <v>1.32893</v>
+        <v>1.42724</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30445</v>
+        <v>1.3836</v>
       </c>
       <c r="C130" t="n">
-        <v>1.3298</v>
+        <v>1.41258</v>
       </c>
       <c r="D130" t="n">
-        <v>1.31607</v>
+        <v>1.41509</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29993</v>
+        <v>1.38035</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31882</v>
+        <v>1.40296</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30526</v>
+        <v>1.404</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29533</v>
+        <v>1.37724</v>
       </c>
       <c r="C132" t="n">
-        <v>1.30752</v>
+        <v>1.39206</v>
       </c>
       <c r="D132" t="n">
-        <v>1.2935</v>
+        <v>1.39178</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.293</v>
+        <v>1.37484</v>
       </c>
       <c r="C133" t="n">
-        <v>1.29707</v>
+        <v>1.38263</v>
       </c>
       <c r="D133" t="n">
-        <v>1.28401</v>
+        <v>1.38078</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.292</v>
+        <v>1.37432</v>
       </c>
       <c r="C134" t="n">
-        <v>1.28985</v>
+        <v>1.37444</v>
       </c>
       <c r="D134" t="n">
-        <v>1.27557</v>
+        <v>1.3734</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.29205</v>
+        <v>1.37651</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28234</v>
+        <v>1.36832</v>
       </c>
       <c r="D135" t="n">
-        <v>1.26712</v>
+        <v>1.36447</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.29501</v>
+        <v>1.37939</v>
       </c>
       <c r="C136" t="n">
-        <v>1.27585</v>
+        <v>1.36195</v>
       </c>
       <c r="D136" t="n">
-        <v>1.25988</v>
+        <v>1.35492</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.2987</v>
+        <v>1.38514</v>
       </c>
       <c r="C137" t="n">
-        <v>1.27028</v>
+        <v>1.35682</v>
       </c>
       <c r="D137" t="n">
-        <v>1.25166</v>
+        <v>1.34751</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54739</v>
+        <v>1.63738</v>
       </c>
       <c r="C138" t="n">
-        <v>1.61489</v>
+        <v>1.71479</v>
       </c>
       <c r="D138" t="n">
-        <v>1.5877</v>
+        <v>1.70432</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53914</v>
+        <v>1.63046</v>
       </c>
       <c r="C139" t="n">
-        <v>1.60033</v>
+        <v>1.70117</v>
       </c>
       <c r="D139" t="n">
-        <v>1.57404</v>
+        <v>1.69094</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.53207</v>
+        <v>1.62356</v>
       </c>
       <c r="C140" t="n">
-        <v>1.58643</v>
+        <v>1.69045</v>
       </c>
       <c r="D140" t="n">
-        <v>1.56243</v>
+        <v>1.68028</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52687</v>
+        <v>1.61907</v>
       </c>
       <c r="C141" t="n">
-        <v>1.57513</v>
+        <v>1.67754</v>
       </c>
       <c r="D141" t="n">
-        <v>1.55089</v>
+        <v>1.66731</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.52087</v>
+        <v>1.61331</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56341</v>
+        <v>1.66857</v>
       </c>
       <c r="D142" t="n">
-        <v>1.54006</v>
+        <v>1.65655</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51606</v>
+        <v>1.60771</v>
       </c>
       <c r="C143" t="n">
-        <v>1.55367</v>
+        <v>1.65721</v>
       </c>
       <c r="D143" t="n">
-        <v>1.52882</v>
+        <v>1.64618</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.577883</v>
+        <v>0.577087</v>
       </c>
       <c r="C2" t="n">
-        <v>0.592669</v>
+        <v>0.592654</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6264690000000001</v>
+        <v>0.625379</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.565465</v>
+        <v>0.564945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.575018</v>
+        <v>0.57437</v>
       </c>
       <c r="D3" t="n">
-        <v>0.606877</v>
+        <v>0.606834</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5532550000000001</v>
+        <v>0.552853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.558552</v>
+        <v>0.557689</v>
       </c>
       <c r="D4" t="n">
-        <v>0.58953</v>
+        <v>0.589835</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.543405</v>
+        <v>0.543187</v>
       </c>
       <c r="C5" t="n">
-        <v>0.543143</v>
+        <v>0.542498</v>
       </c>
       <c r="D5" t="n">
-        <v>0.574377</v>
+        <v>0.575063</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.534301</v>
+        <v>0.53454</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5294410000000001</v>
+        <v>0.528847</v>
       </c>
       <c r="D6" t="n">
-        <v>0.561334</v>
+        <v>0.561754</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.528096</v>
+        <v>0.528146</v>
       </c>
       <c r="C7" t="n">
-        <v>0.516498</v>
+        <v>0.515967</v>
       </c>
       <c r="D7" t="n">
-        <v>0.549115</v>
+        <v>0.549604</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.524659</v>
+        <v>0.52444</v>
       </c>
       <c r="C8" t="n">
-        <v>0.50647</v>
+        <v>0.506288</v>
       </c>
       <c r="D8" t="n">
-        <v>0.540524</v>
+        <v>0.541104</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.52533</v>
+        <v>0.525149</v>
       </c>
       <c r="C9" t="n">
-        <v>0.498687</v>
+        <v>0.498186</v>
       </c>
       <c r="D9" t="n">
-        <v>0.534683</v>
+        <v>0.534529</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7242690000000001</v>
+        <v>0.725252</v>
       </c>
       <c r="C10" t="n">
-        <v>0.772259</v>
+        <v>0.771787</v>
       </c>
       <c r="D10" t="n">
-        <v>0.81389</v>
+        <v>0.814067</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.702806</v>
+        <v>0.703104</v>
       </c>
       <c r="C11" t="n">
-        <v>0.74599</v>
+        <v>0.745468</v>
       </c>
       <c r="D11" t="n">
-        <v>0.786535</v>
+        <v>0.7868039999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.682136</v>
+        <v>0.6821120000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.720896</v>
+        <v>0.72081</v>
       </c>
       <c r="D12" t="n">
-        <v>0.760511</v>
+        <v>0.760574</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.662641</v>
+        <v>0.662039</v>
       </c>
       <c r="C13" t="n">
-        <v>0.697263</v>
+        <v>0.6970730000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.735632</v>
+        <v>0.736022</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.643938</v>
+        <v>0.644052</v>
       </c>
       <c r="C14" t="n">
-        <v>0.674723</v>
+        <v>0.674697</v>
       </c>
       <c r="D14" t="n">
-        <v>0.712247</v>
+        <v>0.711968</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.62684</v>
+        <v>0.626765</v>
       </c>
       <c r="C15" t="n">
-        <v>0.653768</v>
+        <v>0.653883</v>
       </c>
       <c r="D15" t="n">
-        <v>0.689213</v>
+        <v>0.689484</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.61078</v>
+        <v>0.610978</v>
       </c>
       <c r="C16" t="n">
-        <v>0.633775</v>
+        <v>0.633409</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6679349999999999</v>
+        <v>0.668173</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.596036</v>
+        <v>0.596148</v>
       </c>
       <c r="C17" t="n">
-        <v>0.614958</v>
+        <v>0.614424</v>
       </c>
       <c r="D17" t="n">
-        <v>0.647984</v>
+        <v>0.647849</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.582977</v>
+        <v>0.583018</v>
       </c>
       <c r="C18" t="n">
-        <v>0.596784</v>
+        <v>0.596712</v>
       </c>
       <c r="D18" t="n">
-        <v>0.628671</v>
+        <v>0.628799</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.570496</v>
+        <v>0.570582</v>
       </c>
       <c r="C19" t="n">
-        <v>0.580048</v>
+        <v>0.580026</v>
       </c>
       <c r="D19" t="n">
-        <v>0.611044</v>
+        <v>0.611452</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.560419</v>
+        <v>0.560383</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5643359999999999</v>
+        <v>0.56423</v>
       </c>
       <c r="D20" t="n">
-        <v>0.595732</v>
+        <v>0.595567</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.551987</v>
+        <v>0.551557</v>
       </c>
       <c r="C21" t="n">
-        <v>0.55035</v>
+        <v>0.550189</v>
       </c>
       <c r="D21" t="n">
-        <v>0.58166</v>
+        <v>0.581948</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.545857</v>
+        <v>0.545679</v>
       </c>
       <c r="C22" t="n">
-        <v>0.538443</v>
+        <v>0.538346</v>
       </c>
       <c r="D22" t="n">
-        <v>0.570812</v>
+        <v>0.571042</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.544082</v>
+        <v>0.54388</v>
       </c>
       <c r="C23" t="n">
-        <v>0.528751</v>
+        <v>0.528419</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5630309999999999</v>
+        <v>0.563093</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.745197</v>
+        <v>0.745659</v>
       </c>
       <c r="C24" t="n">
-        <v>0.806488</v>
+        <v>0.806467</v>
       </c>
       <c r="D24" t="n">
-        <v>0.847191</v>
+        <v>0.8475549999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.722865</v>
+        <v>0.723261</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7798850000000001</v>
+        <v>0.779567</v>
       </c>
       <c r="D25" t="n">
-        <v>0.819271</v>
+        <v>0.818926</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.701265</v>
+        <v>0.701987</v>
       </c>
       <c r="C26" t="n">
-        <v>0.753875</v>
+        <v>0.753455</v>
       </c>
       <c r="D26" t="n">
-        <v>0.79149</v>
+        <v>0.791834</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6812009999999999</v>
+        <v>0.681989</v>
       </c>
       <c r="C27" t="n">
-        <v>0.729189</v>
+        <v>0.7292459999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.765578</v>
+        <v>0.765497</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.662299</v>
+        <v>0.662653</v>
       </c>
       <c r="C28" t="n">
-        <v>0.705756</v>
+        <v>0.705227</v>
       </c>
       <c r="D28" t="n">
-        <v>0.740232</v>
+        <v>0.740106</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.644695</v>
+        <v>0.644909</v>
       </c>
       <c r="C29" t="n">
-        <v>0.683246</v>
+        <v>0.683109</v>
       </c>
       <c r="D29" t="n">
-        <v>0.716315</v>
+        <v>0.71626</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.627797</v>
+        <v>0.627948</v>
       </c>
       <c r="C30" t="n">
-        <v>0.661801</v>
+        <v>0.662014</v>
       </c>
       <c r="D30" t="n">
-        <v>0.694441</v>
+        <v>0.694429</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6123420000000001</v>
+        <v>0.6125620000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.641741</v>
+        <v>0.6418</v>
       </c>
       <c r="D31" t="n">
-        <v>0.67309</v>
+        <v>0.67294</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.598021</v>
+        <v>0.598737</v>
       </c>
       <c r="C32" t="n">
-        <v>0.622861</v>
+        <v>0.6227200000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.652853</v>
+        <v>0.652989</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.585694</v>
+        <v>0.585884</v>
       </c>
       <c r="C33" t="n">
-        <v>0.604999</v>
+        <v>0.6049600000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.634919</v>
+        <v>0.634992</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.574666</v>
+        <v>0.574927</v>
       </c>
       <c r="C34" t="n">
-        <v>0.588734</v>
+        <v>0.588606</v>
       </c>
       <c r="D34" t="n">
-        <v>0.618324</v>
+        <v>0.618482</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.564676</v>
+        <v>0.565547</v>
       </c>
       <c r="C35" t="n">
-        <v>0.573663</v>
+        <v>0.5738259999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.603586</v>
+        <v>0.603712</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.558335</v>
+        <v>0.558577</v>
       </c>
       <c r="C36" t="n">
-        <v>0.560383</v>
+        <v>0.56097</v>
       </c>
       <c r="D36" t="n">
-        <v>0.591253</v>
+        <v>0.591629</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.553633</v>
+        <v>0.554437</v>
       </c>
       <c r="C37" t="n">
-        <v>0.54966</v>
+        <v>0.549252</v>
       </c>
       <c r="D37" t="n">
-        <v>0.582758</v>
+        <v>0.582766</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.76291</v>
+        <v>0.762809</v>
       </c>
       <c r="C38" t="n">
-        <v>0.831601</v>
+        <v>0.8312310000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8722839999999999</v>
+        <v>0.871049</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.740827</v>
+        <v>0.741222</v>
       </c>
       <c r="C39" t="n">
-        <v>0.80514</v>
+        <v>0.804262</v>
       </c>
       <c r="D39" t="n">
-        <v>0.843742</v>
+        <v>0.8435</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7185279999999999</v>
+        <v>0.719499</v>
       </c>
       <c r="C40" t="n">
-        <v>0.777829</v>
+        <v>0.777568</v>
       </c>
       <c r="D40" t="n">
-        <v>0.815111</v>
+        <v>0.814519</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.697855</v>
+        <v>0.698692</v>
       </c>
       <c r="C41" t="n">
-        <v>0.752842</v>
+        <v>0.752544</v>
       </c>
       <c r="D41" t="n">
-        <v>0.788666</v>
+        <v>0.788762</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.679057</v>
+        <v>0.6798959999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.729523</v>
+        <v>0.7290450000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.762218</v>
+        <v>0.763057</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.660801</v>
+        <v>0.661815</v>
       </c>
       <c r="C43" t="n">
-        <v>0.70642</v>
+        <v>0.706003</v>
       </c>
       <c r="D43" t="n">
-        <v>0.738993</v>
+        <v>0.738283</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.643173</v>
+        <v>0.643856</v>
       </c>
       <c r="C44" t="n">
-        <v>0.684411</v>
+        <v>0.6838959999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.715579</v>
+        <v>0.71589</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6275500000000001</v>
+        <v>0.628748</v>
       </c>
       <c r="C45" t="n">
-        <v>0.663532</v>
+        <v>0.664116</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6938530000000001</v>
+        <v>0.694449</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.613148</v>
+        <v>0.614436</v>
       </c>
       <c r="C46" t="n">
-        <v>0.643961</v>
+        <v>0.644975</v>
       </c>
       <c r="D46" t="n">
-        <v>0.673099</v>
+        <v>0.674337</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.599664</v>
+        <v>0.600519</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6255849999999999</v>
+        <v>0.626964</v>
       </c>
       <c r="D47" t="n">
-        <v>0.654213</v>
+        <v>0.6559199999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.589616</v>
+        <v>0.5902500000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.609225</v>
+        <v>0.609613</v>
       </c>
       <c r="D48" t="n">
-        <v>0.637251</v>
+        <v>0.637876</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.578901</v>
+        <v>0.580045</v>
       </c>
       <c r="C49" t="n">
-        <v>0.59291</v>
+        <v>0.593998</v>
       </c>
       <c r="D49" t="n">
-        <v>0.621069</v>
+        <v>0.62271</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5725789999999999</v>
+        <v>0.57315</v>
       </c>
       <c r="C50" t="n">
-        <v>0.579086</v>
+        <v>0.580946</v>
       </c>
       <c r="D50" t="n">
-        <v>0.608493</v>
+        <v>0.610071</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.566541</v>
+        <v>0.5684900000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.567066</v>
+        <v>0.569032</v>
       </c>
       <c r="D51" t="n">
-        <v>0.598039</v>
+        <v>0.599997</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.564341</v>
+        <v>0.566677</v>
       </c>
       <c r="C52" t="n">
-        <v>0.558514</v>
+        <v>0.559242</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5912539999999999</v>
+        <v>0.593348</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.761294</v>
+        <v>0.761983</v>
       </c>
       <c r="C53" t="n">
-        <v>0.836998</v>
+        <v>0.8359839999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.875176</v>
+        <v>0.874598</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.739814</v>
+        <v>0.7415119999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.80905</v>
+        <v>0.808676</v>
       </c>
       <c r="D54" t="n">
-        <v>0.845539</v>
+        <v>0.845114</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.719232</v>
+        <v>0.721081</v>
       </c>
       <c r="C55" t="n">
-        <v>0.783045</v>
+        <v>0.783728</v>
       </c>
       <c r="D55" t="n">
-        <v>0.817743</v>
+        <v>0.819118</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.700691</v>
+        <v>0.701686</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7607699999999999</v>
+        <v>0.759051</v>
       </c>
       <c r="D56" t="n">
-        <v>0.79466</v>
+        <v>0.793036</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.685279</v>
+        <v>0.683488</v>
       </c>
       <c r="C57" t="n">
-        <v>0.737751</v>
+        <v>0.736094</v>
       </c>
       <c r="D57" t="n">
-        <v>0.770774</v>
+        <v>0.768109</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.667559</v>
+        <v>0.66525</v>
       </c>
       <c r="C58" t="n">
-        <v>0.714917</v>
+        <v>0.713226</v>
       </c>
       <c r="D58" t="n">
-        <v>0.745244</v>
+        <v>0.745088</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.651875</v>
+        <v>0.650356</v>
       </c>
       <c r="C59" t="n">
-        <v>0.694204</v>
+        <v>0.6923</v>
       </c>
       <c r="D59" t="n">
-        <v>0.723872</v>
+        <v>0.722739</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.637534</v>
+        <v>0.6362910000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6743</v>
+        <v>0.673274</v>
       </c>
       <c r="D60" t="n">
-        <v>0.702744</v>
+        <v>0.702623</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.624459</v>
+        <v>0.622852</v>
       </c>
       <c r="C61" t="n">
-        <v>0.655942</v>
+        <v>0.655046</v>
       </c>
       <c r="D61" t="n">
-        <v>0.683814</v>
+        <v>0.683872</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.611164</v>
+        <v>0.6110950000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.638646</v>
+        <v>0.637446</v>
       </c>
       <c r="D62" t="n">
-        <v>0.665265</v>
+        <v>0.665319</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.60212</v>
+        <v>0.6022380000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.621601</v>
+        <v>0.621745</v>
       </c>
       <c r="D63" t="n">
-        <v>0.648035</v>
+        <v>0.648918</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.594083</v>
+        <v>0.5944430000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.60681</v>
+        <v>0.607267</v>
       </c>
       <c r="D64" t="n">
-        <v>0.633372</v>
+        <v>0.635026</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.588314</v>
+        <v>0.588244</v>
       </c>
       <c r="C65" t="n">
-        <v>0.593965</v>
+        <v>0.594363</v>
       </c>
       <c r="D65" t="n">
-        <v>0.622766</v>
+        <v>0.623659</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5871459999999999</v>
+        <v>0.585689</v>
       </c>
       <c r="C66" t="n">
-        <v>0.584951</v>
+        <v>0.583682</v>
       </c>
       <c r="D66" t="n">
-        <v>0.61541</v>
+        <v>0.615865</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8250960000000001</v>
+        <v>0.817122</v>
       </c>
       <c r="C67" t="n">
-        <v>0.904344</v>
+        <v>0.895782</v>
       </c>
       <c r="D67" t="n">
-        <v>0.939539</v>
+        <v>0.932434</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.807111</v>
+        <v>0.803015</v>
       </c>
       <c r="C68" t="n">
-        <v>0.876265</v>
+        <v>0.8705619999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9113869999999999</v>
+        <v>0.903296</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.792893</v>
+        <v>0.781501</v>
       </c>
       <c r="C69" t="n">
-        <v>0.853114</v>
+        <v>0.840955</v>
       </c>
       <c r="D69" t="n">
-        <v>0.885843</v>
+        <v>0.874078</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.77637</v>
+        <v>0.7641790000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.826665</v>
+        <v>0.818059</v>
       </c>
       <c r="D70" t="n">
-        <v>0.856749</v>
+        <v>0.848319</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.754672</v>
+        <v>0.7468</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7975139999999999</v>
+        <v>0.792161</v>
       </c>
       <c r="D71" t="n">
-        <v>0.828434</v>
+        <v>0.819728</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.741328</v>
+        <v>0.729664</v>
       </c>
       <c r="C72" t="n">
-        <v>0.77667</v>
+        <v>0.768481</v>
       </c>
       <c r="D72" t="n">
-        <v>0.803543</v>
+        <v>0.796534</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.725611</v>
+        <v>0.716798</v>
       </c>
       <c r="C73" t="n">
-        <v>0.75746</v>
+        <v>0.749346</v>
       </c>
       <c r="D73" t="n">
-        <v>0.784238</v>
+        <v>0.776702</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.714994</v>
+        <v>0.703364</v>
       </c>
       <c r="C74" t="n">
-        <v>0.735381</v>
+        <v>0.727604</v>
       </c>
       <c r="D74" t="n">
-        <v>0.763869</v>
+        <v>0.754742</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.703246</v>
+        <v>0.690267</v>
       </c>
       <c r="C75" t="n">
-        <v>0.71715</v>
+        <v>0.709443</v>
       </c>
       <c r="D75" t="n">
-        <v>0.742777</v>
+        <v>0.735178</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6898919999999999</v>
+        <v>0.677965</v>
       </c>
       <c r="C76" t="n">
-        <v>0.697161</v>
+        <v>0.690971</v>
       </c>
       <c r="D76" t="n">
-        <v>0.721505</v>
+        <v>0.714855</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.678137</v>
+        <v>0.664874</v>
       </c>
       <c r="C77" t="n">
-        <v>0.678904</v>
+        <v>0.6727070000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.703682</v>
+        <v>0.6963009999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6671859999999999</v>
+        <v>0.658403</v>
       </c>
       <c r="C78" t="n">
-        <v>0.663821</v>
+        <v>0.658377</v>
       </c>
       <c r="D78" t="n">
-        <v>0.68706</v>
+        <v>0.681542</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6602479999999999</v>
+        <v>0.64986</v>
       </c>
       <c r="C79" t="n">
-        <v>0.650815</v>
+        <v>0.644114</v>
       </c>
       <c r="D79" t="n">
-        <v>0.675253</v>
+        <v>0.669191</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6564140000000001</v>
+        <v>0.6451170000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.637941</v>
+        <v>0.632914</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6655799999999999</v>
+        <v>0.659465</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.909335</v>
+        <v>0.893718</v>
       </c>
       <c r="C81" t="n">
-        <v>0.994652</v>
+        <v>0.973318</v>
       </c>
       <c r="D81" t="n">
-        <v>1.02336</v>
+        <v>0.998658</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.905425</v>
+        <v>0.888476</v>
       </c>
       <c r="C82" t="n">
-        <v>0.979777</v>
+        <v>0.9611499999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>1.00805</v>
+        <v>0.980754</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.897652</v>
+        <v>0.8778049999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.961087</v>
+        <v>0.940098</v>
       </c>
       <c r="D83" t="n">
-        <v>0.986204</v>
+        <v>0.961129</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.88602</v>
+        <v>0.867356</v>
       </c>
       <c r="C84" t="n">
-        <v>0.940195</v>
+        <v>0.919425</v>
       </c>
       <c r="D84" t="n">
-        <v>0.966235</v>
+        <v>0.938778</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8790210000000001</v>
+        <v>0.856649</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9197380000000001</v>
+        <v>0.898218</v>
       </c>
       <c r="D85" t="n">
-        <v>0.944998</v>
+        <v>0.914905</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.868352</v>
+        <v>0.841647</v>
       </c>
       <c r="C86" t="n">
-        <v>0.897945</v>
+        <v>0.874456</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9212590000000001</v>
+        <v>0.8909629999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.858306</v>
+        <v>0.83378</v>
       </c>
       <c r="C87" t="n">
-        <v>0.881555</v>
+        <v>0.857786</v>
       </c>
       <c r="D87" t="n">
-        <v>0.903502</v>
+        <v>0.874013</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.84841</v>
+        <v>0.822488</v>
       </c>
       <c r="C88" t="n">
-        <v>0.861004</v>
+        <v>0.838295</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8807970000000001</v>
+        <v>0.8521</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.837093</v>
+        <v>0.809465</v>
       </c>
       <c r="C89" t="n">
-        <v>0.84053</v>
+        <v>0.817055</v>
       </c>
       <c r="D89" t="n">
-        <v>0.860067</v>
+        <v>0.833445</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.826197</v>
+        <v>0.803583</v>
       </c>
       <c r="C90" t="n">
-        <v>0.822118</v>
+        <v>0.8025099999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.839544</v>
+        <v>0.815886</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.818385</v>
+        <v>0.794506</v>
       </c>
       <c r="C91" t="n">
-        <v>0.806675</v>
+        <v>0.785251</v>
       </c>
       <c r="D91" t="n">
-        <v>0.821813</v>
+        <v>0.797244</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.81027</v>
+        <v>0.784274</v>
       </c>
       <c r="C92" t="n">
-        <v>0.78813</v>
+        <v>0.7685959999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.804519</v>
+        <v>0.781736</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.804005</v>
+        <v>0.7792210000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.773494</v>
+        <v>0.755755</v>
       </c>
       <c r="D93" t="n">
-        <v>0.791428</v>
+        <v>0.769952</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.799411</v>
+        <v>0.776402</v>
       </c>
       <c r="C94" t="n">
-        <v>0.762159</v>
+        <v>0.743855</v>
       </c>
       <c r="D94" t="n">
-        <v>0.780766</v>
+        <v>0.7585460000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.05725</v>
+        <v>1.02793</v>
       </c>
       <c r="C95" t="n">
-        <v>1.12115</v>
+        <v>1.08841</v>
       </c>
       <c r="D95" t="n">
-        <v>1.14233</v>
+        <v>1.09702</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.06221</v>
+        <v>1.02839</v>
       </c>
       <c r="C96" t="n">
-        <v>1.11973</v>
+        <v>1.08215</v>
       </c>
       <c r="D96" t="n">
-        <v>1.13968</v>
+        <v>1.09032</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.05283</v>
+        <v>1.01959</v>
       </c>
       <c r="C97" t="n">
-        <v>1.10253</v>
+        <v>1.06462</v>
       </c>
       <c r="D97" t="n">
-        <v>1.12045</v>
+        <v>1.07295</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.04259</v>
+        <v>1.00914</v>
       </c>
       <c r="C98" t="n">
-        <v>1.08377</v>
+        <v>1.04696</v>
       </c>
       <c r="D98" t="n">
-        <v>1.10216</v>
+        <v>1.05535</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.03485</v>
+        <v>0.998265</v>
       </c>
       <c r="C99" t="n">
-        <v>1.06783</v>
+        <v>1.0275</v>
       </c>
       <c r="D99" t="n">
-        <v>1.08385</v>
+        <v>1.03366</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.02563</v>
+        <v>0.986603</v>
       </c>
       <c r="C100" t="n">
-        <v>1.0486</v>
+        <v>1.00794</v>
       </c>
       <c r="D100" t="n">
-        <v>1.06573</v>
+        <v>1.01619</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.01609</v>
+        <v>0.976866</v>
       </c>
       <c r="C101" t="n">
-        <v>1.03263</v>
+        <v>0.99107</v>
       </c>
       <c r="D101" t="n">
-        <v>1.04753</v>
+        <v>0.997559</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.00799</v>
+        <v>0.967993</v>
       </c>
       <c r="C102" t="n">
-        <v>1.01555</v>
+        <v>0.9762150000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>1.02931</v>
+        <v>0.981776</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.00122</v>
+        <v>0.960341</v>
       </c>
       <c r="C103" t="n">
-        <v>1.00184</v>
+        <v>0.9607250000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>1.01512</v>
+        <v>0.966507</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.996047</v>
+        <v>0.952447</v>
       </c>
       <c r="C104" t="n">
-        <v>0.987237</v>
+        <v>0.944941</v>
       </c>
       <c r="D104" t="n">
-        <v>1.00009</v>
+        <v>0.9503</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.990086</v>
+        <v>0.946234</v>
       </c>
       <c r="C105" t="n">
-        <v>0.97472</v>
+        <v>0.931465</v>
       </c>
       <c r="D105" t="n">
-        <v>0.986734</v>
+        <v>0.93686</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.986415</v>
+        <v>0.941062</v>
       </c>
       <c r="C106" t="n">
-        <v>0.96213</v>
+        <v>0.919851</v>
       </c>
       <c r="D106" t="n">
-        <v>0.973899</v>
+        <v>0.922099</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.984386</v>
+        <v>0.93948</v>
       </c>
       <c r="C107" t="n">
-        <v>0.951968</v>
+        <v>0.909202</v>
       </c>
       <c r="D107" t="n">
-        <v>0.962461</v>
+        <v>0.913731</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.985662</v>
+        <v>0.940918</v>
       </c>
       <c r="C108" t="n">
-        <v>0.943476</v>
+        <v>0.902177</v>
       </c>
       <c r="D108" t="n">
-        <v>0.953761</v>
+        <v>0.908239</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.989579</v>
+        <v>0.944155</v>
       </c>
       <c r="C109" t="n">
-        <v>0.93811</v>
+        <v>0.897096</v>
       </c>
       <c r="D109" t="n">
-        <v>0.948829</v>
+        <v>0.901567</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.24952</v>
+        <v>1.18798</v>
       </c>
       <c r="C110" t="n">
-        <v>1.30198</v>
+        <v>1.24063</v>
       </c>
       <c r="D110" t="n">
-        <v>1.31371</v>
+        <v>1.23824</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.23998</v>
+        <v>1.17628</v>
       </c>
       <c r="C111" t="n">
-        <v>1.28667</v>
+        <v>1.22391</v>
       </c>
       <c r="D111" t="n">
-        <v>1.29645</v>
+        <v>1.222</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22787</v>
+        <v>1.16557</v>
       </c>
       <c r="C112" t="n">
-        <v>1.26948</v>
+        <v>1.2054</v>
       </c>
       <c r="D112" t="n">
-        <v>1.27799</v>
+        <v>1.20445</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.21704</v>
+        <v>1.15344</v>
       </c>
       <c r="C113" t="n">
-        <v>1.25121</v>
+        <v>1.1874</v>
       </c>
       <c r="D113" t="n">
-        <v>1.25957</v>
+        <v>1.18562</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.20617</v>
+        <v>1.14335</v>
       </c>
       <c r="C114" t="n">
-        <v>1.23451</v>
+        <v>1.17162</v>
       </c>
       <c r="D114" t="n">
-        <v>1.24306</v>
+        <v>1.16981</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.19766</v>
+        <v>1.13384</v>
       </c>
       <c r="C115" t="n">
-        <v>1.21978</v>
+        <v>1.15597</v>
       </c>
       <c r="D115" t="n">
-        <v>1.22772</v>
+        <v>1.15521</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.18967</v>
+        <v>1.12534</v>
       </c>
       <c r="C116" t="n">
-        <v>1.20445</v>
+        <v>1.14206</v>
       </c>
       <c r="D116" t="n">
-        <v>1.21243</v>
+        <v>1.14069</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.18281</v>
+        <v>1.11766</v>
       </c>
       <c r="C117" t="n">
-        <v>1.19175</v>
+        <v>1.12697</v>
       </c>
       <c r="D117" t="n">
-        <v>1.19927</v>
+        <v>1.12567</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.17618</v>
+        <v>1.11106</v>
       </c>
       <c r="C118" t="n">
-        <v>1.17906</v>
+        <v>1.11424</v>
       </c>
       <c r="D118" t="n">
-        <v>1.186</v>
+        <v>1.1114</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.1708</v>
+        <v>1.10569</v>
       </c>
       <c r="C119" t="n">
-        <v>1.16842</v>
+        <v>1.10428</v>
       </c>
       <c r="D119" t="n">
-        <v>1.17449</v>
+        <v>1.10284</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.16893</v>
+        <v>1.1025</v>
       </c>
       <c r="C120" t="n">
-        <v>1.15716</v>
+        <v>1.09227</v>
       </c>
       <c r="D120" t="n">
-        <v>1.16262</v>
+        <v>1.09124</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.16628</v>
+        <v>1.10072</v>
       </c>
       <c r="C121" t="n">
-        <v>1.14704</v>
+        <v>1.08396</v>
       </c>
       <c r="D121" t="n">
-        <v>1.15189</v>
+        <v>1.08307</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.16697</v>
+        <v>1.10223</v>
       </c>
       <c r="C122" t="n">
-        <v>1.13962</v>
+        <v>1.0759</v>
       </c>
       <c r="D122" t="n">
-        <v>1.14348</v>
+        <v>1.07512</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.17261</v>
+        <v>1.10601</v>
       </c>
       <c r="C123" t="n">
-        <v>1.13497</v>
+        <v>1.07072</v>
       </c>
       <c r="D123" t="n">
-        <v>1.13776</v>
+        <v>1.07038</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.42649</v>
+        <v>1.35342</v>
       </c>
       <c r="C124" t="n">
-        <v>1.495</v>
+        <v>1.41256</v>
       </c>
       <c r="D124" t="n">
-        <v>1.50095</v>
+        <v>1.4067</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.4186</v>
+        <v>1.34344</v>
       </c>
       <c r="C125" t="n">
-        <v>1.48015</v>
+        <v>1.39916</v>
       </c>
       <c r="D125" t="n">
-        <v>1.48469</v>
+        <v>1.39075</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.40959</v>
+        <v>1.33471</v>
       </c>
       <c r="C126" t="n">
-        <v>1.46554</v>
+        <v>1.38363</v>
       </c>
       <c r="D126" t="n">
-        <v>1.46825</v>
+        <v>1.3748</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.40297</v>
+        <v>1.32625</v>
       </c>
       <c r="C127" t="n">
-        <v>1.4504</v>
+        <v>1.36701</v>
       </c>
       <c r="D127" t="n">
-        <v>1.45444</v>
+        <v>1.35786</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.39544</v>
+        <v>1.3181</v>
       </c>
       <c r="C128" t="n">
-        <v>1.4375</v>
+        <v>1.35333</v>
       </c>
       <c r="D128" t="n">
-        <v>1.44077</v>
+        <v>1.34748</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.39023</v>
+        <v>1.31172</v>
       </c>
       <c r="C129" t="n">
-        <v>1.42417</v>
+        <v>1.34138</v>
       </c>
       <c r="D129" t="n">
-        <v>1.42724</v>
+        <v>1.33374</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.3836</v>
+        <v>1.30587</v>
       </c>
       <c r="C130" t="n">
-        <v>1.41258</v>
+        <v>1.32764</v>
       </c>
       <c r="D130" t="n">
-        <v>1.41509</v>
+        <v>1.3209</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.38035</v>
+        <v>1.30146</v>
       </c>
       <c r="C131" t="n">
-        <v>1.40296</v>
+        <v>1.31858</v>
       </c>
       <c r="D131" t="n">
-        <v>1.404</v>
+        <v>1.31012</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.37724</v>
+        <v>1.29749</v>
       </c>
       <c r="C132" t="n">
-        <v>1.39206</v>
+        <v>1.30857</v>
       </c>
       <c r="D132" t="n">
-        <v>1.39178</v>
+        <v>1.29992</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.37484</v>
+        <v>1.29482</v>
       </c>
       <c r="C133" t="n">
-        <v>1.38263</v>
+        <v>1.29892</v>
       </c>
       <c r="D133" t="n">
-        <v>1.38078</v>
+        <v>1.28925</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.37432</v>
+        <v>1.29366</v>
       </c>
       <c r="C134" t="n">
-        <v>1.37444</v>
+        <v>1.2893</v>
       </c>
       <c r="D134" t="n">
-        <v>1.3734</v>
+        <v>1.28126</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.37651</v>
+        <v>1.2933</v>
       </c>
       <c r="C135" t="n">
-        <v>1.36832</v>
+        <v>1.28243</v>
       </c>
       <c r="D135" t="n">
-        <v>1.36447</v>
+        <v>1.27282</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.37939</v>
+        <v>1.2964</v>
       </c>
       <c r="C136" t="n">
-        <v>1.36195</v>
+        <v>1.27709</v>
       </c>
       <c r="D136" t="n">
-        <v>1.35492</v>
+        <v>1.26618</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.38514</v>
+        <v>1.30176</v>
       </c>
       <c r="C137" t="n">
-        <v>1.35682</v>
+        <v>1.27326</v>
       </c>
       <c r="D137" t="n">
-        <v>1.34751</v>
+        <v>1.25794</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.63738</v>
+        <v>1.54738</v>
       </c>
       <c r="C138" t="n">
-        <v>1.71479</v>
+        <v>1.61353</v>
       </c>
       <c r="D138" t="n">
-        <v>1.70432</v>
+        <v>1.59198</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.63046</v>
+        <v>1.54019</v>
       </c>
       <c r="C139" t="n">
-        <v>1.70117</v>
+        <v>1.59997</v>
       </c>
       <c r="D139" t="n">
-        <v>1.69094</v>
+        <v>1.57848</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.62356</v>
+        <v>1.53261</v>
       </c>
       <c r="C140" t="n">
-        <v>1.69045</v>
+        <v>1.58732</v>
       </c>
       <c r="D140" t="n">
-        <v>1.68028</v>
+        <v>1.56623</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.61907</v>
+        <v>1.52729</v>
       </c>
       <c r="C141" t="n">
-        <v>1.67754</v>
+        <v>1.57622</v>
       </c>
       <c r="D141" t="n">
-        <v>1.66731</v>
+        <v>1.55523</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.61331</v>
+        <v>1.52095</v>
       </c>
       <c r="C142" t="n">
-        <v>1.66857</v>
+        <v>1.56292</v>
       </c>
       <c r="D142" t="n">
-        <v>1.65655</v>
+        <v>1.54438</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.60771</v>
+        <v>1.51658</v>
       </c>
       <c r="C143" t="n">
-        <v>1.65721</v>
+        <v>1.55247</v>
       </c>
       <c r="D143" t="n">
-        <v>1.64618</v>
+        <v>1.5346</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.577087</v>
+        <v>0.576419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.592654</v>
+        <v>0.591512</v>
       </c>
       <c r="D2" t="n">
-        <v>0.625379</v>
+        <v>0.587064</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564945</v>
+        <v>0.5625019999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.57437</v>
+        <v>0.573914</v>
       </c>
       <c r="D3" t="n">
-        <v>0.606834</v>
+        <v>0.570237</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.552853</v>
+        <v>0.550762</v>
       </c>
       <c r="C4" t="n">
-        <v>0.557689</v>
+        <v>0.557064</v>
       </c>
       <c r="D4" t="n">
-        <v>0.589835</v>
+        <v>0.554953</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.543187</v>
+        <v>0.540516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.542498</v>
+        <v>0.541874</v>
       </c>
       <c r="D5" t="n">
-        <v>0.575063</v>
+        <v>0.540919</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.53454</v>
+        <v>0.531957</v>
       </c>
       <c r="C6" t="n">
-        <v>0.528847</v>
+        <v>0.528424</v>
       </c>
       <c r="D6" t="n">
-        <v>0.561754</v>
+        <v>0.5286999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.528146</v>
+        <v>0.525516</v>
       </c>
       <c r="C7" t="n">
-        <v>0.515967</v>
+        <v>0.51585</v>
       </c>
       <c r="D7" t="n">
-        <v>0.549604</v>
+        <v>0.5178970000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.52444</v>
+        <v>0.521692</v>
       </c>
       <c r="C8" t="n">
-        <v>0.506288</v>
+        <v>0.505708</v>
       </c>
       <c r="D8" t="n">
-        <v>0.541104</v>
+        <v>0.511203</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.525149</v>
+        <v>0.521793</v>
       </c>
       <c r="C9" t="n">
-        <v>0.498186</v>
+        <v>0.496855</v>
       </c>
       <c r="D9" t="n">
-        <v>0.534529</v>
+        <v>0.775678</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.725252</v>
+        <v>0.671011</v>
       </c>
       <c r="C10" t="n">
-        <v>0.771787</v>
+        <v>0.727604</v>
       </c>
       <c r="D10" t="n">
-        <v>0.814067</v>
+        <v>0.749715</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.703104</v>
+        <v>0.651957</v>
       </c>
       <c r="C11" t="n">
-        <v>0.745468</v>
+        <v>0.704335</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7868039999999999</v>
+        <v>0.725397</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6821120000000001</v>
+        <v>0.63359</v>
       </c>
       <c r="C12" t="n">
-        <v>0.72081</v>
+        <v>0.681518</v>
       </c>
       <c r="D12" t="n">
-        <v>0.760574</v>
+        <v>0.702277</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.662039</v>
+        <v>0.614438</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6970730000000001</v>
+        <v>0.659251</v>
       </c>
       <c r="D13" t="n">
-        <v>0.736022</v>
+        <v>0.679347</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.644052</v>
+        <v>0.598315</v>
       </c>
       <c r="C14" t="n">
-        <v>0.674697</v>
+        <v>0.63836</v>
       </c>
       <c r="D14" t="n">
-        <v>0.711968</v>
+        <v>0.659175</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.626765</v>
+        <v>0.582902</v>
       </c>
       <c r="C15" t="n">
-        <v>0.653883</v>
+        <v>0.618534</v>
       </c>
       <c r="D15" t="n">
-        <v>0.689484</v>
+        <v>0.638255</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.610978</v>
+        <v>0.570523</v>
       </c>
       <c r="C16" t="n">
-        <v>0.633409</v>
+        <v>0.59993</v>
       </c>
       <c r="D16" t="n">
-        <v>0.668173</v>
+        <v>0.619618</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.596148</v>
+        <v>0.555883</v>
       </c>
       <c r="C17" t="n">
-        <v>0.614424</v>
+        <v>0.582443</v>
       </c>
       <c r="D17" t="n">
-        <v>0.647849</v>
+        <v>0.601723</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.583018</v>
+        <v>0.544775</v>
       </c>
       <c r="C18" t="n">
-        <v>0.596712</v>
+        <v>0.566252</v>
       </c>
       <c r="D18" t="n">
-        <v>0.628799</v>
+        <v>0.585992</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.570582</v>
+        <v>0.535312</v>
       </c>
       <c r="C19" t="n">
-        <v>0.580026</v>
+        <v>0.550952</v>
       </c>
       <c r="D19" t="n">
-        <v>0.611452</v>
+        <v>0.570253</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.560383</v>
+        <v>0.524969</v>
       </c>
       <c r="C20" t="n">
-        <v>0.56423</v>
+        <v>0.536586</v>
       </c>
       <c r="D20" t="n">
-        <v>0.595567</v>
+        <v>0.555916</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.551557</v>
+        <v>0.517747</v>
       </c>
       <c r="C21" t="n">
-        <v>0.550189</v>
+        <v>0.523907</v>
       </c>
       <c r="D21" t="n">
-        <v>0.581948</v>
+        <v>0.5443170000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.545679</v>
+        <v>0.513649</v>
       </c>
       <c r="C22" t="n">
-        <v>0.538346</v>
+        <v>0.513142</v>
       </c>
       <c r="D22" t="n">
-        <v>0.571042</v>
+        <v>0.537368</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.54388</v>
+        <v>0.512966</v>
       </c>
       <c r="C23" t="n">
-        <v>0.528419</v>
+        <v>0.5044999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.563093</v>
+        <v>0.822336</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.745659</v>
+        <v>0.721661</v>
       </c>
       <c r="C24" t="n">
-        <v>0.806467</v>
+        <v>0.787497</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8475549999999999</v>
+        <v>0.786456</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.723261</v>
+        <v>0.700275</v>
       </c>
       <c r="C25" t="n">
-        <v>0.779567</v>
+        <v>0.762334</v>
       </c>
       <c r="D25" t="n">
-        <v>0.818926</v>
+        <v>0.765695</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.701987</v>
+        <v>0.6802859999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.753455</v>
+        <v>0.735109</v>
       </c>
       <c r="D26" t="n">
-        <v>0.791834</v>
+        <v>0.734051</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.681989</v>
+        <v>0.658764</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7292459999999999</v>
+        <v>0.709967</v>
       </c>
       <c r="D27" t="n">
-        <v>0.765497</v>
+        <v>0.710268</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.662653</v>
+        <v>0.640863</v>
       </c>
       <c r="C28" t="n">
-        <v>0.705227</v>
+        <v>0.6882740000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.740106</v>
+        <v>0.688134</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.644909</v>
+        <v>0.623772</v>
       </c>
       <c r="C29" t="n">
-        <v>0.683109</v>
+        <v>0.664779</v>
       </c>
       <c r="D29" t="n">
-        <v>0.71626</v>
+        <v>0.666994</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.627948</v>
+        <v>0.608081</v>
       </c>
       <c r="C30" t="n">
-        <v>0.662014</v>
+        <v>0.645616</v>
       </c>
       <c r="D30" t="n">
-        <v>0.694429</v>
+        <v>0.646452</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6125620000000001</v>
+        <v>0.593647</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6418</v>
+        <v>0.626776</v>
       </c>
       <c r="D31" t="n">
-        <v>0.67294</v>
+        <v>0.6280019999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.598737</v>
+        <v>0.5806480000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6227200000000001</v>
+        <v>0.61122</v>
       </c>
       <c r="D32" t="n">
-        <v>0.652989</v>
+        <v>0.611554</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.585884</v>
+        <v>0.56839</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6049600000000001</v>
+        <v>0.5917790000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.634992</v>
+        <v>0.597216</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.574927</v>
+        <v>0.558165</v>
       </c>
       <c r="C34" t="n">
-        <v>0.588606</v>
+        <v>0.576414</v>
       </c>
       <c r="D34" t="n">
-        <v>0.618482</v>
+        <v>0.580187</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.565547</v>
+        <v>0.549336</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5738259999999999</v>
+        <v>0.562841</v>
       </c>
       <c r="D35" t="n">
-        <v>0.603712</v>
+        <v>0.568241</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.558577</v>
+        <v>0.543049</v>
       </c>
       <c r="C36" t="n">
-        <v>0.56097</v>
+        <v>0.548881</v>
       </c>
       <c r="D36" t="n">
-        <v>0.591629</v>
+        <v>0.55727</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.554437</v>
+        <v>0.539469</v>
       </c>
       <c r="C37" t="n">
-        <v>0.549252</v>
+        <v>0.53774</v>
       </c>
       <c r="D37" t="n">
-        <v>0.582766</v>
+        <v>0.860511</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.762809</v>
+        <v>0.7570170000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8312310000000001</v>
+        <v>0.841763</v>
       </c>
       <c r="D38" t="n">
-        <v>0.871049</v>
+        <v>0.840207</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.741222</v>
+        <v>0.738416</v>
       </c>
       <c r="C39" t="n">
-        <v>0.804262</v>
+        <v>0.808729</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8435</v>
+        <v>0.8052049999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.719499</v>
+        <v>0.720009</v>
       </c>
       <c r="C40" t="n">
-        <v>0.777568</v>
+        <v>0.78026</v>
       </c>
       <c r="D40" t="n">
-        <v>0.814519</v>
+        <v>0.769033</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.698692</v>
+        <v>0.693121</v>
       </c>
       <c r="C41" t="n">
-        <v>0.752544</v>
+        <v>0.756667</v>
       </c>
       <c r="D41" t="n">
-        <v>0.788762</v>
+        <v>0.750918</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6798959999999999</v>
+        <v>0.675644</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7290450000000001</v>
+        <v>0.732414</v>
       </c>
       <c r="D42" t="n">
-        <v>0.763057</v>
+        <v>0.735027</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.661815</v>
+        <v>0.662559</v>
       </c>
       <c r="C43" t="n">
-        <v>0.706003</v>
+        <v>0.707947</v>
       </c>
       <c r="D43" t="n">
-        <v>0.738283</v>
+        <v>0.705168</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.643856</v>
+        <v>0.640516</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6838959999999999</v>
+        <v>0.682036</v>
       </c>
       <c r="D44" t="n">
-        <v>0.71589</v>
+        <v>0.678443</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.628748</v>
+        <v>0.626595</v>
       </c>
       <c r="C45" t="n">
-        <v>0.664116</v>
+        <v>0.6653829999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.694449</v>
+        <v>0.664006</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.614436</v>
+        <v>0.613464</v>
       </c>
       <c r="C46" t="n">
-        <v>0.644975</v>
+        <v>0.646811</v>
       </c>
       <c r="D46" t="n">
-        <v>0.674337</v>
+        <v>0.647119</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.600519</v>
+        <v>0.598731</v>
       </c>
       <c r="C47" t="n">
-        <v>0.626964</v>
+        <v>0.628821</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6559199999999999</v>
+        <v>0.620494</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5902500000000001</v>
+        <v>0.582425</v>
       </c>
       <c r="C48" t="n">
-        <v>0.609613</v>
+        <v>0.611439</v>
       </c>
       <c r="D48" t="n">
-        <v>0.637876</v>
+        <v>0.61421</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.580045</v>
+        <v>0.5772389999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.593998</v>
+        <v>0.5945859999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.62271</v>
+        <v>0.594763</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.57315</v>
+        <v>0.569293</v>
       </c>
       <c r="C50" t="n">
-        <v>0.580946</v>
+        <v>0.581014</v>
       </c>
       <c r="D50" t="n">
-        <v>0.610071</v>
+        <v>0.586213</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5684900000000001</v>
+        <v>0.562376</v>
       </c>
       <c r="C51" t="n">
-        <v>0.569032</v>
+        <v>0.565848</v>
       </c>
       <c r="D51" t="n">
-        <v>0.599997</v>
+        <v>0.891824</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.566677</v>
+        <v>0.560301</v>
       </c>
       <c r="C52" t="n">
-        <v>0.559242</v>
+        <v>0.553799</v>
       </c>
       <c r="D52" t="n">
-        <v>0.593348</v>
+        <v>0.861435</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.761983</v>
+        <v>0.780581</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8359839999999999</v>
+        <v>0.848844</v>
       </c>
       <c r="D53" t="n">
-        <v>0.874598</v>
+        <v>0.835354</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7415119999999999</v>
+        <v>0.759005</v>
       </c>
       <c r="C54" t="n">
-        <v>0.808676</v>
+        <v>0.820429</v>
       </c>
       <c r="D54" t="n">
-        <v>0.845114</v>
+        <v>0.808691</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.721081</v>
+        <v>0.738886</v>
       </c>
       <c r="C55" t="n">
-        <v>0.783728</v>
+        <v>0.795281</v>
       </c>
       <c r="D55" t="n">
-        <v>0.819118</v>
+        <v>0.780717</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.701686</v>
+        <v>0.708848</v>
       </c>
       <c r="C56" t="n">
-        <v>0.759051</v>
+        <v>0.76572</v>
       </c>
       <c r="D56" t="n">
-        <v>0.793036</v>
+        <v>0.756418</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.683488</v>
+        <v>0.699805</v>
       </c>
       <c r="C57" t="n">
-        <v>0.736094</v>
+        <v>0.741613</v>
       </c>
       <c r="D57" t="n">
-        <v>0.768109</v>
+        <v>0.731747</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.66525</v>
+        <v>0.6816719999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.713226</v>
+        <v>0.717567</v>
       </c>
       <c r="D58" t="n">
-        <v>0.745088</v>
+        <v>0.710523</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.650356</v>
+        <v>0.668261</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6923</v>
+        <v>0.698187</v>
       </c>
       <c r="D59" t="n">
-        <v>0.722739</v>
+        <v>0.689945</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6362910000000001</v>
+        <v>0.654121</v>
       </c>
       <c r="C60" t="n">
-        <v>0.673274</v>
+        <v>0.679822</v>
       </c>
       <c r="D60" t="n">
-        <v>0.702623</v>
+        <v>0.671411</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.622852</v>
+        <v>0.622989</v>
       </c>
       <c r="C61" t="n">
-        <v>0.655046</v>
+        <v>0.648798</v>
       </c>
       <c r="D61" t="n">
-        <v>0.683872</v>
+        <v>0.64271</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6110950000000001</v>
+        <v>0.613054</v>
       </c>
       <c r="C62" t="n">
-        <v>0.637446</v>
+        <v>0.631329</v>
       </c>
       <c r="D62" t="n">
-        <v>0.665319</v>
+        <v>0.624541</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6022380000000001</v>
+        <v>0.600613</v>
       </c>
       <c r="C63" t="n">
-        <v>0.621745</v>
+        <v>0.615584</v>
       </c>
       <c r="D63" t="n">
-        <v>0.648918</v>
+        <v>0.614072</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5944430000000001</v>
+        <v>0.60943</v>
       </c>
       <c r="C64" t="n">
-        <v>0.607267</v>
+        <v>0.610918</v>
       </c>
       <c r="D64" t="n">
-        <v>0.635026</v>
+        <v>0.610665</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.588244</v>
+        <v>0.602282</v>
       </c>
       <c r="C65" t="n">
-        <v>0.594363</v>
+        <v>0.5989409999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.623659</v>
+        <v>0.6010490000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.585689</v>
+        <v>0.60347</v>
       </c>
       <c r="C66" t="n">
-        <v>0.583682</v>
+        <v>0.589009</v>
       </c>
       <c r="D66" t="n">
-        <v>0.615865</v>
+        <v>0.894171</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.817122</v>
+        <v>0.822673</v>
       </c>
       <c r="C67" t="n">
-        <v>0.895782</v>
+        <v>0.899214</v>
       </c>
       <c r="D67" t="n">
-        <v>0.932434</v>
+        <v>0.872673</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.803015</v>
+        <v>0.811689</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8705619999999999</v>
+        <v>0.871577</v>
       </c>
       <c r="D68" t="n">
-        <v>0.903296</v>
+        <v>0.845131</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.781501</v>
+        <v>0.794534</v>
       </c>
       <c r="C69" t="n">
-        <v>0.840955</v>
+        <v>0.848376</v>
       </c>
       <c r="D69" t="n">
-        <v>0.874078</v>
+        <v>0.821713</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7641790000000001</v>
+        <v>0.774883</v>
       </c>
       <c r="C70" t="n">
-        <v>0.818059</v>
+        <v>0.818421</v>
       </c>
       <c r="D70" t="n">
-        <v>0.848319</v>
+        <v>0.793607</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7468</v>
+        <v>0.757705</v>
       </c>
       <c r="C71" t="n">
-        <v>0.792161</v>
+        <v>0.791432</v>
       </c>
       <c r="D71" t="n">
-        <v>0.819728</v>
+        <v>0.767879</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.729664</v>
+        <v>0.738673</v>
       </c>
       <c r="C72" t="n">
-        <v>0.768481</v>
+        <v>0.768442</v>
       </c>
       <c r="D72" t="n">
-        <v>0.796534</v>
+        <v>0.74771</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.716798</v>
+        <v>0.725271</v>
       </c>
       <c r="C73" t="n">
-        <v>0.749346</v>
+        <v>0.747601</v>
       </c>
       <c r="D73" t="n">
-        <v>0.776702</v>
+        <v>0.726342</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.703364</v>
+        <v>0.7104240000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.727604</v>
+        <v>0.728111</v>
       </c>
       <c r="D74" t="n">
-        <v>0.754742</v>
+        <v>0.707279</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.690267</v>
+        <v>0.69654</v>
       </c>
       <c r="C75" t="n">
-        <v>0.709443</v>
+        <v>0.706164</v>
       </c>
       <c r="D75" t="n">
-        <v>0.735178</v>
+        <v>0.689232</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.677965</v>
+        <v>0.684679</v>
       </c>
       <c r="C76" t="n">
-        <v>0.690971</v>
+        <v>0.689948</v>
       </c>
       <c r="D76" t="n">
-        <v>0.714855</v>
+        <v>0.671725</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.664874</v>
+        <v>0.671539</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6727070000000001</v>
+        <v>0.672369</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6963009999999999</v>
+        <v>0.657268</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.658403</v>
+        <v>0.661817</v>
       </c>
       <c r="C78" t="n">
-        <v>0.658377</v>
+        <v>0.657165</v>
       </c>
       <c r="D78" t="n">
-        <v>0.681542</v>
+        <v>0.644564</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.64986</v>
+        <v>0.661455</v>
       </c>
       <c r="C79" t="n">
-        <v>0.644114</v>
+        <v>0.6460090000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.669191</v>
+        <v>0.634279</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6451170000000001</v>
+        <v>0.655705</v>
       </c>
       <c r="C80" t="n">
-        <v>0.632914</v>
+        <v>0.634857</v>
       </c>
       <c r="D80" t="n">
-        <v>0.659465</v>
+        <v>0.966252</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.893718</v>
+        <v>0.903216</v>
       </c>
       <c r="C81" t="n">
-        <v>0.973318</v>
+        <v>0.977054</v>
       </c>
       <c r="D81" t="n">
-        <v>0.998658</v>
+        <v>0.948361</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.888476</v>
+        <v>0.89442</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9611499999999999</v>
+        <v>0.962225</v>
       </c>
       <c r="D82" t="n">
-        <v>0.980754</v>
+        <v>0.9285060000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8778049999999999</v>
+        <v>0.886787</v>
       </c>
       <c r="C83" t="n">
-        <v>0.940098</v>
+        <v>0.942203</v>
       </c>
       <c r="D83" t="n">
-        <v>0.961129</v>
+        <v>0.907388</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.867356</v>
+        <v>0.874819</v>
       </c>
       <c r="C84" t="n">
-        <v>0.919425</v>
+        <v>0.921801</v>
       </c>
       <c r="D84" t="n">
-        <v>0.938778</v>
+        <v>0.885562</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.856649</v>
+        <v>0.861966</v>
       </c>
       <c r="C85" t="n">
-        <v>0.898218</v>
+        <v>0.9003</v>
       </c>
       <c r="D85" t="n">
-        <v>0.914905</v>
+        <v>0.863475</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.841647</v>
+        <v>0.851429</v>
       </c>
       <c r="C86" t="n">
-        <v>0.874456</v>
+        <v>0.879333</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8909629999999999</v>
+        <v>0.8419140000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.83378</v>
+        <v>0.840332</v>
       </c>
       <c r="C87" t="n">
-        <v>0.857786</v>
+        <v>0.859679</v>
       </c>
       <c r="D87" t="n">
-        <v>0.874013</v>
+        <v>0.822646</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.822488</v>
+        <v>0.8287600000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.838295</v>
+        <v>0.839874</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8521</v>
+        <v>0.802895</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.809465</v>
+        <v>0.816897</v>
       </c>
       <c r="C89" t="n">
-        <v>0.817055</v>
+        <v>0.821609</v>
       </c>
       <c r="D89" t="n">
-        <v>0.833445</v>
+        <v>0.783229</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.803583</v>
+        <v>0.807171</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8025099999999999</v>
+        <v>0.802934</v>
       </c>
       <c r="D90" t="n">
-        <v>0.815886</v>
+        <v>0.765062</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.794506</v>
+        <v>0.79749</v>
       </c>
       <c r="C91" t="n">
-        <v>0.785251</v>
+        <v>0.785835</v>
       </c>
       <c r="D91" t="n">
-        <v>0.797244</v>
+        <v>0.748391</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.784274</v>
+        <v>0.788918</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7685959999999999</v>
+        <v>0.770315</v>
       </c>
       <c r="D92" t="n">
-        <v>0.781736</v>
+        <v>0.734279</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7792210000000001</v>
+        <v>0.783312</v>
       </c>
       <c r="C93" t="n">
-        <v>0.755755</v>
+        <v>0.757087</v>
       </c>
       <c r="D93" t="n">
-        <v>0.769952</v>
+        <v>0.722878</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.776402</v>
+        <v>0.77948</v>
       </c>
       <c r="C94" t="n">
-        <v>0.743855</v>
+        <v>0.7454730000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.7585460000000001</v>
+        <v>1.05797</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02793</v>
+        <v>1.03172</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08841</v>
+        <v>1.08758</v>
       </c>
       <c r="D95" t="n">
-        <v>1.09702</v>
+        <v>1.04639</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02839</v>
+        <v>1.03188</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08215</v>
+        <v>1.07994</v>
       </c>
       <c r="D96" t="n">
-        <v>1.09032</v>
+        <v>1.0294</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01959</v>
+        <v>1.02214</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06462</v>
+        <v>1.06468</v>
       </c>
       <c r="D97" t="n">
-        <v>1.07295</v>
+        <v>1.01174</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00914</v>
+        <v>1.01183</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04696</v>
+        <v>1.04614</v>
       </c>
       <c r="D98" t="n">
-        <v>1.05535</v>
+        <v>0.991652</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.998265</v>
+        <v>1.00028</v>
       </c>
       <c r="C99" t="n">
-        <v>1.0275</v>
+        <v>1.02764</v>
       </c>
       <c r="D99" t="n">
-        <v>1.03366</v>
+        <v>0.973096</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.986603</v>
+        <v>0.990915</v>
       </c>
       <c r="C100" t="n">
-        <v>1.00794</v>
+        <v>1.01049</v>
       </c>
       <c r="D100" t="n">
-        <v>1.01619</v>
+        <v>0.955436</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.976866</v>
+        <v>0.980287</v>
       </c>
       <c r="C101" t="n">
-        <v>0.99107</v>
+        <v>0.992328</v>
       </c>
       <c r="D101" t="n">
-        <v>0.997559</v>
+        <v>0.938509</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.967993</v>
+        <v>0.971769</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9762150000000001</v>
+        <v>0.976643</v>
       </c>
       <c r="D102" t="n">
-        <v>0.981776</v>
+        <v>0.921425</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.960341</v>
+        <v>0.963971</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9607250000000001</v>
+        <v>0.96178</v>
       </c>
       <c r="D103" t="n">
-        <v>0.966507</v>
+        <v>0.90648</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.952447</v>
+        <v>0.956005</v>
       </c>
       <c r="C104" t="n">
-        <v>0.944941</v>
+        <v>0.94747</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9503</v>
+        <v>0.892521</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.946234</v>
+        <v>0.951491</v>
       </c>
       <c r="C105" t="n">
-        <v>0.931465</v>
+        <v>0.93386</v>
       </c>
       <c r="D105" t="n">
-        <v>0.93686</v>
+        <v>0.878911</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.941062</v>
+        <v>0.945979</v>
       </c>
       <c r="C106" t="n">
-        <v>0.919851</v>
+        <v>0.921754</v>
       </c>
       <c r="D106" t="n">
-        <v>0.922099</v>
+        <v>0.866569</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.93948</v>
+        <v>0.943573</v>
       </c>
       <c r="C107" t="n">
-        <v>0.909202</v>
+        <v>0.911399</v>
       </c>
       <c r="D107" t="n">
-        <v>0.913731</v>
+        <v>0.856083</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.940918</v>
+        <v>0.943465</v>
       </c>
       <c r="C108" t="n">
-        <v>0.902177</v>
+        <v>0.90307</v>
       </c>
       <c r="D108" t="n">
-        <v>0.908239</v>
+        <v>1.1918</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.944155</v>
+        <v>0.946346</v>
       </c>
       <c r="C109" t="n">
-        <v>0.897096</v>
+        <v>0.895946</v>
       </c>
       <c r="D109" t="n">
-        <v>0.901567</v>
+        <v>1.1835</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18798</v>
+        <v>1.19303</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24063</v>
+        <v>1.24508</v>
       </c>
       <c r="D110" t="n">
-        <v>1.23824</v>
+        <v>1.16702</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.17628</v>
+        <v>1.18245</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22391</v>
+        <v>1.22736</v>
       </c>
       <c r="D111" t="n">
-        <v>1.222</v>
+        <v>1.1518</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16557</v>
+        <v>1.17091</v>
       </c>
       <c r="C112" t="n">
-        <v>1.2054</v>
+        <v>1.20966</v>
       </c>
       <c r="D112" t="n">
-        <v>1.20445</v>
+        <v>1.13447</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15344</v>
+        <v>1.15921</v>
       </c>
       <c r="C113" t="n">
-        <v>1.1874</v>
+        <v>1.19154</v>
       </c>
       <c r="D113" t="n">
-        <v>1.18562</v>
+        <v>1.11818</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14335</v>
+        <v>1.14718</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17162</v>
+        <v>1.17438</v>
       </c>
       <c r="D114" t="n">
-        <v>1.16981</v>
+        <v>1.10414</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13384</v>
+        <v>1.13784</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15597</v>
+        <v>1.15855</v>
       </c>
       <c r="D115" t="n">
-        <v>1.15521</v>
+        <v>1.09194</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12534</v>
+        <v>1.1298</v>
       </c>
       <c r="C116" t="n">
-        <v>1.14206</v>
+        <v>1.14484</v>
       </c>
       <c r="D116" t="n">
-        <v>1.14069</v>
+        <v>1.07886</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11766</v>
+        <v>1.12083</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12697</v>
+        <v>1.13023</v>
       </c>
       <c r="D117" t="n">
-        <v>1.12567</v>
+        <v>1.06653</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.11106</v>
+        <v>1.11488</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11424</v>
+        <v>1.11833</v>
       </c>
       <c r="D118" t="n">
-        <v>1.1114</v>
+        <v>1.05533</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10569</v>
+        <v>1.11027</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10428</v>
+        <v>1.10589</v>
       </c>
       <c r="D119" t="n">
-        <v>1.10284</v>
+        <v>1.04406</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.1025</v>
+        <v>1.10602</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09227</v>
+        <v>1.09554</v>
       </c>
       <c r="D120" t="n">
-        <v>1.09124</v>
+        <v>1.0357</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10072</v>
+        <v>1.10402</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08396</v>
+        <v>1.08551</v>
       </c>
       <c r="D121" t="n">
-        <v>1.08307</v>
+        <v>1.02588</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.10223</v>
+        <v>1.10412</v>
       </c>
       <c r="C122" t="n">
-        <v>1.0759</v>
+        <v>1.07786</v>
       </c>
       <c r="D122" t="n">
-        <v>1.07512</v>
+        <v>1.01845</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10601</v>
+        <v>1.10937</v>
       </c>
       <c r="C123" t="n">
-        <v>1.07072</v>
+        <v>1.07198</v>
       </c>
       <c r="D123" t="n">
-        <v>1.07038</v>
+        <v>1.35304</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35342</v>
+        <v>1.35888</v>
       </c>
       <c r="C124" t="n">
-        <v>1.41256</v>
+        <v>1.41867</v>
       </c>
       <c r="D124" t="n">
-        <v>1.4067</v>
+        <v>1.34071</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.34344</v>
+        <v>1.34975</v>
       </c>
       <c r="C125" t="n">
-        <v>1.39916</v>
+        <v>1.40292</v>
       </c>
       <c r="D125" t="n">
-        <v>1.39075</v>
+        <v>1.32765</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33471</v>
+        <v>1.34003</v>
       </c>
       <c r="C126" t="n">
-        <v>1.38363</v>
+        <v>1.38724</v>
       </c>
       <c r="D126" t="n">
-        <v>1.3748</v>
+        <v>1.31555</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32625</v>
+        <v>1.33246</v>
       </c>
       <c r="C127" t="n">
-        <v>1.36701</v>
+        <v>1.37282</v>
       </c>
       <c r="D127" t="n">
-        <v>1.35786</v>
+        <v>1.30545</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.3181</v>
+        <v>1.32384</v>
       </c>
       <c r="C128" t="n">
-        <v>1.35333</v>
+        <v>1.35908</v>
       </c>
       <c r="D128" t="n">
-        <v>1.34748</v>
+        <v>1.29382</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31172</v>
+        <v>1.31654</v>
       </c>
       <c r="C129" t="n">
-        <v>1.34138</v>
+        <v>1.34588</v>
       </c>
       <c r="D129" t="n">
-        <v>1.33374</v>
+        <v>1.2843</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30587</v>
+        <v>1.3113</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32764</v>
+        <v>1.33338</v>
       </c>
       <c r="D130" t="n">
-        <v>1.3209</v>
+        <v>1.27587</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.30146</v>
+        <v>1.3063</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31858</v>
+        <v>1.32222</v>
       </c>
       <c r="D131" t="n">
-        <v>1.31012</v>
+        <v>1.2677</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29749</v>
+        <v>1.30163</v>
       </c>
       <c r="C132" t="n">
-        <v>1.30857</v>
+        <v>1.31115</v>
       </c>
       <c r="D132" t="n">
-        <v>1.29992</v>
+        <v>1.25778</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29482</v>
+        <v>1.29909</v>
       </c>
       <c r="C133" t="n">
-        <v>1.29892</v>
+        <v>1.30316</v>
       </c>
       <c r="D133" t="n">
-        <v>1.28925</v>
+        <v>1.25038</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.29366</v>
+        <v>1.29734</v>
       </c>
       <c r="C134" t="n">
-        <v>1.2893</v>
+        <v>1.29447</v>
       </c>
       <c r="D134" t="n">
-        <v>1.28126</v>
+        <v>1.24382</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.2933</v>
+        <v>1.29762</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28243</v>
+        <v>1.28632</v>
       </c>
       <c r="D135" t="n">
-        <v>1.27282</v>
+        <v>1.23782</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.2964</v>
+        <v>1.30028</v>
       </c>
       <c r="C136" t="n">
-        <v>1.27709</v>
+        <v>1.28028</v>
       </c>
       <c r="D136" t="n">
-        <v>1.26618</v>
+        <v>1.23002</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.30176</v>
+        <v>1.30511</v>
       </c>
       <c r="C137" t="n">
-        <v>1.27326</v>
+        <v>1.2752</v>
       </c>
       <c r="D137" t="n">
-        <v>1.25794</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54738</v>
+        <v>1.55363</v>
       </c>
       <c r="C138" t="n">
-        <v>1.61353</v>
+        <v>1.61942</v>
       </c>
       <c r="D138" t="n">
-        <v>1.59198</v>
+        <v>1.55016</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.54019</v>
+        <v>1.54661</v>
       </c>
       <c r="C139" t="n">
-        <v>1.59997</v>
+        <v>1.6058</v>
       </c>
       <c r="D139" t="n">
-        <v>1.57848</v>
+        <v>1.54038</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.53261</v>
+        <v>1.53857</v>
       </c>
       <c r="C140" t="n">
-        <v>1.58732</v>
+        <v>1.59179</v>
       </c>
       <c r="D140" t="n">
-        <v>1.56623</v>
+        <v>1.52972</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52729</v>
+        <v>1.53313</v>
       </c>
       <c r="C141" t="n">
-        <v>1.57622</v>
+        <v>1.58128</v>
       </c>
       <c r="D141" t="n">
-        <v>1.55523</v>
+        <v>1.52228</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.52095</v>
+        <v>1.52786</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56292</v>
+        <v>1.5686</v>
       </c>
       <c r="D142" t="n">
-        <v>1.54438</v>
+        <v>1.51413</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51658</v>
+        <v>1.52251</v>
       </c>
       <c r="C143" t="n">
-        <v>1.55247</v>
+        <v>1.5582</v>
       </c>
       <c r="D143" t="n">
-        <v>1.5346</v>
+        <v>1.50608</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.576419</v>
+        <v>0.575887</v>
       </c>
       <c r="C2" t="n">
-        <v>0.591512</v>
+        <v>0.591811</v>
       </c>
       <c r="D2" t="n">
-        <v>0.587064</v>
+        <v>0.587917</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5625019999999999</v>
+        <v>0.562522</v>
       </c>
       <c r="C3" t="n">
-        <v>0.573914</v>
+        <v>0.574229</v>
       </c>
       <c r="D3" t="n">
-        <v>0.570237</v>
+        <v>0.570511</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.550762</v>
+        <v>0.55056</v>
       </c>
       <c r="C4" t="n">
-        <v>0.557064</v>
+        <v>0.55823</v>
       </c>
       <c r="D4" t="n">
-        <v>0.554953</v>
+        <v>0.555043</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.540516</v>
+        <v>0.54154</v>
       </c>
       <c r="C5" t="n">
-        <v>0.541874</v>
+        <v>0.542374</v>
       </c>
       <c r="D5" t="n">
-        <v>0.540919</v>
+        <v>0.541478</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.531957</v>
+        <v>0.532592</v>
       </c>
       <c r="C6" t="n">
-        <v>0.528424</v>
+        <v>0.529014</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5286999999999999</v>
+        <v>0.5295</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.525516</v>
+        <v>0.5262</v>
       </c>
       <c r="C7" t="n">
-        <v>0.51585</v>
+        <v>0.5165419999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5178970000000001</v>
+        <v>0.518456</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.521692</v>
+        <v>0.52254</v>
       </c>
       <c r="C8" t="n">
-        <v>0.505708</v>
+        <v>0.506112</v>
       </c>
       <c r="D8" t="n">
-        <v>0.511203</v>
+        <v>0.510992</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.521793</v>
+        <v>0.522683</v>
       </c>
       <c r="C9" t="n">
-        <v>0.496855</v>
+        <v>0.497933</v>
       </c>
       <c r="D9" t="n">
-        <v>0.775678</v>
+        <v>0.775527</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.671011</v>
+        <v>0.670485</v>
       </c>
       <c r="C10" t="n">
-        <v>0.727604</v>
+        <v>0.728742</v>
       </c>
       <c r="D10" t="n">
-        <v>0.749715</v>
+        <v>0.750279</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.651957</v>
+        <v>0.651479</v>
       </c>
       <c r="C11" t="n">
-        <v>0.704335</v>
+        <v>0.704797</v>
       </c>
       <c r="D11" t="n">
-        <v>0.725397</v>
+        <v>0.7256899999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.63359</v>
+        <v>0.632593</v>
       </c>
       <c r="C12" t="n">
-        <v>0.681518</v>
+        <v>0.681718</v>
       </c>
       <c r="D12" t="n">
-        <v>0.702277</v>
+        <v>0.7021309999999999</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.614438</v>
+        <v>0.6156160000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.659251</v>
+        <v>0.6599969999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.679347</v>
+        <v>0.680149</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.598315</v>
+        <v>0.599311</v>
       </c>
       <c r="C14" t="n">
-        <v>0.63836</v>
+        <v>0.639047</v>
       </c>
       <c r="D14" t="n">
-        <v>0.659175</v>
+        <v>0.659419</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.582902</v>
+        <v>0.584441</v>
       </c>
       <c r="C15" t="n">
-        <v>0.618534</v>
+        <v>0.619216</v>
       </c>
       <c r="D15" t="n">
-        <v>0.638255</v>
+        <v>0.638964</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.570523</v>
+        <v>0.569648</v>
       </c>
       <c r="C16" t="n">
-        <v>0.59993</v>
+        <v>0.601121</v>
       </c>
       <c r="D16" t="n">
-        <v>0.619618</v>
+        <v>0.620608</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.555883</v>
+        <v>0.556916</v>
       </c>
       <c r="C17" t="n">
-        <v>0.582443</v>
+        <v>0.58342</v>
       </c>
       <c r="D17" t="n">
-        <v>0.601723</v>
+        <v>0.602546</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.544775</v>
+        <v>0.545624</v>
       </c>
       <c r="C18" t="n">
-        <v>0.566252</v>
+        <v>0.567277</v>
       </c>
       <c r="D18" t="n">
-        <v>0.585992</v>
+        <v>0.586544</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.535312</v>
+        <v>0.534833</v>
       </c>
       <c r="C19" t="n">
-        <v>0.550952</v>
+        <v>0.551976</v>
       </c>
       <c r="D19" t="n">
-        <v>0.570253</v>
+        <v>0.57109</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.524969</v>
+        <v>0.526174</v>
       </c>
       <c r="C20" t="n">
-        <v>0.536586</v>
+        <v>0.537268</v>
       </c>
       <c r="D20" t="n">
-        <v>0.555916</v>
+        <v>0.557172</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.517747</v>
+        <v>0.519018</v>
       </c>
       <c r="C21" t="n">
-        <v>0.523907</v>
+        <v>0.524751</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5443170000000001</v>
+        <v>0.544784</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.513649</v>
+        <v>0.514715</v>
       </c>
       <c r="C22" t="n">
-        <v>0.513142</v>
+        <v>0.5139899999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.537368</v>
+        <v>0.536703</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.512966</v>
+        <v>0.514471</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5044999999999999</v>
+        <v>0.5051949999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.822336</v>
+        <v>0.808906</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.721661</v>
+        <v>0.7183580000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.787497</v>
+        <v>0.784142</v>
       </c>
       <c r="D24" t="n">
-        <v>0.786456</v>
+        <v>0.783354</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.700275</v>
+        <v>0.697976</v>
       </c>
       <c r="C25" t="n">
-        <v>0.762334</v>
+        <v>0.758617</v>
       </c>
       <c r="D25" t="n">
-        <v>0.765695</v>
+        <v>0.7571600000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6802859999999999</v>
+        <v>0.677563</v>
       </c>
       <c r="C26" t="n">
-        <v>0.735109</v>
+        <v>0.733724</v>
       </c>
       <c r="D26" t="n">
-        <v>0.734051</v>
+        <v>0.733344</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.658764</v>
+        <v>0.658079</v>
       </c>
       <c r="C27" t="n">
-        <v>0.709967</v>
+        <v>0.710213</v>
       </c>
       <c r="D27" t="n">
-        <v>0.710268</v>
+        <v>0.709876</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.640863</v>
+        <v>0.640481</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6882740000000001</v>
+        <v>0.687456</v>
       </c>
       <c r="D28" t="n">
-        <v>0.688134</v>
+        <v>0.68752</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.623772</v>
+        <v>0.623397</v>
       </c>
       <c r="C29" t="n">
-        <v>0.664779</v>
+        <v>0.665804</v>
       </c>
       <c r="D29" t="n">
-        <v>0.666994</v>
+        <v>0.666698</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.608081</v>
+        <v>0.607966</v>
       </c>
       <c r="C30" t="n">
-        <v>0.645616</v>
+        <v>0.6453179999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.646452</v>
+        <v>0.646799</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.593647</v>
+        <v>0.593372</v>
       </c>
       <c r="C31" t="n">
-        <v>0.626776</v>
+        <v>0.626112</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6280019999999999</v>
+        <v>0.62814</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5806480000000001</v>
+        <v>0.580153</v>
       </c>
       <c r="C32" t="n">
-        <v>0.61122</v>
+        <v>0.607921</v>
       </c>
       <c r="D32" t="n">
-        <v>0.611554</v>
+        <v>0.61034</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.56839</v>
+        <v>0.568147</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5917790000000001</v>
+        <v>0.591159</v>
       </c>
       <c r="D33" t="n">
-        <v>0.597216</v>
+        <v>0.59457</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.558165</v>
+        <v>0.557692</v>
       </c>
       <c r="C34" t="n">
-        <v>0.576414</v>
+        <v>0.575415</v>
       </c>
       <c r="D34" t="n">
-        <v>0.580187</v>
+        <v>0.579911</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.549336</v>
+        <v>0.548828</v>
       </c>
       <c r="C35" t="n">
-        <v>0.562841</v>
+        <v>0.560906</v>
       </c>
       <c r="D35" t="n">
-        <v>0.568241</v>
+        <v>0.567298</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.543049</v>
+        <v>0.542875</v>
       </c>
       <c r="C36" t="n">
-        <v>0.548881</v>
+        <v>0.5480080000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.55727</v>
+        <v>0.556582</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.539469</v>
+        <v>0.539526</v>
       </c>
       <c r="C37" t="n">
-        <v>0.53774</v>
+        <v>0.537936</v>
       </c>
       <c r="D37" t="n">
-        <v>0.860511</v>
+        <v>0.8353969999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7570170000000001</v>
+        <v>0.748898</v>
       </c>
       <c r="C38" t="n">
-        <v>0.841763</v>
+        <v>0.818847</v>
       </c>
       <c r="D38" t="n">
-        <v>0.840207</v>
+        <v>0.807972</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.738416</v>
+        <v>0.727747</v>
       </c>
       <c r="C39" t="n">
-        <v>0.808729</v>
+        <v>0.793373</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8052049999999999</v>
+        <v>0.782613</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.720009</v>
+        <v>0.706816</v>
       </c>
       <c r="C40" t="n">
-        <v>0.78026</v>
+        <v>0.766976</v>
       </c>
       <c r="D40" t="n">
-        <v>0.769033</v>
+        <v>0.756634</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.693121</v>
+        <v>0.686697</v>
       </c>
       <c r="C41" t="n">
-        <v>0.756667</v>
+        <v>0.742614</v>
       </c>
       <c r="D41" t="n">
-        <v>0.750918</v>
+        <v>0.733266</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.675644</v>
+        <v>0.668103</v>
       </c>
       <c r="C42" t="n">
-        <v>0.732414</v>
+        <v>0.718686</v>
       </c>
       <c r="D42" t="n">
-        <v>0.735027</v>
+        <v>0.710692</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.662559</v>
+        <v>0.649928</v>
       </c>
       <c r="C43" t="n">
-        <v>0.707947</v>
+        <v>0.6962469999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.705168</v>
+        <v>0.688619</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.640516</v>
+        <v>0.6337159999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.682036</v>
+        <v>0.67528</v>
       </c>
       <c r="D44" t="n">
-        <v>0.678443</v>
+        <v>0.668386</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.626595</v>
+        <v>0.618906</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6653829999999999</v>
+        <v>0.65593</v>
       </c>
       <c r="D45" t="n">
-        <v>0.664006</v>
+        <v>0.648861</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.613464</v>
+        <v>0.604911</v>
       </c>
       <c r="C46" t="n">
-        <v>0.646811</v>
+        <v>0.637086</v>
       </c>
       <c r="D46" t="n">
-        <v>0.647119</v>
+        <v>0.631196</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.598731</v>
+        <v>0.592326</v>
       </c>
       <c r="C47" t="n">
-        <v>0.628821</v>
+        <v>0.618657</v>
       </c>
       <c r="D47" t="n">
-        <v>0.620494</v>
+        <v>0.614665</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.582425</v>
+        <v>0.5818410000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.611439</v>
+        <v>0.602776</v>
       </c>
       <c r="D48" t="n">
-        <v>0.61421</v>
+        <v>0.599525</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5772389999999999</v>
+        <v>0.5723009999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5945859999999999</v>
+        <v>0.587241</v>
       </c>
       <c r="D49" t="n">
-        <v>0.594763</v>
+        <v>0.585958</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.569293</v>
+        <v>0.565319</v>
       </c>
       <c r="C50" t="n">
-        <v>0.581014</v>
+        <v>0.573658</v>
       </c>
       <c r="D50" t="n">
-        <v>0.586213</v>
+        <v>0.574452</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.562376</v>
+        <v>0.56097</v>
       </c>
       <c r="C51" t="n">
-        <v>0.565848</v>
+        <v>0.562142</v>
       </c>
       <c r="D51" t="n">
-        <v>0.891824</v>
+        <v>0.865358</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.560301</v>
+        <v>0.55999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.553799</v>
+        <v>0.554323</v>
       </c>
       <c r="D52" t="n">
-        <v>0.861435</v>
+        <v>0.838241</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.780581</v>
+        <v>0.760674</v>
       </c>
       <c r="C53" t="n">
-        <v>0.848844</v>
+        <v>0.826864</v>
       </c>
       <c r="D53" t="n">
-        <v>0.835354</v>
+        <v>0.810493</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.759005</v>
+        <v>0.739536</v>
       </c>
       <c r="C54" t="n">
-        <v>0.820429</v>
+        <v>0.799875</v>
       </c>
       <c r="D54" t="n">
-        <v>0.808691</v>
+        <v>0.785056</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.738886</v>
+        <v>0.718052</v>
       </c>
       <c r="C55" t="n">
-        <v>0.795281</v>
+        <v>0.77516</v>
       </c>
       <c r="D55" t="n">
-        <v>0.780717</v>
+        <v>0.761769</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.708848</v>
+        <v>0.699695</v>
       </c>
       <c r="C56" t="n">
-        <v>0.76572</v>
+        <v>0.752042</v>
       </c>
       <c r="D56" t="n">
-        <v>0.756418</v>
+        <v>0.738493</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.699805</v>
+        <v>0.681543</v>
       </c>
       <c r="C57" t="n">
-        <v>0.741613</v>
+        <v>0.7287670000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.731747</v>
+        <v>0.717131</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6816719999999999</v>
+        <v>0.665489</v>
       </c>
       <c r="C58" t="n">
-        <v>0.717567</v>
+        <v>0.706951</v>
       </c>
       <c r="D58" t="n">
-        <v>0.710523</v>
+        <v>0.697251</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.668261</v>
+        <v>0.64995</v>
       </c>
       <c r="C59" t="n">
-        <v>0.698187</v>
+        <v>0.687594</v>
       </c>
       <c r="D59" t="n">
-        <v>0.689945</v>
+        <v>0.677702</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.654121</v>
+        <v>0.636247</v>
       </c>
       <c r="C60" t="n">
-        <v>0.679822</v>
+        <v>0.668297</v>
       </c>
       <c r="D60" t="n">
-        <v>0.671411</v>
+        <v>0.658927</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.622989</v>
+        <v>0.622457</v>
       </c>
       <c r="C61" t="n">
-        <v>0.648798</v>
+        <v>0.6480590000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.64271</v>
+        <v>0.641011</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.613054</v>
+        <v>0.61038</v>
       </c>
       <c r="C62" t="n">
-        <v>0.631329</v>
+        <v>0.631404</v>
       </c>
       <c r="D62" t="n">
-        <v>0.624541</v>
+        <v>0.624734</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.600613</v>
+        <v>0.600559</v>
       </c>
       <c r="C63" t="n">
-        <v>0.615584</v>
+        <v>0.615295</v>
       </c>
       <c r="D63" t="n">
-        <v>0.614072</v>
+        <v>0.610367</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.60943</v>
+        <v>0.5932460000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.610918</v>
+        <v>0.601357</v>
       </c>
       <c r="D64" t="n">
-        <v>0.610665</v>
+        <v>0.598207</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.602282</v>
+        <v>0.588163</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5989409999999999</v>
+        <v>0.58852</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6010490000000001</v>
+        <v>0.588939</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.60347</v>
+        <v>0.58533</v>
       </c>
       <c r="C66" t="n">
-        <v>0.589009</v>
+        <v>0.581037</v>
       </c>
       <c r="D66" t="n">
-        <v>0.894171</v>
+        <v>0.89905</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.822673</v>
+        <v>0.832309</v>
       </c>
       <c r="C67" t="n">
-        <v>0.899214</v>
+        <v>0.901798</v>
       </c>
       <c r="D67" t="n">
-        <v>0.872673</v>
+        <v>0.870321</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.811689</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.871577</v>
+        <v>0.872496</v>
       </c>
       <c r="D68" t="n">
-        <v>0.845131</v>
+        <v>0.842491</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.794534</v>
+        <v>0.7955449999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.848376</v>
+        <v>0.847183</v>
       </c>
       <c r="D69" t="n">
-        <v>0.821713</v>
+        <v>0.8183859999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.774883</v>
+        <v>0.779246</v>
       </c>
       <c r="C70" t="n">
-        <v>0.818421</v>
+        <v>0.822997</v>
       </c>
       <c r="D70" t="n">
-        <v>0.793607</v>
+        <v>0.795241</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.757705</v>
+        <v>0.761169</v>
       </c>
       <c r="C71" t="n">
-        <v>0.791432</v>
+        <v>0.796534</v>
       </c>
       <c r="D71" t="n">
-        <v>0.767879</v>
+        <v>0.770164</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.738673</v>
+        <v>0.745143</v>
       </c>
       <c r="C72" t="n">
-        <v>0.768442</v>
+        <v>0.77335</v>
       </c>
       <c r="D72" t="n">
-        <v>0.74771</v>
+        <v>0.747636</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.725271</v>
+        <v>0.729324</v>
       </c>
       <c r="C73" t="n">
-        <v>0.747601</v>
+        <v>0.751061</v>
       </c>
       <c r="D73" t="n">
-        <v>0.726342</v>
+        <v>0.727444</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7104240000000001</v>
+        <v>0.714226</v>
       </c>
       <c r="C74" t="n">
-        <v>0.728111</v>
+        <v>0.7300720000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.707279</v>
+        <v>0.707641</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.69654</v>
+        <v>0.699725</v>
       </c>
       <c r="C75" t="n">
-        <v>0.706164</v>
+        <v>0.711159</v>
       </c>
       <c r="D75" t="n">
-        <v>0.689232</v>
+        <v>0.68842</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.684679</v>
+        <v>0.687179</v>
       </c>
       <c r="C76" t="n">
-        <v>0.689948</v>
+        <v>0.693545</v>
       </c>
       <c r="D76" t="n">
-        <v>0.671725</v>
+        <v>0.673331</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.671539</v>
+        <v>0.675782</v>
       </c>
       <c r="C77" t="n">
-        <v>0.672369</v>
+        <v>0.675609</v>
       </c>
       <c r="D77" t="n">
-        <v>0.657268</v>
+        <v>0.657839</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.661817</v>
+        <v>0.666366</v>
       </c>
       <c r="C78" t="n">
-        <v>0.657165</v>
+        <v>0.660948</v>
       </c>
       <c r="D78" t="n">
-        <v>0.644564</v>
+        <v>0.6449319999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.661455</v>
+        <v>0.659262</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6460090000000001</v>
+        <v>0.646219</v>
       </c>
       <c r="D79" t="n">
-        <v>0.634279</v>
+        <v>0.63365</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.655705</v>
+        <v>0.655981</v>
       </c>
       <c r="C80" t="n">
-        <v>0.634857</v>
+        <v>0.636042</v>
       </c>
       <c r="D80" t="n">
-        <v>0.966252</v>
+        <v>0.970565</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.903216</v>
+        <v>0.91146</v>
       </c>
       <c r="C81" t="n">
-        <v>0.977054</v>
+        <v>0.9841299999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.948361</v>
+        <v>0.9530419999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.89442</v>
+        <v>0.9054489999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.962225</v>
+        <v>0.969639</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9285060000000001</v>
+        <v>0.933011</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.886787</v>
+        <v>0.895732</v>
       </c>
       <c r="C83" t="n">
-        <v>0.942203</v>
+        <v>0.949291</v>
       </c>
       <c r="D83" t="n">
-        <v>0.907388</v>
+        <v>0.911825</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.874819</v>
+        <v>0.88492</v>
       </c>
       <c r="C84" t="n">
-        <v>0.921801</v>
+        <v>0.929364</v>
       </c>
       <c r="D84" t="n">
-        <v>0.885562</v>
+        <v>0.89001</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.861966</v>
+        <v>0.873351</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9003</v>
+        <v>0.90826</v>
       </c>
       <c r="D85" t="n">
-        <v>0.863475</v>
+        <v>0.868026</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.851429</v>
+        <v>0.861054</v>
       </c>
       <c r="C86" t="n">
-        <v>0.879333</v>
+        <v>0.887343</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8419140000000001</v>
+        <v>0.845901</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.840332</v>
+        <v>0.847769</v>
       </c>
       <c r="C87" t="n">
-        <v>0.859679</v>
+        <v>0.864534</v>
       </c>
       <c r="D87" t="n">
-        <v>0.822646</v>
+        <v>0.823827</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8287600000000001</v>
+        <v>0.835214</v>
       </c>
       <c r="C88" t="n">
-        <v>0.839874</v>
+        <v>0.843503</v>
       </c>
       <c r="D88" t="n">
-        <v>0.802895</v>
+        <v>0.802963</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.816897</v>
+        <v>0.823082</v>
       </c>
       <c r="C89" t="n">
-        <v>0.821609</v>
+        <v>0.823848</v>
       </c>
       <c r="D89" t="n">
-        <v>0.783229</v>
+        <v>0.783565</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.807171</v>
+        <v>0.81271</v>
       </c>
       <c r="C90" t="n">
-        <v>0.802934</v>
+        <v>0.805413</v>
       </c>
       <c r="D90" t="n">
-        <v>0.765062</v>
+        <v>0.764881</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.79749</v>
+        <v>0.802557</v>
       </c>
       <c r="C91" t="n">
-        <v>0.785835</v>
+        <v>0.78845</v>
       </c>
       <c r="D91" t="n">
-        <v>0.748391</v>
+        <v>0.748266</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.788918</v>
+        <v>0.794032</v>
       </c>
       <c r="C92" t="n">
-        <v>0.770315</v>
+        <v>0.771958</v>
       </c>
       <c r="D92" t="n">
-        <v>0.734279</v>
+        <v>0.732708</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.783312</v>
+        <v>0.787031</v>
       </c>
       <c r="C93" t="n">
-        <v>0.757087</v>
+        <v>0.758715</v>
       </c>
       <c r="D93" t="n">
-        <v>0.722878</v>
+        <v>0.720395</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.77948</v>
+        <v>0.782807</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7454730000000001</v>
+        <v>0.746225</v>
       </c>
       <c r="D94" t="n">
-        <v>1.05797</v>
+        <v>1.06179</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03172</v>
+        <v>1.03859</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08758</v>
+        <v>1.09432</v>
       </c>
       <c r="D95" t="n">
-        <v>1.04639</v>
+        <v>1.05036</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.03188</v>
+        <v>1.03874</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07994</v>
+        <v>1.08729</v>
       </c>
       <c r="D96" t="n">
-        <v>1.0294</v>
+        <v>1.03333</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02214</v>
+        <v>1.02864</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06468</v>
+        <v>1.06924</v>
       </c>
       <c r="D97" t="n">
-        <v>1.01174</v>
+        <v>1.0149</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.01183</v>
+        <v>1.01715</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04614</v>
+        <v>1.05117</v>
       </c>
       <c r="D98" t="n">
-        <v>0.991652</v>
+        <v>0.995269</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00028</v>
+        <v>1.00599</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02764</v>
+        <v>1.03267</v>
       </c>
       <c r="D99" t="n">
-        <v>0.973096</v>
+        <v>0.975811</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.990915</v>
+        <v>0.995027</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01049</v>
+        <v>1.01475</v>
       </c>
       <c r="D100" t="n">
-        <v>0.955436</v>
+        <v>0.958297</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.980287</v>
+        <v>0.985138</v>
       </c>
       <c r="C101" t="n">
-        <v>0.992328</v>
+        <v>0.9974730000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.938509</v>
+        <v>0.940479</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.971769</v>
+        <v>0.97549</v>
       </c>
       <c r="C102" t="n">
-        <v>0.976643</v>
+        <v>0.981389</v>
       </c>
       <c r="D102" t="n">
-        <v>0.921425</v>
+        <v>0.9240080000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.963971</v>
+        <v>0.967092</v>
       </c>
       <c r="C103" t="n">
-        <v>0.96178</v>
+        <v>0.965253</v>
       </c>
       <c r="D103" t="n">
-        <v>0.90648</v>
+        <v>0.908751</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.956005</v>
+        <v>0.959336</v>
       </c>
       <c r="C104" t="n">
-        <v>0.94747</v>
+        <v>0.9509880000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.892521</v>
+        <v>0.894132</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.951491</v>
+        <v>0.953565</v>
       </c>
       <c r="C105" t="n">
-        <v>0.93386</v>
+        <v>0.937665</v>
       </c>
       <c r="D105" t="n">
-        <v>0.878911</v>
+        <v>0.880321</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.945979</v>
+        <v>0.948439</v>
       </c>
       <c r="C106" t="n">
-        <v>0.921754</v>
+        <v>0.925634</v>
       </c>
       <c r="D106" t="n">
-        <v>0.866569</v>
+        <v>0.868218</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.943573</v>
+        <v>0.945547</v>
       </c>
       <c r="C107" t="n">
-        <v>0.911399</v>
+        <v>0.914506</v>
       </c>
       <c r="D107" t="n">
-        <v>0.856083</v>
+        <v>0.857074</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.943465</v>
+        <v>0.945655</v>
       </c>
       <c r="C108" t="n">
-        <v>0.90307</v>
+        <v>0.905896</v>
       </c>
       <c r="D108" t="n">
-        <v>1.1918</v>
+        <v>1.19239</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.946346</v>
+        <v>0.948761</v>
       </c>
       <c r="C109" t="n">
-        <v>0.895946</v>
+        <v>0.898752</v>
       </c>
       <c r="D109" t="n">
-        <v>1.1835</v>
+        <v>1.18451</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19303</v>
+        <v>1.19432</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24508</v>
+        <v>1.24487</v>
       </c>
       <c r="D110" t="n">
-        <v>1.16702</v>
+        <v>1.16783</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18245</v>
+        <v>1.18266</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22736</v>
+        <v>1.22733</v>
       </c>
       <c r="D111" t="n">
-        <v>1.1518</v>
+        <v>1.15096</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.17091</v>
+        <v>1.16937</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20966</v>
+        <v>1.20864</v>
       </c>
       <c r="D112" t="n">
-        <v>1.13447</v>
+        <v>1.13463</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15921</v>
+        <v>1.15906</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19154</v>
+        <v>1.19166</v>
       </c>
       <c r="D113" t="n">
-        <v>1.11818</v>
+        <v>1.11983</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14718</v>
+        <v>1.14782</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17438</v>
+        <v>1.17504</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10414</v>
+        <v>1.10457</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13784</v>
+        <v>1.13748</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15855</v>
+        <v>1.15733</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09194</v>
+        <v>1.09014</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.1298</v>
+        <v>1.12895</v>
       </c>
       <c r="C116" t="n">
-        <v>1.14484</v>
+        <v>1.14328</v>
       </c>
       <c r="D116" t="n">
-        <v>1.07886</v>
+        <v>1.07845</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.12083</v>
+        <v>1.12051</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13023</v>
+        <v>1.13004</v>
       </c>
       <c r="D117" t="n">
-        <v>1.06653</v>
+        <v>1.06478</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.11488</v>
+        <v>1.11381</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11833</v>
+        <v>1.11686</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05533</v>
+        <v>1.05484</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11027</v>
+        <v>1.10853</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10589</v>
+        <v>1.1065</v>
       </c>
       <c r="D119" t="n">
-        <v>1.04406</v>
+        <v>1.04384</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.10602</v>
+        <v>1.10435</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09554</v>
+        <v>1.09275</v>
       </c>
       <c r="D120" t="n">
-        <v>1.0357</v>
+        <v>1.033</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10402</v>
+        <v>1.10186</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08551</v>
+        <v>1.08496</v>
       </c>
       <c r="D121" t="n">
-        <v>1.02588</v>
+        <v>1.02474</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.10412</v>
+        <v>1.10294</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07786</v>
+        <v>1.07766</v>
       </c>
       <c r="D122" t="n">
-        <v>1.01845</v>
+        <v>1.01515</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10937</v>
+        <v>1.10711</v>
       </c>
       <c r="C123" t="n">
-        <v>1.07198</v>
+        <v>1.06912</v>
       </c>
       <c r="D123" t="n">
-        <v>1.35304</v>
+        <v>1.34983</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35888</v>
+        <v>1.35524</v>
       </c>
       <c r="C124" t="n">
-        <v>1.41867</v>
+        <v>1.41514</v>
       </c>
       <c r="D124" t="n">
-        <v>1.34071</v>
+        <v>1.33709</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.34975</v>
+        <v>1.3455</v>
       </c>
       <c r="C125" t="n">
-        <v>1.40292</v>
+        <v>1.40024</v>
       </c>
       <c r="D125" t="n">
-        <v>1.32765</v>
+        <v>1.32315</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.34003</v>
+        <v>1.33687</v>
       </c>
       <c r="C126" t="n">
-        <v>1.38724</v>
+        <v>1.38498</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31555</v>
+        <v>1.31314</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.33246</v>
+        <v>1.32787</v>
       </c>
       <c r="C127" t="n">
-        <v>1.37282</v>
+        <v>1.37025</v>
       </c>
       <c r="D127" t="n">
-        <v>1.30545</v>
+        <v>1.30066</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.32384</v>
+        <v>1.32009</v>
       </c>
       <c r="C128" t="n">
-        <v>1.35908</v>
+        <v>1.35391</v>
       </c>
       <c r="D128" t="n">
-        <v>1.29382</v>
+        <v>1.29039</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31654</v>
+        <v>1.31246</v>
       </c>
       <c r="C129" t="n">
-        <v>1.34588</v>
+        <v>1.34015</v>
       </c>
       <c r="D129" t="n">
-        <v>1.2843</v>
+        <v>1.28108</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.3113</v>
+        <v>1.30656</v>
       </c>
       <c r="C130" t="n">
-        <v>1.33338</v>
+        <v>1.33036</v>
       </c>
       <c r="D130" t="n">
-        <v>1.27587</v>
+        <v>1.27097</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.3063</v>
+        <v>1.30139</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32222</v>
+        <v>1.31801</v>
       </c>
       <c r="D131" t="n">
-        <v>1.2677</v>
+        <v>1.25944</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.30163</v>
+        <v>1.29745</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31115</v>
+        <v>1.30777</v>
       </c>
       <c r="D132" t="n">
-        <v>1.25778</v>
+        <v>1.25358</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29909</v>
+        <v>1.29335</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30316</v>
+        <v>1.29704</v>
       </c>
       <c r="D133" t="n">
-        <v>1.25038</v>
+        <v>1.24644</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.29734</v>
+        <v>1.29271</v>
       </c>
       <c r="C134" t="n">
-        <v>1.29447</v>
+        <v>1.28816</v>
       </c>
       <c r="D134" t="n">
-        <v>1.24382</v>
+        <v>1.23923</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.29762</v>
+        <v>1.29219</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28632</v>
+        <v>1.28299</v>
       </c>
       <c r="D135" t="n">
-        <v>1.23782</v>
+        <v>1.23277</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.30028</v>
+        <v>1.29453</v>
       </c>
       <c r="C136" t="n">
-        <v>1.28028</v>
+        <v>1.27602</v>
       </c>
       <c r="D136" t="n">
-        <v>1.23002</v>
+        <v>1.22588</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.30511</v>
+        <v>1.29826</v>
       </c>
       <c r="C137" t="n">
-        <v>1.2752</v>
+        <v>1.2704</v>
       </c>
       <c r="D137" t="n">
-        <v>1.56</v>
+        <v>1.55466</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.55363</v>
+        <v>1.54728</v>
       </c>
       <c r="C138" t="n">
-        <v>1.61942</v>
+        <v>1.61063</v>
       </c>
       <c r="D138" t="n">
-        <v>1.55016</v>
+        <v>1.54231</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.54661</v>
+        <v>1.5389</v>
       </c>
       <c r="C139" t="n">
-        <v>1.6058</v>
+        <v>1.59823</v>
       </c>
       <c r="D139" t="n">
-        <v>1.54038</v>
+        <v>1.53067</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.53857</v>
+        <v>1.5316</v>
       </c>
       <c r="C140" t="n">
-        <v>1.59179</v>
+        <v>1.58433</v>
       </c>
       <c r="D140" t="n">
-        <v>1.52972</v>
+        <v>1.52289</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.53313</v>
+        <v>1.52555</v>
       </c>
       <c r="C141" t="n">
-        <v>1.58128</v>
+        <v>1.57241</v>
       </c>
       <c r="D141" t="n">
-        <v>1.52228</v>
+        <v>1.51299</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.52786</v>
+        <v>1.51915</v>
       </c>
       <c r="C142" t="n">
-        <v>1.5686</v>
+        <v>1.56043</v>
       </c>
       <c r="D142" t="n">
-        <v>1.51413</v>
+        <v>1.50383</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.52251</v>
+        <v>1.5139</v>
       </c>
       <c r="C143" t="n">
-        <v>1.5582</v>
+        <v>1.54911</v>
       </c>
       <c r="D143" t="n">
-        <v>1.50608</v>
+        <v>1.4953</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575887</v>
+        <v>0.575863</v>
       </c>
       <c r="C2" t="n">
-        <v>0.591811</v>
+        <v>0.591269</v>
       </c>
       <c r="D2" t="n">
-        <v>0.587917</v>
+        <v>0.587851</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.562522</v>
+        <v>0.562956</v>
       </c>
       <c r="C3" t="n">
-        <v>0.574229</v>
+        <v>0.574081</v>
       </c>
       <c r="D3" t="n">
-        <v>0.570511</v>
+        <v>0.5706639999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.55056</v>
+        <v>0.551359</v>
       </c>
       <c r="C4" t="n">
-        <v>0.55823</v>
+        <v>0.557472</v>
       </c>
       <c r="D4" t="n">
-        <v>0.555043</v>
+        <v>0.555193</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.54154</v>
+        <v>0.541116</v>
       </c>
       <c r="C5" t="n">
-        <v>0.542374</v>
+        <v>0.542414</v>
       </c>
       <c r="D5" t="n">
-        <v>0.541478</v>
+        <v>0.541616</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.532592</v>
+        <v>0.532595</v>
       </c>
       <c r="C6" t="n">
-        <v>0.529014</v>
+        <v>0.528915</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5295</v>
+        <v>0.530668</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5262</v>
+        <v>0.525993</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5165419999999999</v>
+        <v>0.516275</v>
       </c>
       <c r="D7" t="n">
-        <v>0.518456</v>
+        <v>0.519802</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.52254</v>
+        <v>0.522234</v>
       </c>
       <c r="C8" t="n">
-        <v>0.506112</v>
+        <v>0.506417</v>
       </c>
       <c r="D8" t="n">
-        <v>0.510992</v>
+        <v>0.511975</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.522683</v>
+        <v>0.522607</v>
       </c>
       <c r="C9" t="n">
-        <v>0.497933</v>
+        <v>0.497608</v>
       </c>
       <c r="D9" t="n">
-        <v>0.775527</v>
+        <v>0.775791</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.670485</v>
+        <v>0.670697</v>
       </c>
       <c r="C10" t="n">
-        <v>0.728742</v>
+        <v>0.728421</v>
       </c>
       <c r="D10" t="n">
-        <v>0.750279</v>
+        <v>0.7500559999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.651479</v>
+        <v>0.651961</v>
       </c>
       <c r="C11" t="n">
-        <v>0.704797</v>
+        <v>0.705047</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7256899999999999</v>
+        <v>0.725801</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.632593</v>
+        <v>0.63303</v>
       </c>
       <c r="C12" t="n">
-        <v>0.681718</v>
+        <v>0.681761</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7021309999999999</v>
+        <v>0.702582</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6156160000000001</v>
+        <v>0.615689</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6599969999999999</v>
+        <v>0.659826</v>
       </c>
       <c r="D13" t="n">
-        <v>0.680149</v>
+        <v>0.68101</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.599311</v>
+        <v>0.599519</v>
       </c>
       <c r="C14" t="n">
-        <v>0.639047</v>
+        <v>0.639022</v>
       </c>
       <c r="D14" t="n">
-        <v>0.659419</v>
+        <v>0.660128</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.584441</v>
+        <v>0.5842889999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.619216</v>
+        <v>0.619378</v>
       </c>
       <c r="D15" t="n">
-        <v>0.638964</v>
+        <v>0.639736</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.569648</v>
+        <v>0.5702390000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.601121</v>
+        <v>0.601209</v>
       </c>
       <c r="D16" t="n">
-        <v>0.620608</v>
+        <v>0.621143</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.556916</v>
+        <v>0.5572319999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.58342</v>
+        <v>0.583727</v>
       </c>
       <c r="D17" t="n">
-        <v>0.602546</v>
+        <v>0.603782</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.545624</v>
+        <v>0.546045</v>
       </c>
       <c r="C18" t="n">
-        <v>0.567277</v>
+        <v>0.567239</v>
       </c>
       <c r="D18" t="n">
-        <v>0.586544</v>
+        <v>0.586786</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.534833</v>
+        <v>0.53504</v>
       </c>
       <c r="C19" t="n">
-        <v>0.551976</v>
+        <v>0.551965</v>
       </c>
       <c r="D19" t="n">
-        <v>0.57109</v>
+        <v>0.57159</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.526174</v>
+        <v>0.526293</v>
       </c>
       <c r="C20" t="n">
-        <v>0.537268</v>
+        <v>0.538006</v>
       </c>
       <c r="D20" t="n">
-        <v>0.557172</v>
+        <v>0.557576</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.519018</v>
+        <v>0.519412</v>
       </c>
       <c r="C21" t="n">
-        <v>0.524751</v>
+        <v>0.524966</v>
       </c>
       <c r="D21" t="n">
-        <v>0.544784</v>
+        <v>0.545424</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.514715</v>
+        <v>0.514924</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5139899999999999</v>
+        <v>0.513846</v>
       </c>
       <c r="D22" t="n">
-        <v>0.536703</v>
+        <v>0.536955</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.514471</v>
+        <v>0.514442</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5051949999999999</v>
+        <v>0.505424</v>
       </c>
       <c r="D23" t="n">
-        <v>0.808906</v>
+        <v>0.808971</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7183580000000001</v>
+        <v>0.718427</v>
       </c>
       <c r="C24" t="n">
-        <v>0.784142</v>
+        <v>0.784347</v>
       </c>
       <c r="D24" t="n">
-        <v>0.783354</v>
+        <v>0.7830549999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.697976</v>
+        <v>0.697584</v>
       </c>
       <c r="C25" t="n">
-        <v>0.758617</v>
+        <v>0.75846</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7571600000000001</v>
+        <v>0.757522</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.677563</v>
+        <v>0.6774790000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.733724</v>
+        <v>0.733251</v>
       </c>
       <c r="D26" t="n">
-        <v>0.733344</v>
+        <v>0.733139</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.658079</v>
+        <v>0.658555</v>
       </c>
       <c r="C27" t="n">
-        <v>0.710213</v>
+        <v>0.7106479999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.709876</v>
+        <v>0.710037</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.640481</v>
+        <v>0.640288</v>
       </c>
       <c r="C28" t="n">
-        <v>0.687456</v>
+        <v>0.687491</v>
       </c>
       <c r="D28" t="n">
-        <v>0.68752</v>
+        <v>0.687569</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.623397</v>
+        <v>0.623133</v>
       </c>
       <c r="C29" t="n">
-        <v>0.665804</v>
+        <v>0.666011</v>
       </c>
       <c r="D29" t="n">
-        <v>0.666698</v>
+        <v>0.666825</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.607966</v>
+        <v>0.60794</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6453179999999999</v>
+        <v>0.6457850000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.646799</v>
+        <v>0.647219</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.593372</v>
+        <v>0.593258</v>
       </c>
       <c r="C31" t="n">
-        <v>0.626112</v>
+        <v>0.626254</v>
       </c>
       <c r="D31" t="n">
-        <v>0.62814</v>
+        <v>0.628416</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.580153</v>
+        <v>0.580184</v>
       </c>
       <c r="C32" t="n">
-        <v>0.607921</v>
+        <v>0.608079</v>
       </c>
       <c r="D32" t="n">
-        <v>0.61034</v>
+        <v>0.611199</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.568147</v>
+        <v>0.568372</v>
       </c>
       <c r="C33" t="n">
-        <v>0.591159</v>
+        <v>0.5911149999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.59457</v>
+        <v>0.594757</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.557692</v>
+        <v>0.5581930000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.575415</v>
+        <v>0.5753740000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.579911</v>
+        <v>0.5801190000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.548828</v>
+        <v>0.549193</v>
       </c>
       <c r="C35" t="n">
-        <v>0.560906</v>
+        <v>0.560931</v>
       </c>
       <c r="D35" t="n">
-        <v>0.567298</v>
+        <v>0.567198</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.542875</v>
+        <v>0.5431280000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5480080000000001</v>
+        <v>0.548319</v>
       </c>
       <c r="D36" t="n">
-        <v>0.556582</v>
+        <v>0.556994</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.539526</v>
+        <v>0.539625</v>
       </c>
       <c r="C37" t="n">
-        <v>0.537936</v>
+        <v>0.538018</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8353969999999999</v>
+        <v>0.835931</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.748898</v>
+        <v>0.749507</v>
       </c>
       <c r="C38" t="n">
-        <v>0.818847</v>
+        <v>0.8197410000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.807972</v>
+        <v>0.8086100000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.727747</v>
+        <v>0.728302</v>
       </c>
       <c r="C39" t="n">
-        <v>0.793373</v>
+        <v>0.7934639999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.782613</v>
+        <v>0.7825299999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.706816</v>
+        <v>0.707205</v>
       </c>
       <c r="C40" t="n">
-        <v>0.766976</v>
+        <v>0.76756</v>
       </c>
       <c r="D40" t="n">
-        <v>0.756634</v>
+        <v>0.756474</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.686697</v>
+        <v>0.6873089999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.742614</v>
+        <v>0.743007</v>
       </c>
       <c r="D41" t="n">
-        <v>0.733266</v>
+        <v>0.732957</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.668103</v>
+        <v>0.668387</v>
       </c>
       <c r="C42" t="n">
-        <v>0.718686</v>
+        <v>0.719581</v>
       </c>
       <c r="D42" t="n">
-        <v>0.710692</v>
+        <v>0.709463</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.649928</v>
+        <v>0.6511</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6962469999999999</v>
+        <v>0.696654</v>
       </c>
       <c r="D43" t="n">
-        <v>0.688619</v>
+        <v>0.6883049999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6337159999999999</v>
+        <v>0.634526</v>
       </c>
       <c r="C44" t="n">
-        <v>0.67528</v>
+        <v>0.675636</v>
       </c>
       <c r="D44" t="n">
-        <v>0.668386</v>
+        <v>0.668538</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.618906</v>
+        <v>0.619316</v>
       </c>
       <c r="C45" t="n">
-        <v>0.65593</v>
+        <v>0.655863</v>
       </c>
       <c r="D45" t="n">
-        <v>0.648861</v>
+        <v>0.649262</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.604911</v>
+        <v>0.60532</v>
       </c>
       <c r="C46" t="n">
-        <v>0.637086</v>
+        <v>0.6371599999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.631196</v>
+        <v>0.631603</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.592326</v>
+        <v>0.59275</v>
       </c>
       <c r="C47" t="n">
-        <v>0.618657</v>
+        <v>0.619389</v>
       </c>
       <c r="D47" t="n">
-        <v>0.614665</v>
+        <v>0.614962</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5818410000000001</v>
+        <v>0.581759</v>
       </c>
       <c r="C48" t="n">
-        <v>0.602776</v>
+        <v>0.602866</v>
       </c>
       <c r="D48" t="n">
-        <v>0.599525</v>
+        <v>0.598939</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5723009999999999</v>
+        <v>0.572512</v>
       </c>
       <c r="C49" t="n">
-        <v>0.587241</v>
+        <v>0.588508</v>
       </c>
       <c r="D49" t="n">
-        <v>0.585958</v>
+        <v>0.586043</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.565319</v>
+        <v>0.565753</v>
       </c>
       <c r="C50" t="n">
-        <v>0.573658</v>
+        <v>0.574531</v>
       </c>
       <c r="D50" t="n">
-        <v>0.574452</v>
+        <v>0.574446</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.56097</v>
+        <v>0.561639</v>
       </c>
       <c r="C51" t="n">
-        <v>0.562142</v>
+        <v>0.563137</v>
       </c>
       <c r="D51" t="n">
-        <v>0.865358</v>
+        <v>0.8608710000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.55999</v>
+        <v>0.560169</v>
       </c>
       <c r="C52" t="n">
-        <v>0.554323</v>
+        <v>0.554127</v>
       </c>
       <c r="D52" t="n">
-        <v>0.838241</v>
+        <v>0.833605</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.760674</v>
+        <v>0.757293</v>
       </c>
       <c r="C53" t="n">
-        <v>0.826864</v>
+        <v>0.824231</v>
       </c>
       <c r="D53" t="n">
-        <v>0.810493</v>
+        <v>0.808097</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.739536</v>
+        <v>0.737287</v>
       </c>
       <c r="C54" t="n">
-        <v>0.799875</v>
+        <v>0.799003</v>
       </c>
       <c r="D54" t="n">
-        <v>0.785056</v>
+        <v>0.7833</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.718052</v>
+        <v>0.717264</v>
       </c>
       <c r="C55" t="n">
-        <v>0.77516</v>
+        <v>0.772689</v>
       </c>
       <c r="D55" t="n">
-        <v>0.761769</v>
+        <v>0.75896</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.699695</v>
+        <v>0.6982350000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.752042</v>
+        <v>0.748652</v>
       </c>
       <c r="D56" t="n">
-        <v>0.738493</v>
+        <v>0.735745</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.681543</v>
+        <v>0.680627</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7287670000000001</v>
+        <v>0.725905</v>
       </c>
       <c r="D57" t="n">
-        <v>0.717131</v>
+        <v>0.7142269999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.665489</v>
+        <v>0.663327</v>
       </c>
       <c r="C58" t="n">
-        <v>0.706951</v>
+        <v>0.705036</v>
       </c>
       <c r="D58" t="n">
-        <v>0.697251</v>
+        <v>0.6943049999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.64995</v>
+        <v>0.6471</v>
       </c>
       <c r="C59" t="n">
-        <v>0.687594</v>
+        <v>0.684083</v>
       </c>
       <c r="D59" t="n">
-        <v>0.677702</v>
+        <v>0.673882</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.636247</v>
+        <v>0.6326889999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.668297</v>
+        <v>0.6646570000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.658927</v>
+        <v>0.655443</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.622457</v>
+        <v>0.619849</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6480590000000001</v>
+        <v>0.645929</v>
       </c>
       <c r="D61" t="n">
-        <v>0.641011</v>
+        <v>0.638843</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.61038</v>
+        <v>0.609165</v>
       </c>
       <c r="C62" t="n">
-        <v>0.631404</v>
+        <v>0.630158</v>
       </c>
       <c r="D62" t="n">
-        <v>0.624734</v>
+        <v>0.623534</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.600559</v>
+        <v>0.5991340000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.615295</v>
+        <v>0.614558</v>
       </c>
       <c r="D63" t="n">
-        <v>0.610367</v>
+        <v>0.608692</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5932460000000001</v>
+        <v>0.591449</v>
       </c>
       <c r="C64" t="n">
-        <v>0.601357</v>
+        <v>0.600373</v>
       </c>
       <c r="D64" t="n">
-        <v>0.598207</v>
+        <v>0.596766</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.588163</v>
+        <v>0.586354</v>
       </c>
       <c r="C65" t="n">
-        <v>0.58852</v>
+        <v>0.588067</v>
       </c>
       <c r="D65" t="n">
-        <v>0.588939</v>
+        <v>0.5874779999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.58533</v>
+        <v>0.584661</v>
       </c>
       <c r="C66" t="n">
-        <v>0.581037</v>
+        <v>0.577911</v>
       </c>
       <c r="D66" t="n">
-        <v>0.89905</v>
+        <v>0.883497</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.832309</v>
+        <v>0.815405</v>
       </c>
       <c r="C67" t="n">
-        <v>0.901798</v>
+        <v>0.885568</v>
       </c>
       <c r="D67" t="n">
-        <v>0.870321</v>
+        <v>0.855909</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.7973170000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.872496</v>
+        <v>0.858333</v>
       </c>
       <c r="D68" t="n">
-        <v>0.842491</v>
+        <v>0.830465</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7955449999999999</v>
+        <v>0.779477</v>
       </c>
       <c r="C69" t="n">
-        <v>0.847183</v>
+        <v>0.833079</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8183859999999999</v>
+        <v>0.806216</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.779246</v>
+        <v>0.761721</v>
       </c>
       <c r="C70" t="n">
-        <v>0.822997</v>
+        <v>0.808634</v>
       </c>
       <c r="D70" t="n">
-        <v>0.795241</v>
+        <v>0.782793</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.761169</v>
+        <v>0.745788</v>
       </c>
       <c r="C71" t="n">
-        <v>0.796534</v>
+        <v>0.7842750000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.770164</v>
+        <v>0.75923</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.745143</v>
+        <v>0.729328</v>
       </c>
       <c r="C72" t="n">
-        <v>0.77335</v>
+        <v>0.761266</v>
       </c>
       <c r="D72" t="n">
-        <v>0.747636</v>
+        <v>0.736911</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.729324</v>
+        <v>0.710961</v>
       </c>
       <c r="C73" t="n">
-        <v>0.751061</v>
+        <v>0.739027</v>
       </c>
       <c r="D73" t="n">
-        <v>0.727444</v>
+        <v>0.718347</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.714226</v>
+        <v>0.697719</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7300720000000001</v>
+        <v>0.719179</v>
       </c>
       <c r="D74" t="n">
-        <v>0.707641</v>
+        <v>0.697899</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.699725</v>
+        <v>0.6852240000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.711159</v>
+        <v>0.700353</v>
       </c>
       <c r="D75" t="n">
-        <v>0.68842</v>
+        <v>0.680171</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.687179</v>
+        <v>0.672891</v>
       </c>
       <c r="C76" t="n">
-        <v>0.693545</v>
+        <v>0.683092</v>
       </c>
       <c r="D76" t="n">
-        <v>0.673331</v>
+        <v>0.66492</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.675782</v>
+        <v>0.662685</v>
       </c>
       <c r="C77" t="n">
-        <v>0.675609</v>
+        <v>0.666673</v>
       </c>
       <c r="D77" t="n">
-        <v>0.657839</v>
+        <v>0.650169</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.666366</v>
+        <v>0.653922</v>
       </c>
       <c r="C78" t="n">
-        <v>0.660948</v>
+        <v>0.651829</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6449319999999999</v>
+        <v>0.6366849999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.659262</v>
+        <v>0.646787</v>
       </c>
       <c r="C79" t="n">
-        <v>0.646219</v>
+        <v>0.638861</v>
       </c>
       <c r="D79" t="n">
-        <v>0.63365</v>
+        <v>0.6247509999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.655981</v>
+        <v>0.64174</v>
       </c>
       <c r="C80" t="n">
-        <v>0.636042</v>
+        <v>0.625589</v>
       </c>
       <c r="D80" t="n">
-        <v>0.970565</v>
+        <v>0.957548</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.91146</v>
+        <v>0.892331</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9841299999999999</v>
+        <v>0.970653</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9530419999999999</v>
+        <v>0.940294</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9054489999999999</v>
+        <v>0.8863839999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.969639</v>
+        <v>0.9545090000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.933011</v>
+        <v>0.9205179999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.895732</v>
+        <v>0.876633</v>
       </c>
       <c r="C83" t="n">
-        <v>0.949291</v>
+        <v>0.936785</v>
       </c>
       <c r="D83" t="n">
-        <v>0.911825</v>
+        <v>0.899692</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.88492</v>
+        <v>0.865895</v>
       </c>
       <c r="C84" t="n">
-        <v>0.929364</v>
+        <v>0.916471</v>
       </c>
       <c r="D84" t="n">
-        <v>0.89001</v>
+        <v>0.879847</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.873351</v>
+        <v>0.856681</v>
       </c>
       <c r="C85" t="n">
-        <v>0.90826</v>
+        <v>0.894809</v>
       </c>
       <c r="D85" t="n">
-        <v>0.868026</v>
+        <v>0.8557360000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.861054</v>
+        <v>0.841964</v>
       </c>
       <c r="C86" t="n">
-        <v>0.887343</v>
+        <v>0.872488</v>
       </c>
       <c r="D86" t="n">
-        <v>0.845901</v>
+        <v>0.833519</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.847769</v>
+        <v>0.8308489999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.864534</v>
+        <v>0.851484</v>
       </c>
       <c r="D87" t="n">
-        <v>0.823827</v>
+        <v>0.813265</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.835214</v>
+        <v>0.819971</v>
       </c>
       <c r="C88" t="n">
-        <v>0.843503</v>
+        <v>0.832761</v>
       </c>
       <c r="D88" t="n">
-        <v>0.802963</v>
+        <v>0.793859</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.823082</v>
+        <v>0.809064</v>
       </c>
       <c r="C89" t="n">
-        <v>0.823848</v>
+        <v>0.813016</v>
       </c>
       <c r="D89" t="n">
-        <v>0.783565</v>
+        <v>0.775129</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.81271</v>
+        <v>0.798502</v>
       </c>
       <c r="C90" t="n">
-        <v>0.805413</v>
+        <v>0.796032</v>
       </c>
       <c r="D90" t="n">
-        <v>0.764881</v>
+        <v>0.756714</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.802557</v>
+        <v>0.788963</v>
       </c>
       <c r="C91" t="n">
-        <v>0.78845</v>
+        <v>0.7785339999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.748266</v>
+        <v>0.739642</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.794032</v>
+        <v>0.780764</v>
       </c>
       <c r="C92" t="n">
-        <v>0.771958</v>
+        <v>0.763498</v>
       </c>
       <c r="D92" t="n">
-        <v>0.732708</v>
+        <v>0.726347</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.787031</v>
+        <v>0.775292</v>
       </c>
       <c r="C93" t="n">
-        <v>0.758715</v>
+        <v>0.749207</v>
       </c>
       <c r="D93" t="n">
-        <v>0.720395</v>
+        <v>0.713359</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.782807</v>
+        <v>0.771791</v>
       </c>
       <c r="C94" t="n">
-        <v>0.746225</v>
+        <v>0.738272</v>
       </c>
       <c r="D94" t="n">
-        <v>1.06179</v>
+        <v>1.05221</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03859</v>
+        <v>1.02424</v>
       </c>
       <c r="C95" t="n">
-        <v>1.09432</v>
+        <v>1.08383</v>
       </c>
       <c r="D95" t="n">
-        <v>1.05036</v>
+        <v>1.04074</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.03874</v>
+        <v>1.02363</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08729</v>
+        <v>1.07609</v>
       </c>
       <c r="D96" t="n">
-        <v>1.03333</v>
+        <v>1.02424</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02864</v>
+        <v>1.01565</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06924</v>
+        <v>1.05957</v>
       </c>
       <c r="D97" t="n">
-        <v>1.0149</v>
+        <v>1.00609</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.01715</v>
+        <v>1.00517</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05117</v>
+        <v>1.0412</v>
       </c>
       <c r="D98" t="n">
-        <v>0.995269</v>
+        <v>0.986645</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.00599</v>
+        <v>0.993672</v>
       </c>
       <c r="C99" t="n">
-        <v>1.03267</v>
+        <v>1.0231</v>
       </c>
       <c r="D99" t="n">
-        <v>0.975811</v>
+        <v>0.968589</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.995027</v>
+        <v>0.984303</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01475</v>
+        <v>1.00507</v>
       </c>
       <c r="D100" t="n">
-        <v>0.958297</v>
+        <v>0.949005</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.985138</v>
+        <v>0.974813</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9974730000000001</v>
+        <v>0.989642</v>
       </c>
       <c r="D101" t="n">
-        <v>0.940479</v>
+        <v>0.933311</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.97549</v>
+        <v>0.966577</v>
       </c>
       <c r="C102" t="n">
-        <v>0.981389</v>
+        <v>0.974054</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9240080000000001</v>
+        <v>0.917519</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.967092</v>
+        <v>0.958422</v>
       </c>
       <c r="C103" t="n">
-        <v>0.965253</v>
+        <v>0.957364</v>
       </c>
       <c r="D103" t="n">
-        <v>0.908751</v>
+        <v>0.902023</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.959336</v>
+        <v>0.951421</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9509880000000001</v>
+        <v>0.9435170000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.894132</v>
+        <v>0.887656</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.953565</v>
+        <v>0.9455750000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.937665</v>
+        <v>0.9296450000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.880321</v>
+        <v>0.874946</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.948439</v>
+        <v>0.942057</v>
       </c>
       <c r="C106" t="n">
-        <v>0.925634</v>
+        <v>0.920086</v>
       </c>
       <c r="D106" t="n">
-        <v>0.868218</v>
+        <v>0.862625</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.945547</v>
+        <v>0.939459</v>
       </c>
       <c r="C107" t="n">
-        <v>0.914506</v>
+        <v>0.907239</v>
       </c>
       <c r="D107" t="n">
-        <v>0.857074</v>
+        <v>0.8508</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.945655</v>
+        <v>0.940831</v>
       </c>
       <c r="C108" t="n">
-        <v>0.905896</v>
+        <v>0.901692</v>
       </c>
       <c r="D108" t="n">
-        <v>1.19239</v>
+        <v>1.18735</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.948761</v>
+        <v>0.9439109999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.898752</v>
+        <v>0.892969</v>
       </c>
       <c r="D109" t="n">
-        <v>1.18451</v>
+        <v>1.17722</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19432</v>
+        <v>1.18781</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24487</v>
+        <v>1.23925</v>
       </c>
       <c r="D110" t="n">
-        <v>1.16783</v>
+        <v>1.16191</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18266</v>
+        <v>1.17641</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22733</v>
+        <v>1.22187</v>
       </c>
       <c r="D111" t="n">
-        <v>1.15096</v>
+        <v>1.14579</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16937</v>
+        <v>1.16427</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20864</v>
+        <v>1.20522</v>
       </c>
       <c r="D112" t="n">
-        <v>1.13463</v>
+        <v>1.12944</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15906</v>
+        <v>1.15315</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19166</v>
+        <v>1.1872</v>
       </c>
       <c r="D113" t="n">
-        <v>1.11983</v>
+        <v>1.11477</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14782</v>
+        <v>1.143</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17504</v>
+        <v>1.17127</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10457</v>
+        <v>1.10051</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13748</v>
+        <v>1.13262</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15733</v>
+        <v>1.1539</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09014</v>
+        <v>1.08672</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12895</v>
+        <v>1.12414</v>
       </c>
       <c r="C116" t="n">
-        <v>1.14328</v>
+        <v>1.13954</v>
       </c>
       <c r="D116" t="n">
-        <v>1.07845</v>
+        <v>1.0734</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.12051</v>
+        <v>1.11638</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13004</v>
+        <v>1.12511</v>
       </c>
       <c r="D117" t="n">
-        <v>1.06478</v>
+        <v>1.05948</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.11381</v>
+        <v>1.11005</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11686</v>
+        <v>1.1122</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05484</v>
+        <v>1.04786</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10853</v>
+        <v>1.10465</v>
       </c>
       <c r="C119" t="n">
-        <v>1.1065</v>
+        <v>1.10147</v>
       </c>
       <c r="D119" t="n">
-        <v>1.04384</v>
+        <v>1.0406</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.10435</v>
+        <v>1.10104</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09275</v>
+        <v>1.09183</v>
       </c>
       <c r="D120" t="n">
-        <v>1.033</v>
+        <v>1.02864</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10186</v>
+        <v>1.09923</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08496</v>
+        <v>1.08251</v>
       </c>
       <c r="D121" t="n">
-        <v>1.02474</v>
+        <v>1.02219</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.10294</v>
+        <v>1.10028</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07766</v>
+        <v>1.07471</v>
       </c>
       <c r="D122" t="n">
-        <v>1.01515</v>
+        <v>1.01273</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10711</v>
+        <v>1.10478</v>
       </c>
       <c r="C123" t="n">
-        <v>1.06912</v>
+        <v>1.06981</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34983</v>
+        <v>1.34832</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35524</v>
+        <v>1.35137</v>
       </c>
       <c r="C124" t="n">
-        <v>1.41514</v>
+        <v>1.41396</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33709</v>
+        <v>1.33276</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.3455</v>
+        <v>1.34246</v>
       </c>
       <c r="C125" t="n">
-        <v>1.40024</v>
+        <v>1.39699</v>
       </c>
       <c r="D125" t="n">
-        <v>1.32315</v>
+        <v>1.31955</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33687</v>
+        <v>1.33289</v>
       </c>
       <c r="C126" t="n">
-        <v>1.38498</v>
+        <v>1.38015</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31314</v>
+        <v>1.30921</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32787</v>
+        <v>1.32423</v>
       </c>
       <c r="C127" t="n">
-        <v>1.37025</v>
+        <v>1.36673</v>
       </c>
       <c r="D127" t="n">
-        <v>1.30066</v>
+        <v>1.29714</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.32009</v>
+        <v>1.31611</v>
       </c>
       <c r="C128" t="n">
-        <v>1.35391</v>
+        <v>1.35246</v>
       </c>
       <c r="D128" t="n">
-        <v>1.29039</v>
+        <v>1.28716</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31246</v>
+        <v>1.30922</v>
       </c>
       <c r="C129" t="n">
-        <v>1.34015</v>
+        <v>1.33969</v>
       </c>
       <c r="D129" t="n">
-        <v>1.28108</v>
+        <v>1.2761</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30656</v>
+        <v>1.30325</v>
       </c>
       <c r="C130" t="n">
-        <v>1.33036</v>
+        <v>1.32757</v>
       </c>
       <c r="D130" t="n">
-        <v>1.27097</v>
+        <v>1.26737</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.30139</v>
+        <v>1.2993</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31801</v>
+        <v>1.31628</v>
       </c>
       <c r="D131" t="n">
-        <v>1.25944</v>
+        <v>1.25914</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29745</v>
+        <v>1.2944</v>
       </c>
       <c r="C132" t="n">
-        <v>1.30777</v>
+        <v>1.30552</v>
       </c>
       <c r="D132" t="n">
-        <v>1.25358</v>
+        <v>1.25278</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29335</v>
+        <v>1.29199</v>
       </c>
       <c r="C133" t="n">
-        <v>1.29704</v>
+        <v>1.29562</v>
       </c>
       <c r="D133" t="n">
-        <v>1.24644</v>
+        <v>1.24325</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.29271</v>
+        <v>1.29078</v>
       </c>
       <c r="C134" t="n">
-        <v>1.28816</v>
+        <v>1.28822</v>
       </c>
       <c r="D134" t="n">
-        <v>1.23923</v>
+        <v>1.23744</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.29219</v>
+        <v>1.29107</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28299</v>
+        <v>1.28043</v>
       </c>
       <c r="D135" t="n">
-        <v>1.23277</v>
+        <v>1.22759</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.29453</v>
+        <v>1.29298</v>
       </c>
       <c r="C136" t="n">
-        <v>1.27602</v>
+        <v>1.27565</v>
       </c>
       <c r="D136" t="n">
-        <v>1.22588</v>
+        <v>1.22401</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.29826</v>
+        <v>1.2982</v>
       </c>
       <c r="C137" t="n">
-        <v>1.2704</v>
+        <v>1.26981</v>
       </c>
       <c r="D137" t="n">
-        <v>1.55466</v>
+        <v>1.55327</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54728</v>
+        <v>1.54599</v>
       </c>
       <c r="C138" t="n">
-        <v>1.61063</v>
+        <v>1.61012</v>
       </c>
       <c r="D138" t="n">
-        <v>1.54231</v>
+        <v>1.54159</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.5389</v>
+        <v>1.53798</v>
       </c>
       <c r="C139" t="n">
-        <v>1.59823</v>
+        <v>1.59879</v>
       </c>
       <c r="D139" t="n">
-        <v>1.53067</v>
+        <v>1.53087</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.5316</v>
+        <v>1.53097</v>
       </c>
       <c r="C140" t="n">
-        <v>1.58433</v>
+        <v>1.5846</v>
       </c>
       <c r="D140" t="n">
-        <v>1.52289</v>
+        <v>1.52036</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52555</v>
+        <v>1.52488</v>
       </c>
       <c r="C141" t="n">
-        <v>1.57241</v>
+        <v>1.57153</v>
       </c>
       <c r="D141" t="n">
-        <v>1.51299</v>
+        <v>1.51267</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.51915</v>
+        <v>1.51863</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56043</v>
+        <v>1.56055</v>
       </c>
       <c r="D142" t="n">
-        <v>1.50383</v>
+        <v>1.50525</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.5139</v>
+        <v>1.51482</v>
       </c>
       <c r="C143" t="n">
-        <v>1.54911</v>
+        <v>1.5502</v>
       </c>
       <c r="D143" t="n">
-        <v>1.4953</v>
+        <v>1.49785</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.588392</v>
+        <v>0.58606</v>
       </c>
       <c r="C2" t="n">
-        <v>0.578061</v>
+        <v>0.580819</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5861769999999999</v>
+        <v>0.591571</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.578061</v>
+        <v>0.576044</v>
       </c>
       <c r="C3" t="n">
-        <v>0.569098</v>
+        <v>0.571545</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5687680000000001</v>
+        <v>0.575252</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.566535</v>
+        <v>0.563551</v>
       </c>
       <c r="C4" t="n">
-        <v>0.561445</v>
+        <v>0.563634</v>
       </c>
       <c r="D4" t="n">
-        <v>0.554028</v>
+        <v>0.560187</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5558340000000001</v>
+        <v>0.552824</v>
       </c>
       <c r="C5" t="n">
-        <v>0.555183</v>
+        <v>0.557534</v>
       </c>
       <c r="D5" t="n">
-        <v>0.540075</v>
+        <v>0.546689</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.547608</v>
+        <v>0.544807</v>
       </c>
       <c r="C6" t="n">
-        <v>0.550963</v>
+        <v>0.55325</v>
       </c>
       <c r="D6" t="n">
-        <v>0.527983</v>
+        <v>0.53409</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.539991</v>
+        <v>0.53798</v>
       </c>
       <c r="C7" t="n">
-        <v>0.547251</v>
+        <v>0.549789</v>
       </c>
       <c r="D7" t="n">
-        <v>0.517586</v>
+        <v>0.5233139999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.535012</v>
+        <v>0.533</v>
       </c>
       <c r="C8" t="n">
-        <v>0.671211</v>
+        <v>0.673484</v>
       </c>
       <c r="D8" t="n">
-        <v>0.509675</v>
+        <v>0.5153180000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.535067</v>
+        <v>0.5324179999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.652656</v>
+        <v>0.655757</v>
       </c>
       <c r="D9" t="n">
-        <v>0.76756</v>
+        <v>0.773879</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.68352</v>
+        <v>0.681513</v>
       </c>
       <c r="C10" t="n">
-        <v>0.598947</v>
+        <v>0.594927</v>
       </c>
       <c r="D10" t="n">
-        <v>0.742082</v>
+        <v>0.748271</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.66276</v>
+        <v>0.661402</v>
       </c>
       <c r="C11" t="n">
-        <v>0.576344</v>
+        <v>0.58061</v>
       </c>
       <c r="D11" t="n">
-        <v>0.717915</v>
+        <v>0.723864</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6437659999999999</v>
+        <v>0.641637</v>
       </c>
       <c r="C12" t="n">
-        <v>0.562692</v>
+        <v>0.564223</v>
       </c>
       <c r="D12" t="n">
-        <v>0.69541</v>
+        <v>0.700487</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.627622</v>
+        <v>0.624649</v>
       </c>
       <c r="C13" t="n">
-        <v>0.591599</v>
+        <v>0.592522</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6745139999999999</v>
+        <v>0.679458</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.608932</v>
+        <v>0.607466</v>
       </c>
       <c r="C14" t="n">
-        <v>0.581763</v>
+        <v>0.586415</v>
       </c>
       <c r="D14" t="n">
-        <v>0.653902</v>
+        <v>0.658484</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.593522</v>
+        <v>0.591576</v>
       </c>
       <c r="C15" t="n">
-        <v>0.572284</v>
+        <v>0.573526</v>
       </c>
       <c r="D15" t="n">
-        <v>0.634197</v>
+        <v>0.6392910000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.579138</v>
+        <v>0.576954</v>
       </c>
       <c r="C16" t="n">
-        <v>0.563068</v>
+        <v>0.563393</v>
       </c>
       <c r="D16" t="n">
-        <v>0.616058</v>
+        <v>0.621082</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.566123</v>
+        <v>0.563624</v>
       </c>
       <c r="C17" t="n">
-        <v>0.554177</v>
+        <v>0.555998</v>
       </c>
       <c r="D17" t="n">
-        <v>0.599143</v>
+        <v>0.604266</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.555485</v>
+        <v>0.55163</v>
       </c>
       <c r="C18" t="n">
-        <v>0.550702</v>
+        <v>0.550024</v>
       </c>
       <c r="D18" t="n">
-        <v>0.584581</v>
+        <v>0.588588</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.54437</v>
+        <v>0.540776</v>
       </c>
       <c r="C19" t="n">
-        <v>0.548581</v>
+        <v>0.544621</v>
       </c>
       <c r="D19" t="n">
-        <v>0.570043</v>
+        <v>0.573286</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.534784</v>
+        <v>0.532205</v>
       </c>
       <c r="C20" t="n">
-        <v>0.543055</v>
+        <v>0.541184</v>
       </c>
       <c r="D20" t="n">
-        <v>0.556792</v>
+        <v>0.559907</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.528119</v>
+        <v>0.524552</v>
       </c>
       <c r="C21" t="n">
-        <v>0.540709</v>
+        <v>0.537558</v>
       </c>
       <c r="D21" t="n">
-        <v>0.545162</v>
+        <v>0.548617</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.524352</v>
+        <v>0.520593</v>
       </c>
       <c r="C22" t="n">
-        <v>0.681053</v>
+        <v>0.678209</v>
       </c>
       <c r="D22" t="n">
-        <v>0.53825</v>
+        <v>0.540755</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.523065</v>
+        <v>0.5208199999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.666489</v>
+        <v>0.660941</v>
       </c>
       <c r="D23" t="n">
-        <v>0.806115</v>
+        <v>0.811951</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7249370000000001</v>
+        <v>0.7238599999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.647832</v>
+        <v>0.64424</v>
       </c>
       <c r="D24" t="n">
-        <v>0.780841</v>
+        <v>0.786326</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.704093</v>
+        <v>0.702697</v>
       </c>
       <c r="C25" t="n">
-        <v>0.631098</v>
+        <v>0.631304</v>
       </c>
       <c r="D25" t="n">
-        <v>0.75565</v>
+        <v>0.7603529999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.683285</v>
+        <v>0.682868</v>
       </c>
       <c r="C26" t="n">
-        <v>0.618121</v>
+        <v>0.618077</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7325</v>
+        <v>0.737435</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.664212</v>
+        <v>0.663704</v>
       </c>
       <c r="C27" t="n">
-        <v>0.647387</v>
+        <v>0.645478</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7093429999999999</v>
+        <v>0.714807</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.645954</v>
+        <v>0.645057</v>
       </c>
       <c r="C28" t="n">
-        <v>0.635144</v>
+        <v>0.637342</v>
       </c>
       <c r="D28" t="n">
-        <v>0.688261</v>
+        <v>0.693041</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6285849999999999</v>
+        <v>0.627884</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6237</v>
+        <v>0.624973</v>
       </c>
       <c r="D29" t="n">
-        <v>0.667691</v>
+        <v>0.672685</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.61274</v>
+        <v>0.611876</v>
       </c>
       <c r="C30" t="n">
-        <v>0.613789</v>
+        <v>0.6137</v>
       </c>
       <c r="D30" t="n">
-        <v>0.648377</v>
+        <v>0.650788</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.598011</v>
+        <v>0.596873</v>
       </c>
       <c r="C31" t="n">
-        <v>0.605371</v>
+        <v>0.6064079999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.63027</v>
+        <v>0.6348470000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.584498</v>
+        <v>0.583363</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5971649999999999</v>
+        <v>0.596703</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6132570000000001</v>
+        <v>0.61755</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5724590000000001</v>
+        <v>0.5712469999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.592333</v>
+        <v>0.590246</v>
       </c>
       <c r="D33" t="n">
-        <v>0.597783</v>
+        <v>0.601764</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.562292</v>
+        <v>0.56062</v>
       </c>
       <c r="C34" t="n">
-        <v>0.585436</v>
+        <v>0.586058</v>
       </c>
       <c r="D34" t="n">
-        <v>0.583501</v>
+        <v>0.587607</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.553942</v>
+        <v>0.551948</v>
       </c>
       <c r="C35" t="n">
-        <v>0.582206</v>
+        <v>0.582142</v>
       </c>
       <c r="D35" t="n">
-        <v>0.571123</v>
+        <v>0.575021</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.547253</v>
+        <v>0.546004</v>
       </c>
       <c r="C36" t="n">
-        <v>0.581051</v>
+        <v>0.579538</v>
       </c>
       <c r="D36" t="n">
-        <v>0.560631</v>
+        <v>0.564146</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.544257</v>
+        <v>0.542704</v>
       </c>
       <c r="C37" t="n">
-        <v>0.746771</v>
+        <v>0.749185</v>
       </c>
       <c r="D37" t="n">
-        <v>0.840619</v>
+        <v>0.846256</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.753033</v>
+        <v>0.75117</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7286859999999999</v>
+        <v>0.728388</v>
       </c>
       <c r="D38" t="n">
-        <v>0.814415</v>
+        <v>0.819486</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.73194</v>
+        <v>0.730716</v>
       </c>
       <c r="C39" t="n">
-        <v>0.710839</v>
+        <v>0.709873</v>
       </c>
       <c r="D39" t="n">
-        <v>0.788791</v>
+        <v>0.792376</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.710072</v>
+        <v>0.709467</v>
       </c>
       <c r="C40" t="n">
-        <v>0.693808</v>
+        <v>0.693607</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7630670000000001</v>
+        <v>0.769029</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.689819</v>
+        <v>0.689052</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7201880000000001</v>
+        <v>0.71916</v>
       </c>
       <c r="D41" t="n">
-        <v>0.740185</v>
+        <v>0.743945</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6711549999999999</v>
+        <v>0.669946</v>
       </c>
       <c r="C42" t="n">
-        <v>0.704626</v>
+        <v>0.704211</v>
       </c>
       <c r="D42" t="n">
-        <v>0.717589</v>
+        <v>0.721879</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.653184</v>
+        <v>0.652586</v>
       </c>
       <c r="C43" t="n">
-        <v>0.690615</v>
+        <v>0.690907</v>
       </c>
       <c r="D43" t="n">
-        <v>0.696309</v>
+        <v>0.700888</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.636206</v>
+        <v>0.636474</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6773439999999999</v>
+        <v>0.676974</v>
       </c>
       <c r="D44" t="n">
-        <v>0.677708</v>
+        <v>0.681033</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.621465</v>
+        <v>0.620487</v>
       </c>
       <c r="C45" t="n">
-        <v>0.666256</v>
+        <v>0.665218</v>
       </c>
       <c r="D45" t="n">
-        <v>0.657435</v>
+        <v>0.662309</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6069</v>
+        <v>0.606467</v>
       </c>
       <c r="C46" t="n">
-        <v>0.655408</v>
+        <v>0.6551439999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.640884</v>
+        <v>0.644166</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.595172</v>
+        <v>0.592863</v>
       </c>
       <c r="C47" t="n">
-        <v>0.646258</v>
+        <v>0.647088</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6236</v>
+        <v>0.627992</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.583782</v>
+        <v>0.582579</v>
       </c>
       <c r="C48" t="n">
-        <v>0.639084</v>
+        <v>0.640428</v>
       </c>
       <c r="D48" t="n">
-        <v>0.607824</v>
+        <v>0.612602</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.57339</v>
+        <v>0.5732930000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.634276</v>
+        <v>0.633535</v>
       </c>
       <c r="D49" t="n">
-        <v>0.595641</v>
+        <v>0.599051</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.567367</v>
+        <v>0.566459</v>
       </c>
       <c r="C50" t="n">
-        <v>0.631616</v>
+        <v>0.629211</v>
       </c>
       <c r="D50" t="n">
-        <v>0.584744</v>
+        <v>0.58647</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.562666</v>
+        <v>0.560858</v>
       </c>
       <c r="C51" t="n">
-        <v>0.840013</v>
+        <v>0.839001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.895548</v>
+        <v>0.897752</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.561572</v>
+        <v>0.560087</v>
       </c>
       <c r="C52" t="n">
-        <v>0.816201</v>
+        <v>0.815767</v>
       </c>
       <c r="D52" t="n">
-        <v>0.867241</v>
+        <v>0.871144</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.758061</v>
+        <v>0.757271</v>
       </c>
       <c r="C53" t="n">
-        <v>0.793645</v>
+        <v>0.794001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.838813</v>
+        <v>0.846681</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.736131</v>
+        <v>0.735714</v>
       </c>
       <c r="C54" t="n">
-        <v>0.773382</v>
+        <v>0.773764</v>
       </c>
       <c r="D54" t="n">
-        <v>0.814094</v>
+        <v>0.8211540000000001</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.716633</v>
+        <v>0.716757</v>
       </c>
       <c r="C55" t="n">
-        <v>0.75431</v>
+        <v>0.754547</v>
       </c>
       <c r="D55" t="n">
-        <v>0.790172</v>
+        <v>0.7965179999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.69776</v>
+        <v>0.697417</v>
       </c>
       <c r="C56" t="n">
-        <v>0.782641</v>
+        <v>0.785891</v>
       </c>
       <c r="D56" t="n">
-        <v>0.768868</v>
+        <v>0.770813</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.68214</v>
+        <v>0.679378</v>
       </c>
       <c r="C57" t="n">
-        <v>0.767764</v>
+        <v>0.763867</v>
       </c>
       <c r="D57" t="n">
-        <v>0.748325</v>
+        <v>0.748105</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6671319999999999</v>
+        <v>0.662528</v>
       </c>
       <c r="C58" t="n">
-        <v>0.753945</v>
+        <v>0.747544</v>
       </c>
       <c r="D58" t="n">
-        <v>0.725633</v>
+        <v>0.724221</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.651159</v>
+        <v>0.64615</v>
       </c>
       <c r="C59" t="n">
-        <v>0.737946</v>
+        <v>0.7315739999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.707166</v>
+        <v>0.705655</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.637799</v>
+        <v>0.632724</v>
       </c>
       <c r="C60" t="n">
-        <v>0.721063</v>
+        <v>0.72296</v>
       </c>
       <c r="D60" t="n">
-        <v>0.685588</v>
+        <v>0.689511</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.623363</v>
+        <v>0.619727</v>
       </c>
       <c r="C61" t="n">
-        <v>0.712858</v>
+        <v>0.710612</v>
       </c>
       <c r="D61" t="n">
-        <v>0.671586</v>
+        <v>0.672709</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.613915</v>
+        <v>0.608013</v>
       </c>
       <c r="C62" t="n">
-        <v>0.702633</v>
+        <v>0.700831</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6553330000000001</v>
+        <v>0.655603</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.605257</v>
+        <v>0.597951</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6955170000000001</v>
+        <v>0.692341</v>
       </c>
       <c r="D63" t="n">
-        <v>0.642002</v>
+        <v>0.641209</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.597839</v>
+        <v>0.590212</v>
       </c>
       <c r="C64" t="n">
-        <v>0.690169</v>
+        <v>0.685953</v>
       </c>
       <c r="D64" t="n">
-        <v>0.628283</v>
+        <v>0.628221</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.588535</v>
+        <v>0.5853080000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.944287</v>
+        <v>0.946559</v>
       </c>
       <c r="D65" t="n">
-        <v>0.617881</v>
+        <v>0.6184460000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.587306</v>
+        <v>0.583533</v>
       </c>
       <c r="C66" t="n">
-        <v>0.919703</v>
+        <v>0.9174330000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.93552</v>
+        <v>0.938335</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.813273</v>
+        <v>0.814287</v>
       </c>
       <c r="C67" t="n">
-        <v>0.890442</v>
+        <v>0.892215</v>
       </c>
       <c r="D67" t="n">
-        <v>0.904608</v>
+        <v>0.912236</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.792476</v>
+        <v>0.796081</v>
       </c>
       <c r="C68" t="n">
-        <v>0.865556</v>
+        <v>0.868353</v>
       </c>
       <c r="D68" t="n">
-        <v>0.87448</v>
+        <v>0.885663</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.773479</v>
+        <v>0.779375</v>
       </c>
       <c r="C69" t="n">
-        <v>0.842693</v>
+        <v>0.845101</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8524890000000001</v>
+        <v>0.8599909999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.756749</v>
+        <v>0.762943</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8763300000000001</v>
+        <v>0.881659</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8314589999999999</v>
+        <v>0.837093</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.74338</v>
+        <v>0.746439</v>
       </c>
       <c r="C71" t="n">
-        <v>0.857564</v>
+        <v>0.861214</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8083630000000001</v>
+        <v>0.812683</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.727159</v>
+        <v>0.730165</v>
       </c>
       <c r="C72" t="n">
-        <v>0.838927</v>
+        <v>0.8434</v>
       </c>
       <c r="D72" t="n">
-        <v>0.783802</v>
+        <v>0.790646</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.712699</v>
+        <v>0.712748</v>
       </c>
       <c r="C73" t="n">
-        <v>0.820566</v>
+        <v>0.824246</v>
       </c>
       <c r="D73" t="n">
-        <v>0.76515</v>
+        <v>0.766151</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.698748</v>
+        <v>0.698209</v>
       </c>
       <c r="C74" t="n">
-        <v>0.803946</v>
+        <v>0.806783</v>
       </c>
       <c r="D74" t="n">
-        <v>0.744722</v>
+        <v>0.7489980000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.682611</v>
+        <v>0.690286</v>
       </c>
       <c r="C75" t="n">
-        <v>0.786946</v>
+        <v>0.793526</v>
       </c>
       <c r="D75" t="n">
-        <v>0.72495</v>
+        <v>0.732439</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.673085</v>
+        <v>0.676202</v>
       </c>
       <c r="C76" t="n">
-        <v>0.775715</v>
+        <v>0.77839</v>
       </c>
       <c r="D76" t="n">
-        <v>0.710129</v>
+        <v>0.713776</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.66134</v>
+        <v>0.665343</v>
       </c>
       <c r="C77" t="n">
-        <v>0.764219</v>
+        <v>0.7670709999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.692662</v>
+        <v>0.697955</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.651831</v>
+        <v>0.65546</v>
       </c>
       <c r="C78" t="n">
-        <v>0.754055</v>
+        <v>0.75805</v>
       </c>
       <c r="D78" t="n">
-        <v>0.679399</v>
+        <v>0.684361</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.64417</v>
+        <v>0.646408</v>
       </c>
       <c r="C79" t="n">
-        <v>1.04701</v>
+        <v>1.0538</v>
       </c>
       <c r="D79" t="n">
-        <v>0.668184</v>
+        <v>0.67272</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.640435</v>
+        <v>0.6438120000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>1.01444</v>
+        <v>1.02185</v>
       </c>
       <c r="D80" t="n">
-        <v>1.016</v>
+        <v>1.02327</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.886701</v>
+        <v>0.892253</v>
       </c>
       <c r="C81" t="n">
-        <v>0.984698</v>
+        <v>0.990278</v>
       </c>
       <c r="D81" t="n">
-        <v>0.995752</v>
+        <v>1.0043</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.881393</v>
+        <v>0.8857120000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.957242</v>
+        <v>0.963112</v>
       </c>
       <c r="D82" t="n">
-        <v>0.976232</v>
+        <v>0.981247</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.871799</v>
+        <v>0.8755579999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.933404</v>
+        <v>0.938016</v>
       </c>
       <c r="D83" t="n">
-        <v>0.951612</v>
+        <v>0.961049</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.860375</v>
+        <v>0.867613</v>
       </c>
       <c r="C84" t="n">
-        <v>0.981092</v>
+        <v>0.984142</v>
       </c>
       <c r="D84" t="n">
-        <v>0.933065</v>
+        <v>0.938119</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.852496</v>
+        <v>0.856074</v>
       </c>
       <c r="C85" t="n">
-        <v>0.972623</v>
+        <v>0.972334</v>
       </c>
       <c r="D85" t="n">
-        <v>0.912323</v>
+        <v>0.913004</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.842689</v>
+        <v>0.842744</v>
       </c>
       <c r="C86" t="n">
-        <v>0.957848</v>
+        <v>0.956376</v>
       </c>
       <c r="D86" t="n">
-        <v>0.889756</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8319800000000001</v>
+        <v>0.833416</v>
       </c>
       <c r="C87" t="n">
-        <v>0.935728</v>
+        <v>0.93847</v>
       </c>
       <c r="D87" t="n">
-        <v>0.867883</v>
+        <v>0.869882</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8207</v>
+        <v>0.822268</v>
       </c>
       <c r="C88" t="n">
-        <v>0.917803</v>
+        <v>0.918655</v>
       </c>
       <c r="D88" t="n">
-        <v>0.846949</v>
+        <v>0.849436</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.809768</v>
+        <v>0.81129</v>
       </c>
       <c r="C89" t="n">
-        <v>0.899896</v>
+        <v>0.900018</v>
       </c>
       <c r="D89" t="n">
-        <v>0.826728</v>
+        <v>0.827843</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.799431</v>
+        <v>0.80055</v>
       </c>
       <c r="C90" t="n">
-        <v>0.882825</v>
+        <v>0.8838009999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.808106</v>
+        <v>0.8102780000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.78916</v>
+        <v>0.790913</v>
       </c>
       <c r="C91" t="n">
-        <v>0.867502</v>
+        <v>0.869061</v>
       </c>
       <c r="D91" t="n">
-        <v>0.788618</v>
+        <v>0.792206</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.782325</v>
+        <v>0.782621</v>
       </c>
       <c r="C92" t="n">
-        <v>0.854955</v>
+        <v>0.855612</v>
       </c>
       <c r="D92" t="n">
-        <v>0.772714</v>
+        <v>0.775654</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.772394</v>
+        <v>0.776316</v>
       </c>
       <c r="C93" t="n">
-        <v>0.845326</v>
+        <v>0.844129</v>
       </c>
       <c r="D93" t="n">
-        <v>0.761991</v>
+        <v>0.762234</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.772657</v>
+        <v>0.7733</v>
       </c>
       <c r="C94" t="n">
-        <v>1.21762</v>
+        <v>1.21888</v>
       </c>
       <c r="D94" t="n">
-        <v>1.11054</v>
+        <v>1.11984</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.02555</v>
+        <v>1.02573</v>
       </c>
       <c r="C95" t="n">
-        <v>1.1909</v>
+        <v>1.18712</v>
       </c>
       <c r="D95" t="n">
-        <v>1.1009</v>
+        <v>1.10588</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02474</v>
+        <v>1.02658</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15904</v>
+        <v>1.15846</v>
       </c>
       <c r="D96" t="n">
-        <v>1.08511</v>
+        <v>1.08781</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.01515</v>
+        <v>1.0178</v>
       </c>
       <c r="C97" t="n">
-        <v>1.13394</v>
+        <v>1.13258</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06396</v>
+        <v>1.06692</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0056</v>
+        <v>1.00786</v>
       </c>
       <c r="C98" t="n">
-        <v>1.17369</v>
+        <v>1.17221</v>
       </c>
       <c r="D98" t="n">
-        <v>1.04153</v>
+        <v>1.04609</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.99358</v>
+        <v>0.99751</v>
       </c>
       <c r="C99" t="n">
-        <v>1.1549</v>
+        <v>1.15686</v>
       </c>
       <c r="D99" t="n">
-        <v>1.01778</v>
+        <v>1.02596</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.983616</v>
+        <v>0.987229</v>
       </c>
       <c r="C100" t="n">
-        <v>1.13487</v>
+        <v>1.13714</v>
       </c>
       <c r="D100" t="n">
-        <v>0.996089</v>
+        <v>1.00608</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.974612</v>
+        <v>0.9783500000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>1.10968</v>
+        <v>1.11633</v>
       </c>
       <c r="D101" t="n">
-        <v>0.977376</v>
+        <v>0.986818</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.966882</v>
+        <v>0.969819</v>
       </c>
       <c r="C102" t="n">
-        <v>1.09571</v>
+        <v>1.09698</v>
       </c>
       <c r="D102" t="n">
-        <v>0.959903</v>
+        <v>0.96856</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.958468</v>
+        <v>0.962249</v>
       </c>
       <c r="C103" t="n">
-        <v>1.07901</v>
+        <v>1.07713</v>
       </c>
       <c r="D103" t="n">
-        <v>0.943066</v>
+        <v>0.951087</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.95137</v>
+        <v>0.954773</v>
       </c>
       <c r="C104" t="n">
-        <v>1.06214</v>
+        <v>1.0603</v>
       </c>
       <c r="D104" t="n">
-        <v>0.927211</v>
+        <v>0.935446</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.945541</v>
+        <v>0.9498450000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04908</v>
+        <v>1.04416</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9144679999999999</v>
+        <v>0.920981</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.941453</v>
+        <v>0.944531</v>
       </c>
       <c r="C106" t="n">
-        <v>1.03427</v>
+        <v>1.03126</v>
       </c>
       <c r="D106" t="n">
-        <v>0.901204</v>
+        <v>0.9069430000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.940576</v>
+        <v>0.94249</v>
       </c>
       <c r="C107" t="n">
-        <v>1.02288</v>
+        <v>1.02412</v>
       </c>
       <c r="D107" t="n">
-        <v>0.891945</v>
+        <v>0.895622</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.939706</v>
+        <v>0.942638</v>
       </c>
       <c r="C108" t="n">
-        <v>1.49455</v>
+        <v>1.51158</v>
       </c>
       <c r="D108" t="n">
-        <v>1.24593</v>
+        <v>1.24827</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9440460000000001</v>
+        <v>0.944897</v>
       </c>
       <c r="C109" t="n">
-        <v>1.47929</v>
+        <v>1.47289</v>
       </c>
       <c r="D109" t="n">
-        <v>1.2301</v>
+        <v>1.23797</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18592</v>
+        <v>1.18937</v>
       </c>
       <c r="C110" t="n">
-        <v>1.44348</v>
+        <v>1.44464</v>
       </c>
       <c r="D110" t="n">
-        <v>1.21699</v>
+        <v>1.21928</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.1754</v>
+        <v>1.17765</v>
       </c>
       <c r="C111" t="n">
-        <v>1.41559</v>
+        <v>1.41347</v>
       </c>
       <c r="D111" t="n">
-        <v>1.19543</v>
+        <v>1.20071</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16452</v>
+        <v>1.16682</v>
       </c>
       <c r="C112" t="n">
-        <v>1.43459</v>
+        <v>1.44634</v>
       </c>
       <c r="D112" t="n">
-        <v>1.18093</v>
+        <v>1.18043</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15277</v>
+        <v>1.15592</v>
       </c>
       <c r="C113" t="n">
-        <v>1.41957</v>
+        <v>1.41734</v>
       </c>
       <c r="D113" t="n">
-        <v>1.16246</v>
+        <v>1.16489</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14206</v>
+        <v>1.14486</v>
       </c>
       <c r="C114" t="n">
-        <v>1.38101</v>
+        <v>1.39361</v>
       </c>
       <c r="D114" t="n">
-        <v>1.14046</v>
+        <v>1.15014</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13231</v>
+        <v>1.13642</v>
       </c>
       <c r="C115" t="n">
-        <v>1.36153</v>
+        <v>1.36863</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12812</v>
+        <v>1.13215</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12383</v>
+        <v>1.12696</v>
       </c>
       <c r="C116" t="n">
-        <v>1.3369</v>
+        <v>1.34657</v>
       </c>
       <c r="D116" t="n">
-        <v>1.11133</v>
+        <v>1.1191</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.11702</v>
+        <v>1.11941</v>
       </c>
       <c r="C117" t="n">
-        <v>1.32412</v>
+        <v>1.32825</v>
       </c>
       <c r="D117" t="n">
-        <v>1.09789</v>
+        <v>1.10675</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.11069</v>
+        <v>1.11254</v>
       </c>
       <c r="C118" t="n">
-        <v>1.30931</v>
+        <v>1.3122</v>
       </c>
       <c r="D118" t="n">
-        <v>1.08512</v>
+        <v>1.09099</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.10455</v>
+        <v>1.10708</v>
       </c>
       <c r="C119" t="n">
-        <v>1.29444</v>
+        <v>1.29864</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08034</v>
+        <v>1.08261</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.10102</v>
+        <v>1.1046</v>
       </c>
       <c r="C120" t="n">
-        <v>1.29306</v>
+        <v>1.29364</v>
       </c>
       <c r="D120" t="n">
-        <v>1.06587</v>
+        <v>1.07109</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09952</v>
+        <v>1.10288</v>
       </c>
       <c r="C121" t="n">
-        <v>1.28766</v>
+        <v>1.291</v>
       </c>
       <c r="D121" t="n">
-        <v>1.05203</v>
+        <v>1.05987</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.1</v>
+        <v>1.10392</v>
       </c>
       <c r="C122" t="n">
-        <v>1.83749</v>
+        <v>1.83995</v>
       </c>
       <c r="D122" t="n">
-        <v>1.04812</v>
+        <v>1.05286</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10486</v>
+        <v>1.10814</v>
       </c>
       <c r="C123" t="n">
-        <v>1.79528</v>
+        <v>1.79726</v>
       </c>
       <c r="D123" t="n">
-        <v>1.39966</v>
+        <v>1.40651</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.35193</v>
+        <v>1.35605</v>
       </c>
       <c r="C124" t="n">
-        <v>1.74262</v>
+        <v>1.7479</v>
       </c>
       <c r="D124" t="n">
-        <v>1.38562</v>
+        <v>1.39065</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.34305</v>
+        <v>1.3468</v>
       </c>
       <c r="C125" t="n">
-        <v>1.70259</v>
+        <v>1.70833</v>
       </c>
       <c r="D125" t="n">
-        <v>1.37211</v>
+        <v>1.37316</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33342</v>
+        <v>1.33767</v>
       </c>
       <c r="C126" t="n">
-        <v>1.66822</v>
+        <v>1.67596</v>
       </c>
       <c r="D126" t="n">
-        <v>1.35802</v>
+        <v>1.36182</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32573</v>
+        <v>1.32923</v>
       </c>
       <c r="C127" t="n">
-        <v>1.68817</v>
+        <v>1.69131</v>
       </c>
       <c r="D127" t="n">
-        <v>1.34433</v>
+        <v>1.34604</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31933</v>
+        <v>1.32251</v>
       </c>
       <c r="C128" t="n">
-        <v>1.64828</v>
+        <v>1.65395</v>
       </c>
       <c r="D128" t="n">
-        <v>1.33313</v>
+        <v>1.3368</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31222</v>
+        <v>1.31559</v>
       </c>
       <c r="C129" t="n">
-        <v>1.61326</v>
+        <v>1.61999</v>
       </c>
       <c r="D129" t="n">
-        <v>1.3214</v>
+        <v>1.32617</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.3061</v>
+        <v>1.30947</v>
       </c>
       <c r="C130" t="n">
-        <v>1.58518</v>
+        <v>1.59166</v>
       </c>
       <c r="D130" t="n">
-        <v>1.3039</v>
+        <v>1.31355</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.30159</v>
+        <v>1.30534</v>
       </c>
       <c r="C131" t="n">
-        <v>1.56667</v>
+        <v>1.56322</v>
       </c>
       <c r="D131" t="n">
-        <v>1.29311</v>
+        <v>1.30372</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29741</v>
+        <v>1.30104</v>
       </c>
       <c r="C132" t="n">
-        <v>1.53775</v>
+        <v>1.54547</v>
       </c>
       <c r="D132" t="n">
-        <v>1.291</v>
+        <v>1.29366</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29547</v>
+        <v>1.29869</v>
       </c>
       <c r="C133" t="n">
-        <v>1.52652</v>
+        <v>1.53088</v>
       </c>
       <c r="D133" t="n">
-        <v>1.28381</v>
+        <v>1.28533</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.29487</v>
+        <v>1.29668</v>
       </c>
       <c r="C134" t="n">
-        <v>1.52323</v>
+        <v>1.52274</v>
       </c>
       <c r="D134" t="n">
-        <v>1.27484</v>
+        <v>1.27514</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.2952</v>
+        <v>1.29744</v>
       </c>
       <c r="C135" t="n">
-        <v>1.50602</v>
+        <v>1.51646</v>
       </c>
       <c r="D135" t="n">
-        <v>1.2689</v>
+        <v>1.26972</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.2977</v>
+        <v>1.29984</v>
       </c>
       <c r="C136" t="n">
-        <v>2.09981</v>
+        <v>2.10131</v>
       </c>
       <c r="D136" t="n">
-        <v>1.26004</v>
+        <v>1.26173</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.30289</v>
+        <v>1.30473</v>
       </c>
       <c r="C137" t="n">
-        <v>2.04564</v>
+        <v>2.04913</v>
       </c>
       <c r="D137" t="n">
-        <v>1.60949</v>
+        <v>1.61269</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54762</v>
+        <v>1.55355</v>
       </c>
       <c r="C138" t="n">
-        <v>1.98992</v>
+        <v>1.99638</v>
       </c>
       <c r="D138" t="n">
-        <v>1.59193</v>
+        <v>1.59929</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.54132</v>
+        <v>1.54605</v>
       </c>
       <c r="C139" t="n">
-        <v>1.94095</v>
+        <v>1.94861</v>
       </c>
       <c r="D139" t="n">
-        <v>1.58158</v>
+        <v>1.58703</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.53478</v>
+        <v>1.53826</v>
       </c>
       <c r="C140" t="n">
-        <v>1.89362</v>
+        <v>1.89781</v>
       </c>
       <c r="D140" t="n">
-        <v>1.57203</v>
+        <v>1.57602</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52937</v>
+        <v>1.532</v>
       </c>
       <c r="C141" t="n">
-        <v>1.90344</v>
+        <v>1.90879</v>
       </c>
       <c r="D141" t="n">
-        <v>1.56001</v>
+        <v>1.56365</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.5231</v>
+        <v>1.52689</v>
       </c>
       <c r="C142" t="n">
-        <v>1.85693</v>
+        <v>1.86053</v>
       </c>
       <c r="D142" t="n">
-        <v>1.54825</v>
+        <v>1.55535</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.5167</v>
+        <v>1.5225</v>
       </c>
       <c r="C143" t="n">
-        <v>1.82071</v>
+        <v>1.82379</v>
       </c>
       <c r="D143" t="n">
-        <v>1.54028</v>
+        <v>1.54577</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running insertion.xlsx
+++ b/gcc-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575863</v>
+        <v>0.57613</v>
       </c>
       <c r="C2" t="n">
-        <v>0.591269</v>
+        <v>0.591707</v>
       </c>
       <c r="D2" t="n">
-        <v>0.587851</v>
+        <v>0.58824</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.562956</v>
+        <v>0.563127</v>
       </c>
       <c r="C3" t="n">
-        <v>0.574081</v>
+        <v>0.574254</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5706639999999999</v>
+        <v>0.570314</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.551359</v>
+        <v>0.551378</v>
       </c>
       <c r="C4" t="n">
-        <v>0.557472</v>
+        <v>0.557331</v>
       </c>
       <c r="D4" t="n">
-        <v>0.555193</v>
+        <v>0.555195</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.541116</v>
+        <v>0.541755</v>
       </c>
       <c r="C5" t="n">
-        <v>0.542414</v>
+        <v>0.542042</v>
       </c>
       <c r="D5" t="n">
-        <v>0.541616</v>
+        <v>0.54174</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.532595</v>
+        <v>0.532715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.528915</v>
+        <v>0.528336</v>
       </c>
       <c r="D6" t="n">
-        <v>0.530668</v>
+        <v>0.529112</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.525993</v>
+        <v>0.526549</v>
       </c>
       <c r="C7" t="n">
-        <v>0.516275</v>
+        <v>0.516164</v>
       </c>
       <c r="D7" t="n">
-        <v>0.519802</v>
+        <v>0.518375</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.522234</v>
+        <v>0.522992</v>
       </c>
       <c r="C8" t="n">
-        <v>0.506417</v>
+        <v>0.506126</v>
       </c>
       <c r="D8" t="n">
-        <v>0.511975</v>
+        <v>0.511352</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.522607</v>
+        <v>0.52316</v>
       </c>
       <c r="C9" t="n">
-        <v>0.497608</v>
+        <v>0.49763</v>
       </c>
       <c r="D9" t="n">
-        <v>0.775791</v>
+        <v>0.774684</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.670697</v>
+        <v>0.675593</v>
       </c>
       <c r="C10" t="n">
-        <v>0.728421</v>
+        <v>0.729268</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7500559999999999</v>
+        <v>0.749179</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.651961</v>
+        <v>0.653188</v>
       </c>
       <c r="C11" t="n">
-        <v>0.705047</v>
+        <v>0.705422</v>
       </c>
       <c r="D11" t="n">
-        <v>0.725801</v>
+        <v>0.725083</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.63303</v>
+        <v>0.63326</v>
       </c>
       <c r="C12" t="n">
-        <v>0.681761</v>
+        <v>0.682445</v>
       </c>
       <c r="D12" t="n">
-        <v>0.702582</v>
+        <v>0.701983</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.615689</v>
+        <v>0.616071</v>
       </c>
       <c r="C13" t="n">
-        <v>0.659826</v>
+        <v>0.660501</v>
       </c>
       <c r="D13" t="n">
-        <v>0.68101</v>
+        <v>0.6801160000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.599519</v>
+        <v>0.59963</v>
       </c>
       <c r="C14" t="n">
-        <v>0.639022</v>
+        <v>0.639547</v>
       </c>
       <c r="D14" t="n">
-        <v>0.660128</v>
+        <v>0.659324</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5842889999999999</v>
+        <v>0.585126</v>
       </c>
       <c r="C15" t="n">
-        <v>0.619378</v>
+        <v>0.619964</v>
       </c>
       <c r="D15" t="n">
-        <v>0.639736</v>
+        <v>0.639261</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5702390000000001</v>
+        <v>0.570254</v>
       </c>
       <c r="C16" t="n">
-        <v>0.601209</v>
+        <v>0.601518</v>
       </c>
       <c r="D16" t="n">
-        <v>0.621143</v>
+        <v>0.620581</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5572319999999999</v>
+        <v>0.557846</v>
       </c>
       <c r="C17" t="n">
-        <v>0.583727</v>
+        <v>0.584233</v>
       </c>
       <c r="D17" t="n">
-        <v>0.603782</v>
+        <v>0.6030489999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.546045</v>
+        <v>0.546331</v>
       </c>
       <c r="C18" t="n">
-        <v>0.567239</v>
+        <v>0.5678029999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.586786</v>
+        <v>0.586963</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.53504</v>
+        <v>0.5353869999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.551965</v>
+        <v>0.552291</v>
       </c>
       <c r="D19" t="n">
-        <v>0.57159</v>
+        <v>0.571318</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.526293</v>
+        <v>0.526881</v>
       </c>
       <c r="C20" t="n">
-        <v>0.538006</v>
+        <v>0.538135</v>
       </c>
       <c r="D20" t="n">
-        <v>0.557576</v>
+        <v>0.557386</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.519412</v>
+        <v>0.519822</v>
       </c>
       <c r="C21" t="n">
-        <v>0.524966</v>
+        <v>0.525098</v>
       </c>
       <c r="D21" t="n">
-        <v>0.545424</v>
+        <v>0.545309</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.514924</v>
+        <v>0.515221</v>
       </c>
       <c r="C22" t="n">
-        <v>0.513846</v>
+        <v>0.5143489999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.536955</v>
+        <v>0.5362209999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.514442</v>
+        <v>0.51474</v>
       </c>
       <c r="C23" t="n">
-        <v>0.505424</v>
+        <v>0.505607</v>
       </c>
       <c r="D23" t="n">
-        <v>0.808971</v>
+        <v>0.809204</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.718427</v>
+        <v>0.718155</v>
       </c>
       <c r="C24" t="n">
-        <v>0.784347</v>
+        <v>0.784178</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7830549999999999</v>
+        <v>0.782102</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.697584</v>
+        <v>0.697527</v>
       </c>
       <c r="C25" t="n">
-        <v>0.75846</v>
+        <v>0.758324</v>
       </c>
       <c r="D25" t="n">
-        <v>0.757522</v>
+        <v>0.756437</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6774790000000001</v>
+        <v>0.6774</v>
       </c>
       <c r="C26" t="n">
-        <v>0.733251</v>
+        <v>0.733872</v>
       </c>
       <c r="D26" t="n">
-        <v>0.733139</v>
+        <v>0.732074</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.658555</v>
+        <v>0.658303</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7106479999999999</v>
+        <v>0.710375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.710037</v>
+        <v>0.709081</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.640288</v>
+        <v>0.640583</v>
       </c>
       <c r="C28" t="n">
-        <v>0.687491</v>
+        <v>0.687629</v>
       </c>
       <c r="D28" t="n">
-        <v>0.687569</v>
+        <v>0.686863</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.623133</v>
+        <v>0.623842</v>
       </c>
       <c r="C29" t="n">
-        <v>0.666011</v>
+        <v>0.6659119999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.666825</v>
+        <v>0.666035</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.60794</v>
+        <v>0.608033</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6457850000000001</v>
+        <v>0.646006</v>
       </c>
       <c r="D30" t="n">
-        <v>0.647219</v>
+        <v>0.646284</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.593258</v>
+        <v>0.59338</v>
       </c>
       <c r="C31" t="n">
-        <v>0.626254</v>
+        <v>0.626118</v>
       </c>
       <c r="D31" t="n">
-        <v>0.628416</v>
+        <v>0.627467</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.580184</v>
+        <v>0.5800070000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.608079</v>
+        <v>0.607907</v>
       </c>
       <c r="D32" t="n">
-        <v>0.611199</v>
+        <v>0.609882</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.568372</v>
+        <v>0.568026</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5911149999999999</v>
+        <v>0.591152</v>
       </c>
       <c r="D33" t="n">
-        <v>0.594757</v>
+        <v>0.594008</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5581930000000001</v>
+        <v>0.557515</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5753740000000001</v>
+        <v>0.575317</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5801190000000001</v>
+        <v>0.579303</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.549193</v>
+        <v>0.5492359999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.560931</v>
+        <v>0.561056</v>
       </c>
       <c r="D35" t="n">
-        <v>0.567198</v>
+        <v>0.566419</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5431280000000001</v>
+        <v>0.542778</v>
       </c>
       <c r="C36" t="n">
-        <v>0.548319</v>
+        <v>0.547929</v>
       </c>
       <c r="D36" t="n">
-        <v>0.556994</v>
+        <v>0.556067</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.539625</v>
+        <v>0.539305</v>
       </c>
       <c r="C37" t="n">
-        <v>0.538018</v>
+        <v>0.537969</v>
       </c>
       <c r="D37" t="n">
-        <v>0.835931</v>
+        <v>0.836812</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.749507</v>
+        <v>0.749125</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8197410000000001</v>
+        <v>0.819577</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8086100000000001</v>
+        <v>0.808585</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.728302</v>
+        <v>0.728464</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7934639999999999</v>
+        <v>0.79349</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7825299999999999</v>
+        <v>0.782292</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.707205</v>
+        <v>0.7063469999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.76756</v>
+        <v>0.7674029999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.756474</v>
+        <v>0.756799</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6873089999999999</v>
+        <v>0.686667</v>
       </c>
       <c r="C41" t="n">
-        <v>0.743007</v>
+        <v>0.742904</v>
       </c>
       <c r="D41" t="n">
-        <v>0.732957</v>
+        <v>0.732788</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.668387</v>
+        <v>0.667389</v>
       </c>
       <c r="C42" t="n">
-        <v>0.719581</v>
+        <v>0.719013</v>
       </c>
       <c r="D42" t="n">
-        <v>0.709463</v>
+        <v>0.709998</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6511</v>
+        <v>0.649543</v>
       </c>
       <c r="C43" t="n">
-        <v>0.696654</v>
+        <v>0.696268</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6883049999999999</v>
+        <v>0.687697</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.634526</v>
+        <v>0.633556</v>
       </c>
       <c r="C44" t="n">
-        <v>0.675636</v>
+        <v>0.674963</v>
       </c>
       <c r="D44" t="n">
-        <v>0.668538</v>
+        <v>0.66759</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.619316</v>
+        <v>0.618287</v>
       </c>
       <c r="C45" t="n">
-        <v>0.655863</v>
+        <v>0.654867</v>
       </c>
       <c r="D45" t="n">
-        <v>0.649262</v>
+        <v>0.647736</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.60532</v>
+        <v>0.604073</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6371599999999999</v>
+        <v>0.63581</v>
       </c>
       <c r="D46" t="n">
-        <v>0.631603</v>
+        <v>0.62984</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.59275</v>
+        <v>0.5904740000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.619389</v>
+        <v>0.618213</v>
       </c>
       <c r="D47" t="n">
-        <v>0.614962</v>
+        <v>0.61339</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.581759</v>
+        <v>0.580848</v>
       </c>
       <c r="C48" t="n">
-        <v>0.602866</v>
+        <v>0.602044</v>
       </c>
       <c r="D48" t="n">
-        <v>0.598939</v>
+        <v>0.5986629999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.572512</v>
+        <v>0.570636</v>
       </c>
       <c r="C49" t="n">
-        <v>0.588508</v>
+        <v>0.586384</v>
       </c>
       <c r="D49" t="n">
-        <v>0.586043</v>
+        <v>0.584956</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.565753</v>
+        <v>0.563273</v>
       </c>
       <c r="C50" t="n">
-        <v>0.574531</v>
+        <v>0.572159</v>
       </c>
       <c r="D50" t="n">
-        <v>0.574446</v>
+        <v>0.573217</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.561639</v>
+        <v>0.5584170000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.563137</v>
+        <v>0.561949</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8608710000000001</v>
+        <v>0.864231</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.560169</v>
+        <v>0.558283</v>
       </c>
       <c r="C52" t="n">
-        <v>0.554127</v>
+        <v>0.553002</v>
       </c>
       <c r="D52" t="n">
-        <v>0.833605</v>
+        <v>0.838152</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.757293</v>
+        <v>0.757004</v>
       </c>
       <c r="C53" t="n">
-        <v>0.824231</v>
+        <v>0.824519</v>
       </c>
       <c r="D53" t="n">
-        <v>0.808097</v>
+        <v>0.808804</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.737287</v>
+        <v>0.73519</v>
       </c>
       <c r="C54" t="n">
-        <v>0.799003</v>
+        <v>0.798228</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7833</v>
+        <v>0.783555</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.717264</v>
+        <v>0.715098</v>
       </c>
       <c r="C55" t="n">
-        <v>0.772689</v>
+        <v>0.771878</v>
       </c>
       <c r="D55" t="n">
-        <v>0.75896</v>
+        <v>0.759175</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6982350000000001</v>
+        <v>0.696086</v>
       </c>
       <c r="C56" t="n">
-        <v>0.748652</v>
+        <v>0.748208</v>
       </c>
       <c r="D56" t="n">
-        <v>0.735745</v>
+        <v>0.736029</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.680627</v>
+        <v>0.678238</v>
       </c>
       <c r="C57" t="n">
-        <v>0.725905</v>
+        <v>0.725665</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7142269999999999</v>
+        <v>0.714002</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.663327</v>
+        <v>0.661687</v>
       </c>
       <c r="C58" t="n">
-        <v>0.705036</v>
+        <v>0.705271</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6943049999999999</v>
+        <v>0.694873</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6471</v>
+        <v>0.648763</v>
       </c>
       <c r="C59" t="n">
-        <v>0.684083</v>
+        <v>0.685879</v>
       </c>
       <c r="D59" t="n">
-        <v>0.673882</v>
+        <v>0.67492</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6326889999999999</v>
+        <v>0.630593</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6646570000000001</v>
+        <v>0.662694</v>
       </c>
       <c r="D60" t="n">
-        <v>0.655443</v>
+        <v>0.655668</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.619849</v>
+        <v>0.618013</v>
       </c>
       <c r="C61" t="n">
-        <v>0.645929</v>
+        <v>0.645988</v>
       </c>
       <c r="D61" t="n">
-        <v>0.638843</v>
+        <v>0.638948</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.609165</v>
+        <v>0.607333</v>
       </c>
       <c r="C62" t="n">
-        <v>0.630158</v>
+        <v>0.628731</v>
       </c>
       <c r="D62" t="n">
-        <v>0.623534</v>
+        <v>0.622907</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5991340000000001</v>
+        <v>0.597217</v>
       </c>
       <c r="C63" t="n">
-        <v>0.614558</v>
+        <v>0.6129869999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.608692</v>
+        <v>0.609501</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.591449</v>
+        <v>0.589796</v>
       </c>
       <c r="C64" t="n">
-        <v>0.600373</v>
+        <v>0.599109</v>
       </c>
       <c r="D64" t="n">
-        <v>0.596766</v>
+        <v>0.597065</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.586354</v>
+        <v>0.58545</v>
       </c>
       <c r="C65" t="n">
-        <v>0.588067</v>
+        <v>0.586808</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5874779999999999</v>
+        <v>0.587799</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.584661</v>
+        <v>0.582116</v>
       </c>
       <c r="C66" t="n">
-        <v>0.577911</v>
+        <v>0.57755</v>
       </c>
       <c r="D66" t="n">
-        <v>0.883497</v>
+        <v>0.893388</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.815405</v>
+        <v>0.820899</v>
       </c>
       <c r="C67" t="n">
-        <v>0.885568</v>
+        <v>0.892798</v>
       </c>
       <c r="D67" t="n">
-        <v>0.855909</v>
+        <v>0.865824</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7973170000000001</v>
+        <v>0.803644</v>
       </c>
       <c r="C68" t="n">
-        <v>0.858333</v>
+        <v>0.865838</v>
       </c>
       <c r="D68" t="n">
-        <v>0.830465</v>
+        <v>0.840421</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.779477</v>
+        <v>0.787722</v>
       </c>
       <c r="C69" t="n">
-        <v>0.833079</v>
+        <v>0.840048</v>
       </c>
       <c r="D69" t="n">
-        <v>0.806216</v>
+        <v>0.812868</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.761721</v>
+        <v>0.770211</v>
       </c>
       <c r="C70" t="n">
-        <v>0.808634</v>
+        <v>0.815981</v>
       </c>
       <c r="D70" t="n">
-        <v>0.782793</v>
+        <v>0.789536</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.745788</v>
+        <v>0.7536620000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7842750000000001</v>
+        <v>0.792502</v>
       </c>
       <c r="D71" t="n">
-        <v>0.75923</v>
+        <v>0.767354</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.729328</v>
+        <v>0.739655</v>
       </c>
       <c r="C72" t="n">
-        <v>0.761266</v>
+        <v>0.770692</v>
       </c>
       <c r="D72" t="n">
-        <v>0.736911</v>
+        <v>0.7481640000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.710961</v>
+        <v>0.725328</v>
       </c>
       <c r="C73" t="n">
-        <v>0.739027</v>
+        <v>0.7484690000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.718347</v>
+        <v>0.724267</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.697719</v>
+        <v>0.704966</v>
       </c>
       <c r="C74" t="n">
-        <v>0.719179</v>
+        <v>0.724869</v>
       </c>
       <c r="D74" t="n">
-        <v>0.697899</v>
+        <v>0.7036790000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6852240000000001</v>
+        <v>0.69308</v>
       </c>
       <c r="C75" t="n">
-        <v>0.700353</v>
+        <v>0.704697</v>
       </c>
       <c r="D75" t="n">
-        <v>0.680171</v>
+        <v>0.688796</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.672891</v>
+        <v>0.684508</v>
       </c>
       <c r="C76" t="n">
-        <v>0.683092</v>
+        <v>0.69187</v>
       </c>
       <c r="D76" t="n">
-        <v>0.66492</v>
+        <v>0.673173</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.662685</v>
+        <v>0.673801</v>
       </c>
       <c r="C77" t="n">
-        <v>0.666673</v>
+        <v>0.676254</v>
       </c>
       <c r="D77" t="n">
-        <v>0.650169</v>
+        <v>0.658393</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.653922</v>
+        <v>0.663172</v>
       </c>
       <c r="C78" t="n">
-        <v>0.651829</v>
+        <v>0.657933</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6366849999999999</v>
+        <v>0.644522</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.646787</v>
+        <v>0.657733</v>
       </c>
       <c r="C79" t="n">
-        <v>0.638861</v>
+        <v>0.64416</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6247509999999999</v>
+        <v>0.633036</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.64174</v>
+        <v>0.654255</v>
       </c>
       <c r="C80" t="n">
-        <v>0.625589</v>
+        <v>0.633859</v>
       </c>
       <c r="D80" t="n">
-        <v>0.957548</v>
+        <v>0.976091</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.892331</v>
+        <v>0.9076689999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.970653</v>
+        <v>0.988588</v>
       </c>
       <c r="D81" t="n">
-        <v>0.940294</v>
+        <v>0.958523</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8863839999999999</v>
+        <v>0.904016</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9545090000000001</v>
+        <v>0.975606</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9205179999999999</v>
+        <v>0.940876</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.876633</v>
+        <v>0.895188</v>
       </c>
       <c r="C83" t="n">
-        <v>0.936785</v>
+        <v>0.956785</v>
       </c>
       <c r="D83" t="n">
-        <v>0.899692</v>
+        <v>0.917952</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.865895</v>
+        <v>0.88426</v>
       </c>
       <c r="C84" t="n">
-        <v>0.916471</v>
+        <v>0.9368649999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.879847</v>
+        <v>0.89813</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.856681</v>
+        <v>0.875283</v>
       </c>
       <c r="C85" t="n">
-        <v>0.894809</v>
+        <v>0.915777</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8557360000000001</v>
+        <v>0.875901</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.841964</v>
+        <v>0.863926</v>
       </c>
       <c r="C86" t="n">
-        <v>0.872488</v>
+        <v>0.894962</v>
       </c>
       <c r="D86" t="n">
-        <v>0.833519</v>
+        <v>0.8551299999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8308489999999999</v>
+        <v>0.8547</v>
       </c>
       <c r="C87" t="n">
-        <v>0.851484</v>
+        <v>0.874893</v>
       </c>
       <c r="D87" t="n">
-        <v>0.813265</v>
+        <v>0.834192</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.819971</v>
+        <v>0.843827</v>
       </c>
       <c r="C88" t="n">
-        <v>0.832761</v>
+        <v>0.855508</v>
       </c>
       <c r="D88" t="n">
-        <v>0.793859</v>
+        <v>0.814419</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.809064</v>
+        <v>0.8326519999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.813016</v>
+        <v>0.833212</v>
       </c>
       <c r="D89" t="n">
-        <v>0.775129</v>
+        <v>0.790104</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.798502</v>
+        <v>0.819052</v>
       </c>
       <c r="C90" t="n">
-  